--- a/Excel/镇魂街/basicInfo.基础信息.xlsx
+++ b/Excel/镇魂街/basicInfo.基础信息.xlsx
@@ -1,28 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WORK\CeHua\trunk\ZHJStaffSpace\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ZHJ_PROJECT\ZHJStaffSpace\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A149C3-740C-4FAE-9E4E-DE087FB26BE6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
     <sheet name="队伍经验" sheetId="26" r:id="rId2"/>
     <sheet name="服务端信息" sheetId="27" r:id="rId3"/>
     <sheet name="resource_bar" sheetId="28" r:id="rId4"/>
+    <sheet name="公告" sheetId="29" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="234">
   <si>
     <t>sheet名</t>
   </si>
@@ -303,6 +305,12 @@
   </si>
   <si>
     <t>货币兑换次数不足</t>
+  </si>
+  <si>
+    <t>no_msg</t>
+  </si>
+  <si>
+    <t>暂无信息</t>
   </si>
   <si>
     <t>no_pool_id</t>
@@ -703,11 +711,119 @@
   <si>
     <t>主城</t>
   </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Content</t>
+  </si>
+  <si>
+    <t>IsNew</t>
+  </si>
+  <si>
+    <t>Order</t>
+  </si>
+  <si>
+    <t>IfOpen</t>
+  </si>
+  <si>
+    <t>int:&lt;&gt;</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>string:&lt;&gt;</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>string:&lt;&gt;</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:&lt;&gt;</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:&lt;</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>名字</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否新公告</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否开放</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动公告</t>
+  </si>
+  <si>
+    <t>公告</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>notice.lua</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>notice.txt</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试公告</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试时间
+2019.4.10-2019.4-17
+测试内容
+1.核心战斗玩法测试
+2.基础养成玩法测试
+3.基础PVP玩法测试
+4.个人竞技玩法测试
+测试目的
+邀请广大玩家提供游戏建议，完善游戏体验。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试期间，开放新手福利活动。
+登录礼包
+登录满7天，获得强力SR卡牌地狱神父—红莲缇娜
+连续登录更可获得海量钻石
+等级礼包
+测试期间，达到指定等级即可领取丰厚奖励
+在线礼包
+每日在线达到一定市场，即可领取丰厚奖励</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -747,7 +863,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
+      <strike/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
@@ -756,15 +873,6 @@
     </font>
     <font>
       <sz val="16"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <strike/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
@@ -781,6 +889,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="等线"/>
       <family val="3"/>
@@ -788,7 +904,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -803,31 +919,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="0" tint="-0.1498764000366222"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14990691854609822"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34934537797173987"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF6600"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34934537797173987"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -869,7 +991,7 @@
   </borders>
   <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
@@ -881,7 +1003,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" applyFont="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" applyFont="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2">
@@ -890,24 +1012,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="13" applyFill="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="13">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -915,28 +1033,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="4">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="4" applyFont="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="13" applyFill="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="14">
-    <cellStyle name="Grid" xfId="4"/>
-    <cellStyle name="Normal" xfId="7"/>
+    <cellStyle name="Grid" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Normal" xfId="7" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="8"/>
-    <cellStyle name="常规 3" xfId="10"/>
-    <cellStyle name="超链接 2" xfId="11"/>
-    <cellStyle name="大标题" xfId="6"/>
-    <cellStyle name="横向标题" xfId="1"/>
-    <cellStyle name="文本" xfId="9"/>
-    <cellStyle name="无效" xfId="12"/>
-    <cellStyle name="因变Grid" xfId="3"/>
-    <cellStyle name="英文标题" xfId="2"/>
-    <cellStyle name="中文标题" xfId="13"/>
-    <cellStyle name="纵向标题" xfId="5"/>
+    <cellStyle name="常规 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="常规 3" xfId="10" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="超链接 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="大标题" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="横向标题" xfId="1" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="文本" xfId="9" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="无效" xfId="12" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="因变Grid" xfId="3" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="英文标题" xfId="2" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="中文标题" xfId="13" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="纵向标题" xfId="5" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1208,11 +1326,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:H6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1227,127 +1345,164 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="5" t="s">
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="6" t="b">
+      <c r="F2" s="4"/>
+      <c r="G2" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="H2" s="6"/>
+      <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6" t="b">
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="H3" s="6"/>
+      <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="7" t="s">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6" t="b">
+      <c r="F4" s="4"/>
+      <c r="G4" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="H4" s="6"/>
+      <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="7" t="s">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6" t="b">
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="H5" s="6"/>
-    </row>
-    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="7" t="s">
+      <c r="C6" s="4"/>
+      <c r="D6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6" t="b">
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="H6" s="6"/>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="8"/>
+      <c r="A9" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
@@ -1357,10 +1512,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G97" sqref="G97"/>
     </sheetView>
   </sheetViews>
@@ -1400,1416 +1555,1416 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
+      <c r="A4" s="4">
         <v>1</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="4">
         <v>1</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="4">
         <v>10</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="6">
+      <c r="A5" s="4">
         <v>2</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="4">
         <v>2</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="4">
         <v>20</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="6">
+      <c r="A6" s="4">
         <v>3</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="4">
         <v>3</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="4">
         <v>40</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="4">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="6">
+      <c r="A7" s="4">
         <v>4</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="4">
         <v>4</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="4">
         <v>60</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="4">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="6">
-        <v>5</v>
-      </c>
-      <c r="B8" s="6">
-        <v>5</v>
-      </c>
-      <c r="C8" s="6">
+      <c r="A8" s="4">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4">
+        <v>5</v>
+      </c>
+      <c r="C8" s="4">
         <v>90</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="6">
+      <c r="A9" s="4">
         <v>6</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="4">
         <v>6</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="4">
         <v>120</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="6">
+      <c r="A10" s="4">
         <v>7</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="4">
         <v>7</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="4">
         <v>160</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="6">
+      <c r="A11" s="4">
         <v>8</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="4">
         <v>8</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="4">
         <v>200</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="6">
+      <c r="A12" s="4">
         <v>9</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="4">
         <v>9</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="4">
         <v>240</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="6">
+      <c r="A13" s="4">
         <v>10</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="4">
         <v>10</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="4">
         <v>290</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="6">
+      <c r="A14" s="4">
         <v>11</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="4">
         <v>11</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="4">
         <v>360</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="6">
+      <c r="A15" s="4">
         <v>12</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="4">
         <v>12</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="4">
         <v>450</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="6">
+      <c r="A16" s="4">
         <v>13</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="4">
         <v>13</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="4">
         <v>550</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="6">
+      <c r="A17" s="4">
         <v>14</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="4">
         <v>14</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="4">
         <v>670</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="6">
+      <c r="A18" s="4">
         <v>15</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="4">
         <v>15</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="4">
         <v>800</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="6">
+      <c r="A19" s="4">
         <v>16</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="4">
         <v>16</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="4">
         <v>950</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="6">
+      <c r="A20" s="4">
         <v>17</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="4">
         <v>17</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="4">
         <v>1110</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="6">
+      <c r="A21" s="4">
         <v>18</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="4">
         <v>18</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="4">
         <v>1280</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="6">
+      <c r="A22" s="4">
         <v>19</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="4">
         <v>19</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="4">
         <v>1470</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="6">
+      <c r="A23" s="4">
         <v>20</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="4">
         <v>20</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="4">
         <v>1790</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="6">
+      <c r="A24" s="4">
         <v>21</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="4">
         <v>21</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="4">
         <v>2150</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="6">
+      <c r="A25" s="4">
         <v>22</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="4">
         <v>22</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="4">
         <v>2560</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="6">
+      <c r="A26" s="4">
         <v>23</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26" s="4">
         <v>23</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="4">
         <v>3000</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="6">
+      <c r="A27" s="4">
         <v>24</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B27" s="4">
         <v>24</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="4">
         <v>3490</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="6">
+      <c r="A28" s="4">
         <v>25</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B28" s="4">
         <v>25</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="4">
         <v>4010</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="6">
+      <c r="A29" s="4">
         <v>26</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B29" s="4">
         <v>26</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="4">
         <v>4570</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A30" s="6">
+      <c r="A30" s="4">
         <v>27</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B30" s="4">
         <v>27</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30" s="4">
         <v>5160</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D30" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A31" s="6">
+      <c r="A31" s="4">
         <v>28</v>
       </c>
-      <c r="B31" s="6">
+      <c r="B31" s="4">
         <v>28</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C31" s="4">
         <v>5790</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D31" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="6">
+      <c r="A32" s="4">
         <v>29</v>
       </c>
-      <c r="B32" s="6">
+      <c r="B32" s="4">
         <v>29</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C32" s="4">
         <v>6460</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D32" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="6">
+      <c r="A33" s="4">
         <v>30</v>
       </c>
-      <c r="B33" s="6">
+      <c r="B33" s="4">
         <v>30</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C33" s="4">
         <v>7480</v>
       </c>
-      <c r="D33" s="6">
+      <c r="D33" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A34" s="6">
+      <c r="A34" s="4">
         <v>31</v>
       </c>
-      <c r="B34" s="6">
+      <c r="B34" s="4">
         <v>31</v>
       </c>
-      <c r="C34" s="6">
+      <c r="C34" s="4">
         <v>8540</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D34" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A35" s="6">
+      <c r="A35" s="4">
         <v>32</v>
       </c>
-      <c r="B35" s="6">
+      <c r="B35" s="4">
         <v>32</v>
       </c>
-      <c r="C35" s="6">
+      <c r="C35" s="4">
         <v>9640</v>
       </c>
-      <c r="D35" s="6">
+      <c r="D35" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A36" s="6">
+      <c r="A36" s="4">
         <v>33</v>
       </c>
-      <c r="B36" s="6">
+      <c r="B36" s="4">
         <v>33</v>
       </c>
-      <c r="C36" s="6">
+      <c r="C36" s="4">
         <v>10770</v>
       </c>
-      <c r="D36" s="6">
+      <c r="D36" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A37" s="6">
+      <c r="A37" s="4">
         <v>34</v>
       </c>
-      <c r="B37" s="6">
+      <c r="B37" s="4">
         <v>34</v>
       </c>
-      <c r="C37" s="6">
+      <c r="C37" s="4">
         <v>11940</v>
       </c>
-      <c r="D37" s="6">
+      <c r="D37" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A38" s="6">
+      <c r="A38" s="4">
         <v>35</v>
       </c>
-      <c r="B38" s="6">
+      <c r="B38" s="4">
         <v>35</v>
       </c>
-      <c r="C38" s="6">
+      <c r="C38" s="4">
         <v>13140</v>
       </c>
-      <c r="D38" s="6">
+      <c r="D38" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A39" s="6">
+      <c r="A39" s="4">
         <v>36</v>
       </c>
-      <c r="B39" s="6">
+      <c r="B39" s="4">
         <v>36</v>
       </c>
-      <c r="C39" s="6">
+      <c r="C39" s="4">
         <v>14370</v>
       </c>
-      <c r="D39" s="6">
+      <c r="D39" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A40" s="6">
+      <c r="A40" s="4">
         <v>37</v>
       </c>
-      <c r="B40" s="6">
+      <c r="B40" s="4">
         <v>37</v>
       </c>
-      <c r="C40" s="6">
+      <c r="C40" s="4">
         <v>15630</v>
       </c>
-      <c r="D40" s="6">
+      <c r="D40" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A41" s="6">
+      <c r="A41" s="4">
         <v>38</v>
       </c>
-      <c r="B41" s="6">
+      <c r="B41" s="4">
         <v>38</v>
       </c>
-      <c r="C41" s="6">
+      <c r="C41" s="4">
         <v>16930</v>
       </c>
-      <c r="D41" s="6">
+      <c r="D41" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A42" s="6">
+      <c r="A42" s="4">
         <v>39</v>
       </c>
-      <c r="B42" s="6">
+      <c r="B42" s="4">
         <v>39</v>
       </c>
-      <c r="C42" s="6">
+      <c r="C42" s="4">
         <v>18260</v>
       </c>
-      <c r="D42" s="6">
+      <c r="D42" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A43" s="6">
+      <c r="A43" s="4">
         <v>40</v>
       </c>
-      <c r="B43" s="6">
+      <c r="B43" s="4">
         <v>40</v>
       </c>
-      <c r="C43" s="6">
+      <c r="C43" s="4">
         <v>19650</v>
       </c>
-      <c r="D43" s="6">
+      <c r="D43" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A44" s="6">
+      <c r="A44" s="4">
         <v>41</v>
       </c>
-      <c r="B44" s="6">
+      <c r="B44" s="4">
         <v>41</v>
       </c>
-      <c r="C44" s="6">
+      <c r="C44" s="4">
         <v>21080</v>
       </c>
-      <c r="D44" s="6">
+      <c r="D44" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A45" s="6">
+      <c r="A45" s="4">
         <v>42</v>
       </c>
-      <c r="B45" s="6">
+      <c r="B45" s="4">
         <v>42</v>
       </c>
-      <c r="C45" s="6">
+      <c r="C45" s="4">
         <v>22560</v>
       </c>
-      <c r="D45" s="6">
+      <c r="D45" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A46" s="6">
+      <c r="A46" s="4">
         <v>43</v>
       </c>
-      <c r="B46" s="6">
+      <c r="B46" s="4">
         <v>43</v>
       </c>
-      <c r="C46" s="6">
+      <c r="C46" s="4">
         <v>24080</v>
       </c>
-      <c r="D46" s="6">
+      <c r="D46" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A47" s="6">
+      <c r="A47" s="4">
         <v>44</v>
       </c>
-      <c r="B47" s="6">
+      <c r="B47" s="4">
         <v>44</v>
       </c>
-      <c r="C47" s="6">
+      <c r="C47" s="4">
         <v>25640</v>
       </c>
-      <c r="D47" s="6">
+      <c r="D47" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A48" s="6">
+      <c r="A48" s="4">
         <v>45</v>
       </c>
-      <c r="B48" s="6">
+      <c r="B48" s="4">
         <v>45</v>
       </c>
-      <c r="C48" s="6">
+      <c r="C48" s="4">
         <v>27250</v>
       </c>
-      <c r="D48" s="6">
+      <c r="D48" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A49" s="6">
+      <c r="A49" s="4">
         <v>46</v>
       </c>
-      <c r="B49" s="6">
+      <c r="B49" s="4">
         <v>46</v>
       </c>
-      <c r="C49" s="6">
+      <c r="C49" s="4">
         <v>28900</v>
       </c>
-      <c r="D49" s="6">
+      <c r="D49" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A50" s="6">
+      <c r="A50" s="4">
         <v>47</v>
       </c>
-      <c r="B50" s="6">
+      <c r="B50" s="4">
         <v>47</v>
       </c>
-      <c r="C50" s="6">
+      <c r="C50" s="4">
         <v>30590</v>
       </c>
-      <c r="D50" s="6">
+      <c r="D50" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A51" s="6">
+      <c r="A51" s="4">
         <v>48</v>
       </c>
-      <c r="B51" s="6">
+      <c r="B51" s="4">
         <v>48</v>
       </c>
-      <c r="C51" s="6">
+      <c r="C51" s="4">
         <v>32320</v>
       </c>
-      <c r="D51" s="6">
+      <c r="D51" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A52" s="6">
+      <c r="A52" s="4">
         <v>49</v>
       </c>
-      <c r="B52" s="6">
+      <c r="B52" s="4">
         <v>49</v>
       </c>
-      <c r="C52" s="6">
+      <c r="C52" s="4">
         <v>34090</v>
       </c>
-      <c r="D52" s="6">
+      <c r="D52" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A53" s="6">
+      <c r="A53" s="4">
         <v>50</v>
       </c>
-      <c r="B53" s="6">
+      <c r="B53" s="4">
         <v>50</v>
       </c>
-      <c r="C53" s="6">
+      <c r="C53" s="4">
         <v>36510</v>
       </c>
-      <c r="D53" s="6">
+      <c r="D53" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A54" s="6">
+      <c r="A54" s="4">
         <v>51</v>
       </c>
-      <c r="B54" s="6">
+      <c r="B54" s="4">
         <v>51</v>
       </c>
-      <c r="C54" s="6">
+      <c r="C54" s="4">
         <v>38980</v>
       </c>
-      <c r="D54" s="6">
+      <c r="D54" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A55" s="6">
+      <c r="A55" s="4">
         <v>52</v>
       </c>
-      <c r="B55" s="6">
+      <c r="B55" s="4">
         <v>52</v>
       </c>
-      <c r="C55" s="6">
+      <c r="C55" s="4">
         <v>41500</v>
       </c>
-      <c r="D55" s="6">
+      <c r="D55" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A56" s="6">
+      <c r="A56" s="4">
         <v>53</v>
       </c>
-      <c r="B56" s="6">
+      <c r="B56" s="4">
         <v>53</v>
       </c>
-      <c r="C56" s="6">
+      <c r="C56" s="4">
         <v>44060</v>
       </c>
-      <c r="D56" s="6">
+      <c r="D56" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A57" s="6">
+      <c r="A57" s="4">
         <v>54</v>
       </c>
-      <c r="B57" s="6">
+      <c r="B57" s="4">
         <v>54</v>
       </c>
-      <c r="C57" s="6">
+      <c r="C57" s="4">
         <v>46670</v>
       </c>
-      <c r="D57" s="6">
+      <c r="D57" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A58" s="6">
+      <c r="A58" s="4">
         <v>55</v>
       </c>
-      <c r="B58" s="6">
+      <c r="B58" s="4">
         <v>55</v>
       </c>
-      <c r="C58" s="6">
+      <c r="C58" s="4">
         <v>49330</v>
       </c>
-      <c r="D58" s="6">
+      <c r="D58" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A59" s="6">
+      <c r="A59" s="4">
         <v>56</v>
       </c>
-      <c r="B59" s="6">
+      <c r="B59" s="4">
         <v>56</v>
       </c>
-      <c r="C59" s="6">
+      <c r="C59" s="4">
         <v>52050</v>
       </c>
-      <c r="D59" s="6">
+      <c r="D59" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A60" s="6">
+      <c r="A60" s="4">
         <v>57</v>
       </c>
-      <c r="B60" s="6">
+      <c r="B60" s="4">
         <v>57</v>
       </c>
-      <c r="C60" s="6">
+      <c r="C60" s="4">
         <v>54820</v>
       </c>
-      <c r="D60" s="6">
+      <c r="D60" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A61" s="6">
+      <c r="A61" s="4">
         <v>58</v>
       </c>
-      <c r="B61" s="6">
+      <c r="B61" s="4">
         <v>58</v>
       </c>
-      <c r="C61" s="6">
+      <c r="C61" s="4">
         <v>57630</v>
       </c>
-      <c r="D61" s="6">
+      <c r="D61" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A62" s="6">
+      <c r="A62" s="4">
         <v>59</v>
       </c>
-      <c r="B62" s="6">
+      <c r="B62" s="4">
         <v>59</v>
       </c>
-      <c r="C62" s="6">
+      <c r="C62" s="4">
         <v>60500</v>
       </c>
-      <c r="D62" s="6">
+      <c r="D62" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A63" s="6">
+      <c r="A63" s="4">
         <v>60</v>
       </c>
-      <c r="B63" s="6">
+      <c r="B63" s="4">
         <v>60</v>
       </c>
-      <c r="C63" s="6">
+      <c r="C63" s="4">
         <v>64180</v>
       </c>
-      <c r="D63" s="6">
+      <c r="D63" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A64" s="6">
+      <c r="A64" s="4">
         <v>61</v>
       </c>
-      <c r="B64" s="6">
+      <c r="B64" s="4">
         <v>61</v>
       </c>
-      <c r="C64" s="6">
+      <c r="C64" s="4">
         <v>67950</v>
       </c>
-      <c r="D64" s="6">
+      <c r="D64" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A65" s="6">
+      <c r="A65" s="4">
         <v>62</v>
       </c>
-      <c r="B65" s="6">
+      <c r="B65" s="4">
         <v>62</v>
       </c>
-      <c r="C65" s="6">
+      <c r="C65" s="4">
         <v>71820</v>
       </c>
-      <c r="D65" s="6">
+      <c r="D65" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A66" s="6">
+      <c r="A66" s="4">
         <v>63</v>
       </c>
-      <c r="B66" s="6">
+      <c r="B66" s="4">
         <v>63</v>
       </c>
-      <c r="C66" s="6">
+      <c r="C66" s="4">
         <v>75770</v>
       </c>
-      <c r="D66" s="6">
+      <c r="D66" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A67" s="6">
+      <c r="A67" s="4">
         <v>64</v>
       </c>
-      <c r="B67" s="6">
+      <c r="B67" s="4">
         <v>64</v>
       </c>
-      <c r="C67" s="6">
+      <c r="C67" s="4">
         <v>79820</v>
       </c>
-      <c r="D67" s="6">
+      <c r="D67" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A68" s="6">
+      <c r="A68" s="4">
         <v>65</v>
       </c>
-      <c r="B68" s="6">
+      <c r="B68" s="4">
         <v>65</v>
       </c>
-      <c r="C68" s="6">
+      <c r="C68" s="4">
         <v>83950</v>
       </c>
-      <c r="D68" s="6">
+      <c r="D68" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A69" s="6">
+      <c r="A69" s="4">
         <v>66</v>
       </c>
-      <c r="B69" s="6">
+      <c r="B69" s="4">
         <v>66</v>
       </c>
-      <c r="C69" s="6">
+      <c r="C69" s="4">
         <v>88180</v>
       </c>
-      <c r="D69" s="6">
+      <c r="D69" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A70" s="6">
+      <c r="A70" s="4">
         <v>67</v>
       </c>
-      <c r="B70" s="6">
+      <c r="B70" s="4">
         <v>67</v>
       </c>
-      <c r="C70" s="6">
+      <c r="C70" s="4">
         <v>92500</v>
       </c>
-      <c r="D70" s="6">
+      <c r="D70" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A71" s="6">
+      <c r="A71" s="4">
         <v>68</v>
       </c>
-      <c r="B71" s="6">
+      <c r="B71" s="4">
         <v>68</v>
       </c>
-      <c r="C71" s="6">
+      <c r="C71" s="4">
         <v>96910</v>
       </c>
-      <c r="D71" s="6">
+      <c r="D71" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A72" s="6">
+      <c r="A72" s="4">
         <v>69</v>
       </c>
-      <c r="B72" s="6">
+      <c r="B72" s="4">
         <v>69</v>
       </c>
-      <c r="C72" s="6">
+      <c r="C72" s="4">
         <v>101430</v>
       </c>
-      <c r="D72" s="6">
+      <c r="D72" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A73" s="6">
+      <c r="A73" s="4">
         <v>70</v>
       </c>
-      <c r="B73" s="6">
+      <c r="B73" s="4">
         <v>70</v>
       </c>
-      <c r="C73" s="6">
+      <c r="C73" s="4">
         <v>106920</v>
       </c>
-      <c r="D73" s="6">
+      <c r="D73" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A74" s="6">
+      <c r="A74" s="4">
         <v>71</v>
       </c>
-      <c r="B74" s="6">
+      <c r="B74" s="4">
         <v>71</v>
       </c>
-      <c r="C74" s="6">
+      <c r="C74" s="4">
         <v>112620</v>
       </c>
-      <c r="D74" s="6">
+      <c r="D74" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A75" s="6">
+      <c r="A75" s="4">
         <v>72</v>
       </c>
-      <c r="B75" s="6">
+      <c r="B75" s="4">
         <v>72</v>
       </c>
-      <c r="C75" s="6">
+      <c r="C75" s="4">
         <v>118520</v>
       </c>
-      <c r="D75" s="6">
+      <c r="D75" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A76" s="6">
+      <c r="A76" s="4">
         <v>73</v>
       </c>
-      <c r="B76" s="6">
+      <c r="B76" s="4">
         <v>73</v>
       </c>
-      <c r="C76" s="6">
+      <c r="C76" s="4">
         <v>124630</v>
       </c>
-      <c r="D76" s="6">
+      <c r="D76" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A77" s="6">
+      <c r="A77" s="4">
         <v>74</v>
       </c>
-      <c r="B77" s="6">
+      <c r="B77" s="4">
         <v>74</v>
       </c>
-      <c r="C77" s="6">
+      <c r="C77" s="4">
         <v>130950</v>
       </c>
-      <c r="D77" s="6">
+      <c r="D77" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A78" s="6">
+      <c r="A78" s="4">
         <v>75</v>
       </c>
-      <c r="B78" s="6">
+      <c r="B78" s="4">
         <v>75</v>
       </c>
-      <c r="C78" s="6">
+      <c r="C78" s="4">
         <v>137480</v>
       </c>
-      <c r="D78" s="6">
+      <c r="D78" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A79" s="6">
+      <c r="A79" s="4">
         <v>76</v>
       </c>
-      <c r="B79" s="6">
+      <c r="B79" s="4">
         <v>76</v>
       </c>
-      <c r="C79" s="6">
+      <c r="C79" s="4">
         <v>144200</v>
       </c>
-      <c r="D79" s="6">
+      <c r="D79" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A80" s="6">
+      <c r="A80" s="4">
         <v>77</v>
       </c>
-      <c r="B80" s="6">
+      <c r="B80" s="4">
         <v>77</v>
       </c>
-      <c r="C80" s="6">
+      <c r="C80" s="4">
         <v>151130</v>
       </c>
-      <c r="D80" s="6">
+      <c r="D80" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A81" s="6">
+      <c r="A81" s="4">
         <v>78</v>
       </c>
-      <c r="B81" s="6">
+      <c r="B81" s="4">
         <v>78</v>
       </c>
-      <c r="C81" s="6">
+      <c r="C81" s="4">
         <v>158270</v>
       </c>
-      <c r="D81" s="6">
+      <c r="D81" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A82" s="6">
+      <c r="A82" s="4">
         <v>79</v>
       </c>
-      <c r="B82" s="6">
+      <c r="B82" s="4">
         <v>79</v>
       </c>
-      <c r="C82" s="6">
+      <c r="C82" s="4">
         <v>165610</v>
       </c>
-      <c r="D82" s="6">
+      <c r="D82" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A83" s="6">
+      <c r="A83" s="4">
         <v>80</v>
       </c>
-      <c r="B83" s="6">
+      <c r="B83" s="4">
         <v>80</v>
       </c>
-      <c r="C83" s="6">
+      <c r="C83" s="4">
         <v>173180</v>
       </c>
-      <c r="D83" s="6">
+      <c r="D83" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A84" s="6">
+      <c r="A84" s="4">
         <v>81</v>
       </c>
-      <c r="B84" s="6">
+      <c r="B84" s="4">
         <v>81</v>
       </c>
-      <c r="C84" s="6">
+      <c r="C84" s="4">
         <v>181450</v>
       </c>
-      <c r="D84" s="6">
+      <c r="D84" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A85" s="6">
+      <c r="A85" s="4">
         <v>82</v>
       </c>
-      <c r="B85" s="6">
+      <c r="B85" s="4">
         <v>82</v>
       </c>
-      <c r="C85" s="6">
+      <c r="C85" s="4">
         <v>190400</v>
       </c>
-      <c r="D85" s="6">
+      <c r="D85" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A86" s="6">
+      <c r="A86" s="4">
         <v>83</v>
       </c>
-      <c r="B86" s="6">
+      <c r="B86" s="4">
         <v>83</v>
       </c>
-      <c r="C86" s="6">
+      <c r="C86" s="4">
         <v>200050</v>
       </c>
-      <c r="D86" s="6">
+      <c r="D86" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A87" s="6">
+      <c r="A87" s="4">
         <v>84</v>
       </c>
-      <c r="B87" s="6">
+      <c r="B87" s="4">
         <v>84</v>
       </c>
-      <c r="C87" s="6">
+      <c r="C87" s="4">
         <v>210390</v>
       </c>
-      <c r="D87" s="6">
+      <c r="D87" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A88" s="6">
+      <c r="A88" s="4">
         <v>85</v>
       </c>
-      <c r="B88" s="6">
+      <c r="B88" s="4">
         <v>85</v>
       </c>
-      <c r="C88" s="6">
+      <c r="C88" s="4">
         <v>221420</v>
       </c>
-      <c r="D88" s="6">
+      <c r="D88" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A89" s="6">
+      <c r="A89" s="4">
         <v>86</v>
       </c>
-      <c r="B89" s="6">
+      <c r="B89" s="4">
         <v>86</v>
       </c>
-      <c r="C89" s="6">
+      <c r="C89" s="4">
         <v>233140</v>
       </c>
-      <c r="D89" s="6">
+      <c r="D89" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A90" s="6">
+      <c r="A90" s="4">
         <v>87</v>
       </c>
-      <c r="B90" s="6">
+      <c r="B90" s="4">
         <v>87</v>
       </c>
-      <c r="C90" s="6">
+      <c r="C90" s="4">
         <v>245550</v>
       </c>
-      <c r="D90" s="6">
+      <c r="D90" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A91" s="6">
+      <c r="A91" s="4">
         <v>88</v>
       </c>
-      <c r="B91" s="6">
+      <c r="B91" s="4">
         <v>88</v>
       </c>
-      <c r="C91" s="6">
+      <c r="C91" s="4">
         <v>258650</v>
       </c>
-      <c r="D91" s="6">
+      <c r="D91" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A92" s="6">
+      <c r="A92" s="4">
         <v>89</v>
       </c>
-      <c r="B92" s="6">
+      <c r="B92" s="4">
         <v>89</v>
       </c>
-      <c r="C92" s="6">
+      <c r="C92" s="4">
         <v>272440</v>
       </c>
-      <c r="D92" s="6">
+      <c r="D92" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A93" s="6">
+      <c r="A93" s="4">
         <v>90</v>
       </c>
-      <c r="B93" s="6">
+      <c r="B93" s="4">
         <v>90</v>
       </c>
-      <c r="C93" s="6">
+      <c r="C93" s="4">
         <v>286900</v>
       </c>
-      <c r="D93" s="6">
+      <c r="D93" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A94" s="6">
+      <c r="A94" s="4">
         <v>91</v>
       </c>
-      <c r="B94" s="6">
+      <c r="B94" s="4">
         <v>91</v>
       </c>
-      <c r="C94" s="6">
+      <c r="C94" s="4">
         <v>302800</v>
       </c>
-      <c r="D94" s="6">
+      <c r="D94" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A95" s="6">
+      <c r="A95" s="4">
         <v>92</v>
       </c>
-      <c r="B95" s="6">
+      <c r="B95" s="4">
         <v>92</v>
       </c>
-      <c r="C95" s="6">
+      <c r="C95" s="4">
         <v>320140</v>
       </c>
-      <c r="D95" s="6">
+      <c r="D95" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A96" s="6">
+      <c r="A96" s="4">
         <v>93</v>
       </c>
-      <c r="B96" s="6">
+      <c r="B96" s="4">
         <v>93</v>
       </c>
-      <c r="C96" s="6">
+      <c r="C96" s="4">
         <v>338920</v>
       </c>
-      <c r="D96" s="6">
+      <c r="D96" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A97" s="6">
+      <c r="A97" s="4">
         <v>94</v>
       </c>
-      <c r="B97" s="6">
+      <c r="B97" s="4">
         <v>94</v>
       </c>
-      <c r="C97" s="6">
+      <c r="C97" s="4">
         <v>359120</v>
       </c>
-      <c r="D97" s="6">
+      <c r="D97" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A98" s="6">
+      <c r="A98" s="4">
         <v>95</v>
       </c>
-      <c r="B98" s="6">
+      <c r="B98" s="4">
         <v>95</v>
       </c>
-      <c r="C98" s="6">
+      <c r="C98" s="4">
         <v>380790</v>
       </c>
-      <c r="D98" s="6">
+      <c r="D98" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A99" s="6">
+      <c r="A99" s="4">
         <v>96</v>
       </c>
-      <c r="B99" s="6">
+      <c r="B99" s="4">
         <v>96</v>
       </c>
-      <c r="C99" s="6">
+      <c r="C99" s="4">
         <v>403920</v>
       </c>
-      <c r="D99" s="6">
+      <c r="D99" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A100" s="6">
+      <c r="A100" s="4">
         <v>97</v>
       </c>
-      <c r="B100" s="6">
+      <c r="B100" s="4">
         <v>97</v>
       </c>
-      <c r="C100" s="6">
+      <c r="C100" s="4">
         <v>428510</v>
       </c>
-      <c r="D100" s="6">
+      <c r="D100" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A101" s="6">
+      <c r="A101" s="4">
         <v>98</v>
       </c>
-      <c r="B101" s="6">
+      <c r="B101" s="4">
         <v>98</v>
       </c>
-      <c r="C101" s="6">
+      <c r="C101" s="4">
         <v>454560</v>
       </c>
-      <c r="D101" s="6">
+      <c r="D101" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A102" s="6">
+      <c r="A102" s="4">
         <v>99</v>
       </c>
-      <c r="B102" s="6">
+      <c r="B102" s="4">
         <v>99</v>
       </c>
-      <c r="C102" s="6">
+      <c r="C102" s="4">
         <v>482070</v>
       </c>
-      <c r="D102" s="6">
+      <c r="D102" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A103" s="6">
+      <c r="A103" s="4">
         <v>100</v>
       </c>
-      <c r="B103" s="6">
+      <c r="B103" s="4">
         <v>100</v>
       </c>
-      <c r="C103" s="6">
+      <c r="C103" s="4">
         <v>511010</v>
       </c>
-      <c r="D103" s="6">
+      <c r="D103" s="4">
         <v>5</v>
       </c>
     </row>
@@ -2820,11 +2975,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C85"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:C86"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2856,916 +3011,927 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
+      <c r="A4" s="4">
         <v>1000</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="6">
+      <c r="A5" s="4">
         <v>1001</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="6">
+      <c r="A6" s="4">
         <v>1002</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="6">
+      <c r="A7" s="4">
         <v>1003</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="6">
+      <c r="A8" s="4">
         <v>1004</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="4" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="6">
+      <c r="A9" s="4">
         <v>1005</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="6">
+      <c r="A10" s="4">
         <v>2000</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="4" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="6">
+      <c r="A11" s="4">
         <v>2001</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="6">
+      <c r="A12" s="4">
         <v>2002</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="6">
+      <c r="A13" s="4">
         <v>2003</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="4" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="6">
+      <c r="A14" s="4">
         <v>2004</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="6">
+      <c r="A15" s="4">
         <v>2005</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="4" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="6">
+      <c r="A16" s="4">
         <v>2006</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="6">
+      <c r="A17" s="4">
         <v>2007</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="6">
+      <c r="A18" s="4">
         <v>2008</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="4" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="6">
+      <c r="A19" s="4">
         <v>2009</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="4" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="6">
+      <c r="A20" s="4">
         <v>2010</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="4" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="6">
+      <c r="A21" s="4">
         <v>2011</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="4" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="6">
+      <c r="A22" s="4">
         <v>2012</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="4" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="6">
+      <c r="A23" s="4">
         <v>2013</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="6">
+      <c r="A24" s="4">
         <v>2014</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="4" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="6">
+      <c r="A25" s="4">
         <v>2015</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="4" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="6">
+      <c r="A26" s="4">
         <v>2016</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="4" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="6">
+      <c r="A27" s="4">
         <v>2017</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="4" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="6">
+      <c r="A28" s="4">
         <v>2018</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="6">
+      <c r="A29" s="4">
         <v>2019</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="4" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A30" s="6">
+      <c r="A30" s="4">
+        <v>2020</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A31" s="4">
         <v>3001</v>
       </c>
-      <c r="B30" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A31" s="6">
+      <c r="B31" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A32" s="4">
         <v>3002</v>
       </c>
-      <c r="B31" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="6">
+      <c r="B32" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A33" s="4">
         <v>4000</v>
       </c>
-      <c r="B32" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="6">
+      <c r="B33" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A34" s="4">
         <v>4001</v>
       </c>
-      <c r="B33" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A34" s="6">
+      <c r="B34" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A35" s="4">
         <v>4002</v>
       </c>
-      <c r="B34" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A35" s="6">
+      <c r="B35" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A36" s="4">
         <v>4003</v>
       </c>
-      <c r="B35" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A36" s="6">
+      <c r="B36" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A37" s="4">
         <v>4004</v>
       </c>
-      <c r="B36" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A37" s="6">
+      <c r="B37" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A38" s="4">
         <v>4005</v>
       </c>
-      <c r="B37" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A38" s="6">
+      <c r="B38" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A39" s="4">
         <v>4006</v>
       </c>
-      <c r="B38" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A39" s="6">
+      <c r="B39" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A40" s="4">
         <v>4007</v>
       </c>
-      <c r="B39" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A40" s="6">
+      <c r="B40" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A41" s="4">
         <v>4008</v>
       </c>
-      <c r="B40" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A41" s="6">
+      <c r="B41" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A42" s="4">
         <v>5000</v>
       </c>
-      <c r="B41" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A42" s="6">
+      <c r="B42" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A43" s="4">
         <v>5001</v>
       </c>
-      <c r="B42" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A43" s="6">
+      <c r="B43" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A44" s="4">
         <v>5002</v>
       </c>
-      <c r="B43" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A44" s="6">
+      <c r="B44" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A45" s="4">
         <v>5003</v>
       </c>
-      <c r="B44" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A45" s="6">
+      <c r="B45" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A46" s="4">
         <v>5004</v>
       </c>
-      <c r="B45" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A46" s="6">
+      <c r="B46" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A47" s="4">
         <v>5005</v>
       </c>
-      <c r="B46" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A47" s="6">
+      <c r="B47" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A48" s="4">
         <v>5006</v>
       </c>
-      <c r="B47" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A48" s="6">
+      <c r="B48" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A49" s="4">
         <v>5007</v>
       </c>
-      <c r="B48" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A49" s="6">
+      <c r="B49" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A50" s="4">
         <v>5008</v>
       </c>
-      <c r="B49" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A50" s="6">
+      <c r="B50" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A51" s="4">
         <v>5009</v>
       </c>
-      <c r="B50" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A51" s="6">
+      <c r="B51" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A52" s="4">
         <v>5010</v>
       </c>
-      <c r="B51" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A52" s="6">
+      <c r="B52" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A53" s="4">
         <v>6000</v>
       </c>
-      <c r="B52" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A53" s="6">
+      <c r="B53" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A54" s="4">
         <v>6001</v>
       </c>
-      <c r="B53" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A54" s="6">
+      <c r="B54" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A55" s="4">
         <v>6002</v>
       </c>
-      <c r="B54" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A55" s="6">
+      <c r="B55" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A56" s="4">
         <v>6003</v>
       </c>
-      <c r="B55" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A56" s="6">
+      <c r="B56" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A57" s="4">
         <v>6004</v>
       </c>
-      <c r="B56" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A57" s="6">
+      <c r="B57" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A58" s="4">
         <v>6005</v>
       </c>
-      <c r="B57" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A58" s="6">
+      <c r="B58" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A59" s="4">
         <v>6006</v>
       </c>
-      <c r="B58" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A59" s="6">
+      <c r="B59" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A60" s="4">
         <v>6007</v>
       </c>
-      <c r="B59" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A60" s="6">
+      <c r="B60" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A61" s="4">
         <v>6008</v>
       </c>
-      <c r="B60" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A61" s="6">
+      <c r="B61" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A62" s="4">
         <v>6009</v>
       </c>
-      <c r="B61" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A62" s="6">
+      <c r="B62" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A63" s="4">
         <v>6010</v>
       </c>
-      <c r="B62" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A63" s="6">
+      <c r="B63" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A64" s="4">
         <v>6011</v>
       </c>
-      <c r="B63" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A64" s="6">
+      <c r="B64" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A65" s="4">
         <v>6012</v>
       </c>
-      <c r="B64" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A65" s="6">
+      <c r="B65" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A66" s="4">
         <v>6013</v>
       </c>
-      <c r="B65" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A66" s="6">
+      <c r="B66" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A67" s="4">
         <v>6014</v>
       </c>
-      <c r="B66" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="C66" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A67" s="6">
+      <c r="B67" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A68" s="4">
         <v>6015</v>
       </c>
-      <c r="B67" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A68" s="6">
+      <c r="B68" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A69" s="4">
         <v>6016</v>
       </c>
-      <c r="B68" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="C68" s="6" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A69" s="6">
+      <c r="B69" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A70" s="4">
         <v>6017</v>
       </c>
-      <c r="B69" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="C69" s="6" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A70" s="6">
+      <c r="B70" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A71" s="4">
         <v>6018</v>
       </c>
-      <c r="B70" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="C70" s="6" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A71" s="6">
+      <c r="B71" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A72" s="4">
         <v>6019</v>
       </c>
-      <c r="B71" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="C71" s="6" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A72" s="6">
+      <c r="B72" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A73" s="4">
         <v>6020</v>
       </c>
-      <c r="B72" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="C72" s="6" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A73" s="6">
+      <c r="B73" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A74" s="4">
         <v>6021</v>
       </c>
-      <c r="B73" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="C73" s="6" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A74" s="6">
+      <c r="B74" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A75" s="4">
         <v>6022</v>
       </c>
-      <c r="B74" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="C74" s="6" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A75" s="6">
+      <c r="B75" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A76" s="4">
         <v>6023</v>
       </c>
-      <c r="B75" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="C75" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A76" s="6">
+      <c r="B76" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A77" s="4">
         <v>6024</v>
       </c>
-      <c r="B76" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="C76" s="6" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A77" s="6">
+      <c r="B77" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A78" s="4">
         <v>6025</v>
       </c>
-      <c r="B77" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="C77" s="6" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A78" s="6">
+      <c r="B78" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A79" s="4">
         <v>7001</v>
       </c>
-      <c r="B78" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="C78" s="6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A79" s="6">
+      <c r="B79" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A80" s="4">
         <v>7002</v>
       </c>
-      <c r="B79" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="C79" s="6" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A80" s="6">
+      <c r="B80" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A81" s="4">
         <v>7003</v>
       </c>
-      <c r="B80" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="C80" s="6" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A81" s="6">
+      <c r="B81" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A82" s="4">
         <v>7004</v>
       </c>
-      <c r="B81" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="C81" s="6" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A82" s="6">
+      <c r="B82" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A83" s="4">
         <v>7005</v>
       </c>
-      <c r="B82" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="C82" s="6" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A83" s="6">
+      <c r="B83" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A84" s="4">
         <v>7006</v>
       </c>
-      <c r="B83" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="C83" s="6" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A84" s="6">
+      <c r="B84" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A85" s="4">
         <v>7007</v>
       </c>
-      <c r="B84" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="C84" s="6" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A85" s="6">
+      <c r="B85" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A86" s="4">
         <v>7008</v>
       </c>
-      <c r="B85" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="C85" s="6" t="s">
-        <v>190</v>
+      <c r="B86" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -3775,8 +3941,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
@@ -3796,80 +3962,80 @@
         <v>10</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>200</v>
+      <c r="A2" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>204</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -3898,7 +4064,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -3927,19 +4093,147 @@
         <v>1</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D10" s="3"/>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D11" s="3"/>
-      <c r="F11" s="3"/>
+        <v>208</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="44" customWidth="1"/>
+    <col min="5" max="5" width="11.25" customWidth="1"/>
+    <col min="6" max="6" width="10.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E2" t="s">
+        <v>218</v>
+      </c>
+      <c r="F2" t="s">
+        <v>219</v>
+      </c>
+      <c r="G2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="181.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="165" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4">
+        <v>2</v>
+      </c>
+      <c r="G5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Excel/镇魂街/basicInfo.基础信息.xlsx
+++ b/Excel/镇魂街/basicInfo.基础信息.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ZHJ_PROJECT\ZHJStaffSpace\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WORK\CeHua\trunk\ZHJStaffSpace\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A149C3-740C-4FAE-9E4E-DE087FB26BE6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -24,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="273">
   <si>
     <t>sheet名</t>
   </si>
@@ -819,11 +818,146 @@
 每日在线达到一定市场，即可领取丰厚奖励</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
+  <si>
+    <t>冒险-剧情关卡</t>
+  </si>
+  <si>
+    <t>背包</t>
+  </si>
+  <si>
+    <t>通灵</t>
+  </si>
+  <si>
+    <t>神器</t>
+  </si>
+  <si>
+    <t>技能</t>
+  </si>
+  <si>
+    <t>卡牌列表</t>
+  </si>
+  <si>
+    <t>寄灵人详情-升级</t>
+  </si>
+  <si>
+    <t>寄灵人详情-技能</t>
+  </si>
+  <si>
+    <t>寄灵人详情-升星</t>
+  </si>
+  <si>
+    <t>守护灵详情-升级</t>
+  </si>
+  <si>
+    <t>守护灵详情-技能</t>
+  </si>
+  <si>
+    <t>守护灵详情-升星</t>
+  </si>
+  <si>
+    <t>守护灵详情-专属武器</t>
+  </si>
+  <si>
+    <t>扭蛋-寄灵人页签</t>
+  </si>
+  <si>
+    <t>扭蛋-守护灵页签</t>
+  </si>
+  <si>
+    <t>扭蛋-寄灵人展示界面</t>
+  </si>
+  <si>
+    <t>扭蛋-守护灵展示界面</t>
+  </si>
+  <si>
+    <t>竞技场</t>
+  </si>
+  <si>
+    <t>芦花古楼</t>
+  </si>
+  <si>
+    <t>单人boss</t>
+  </si>
+  <si>
+    <t>派遣巡逻</t>
+  </si>
+  <si>
+    <t>int:e&lt;</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:e&lt;</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:e&lt;</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:e&lt;</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>杂货店-灵石商城</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>杂货店-卡牌商城</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>杂货店-杂货铺</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>荣誉商店-卡牌福利</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>荣誉商店-养成</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>芦花古楼-芦花古楼</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>芦花古楼-卡牌福利</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻石</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>荣誉点</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>芦花币</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_id:e&lt;</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_id:e&lt;</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_id:e&lt;</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1041,20 +1175,20 @@
     </xf>
   </cellXfs>
   <cellStyles count="14">
-    <cellStyle name="Grid" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Normal" xfId="7" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Grid" xfId="4"/>
+    <cellStyle name="Normal" xfId="7"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="常规 3" xfId="10" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="超链接 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="大标题" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="横向标题" xfId="1" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="文本" xfId="9" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="无效" xfId="12" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="因变Grid" xfId="3" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="英文标题" xfId="2" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="中文标题" xfId="13" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="纵向标题" xfId="5" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="常规 2" xfId="8"/>
+    <cellStyle name="常规 3" xfId="10"/>
+    <cellStyle name="超链接 2" xfId="11"/>
+    <cellStyle name="大标题" xfId="6"/>
+    <cellStyle name="横向标题" xfId="1"/>
+    <cellStyle name="文本" xfId="9"/>
+    <cellStyle name="无效" xfId="12"/>
+    <cellStyle name="因变Grid" xfId="3"/>
+    <cellStyle name="英文标题" xfId="2"/>
+    <cellStyle name="中文标题" xfId="13"/>
+    <cellStyle name="纵向标题" xfId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1326,7 +1460,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1512,7 +1646,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2975,7 +3109,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3941,18 +4075,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.75" style="1" customWidth="1"/>
-    <col min="2" max="7" width="30.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16" style="1" customWidth="1"/>
     <col min="9" max="9" width="38.75" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
@@ -3991,31 +4130,31 @@
         <v>201</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>201</v>
+        <v>270</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>201</v>
+        <v>255</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>201</v>
+        <v>271</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>201</v>
+        <v>256</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>201</v>
+        <v>272</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>201</v>
+        <v>257</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>201</v>
+        <v>258</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="45" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>203</v>
       </c>
@@ -4038,75 +4177,768 @@
         <v>206</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1">
+    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4">
         <v>1401001</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="4">
         <v>0</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="4">
         <v>1401002</v>
       </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1">
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4">
         <v>1401010</v>
       </c>
-      <c r="G4" s="1">
-        <v>1</v>
-      </c>
-      <c r="H4" s="1">
+      <c r="G4" s="4">
+        <v>1</v>
+      </c>
+      <c r="H4" s="4">
         <v>0</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="4" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
         <v>2</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="4">
         <v>1401002</v>
       </c>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1">
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4">
         <v>1401010</v>
       </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1401006</v>
-      </c>
-      <c r="G5" s="1">
-        <v>1</v>
-      </c>
-      <c r="H5" s="1">
-        <v>1</v>
-      </c>
-      <c r="I5" s="1" t="s">
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4">
+        <v>1</v>
+      </c>
+      <c r="I5" s="4" t="s">
         <v>208</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4">
+        <v>1401002</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1401010</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4">
+        <v>1</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4">
+        <v>1401002</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1401010</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4">
+        <v>1</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4">
+        <v>1401002</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1401010</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4">
+        <v>1</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4">
+        <v>1401002</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1401010</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4">
+        <v>1</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>7</v>
+      </c>
+      <c r="B10" s="4">
+        <v>1401005</v>
+      </c>
+      <c r="C10" s="4">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4">
+        <v>1</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>8</v>
+      </c>
+      <c r="B11" s="4">
+        <v>1401002</v>
+      </c>
+      <c r="C11" s="4">
+        <v>1</v>
+      </c>
+      <c r="D11" s="4">
+        <v>1401010</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4">
+        <v>1</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>9</v>
+      </c>
+      <c r="B12" s="4">
+        <v>1401002</v>
+      </c>
+      <c r="C12" s="4">
+        <v>1</v>
+      </c>
+      <c r="D12" s="4">
+        <v>1401010</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1</v>
+      </c>
+      <c r="F12" s="4">
+        <v>1401004</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0</v>
+      </c>
+      <c r="H12" s="4">
+        <v>1</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>10</v>
+      </c>
+      <c r="B13" s="4">
+        <v>1401002</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1</v>
+      </c>
+      <c r="D13" s="4">
+        <v>1401010</v>
+      </c>
+      <c r="E13" s="4">
+        <v>1</v>
+      </c>
+      <c r="F13" s="4">
+        <v>1401005</v>
+      </c>
+      <c r="G13" s="4">
+        <v>1</v>
+      </c>
+      <c r="H13" s="4">
+        <v>1</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <v>11</v>
+      </c>
+      <c r="B14" s="4">
+        <v>1401002</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1</v>
+      </c>
+      <c r="D14" s="4">
+        <v>1401010</v>
+      </c>
+      <c r="E14" s="4">
+        <v>1</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4">
+        <v>1</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <v>12</v>
+      </c>
+      <c r="B15" s="4">
+        <v>1401002</v>
+      </c>
+      <c r="C15" s="4">
+        <v>1</v>
+      </c>
+      <c r="D15" s="4">
+        <v>1401010</v>
+      </c>
+      <c r="E15" s="4">
+        <v>1</v>
+      </c>
+      <c r="F15" s="4">
+        <v>1401003</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0</v>
+      </c>
+      <c r="H15" s="4">
+        <v>1</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
+        <v>13</v>
+      </c>
+      <c r="B16" s="4">
+        <v>1401002</v>
+      </c>
+      <c r="C16" s="4">
+        <v>1</v>
+      </c>
+      <c r="D16" s="4">
+        <v>1401010</v>
+      </c>
+      <c r="E16" s="4">
+        <v>1</v>
+      </c>
+      <c r="F16" s="4">
+        <v>1401005</v>
+      </c>
+      <c r="G16" s="4">
+        <v>1</v>
+      </c>
+      <c r="H16" s="4">
+        <v>1</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
+        <v>14</v>
+      </c>
+      <c r="B17" s="4">
+        <v>1401002</v>
+      </c>
+      <c r="C17" s="4">
+        <v>1</v>
+      </c>
+      <c r="D17" s="4">
+        <v>1401010</v>
+      </c>
+      <c r="E17" s="4">
+        <v>1</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4">
+        <v>1</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="4">
+        <v>15</v>
+      </c>
+      <c r="B18" s="4">
+        <v>1401002</v>
+      </c>
+      <c r="C18" s="4">
+        <v>1</v>
+      </c>
+      <c r="D18" s="4">
+        <v>1401010</v>
+      </c>
+      <c r="E18" s="4">
+        <v>1</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4">
+        <v>1</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="4">
+        <v>16</v>
+      </c>
+      <c r="B19" s="4">
+        <v>1401010</v>
+      </c>
+      <c r="C19" s="4">
+        <v>1</v>
+      </c>
+      <c r="D19" s="4">
+        <v>1601001</v>
+      </c>
+      <c r="E19" s="4">
+        <v>1</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4">
+        <v>1</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="4">
+        <v>17</v>
+      </c>
+      <c r="B20" s="4">
+        <v>1401010</v>
+      </c>
+      <c r="C20" s="4">
+        <v>1</v>
+      </c>
+      <c r="D20" s="4">
+        <v>1602001</v>
+      </c>
+      <c r="E20" s="4">
+        <v>1</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4">
+        <v>1</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="4">
+        <v>18</v>
+      </c>
+      <c r="B21" s="4">
+        <v>1401010</v>
+      </c>
+      <c r="C21" s="4">
+        <v>1</v>
+      </c>
+      <c r="D21" s="4">
+        <v>1601001</v>
+      </c>
+      <c r="E21" s="4">
+        <v>1</v>
+      </c>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4">
+        <v>1</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="4">
+        <v>19</v>
+      </c>
+      <c r="B22" s="4">
+        <v>1401010</v>
+      </c>
+      <c r="C22" s="4">
+        <v>1</v>
+      </c>
+      <c r="D22" s="4">
+        <v>1602001</v>
+      </c>
+      <c r="E22" s="4">
+        <v>1</v>
+      </c>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4">
+        <v>1</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="4">
+        <v>20</v>
+      </c>
+      <c r="B23" s="4">
+        <v>1401002</v>
+      </c>
+      <c r="C23" s="4">
+        <v>1</v>
+      </c>
+      <c r="D23" s="4">
+        <v>1401010</v>
+      </c>
+      <c r="E23" s="4">
+        <v>1</v>
+      </c>
+      <c r="F23" s="4">
+        <v>1401007</v>
+      </c>
+      <c r="G23" s="4">
+        <v>1</v>
+      </c>
+      <c r="H23" s="4">
+        <v>1</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="4">
+        <v>21</v>
+      </c>
+      <c r="B24" s="4">
+        <v>1401002</v>
+      </c>
+      <c r="C24" s="4">
+        <v>1</v>
+      </c>
+      <c r="D24" s="4">
+        <v>1401010</v>
+      </c>
+      <c r="E24" s="4">
+        <v>1</v>
+      </c>
+      <c r="F24" s="4">
+        <v>1401013</v>
+      </c>
+      <c r="G24" s="4">
+        <v>0</v>
+      </c>
+      <c r="H24" s="4">
+        <v>1</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="4">
+        <v>22</v>
+      </c>
+      <c r="B25" s="4">
+        <v>1604002</v>
+      </c>
+      <c r="C25" s="4">
+        <v>0</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4">
+        <v>1</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A26" s="4">
+        <v>23</v>
+      </c>
+      <c r="B26" s="4">
+        <v>1401002</v>
+      </c>
+      <c r="C26" s="4">
+        <v>1</v>
+      </c>
+      <c r="D26" s="4">
+        <v>1401010</v>
+      </c>
+      <c r="E26" s="4">
+        <v>1</v>
+      </c>
+      <c r="F26" s="4">
+        <v>1604001</v>
+      </c>
+      <c r="G26" s="4">
+        <v>1</v>
+      </c>
+      <c r="H26" s="4">
+        <v>1</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="4">
+        <v>24</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="C27" s="4">
+        <v>1</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4">
+        <v>0</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A28" s="4">
+        <v>25</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="C28" s="4">
+        <v>1</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="E28" s="4">
+        <v>1</v>
+      </c>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4">
+        <v>0</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A29" s="4">
+        <v>26</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="C29" s="4">
+        <v>1</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4">
+        <v>0</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A30" s="4">
+        <v>27</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C30" s="4">
+        <v>0</v>
+      </c>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4">
+        <v>0</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A31" s="4">
+        <v>28</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C31" s="4">
+        <v>0</v>
+      </c>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4">
+        <v>0</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A32" s="4">
+        <v>29</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C32" s="4">
+        <v>0</v>
+      </c>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4">
+        <v>0</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A33" s="4">
+        <v>30</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C33" s="4">
+        <v>0</v>
+      </c>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4">
+        <v>0</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>265</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>

--- a/Excel/镇魂街/basicInfo.基础信息.xlsx
+++ b/Excel/镇魂街/basicInfo.基础信息.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -17,13 +17,14 @@
     <sheet name="服务端信息" sheetId="27" r:id="rId3"/>
     <sheet name="resource_bar" sheetId="28" r:id="rId4"/>
     <sheet name="公告" sheetId="29" r:id="rId5"/>
+    <sheet name="User表" sheetId="30" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="309">
   <si>
     <t>sheet名</t>
   </si>
@@ -58,51 +59,13 @@
     <t>ID</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>team_level.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>txt</t>
-    </r>
+    <t>team_level.txt</t>
   </si>
   <si>
     <t>服务端信息</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>server_message</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>.lua</t>
-    </r>
+    <t>server_message.lua</t>
   </si>
   <si>
     <t>server_message.txt</t>
@@ -114,6 +77,24 @@
     <t>resource_bar.lua</t>
   </si>
   <si>
+    <t>公告</t>
+  </si>
+  <si>
+    <t>notice.lua</t>
+  </si>
+  <si>
+    <t>notice.txt</t>
+  </si>
+  <si>
+    <t>User表</t>
+  </si>
+  <si>
+    <t>user.lua</t>
+  </si>
+  <si>
+    <t>user.txt</t>
+  </si>
+  <si>
     <t>level</t>
   </si>
   <si>
@@ -370,6 +351,12 @@
   </si>
   <si>
     <t>条件未满足</t>
+  </si>
+  <si>
+    <t>card_host_not_level_up</t>
+  </si>
+  <si>
+    <t>寄灵人不可手动升级</t>
   </si>
   <si>
     <t>fight_entity_dead</t>
@@ -690,6 +677,12 @@
     </r>
   </si>
   <si>
+    <t>item_id:e&lt;</t>
+  </si>
+  <si>
+    <t>int:e&lt;</t>
+  </si>
+  <si>
     <t>string:&lt;</t>
   </si>
   <si>
@@ -711,6 +704,102 @@
     <t>主城</t>
   </si>
   <si>
+    <t>冒险-剧情关卡</t>
+  </si>
+  <si>
+    <t>背包</t>
+  </si>
+  <si>
+    <t>通灵</t>
+  </si>
+  <si>
+    <t>神器</t>
+  </si>
+  <si>
+    <t>技能</t>
+  </si>
+  <si>
+    <t>卡牌列表</t>
+  </si>
+  <si>
+    <t>寄灵人详情-升级</t>
+  </si>
+  <si>
+    <t>寄灵人详情-技能</t>
+  </si>
+  <si>
+    <t>寄灵人详情-升星</t>
+  </si>
+  <si>
+    <t>守护灵详情-升级</t>
+  </si>
+  <si>
+    <t>守护灵详情-技能</t>
+  </si>
+  <si>
+    <t>守护灵详情-升星</t>
+  </si>
+  <si>
+    <t>守护灵详情-专属武器</t>
+  </si>
+  <si>
+    <t>扭蛋-寄灵人页签</t>
+  </si>
+  <si>
+    <t>扭蛋-守护灵页签</t>
+  </si>
+  <si>
+    <t>扭蛋-寄灵人展示界面</t>
+  </si>
+  <si>
+    <t>扭蛋-守护灵展示界面</t>
+  </si>
+  <si>
+    <t>竞技场</t>
+  </si>
+  <si>
+    <t>芦花古楼</t>
+  </si>
+  <si>
+    <t>单人boss</t>
+  </si>
+  <si>
+    <t>派遣巡逻</t>
+  </si>
+  <si>
+    <t>钻石</t>
+  </si>
+  <si>
+    <t>杂货店-灵石商城</t>
+  </si>
+  <si>
+    <t>金币</t>
+  </si>
+  <si>
+    <t>杂货店-卡牌商城</t>
+  </si>
+  <si>
+    <t>杂货店-杂货铺</t>
+  </si>
+  <si>
+    <t>荣誉点</t>
+  </si>
+  <si>
+    <t>荣誉商店-卡牌福利</t>
+  </si>
+  <si>
+    <t>荣誉商店-养成</t>
+  </si>
+  <si>
+    <t>芦花币</t>
+  </si>
+  <si>
+    <t>芦花古楼-芦花古楼</t>
+  </si>
+  <si>
+    <t>芦花古楼-卡牌福利</t>
+  </si>
+  <si>
     <t>Type</t>
   </si>
   <si>
@@ -729,71 +818,28 @@
     <t>IfOpen</t>
   </si>
   <si>
-    <t>int:&lt;&gt;</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>string:&lt;&gt;</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>string:&lt;&gt;</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>int:&lt;&gt;</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>int:&lt;</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>类型</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>名字</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>内容</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>是否新公告</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>排序</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>是否开放</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动公告</t>
-  </si>
-  <si>
-    <t>公告</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>notice.lua</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>notice.txt</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>测试公告</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>测试时间
@@ -805,7 +851,9 @@
 4.个人竞技玩法测试
 测试目的
 邀请广大玩家提供游戏建议，完善游戏体验。</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动公告</t>
   </si>
   <si>
     <t>测试期间，开放新手福利活动。
@@ -816,141 +864,190 @@
 测试期间，达到指定等级即可领取丰厚奖励
 在线礼包
 每日在线达到一定市场，即可领取丰厚奖励</t>
+  </si>
+  <si>
+    <t>Icon</t>
+  </si>
+  <si>
+    <t>MaxLevel</t>
+  </si>
+  <si>
+    <t>Monsters[2].jlr</t>
+  </si>
+  <si>
+    <t>Monsters[2].shl</t>
+  </si>
+  <si>
+    <t>Monsters[3].jlr</t>
+  </si>
+  <si>
+    <t>Monsters[3].shl</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nt:&lt;&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tring:&lt;</t>
+    </r>
+  </si>
+  <si>
+    <t>card_id:e&gt;|0</t>
+  </si>
+  <si>
+    <t>头像</t>
+  </si>
+  <si>
+    <t>初始等级</t>
+  </si>
+  <si>
+    <t>最大等级</t>
+  </si>
+  <si>
+    <t>怪物[1].寄灵人</t>
+  </si>
+  <si>
+    <t>怪物[1].守护灵</t>
+  </si>
+  <si>
+    <t>怪物[2].寄灵人</t>
+  </si>
+  <si>
+    <t>怪物[2].守护灵</t>
+  </si>
+  <si>
+    <t>怪物[3].寄灵人</t>
+  </si>
+  <si>
+    <t>怪物[3].守护灵</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>@0</t>
+  </si>
+  <si>
+    <t>曹玄亮</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>冒险-剧情关卡</t>
-  </si>
-  <si>
-    <t>背包</t>
-  </si>
-  <si>
-    <t>通灵</t>
-  </si>
-  <si>
-    <t>神器</t>
-  </si>
-  <si>
-    <t>技能</t>
-  </si>
-  <si>
-    <t>卡牌列表</t>
-  </si>
-  <si>
-    <t>寄灵人详情-升级</t>
-  </si>
-  <si>
-    <t>寄灵人详情-技能</t>
-  </si>
-  <si>
-    <t>寄灵人详情-升星</t>
-  </si>
-  <si>
-    <t>守护灵详情-升级</t>
-  </si>
-  <si>
-    <t>守护灵详情-技能</t>
-  </si>
-  <si>
-    <t>守护灵详情-升星</t>
-  </si>
-  <si>
-    <t>守护灵详情-专属武器</t>
-  </si>
-  <si>
-    <t>扭蛋-寄灵人页签</t>
-  </si>
-  <si>
-    <t>扭蛋-守护灵页签</t>
-  </si>
-  <si>
-    <t>扭蛋-寄灵人展示界面</t>
-  </si>
-  <si>
-    <t>扭蛋-守护灵展示界面</t>
-  </si>
-  <si>
-    <t>竞技场</t>
-  </si>
-  <si>
-    <t>芦花古楼</t>
-  </si>
-  <si>
-    <t>单人boss</t>
-  </si>
-  <si>
-    <t>派遣巡逻</t>
-  </si>
-  <si>
-    <t>int:e&lt;</t>
+    <t>唐流雨</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>int:e&lt;</t>
+    <t>常服曹焱兵</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>int:e&lt;</t>
+    <t>于禁</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>int:e&lt;</t>
+    <t>Monsters[1].jlr</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>杂货店-灵石商城</t>
+    <t>Monsters[1].shl</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>杂货店-卡牌商城</t>
+    <t>skill_id:e&gt;|0</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>杂货店-杂货铺</t>
+    <t>守护灵1技能槽1</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>荣誉商店-卡牌福利</t>
+    <t>守护灵1技能槽2</t>
+  </si>
+  <si>
+    <t>守护灵2技能槽1</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>荣誉商店-养成</t>
+    <t>守护灵2技能槽2</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>芦花古楼-芦花古楼</t>
+    <t>守护灵3技能槽1</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>芦花古楼-卡牌福利</t>
+    <t>守护灵3技能槽2</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>钻石</t>
+    <t>殇魂秘术</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>金币</t>
+    <t>斩灵秘术</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>荣誉点</t>
+    <t>slot[1][1]</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>芦花币</t>
+    <t>slot[1][2]</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>item_id:e&lt;</t>
+    <t>slot[2][1]</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>item_id:e&lt;</t>
+    <t>slot[2][2]</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>item_id:e&lt;</t>
+    <t>slot[3][1]</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>slot[3][2]</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -992,9 +1089,26 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <strike/>
@@ -1014,23 +1128,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="等线"/>
       <family val="3"/>
@@ -1038,7 +1135,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1053,31 +1150,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.1498764000366222"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="0" tint="-0.1498458815271462"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34934537797173987"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1125,53 +1216,54 @@
   </borders>
   <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" applyFont="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" applyFont="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="4">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="13" applyFill="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="13">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="4">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="4" quotePrefix="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="13" applyFill="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -1461,10 +1553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1479,28 +1571,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1600,10 +1692,10 @@
     </row>
     <row r="7" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>228</v>
+        <v>17</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>229</v>
+        <v>18</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4" t="s">
@@ -1620,11 +1712,11 @@
     </row>
     <row r="8" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>228</v>
+        <v>17</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
-        <v>230</v>
+        <v>19</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>10</v>
@@ -1634,9 +1726,45 @@
       <c r="G8" s="4" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="5"/>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
@@ -1665,41 +1793,41 @@
         <v>10</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>23</v>
+      <c r="B3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -3110,10 +3238,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C86"/>
+  <dimension ref="A1:C87"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3127,32 +3255,32 @@
         <v>10</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>28</v>
+      <c r="B3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -3160,10 +3288,10 @@
         <v>1000</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -3171,10 +3299,10 @@
         <v>1001</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -3182,10 +3310,10 @@
         <v>1002</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -3193,10 +3321,10 @@
         <v>1003</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -3204,10 +3332,10 @@
         <v>1004</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -3215,10 +3343,10 @@
         <v>1005</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -3226,10 +3354,10 @@
         <v>2000</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -3237,10 +3365,10 @@
         <v>2001</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -3248,10 +3376,10 @@
         <v>2002</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -3259,10 +3387,10 @@
         <v>2003</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -3270,10 +3398,10 @@
         <v>2004</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -3281,10 +3409,10 @@
         <v>2005</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -3292,10 +3420,10 @@
         <v>2006</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -3303,10 +3431,10 @@
         <v>2007</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -3314,10 +3442,10 @@
         <v>2008</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -3325,10 +3453,10 @@
         <v>2009</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -3336,10 +3464,10 @@
         <v>2010</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -3347,10 +3475,10 @@
         <v>2011</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -3358,10 +3486,10 @@
         <v>2012</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -3369,10 +3497,10 @@
         <v>2013</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -3380,10 +3508,10 @@
         <v>2014</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -3391,10 +3519,10 @@
         <v>2015</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -3402,10 +3530,10 @@
         <v>2016</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -3413,10 +3541,10 @@
         <v>2017</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -3424,10 +3552,10 @@
         <v>2018</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -3435,10 +3563,10 @@
         <v>2019</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -3446,10 +3574,10 @@
         <v>2020</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -3457,10 +3585,10 @@
         <v>3001</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -3468,10 +3596,10 @@
         <v>3002</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -3479,10 +3607,10 @@
         <v>4000</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -3490,10 +3618,10 @@
         <v>4001</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -3501,10 +3629,10 @@
         <v>4002</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -3512,10 +3640,10 @@
         <v>4003</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -3523,10 +3651,10 @@
         <v>4004</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -3534,10 +3662,10 @@
         <v>4005</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -3545,10 +3673,10 @@
         <v>4006</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -3556,10 +3684,10 @@
         <v>4007</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -3567,505 +3695,516 @@
         <v>4008</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
-        <v>5000</v>
+        <v>4009</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
-        <v>5001</v>
+        <v>5000</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
-        <v>5002</v>
+        <v>5001</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
-        <v>5003</v>
+        <v>5002</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
-        <v>5004</v>
+        <v>5003</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
-        <v>5005</v>
+        <v>5004</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
-        <v>5006</v>
+        <v>5005</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
-        <v>5007</v>
+        <v>5006</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
-        <v>5008</v>
+        <v>5007</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
-        <v>5009</v>
+        <v>5008</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
-        <v>5010</v>
+        <v>5009</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
-        <v>6000</v>
+        <v>5010</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
-        <v>6001</v>
+        <v>6000</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
-        <v>6002</v>
+        <v>6001</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
-        <v>6003</v>
+        <v>6002</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
-        <v>6004</v>
+        <v>6003</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
-        <v>6005</v>
+        <v>6004</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
-        <v>6006</v>
+        <v>6005</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
-        <v>6007</v>
+        <v>6006</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
-        <v>6008</v>
+        <v>6007</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
-        <v>6009</v>
+        <v>6008</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
-        <v>6010</v>
+        <v>6009</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
-        <v>6011</v>
+        <v>6010</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
-        <v>6012</v>
+        <v>6011</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
-        <v>6013</v>
+        <v>6012</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A67" s="4">
-        <v>6014</v>
+        <v>6013</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A68" s="4">
-        <v>6015</v>
+        <v>6014</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A69" s="4">
-        <v>6016</v>
+        <v>6015</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A70" s="4">
-        <v>6017</v>
+        <v>6016</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A71" s="4">
-        <v>6018</v>
+        <v>6017</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A72" s="4">
-        <v>6019</v>
+        <v>6018</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A73" s="4">
-        <v>6020</v>
+        <v>6019</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A74" s="4">
-        <v>6021</v>
+        <v>6020</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A75" s="4">
-        <v>6022</v>
+        <v>6021</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A76" s="4">
-        <v>6023</v>
+        <v>6022</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A77" s="4">
-        <v>6024</v>
+        <v>6023</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A78" s="4">
-        <v>6025</v>
+        <v>6024</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A79" s="4">
-        <v>7001</v>
+        <v>6025</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A80" s="4">
-        <v>7002</v>
+        <v>7001</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A81" s="4">
-        <v>7003</v>
+        <v>7002</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A82" s="4">
-        <v>7004</v>
+        <v>7003</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A83" s="4">
-        <v>7005</v>
+        <v>7004</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A84" s="4">
-        <v>7006</v>
+        <v>7005</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A85" s="4">
-        <v>7007</v>
+        <v>7006</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A86" s="4">
+        <v>7007</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A87" s="4">
         <v>7008</v>
       </c>
-      <c r="B86" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>192</v>
+      <c r="B87" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -4078,7 +4217,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
@@ -4101,80 +4240,80 @@
         <v>10</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>270</v>
+        <v>210</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>255</v>
+        <v>211</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>271</v>
+        <v>210</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>256</v>
+        <v>211</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>272</v>
+        <v>210</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>257</v>
+        <v>211</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>258</v>
+        <v>211</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>206</v>
+      <c r="A3" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4203,7 +4342,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4228,7 +4367,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4253,7 +4392,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4278,7 +4417,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4303,7 +4442,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4328,7 +4467,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4349,7 +4488,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4374,7 +4513,7 @@
         <v>1</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4403,7 +4542,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4432,7 +4571,7 @@
         <v>1</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4457,7 +4596,7 @@
         <v>1</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4486,7 +4625,7 @@
         <v>1</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4515,7 +4654,7 @@
         <v>1</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4540,7 +4679,7 @@
         <v>1</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4565,7 +4704,7 @@
         <v>1</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4590,7 +4729,7 @@
         <v>1</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4615,7 +4754,7 @@
         <v>1</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4640,7 +4779,7 @@
         <v>1</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4665,7 +4804,7 @@
         <v>1</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4694,7 +4833,7 @@
         <v>1</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4723,7 +4862,7 @@
         <v>1</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4744,7 +4883,7 @@
         <v>1</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4773,7 +4912,7 @@
         <v>1</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4781,7 +4920,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>266</v>
+        <v>240</v>
       </c>
       <c r="C27" s="4">
         <v>1</v>
@@ -4794,7 +4933,7 @@
         <v>0</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4802,13 +4941,13 @@
         <v>25</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>267</v>
+        <v>242</v>
       </c>
       <c r="C28" s="4">
         <v>1</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>266</v>
+        <v>240</v>
       </c>
       <c r="E28" s="4">
         <v>1</v>
@@ -4819,7 +4958,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4827,7 +4966,7 @@
         <v>26</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>267</v>
+        <v>242</v>
       </c>
       <c r="C29" s="4">
         <v>1</v>
@@ -4840,7 +4979,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4848,7 +4987,7 @@
         <v>27</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>268</v>
+        <v>245</v>
       </c>
       <c r="C30" s="4">
         <v>0</v>
@@ -4861,7 +5000,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4869,7 +5008,7 @@
         <v>28</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>268</v>
+        <v>245</v>
       </c>
       <c r="C31" s="4">
         <v>0</v>
@@ -4882,7 +5021,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4890,7 +5029,7 @@
         <v>29</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>269</v>
+        <v>248</v>
       </c>
       <c r="C32" s="4">
         <v>0</v>
@@ -4903,7 +5042,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4911,7 +5050,7 @@
         <v>30</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>269</v>
+        <v>248</v>
       </c>
       <c r="C33" s="4">
         <v>0</v>
@@ -4924,13 +5063,13 @@
         <v>0</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
@@ -4942,7 +5081,7 @@
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="44" customWidth="1"/>
     <col min="5" max="5" width="11.25" customWidth="1"/>
@@ -4954,68 +5093,68 @@
         <v>10</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>209</v>
+        <v>251</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>210</v>
+        <v>252</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>212</v>
+        <v>254</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>213</v>
+        <v>255</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>214</v>
+        <v>256</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>215</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>215</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>216</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>217</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>218</v>
+        <v>26</v>
       </c>
       <c r="F2" t="s">
-        <v>219</v>
+        <v>257</v>
       </c>
       <c r="G2" t="s">
-        <v>215</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>226</v>
+      <c r="A3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="181.5" x14ac:dyDescent="0.2">
@@ -5026,10 +5165,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>231</v>
+        <v>264</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>232</v>
+        <v>265</v>
       </c>
       <c r="E4" s="4">
         <v>1</v>
@@ -5049,10 +5188,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>227</v>
+        <v>266</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>233</v>
+        <v>267</v>
       </c>
       <c r="E5" s="4">
         <v>1</v>
@@ -5066,6 +5205,240 @@
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="12.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16.875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="14.875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="15.125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="14.75" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.25" style="1" customWidth="1"/>
+    <col min="15" max="15" width="15.125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="14.875" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4">
+        <v>60</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>287</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/Excel/镇魂街/basicInfo.基础信息.xlsx
+++ b/Excel/镇魂街/basicInfo.基础信息.xlsx
@@ -872,12 +872,6 @@
     <t>MaxLevel</t>
   </si>
   <si>
-    <t>Monsters[2].jlr</t>
-  </si>
-  <si>
-    <t>Monsters[2].shl</t>
-  </si>
-  <si>
     <t>Monsters[3].jlr</t>
   </si>
   <si>
@@ -984,6 +978,65 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
+    <t>skill_id:e&gt;|0</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护灵1技能槽1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护灵1技能槽2</t>
+  </si>
+  <si>
+    <t>守护灵2技能槽1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护灵2技能槽2</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护灵3技能槽1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护灵3技能槽2</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>slot[1][1]</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>slot[1][2]</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>slot[2][1]</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>slot[2][2]</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>slot[3][1]</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>slot[3][2]</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monsters[2].jlr</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monsters[2].shl</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
     <t>Monsters[1].jlr</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -992,62 +1045,11 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>skill_id:e&gt;|0</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>守护灵1技能槽1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>守护灵1技能槽2</t>
-  </si>
-  <si>
-    <t>守护灵2技能槽1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>守护灵2技能槽2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>守护灵3技能槽1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>守护灵3技能槽2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>殇魂秘术</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>斩灵秘术</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>slot[1][1]</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>slot[1][2]</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>slot[2][1]</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>slot[2][2]</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>slot[3][1]</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>slot[3][2]</t>
+    <t>殇魂秘术</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -5213,8 +5215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5250,90 +5252,90 @@
         <v>269</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>273</v>
-      </c>
       <c r="K1" s="2" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>276</v>
-      </c>
       <c r="H2" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="15" x14ac:dyDescent="0.2">
@@ -5341,13 +5343,13 @@
         <v>213</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>277</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>279</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>280</v>
@@ -5356,34 +5358,34 @@
         <v>281</v>
       </c>
       <c r="G3" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="J3" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="I3" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>285</v>
-      </c>
       <c r="K3" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="O3" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="P3" s="6" t="s">
         <v>296</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="P3" s="6" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
@@ -5391,7 +5393,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C4" s="4">
         <v>1</v>
@@ -5406,34 +5408,34 @@
         <v>289</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/镇魂街/basicInfo.基础信息.xlsx
+++ b/Excel/镇魂街/basicInfo.基础信息.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WORK\CeHua\trunk\ZHJStaffSpace\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ZHJ_PROJECT\ZHJStaffSpace\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17B706BF-B3DD-4C94-BE84-4C80365E5DC7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="5"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -842,17 +843,6 @@
     <t>测试公告</t>
   </si>
   <si>
-    <t>测试时间
-2019.4.10-2019.4-17
-测试内容
-1.核心战斗玩法测试
-2.基础养成玩法测试
-3.基础PVP玩法测试
-4.个人竞技玩法测试
-测试目的
-邀请广大玩家提供游戏建议，完善游戏体验。</t>
-  </si>
-  <si>
     <t>活动公告</t>
   </si>
   <si>
@@ -1052,11 +1042,25 @@
     <t>殇魂秘术</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve">    Hi，镇魂将们，大家好~
+    本次测试为技术删档测试
+    下面我来介绍下本次测试相关内容
+    测试将在2019年4月18日(星期四)10:00开启，各位镇魂将可以抢先体验《镇魂街》，新颖的战斗策略等着您来体验!
+    此次测试对机型有一定要求，会影响一部分玩家，请水族游客谅解!
+    没有适配机型来参与测试的游客也不要太担心，我们将尽快优化，并尽快开启下次测试!
+    希望各位体验愉快哦~
+本次测试最低机型配置如下：
+操作系统：Android 4.3或更高的版本
+内存容量：6GB或更高内存
+可用空间：2G或更大容量</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1269,20 +1273,20 @@
     </xf>
   </cellXfs>
   <cellStyles count="14">
-    <cellStyle name="Grid" xfId="4"/>
-    <cellStyle name="Normal" xfId="7"/>
+    <cellStyle name="Grid" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Normal" xfId="7" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="8"/>
-    <cellStyle name="常规 3" xfId="10"/>
-    <cellStyle name="超链接 2" xfId="11"/>
-    <cellStyle name="大标题" xfId="6"/>
-    <cellStyle name="横向标题" xfId="1"/>
-    <cellStyle name="文本" xfId="9"/>
-    <cellStyle name="无效" xfId="12"/>
-    <cellStyle name="因变Grid" xfId="3"/>
-    <cellStyle name="英文标题" xfId="2"/>
-    <cellStyle name="中文标题" xfId="13"/>
-    <cellStyle name="纵向标题" xfId="5"/>
+    <cellStyle name="常规 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="常规 3" xfId="10" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="超链接 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="大标题" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="横向标题" xfId="1" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="文本" xfId="9" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="无效" xfId="12" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="因变Grid" xfId="3" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="英文标题" xfId="2" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="中文标题" xfId="13" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="纵向标题" xfId="5" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1554,7 +1558,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1776,7 +1780,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3239,7 +3243,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C87"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
@@ -4216,7 +4220,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5076,11 +5080,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5159,7 +5163,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="181.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="280.5" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -5170,7 +5174,7 @@
         <v>264</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>265</v>
+        <v>308</v>
       </c>
       <c r="E4" s="4">
         <v>1</v>
@@ -5190,10 +5194,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>266</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>267</v>
       </c>
       <c r="E5" s="4">
         <v>1</v>
@@ -5212,10 +5216,10 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
@@ -5243,99 +5247,99 @@
         <v>10</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>271</v>
-      </c>
       <c r="K1" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>301</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>274</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="15" x14ac:dyDescent="0.2">
@@ -5343,49 +5347,49 @@
         <v>213</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="F3" s="6" t="s">
+      <c r="H3" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="I3" s="6" t="s">
+      <c r="J3" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="J3" s="6" t="s">
-        <v>283</v>
-      </c>
       <c r="K3" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="L3" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="M3" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="N3" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="O3" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="P3" s="6" t="s">
         <v>295</v>
-      </c>
-      <c r="P3" s="6" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
@@ -5393,7 +5397,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C4" s="4">
         <v>1</v>
@@ -5402,40 +5406,40 @@
         <v>60</v>
       </c>
       <c r="E4" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>289</v>
-      </c>
       <c r="G4" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="H4" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="H4" s="7" t="s">
-        <v>287</v>
-      </c>
       <c r="I4" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/镇魂街/basicInfo.基础信息.xlsx
+++ b/Excel/镇魂街/basicInfo.基础信息.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ZHJ_PROJECT\ZHJStaffSpace\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17B706BF-B3DD-4C94-BE84-4C80365E5DC7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -20,12 +14,12 @@
     <sheet name="公告" sheetId="29" r:id="rId5"/>
     <sheet name="User表" sheetId="30" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320">
   <si>
     <t>sheet名</t>
   </si>
@@ -628,6 +622,12 @@
   </si>
   <si>
     <t>好友在黑名单中</t>
+  </si>
+  <si>
+    <t>arena_out_score</t>
+  </si>
+  <si>
+    <t>已超出当前段位</t>
   </si>
   <si>
     <t>ItemShow[1][1]</t>
@@ -659,7 +659,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -670,7 +669,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -699,6 +697,15 @@
     <t>介绍信息</t>
   </si>
   <si>
+    <t>冥币</t>
+  </si>
+  <si>
+    <t>金币</t>
+  </si>
+  <si>
+    <t>钻石</t>
+  </si>
+  <si>
     <t>测试</t>
   </si>
   <si>
@@ -717,12 +724,18 @@
     <t>神器</t>
   </si>
   <si>
+    <t>技能经验</t>
+  </si>
+  <si>
     <t>技能</t>
   </si>
   <si>
     <t>卡牌列表</t>
   </si>
   <si>
+    <t>寄灵人经验</t>
+  </si>
+  <si>
     <t>寄灵人详情-升级</t>
   </si>
   <si>
@@ -732,6 +745,9 @@
     <t>寄灵人详情-升星</t>
   </si>
   <si>
+    <t>守护灵经验</t>
+  </si>
+  <si>
     <t>守护灵详情-升级</t>
   </si>
   <si>
@@ -744,9 +760,15 @@
     <t>守护灵详情-专属武器</t>
   </si>
   <si>
+    <t>寄灵人抽卡券</t>
+  </si>
+  <si>
     <t>扭蛋-寄灵人页签</t>
   </si>
   <si>
+    <t>守护灵抽卡券</t>
+  </si>
+  <si>
     <t>扭蛋-守护灵页签</t>
   </si>
   <si>
@@ -756,27 +778,33 @@
     <t>扭蛋-守护灵展示界面</t>
   </si>
   <si>
+    <t>竞技场挑战券</t>
+  </si>
+  <si>
     <t>竞技场</t>
   </si>
   <si>
+    <t>芦花币</t>
+  </si>
+  <si>
     <t>芦花古楼</t>
   </si>
   <si>
+    <t>个人boss挑战券</t>
+  </si>
+  <si>
     <t>单人boss</t>
   </si>
   <si>
+    <t>2小时扫荡券</t>
+  </si>
+  <si>
     <t>派遣巡逻</t>
   </si>
   <si>
-    <t>钻石</t>
-  </si>
-  <si>
     <t>杂货店-灵石商城</t>
   </si>
   <si>
-    <t>金币</t>
-  </si>
-  <si>
     <t>杂货店-卡牌商城</t>
   </si>
   <si>
@@ -792,9 +820,6 @@
     <t>荣誉商店-养成</t>
   </si>
   <si>
-    <t>芦花币</t>
-  </si>
-  <si>
     <t>芦花古楼-芦花古楼</t>
   </si>
   <si>
@@ -841,206 +866,6 @@
   </si>
   <si>
     <t>测试公告</t>
-  </si>
-  <si>
-    <t>活动公告</t>
-  </si>
-  <si>
-    <t>测试期间，开放新手福利活动。
-登录礼包
-登录满7天，获得强力SR卡牌地狱神父—红莲缇娜
-连续登录更可获得海量钻石
-等级礼包
-测试期间，达到指定等级即可领取丰厚奖励
-在线礼包
-每日在线达到一定市场，即可领取丰厚奖励</t>
-  </si>
-  <si>
-    <t>Icon</t>
-  </si>
-  <si>
-    <t>MaxLevel</t>
-  </si>
-  <si>
-    <t>Monsters[3].jlr</t>
-  </si>
-  <si>
-    <t>Monsters[3].shl</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>nt:&lt;&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>tring:&lt;</t>
-    </r>
-  </si>
-  <si>
-    <t>card_id:e&gt;|0</t>
-  </si>
-  <si>
-    <t>头像</t>
-  </si>
-  <si>
-    <t>初始等级</t>
-  </si>
-  <si>
-    <t>最大等级</t>
-  </si>
-  <si>
-    <t>怪物[1].寄灵人</t>
-  </si>
-  <si>
-    <t>怪物[1].守护灵</t>
-  </si>
-  <si>
-    <t>怪物[2].寄灵人</t>
-  </si>
-  <si>
-    <t>怪物[2].守护灵</t>
-  </si>
-  <si>
-    <t>怪物[3].寄灵人</t>
-  </si>
-  <si>
-    <t>怪物[3].守护灵</t>
-  </si>
-  <si>
-    <t>???</t>
-  </si>
-  <si>
-    <t>@0</t>
-  </si>
-  <si>
-    <t>曹玄亮</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>唐流雨</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>常服曹焱兵</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>于禁</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>skill_id:e&gt;|0</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>守护灵1技能槽1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>守护灵1技能槽2</t>
-  </si>
-  <si>
-    <t>守护灵2技能槽1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>守护灵2技能槽2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>守护灵3技能槽1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>守护灵3技能槽2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>slot[1][1]</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>slot[1][2]</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>slot[2][1]</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>slot[2][2]</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>slot[3][1]</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>slot[3][2]</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Monsters[2].jlr</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Monsters[2].shl</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Monsters[1].jlr</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Monsters[1].shl</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>斩灵秘术</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>殇魂秘术</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">    Hi，镇魂将们，大家好~
@@ -1054,14 +879,193 @@
 操作系统：Android 4.3或更高的版本
 内存容量：6GB或更高内存
 可用空间：2G或更大容量</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动公告</t>
+  </si>
+  <si>
+    <t>测试期间，开放新手福利活动。
+登录礼包
+登录满7天，获得强力SR卡牌地狱神父—红莲缇娜
+连续登录更可获得海量钻石
+等级礼包
+测试期间，达到指定等级即可领取丰厚奖励
+在线礼包
+每日在线达到一定市场，即可领取丰厚奖励</t>
+  </si>
+  <si>
+    <t>Icon</t>
+  </si>
+  <si>
+    <t>MaxLevel</t>
+  </si>
+  <si>
+    <t>Monsters[1].jlr</t>
+  </si>
+  <si>
+    <t>Monsters[1].shl</t>
+  </si>
+  <si>
+    <t>Monsters[2].jlr</t>
+  </si>
+  <si>
+    <t>Monsters[2].shl</t>
+  </si>
+  <si>
+    <t>Monsters[3].jlr</t>
+  </si>
+  <si>
+    <t>Monsters[3].shl</t>
+  </si>
+  <si>
+    <t>slot[1][1]</t>
+  </si>
+  <si>
+    <t>slot[1][2]</t>
+  </si>
+  <si>
+    <t>slot[2][1]</t>
+  </si>
+  <si>
+    <t>slot[2][2]</t>
+  </si>
+  <si>
+    <t>slot[3][1]</t>
+  </si>
+  <si>
+    <t>slot[3][2]</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nt:&lt;&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tring:&lt;</t>
+    </r>
+  </si>
+  <si>
+    <t>card_id:e&gt;|0</t>
+  </si>
+  <si>
+    <t>skill_id:e&gt;|0</t>
+  </si>
+  <si>
+    <t>头像</t>
+  </si>
+  <si>
+    <t>初始等级</t>
+  </si>
+  <si>
+    <t>最大等级</t>
+  </si>
+  <si>
+    <t>怪物[2].寄灵人</t>
+  </si>
+  <si>
+    <t>怪物[2].守护灵</t>
+  </si>
+  <si>
+    <t>怪物[1].寄灵人</t>
+  </si>
+  <si>
+    <t>怪物[1].守护灵</t>
+  </si>
+  <si>
+    <t>怪物[3].寄灵人</t>
+  </si>
+  <si>
+    <t>怪物[3].守护灵</t>
+  </si>
+  <si>
+    <t>守护灵1技能槽1</t>
+  </si>
+  <si>
+    <t>守护灵1技能槽2</t>
+  </si>
+  <si>
+    <t>守护灵2技能槽1</t>
+  </si>
+  <si>
+    <t>守护灵2技能槽2</t>
+  </si>
+  <si>
+    <t>守护灵3技能槽1</t>
+  </si>
+  <si>
+    <t>守护灵3技能槽2</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>常服曹焱兵</t>
+  </si>
+  <si>
+    <t>于禁</t>
+  </si>
+  <si>
+    <t>曹玄亮</t>
+  </si>
+  <si>
+    <t>唐流雨</t>
+  </si>
+  <si>
+    <t>@0</t>
+  </si>
+  <si>
+    <t>殇魂秘术</t>
+  </si>
+  <si>
+    <t>斩灵秘术</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1073,7 +1077,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1082,38 +1085,176 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
+      <sz val="16"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1121,27 +1262,19 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1156,19 +1289,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.1498458815271462"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34934537797173987"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.149845881527146"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1180,12 +1451,60 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34934537797174"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFF6600"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1209,6 +1528,80 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1219,83 +1612,295 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="14">
+  <cellStyleXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" applyFont="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="1" applyFont="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="58"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="15">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="4">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="58" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="61">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="33">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="13" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="61" applyFill="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="13">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="4" quotePrefix="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="33" quotePrefix="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="14">
-    <cellStyle name="Grid" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Normal" xfId="7" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+  <cellStyles count="62">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="常规 3" xfId="10" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="超链接 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="大标题" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="横向标题" xfId="1" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="文本" xfId="9" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="无效" xfId="12" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="因变Grid" xfId="3" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="英文标题" xfId="2" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="中文标题" xfId="13" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="纵向标题" xfId="5" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="横向标题" xfId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="6" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="7" builtinId="39"/>
+    <cellStyle name="差" xfId="8" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="9" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="10" builtinId="40"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8"/>
+    <cellStyle name="百分比" xfId="12" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="13" builtinId="9"/>
+    <cellStyle name="注释" xfId="14" builtinId="10"/>
+    <cellStyle name="英文标题" xfId="15"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="16" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="17" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="18" builtinId="11"/>
+    <cellStyle name="标题" xfId="19" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="20" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="21" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="22" builtinId="17"/>
+    <cellStyle name="因变Grid" xfId="23"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="24" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="25" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="26" builtinId="44"/>
+    <cellStyle name="输出" xfId="27" builtinId="21"/>
+    <cellStyle name="计算" xfId="28" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="29" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="30" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="31" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="32" builtinId="24"/>
+    <cellStyle name="Grid" xfId="33"/>
+    <cellStyle name="汇总" xfId="34" builtinId="25"/>
+    <cellStyle name="好" xfId="35" builtinId="26"/>
+    <cellStyle name="适中" xfId="36" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="37" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="38" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="39" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="40" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="41" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="42" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="43" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="44" builtinId="41"/>
+    <cellStyle name="纵向标题" xfId="45"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="46" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="47" builtinId="43"/>
+    <cellStyle name="大标题" xfId="48"/>
+    <cellStyle name="强调文字颜色 5" xfId="49" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="50" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="51" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="52" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="53" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="54" builtinId="52"/>
+    <cellStyle name="Normal" xfId="55"/>
+    <cellStyle name="常规 2" xfId="56"/>
+    <cellStyle name="文本" xfId="57"/>
+    <cellStyle name="常规 3" xfId="58"/>
+    <cellStyle name="超链接 2" xfId="59"/>
+    <cellStyle name="无效" xfId="60"/>
+    <cellStyle name="中文标题" xfId="61"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1553,19 +2158,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="20.5" customWidth="1"/>
     <col min="2" max="2" width="27.125" customWidth="1"/>
@@ -1576,225 +2181,226 @@
     <col min="7" max="7" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+    <row r="1" ht="15" spans="1:8">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="6" t="s">
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="6" t="s">
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+    <row r="2" ht="47.25" customHeight="1" spans="1:8">
+      <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="5"/>
+      <c r="D2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" s="4"/>
-    </row>
-    <row r="3" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="F2" s="5"/>
+      <c r="G2" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" ht="57.75" customHeight="1" spans="1:8">
+      <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3" s="4"/>
-    </row>
-    <row r="4" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" s="5"/>
+    </row>
+    <row r="4" ht="54" customHeight="1" spans="1:8">
+      <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4" t="s">
+      <c r="C4" s="5"/>
+      <c r="D4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" s="4"/>
-    </row>
-    <row r="5" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+      <c r="F4" s="5"/>
+      <c r="G4" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" ht="55.5" customHeight="1" spans="1:8">
+      <c r="A5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4" t="s">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" ht="27" customHeight="1" spans="1:8">
+      <c r="A6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4" t="s">
+      <c r="C6" s="5"/>
+      <c r="D6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" ht="36" customHeight="1" spans="1:8">
+      <c r="A7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4" t="s">
+      <c r="C7" s="5"/>
+      <c r="D7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H7" s="4"/>
-    </row>
-    <row r="8" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+      <c r="F7" s="5"/>
+      <c r="G7" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" ht="31.5" customHeight="1" spans="1:8">
+      <c r="A8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4" t="s">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8" s="4"/>
-    </row>
-    <row r="9" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" ht="24.95" customHeight="1" spans="1:8">
+      <c r="A9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4" t="s">
+      <c r="C9" s="5"/>
+      <c r="D9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" s="4"/>
-    </row>
-    <row r="10" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+      <c r="F9" s="5"/>
+      <c r="G9" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" ht="24.95" customHeight="1" spans="1:8">
+      <c r="A10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4" t="s">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10" s="4"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G97" sqref="G97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="10.125" customWidth="1"/>
     <col min="3" max="3" width="9.5" customWidth="1"/>
     <col min="4" max="4" width="19.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" ht="15" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -1808,7 +2414,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -1822,1441 +2428,1442 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+    <row r="3" ht="15" spans="1:4">
+      <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
-        <v>1</v>
-      </c>
-      <c r="B4" s="4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="4">
+    <row r="4" ht="16.5" spans="1:4">
+      <c r="A4" s="5">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5">
         <v>10</v>
       </c>
-      <c r="D4" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
+      <c r="D4" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" ht="16.5" spans="1:4">
+      <c r="A5" s="5">
         <v>2</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="5">
         <v>2</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="5">
         <v>20</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
+    <row r="6" ht="16.5" spans="1:4">
+      <c r="A6" s="5">
         <v>3</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="5">
         <v>3</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="5">
         <v>40</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
+    <row r="7" ht="16.5" spans="1:4">
+      <c r="A7" s="5">
         <v>4</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="5">
         <v>4</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="5">
         <v>60</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
-        <v>5</v>
-      </c>
-      <c r="B8" s="4">
-        <v>5</v>
-      </c>
-      <c r="C8" s="4">
+    <row r="8" ht="16.5" spans="1:4">
+      <c r="A8" s="5">
+        <v>5</v>
+      </c>
+      <c r="B8" s="5">
+        <v>5</v>
+      </c>
+      <c r="C8" s="5">
         <v>90</v>
       </c>
-      <c r="D8" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
+      <c r="D8" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" ht="16.5" spans="1:4">
+      <c r="A9" s="5">
         <v>6</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="5">
         <v>6</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="5">
         <v>120</v>
       </c>
-      <c r="D9" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
+      <c r="D9" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" ht="16.5" spans="1:4">
+      <c r="A10" s="5">
         <v>7</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="5">
         <v>7</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="5">
         <v>160</v>
       </c>
-      <c r="D10" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="4">
+      <c r="D10" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" ht="16.5" spans="1:4">
+      <c r="A11" s="5">
         <v>8</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="5">
         <v>8</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="5">
         <v>200</v>
       </c>
-      <c r="D11" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
+      <c r="D11" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" ht="16.5" spans="1:4">
+      <c r="A12" s="5">
         <v>9</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="5">
         <v>9</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="5">
         <v>240</v>
       </c>
-      <c r="D12" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="4">
+      <c r="D12" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" ht="16.5" spans="1:4">
+      <c r="A13" s="5">
         <v>10</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="5">
         <v>10</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="5">
         <v>290</v>
       </c>
-      <c r="D13" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="4">
+      <c r="D13" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" ht="16.5" spans="1:4">
+      <c r="A14" s="5">
         <v>11</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="5">
         <v>11</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="5">
         <v>360</v>
       </c>
-      <c r="D14" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="4">
+      <c r="D14" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" ht="16.5" spans="1:4">
+      <c r="A15" s="5">
         <v>12</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="5">
         <v>12</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="5">
         <v>450</v>
       </c>
-      <c r="D15" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="4">
+      <c r="D15" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" ht="16.5" spans="1:4">
+      <c r="A16" s="5">
         <v>13</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="5">
         <v>13</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="5">
         <v>550</v>
       </c>
-      <c r="D16" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="4">
+      <c r="D16" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" ht="16.5" spans="1:4">
+      <c r="A17" s="5">
         <v>14</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="5">
         <v>14</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="5">
         <v>670</v>
       </c>
-      <c r="D17" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="4">
+      <c r="D17" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" ht="16.5" spans="1:4">
+      <c r="A18" s="5">
         <v>15</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="5">
         <v>15</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="5">
         <v>800</v>
       </c>
-      <c r="D18" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="4">
+      <c r="D18" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" ht="16.5" spans="1:4">
+      <c r="A19" s="5">
         <v>16</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="5">
         <v>16</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="5">
         <v>950</v>
       </c>
-      <c r="D19" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="4">
+      <c r="D19" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" ht="16.5" spans="1:4">
+      <c r="A20" s="5">
         <v>17</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="5">
         <v>17</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="5">
         <v>1110</v>
       </c>
-      <c r="D20" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="4">
+      <c r="D20" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" ht="16.5" spans="1:4">
+      <c r="A21" s="5">
         <v>18</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="5">
         <v>18</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="5">
         <v>1280</v>
       </c>
-      <c r="D21" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="4">
+      <c r="D21" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" ht="16.5" spans="1:4">
+      <c r="A22" s="5">
         <v>19</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="5">
         <v>19</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="5">
         <v>1470</v>
       </c>
-      <c r="D22" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="4">
+      <c r="D22" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" ht="16.5" spans="1:4">
+      <c r="A23" s="5">
         <v>20</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="5">
         <v>20</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="5">
         <v>1790</v>
       </c>
-      <c r="D23" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="4">
+      <c r="D23" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" ht="16.5" spans="1:4">
+      <c r="A24" s="5">
         <v>21</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="5">
         <v>21</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="5">
         <v>2150</v>
       </c>
-      <c r="D24" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="4">
+      <c r="D24" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" ht="16.5" spans="1:4">
+      <c r="A25" s="5">
         <v>22</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="5">
         <v>22</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="5">
         <v>2560</v>
       </c>
-      <c r="D25" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="4">
+      <c r="D25" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" ht="16.5" spans="1:4">
+      <c r="A26" s="5">
         <v>23</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="5">
         <v>23</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="5">
         <v>3000</v>
       </c>
-      <c r="D26" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="4">
+      <c r="D26" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" ht="16.5" spans="1:4">
+      <c r="A27" s="5">
         <v>24</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" s="5">
         <v>24</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="5">
         <v>3490</v>
       </c>
-      <c r="D27" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="4">
+      <c r="D27" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" ht="16.5" spans="1:4">
+      <c r="A28" s="5">
         <v>25</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28" s="5">
         <v>25</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="5">
         <v>4010</v>
       </c>
-      <c r="D28" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="4">
+      <c r="D28" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" ht="16.5" spans="1:4">
+      <c r="A29" s="5">
         <v>26</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29" s="5">
         <v>26</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="5">
         <v>4570</v>
       </c>
-      <c r="D29" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A30" s="4">
+      <c r="D29" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" ht="16.5" spans="1:4">
+      <c r="A30" s="5">
         <v>27</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30" s="5">
         <v>27</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="5">
         <v>5160</v>
       </c>
-      <c r="D30" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A31" s="4">
+      <c r="D30" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" ht="16.5" spans="1:4">
+      <c r="A31" s="5">
         <v>28</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B31" s="5">
         <v>28</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="5">
         <v>5790</v>
       </c>
-      <c r="D31" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="4">
+      <c r="D31" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" ht="16.5" spans="1:4">
+      <c r="A32" s="5">
         <v>29</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B32" s="5">
         <v>29</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="5">
         <v>6460</v>
       </c>
-      <c r="D32" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="4">
+      <c r="D32" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" ht="16.5" spans="1:4">
+      <c r="A33" s="5">
         <v>30</v>
       </c>
-      <c r="B33" s="4">
+      <c r="B33" s="5">
         <v>30</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="5">
         <v>7480</v>
       </c>
-      <c r="D33" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A34" s="4">
+      <c r="D33" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" ht="16.5" spans="1:4">
+      <c r="A34" s="5">
         <v>31</v>
       </c>
-      <c r="B34" s="4">
+      <c r="B34" s="5">
         <v>31</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34" s="5">
         <v>8540</v>
       </c>
-      <c r="D34" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A35" s="4">
+      <c r="D34" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" ht="16.5" spans="1:4">
+      <c r="A35" s="5">
         <v>32</v>
       </c>
-      <c r="B35" s="4">
+      <c r="B35" s="5">
         <v>32</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35" s="5">
         <v>9640</v>
       </c>
-      <c r="D35" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A36" s="4">
+      <c r="D35" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" ht="16.5" spans="1:4">
+      <c r="A36" s="5">
         <v>33</v>
       </c>
-      <c r="B36" s="4">
+      <c r="B36" s="5">
         <v>33</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36" s="5">
         <v>10770</v>
       </c>
-      <c r="D36" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A37" s="4">
+      <c r="D36" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" ht="16.5" spans="1:4">
+      <c r="A37" s="5">
         <v>34</v>
       </c>
-      <c r="B37" s="4">
+      <c r="B37" s="5">
         <v>34</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C37" s="5">
         <v>11940</v>
       </c>
-      <c r="D37" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A38" s="4">
+      <c r="D37" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" ht="16.5" spans="1:4">
+      <c r="A38" s="5">
         <v>35</v>
       </c>
-      <c r="B38" s="4">
+      <c r="B38" s="5">
         <v>35</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C38" s="5">
         <v>13140</v>
       </c>
-      <c r="D38" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A39" s="4">
+      <c r="D38" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" ht="16.5" spans="1:4">
+      <c r="A39" s="5">
         <v>36</v>
       </c>
-      <c r="B39" s="4">
+      <c r="B39" s="5">
         <v>36</v>
       </c>
-      <c r="C39" s="4">
+      <c r="C39" s="5">
         <v>14370</v>
       </c>
-      <c r="D39" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A40" s="4">
+      <c r="D39" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" ht="16.5" spans="1:4">
+      <c r="A40" s="5">
         <v>37</v>
       </c>
-      <c r="B40" s="4">
+      <c r="B40" s="5">
         <v>37</v>
       </c>
-      <c r="C40" s="4">
+      <c r="C40" s="5">
         <v>15630</v>
       </c>
-      <c r="D40" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A41" s="4">
+      <c r="D40" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" ht="16.5" spans="1:4">
+      <c r="A41" s="5">
         <v>38</v>
       </c>
-      <c r="B41" s="4">
+      <c r="B41" s="5">
         <v>38</v>
       </c>
-      <c r="C41" s="4">
+      <c r="C41" s="5">
         <v>16930</v>
       </c>
-      <c r="D41" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A42" s="4">
+      <c r="D41" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" ht="16.5" spans="1:4">
+      <c r="A42" s="5">
         <v>39</v>
       </c>
-      <c r="B42" s="4">
+      <c r="B42" s="5">
         <v>39</v>
       </c>
-      <c r="C42" s="4">
+      <c r="C42" s="5">
         <v>18260</v>
       </c>
-      <c r="D42" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A43" s="4">
+      <c r="D42" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" ht="16.5" spans="1:4">
+      <c r="A43" s="5">
         <v>40</v>
       </c>
-      <c r="B43" s="4">
+      <c r="B43" s="5">
         <v>40</v>
       </c>
-      <c r="C43" s="4">
+      <c r="C43" s="5">
         <v>19650</v>
       </c>
-      <c r="D43" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A44" s="4">
+      <c r="D43" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" ht="16.5" spans="1:4">
+      <c r="A44" s="5">
         <v>41</v>
       </c>
-      <c r="B44" s="4">
+      <c r="B44" s="5">
         <v>41</v>
       </c>
-      <c r="C44" s="4">
+      <c r="C44" s="5">
         <v>21080</v>
       </c>
-      <c r="D44" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A45" s="4">
+      <c r="D44" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" ht="16.5" spans="1:4">
+      <c r="A45" s="5">
         <v>42</v>
       </c>
-      <c r="B45" s="4">
+      <c r="B45" s="5">
         <v>42</v>
       </c>
-      <c r="C45" s="4">
+      <c r="C45" s="5">
         <v>22560</v>
       </c>
-      <c r="D45" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A46" s="4">
+      <c r="D45" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" ht="16.5" spans="1:4">
+      <c r="A46" s="5">
         <v>43</v>
       </c>
-      <c r="B46" s="4">
+      <c r="B46" s="5">
         <v>43</v>
       </c>
-      <c r="C46" s="4">
+      <c r="C46" s="5">
         <v>24080</v>
       </c>
-      <c r="D46" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A47" s="4">
+      <c r="D46" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" ht="16.5" spans="1:4">
+      <c r="A47" s="5">
         <v>44</v>
       </c>
-      <c r="B47" s="4">
+      <c r="B47" s="5">
         <v>44</v>
       </c>
-      <c r="C47" s="4">
+      <c r="C47" s="5">
         <v>25640</v>
       </c>
-      <c r="D47" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A48" s="4">
+      <c r="D47" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" ht="16.5" spans="1:4">
+      <c r="A48" s="5">
         <v>45</v>
       </c>
-      <c r="B48" s="4">
+      <c r="B48" s="5">
         <v>45</v>
       </c>
-      <c r="C48" s="4">
+      <c r="C48" s="5">
         <v>27250</v>
       </c>
-      <c r="D48" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A49" s="4">
+      <c r="D48" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" ht="16.5" spans="1:4">
+      <c r="A49" s="5">
         <v>46</v>
       </c>
-      <c r="B49" s="4">
+      <c r="B49" s="5">
         <v>46</v>
       </c>
-      <c r="C49" s="4">
+      <c r="C49" s="5">
         <v>28900</v>
       </c>
-      <c r="D49" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A50" s="4">
+      <c r="D49" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" ht="16.5" spans="1:4">
+      <c r="A50" s="5">
         <v>47</v>
       </c>
-      <c r="B50" s="4">
+      <c r="B50" s="5">
         <v>47</v>
       </c>
-      <c r="C50" s="4">
+      <c r="C50" s="5">
         <v>30590</v>
       </c>
-      <c r="D50" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A51" s="4">
+      <c r="D50" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" ht="16.5" spans="1:4">
+      <c r="A51" s="5">
         <v>48</v>
       </c>
-      <c r="B51" s="4">
+      <c r="B51" s="5">
         <v>48</v>
       </c>
-      <c r="C51" s="4">
+      <c r="C51" s="5">
         <v>32320</v>
       </c>
-      <c r="D51" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A52" s="4">
+      <c r="D51" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" ht="16.5" spans="1:4">
+      <c r="A52" s="5">
         <v>49</v>
       </c>
-      <c r="B52" s="4">
+      <c r="B52" s="5">
         <v>49</v>
       </c>
-      <c r="C52" s="4">
+      <c r="C52" s="5">
         <v>34090</v>
       </c>
-      <c r="D52" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A53" s="4">
+      <c r="D52" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" ht="16.5" spans="1:4">
+      <c r="A53" s="5">
         <v>50</v>
       </c>
-      <c r="B53" s="4">
+      <c r="B53" s="5">
         <v>50</v>
       </c>
-      <c r="C53" s="4">
+      <c r="C53" s="5">
         <v>36510</v>
       </c>
-      <c r="D53" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A54" s="4">
+      <c r="D53" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" ht="16.5" spans="1:4">
+      <c r="A54" s="5">
         <v>51</v>
       </c>
-      <c r="B54" s="4">
+      <c r="B54" s="5">
         <v>51</v>
       </c>
-      <c r="C54" s="4">
+      <c r="C54" s="5">
         <v>38980</v>
       </c>
-      <c r="D54" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A55" s="4">
+      <c r="D54" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" ht="16.5" spans="1:4">
+      <c r="A55" s="5">
         <v>52</v>
       </c>
-      <c r="B55" s="4">
+      <c r="B55" s="5">
         <v>52</v>
       </c>
-      <c r="C55" s="4">
+      <c r="C55" s="5">
         <v>41500</v>
       </c>
-      <c r="D55" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A56" s="4">
+      <c r="D55" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" ht="16.5" spans="1:4">
+      <c r="A56" s="5">
         <v>53</v>
       </c>
-      <c r="B56" s="4">
+      <c r="B56" s="5">
         <v>53</v>
       </c>
-      <c r="C56" s="4">
+      <c r="C56" s="5">
         <v>44060</v>
       </c>
-      <c r="D56" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A57" s="4">
+      <c r="D56" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" ht="16.5" spans="1:4">
+      <c r="A57" s="5">
         <v>54</v>
       </c>
-      <c r="B57" s="4">
+      <c r="B57" s="5">
         <v>54</v>
       </c>
-      <c r="C57" s="4">
+      <c r="C57" s="5">
         <v>46670</v>
       </c>
-      <c r="D57" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A58" s="4">
+      <c r="D57" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" ht="16.5" spans="1:4">
+      <c r="A58" s="5">
         <v>55</v>
       </c>
-      <c r="B58" s="4">
+      <c r="B58" s="5">
         <v>55</v>
       </c>
-      <c r="C58" s="4">
+      <c r="C58" s="5">
         <v>49330</v>
       </c>
-      <c r="D58" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A59" s="4">
+      <c r="D58" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" ht="16.5" spans="1:4">
+      <c r="A59" s="5">
         <v>56</v>
       </c>
-      <c r="B59" s="4">
+      <c r="B59" s="5">
         <v>56</v>
       </c>
-      <c r="C59" s="4">
+      <c r="C59" s="5">
         <v>52050</v>
       </c>
-      <c r="D59" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A60" s="4">
+      <c r="D59" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" ht="16.5" spans="1:4">
+      <c r="A60" s="5">
         <v>57</v>
       </c>
-      <c r="B60" s="4">
+      <c r="B60" s="5">
         <v>57</v>
       </c>
-      <c r="C60" s="4">
+      <c r="C60" s="5">
         <v>54820</v>
       </c>
-      <c r="D60" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A61" s="4">
+      <c r="D60" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" ht="16.5" spans="1:4">
+      <c r="A61" s="5">
         <v>58</v>
       </c>
-      <c r="B61" s="4">
+      <c r="B61" s="5">
         <v>58</v>
       </c>
-      <c r="C61" s="4">
+      <c r="C61" s="5">
         <v>57630</v>
       </c>
-      <c r="D61" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A62" s="4">
+      <c r="D61" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" ht="16.5" spans="1:4">
+      <c r="A62" s="5">
         <v>59</v>
       </c>
-      <c r="B62" s="4">
+      <c r="B62" s="5">
         <v>59</v>
       </c>
-      <c r="C62" s="4">
+      <c r="C62" s="5">
         <v>60500</v>
       </c>
-      <c r="D62" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A63" s="4">
+      <c r="D62" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" ht="16.5" spans="1:4">
+      <c r="A63" s="5">
         <v>60</v>
       </c>
-      <c r="B63" s="4">
+      <c r="B63" s="5">
         <v>60</v>
       </c>
-      <c r="C63" s="4">
+      <c r="C63" s="5">
         <v>64180</v>
       </c>
-      <c r="D63" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A64" s="4">
+      <c r="D63" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" ht="16.5" spans="1:4">
+      <c r="A64" s="5">
         <v>61</v>
       </c>
-      <c r="B64" s="4">
+      <c r="B64" s="5">
         <v>61</v>
       </c>
-      <c r="C64" s="4">
+      <c r="C64" s="5">
         <v>67950</v>
       </c>
-      <c r="D64" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A65" s="4">
+      <c r="D64" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" ht="16.5" spans="1:4">
+      <c r="A65" s="5">
         <v>62</v>
       </c>
-      <c r="B65" s="4">
+      <c r="B65" s="5">
         <v>62</v>
       </c>
-      <c r="C65" s="4">
+      <c r="C65" s="5">
         <v>71820</v>
       </c>
-      <c r="D65" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A66" s="4">
+      <c r="D65" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" ht="16.5" spans="1:4">
+      <c r="A66" s="5">
         <v>63</v>
       </c>
-      <c r="B66" s="4">
+      <c r="B66" s="5">
         <v>63</v>
       </c>
-      <c r="C66" s="4">
+      <c r="C66" s="5">
         <v>75770</v>
       </c>
-      <c r="D66" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A67" s="4">
+      <c r="D66" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" ht="16.5" spans="1:4">
+      <c r="A67" s="5">
         <v>64</v>
       </c>
-      <c r="B67" s="4">
+      <c r="B67" s="5">
         <v>64</v>
       </c>
-      <c r="C67" s="4">
+      <c r="C67" s="5">
         <v>79820</v>
       </c>
-      <c r="D67" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A68" s="4">
+      <c r="D67" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" ht="16.5" spans="1:4">
+      <c r="A68" s="5">
         <v>65</v>
       </c>
-      <c r="B68" s="4">
+      <c r="B68" s="5">
         <v>65</v>
       </c>
-      <c r="C68" s="4">
+      <c r="C68" s="5">
         <v>83950</v>
       </c>
-      <c r="D68" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A69" s="4">
+      <c r="D68" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" ht="16.5" spans="1:4">
+      <c r="A69" s="5">
         <v>66</v>
       </c>
-      <c r="B69" s="4">
+      <c r="B69" s="5">
         <v>66</v>
       </c>
-      <c r="C69" s="4">
+      <c r="C69" s="5">
         <v>88180</v>
       </c>
-      <c r="D69" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A70" s="4">
+      <c r="D69" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" ht="16.5" spans="1:4">
+      <c r="A70" s="5">
         <v>67</v>
       </c>
-      <c r="B70" s="4">
+      <c r="B70" s="5">
         <v>67</v>
       </c>
-      <c r="C70" s="4">
+      <c r="C70" s="5">
         <v>92500</v>
       </c>
-      <c r="D70" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A71" s="4">
+      <c r="D70" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" ht="16.5" spans="1:4">
+      <c r="A71" s="5">
         <v>68</v>
       </c>
-      <c r="B71" s="4">
+      <c r="B71" s="5">
         <v>68</v>
       </c>
-      <c r="C71" s="4">
+      <c r="C71" s="5">
         <v>96910</v>
       </c>
-      <c r="D71" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A72" s="4">
+      <c r="D71" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" ht="16.5" spans="1:4">
+      <c r="A72" s="5">
         <v>69</v>
       </c>
-      <c r="B72" s="4">
+      <c r="B72" s="5">
         <v>69</v>
       </c>
-      <c r="C72" s="4">
+      <c r="C72" s="5">
         <v>101430</v>
       </c>
-      <c r="D72" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A73" s="4">
+      <c r="D72" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" ht="16.5" spans="1:4">
+      <c r="A73" s="5">
         <v>70</v>
       </c>
-      <c r="B73" s="4">
+      <c r="B73" s="5">
         <v>70</v>
       </c>
-      <c r="C73" s="4">
+      <c r="C73" s="5">
         <v>106920</v>
       </c>
-      <c r="D73" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A74" s="4">
+      <c r="D73" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" ht="16.5" spans="1:4">
+      <c r="A74" s="5">
         <v>71</v>
       </c>
-      <c r="B74" s="4">
+      <c r="B74" s="5">
         <v>71</v>
       </c>
-      <c r="C74" s="4">
+      <c r="C74" s="5">
         <v>112620</v>
       </c>
-      <c r="D74" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A75" s="4">
+      <c r="D74" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" ht="16.5" spans="1:4">
+      <c r="A75" s="5">
         <v>72</v>
       </c>
-      <c r="B75" s="4">
+      <c r="B75" s="5">
         <v>72</v>
       </c>
-      <c r="C75" s="4">
+      <c r="C75" s="5">
         <v>118520</v>
       </c>
-      <c r="D75" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A76" s="4">
+      <c r="D75" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" ht="16.5" spans="1:4">
+      <c r="A76" s="5">
         <v>73</v>
       </c>
-      <c r="B76" s="4">
+      <c r="B76" s="5">
         <v>73</v>
       </c>
-      <c r="C76" s="4">
+      <c r="C76" s="5">
         <v>124630</v>
       </c>
-      <c r="D76" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A77" s="4">
+      <c r="D76" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" ht="16.5" spans="1:4">
+      <c r="A77" s="5">
         <v>74</v>
       </c>
-      <c r="B77" s="4">
+      <c r="B77" s="5">
         <v>74</v>
       </c>
-      <c r="C77" s="4">
+      <c r="C77" s="5">
         <v>130950</v>
       </c>
-      <c r="D77" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A78" s="4">
+      <c r="D77" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" ht="16.5" spans="1:4">
+      <c r="A78" s="5">
         <v>75</v>
       </c>
-      <c r="B78" s="4">
+      <c r="B78" s="5">
         <v>75</v>
       </c>
-      <c r="C78" s="4">
+      <c r="C78" s="5">
         <v>137480</v>
       </c>
-      <c r="D78" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A79" s="4">
+      <c r="D78" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" ht="16.5" spans="1:4">
+      <c r="A79" s="5">
         <v>76</v>
       </c>
-      <c r="B79" s="4">
+      <c r="B79" s="5">
         <v>76</v>
       </c>
-      <c r="C79" s="4">
+      <c r="C79" s="5">
         <v>144200</v>
       </c>
-      <c r="D79" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A80" s="4">
+      <c r="D79" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" ht="16.5" spans="1:4">
+      <c r="A80" s="5">
         <v>77</v>
       </c>
-      <c r="B80" s="4">
+      <c r="B80" s="5">
         <v>77</v>
       </c>
-      <c r="C80" s="4">
+      <c r="C80" s="5">
         <v>151130</v>
       </c>
-      <c r="D80" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A81" s="4">
+      <c r="D80" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" ht="16.5" spans="1:4">
+      <c r="A81" s="5">
         <v>78</v>
       </c>
-      <c r="B81" s="4">
+      <c r="B81" s="5">
         <v>78</v>
       </c>
-      <c r="C81" s="4">
+      <c r="C81" s="5">
         <v>158270</v>
       </c>
-      <c r="D81" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A82" s="4">
+      <c r="D81" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" ht="16.5" spans="1:4">
+      <c r="A82" s="5">
         <v>79</v>
       </c>
-      <c r="B82" s="4">
+      <c r="B82" s="5">
         <v>79</v>
       </c>
-      <c r="C82" s="4">
+      <c r="C82" s="5">
         <v>165610</v>
       </c>
-      <c r="D82" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A83" s="4">
+      <c r="D82" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" ht="16.5" spans="1:4">
+      <c r="A83" s="5">
         <v>80</v>
       </c>
-      <c r="B83" s="4">
+      <c r="B83" s="5">
         <v>80</v>
       </c>
-      <c r="C83" s="4">
+      <c r="C83" s="5">
         <v>173180</v>
       </c>
-      <c r="D83" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A84" s="4">
+      <c r="D83" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" ht="16.5" spans="1:4">
+      <c r="A84" s="5">
         <v>81</v>
       </c>
-      <c r="B84" s="4">
+      <c r="B84" s="5">
         <v>81</v>
       </c>
-      <c r="C84" s="4">
+      <c r="C84" s="5">
         <v>181450</v>
       </c>
-      <c r="D84" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A85" s="4">
+      <c r="D84" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" ht="16.5" spans="1:4">
+      <c r="A85" s="5">
         <v>82</v>
       </c>
-      <c r="B85" s="4">
+      <c r="B85" s="5">
         <v>82</v>
       </c>
-      <c r="C85" s="4">
+      <c r="C85" s="5">
         <v>190400</v>
       </c>
-      <c r="D85" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A86" s="4">
+      <c r="D85" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" ht="16.5" spans="1:4">
+      <c r="A86" s="5">
         <v>83</v>
       </c>
-      <c r="B86" s="4">
+      <c r="B86" s="5">
         <v>83</v>
       </c>
-      <c r="C86" s="4">
+      <c r="C86" s="5">
         <v>200050</v>
       </c>
-      <c r="D86" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A87" s="4">
+      <c r="D86" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" ht="16.5" spans="1:4">
+      <c r="A87" s="5">
         <v>84</v>
       </c>
-      <c r="B87" s="4">
+      <c r="B87" s="5">
         <v>84</v>
       </c>
-      <c r="C87" s="4">
+      <c r="C87" s="5">
         <v>210390</v>
       </c>
-      <c r="D87" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A88" s="4">
+      <c r="D87" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" ht="16.5" spans="1:4">
+      <c r="A88" s="5">
         <v>85</v>
       </c>
-      <c r="B88" s="4">
+      <c r="B88" s="5">
         <v>85</v>
       </c>
-      <c r="C88" s="4">
+      <c r="C88" s="5">
         <v>221420</v>
       </c>
-      <c r="D88" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A89" s="4">
+      <c r="D88" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" ht="16.5" spans="1:4">
+      <c r="A89" s="5">
         <v>86</v>
       </c>
-      <c r="B89" s="4">
+      <c r="B89" s="5">
         <v>86</v>
       </c>
-      <c r="C89" s="4">
+      <c r="C89" s="5">
         <v>233140</v>
       </c>
-      <c r="D89" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A90" s="4">
+      <c r="D89" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" ht="16.5" spans="1:4">
+      <c r="A90" s="5">
         <v>87</v>
       </c>
-      <c r="B90" s="4">
+      <c r="B90" s="5">
         <v>87</v>
       </c>
-      <c r="C90" s="4">
+      <c r="C90" s="5">
         <v>245550</v>
       </c>
-      <c r="D90" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A91" s="4">
+      <c r="D90" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" ht="16.5" spans="1:4">
+      <c r="A91" s="5">
         <v>88</v>
       </c>
-      <c r="B91" s="4">
+      <c r="B91" s="5">
         <v>88</v>
       </c>
-      <c r="C91" s="4">
+      <c r="C91" s="5">
         <v>258650</v>
       </c>
-      <c r="D91" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A92" s="4">
+      <c r="D91" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" ht="16.5" spans="1:4">
+      <c r="A92" s="5">
         <v>89</v>
       </c>
-      <c r="B92" s="4">
+      <c r="B92" s="5">
         <v>89</v>
       </c>
-      <c r="C92" s="4">
+      <c r="C92" s="5">
         <v>272440</v>
       </c>
-      <c r="D92" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A93" s="4">
+      <c r="D92" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" ht="16.5" spans="1:4">
+      <c r="A93" s="5">
         <v>90</v>
       </c>
-      <c r="B93" s="4">
+      <c r="B93" s="5">
         <v>90</v>
       </c>
-      <c r="C93" s="4">
+      <c r="C93" s="5">
         <v>286900</v>
       </c>
-      <c r="D93" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A94" s="4">
+      <c r="D93" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" ht="16.5" spans="1:4">
+      <c r="A94" s="5">
         <v>91</v>
       </c>
-      <c r="B94" s="4">
+      <c r="B94" s="5">
         <v>91</v>
       </c>
-      <c r="C94" s="4">
+      <c r="C94" s="5">
         <v>302800</v>
       </c>
-      <c r="D94" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A95" s="4">
+      <c r="D94" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" ht="16.5" spans="1:4">
+      <c r="A95" s="5">
         <v>92</v>
       </c>
-      <c r="B95" s="4">
+      <c r="B95" s="5">
         <v>92</v>
       </c>
-      <c r="C95" s="4">
+      <c r="C95" s="5">
         <v>320140</v>
       </c>
-      <c r="D95" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A96" s="4">
+      <c r="D95" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" ht="16.5" spans="1:4">
+      <c r="A96" s="5">
         <v>93</v>
       </c>
-      <c r="B96" s="4">
+      <c r="B96" s="5">
         <v>93</v>
       </c>
-      <c r="C96" s="4">
+      <c r="C96" s="5">
         <v>338920</v>
       </c>
-      <c r="D96" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A97" s="4">
+      <c r="D96" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" ht="16.5" spans="1:4">
+      <c r="A97" s="5">
         <v>94</v>
       </c>
-      <c r="B97" s="4">
+      <c r="B97" s="5">
         <v>94</v>
       </c>
-      <c r="C97" s="4">
+      <c r="C97" s="5">
         <v>359120</v>
       </c>
-      <c r="D97" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A98" s="4">
+      <c r="D97" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" ht="16.5" spans="1:4">
+      <c r="A98" s="5">
         <v>95</v>
       </c>
-      <c r="B98" s="4">
+      <c r="B98" s="5">
         <v>95</v>
       </c>
-      <c r="C98" s="4">
+      <c r="C98" s="5">
         <v>380790</v>
       </c>
-      <c r="D98" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A99" s="4">
+      <c r="D98" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" ht="16.5" spans="1:4">
+      <c r="A99" s="5">
         <v>96</v>
       </c>
-      <c r="B99" s="4">
+      <c r="B99" s="5">
         <v>96</v>
       </c>
-      <c r="C99" s="4">
+      <c r="C99" s="5">
         <v>403920</v>
       </c>
-      <c r="D99" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A100" s="4">
+      <c r="D99" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" ht="16.5" spans="1:4">
+      <c r="A100" s="5">
         <v>97</v>
       </c>
-      <c r="B100" s="4">
+      <c r="B100" s="5">
         <v>97</v>
       </c>
-      <c r="C100" s="4">
+      <c r="C100" s="5">
         <v>428510</v>
       </c>
-      <c r="D100" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A101" s="4">
+      <c r="D100" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" ht="16.5" spans="1:4">
+      <c r="A101" s="5">
         <v>98</v>
       </c>
-      <c r="B101" s="4">
+      <c r="B101" s="5">
         <v>98</v>
       </c>
-      <c r="C101" s="4">
+      <c r="C101" s="5">
         <v>454560</v>
       </c>
-      <c r="D101" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A102" s="4">
+      <c r="D101" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" ht="16.5" spans="1:4">
+      <c r="A102" s="5">
         <v>99</v>
       </c>
-      <c r="B102" s="4">
+      <c r="B102" s="5">
         <v>99</v>
       </c>
-      <c r="C102" s="4">
+      <c r="C102" s="5">
         <v>482070</v>
       </c>
-      <c r="D102" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A103" s="4">
+      <c r="D102" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" ht="16.5" spans="1:4">
+      <c r="A103" s="5">
         <v>100</v>
       </c>
-      <c r="B103" s="4">
+      <c r="B103" s="5">
         <v>100</v>
       </c>
-      <c r="C103" s="4">
+      <c r="C103" s="5">
         <v>511010</v>
       </c>
-      <c r="D103" s="4">
+      <c r="D103" s="5">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C87"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C88"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="D88" sqref="D88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
   <cols>
     <col min="2" max="2" width="59.875" customWidth="1"/>
     <col min="3" max="3" width="45.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" ht="15" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -3267,7 +3874,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -3278,956 +3885,968 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+    <row r="3" ht="15" spans="1:3">
+      <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
+    <row r="4" ht="16.5" spans="1:3">
+      <c r="A4" s="5">
         <v>1000</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
+    <row r="5" ht="16.5" spans="1:3">
+      <c r="A5" s="5">
         <v>1001</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
+    <row r="6" ht="16.5" spans="1:3">
+      <c r="A6" s="5">
         <v>1002</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
+    <row r="7" ht="16.5" spans="1:3">
+      <c r="A7" s="5">
         <v>1003</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
+    <row r="8" ht="16.5" spans="1:3">
+      <c r="A8" s="5">
         <v>1004</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
+    <row r="9" ht="16.5" spans="1:3">
+      <c r="A9" s="5">
         <v>1005</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
+    <row r="10" ht="16.5" spans="1:3">
+      <c r="A10" s="5">
         <v>2000</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="4">
+    <row r="11" ht="16.5" spans="1:3">
+      <c r="A11" s="5">
         <v>2001</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
+    <row r="12" ht="16.5" spans="1:3">
+      <c r="A12" s="5">
         <v>2002</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="4">
+    <row r="13" ht="16.5" spans="1:3">
+      <c r="A13" s="5">
         <v>2003</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="4">
+    <row r="14" ht="16.5" spans="1:3">
+      <c r="A14" s="5">
         <v>2004</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="4">
+    <row r="15" ht="16.5" spans="1:3">
+      <c r="A15" s="5">
         <v>2005</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="4">
+    <row r="16" ht="16.5" spans="1:3">
+      <c r="A16" s="5">
         <v>2006</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="4">
+    <row r="17" ht="16.5" spans="1:3">
+      <c r="A17" s="5">
         <v>2007</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="4">
+    <row r="18" ht="16.5" spans="1:3">
+      <c r="A18" s="5">
         <v>2008</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="4">
+    <row r="19" ht="16.5" spans="1:3">
+      <c r="A19" s="5">
         <v>2009</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="5" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="4">
+    <row r="20" ht="16.5" spans="1:3">
+      <c r="A20" s="5">
         <v>2010</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="4">
+    <row r="21" ht="16.5" spans="1:3">
+      <c r="A21" s="5">
         <v>2011</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="4">
+    <row r="22" ht="16.5" spans="1:3">
+      <c r="A22" s="5">
         <v>2012</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="4">
+    <row r="23" ht="16.5" spans="1:3">
+      <c r="A23" s="5">
         <v>2013</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="4">
+    <row r="24" ht="16.5" spans="1:3">
+      <c r="A24" s="5">
         <v>2014</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="4">
+    <row r="25" ht="16.5" spans="1:3">
+      <c r="A25" s="5">
         <v>2015</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="5" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="4">
+    <row r="26" ht="16.5" spans="1:3">
+      <c r="A26" s="5">
         <v>2016</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="4">
+    <row r="27" ht="16.5" spans="1:3">
+      <c r="A27" s="5">
         <v>2017</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="4">
+    <row r="28" ht="16.5" spans="1:3">
+      <c r="A28" s="5">
         <v>2018</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="4">
+    <row r="29" ht="16.5" spans="1:3">
+      <c r="A29" s="5">
         <v>2019</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="5" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A30" s="4">
+    <row r="30" ht="16.5" spans="1:3">
+      <c r="A30" s="5">
         <v>2020</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A31" s="4">
+    <row r="31" ht="16.5" spans="1:3">
+      <c r="A31" s="5">
         <v>3001</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="5" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="4">
+    <row r="32" ht="16.5" spans="1:3">
+      <c r="A32" s="5">
         <v>3002</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="5" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="4">
+    <row r="33" ht="16.5" spans="1:3">
+      <c r="A33" s="5">
         <v>4000</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="5" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A34" s="4">
+    <row r="34" ht="16.5" spans="1:3">
+      <c r="A34" s="5">
         <v>4001</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A35" s="4">
+    <row r="35" ht="16.5" spans="1:3">
+      <c r="A35" s="5">
         <v>4002</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="5" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A36" s="4">
+    <row r="36" ht="16.5" spans="1:3">
+      <c r="A36" s="5">
         <v>4003</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="5" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A37" s="4">
+    <row r="37" ht="16.5" spans="1:3">
+      <c r="A37" s="5">
         <v>4004</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="5" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A38" s="4">
+    <row r="38" ht="16.5" spans="1:3">
+      <c r="A38" s="5">
         <v>4005</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="5" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A39" s="4">
+    <row r="39" ht="16.5" spans="1:3">
+      <c r="A39" s="5">
         <v>4006</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="5" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A40" s="4">
+    <row r="40" ht="16.5" spans="1:3">
+      <c r="A40" s="5">
         <v>4007</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="5" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A41" s="4">
+    <row r="41" ht="16.5" spans="1:3">
+      <c r="A41" s="5">
         <v>4008</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A42" s="4">
+    <row r="42" ht="16.5" spans="1:3">
+      <c r="A42" s="5">
         <v>4009</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" s="5" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A43" s="4">
+    <row r="43" ht="16.5" spans="1:3">
+      <c r="A43" s="5">
         <v>5000</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" s="5" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A44" s="4">
+    <row r="44" ht="16.5" spans="1:3">
+      <c r="A44" s="5">
         <v>5001</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C44" s="5" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A45" s="4">
+    <row r="45" ht="16.5" spans="1:3">
+      <c r="A45" s="5">
         <v>5002</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" s="5" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A46" s="4">
+    <row r="46" ht="16.5" spans="1:3">
+      <c r="A46" s="5">
         <v>5003</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C46" s="5" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A47" s="4">
+    <row r="47" ht="16.5" spans="1:3">
+      <c r="A47" s="5">
         <v>5004</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C47" s="5" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A48" s="4">
+    <row r="48" ht="16.5" spans="1:3">
+      <c r="A48" s="5">
         <v>5005</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C48" s="5" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A49" s="4">
+    <row r="49" ht="16.5" spans="1:3">
+      <c r="A49" s="5">
         <v>5006</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C49" s="5" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A50" s="4">
+    <row r="50" ht="16.5" spans="1:3">
+      <c r="A50" s="5">
         <v>5007</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C50" s="5" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A51" s="4">
+    <row r="51" ht="16.5" spans="1:3">
+      <c r="A51" s="5">
         <v>5008</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B51" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C51" s="5" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A52" s="4">
+    <row r="52" ht="16.5" spans="1:3">
+      <c r="A52" s="5">
         <v>5009</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B52" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C52" s="5" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A53" s="4">
+    <row r="53" ht="16.5" spans="1:3">
+      <c r="A53" s="5">
         <v>5010</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B53" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C53" s="5" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A54" s="4">
+    <row r="54" ht="16.5" spans="1:3">
+      <c r="A54" s="5">
         <v>6000</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B54" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="C54" s="5" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A55" s="4">
+    <row r="55" ht="16.5" spans="1:3">
+      <c r="A55" s="5">
         <v>6001</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B55" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="C55" s="5" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A56" s="4">
+    <row r="56" ht="16.5" spans="1:3">
+      <c r="A56" s="5">
         <v>6002</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B56" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="C56" s="5" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A57" s="4">
+    <row r="57" ht="16.5" spans="1:3">
+      <c r="A57" s="5">
         <v>6003</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B57" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="C57" s="5" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A58" s="4">
+    <row r="58" ht="16.5" spans="1:3">
+      <c r="A58" s="5">
         <v>6004</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B58" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="C58" s="5" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A59" s="4">
+    <row r="59" ht="16.5" spans="1:3">
+      <c r="A59" s="5">
         <v>6005</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B59" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="C59" s="5" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A60" s="4">
+    <row r="60" ht="16.5" spans="1:3">
+      <c r="A60" s="5">
         <v>6006</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="B60" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="C60" s="4" t="s">
+      <c r="C60" s="5" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A61" s="4">
+    <row r="61" ht="16.5" spans="1:3">
+      <c r="A61" s="5">
         <v>6007</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B61" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="C61" s="5" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A62" s="4">
+    <row r="62" ht="16.5" spans="1:3">
+      <c r="A62" s="5">
         <v>6008</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="B62" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="C62" s="5" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A63" s="4">
+    <row r="63" ht="16.5" spans="1:3">
+      <c r="A63" s="5">
         <v>6009</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="B63" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="C63" s="4" t="s">
+      <c r="C63" s="5" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A64" s="4">
+    <row r="64" ht="16.5" spans="1:3">
+      <c r="A64" s="5">
         <v>6010</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="B64" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="C64" s="4" t="s">
+      <c r="C64" s="5" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A65" s="4">
+    <row r="65" ht="16.5" spans="1:3">
+      <c r="A65" s="5">
         <v>6011</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="B65" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="C65" s="4" t="s">
+      <c r="C65" s="5" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A66" s="4">
+    <row r="66" ht="16.5" spans="1:3">
+      <c r="A66" s="5">
         <v>6012</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="B66" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="C66" s="4" t="s">
+      <c r="C66" s="5" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A67" s="4">
+    <row r="67" ht="16.5" spans="1:3">
+      <c r="A67" s="5">
         <v>6013</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="B67" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="C67" s="4" t="s">
+      <c r="C67" s="5" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A68" s="4">
+    <row r="68" ht="16.5" spans="1:3">
+      <c r="A68" s="5">
         <v>6014</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="B68" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="C68" s="4" t="s">
+      <c r="C68" s="5" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A69" s="4">
+    <row r="69" ht="16.5" spans="1:3">
+      <c r="A69" s="5">
         <v>6015</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="B69" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="C69" s="4" t="s">
+      <c r="C69" s="5" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A70" s="4">
+    <row r="70" ht="16.5" spans="1:3">
+      <c r="A70" s="5">
         <v>6016</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="B70" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="C70" s="4" t="s">
+      <c r="C70" s="5" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A71" s="4">
+    <row r="71" ht="16.5" spans="1:3">
+      <c r="A71" s="5">
         <v>6017</v>
       </c>
-      <c r="B71" s="4" t="s">
+      <c r="B71" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="C71" s="4" t="s">
+      <c r="C71" s="5" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A72" s="4">
+    <row r="72" ht="16.5" spans="1:3">
+      <c r="A72" s="5">
         <v>6018</v>
       </c>
-      <c r="B72" s="4" t="s">
+      <c r="B72" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="C72" s="4" t="s">
+      <c r="C72" s="5" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A73" s="4">
+    <row r="73" ht="16.5" spans="1:3">
+      <c r="A73" s="5">
         <v>6019</v>
       </c>
-      <c r="B73" s="4" t="s">
+      <c r="B73" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="C73" s="4" t="s">
+      <c r="C73" s="5" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A74" s="4">
+    <row r="74" ht="16.5" spans="1:3">
+      <c r="A74" s="5">
         <v>6020</v>
       </c>
-      <c r="B74" s="4" t="s">
+      <c r="B74" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="C74" s="4" t="s">
+      <c r="C74" s="5" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A75" s="4">
+    <row r="75" ht="16.5" spans="1:3">
+      <c r="A75" s="5">
         <v>6021</v>
       </c>
-      <c r="B75" s="4" t="s">
+      <c r="B75" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="C75" s="4" t="s">
+      <c r="C75" s="5" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A76" s="4">
+    <row r="76" ht="16.5" spans="1:3">
+      <c r="A76" s="5">
         <v>6022</v>
       </c>
-      <c r="B76" s="4" t="s">
+      <c r="B76" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="C76" s="4" t="s">
+      <c r="C76" s="5" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A77" s="4">
+    <row r="77" ht="16.5" spans="1:3">
+      <c r="A77" s="5">
         <v>6023</v>
       </c>
-      <c r="B77" s="4" t="s">
+      <c r="B77" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="C77" s="4" t="s">
+      <c r="C77" s="5" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A78" s="4">
+    <row r="78" ht="16.5" spans="1:3">
+      <c r="A78" s="5">
         <v>6024</v>
       </c>
-      <c r="B78" s="4" t="s">
+      <c r="B78" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="C78" s="4" t="s">
+      <c r="C78" s="5" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A79" s="4">
+    <row r="79" ht="16.5" spans="1:3">
+      <c r="A79" s="5">
         <v>6025</v>
       </c>
-      <c r="B79" s="4" t="s">
+      <c r="B79" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="C79" s="4" t="s">
+      <c r="C79" s="5" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A80" s="4">
+    <row r="80" ht="16.5" spans="1:3">
+      <c r="A80" s="5">
         <v>7001</v>
       </c>
-      <c r="B80" s="4" t="s">
+      <c r="B80" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="C80" s="4" t="s">
+      <c r="C80" s="5" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A81" s="4">
+    <row r="81" ht="16.5" spans="1:3">
+      <c r="A81" s="5">
         <v>7002</v>
       </c>
-      <c r="B81" s="4" t="s">
+      <c r="B81" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="C81" s="4" t="s">
+      <c r="C81" s="5" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A82" s="4">
+    <row r="82" ht="16.5" spans="1:3">
+      <c r="A82" s="5">
         <v>7003</v>
       </c>
-      <c r="B82" s="4" t="s">
+      <c r="B82" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="C82" s="4" t="s">
+      <c r="C82" s="5" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A83" s="4">
+    <row r="83" ht="16.5" spans="1:3">
+      <c r="A83" s="5">
         <v>7004</v>
       </c>
-      <c r="B83" s="4" t="s">
+      <c r="B83" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="C83" s="4" t="s">
+      <c r="C83" s="5" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A84" s="4">
+    <row r="84" ht="16.5" spans="1:3">
+      <c r="A84" s="5">
         <v>7005</v>
       </c>
-      <c r="B84" s="4" t="s">
+      <c r="B84" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="C84" s="4" t="s">
+      <c r="C84" s="5" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A85" s="4">
+    <row r="85" ht="16.5" spans="1:3">
+      <c r="A85" s="5">
         <v>7006</v>
       </c>
-      <c r="B85" s="4" t="s">
+      <c r="B85" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="C85" s="4" t="s">
+      <c r="C85" s="5" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A86" s="4">
+    <row r="86" ht="16.5" spans="1:3">
+      <c r="A86" s="5">
         <v>7007</v>
       </c>
-      <c r="B86" s="4" t="s">
+      <c r="B86" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="C86" s="4" t="s">
+      <c r="C86" s="5" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A87" s="4">
+    <row r="87" ht="16.5" spans="1:3">
+      <c r="A87" s="5">
         <v>7008</v>
       </c>
-      <c r="B87" s="4" t="s">
+      <c r="B87" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="C87" s="4" t="s">
+      <c r="C87" s="5" t="s">
         <v>200</v>
       </c>
     </row>
+    <row r="88" ht="16.5" spans="1:3">
+      <c r="A88" s="5">
+        <v>7009</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.625" style="1" customWidth="1"/>
@@ -4241,883 +4860,884 @@
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" ht="15" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="B3" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6" t="s">
+    </row>
+    <row r="3" ht="45" spans="1:9">
+      <c r="A3" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
-        <v>1</v>
-      </c>
-      <c r="B4" s="4">
-        <v>1401001</v>
-      </c>
-      <c r="C4" s="4">
+      <c r="C3" s="4"/>
+      <c r="D3" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="4" ht="16.5" spans="1:9">
+      <c r="A4" s="5">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C4" s="5">
         <v>0</v>
       </c>
-      <c r="D4" s="4">
-        <v>1401002</v>
-      </c>
-      <c r="E4" s="4">
-        <v>1</v>
-      </c>
-      <c r="F4" s="4">
-        <v>1401010</v>
-      </c>
-      <c r="G4" s="4">
-        <v>1</v>
-      </c>
-      <c r="H4" s="4">
+      <c r="D4" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="E4" s="5">
+        <v>1</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="G4" s="5">
+        <v>1</v>
+      </c>
+      <c r="H4" s="5">
         <v>0</v>
       </c>
-      <c r="I4" s="4" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
+      <c r="I4" s="5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="5" ht="16.5" spans="1:9">
+      <c r="A5" s="5">
         <v>2</v>
       </c>
-      <c r="B5" s="4">
-        <v>1401002</v>
-      </c>
-      <c r="C5" s="4">
-        <v>1</v>
-      </c>
-      <c r="D5" s="4">
-        <v>1401010</v>
-      </c>
-      <c r="E5" s="4">
-        <v>1</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4">
-        <v>1</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
+      <c r="B5" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="E5" s="5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5">
+        <v>1</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="6" ht="16.5" spans="1:9">
+      <c r="A6" s="5">
         <v>3</v>
       </c>
-      <c r="B6" s="4">
-        <v>1401002</v>
-      </c>
-      <c r="C6" s="4">
-        <v>1</v>
-      </c>
-      <c r="D6" s="4">
-        <v>1401010</v>
-      </c>
-      <c r="E6" s="4">
-        <v>1</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4">
-        <v>1</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
+      <c r="B6" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="E6" s="5">
+        <v>1</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5">
+        <v>1</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="7" ht="16.5" spans="1:9">
+      <c r="A7" s="5">
         <v>4</v>
       </c>
-      <c r="B7" s="4">
-        <v>1401002</v>
-      </c>
-      <c r="C7" s="4">
-        <v>1</v>
-      </c>
-      <c r="D7" s="4">
-        <v>1401010</v>
-      </c>
-      <c r="E7" s="4">
-        <v>1</v>
-      </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4">
-        <v>1</v>
-      </c>
-      <c r="I7" s="4" t="s">
+      <c r="B7" s="5" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
-        <v>5</v>
-      </c>
-      <c r="B8" s="4">
-        <v>1401002</v>
-      </c>
-      <c r="C8" s="4">
-        <v>1</v>
-      </c>
-      <c r="D8" s="4">
-        <v>1401010</v>
-      </c>
-      <c r="E8" s="4">
-        <v>1</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4">
-        <v>1</v>
-      </c>
-      <c r="I8" s="4" t="s">
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
+      <c r="E7" s="5">
+        <v>1</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5">
+        <v>1</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="8" ht="16.5" spans="1:9">
+      <c r="A8" s="5">
+        <v>5</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="E8" s="5">
+        <v>1</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5">
+        <v>1</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="9" ht="16.5" spans="1:9">
+      <c r="A9" s="5">
         <v>6</v>
       </c>
-      <c r="B9" s="4">
-        <v>1401002</v>
-      </c>
-      <c r="C9" s="4">
-        <v>1</v>
-      </c>
-      <c r="D9" s="4">
-        <v>1401010</v>
-      </c>
-      <c r="E9" s="4">
-        <v>1</v>
-      </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4">
-        <v>1</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
+      <c r="B9" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="E9" s="5">
+        <v>1</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5">
+        <v>1</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="10" ht="16.5" spans="1:9">
+      <c r="A10" s="5">
         <v>7</v>
       </c>
-      <c r="B10" s="4">
-        <v>1401005</v>
-      </c>
-      <c r="C10" s="4">
-        <v>1</v>
-      </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4">
-        <v>1</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="4">
+      <c r="B10" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5">
+        <v>1</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="11" ht="16.5" spans="1:9">
+      <c r="A11" s="5">
         <v>8</v>
       </c>
-      <c r="B11" s="4">
-        <v>1401002</v>
-      </c>
-      <c r="C11" s="4">
-        <v>1</v>
-      </c>
-      <c r="D11" s="4">
-        <v>1401010</v>
-      </c>
-      <c r="E11" s="4">
-        <v>1</v>
-      </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4">
-        <v>1</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
+      <c r="B11" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="E11" s="5">
+        <v>1</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5">
+        <v>1</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="12" ht="16.5" spans="1:9">
+      <c r="A12" s="5">
         <v>9</v>
       </c>
-      <c r="B12" s="4">
-        <v>1401002</v>
-      </c>
-      <c r="C12" s="4">
-        <v>1</v>
-      </c>
-      <c r="D12" s="4">
-        <v>1401010</v>
-      </c>
-      <c r="E12" s="4">
-        <v>1</v>
-      </c>
-      <c r="F12" s="4">
-        <v>1401004</v>
-      </c>
-      <c r="G12" s="4">
+      <c r="B12" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="C12" s="5">
+        <v>1</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="E12" s="5">
+        <v>1</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="G12" s="5">
         <v>0</v>
       </c>
-      <c r="H12" s="4">
-        <v>1</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="4">
+      <c r="H12" s="5">
+        <v>1</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="13" ht="16.5" spans="1:9">
+      <c r="A13" s="5">
         <v>10</v>
       </c>
-      <c r="B13" s="4">
-        <v>1401002</v>
-      </c>
-      <c r="C13" s="4">
-        <v>1</v>
-      </c>
-      <c r="D13" s="4">
-        <v>1401010</v>
-      </c>
-      <c r="E13" s="4">
-        <v>1</v>
-      </c>
-      <c r="F13" s="4">
-        <v>1401005</v>
-      </c>
-      <c r="G13" s="4">
-        <v>1</v>
-      </c>
-      <c r="H13" s="4">
-        <v>1</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="4">
+      <c r="B13" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="C13" s="5">
+        <v>1</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="E13" s="5">
+        <v>1</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="G13" s="5">
+        <v>1</v>
+      </c>
+      <c r="H13" s="5">
+        <v>1</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="14" ht="16.5" spans="1:9">
+      <c r="A14" s="5">
         <v>11</v>
       </c>
-      <c r="B14" s="4">
-        <v>1401002</v>
-      </c>
-      <c r="C14" s="4">
-        <v>1</v>
-      </c>
-      <c r="D14" s="4">
-        <v>1401010</v>
-      </c>
-      <c r="E14" s="4">
-        <v>1</v>
-      </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4">
-        <v>1</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="4">
+      <c r="B14" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="C14" s="5">
+        <v>1</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="E14" s="5">
+        <v>1</v>
+      </c>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5">
+        <v>1</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="15" ht="16.5" spans="1:9">
+      <c r="A15" s="5">
         <v>12</v>
       </c>
-      <c r="B15" s="4">
-        <v>1401002</v>
-      </c>
-      <c r="C15" s="4">
-        <v>1</v>
-      </c>
-      <c r="D15" s="4">
-        <v>1401010</v>
-      </c>
-      <c r="E15" s="4">
-        <v>1</v>
-      </c>
-      <c r="F15" s="4">
-        <v>1401003</v>
-      </c>
-      <c r="G15" s="4">
+      <c r="B15" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="C15" s="5">
+        <v>1</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="E15" s="5">
+        <v>1</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="G15" s="5">
         <v>0</v>
       </c>
-      <c r="H15" s="4">
-        <v>1</v>
-      </c>
-      <c r="I15" s="4" t="s">
+      <c r="H15" s="5">
+        <v>1</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="16" ht="16.5" spans="1:9">
+      <c r="A16" s="5">
+        <v>13</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="C16" s="5">
+        <v>1</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="E16" s="5">
+        <v>1</v>
+      </c>
+      <c r="F16" s="5" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="4">
-        <v>13</v>
-      </c>
-      <c r="B16" s="4">
-        <v>1401002</v>
-      </c>
-      <c r="C16" s="4">
-        <v>1</v>
-      </c>
-      <c r="D16" s="4">
-        <v>1401010</v>
-      </c>
-      <c r="E16" s="4">
-        <v>1</v>
-      </c>
-      <c r="F16" s="4">
-        <v>1401005</v>
-      </c>
-      <c r="G16" s="4">
-        <v>1</v>
-      </c>
-      <c r="H16" s="4">
-        <v>1</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="4">
+      <c r="G16" s="5">
+        <v>1</v>
+      </c>
+      <c r="H16" s="5">
+        <v>1</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="17" ht="16.5" spans="1:9">
+      <c r="A17" s="5">
         <v>14</v>
       </c>
-      <c r="B17" s="4">
-        <v>1401002</v>
-      </c>
-      <c r="C17" s="4">
-        <v>1</v>
-      </c>
-      <c r="D17" s="4">
-        <v>1401010</v>
-      </c>
-      <c r="E17" s="4">
-        <v>1</v>
-      </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4">
-        <v>1</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="4">
+      <c r="B17" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="C17" s="5">
+        <v>1</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="E17" s="5">
+        <v>1</v>
+      </c>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5">
+        <v>1</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="18" ht="16.5" spans="1:9">
+      <c r="A18" s="5">
         <v>15</v>
       </c>
-      <c r="B18" s="4">
-        <v>1401002</v>
-      </c>
-      <c r="C18" s="4">
-        <v>1</v>
-      </c>
-      <c r="D18" s="4">
-        <v>1401010</v>
-      </c>
-      <c r="E18" s="4">
-        <v>1</v>
-      </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4">
-        <v>1</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="4">
+      <c r="B18" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="C18" s="5">
+        <v>1</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="E18" s="5">
+        <v>1</v>
+      </c>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5">
+        <v>1</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="19" ht="16.5" spans="1:9">
+      <c r="A19" s="5">
         <v>16</v>
       </c>
-      <c r="B19" s="4">
-        <v>1401010</v>
-      </c>
-      <c r="C19" s="4">
-        <v>1</v>
-      </c>
-      <c r="D19" s="4">
-        <v>1601001</v>
-      </c>
-      <c r="E19" s="4">
-        <v>1</v>
-      </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4">
-        <v>1</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="4">
+      <c r="B19" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="C19" s="5">
+        <v>1</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="E19" s="5">
+        <v>1</v>
+      </c>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5">
+        <v>1</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="20" ht="16.5" spans="1:9">
+      <c r="A20" s="5">
         <v>17</v>
       </c>
-      <c r="B20" s="4">
-        <v>1401010</v>
-      </c>
-      <c r="C20" s="4">
-        <v>1</v>
-      </c>
-      <c r="D20" s="4">
-        <v>1602001</v>
-      </c>
-      <c r="E20" s="4">
-        <v>1</v>
-      </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4">
-        <v>1</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="4">
+      <c r="B20" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="C20" s="5">
+        <v>1</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="E20" s="5">
+        <v>1</v>
+      </c>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5">
+        <v>1</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="21" ht="16.5" spans="1:9">
+      <c r="A21" s="5">
         <v>18</v>
       </c>
-      <c r="B21" s="4">
-        <v>1401010</v>
-      </c>
-      <c r="C21" s="4">
-        <v>1</v>
-      </c>
-      <c r="D21" s="4">
-        <v>1601001</v>
-      </c>
-      <c r="E21" s="4">
-        <v>1</v>
-      </c>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4">
-        <v>1</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="4">
+      <c r="B21" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="C21" s="5">
+        <v>1</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="E21" s="5">
+        <v>1</v>
+      </c>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5">
+        <v>1</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="22" ht="16.5" spans="1:9">
+      <c r="A22" s="5">
         <v>19</v>
       </c>
-      <c r="B22" s="4">
-        <v>1401010</v>
-      </c>
-      <c r="C22" s="4">
-        <v>1</v>
-      </c>
-      <c r="D22" s="4">
-        <v>1602001</v>
-      </c>
-      <c r="E22" s="4">
-        <v>1</v>
-      </c>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4">
-        <v>1</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="4">
+      <c r="B22" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="C22" s="5">
+        <v>1</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="E22" s="5">
+        <v>1</v>
+      </c>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5">
+        <v>1</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="23" ht="16.5" spans="1:9">
+      <c r="A23" s="5">
         <v>20</v>
       </c>
-      <c r="B23" s="4">
-        <v>1401002</v>
-      </c>
-      <c r="C23" s="4">
-        <v>1</v>
-      </c>
-      <c r="D23" s="4">
-        <v>1401010</v>
-      </c>
-      <c r="E23" s="4">
-        <v>1</v>
-      </c>
-      <c r="F23" s="4">
-        <v>1401007</v>
-      </c>
-      <c r="G23" s="4">
-        <v>1</v>
-      </c>
-      <c r="H23" s="4">
-        <v>1</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="4">
+      <c r="B23" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="C23" s="5">
+        <v>1</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="E23" s="5">
+        <v>1</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="G23" s="5">
+        <v>1</v>
+      </c>
+      <c r="H23" s="5">
+        <v>1</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="24" ht="16.5" spans="1:9">
+      <c r="A24" s="5">
         <v>21</v>
       </c>
-      <c r="B24" s="4">
-        <v>1401002</v>
-      </c>
-      <c r="C24" s="4">
-        <v>1</v>
-      </c>
-      <c r="D24" s="4">
-        <v>1401010</v>
-      </c>
-      <c r="E24" s="4">
-        <v>1</v>
-      </c>
-      <c r="F24" s="4">
-        <v>1401013</v>
-      </c>
-      <c r="G24" s="4">
+      <c r="B24" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="C24" s="5">
+        <v>1</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="E24" s="5">
+        <v>1</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="G24" s="5">
         <v>0</v>
       </c>
-      <c r="H24" s="4">
-        <v>1</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="4">
+      <c r="H24" s="5">
+        <v>1</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="25" ht="16.5" spans="1:9">
+      <c r="A25" s="5">
         <v>22</v>
       </c>
-      <c r="B25" s="4">
-        <v>1604002</v>
-      </c>
-      <c r="C25" s="4">
+      <c r="B25" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="C25" s="5">
         <v>0</v>
       </c>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4">
-        <v>1</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="4">
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5">
+        <v>1</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="26" ht="16.5" spans="1:9">
+      <c r="A26" s="5">
         <v>23</v>
       </c>
-      <c r="B26" s="4">
-        <v>1401002</v>
-      </c>
-      <c r="C26" s="4">
-        <v>1</v>
-      </c>
-      <c r="D26" s="4">
-        <v>1401010</v>
-      </c>
-      <c r="E26" s="4">
-        <v>1</v>
-      </c>
-      <c r="F26" s="4">
-        <v>1604001</v>
-      </c>
-      <c r="G26" s="4">
-        <v>1</v>
-      </c>
-      <c r="H26" s="4">
-        <v>1</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="4">
+      <c r="B26" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="C26" s="5">
+        <v>1</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="E26" s="5">
+        <v>1</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="G26" s="5">
+        <v>1</v>
+      </c>
+      <c r="H26" s="5">
+        <v>1</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="27" ht="16.5" spans="1:9">
+      <c r="A27" s="5">
         <v>24</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="C27" s="4">
-        <v>1</v>
-      </c>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4">
+      <c r="B27" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="C27" s="5">
+        <v>1</v>
+      </c>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5">
         <v>0</v>
       </c>
-      <c r="I27" s="4" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="4">
+      <c r="I27" s="5" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="28" ht="16.5" spans="1:9">
+      <c r="A28" s="5">
         <v>25</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="C28" s="4">
-        <v>1</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="E28" s="4">
-        <v>1</v>
-      </c>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4">
+      <c r="B28" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="C28" s="5">
+        <v>1</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="E28" s="5">
+        <v>1</v>
+      </c>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5">
         <v>0</v>
       </c>
-      <c r="I28" s="4" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="4">
+      <c r="I28" s="5" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="29" ht="16.5" spans="1:9">
+      <c r="A29" s="5">
         <v>26</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="C29" s="4">
-        <v>1</v>
-      </c>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4">
+      <c r="B29" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="C29" s="5">
+        <v>1</v>
+      </c>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5">
         <v>0</v>
       </c>
-      <c r="I29" s="4" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A30" s="4">
+      <c r="I29" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="30" ht="16.5" spans="1:9">
+      <c r="A30" s="5">
         <v>27</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="C30" s="4">
+      <c r="B30" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="C30" s="5">
         <v>0</v>
       </c>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4">
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5">
         <v>0</v>
       </c>
-      <c r="I30" s="4" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A31" s="4">
+      <c r="I30" s="5" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="31" ht="16.5" spans="1:9">
+      <c r="A31" s="5">
         <v>28</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="C31" s="4">
+      <c r="B31" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="C31" s="5">
         <v>0</v>
       </c>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4">
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5">
         <v>0</v>
       </c>
-      <c r="I31" s="4" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="4">
+      <c r="I31" s="5" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="32" ht="16.5" spans="1:9">
+      <c r="A32" s="5">
         <v>29</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="5">
         <v>0</v>
       </c>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4">
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5">
         <v>0</v>
       </c>
-      <c r="I32" s="4" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="4">
+      <c r="I32" s="5" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="33" ht="16.5" spans="1:9">
+      <c r="A33" s="5">
         <v>30</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="5">
         <v>0</v>
       </c>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4">
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5">
         <v>0</v>
       </c>
-      <c r="I33" s="4" t="s">
-        <v>250</v>
+      <c r="I33" s="5" t="s">
+        <v>261</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="6"/>
   <cols>
     <col min="4" max="4" width="44" customWidth="1"/>
     <col min="5" max="5" width="11.25" customWidth="1"/>
     <col min="6" max="6" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" ht="15" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -5134,96 +5754,97 @@
         <v>26</v>
       </c>
       <c r="F2" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="G2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+    <row r="3" ht="15" spans="1:7">
+      <c r="A3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="280.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
-        <v>1</v>
-      </c>
-      <c r="B4" s="4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="E4" s="4">
-        <v>1</v>
-      </c>
-      <c r="F4" s="4">
-        <v>1</v>
-      </c>
-      <c r="G4" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="165" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
+      <c r="B3" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="4" ht="280.5" spans="1:7">
+      <c r="A4" s="5">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="E4" s="5">
+        <v>1</v>
+      </c>
+      <c r="F4" s="5">
+        <v>1</v>
+      </c>
+      <c r="G4" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" ht="165" spans="1:7">
+      <c r="A5" s="5">
         <v>2</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="5">
         <v>2</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="E5" s="4">
-        <v>1</v>
-      </c>
-      <c r="F5" s="4">
+      <c r="C5" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="E5" s="5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="5">
         <v>2</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="5">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="3" width="9" style="1"/>
     <col min="4" max="4" width="12.375" style="1" customWidth="1"/>
@@ -5242,209 +5863,209 @@
     <col min="17" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" ht="15" spans="1:16">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="3" ht="15" spans="1:16">
+      <c r="A3" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="J3" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="P3" s="6" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
-        <v>1</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="C4" s="4">
-        <v>1</v>
-      </c>
-      <c r="D4" s="4">
+      <c r="K3" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="4" ht="16.5" spans="1:16">
+      <c r="A4" s="5">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5">
         <v>60</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>287</v>
+      <c r="E4" s="5" t="s">
+        <v>313</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>285</v>
+        <v>314</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>315</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>286</v>
+        <v>316</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>284</v>
+        <v>317</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>307</v>
+        <v>317</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>318</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>306</v>
+        <v>317</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>319</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>284</v>
+        <v>317</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>284</v>
+        <v>317</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>284</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Excel/镇魂街/basicInfo.基础信息.xlsx
+++ b/Excel/镇魂街/basicInfo.基础信息.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WORK\CeHua\trunk\ZHJStaffSpace\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -14,12 +19,12 @@
     <sheet name="公告" sheetId="29" r:id="rId5"/>
     <sheet name="User表" sheetId="30" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="320">
   <si>
     <t>sheet名</t>
   </si>
@@ -659,6 +664,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -669,6 +675,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -941,6 +948,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -951,6 +959,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -963,6 +972,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -973,6 +983,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1058,14 +1069,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="28">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1077,6 +1082,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1085,146 +1091,28 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1232,29 +1120,8 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1262,6 +1129,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1270,11 +1138,19 @@
       <sz val="12"/>
       <color theme="10"/>
       <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1289,157 +1165,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149845881527146"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="0" tint="-0.14981536301767021"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1451,31 +1183,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34934537797174"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="0" tint="-0.34934537797173987"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1485,26 +1193,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1528,80 +1218,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1612,295 +1228,83 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="62">
+  <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="35" borderId="1" applyFont="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" applyFont="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="58"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="15">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="58" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="61">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="13">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="33">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="4">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="61" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="13" applyFill="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="33" quotePrefix="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="4" quotePrefix="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="62">
+  <cellStyles count="14">
+    <cellStyle name="Grid" xfId="4"/>
+    <cellStyle name="Normal" xfId="7"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="横向标题" xfId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="6" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="7" builtinId="39"/>
-    <cellStyle name="差" xfId="8" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="9" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="10" builtinId="40"/>
-    <cellStyle name="超链接" xfId="11" builtinId="8"/>
-    <cellStyle name="百分比" xfId="12" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="13" builtinId="9"/>
-    <cellStyle name="注释" xfId="14" builtinId="10"/>
-    <cellStyle name="英文标题" xfId="15"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="16" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="17" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="18" builtinId="11"/>
-    <cellStyle name="标题" xfId="19" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="20" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="21" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="22" builtinId="17"/>
-    <cellStyle name="因变Grid" xfId="23"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="24" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="25" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="26" builtinId="44"/>
-    <cellStyle name="输出" xfId="27" builtinId="21"/>
-    <cellStyle name="计算" xfId="28" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="29" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="30" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="31" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="32" builtinId="24"/>
-    <cellStyle name="Grid" xfId="33"/>
-    <cellStyle name="汇总" xfId="34" builtinId="25"/>
-    <cellStyle name="好" xfId="35" builtinId="26"/>
-    <cellStyle name="适中" xfId="36" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="37" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="38" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="39" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="40" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="41" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="42" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="43" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="44" builtinId="41"/>
-    <cellStyle name="纵向标题" xfId="45"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="46" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="47" builtinId="43"/>
-    <cellStyle name="大标题" xfId="48"/>
-    <cellStyle name="强调文字颜色 5" xfId="49" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="50" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="51" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="52" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="53" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="54" builtinId="52"/>
-    <cellStyle name="Normal" xfId="55"/>
-    <cellStyle name="常规 2" xfId="56"/>
-    <cellStyle name="文本" xfId="57"/>
-    <cellStyle name="常规 3" xfId="58"/>
-    <cellStyle name="超链接 2" xfId="59"/>
-    <cellStyle name="无效" xfId="60"/>
-    <cellStyle name="中文标题" xfId="61"/>
+    <cellStyle name="常规 2" xfId="8"/>
+    <cellStyle name="常规 3" xfId="10"/>
+    <cellStyle name="超链接 2" xfId="11"/>
+    <cellStyle name="大标题" xfId="6"/>
+    <cellStyle name="横向标题" xfId="1"/>
+    <cellStyle name="文本" xfId="9"/>
+    <cellStyle name="无效" xfId="12"/>
+    <cellStyle name="因变Grid" xfId="3"/>
+    <cellStyle name="英文标题" xfId="2"/>
+    <cellStyle name="中文标题" xfId="13"/>
+    <cellStyle name="纵向标题" xfId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2158,19 +1562,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.5" customWidth="1"/>
     <col min="2" max="2" width="27.125" customWidth="1"/>
@@ -2181,7 +1585,7 @@
     <col min="7" max="7" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:8">
+    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2207,7 +1611,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="47.25" customHeight="1" spans="1:8">
+    <row r="2" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
@@ -2227,7 +1631,7 @@
       </c>
       <c r="H2" s="5"/>
     </row>
-    <row r="3" ht="57.75" customHeight="1" spans="1:8">
+    <row r="3" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -2245,7 +1649,7 @@
       </c>
       <c r="H3" s="5"/>
     </row>
-    <row r="4" ht="54" customHeight="1" spans="1:8">
+    <row r="4" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -2265,7 +1669,7 @@
       </c>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" ht="55.5" customHeight="1" spans="1:8">
+    <row r="5" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>12</v>
       </c>
@@ -2283,7 +1687,7 @@
       </c>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" ht="27" customHeight="1" spans="1:8">
+    <row r="6" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>15</v>
       </c>
@@ -2301,7 +1705,7 @@
       </c>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" ht="36" customHeight="1" spans="1:8">
+    <row r="7" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>17</v>
       </c>
@@ -2321,7 +1725,7 @@
       </c>
       <c r="H7" s="5"/>
     </row>
-    <row r="8" ht="31.5" customHeight="1" spans="1:8">
+    <row r="8" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>17</v>
       </c>
@@ -2339,7 +1743,7 @@
       </c>
       <c r="H8" s="5"/>
     </row>
-    <row r="9" ht="24.95" customHeight="1" spans="1:8">
+    <row r="9" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>20</v>
       </c>
@@ -2359,7 +1763,7 @@
       </c>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" ht="24.95" customHeight="1" spans="1:8">
+    <row r="10" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>20</v>
       </c>
@@ -2378,29 +1782,28 @@
       <c r="H10" s="5"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G97" sqref="G97"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="10.125" customWidth="1"/>
     <col min="3" max="3" width="9.5" customWidth="1"/>
     <col min="4" max="4" width="19.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:4">
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -2414,7 +1817,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -2428,7 +1831,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" ht="15" spans="1:4">
+    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
@@ -2442,7 +1845,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" ht="16.5" spans="1:4">
+    <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -2450,13 +1853,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="5">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="D4" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="5" ht="16.5" spans="1:4">
+    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>2</v>
       </c>
@@ -2464,13 +1867,13 @@
         <v>2</v>
       </c>
       <c r="C5" s="5">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="D5" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" ht="16.5" spans="1:4">
+    <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>3</v>
       </c>
@@ -2478,13 +1881,13 @@
         <v>3</v>
       </c>
       <c r="C6" s="5">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="D6" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="7" ht="16.5" spans="1:4">
+    <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>4</v>
       </c>
@@ -2492,13 +1895,13 @@
         <v>4</v>
       </c>
       <c r="C7" s="5">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="D7" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="8" ht="16.5" spans="1:4">
+    <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>5</v>
       </c>
@@ -2506,13 +1909,13 @@
         <v>5</v>
       </c>
       <c r="C8" s="5">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D8" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="9" ht="16.5" spans="1:4">
+    <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>6</v>
       </c>
@@ -2520,13 +1923,13 @@
         <v>6</v>
       </c>
       <c r="C9" s="5">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="D9" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="10" ht="16.5" spans="1:4">
+    <row r="10" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>7</v>
       </c>
@@ -2534,13 +1937,13 @@
         <v>7</v>
       </c>
       <c r="C10" s="5">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="D10" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="11" ht="16.5" spans="1:4">
+    <row r="11" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>8</v>
       </c>
@@ -2548,13 +1951,13 @@
         <v>8</v>
       </c>
       <c r="C11" s="5">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="D11" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="12" ht="16.5" spans="1:4">
+    <row r="12" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>9</v>
       </c>
@@ -2562,13 +1965,13 @@
         <v>9</v>
       </c>
       <c r="C12" s="5">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="D12" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="13" ht="16.5" spans="1:4">
+    <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>10</v>
       </c>
@@ -2576,13 +1979,13 @@
         <v>10</v>
       </c>
       <c r="C13" s="5">
-        <v>290</v>
+        <v>310</v>
       </c>
       <c r="D13" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="14" ht="16.5" spans="1:4">
+    <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>11</v>
       </c>
@@ -2590,13 +1993,13 @@
         <v>11</v>
       </c>
       <c r="C14" s="5">
-        <v>360</v>
+        <v>340</v>
       </c>
       <c r="D14" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="15" ht="16.5" spans="1:4">
+    <row r="15" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>12</v>
       </c>
@@ -2604,13 +2007,13 @@
         <v>12</v>
       </c>
       <c r="C15" s="5">
-        <v>450</v>
+        <v>370</v>
       </c>
       <c r="D15" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="16" ht="16.5" spans="1:4">
+    <row r="16" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>13</v>
       </c>
@@ -2618,13 +2021,13 @@
         <v>13</v>
       </c>
       <c r="C16" s="5">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="D16" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="17" ht="16.5" spans="1:4">
+    <row r="17" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>14</v>
       </c>
@@ -2632,13 +2035,13 @@
         <v>14</v>
       </c>
       <c r="C17" s="5">
-        <v>670</v>
+        <v>430</v>
       </c>
       <c r="D17" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="18" ht="16.5" spans="1:4">
+    <row r="18" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>15</v>
       </c>
@@ -2646,13 +2049,13 @@
         <v>15</v>
       </c>
       <c r="C18" s="5">
-        <v>800</v>
+        <v>465</v>
       </c>
       <c r="D18" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="19" ht="16.5" spans="1:4">
+    <row r="19" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>16</v>
       </c>
@@ -2660,13 +2063,13 @@
         <v>16</v>
       </c>
       <c r="C19" s="5">
-        <v>950</v>
+        <v>495</v>
       </c>
       <c r="D19" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="20" ht="16.5" spans="1:4">
+    <row r="20" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>17</v>
       </c>
@@ -2674,13 +2077,13 @@
         <v>17</v>
       </c>
       <c r="C20" s="5">
-        <v>1110</v>
+        <v>525</v>
       </c>
       <c r="D20" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="21" ht="16.5" spans="1:4">
+    <row r="21" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>18</v>
       </c>
@@ -2688,13 +2091,13 @@
         <v>18</v>
       </c>
       <c r="C21" s="5">
-        <v>1280</v>
+        <v>555</v>
       </c>
       <c r="D21" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="22" ht="16.5" spans="1:4">
+    <row r="22" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>19</v>
       </c>
@@ -2702,13 +2105,13 @@
         <v>19</v>
       </c>
       <c r="C22" s="5">
-        <v>1470</v>
+        <v>620</v>
       </c>
       <c r="D22" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="23" ht="16.5" spans="1:4">
+    <row r="23" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>20</v>
       </c>
@@ -2716,13 +2119,13 @@
         <v>20</v>
       </c>
       <c r="C23" s="5">
-        <v>1790</v>
+        <v>660</v>
       </c>
       <c r="D23" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="24" ht="16.5" spans="1:4">
+    <row r="24" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>21</v>
       </c>
@@ -2730,13 +2133,13 @@
         <v>21</v>
       </c>
       <c r="C24" s="5">
-        <v>2150</v>
+        <v>725</v>
       </c>
       <c r="D24" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="25" ht="16.5" spans="1:4">
+    <row r="25" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>22</v>
       </c>
@@ -2744,13 +2147,13 @@
         <v>22</v>
       </c>
       <c r="C25" s="5">
-        <v>2560</v>
+        <v>795</v>
       </c>
       <c r="D25" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="26" ht="16.5" spans="1:4">
+    <row r="26" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>23</v>
       </c>
@@ -2758,13 +2161,13 @@
         <v>23</v>
       </c>
       <c r="C26" s="5">
-        <v>3000</v>
+        <v>860</v>
       </c>
       <c r="D26" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="27" ht="16.5" spans="1:4">
+    <row r="27" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>24</v>
       </c>
@@ -2772,13 +2175,13 @@
         <v>24</v>
       </c>
       <c r="C27" s="5">
-        <v>3490</v>
+        <v>925</v>
       </c>
       <c r="D27" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="28" ht="16.5" spans="1:4">
+    <row r="28" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>25</v>
       </c>
@@ -2786,13 +2189,13 @@
         <v>25</v>
       </c>
       <c r="C28" s="5">
-        <v>4010</v>
+        <v>995</v>
       </c>
       <c r="D28" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="29" ht="16.5" spans="1:4">
+    <row r="29" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>26</v>
       </c>
@@ -2800,13 +2203,13 @@
         <v>26</v>
       </c>
       <c r="C29" s="5">
-        <v>4570</v>
+        <v>1060</v>
       </c>
       <c r="D29" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="30" ht="16.5" spans="1:4">
+    <row r="30" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>27</v>
       </c>
@@ -2814,13 +2217,13 @@
         <v>27</v>
       </c>
       <c r="C30" s="5">
-        <v>5160</v>
+        <v>1125</v>
       </c>
       <c r="D30" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="31" ht="16.5" spans="1:4">
+    <row r="31" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <v>28</v>
       </c>
@@ -2828,13 +2231,13 @@
         <v>28</v>
       </c>
       <c r="C31" s="5">
-        <v>5790</v>
+        <v>1190</v>
       </c>
       <c r="D31" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="32" ht="16.5" spans="1:4">
+    <row r="32" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
         <v>29</v>
       </c>
@@ -2842,13 +2245,13 @@
         <v>29</v>
       </c>
       <c r="C32" s="5">
-        <v>6460</v>
+        <v>1325</v>
       </c>
       <c r="D32" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="33" ht="16.5" spans="1:4">
+    <row r="33" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <v>30</v>
       </c>
@@ -2856,13 +2259,13 @@
         <v>30</v>
       </c>
       <c r="C33" s="5">
-        <v>7480</v>
+        <v>1400</v>
       </c>
       <c r="D33" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="34" ht="16.5" spans="1:4">
+    <row r="34" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
         <v>31</v>
       </c>
@@ -2870,13 +2273,13 @@
         <v>31</v>
       </c>
       <c r="C34" s="5">
-        <v>8540</v>
+        <v>1680</v>
       </c>
       <c r="D34" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="35" ht="16.5" spans="1:4">
+    <row r="35" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
         <v>32</v>
       </c>
@@ -2884,13 +2287,13 @@
         <v>32</v>
       </c>
       <c r="C35" s="5">
-        <v>9640</v>
+        <v>1960</v>
       </c>
       <c r="D35" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="36" ht="16.5" spans="1:4">
+    <row r="36" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
         <v>33</v>
       </c>
@@ -2898,13 +2301,13 @@
         <v>33</v>
       </c>
       <c r="C36" s="5">
-        <v>10770</v>
+        <v>2245</v>
       </c>
       <c r="D36" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="37" ht="16.5" spans="1:4">
+    <row r="37" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
         <v>34</v>
       </c>
@@ -2912,13 +2315,13 @@
         <v>34</v>
       </c>
       <c r="C37" s="5">
-        <v>11940</v>
+        <v>2525</v>
       </c>
       <c r="D37" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="38" ht="16.5" spans="1:4">
+    <row r="38" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
         <v>35</v>
       </c>
@@ -2926,13 +2329,13 @@
         <v>35</v>
       </c>
       <c r="C38" s="5">
-        <v>13140</v>
+        <v>2805</v>
       </c>
       <c r="D38" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="39" ht="16.5" spans="1:4">
+    <row r="39" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
         <v>36</v>
       </c>
@@ -2940,13 +2343,13 @@
         <v>36</v>
       </c>
       <c r="C39" s="5">
-        <v>14370</v>
+        <v>3085</v>
       </c>
       <c r="D39" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="40" ht="16.5" spans="1:4">
+    <row r="40" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
         <v>37</v>
       </c>
@@ -2954,13 +2357,13 @@
         <v>37</v>
       </c>
       <c r="C40" s="5">
-        <v>15630</v>
+        <v>3365</v>
       </c>
       <c r="D40" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="41" ht="16.5" spans="1:4">
+    <row r="41" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
         <v>38</v>
       </c>
@@ -2968,13 +2371,13 @@
         <v>38</v>
       </c>
       <c r="C41" s="5">
-        <v>16930</v>
+        <v>3645</v>
       </c>
       <c r="D41" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="42" ht="16.5" spans="1:4">
+    <row r="42" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
         <v>39</v>
       </c>
@@ -2982,13 +2385,13 @@
         <v>39</v>
       </c>
       <c r="C42" s="5">
-        <v>18260</v>
+        <v>4210</v>
       </c>
       <c r="D42" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="43" ht="16.5" spans="1:4">
+    <row r="43" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A43" s="5">
         <v>40</v>
       </c>
@@ -2996,13 +2399,13 @@
         <v>40</v>
       </c>
       <c r="C43" s="5">
-        <v>19650</v>
+        <v>4005</v>
       </c>
       <c r="D43" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="44" ht="16.5" spans="1:4">
+    <row r="44" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A44" s="5">
         <v>41</v>
       </c>
@@ -3010,13 +2413,13 @@
         <v>41</v>
       </c>
       <c r="C44" s="5">
-        <v>21080</v>
+        <v>4410</v>
       </c>
       <c r="D44" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="45" ht="16.5" spans="1:4">
+    <row r="45" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A45" s="5">
         <v>42</v>
       </c>
@@ -3024,13 +2427,13 @@
         <v>42</v>
       </c>
       <c r="C45" s="5">
-        <v>22560</v>
+        <v>4810</v>
       </c>
       <c r="D45" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="46" ht="16.5" spans="1:4">
+    <row r="46" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A46" s="5">
         <v>43</v>
       </c>
@@ -3038,13 +2441,13 @@
         <v>43</v>
       </c>
       <c r="C46" s="5">
-        <v>24080</v>
+        <v>5210</v>
       </c>
       <c r="D46" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="47" ht="16.5" spans="1:4">
+    <row r="47" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A47" s="5">
         <v>44</v>
       </c>
@@ -3052,13 +2455,13 @@
         <v>44</v>
       </c>
       <c r="C47" s="5">
-        <v>25640</v>
+        <v>5610</v>
       </c>
       <c r="D47" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="48" ht="16.5" spans="1:4">
+    <row r="48" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A48" s="5">
         <v>45</v>
       </c>
@@ -3066,13 +2469,13 @@
         <v>45</v>
       </c>
       <c r="C48" s="5">
-        <v>27250</v>
+        <v>6010</v>
       </c>
       <c r="D48" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="49" ht="16.5" spans="1:4">
+    <row r="49" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A49" s="5">
         <v>46</v>
       </c>
@@ -3080,13 +2483,13 @@
         <v>46</v>
       </c>
       <c r="C49" s="5">
-        <v>28900</v>
+        <v>6410</v>
       </c>
       <c r="D49" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="50" ht="16.5" spans="1:4">
+    <row r="50" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A50" s="5">
         <v>47</v>
       </c>
@@ -3094,13 +2497,13 @@
         <v>47</v>
       </c>
       <c r="C50" s="5">
-        <v>30590</v>
+        <v>6815</v>
       </c>
       <c r="D50" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="51" ht="16.5" spans="1:4">
+    <row r="51" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A51" s="5">
         <v>48</v>
       </c>
@@ -3108,13 +2511,13 @@
         <v>48</v>
       </c>
       <c r="C51" s="5">
-        <v>32320</v>
+        <v>7215</v>
       </c>
       <c r="D51" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="52" ht="16.5" spans="1:4">
+    <row r="52" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A52" s="5">
         <v>49</v>
       </c>
@@ -3122,13 +2525,13 @@
         <v>49</v>
       </c>
       <c r="C52" s="5">
-        <v>34090</v>
+        <v>8015</v>
       </c>
       <c r="D52" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="53" ht="16.5" spans="1:4">
+    <row r="53" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A53" s="5">
         <v>50</v>
       </c>
@@ -3136,13 +2539,13 @@
         <v>50</v>
       </c>
       <c r="C53" s="5">
-        <v>36510</v>
+        <v>5960</v>
       </c>
       <c r="D53" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="54" ht="16.5" spans="1:4">
+    <row r="54" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A54" s="5">
         <v>51</v>
       </c>
@@ -3150,13 +2553,13 @@
         <v>51</v>
       </c>
       <c r="C54" s="5">
-        <v>38980</v>
+        <v>6560</v>
       </c>
       <c r="D54" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="55" ht="16.5" spans="1:4">
+    <row r="55" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A55" s="5">
         <v>52</v>
       </c>
@@ -3164,13 +2567,13 @@
         <v>52</v>
       </c>
       <c r="C55" s="5">
-        <v>41500</v>
+        <v>7155</v>
       </c>
       <c r="D55" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="56" ht="16.5" spans="1:4">
+    <row r="56" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A56" s="5">
         <v>53</v>
       </c>
@@ -3178,13 +2581,13 @@
         <v>53</v>
       </c>
       <c r="C56" s="5">
-        <v>44060</v>
+        <v>7750</v>
       </c>
       <c r="D56" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="57" ht="16.5" spans="1:4">
+    <row r="57" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A57" s="5">
         <v>54</v>
       </c>
@@ -3192,13 +2595,13 @@
         <v>54</v>
       </c>
       <c r="C57" s="5">
-        <v>46670</v>
+        <v>8350</v>
       </c>
       <c r="D57" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="58" ht="16.5" spans="1:4">
+    <row r="58" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A58" s="5">
         <v>55</v>
       </c>
@@ -3206,13 +2609,13 @@
         <v>55</v>
       </c>
       <c r="C58" s="5">
-        <v>49330</v>
+        <v>8945</v>
       </c>
       <c r="D58" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="59" ht="16.5" spans="1:4">
+    <row r="59" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A59" s="5">
         <v>56</v>
       </c>
@@ -3220,13 +2623,13 @@
         <v>56</v>
       </c>
       <c r="C59" s="5">
-        <v>52050</v>
+        <v>9540</v>
       </c>
       <c r="D59" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="60" ht="16.5" spans="1:4">
+    <row r="60" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A60" s="5">
         <v>57</v>
       </c>
@@ -3234,13 +2637,13 @@
         <v>57</v>
       </c>
       <c r="C60" s="5">
-        <v>54820</v>
+        <v>10135</v>
       </c>
       <c r="D60" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="61" ht="16.5" spans="1:4">
+    <row r="61" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A61" s="5">
         <v>58</v>
       </c>
@@ -3248,13 +2651,13 @@
         <v>58</v>
       </c>
       <c r="C61" s="5">
-        <v>57630</v>
+        <v>10735</v>
       </c>
       <c r="D61" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="62" ht="16.5" spans="1:4">
+    <row r="62" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A62" s="5">
         <v>59</v>
       </c>
@@ -3262,13 +2665,13 @@
         <v>59</v>
       </c>
       <c r="C62" s="5">
-        <v>60500</v>
+        <v>11925</v>
       </c>
       <c r="D62" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="63" ht="16.5" spans="1:4">
+    <row r="63" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A63" s="5">
         <v>60</v>
       </c>
@@ -3276,13 +2679,13 @@
         <v>60</v>
       </c>
       <c r="C63" s="5">
-        <v>64180</v>
+        <v>9140</v>
       </c>
       <c r="D63" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="64" ht="16.5" spans="1:4">
+    <row r="64" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A64" s="5">
         <v>61</v>
       </c>
@@ -3290,13 +2693,13 @@
         <v>61</v>
       </c>
       <c r="C64" s="5">
-        <v>67950</v>
+        <v>10055</v>
       </c>
       <c r="D64" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="65" ht="16.5" spans="1:4">
+    <row r="65" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A65" s="5">
         <v>62</v>
       </c>
@@ -3304,13 +2707,13 @@
         <v>62</v>
       </c>
       <c r="C65" s="5">
-        <v>71820</v>
+        <v>10970</v>
       </c>
       <c r="D65" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="66" ht="16.5" spans="1:4">
+    <row r="66" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A66" s="5">
         <v>63</v>
       </c>
@@ -3318,13 +2721,13 @@
         <v>63</v>
       </c>
       <c r="C66" s="5">
-        <v>75770</v>
+        <v>11885</v>
       </c>
       <c r="D66" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="67" ht="16.5" spans="1:4">
+    <row r="67" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A67" s="5">
         <v>64</v>
       </c>
@@ -3332,13 +2735,13 @@
         <v>64</v>
       </c>
       <c r="C67" s="5">
-        <v>79820</v>
+        <v>12800</v>
       </c>
       <c r="D67" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="68" ht="16.5" spans="1:4">
+    <row r="68" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A68" s="5">
         <v>65</v>
       </c>
@@ -3346,13 +2749,13 @@
         <v>65</v>
       </c>
       <c r="C68" s="5">
-        <v>83950</v>
+        <v>13715</v>
       </c>
       <c r="D68" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="69" ht="16.5" spans="1:4">
+    <row r="69" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A69" s="5">
         <v>66</v>
       </c>
@@ -3360,13 +2763,13 @@
         <v>66</v>
       </c>
       <c r="C69" s="5">
-        <v>88180</v>
+        <v>14630</v>
       </c>
       <c r="D69" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="70" ht="16.5" spans="1:4">
+    <row r="70" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A70" s="5">
         <v>67</v>
       </c>
@@ -3374,13 +2777,13 @@
         <v>67</v>
       </c>
       <c r="C70" s="5">
-        <v>92500</v>
+        <v>15540</v>
       </c>
       <c r="D70" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="71" ht="16.5" spans="1:4">
+    <row r="71" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A71" s="5">
         <v>68</v>
       </c>
@@ -3388,13 +2791,13 @@
         <v>68</v>
       </c>
       <c r="C71" s="5">
-        <v>96910</v>
+        <v>16455</v>
       </c>
       <c r="D71" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="72" ht="16.5" spans="1:4">
+    <row r="72" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A72" s="5">
         <v>69</v>
       </c>
@@ -3402,13 +2805,13 @@
         <v>69</v>
       </c>
       <c r="C72" s="5">
-        <v>101430</v>
+        <v>18285</v>
       </c>
       <c r="D72" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="73" ht="16.5" spans="1:4">
+    <row r="73" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A73" s="5">
         <v>70</v>
       </c>
@@ -3416,13 +2819,13 @@
         <v>70</v>
       </c>
       <c r="C73" s="5">
-        <v>106920</v>
+        <v>12840</v>
       </c>
       <c r="D73" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="74" ht="16.5" spans="1:4">
+    <row r="74" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A74" s="5">
         <v>71</v>
       </c>
@@ -3430,13 +2833,13 @@
         <v>71</v>
       </c>
       <c r="C74" s="5">
-        <v>112620</v>
+        <v>14125</v>
       </c>
       <c r="D74" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="75" ht="16.5" spans="1:4">
+    <row r="75" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A75" s="5">
         <v>72</v>
       </c>
@@ -3444,13 +2847,13 @@
         <v>72</v>
       </c>
       <c r="C75" s="5">
-        <v>118520</v>
+        <v>15410</v>
       </c>
       <c r="D75" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="76" ht="16.5" spans="1:4">
+    <row r="76" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A76" s="5">
         <v>73</v>
       </c>
@@ -3458,13 +2861,13 @@
         <v>73</v>
       </c>
       <c r="C76" s="5">
-        <v>124630</v>
+        <v>16695</v>
       </c>
       <c r="D76" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="77" ht="16.5" spans="1:4">
+    <row r="77" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A77" s="5">
         <v>74</v>
       </c>
@@ -3472,13 +2875,13 @@
         <v>74</v>
       </c>
       <c r="C77" s="5">
-        <v>130950</v>
+        <v>17975</v>
       </c>
       <c r="D77" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="78" ht="16.5" spans="1:4">
+    <row r="78" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A78" s="5">
         <v>75</v>
       </c>
@@ -3486,13 +2889,13 @@
         <v>75</v>
       </c>
       <c r="C78" s="5">
-        <v>137480</v>
+        <v>19260</v>
       </c>
       <c r="D78" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="79" ht="16.5" spans="1:4">
+    <row r="79" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A79" s="5">
         <v>76</v>
       </c>
@@ -3500,13 +2903,13 @@
         <v>76</v>
       </c>
       <c r="C79" s="5">
-        <v>144200</v>
+        <v>20545</v>
       </c>
       <c r="D79" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="80" ht="16.5" spans="1:4">
+    <row r="80" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A80" s="5">
         <v>77</v>
       </c>
@@ -3514,13 +2917,13 @@
         <v>77</v>
       </c>
       <c r="C80" s="5">
-        <v>151130</v>
+        <v>21830</v>
       </c>
       <c r="D80" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="81" ht="16.5" spans="1:4">
+    <row r="81" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A81" s="5">
         <v>78</v>
       </c>
@@ -3528,13 +2931,13 @@
         <v>78</v>
       </c>
       <c r="C81" s="5">
-        <v>158270</v>
+        <v>23115</v>
       </c>
       <c r="D81" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="82" ht="16.5" spans="1:4">
+    <row r="82" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A82" s="5">
         <v>79</v>
       </c>
@@ -3542,13 +2945,13 @@
         <v>79</v>
       </c>
       <c r="C82" s="5">
-        <v>165610</v>
+        <v>25680</v>
       </c>
       <c r="D82" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="83" ht="16.5" spans="1:4">
+    <row r="83" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A83" s="5">
         <v>80</v>
       </c>
@@ -3556,13 +2959,13 @@
         <v>80</v>
       </c>
       <c r="C83" s="5">
-        <v>173180</v>
+        <v>20400</v>
       </c>
       <c r="D83" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="84" ht="16.5" spans="1:4">
+    <row r="84" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A84" s="5">
         <v>81</v>
       </c>
@@ -3570,13 +2973,13 @@
         <v>81</v>
       </c>
       <c r="C84" s="5">
-        <v>181450</v>
+        <v>22440</v>
       </c>
       <c r="D84" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="85" ht="16.5" spans="1:4">
+    <row r="85" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A85" s="5">
         <v>82</v>
       </c>
@@ -3584,13 +2987,13 @@
         <v>82</v>
       </c>
       <c r="C85" s="5">
-        <v>190400</v>
+        <v>24480</v>
       </c>
       <c r="D85" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="86" ht="16.5" spans="1:4">
+    <row r="86" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A86" s="5">
         <v>83</v>
       </c>
@@ -3598,13 +3001,13 @@
         <v>83</v>
       </c>
       <c r="C86" s="5">
-        <v>200050</v>
+        <v>26525</v>
       </c>
       <c r="D86" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="87" ht="16.5" spans="1:4">
+    <row r="87" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A87" s="5">
         <v>84</v>
       </c>
@@ -3612,13 +3015,13 @@
         <v>84</v>
       </c>
       <c r="C87" s="5">
-        <v>210390</v>
+        <v>28565</v>
       </c>
       <c r="D87" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="88" ht="16.5" spans="1:4">
+    <row r="88" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A88" s="5">
         <v>85</v>
       </c>
@@ -3626,13 +3029,13 @@
         <v>85</v>
       </c>
       <c r="C88" s="5">
-        <v>221420</v>
+        <v>30605</v>
       </c>
       <c r="D88" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="89" ht="16.5" spans="1:4">
+    <row r="89" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A89" s="5">
         <v>86</v>
       </c>
@@ -3640,13 +3043,13 @@
         <v>86</v>
       </c>
       <c r="C89" s="5">
-        <v>233140</v>
+        <v>32645</v>
       </c>
       <c r="D89" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="90" ht="16.5" spans="1:4">
+    <row r="90" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A90" s="5">
         <v>87</v>
       </c>
@@ -3654,13 +3057,13 @@
         <v>87</v>
       </c>
       <c r="C90" s="5">
-        <v>245550</v>
+        <v>34685</v>
       </c>
       <c r="D90" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="91" ht="16.5" spans="1:4">
+    <row r="91" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A91" s="5">
         <v>88</v>
       </c>
@@ -3668,13 +3071,13 @@
         <v>88</v>
       </c>
       <c r="C91" s="5">
-        <v>258650</v>
+        <v>36725</v>
       </c>
       <c r="D91" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="92" ht="16.5" spans="1:4">
+    <row r="92" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A92" s="5">
         <v>89</v>
       </c>
@@ -3682,13 +3085,13 @@
         <v>89</v>
       </c>
       <c r="C92" s="5">
-        <v>272440</v>
+        <v>40805</v>
       </c>
       <c r="D92" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="93" ht="16.5" spans="1:4">
+    <row r="93" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A93" s="5">
         <v>90</v>
       </c>
@@ -3696,13 +3099,13 @@
         <v>90</v>
       </c>
       <c r="C93" s="5">
-        <v>286900</v>
+        <v>35770</v>
       </c>
       <c r="D93" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="94" ht="16.5" spans="1:4">
+    <row r="94" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A94" s="5">
         <v>91</v>
       </c>
@@ -3710,13 +3113,13 @@
         <v>91</v>
       </c>
       <c r="C94" s="5">
-        <v>302800</v>
+        <v>39350</v>
       </c>
       <c r="D94" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="95" ht="16.5" spans="1:4">
+    <row r="95" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A95" s="5">
         <v>92</v>
       </c>
@@ -3724,13 +3127,13 @@
         <v>92</v>
       </c>
       <c r="C95" s="5">
-        <v>320140</v>
+        <v>42925</v>
       </c>
       <c r="D95" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="96" ht="16.5" spans="1:4">
+    <row r="96" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A96" s="5">
         <v>93</v>
       </c>
@@ -3738,13 +3141,13 @@
         <v>93</v>
       </c>
       <c r="C96" s="5">
-        <v>338920</v>
+        <v>46505</v>
       </c>
       <c r="D96" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="97" ht="16.5" spans="1:4">
+    <row r="97" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A97" s="5">
         <v>94</v>
       </c>
@@ -3752,13 +3155,13 @@
         <v>94</v>
       </c>
       <c r="C97" s="5">
-        <v>359120</v>
+        <v>50080</v>
       </c>
       <c r="D97" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="98" ht="16.5" spans="1:4">
+    <row r="98" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A98" s="5">
         <v>95</v>
       </c>
@@ -3766,13 +3169,13 @@
         <v>95</v>
       </c>
       <c r="C98" s="5">
-        <v>380790</v>
+        <v>53660</v>
       </c>
       <c r="D98" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="99" ht="16.5" spans="1:4">
+    <row r="99" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A99" s="5">
         <v>96</v>
       </c>
@@ -3780,13 +3183,13 @@
         <v>96</v>
       </c>
       <c r="C99" s="5">
-        <v>403920</v>
+        <v>57235</v>
       </c>
       <c r="D99" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="100" ht="16.5" spans="1:4">
+    <row r="100" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A100" s="5">
         <v>97</v>
       </c>
@@ -3794,13 +3197,13 @@
         <v>97</v>
       </c>
       <c r="C100" s="5">
-        <v>428510</v>
+        <v>60815</v>
       </c>
       <c r="D100" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="101" ht="16.5" spans="1:4">
+    <row r="101" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A101" s="5">
         <v>98</v>
       </c>
@@ -3808,13 +3211,13 @@
         <v>98</v>
       </c>
       <c r="C101" s="5">
-        <v>454560</v>
+        <v>64390</v>
       </c>
       <c r="D101" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="102" ht="16.5" spans="1:4">
+    <row r="102" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A102" s="5">
         <v>99</v>
       </c>
@@ -3822,13 +3225,13 @@
         <v>99</v>
       </c>
       <c r="C102" s="5">
-        <v>482070</v>
+        <v>71545</v>
       </c>
       <c r="D102" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="103" ht="16.5" spans="1:4">
+    <row r="103" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A103" s="5">
         <v>100</v>
       </c>
@@ -3836,34 +3239,33 @@
         <v>100</v>
       </c>
       <c r="C103" s="5">
-        <v>511010</v>
+        <v>201010</v>
       </c>
       <c r="D103" s="5">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+    <sheetView topLeftCell="A64" workbookViewId="0">
       <selection activeCell="D88" sqref="D88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="59.875" customWidth="1"/>
     <col min="3" max="3" width="45.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:3">
+    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -3874,7 +3276,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -3885,7 +3287,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" ht="15" spans="1:3">
+    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
@@ -3896,7 +3298,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" ht="16.5" spans="1:3">
+    <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>1000</v>
       </c>
@@ -3907,7 +3309,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" ht="16.5" spans="1:3">
+    <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>1001</v>
       </c>
@@ -3918,7 +3320,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" ht="16.5" spans="1:3">
+    <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>1002</v>
       </c>
@@ -3929,7 +3331,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" ht="16.5" spans="1:3">
+    <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>1003</v>
       </c>
@@ -3940,7 +3342,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" ht="16.5" spans="1:3">
+    <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>1004</v>
       </c>
@@ -3951,7 +3353,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" ht="16.5" spans="1:3">
+    <row r="9" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>1005</v>
       </c>
@@ -3962,7 +3364,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" ht="16.5" spans="1:3">
+    <row r="10" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>2000</v>
       </c>
@@ -3973,7 +3375,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" ht="16.5" spans="1:3">
+    <row r="11" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>2001</v>
       </c>
@@ -3984,7 +3386,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" ht="16.5" spans="1:3">
+    <row r="12" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>2002</v>
       </c>
@@ -3995,7 +3397,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" ht="16.5" spans="1:3">
+    <row r="13" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>2003</v>
       </c>
@@ -4006,7 +3408,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" ht="16.5" spans="1:3">
+    <row r="14" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>2004</v>
       </c>
@@ -4017,7 +3419,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" ht="16.5" spans="1:3">
+    <row r="15" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>2005</v>
       </c>
@@ -4028,7 +3430,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" ht="16.5" spans="1:3">
+    <row r="16" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>2006</v>
       </c>
@@ -4039,7 +3441,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" ht="16.5" spans="1:3">
+    <row r="17" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>2007</v>
       </c>
@@ -4050,7 +3452,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="18" ht="16.5" spans="1:3">
+    <row r="18" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>2008</v>
       </c>
@@ -4061,7 +3463,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" ht="16.5" spans="1:3">
+    <row r="19" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>2009</v>
       </c>
@@ -4072,7 +3474,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" ht="16.5" spans="1:3">
+    <row r="20" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>2010</v>
       </c>
@@ -4083,7 +3485,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="21" ht="16.5" spans="1:3">
+    <row r="21" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>2011</v>
       </c>
@@ -4094,7 +3496,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="22" ht="16.5" spans="1:3">
+    <row r="22" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>2012</v>
       </c>
@@ -4105,7 +3507,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="23" ht="16.5" spans="1:3">
+    <row r="23" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>2013</v>
       </c>
@@ -4116,7 +3518,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24" ht="16.5" spans="1:3">
+    <row r="24" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>2014</v>
       </c>
@@ -4127,7 +3529,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="25" ht="16.5" spans="1:3">
+    <row r="25" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>2015</v>
       </c>
@@ -4138,7 +3540,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="26" ht="16.5" spans="1:3">
+    <row r="26" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>2016</v>
       </c>
@@ -4149,7 +3551,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="27" ht="16.5" spans="1:3">
+    <row r="27" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>2017</v>
       </c>
@@ -4160,7 +3562,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="28" ht="16.5" spans="1:3">
+    <row r="28" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>2018</v>
       </c>
@@ -4171,7 +3573,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="29" ht="16.5" spans="1:3">
+    <row r="29" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>2019</v>
       </c>
@@ -4182,7 +3584,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="30" ht="16.5" spans="1:3">
+    <row r="30" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>2020</v>
       </c>
@@ -4193,7 +3595,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="31" ht="16.5" spans="1:3">
+    <row r="31" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <v>3001</v>
       </c>
@@ -4204,7 +3606,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="32" ht="16.5" spans="1:3">
+    <row r="32" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
         <v>3002</v>
       </c>
@@ -4215,7 +3617,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="33" ht="16.5" spans="1:3">
+    <row r="33" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <v>4000</v>
       </c>
@@ -4226,7 +3628,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="34" ht="16.5" spans="1:3">
+    <row r="34" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
         <v>4001</v>
       </c>
@@ -4237,7 +3639,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="35" ht="16.5" spans="1:3">
+    <row r="35" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
         <v>4002</v>
       </c>
@@ -4248,7 +3650,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="36" ht="16.5" spans="1:3">
+    <row r="36" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
         <v>4003</v>
       </c>
@@ -4259,7 +3661,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="37" ht="16.5" spans="1:3">
+    <row r="37" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
         <v>4004</v>
       </c>
@@ -4270,7 +3672,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="38" ht="16.5" spans="1:3">
+    <row r="38" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
         <v>4005</v>
       </c>
@@ -4281,7 +3683,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="39" ht="16.5" spans="1:3">
+    <row r="39" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
         <v>4006</v>
       </c>
@@ -4292,7 +3694,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="40" ht="16.5" spans="1:3">
+    <row r="40" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
         <v>4007</v>
       </c>
@@ -4303,7 +3705,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="41" ht="16.5" spans="1:3">
+    <row r="41" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
         <v>4008</v>
       </c>
@@ -4314,7 +3716,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="42" ht="16.5" spans="1:3">
+    <row r="42" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
         <v>4009</v>
       </c>
@@ -4325,7 +3727,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="43" ht="16.5" spans="1:3">
+    <row r="43" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A43" s="5">
         <v>5000</v>
       </c>
@@ -4336,7 +3738,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="44" ht="16.5" spans="1:3">
+    <row r="44" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A44" s="5">
         <v>5001</v>
       </c>
@@ -4347,7 +3749,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="45" ht="16.5" spans="1:3">
+    <row r="45" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A45" s="5">
         <v>5002</v>
       </c>
@@ -4358,7 +3760,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="46" ht="16.5" spans="1:3">
+    <row r="46" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A46" s="5">
         <v>5003</v>
       </c>
@@ -4369,7 +3771,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="47" ht="16.5" spans="1:3">
+    <row r="47" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A47" s="5">
         <v>5004</v>
       </c>
@@ -4380,7 +3782,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="48" ht="16.5" spans="1:3">
+    <row r="48" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A48" s="5">
         <v>5005</v>
       </c>
@@ -4391,7 +3793,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="49" ht="16.5" spans="1:3">
+    <row r="49" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A49" s="5">
         <v>5006</v>
       </c>
@@ -4402,7 +3804,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="50" ht="16.5" spans="1:3">
+    <row r="50" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A50" s="5">
         <v>5007</v>
       </c>
@@ -4413,7 +3815,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="51" ht="16.5" spans="1:3">
+    <row r="51" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A51" s="5">
         <v>5008</v>
       </c>
@@ -4424,7 +3826,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="52" ht="16.5" spans="1:3">
+    <row r="52" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A52" s="5">
         <v>5009</v>
       </c>
@@ -4435,7 +3837,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="53" ht="16.5" spans="1:3">
+    <row r="53" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A53" s="5">
         <v>5010</v>
       </c>
@@ -4446,7 +3848,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="54" ht="16.5" spans="1:3">
+    <row r="54" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A54" s="5">
         <v>6000</v>
       </c>
@@ -4457,7 +3859,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="55" ht="16.5" spans="1:3">
+    <row r="55" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A55" s="5">
         <v>6001</v>
       </c>
@@ -4468,7 +3870,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="56" ht="16.5" spans="1:3">
+    <row r="56" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A56" s="5">
         <v>6002</v>
       </c>
@@ -4479,7 +3881,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="57" ht="16.5" spans="1:3">
+    <row r="57" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A57" s="5">
         <v>6003</v>
       </c>
@@ -4490,7 +3892,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="58" ht="16.5" spans="1:3">
+    <row r="58" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A58" s="5">
         <v>6004</v>
       </c>
@@ -4501,7 +3903,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="59" ht="16.5" spans="1:3">
+    <row r="59" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A59" s="5">
         <v>6005</v>
       </c>
@@ -4512,7 +3914,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="60" ht="16.5" spans="1:3">
+    <row r="60" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A60" s="5">
         <v>6006</v>
       </c>
@@ -4523,7 +3925,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="61" ht="16.5" spans="1:3">
+    <row r="61" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A61" s="5">
         <v>6007</v>
       </c>
@@ -4534,7 +3936,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="62" ht="16.5" spans="1:3">
+    <row r="62" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A62" s="5">
         <v>6008</v>
       </c>
@@ -4545,7 +3947,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="63" ht="16.5" spans="1:3">
+    <row r="63" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A63" s="5">
         <v>6009</v>
       </c>
@@ -4556,7 +3958,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="64" ht="16.5" spans="1:3">
+    <row r="64" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A64" s="5">
         <v>6010</v>
       </c>
@@ -4567,7 +3969,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="65" ht="16.5" spans="1:3">
+    <row r="65" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A65" s="5">
         <v>6011</v>
       </c>
@@ -4578,7 +3980,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="66" ht="16.5" spans="1:3">
+    <row r="66" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A66" s="5">
         <v>6012</v>
       </c>
@@ -4589,7 +3991,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="67" ht="16.5" spans="1:3">
+    <row r="67" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A67" s="5">
         <v>6013</v>
       </c>
@@ -4600,7 +4002,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="68" ht="16.5" spans="1:3">
+    <row r="68" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A68" s="5">
         <v>6014</v>
       </c>
@@ -4611,7 +4013,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="69" ht="16.5" spans="1:3">
+    <row r="69" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A69" s="5">
         <v>6015</v>
       </c>
@@ -4622,7 +4024,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="70" ht="16.5" spans="1:3">
+    <row r="70" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A70" s="5">
         <v>6016</v>
       </c>
@@ -4633,7 +4035,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="71" ht="16.5" spans="1:3">
+    <row r="71" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A71" s="5">
         <v>6017</v>
       </c>
@@ -4644,7 +4046,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="72" ht="16.5" spans="1:3">
+    <row r="72" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A72" s="5">
         <v>6018</v>
       </c>
@@ -4655,7 +4057,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="73" ht="16.5" spans="1:3">
+    <row r="73" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A73" s="5">
         <v>6019</v>
       </c>
@@ -4666,7 +4068,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="74" ht="16.5" spans="1:3">
+    <row r="74" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A74" s="5">
         <v>6020</v>
       </c>
@@ -4677,7 +4079,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="75" ht="16.5" spans="1:3">
+    <row r="75" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A75" s="5">
         <v>6021</v>
       </c>
@@ -4688,7 +4090,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="76" ht="16.5" spans="1:3">
+    <row r="76" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A76" s="5">
         <v>6022</v>
       </c>
@@ -4699,7 +4101,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="77" ht="16.5" spans="1:3">
+    <row r="77" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A77" s="5">
         <v>6023</v>
       </c>
@@ -4710,7 +4112,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="78" ht="16.5" spans="1:3">
+    <row r="78" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A78" s="5">
         <v>6024</v>
       </c>
@@ -4721,7 +4123,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="79" ht="16.5" spans="1:3">
+    <row r="79" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A79" s="5">
         <v>6025</v>
       </c>
@@ -4732,7 +4134,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="80" ht="16.5" spans="1:3">
+    <row r="80" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A80" s="5">
         <v>7001</v>
       </c>
@@ -4743,7 +4145,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="81" ht="16.5" spans="1:3">
+    <row r="81" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A81" s="5">
         <v>7002</v>
       </c>
@@ -4754,7 +4156,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="82" ht="16.5" spans="1:3">
+    <row r="82" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A82" s="5">
         <v>7003</v>
       </c>
@@ -4765,7 +4167,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="83" ht="16.5" spans="1:3">
+    <row r="83" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A83" s="5">
         <v>7004</v>
       </c>
@@ -4776,7 +4178,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="84" ht="16.5" spans="1:3">
+    <row r="84" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A84" s="5">
         <v>7005</v>
       </c>
@@ -4787,7 +4189,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="85" ht="16.5" spans="1:3">
+    <row r="85" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A85" s="5">
         <v>7006</v>
       </c>
@@ -4798,7 +4200,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="86" ht="16.5" spans="1:3">
+    <row r="86" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A86" s="5">
         <v>7007</v>
       </c>
@@ -4809,7 +4211,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="87" ht="16.5" spans="1:3">
+    <row r="87" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A87" s="5">
         <v>7008</v>
       </c>
@@ -4820,7 +4222,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="88" ht="16.5" spans="1:3">
+    <row r="88" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A88" s="5">
         <v>7009</v>
       </c>
@@ -4832,21 +4234,20 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.625" style="1" customWidth="1"/>
@@ -4860,7 +4261,7 @@
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:9">
+    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -4889,7 +4290,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>211</v>
       </c>
@@ -4918,7 +4319,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="3" ht="45" spans="1:9">
+    <row r="3" spans="1:9" ht="45" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>215</v>
       </c>
@@ -4941,7 +4342,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="4" ht="16.5" spans="1:9">
+    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -4970,7 +4371,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="5" ht="16.5" spans="1:9">
+    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>2</v>
       </c>
@@ -4995,7 +4396,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="6" ht="16.5" spans="1:9">
+    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>3</v>
       </c>
@@ -5020,7 +4421,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="7" ht="16.5" spans="1:9">
+    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>4</v>
       </c>
@@ -5045,7 +4446,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="8" ht="16.5" spans="1:9">
+    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>5</v>
       </c>
@@ -5070,7 +4471,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="9" ht="16.5" spans="1:9">
+    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>6</v>
       </c>
@@ -5095,7 +4496,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="10" ht="16.5" spans="1:9">
+    <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>7</v>
       </c>
@@ -5116,7 +4517,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="11" ht="16.5" spans="1:9">
+    <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>8</v>
       </c>
@@ -5141,7 +4542,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="12" ht="16.5" spans="1:9">
+    <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>9</v>
       </c>
@@ -5170,7 +4571,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="13" ht="16.5" spans="1:9">
+    <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>10</v>
       </c>
@@ -5199,7 +4600,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="14" ht="16.5" spans="1:9">
+    <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>11</v>
       </c>
@@ -5224,7 +4625,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="15" ht="16.5" spans="1:9">
+    <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>12</v>
       </c>
@@ -5253,7 +4654,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="16" ht="16.5" spans="1:9">
+    <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>13</v>
       </c>
@@ -5282,7 +4683,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="17" ht="16.5" spans="1:9">
+    <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>14</v>
       </c>
@@ -5307,7 +4708,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="18" ht="16.5" spans="1:9">
+    <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>15</v>
       </c>
@@ -5332,7 +4733,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="19" ht="16.5" spans="1:9">
+    <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>16</v>
       </c>
@@ -5357,7 +4758,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="20" ht="16.5" spans="1:9">
+    <row r="20" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>17</v>
       </c>
@@ -5382,7 +4783,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="21" ht="16.5" spans="1:9">
+    <row r="21" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>18</v>
       </c>
@@ -5407,7 +4808,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="22" ht="16.5" spans="1:9">
+    <row r="22" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>19</v>
       </c>
@@ -5432,7 +4833,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="23" ht="16.5" spans="1:9">
+    <row r="23" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>20</v>
       </c>
@@ -5461,7 +4862,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="24" ht="16.5" spans="1:9">
+    <row r="24" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>21</v>
       </c>
@@ -5490,7 +4891,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="25" ht="16.5" spans="1:9">
+    <row r="25" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>22</v>
       </c>
@@ -5511,7 +4912,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="26" ht="16.5" spans="1:9">
+    <row r="26" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>23</v>
       </c>
@@ -5540,7 +4941,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="27" ht="16.5" spans="1:9">
+    <row r="27" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>24</v>
       </c>
@@ -5561,7 +4962,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="28" ht="16.5" spans="1:9">
+    <row r="28" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>25</v>
       </c>
@@ -5586,7 +4987,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="29" ht="16.5" spans="1:9">
+    <row r="29" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>26</v>
       </c>
@@ -5607,7 +5008,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="30" ht="16.5" spans="1:9">
+    <row r="30" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>27</v>
       </c>
@@ -5628,7 +5029,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="31" ht="16.5" spans="1:9">
+    <row r="31" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <v>28</v>
       </c>
@@ -5649,7 +5050,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="32" ht="16.5" spans="1:9">
+    <row r="32" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
         <v>29</v>
       </c>
@@ -5670,7 +5071,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="33" ht="16.5" spans="1:9">
+    <row r="33" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <v>30</v>
       </c>
@@ -5692,29 +5093,28 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="44" customWidth="1"/>
     <col min="5" max="5" width="11.25" customWidth="1"/>
     <col min="6" max="6" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:7">
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -5737,7 +5137,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -5760,7 +5160,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" ht="15" spans="1:7">
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>10</v>
       </c>
@@ -5783,7 +5183,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="4" ht="280.5" spans="1:7">
+    <row r="4" spans="1:7" ht="280.5" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -5806,7 +5206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" ht="165" spans="1:7">
+    <row r="5" spans="1:7" ht="165" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>2</v>
       </c>
@@ -5830,21 +5230,20 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="3" width="9" style="1"/>
     <col min="4" max="4" width="12.375" style="1" customWidth="1"/>
@@ -5863,7 +5262,7 @@
     <col min="17" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:16">
+    <row r="1" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -5913,7 +5312,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>293</v>
       </c>
@@ -5963,7 +5362,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="3" ht="15" spans="1:16">
+    <row r="3" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>215</v>
       </c>
@@ -6013,7 +5412,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="4" ht="16.5" spans="1:16">
+    <row r="4" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -6064,8 +5463,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Excel/镇魂街/basicInfo.基础信息.xlsx
+++ b/Excel/镇魂街/basicInfo.基础信息.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="322">
   <si>
     <t>sheet名</t>
   </si>
@@ -96,9 +96,6 @@
   </si>
   <si>
     <t>level</t>
-  </si>
-  <si>
-    <t>Exp</t>
   </si>
   <si>
     <t>HangUpTeamNum</t>
@@ -1064,6 +1061,18 @@
   </si>
   <si>
     <t>斩灵秘术</t>
+  </si>
+  <si>
+    <t>Exp</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExpCur</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:&lt;</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1261,7 +1270,7 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2">
@@ -1280,6 +1289,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="4" quotePrefix="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="14">
     <cellStyle name="Grid" xfId="4"/>
@@ -1790,20 +1800,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D103"/>
+  <dimension ref="A1:E103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:C103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.125" customWidth="1"/>
-    <col min="3" max="3" width="9.5" customWidth="1"/>
-    <col min="4" max="4" width="19.625" customWidth="1"/>
+    <col min="2" max="3" width="10.125" customWidth="1"/>
+    <col min="4" max="4" width="9.5" customWidth="1"/>
+    <col min="5" max="5" width="19.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -1811,41 +1821,50 @@
         <v>23</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>26</v>
-      </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -1853,13 +1872,17 @@
         <v>1</v>
       </c>
       <c r="C4" s="5">
+        <f>SUM(D$4:D4)</f>
         <v>50</v>
       </c>
       <c r="D4" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="E4" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>2</v>
       </c>
@@ -1867,13 +1890,17 @@
         <v>2</v>
       </c>
       <c r="C5" s="5">
+        <f>SUM(D$4:D5)</f>
+        <v>110</v>
+      </c>
+      <c r="D5" s="5">
         <v>60</v>
       </c>
-      <c r="D5" s="5">
+      <c r="E5" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>3</v>
       </c>
@@ -1881,13 +1908,17 @@
         <v>3</v>
       </c>
       <c r="C6" s="5">
+        <f>SUM(D$4:D6)</f>
+        <v>185</v>
+      </c>
+      <c r="D6" s="5">
         <v>75</v>
       </c>
-      <c r="D6" s="5">
+      <c r="E6" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>4</v>
       </c>
@@ -1895,13 +1926,17 @@
         <v>4</v>
       </c>
       <c r="C7" s="5">
+        <f>SUM(D$4:D7)</f>
+        <v>270</v>
+      </c>
+      <c r="D7" s="5">
         <v>85</v>
       </c>
-      <c r="D7" s="5">
+      <c r="E7" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>5</v>
       </c>
@@ -1909,13 +1944,17 @@
         <v>5</v>
       </c>
       <c r="C8" s="5">
+        <f>SUM(D$4:D8)</f>
+        <v>370</v>
+      </c>
+      <c r="D8" s="5">
         <v>100</v>
       </c>
-      <c r="D8" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E8" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>6</v>
       </c>
@@ -1923,13 +1962,17 @@
         <v>6</v>
       </c>
       <c r="C9" s="5">
+        <f>SUM(D$4:D9)</f>
+        <v>495</v>
+      </c>
+      <c r="D9" s="5">
         <v>125</v>
       </c>
-      <c r="D9" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E9" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>7</v>
       </c>
@@ -1937,13 +1980,17 @@
         <v>7</v>
       </c>
       <c r="C10" s="5">
+        <f>SUM(D$4:D10)</f>
+        <v>645</v>
+      </c>
+      <c r="D10" s="5">
         <v>150</v>
       </c>
-      <c r="D10" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E10" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>8</v>
       </c>
@@ -1951,13 +1998,17 @@
         <v>8</v>
       </c>
       <c r="C11" s="5">
+        <f>SUM(D$4:D11)</f>
+        <v>820</v>
+      </c>
+      <c r="D11" s="5">
         <v>175</v>
       </c>
-      <c r="D11" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E11" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>9</v>
       </c>
@@ -1965,13 +2016,17 @@
         <v>9</v>
       </c>
       <c r="C12" s="5">
+        <f>SUM(D$4:D12)</f>
+        <v>1070</v>
+      </c>
+      <c r="D12" s="5">
         <v>250</v>
       </c>
-      <c r="D12" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E12" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>10</v>
       </c>
@@ -1979,13 +2034,17 @@
         <v>10</v>
       </c>
       <c r="C13" s="5">
+        <f>SUM(D$4:D13)</f>
+        <v>1380</v>
+      </c>
+      <c r="D13" s="5">
         <v>310</v>
       </c>
-      <c r="D13" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E13" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>11</v>
       </c>
@@ -1993,13 +2052,17 @@
         <v>11</v>
       </c>
       <c r="C14" s="5">
+        <f>SUM(D$4:D14)</f>
+        <v>1720</v>
+      </c>
+      <c r="D14" s="5">
         <v>340</v>
       </c>
-      <c r="D14" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E14" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>12</v>
       </c>
@@ -2007,13 +2070,17 @@
         <v>12</v>
       </c>
       <c r="C15" s="5">
+        <f>SUM(D$4:D15)</f>
+        <v>2090</v>
+      </c>
+      <c r="D15" s="5">
         <v>370</v>
       </c>
-      <c r="D15" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E15" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>13</v>
       </c>
@@ -2021,13 +2088,17 @@
         <v>13</v>
       </c>
       <c r="C16" s="5">
+        <f>SUM(D$4:D16)</f>
+        <v>2490</v>
+      </c>
+      <c r="D16" s="5">
         <v>400</v>
       </c>
-      <c r="D16" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E16" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>14</v>
       </c>
@@ -2035,13 +2106,17 @@
         <v>14</v>
       </c>
       <c r="C17" s="5">
+        <f>SUM(D$4:D17)</f>
+        <v>2920</v>
+      </c>
+      <c r="D17" s="5">
         <v>430</v>
       </c>
-      <c r="D17" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E17" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>15</v>
       </c>
@@ -2049,13 +2124,17 @@
         <v>15</v>
       </c>
       <c r="C18" s="5">
+        <f>SUM(D$4:D18)</f>
+        <v>3385</v>
+      </c>
+      <c r="D18" s="5">
         <v>465</v>
       </c>
-      <c r="D18" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E18" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>16</v>
       </c>
@@ -2063,13 +2142,17 @@
         <v>16</v>
       </c>
       <c r="C19" s="5">
+        <f>SUM(D$4:D19)</f>
+        <v>3880</v>
+      </c>
+      <c r="D19" s="5">
         <v>495</v>
       </c>
-      <c r="D19" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E19" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>17</v>
       </c>
@@ -2077,13 +2160,17 @@
         <v>17</v>
       </c>
       <c r="C20" s="5">
+        <f>SUM(D$4:D20)</f>
+        <v>4405</v>
+      </c>
+      <c r="D20" s="5">
         <v>525</v>
       </c>
-      <c r="D20" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E20" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>18</v>
       </c>
@@ -2091,13 +2178,17 @@
         <v>18</v>
       </c>
       <c r="C21" s="5">
+        <f>SUM(D$4:D21)</f>
+        <v>4960</v>
+      </c>
+      <c r="D21" s="5">
         <v>555</v>
       </c>
-      <c r="D21" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E21" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>19</v>
       </c>
@@ -2105,13 +2196,17 @@
         <v>19</v>
       </c>
       <c r="C22" s="5">
+        <f>SUM(D$4:D22)</f>
+        <v>5580</v>
+      </c>
+      <c r="D22" s="5">
         <v>620</v>
       </c>
-      <c r="D22" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E22" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>20</v>
       </c>
@@ -2119,13 +2214,17 @@
         <v>20</v>
       </c>
       <c r="C23" s="5">
+        <f>SUM(D$4:D23)</f>
+        <v>6240</v>
+      </c>
+      <c r="D23" s="5">
         <v>660</v>
       </c>
-      <c r="D23" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E23" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>21</v>
       </c>
@@ -2133,13 +2232,17 @@
         <v>21</v>
       </c>
       <c r="C24" s="5">
+        <f>SUM(D$4:D24)</f>
+        <v>6965</v>
+      </c>
+      <c r="D24" s="5">
         <v>725</v>
       </c>
-      <c r="D24" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E24" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>22</v>
       </c>
@@ -2147,13 +2250,17 @@
         <v>22</v>
       </c>
       <c r="C25" s="5">
+        <f>SUM(D$4:D25)</f>
+        <v>7760</v>
+      </c>
+      <c r="D25" s="5">
         <v>795</v>
       </c>
-      <c r="D25" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E25" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>23</v>
       </c>
@@ -2161,13 +2268,17 @@
         <v>23</v>
       </c>
       <c r="C26" s="5">
+        <f>SUM(D$4:D26)</f>
+        <v>8620</v>
+      </c>
+      <c r="D26" s="5">
         <v>860</v>
       </c>
-      <c r="D26" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E26" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>24</v>
       </c>
@@ -2175,13 +2286,17 @@
         <v>24</v>
       </c>
       <c r="C27" s="5">
+        <f>SUM(D$4:D27)</f>
+        <v>9545</v>
+      </c>
+      <c r="D27" s="5">
         <v>925</v>
       </c>
-      <c r="D27" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E27" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>25</v>
       </c>
@@ -2189,13 +2304,17 @@
         <v>25</v>
       </c>
       <c r="C28" s="5">
+        <f>SUM(D$4:D28)</f>
+        <v>10540</v>
+      </c>
+      <c r="D28" s="5">
         <v>995</v>
       </c>
-      <c r="D28" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E28" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>26</v>
       </c>
@@ -2203,13 +2322,17 @@
         <v>26</v>
       </c>
       <c r="C29" s="5">
+        <f>SUM(D$4:D29)</f>
+        <v>11600</v>
+      </c>
+      <c r="D29" s="5">
         <v>1060</v>
       </c>
-      <c r="D29" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E29" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>27</v>
       </c>
@@ -2217,13 +2340,17 @@
         <v>27</v>
       </c>
       <c r="C30" s="5">
+        <f>SUM(D$4:D30)</f>
+        <v>12725</v>
+      </c>
+      <c r="D30" s="5">
         <v>1125</v>
       </c>
-      <c r="D30" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E30" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <v>28</v>
       </c>
@@ -2231,13 +2358,17 @@
         <v>28</v>
       </c>
       <c r="C31" s="5">
+        <f>SUM(D$4:D31)</f>
+        <v>13915</v>
+      </c>
+      <c r="D31" s="5">
         <v>1190</v>
       </c>
-      <c r="D31" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E31" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
         <v>29</v>
       </c>
@@ -2245,13 +2376,17 @@
         <v>29</v>
       </c>
       <c r="C32" s="5">
+        <f>SUM(D$4:D32)</f>
+        <v>15240</v>
+      </c>
+      <c r="D32" s="5">
         <v>1325</v>
       </c>
-      <c r="D32" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E32" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <v>30</v>
       </c>
@@ -2259,13 +2394,17 @@
         <v>30</v>
       </c>
       <c r="C33" s="5">
+        <f>SUM(D$4:D33)</f>
+        <v>16640</v>
+      </c>
+      <c r="D33" s="5">
         <v>1400</v>
       </c>
-      <c r="D33" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E33" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
         <v>31</v>
       </c>
@@ -2273,13 +2412,17 @@
         <v>31</v>
       </c>
       <c r="C34" s="5">
+        <f>SUM(D$4:D34)</f>
+        <v>18320</v>
+      </c>
+      <c r="D34" s="5">
         <v>1680</v>
       </c>
-      <c r="D34" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E34" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
         <v>32</v>
       </c>
@@ -2287,13 +2430,17 @@
         <v>32</v>
       </c>
       <c r="C35" s="5">
+        <f>SUM(D$4:D35)</f>
+        <v>20280</v>
+      </c>
+      <c r="D35" s="5">
         <v>1960</v>
       </c>
-      <c r="D35" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E35" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
         <v>33</v>
       </c>
@@ -2301,13 +2448,17 @@
         <v>33</v>
       </c>
       <c r="C36" s="5">
+        <f>SUM(D$4:D36)</f>
+        <v>22525</v>
+      </c>
+      <c r="D36" s="5">
         <v>2245</v>
       </c>
-      <c r="D36" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E36" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
         <v>34</v>
       </c>
@@ -2315,13 +2466,17 @@
         <v>34</v>
       </c>
       <c r="C37" s="5">
+        <f>SUM(D$4:D37)</f>
+        <v>25050</v>
+      </c>
+      <c r="D37" s="5">
         <v>2525</v>
       </c>
-      <c r="D37" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E37" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
         <v>35</v>
       </c>
@@ -2329,13 +2484,17 @@
         <v>35</v>
       </c>
       <c r="C38" s="5">
+        <f>SUM(D$4:D38)</f>
+        <v>27855</v>
+      </c>
+      <c r="D38" s="5">
         <v>2805</v>
       </c>
-      <c r="D38" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E38" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
         <v>36</v>
       </c>
@@ -2343,13 +2502,17 @@
         <v>36</v>
       </c>
       <c r="C39" s="5">
+        <f>SUM(D$4:D39)</f>
+        <v>30940</v>
+      </c>
+      <c r="D39" s="5">
         <v>3085</v>
       </c>
-      <c r="D39" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E39" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
         <v>37</v>
       </c>
@@ -2357,13 +2520,17 @@
         <v>37</v>
       </c>
       <c r="C40" s="5">
+        <f>SUM(D$4:D40)</f>
+        <v>34305</v>
+      </c>
+      <c r="D40" s="5">
         <v>3365</v>
       </c>
-      <c r="D40" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E40" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
         <v>38</v>
       </c>
@@ -2371,13 +2538,17 @@
         <v>38</v>
       </c>
       <c r="C41" s="5">
+        <f>SUM(D$4:D41)</f>
+        <v>37950</v>
+      </c>
+      <c r="D41" s="5">
         <v>3645</v>
       </c>
-      <c r="D41" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E41" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
         <v>39</v>
       </c>
@@ -2385,13 +2556,17 @@
         <v>39</v>
       </c>
       <c r="C42" s="5">
+        <f>SUM(D$4:D42)</f>
+        <v>42160</v>
+      </c>
+      <c r="D42" s="5">
         <v>4210</v>
       </c>
-      <c r="D42" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E42" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A43" s="5">
         <v>40</v>
       </c>
@@ -2399,13 +2574,17 @@
         <v>40</v>
       </c>
       <c r="C43" s="5">
+        <f>SUM(D$4:D43)</f>
+        <v>46165</v>
+      </c>
+      <c r="D43" s="5">
         <v>4005</v>
       </c>
-      <c r="D43" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E43" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A44" s="5">
         <v>41</v>
       </c>
@@ -2413,13 +2592,17 @@
         <v>41</v>
       </c>
       <c r="C44" s="5">
+        <f>SUM(D$4:D44)</f>
+        <v>50575</v>
+      </c>
+      <c r="D44" s="5">
         <v>4410</v>
       </c>
-      <c r="D44" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E44" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A45" s="5">
         <v>42</v>
       </c>
@@ -2427,13 +2610,17 @@
         <v>42</v>
       </c>
       <c r="C45" s="5">
+        <f>SUM(D$4:D45)</f>
+        <v>55385</v>
+      </c>
+      <c r="D45" s="5">
         <v>4810</v>
       </c>
-      <c r="D45" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E45" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A46" s="5">
         <v>43</v>
       </c>
@@ -2441,13 +2628,17 @@
         <v>43</v>
       </c>
       <c r="C46" s="5">
+        <f>SUM(D$4:D46)</f>
+        <v>60595</v>
+      </c>
+      <c r="D46" s="5">
         <v>5210</v>
       </c>
-      <c r="D46" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E46" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A47" s="5">
         <v>44</v>
       </c>
@@ -2455,13 +2646,17 @@
         <v>44</v>
       </c>
       <c r="C47" s="5">
+        <f>SUM(D$4:D47)</f>
+        <v>66205</v>
+      </c>
+      <c r="D47" s="5">
         <v>5610</v>
       </c>
-      <c r="D47" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E47" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A48" s="5">
         <v>45</v>
       </c>
@@ -2469,13 +2664,17 @@
         <v>45</v>
       </c>
       <c r="C48" s="5">
+        <f>SUM(D$4:D48)</f>
+        <v>72215</v>
+      </c>
+      <c r="D48" s="5">
         <v>6010</v>
       </c>
-      <c r="D48" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E48" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A49" s="5">
         <v>46</v>
       </c>
@@ -2483,13 +2682,17 @@
         <v>46</v>
       </c>
       <c r="C49" s="5">
+        <f>SUM(D$4:D49)</f>
+        <v>78625</v>
+      </c>
+      <c r="D49" s="5">
         <v>6410</v>
       </c>
-      <c r="D49" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E49" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A50" s="5">
         <v>47</v>
       </c>
@@ -2497,13 +2700,17 @@
         <v>47</v>
       </c>
       <c r="C50" s="5">
+        <f>SUM(D$4:D50)</f>
+        <v>85440</v>
+      </c>
+      <c r="D50" s="5">
         <v>6815</v>
       </c>
-      <c r="D50" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E50" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A51" s="5">
         <v>48</v>
       </c>
@@ -2511,13 +2718,17 @@
         <v>48</v>
       </c>
       <c r="C51" s="5">
+        <f>SUM(D$4:D51)</f>
+        <v>92655</v>
+      </c>
+      <c r="D51" s="5">
         <v>7215</v>
       </c>
-      <c r="D51" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E51" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A52" s="5">
         <v>49</v>
       </c>
@@ -2525,13 +2736,17 @@
         <v>49</v>
       </c>
       <c r="C52" s="5">
+        <f>SUM(D$4:D52)</f>
+        <v>100670</v>
+      </c>
+      <c r="D52" s="5">
         <v>8015</v>
       </c>
-      <c r="D52" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E52" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A53" s="5">
         <v>50</v>
       </c>
@@ -2539,13 +2754,17 @@
         <v>50</v>
       </c>
       <c r="C53" s="5">
+        <f>SUM(D$4:D53)</f>
+        <v>106630</v>
+      </c>
+      <c r="D53" s="5">
         <v>5960</v>
       </c>
-      <c r="D53" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E53" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A54" s="5">
         <v>51</v>
       </c>
@@ -2553,13 +2772,17 @@
         <v>51</v>
       </c>
       <c r="C54" s="5">
+        <f>SUM(D$4:D54)</f>
+        <v>113190</v>
+      </c>
+      <c r="D54" s="5">
         <v>6560</v>
       </c>
-      <c r="D54" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E54" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A55" s="5">
         <v>52</v>
       </c>
@@ -2567,13 +2790,17 @@
         <v>52</v>
       </c>
       <c r="C55" s="5">
+        <f>SUM(D$4:D55)</f>
+        <v>120345</v>
+      </c>
+      <c r="D55" s="5">
         <v>7155</v>
       </c>
-      <c r="D55" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E55" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A56" s="5">
         <v>53</v>
       </c>
@@ -2581,13 +2808,17 @@
         <v>53</v>
       </c>
       <c r="C56" s="5">
+        <f>SUM(D$4:D56)</f>
+        <v>128095</v>
+      </c>
+      <c r="D56" s="5">
         <v>7750</v>
       </c>
-      <c r="D56" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E56" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A57" s="5">
         <v>54</v>
       </c>
@@ -2595,13 +2826,17 @@
         <v>54</v>
       </c>
       <c r="C57" s="5">
+        <f>SUM(D$4:D57)</f>
+        <v>136445</v>
+      </c>
+      <c r="D57" s="5">
         <v>8350</v>
       </c>
-      <c r="D57" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E57" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A58" s="5">
         <v>55</v>
       </c>
@@ -2609,13 +2844,17 @@
         <v>55</v>
       </c>
       <c r="C58" s="5">
+        <f>SUM(D$4:D58)</f>
+        <v>145390</v>
+      </c>
+      <c r="D58" s="5">
         <v>8945</v>
       </c>
-      <c r="D58" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E58" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A59" s="5">
         <v>56</v>
       </c>
@@ -2623,13 +2862,17 @@
         <v>56</v>
       </c>
       <c r="C59" s="5">
+        <f>SUM(D$4:D59)</f>
+        <v>154930</v>
+      </c>
+      <c r="D59" s="5">
         <v>9540</v>
       </c>
-      <c r="D59" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E59" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A60" s="5">
         <v>57</v>
       </c>
@@ -2637,13 +2880,17 @@
         <v>57</v>
       </c>
       <c r="C60" s="5">
+        <f>SUM(D$4:D60)</f>
+        <v>165065</v>
+      </c>
+      <c r="D60" s="5">
         <v>10135</v>
       </c>
-      <c r="D60" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E60" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A61" s="5">
         <v>58</v>
       </c>
@@ -2651,13 +2898,17 @@
         <v>58</v>
       </c>
       <c r="C61" s="5">
+        <f>SUM(D$4:D61)</f>
+        <v>175800</v>
+      </c>
+      <c r="D61" s="5">
         <v>10735</v>
       </c>
-      <c r="D61" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E61" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A62" s="5">
         <v>59</v>
       </c>
@@ -2665,13 +2916,17 @@
         <v>59</v>
       </c>
       <c r="C62" s="5">
+        <f>SUM(D$4:D62)</f>
+        <v>187725</v>
+      </c>
+      <c r="D62" s="5">
         <v>11925</v>
       </c>
-      <c r="D62" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E62" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A63" s="5">
         <v>60</v>
       </c>
@@ -2679,13 +2934,17 @@
         <v>60</v>
       </c>
       <c r="C63" s="5">
+        <f>SUM(D$4:D63)</f>
+        <v>196865</v>
+      </c>
+      <c r="D63" s="5">
         <v>9140</v>
       </c>
-      <c r="D63" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E63" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A64" s="5">
         <v>61</v>
       </c>
@@ -2693,13 +2952,17 @@
         <v>61</v>
       </c>
       <c r="C64" s="5">
+        <f>SUM(D$4:D64)</f>
+        <v>206920</v>
+      </c>
+      <c r="D64" s="5">
         <v>10055</v>
       </c>
-      <c r="D64" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E64" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A65" s="5">
         <v>62</v>
       </c>
@@ -2707,13 +2970,17 @@
         <v>62</v>
       </c>
       <c r="C65" s="5">
+        <f>SUM(D$4:D65)</f>
+        <v>217890</v>
+      </c>
+      <c r="D65" s="5">
         <v>10970</v>
       </c>
-      <c r="D65" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E65" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A66" s="5">
         <v>63</v>
       </c>
@@ -2721,13 +2988,17 @@
         <v>63</v>
       </c>
       <c r="C66" s="5">
+        <f>SUM(D$4:D66)</f>
+        <v>229775</v>
+      </c>
+      <c r="D66" s="5">
         <v>11885</v>
       </c>
-      <c r="D66" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E66" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A67" s="5">
         <v>64</v>
       </c>
@@ -2735,13 +3006,17 @@
         <v>64</v>
       </c>
       <c r="C67" s="5">
+        <f>SUM(D$4:D67)</f>
+        <v>242575</v>
+      </c>
+      <c r="D67" s="5">
         <v>12800</v>
       </c>
-      <c r="D67" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E67" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A68" s="5">
         <v>65</v>
       </c>
@@ -2749,13 +3024,17 @@
         <v>65</v>
       </c>
       <c r="C68" s="5">
+        <f>SUM(D$4:D68)</f>
+        <v>256290</v>
+      </c>
+      <c r="D68" s="5">
         <v>13715</v>
       </c>
-      <c r="D68" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E68" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A69" s="5">
         <v>66</v>
       </c>
@@ -2763,13 +3042,17 @@
         <v>66</v>
       </c>
       <c r="C69" s="5">
+        <f>SUM(D$4:D69)</f>
+        <v>270920</v>
+      </c>
+      <c r="D69" s="5">
         <v>14630</v>
       </c>
-      <c r="D69" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E69" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A70" s="5">
         <v>67</v>
       </c>
@@ -2777,13 +3060,17 @@
         <v>67</v>
       </c>
       <c r="C70" s="5">
+        <f>SUM(D$4:D70)</f>
+        <v>286460</v>
+      </c>
+      <c r="D70" s="5">
         <v>15540</v>
       </c>
-      <c r="D70" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E70" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A71" s="5">
         <v>68</v>
       </c>
@@ -2791,13 +3078,17 @@
         <v>68</v>
       </c>
       <c r="C71" s="5">
+        <f>SUM(D$4:D71)</f>
+        <v>302915</v>
+      </c>
+      <c r="D71" s="5">
         <v>16455</v>
       </c>
-      <c r="D71" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E71" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A72" s="5">
         <v>69</v>
       </c>
@@ -2805,13 +3096,17 @@
         <v>69</v>
       </c>
       <c r="C72" s="5">
+        <f>SUM(D$4:D72)</f>
+        <v>321200</v>
+      </c>
+      <c r="D72" s="5">
         <v>18285</v>
       </c>
-      <c r="D72" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E72" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A73" s="5">
         <v>70</v>
       </c>
@@ -2819,13 +3114,17 @@
         <v>70</v>
       </c>
       <c r="C73" s="5">
+        <f>SUM(D$4:D73)</f>
+        <v>334040</v>
+      </c>
+      <c r="D73" s="5">
         <v>12840</v>
       </c>
-      <c r="D73" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E73" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A74" s="5">
         <v>71</v>
       </c>
@@ -2833,13 +3132,17 @@
         <v>71</v>
       </c>
       <c r="C74" s="5">
+        <f>SUM(D$4:D74)</f>
+        <v>348165</v>
+      </c>
+      <c r="D74" s="5">
         <v>14125</v>
       </c>
-      <c r="D74" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E74" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A75" s="5">
         <v>72</v>
       </c>
@@ -2847,13 +3150,17 @@
         <v>72</v>
       </c>
       <c r="C75" s="5">
+        <f>SUM(D$4:D75)</f>
+        <v>363575</v>
+      </c>
+      <c r="D75" s="5">
         <v>15410</v>
       </c>
-      <c r="D75" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E75" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A76" s="5">
         <v>73</v>
       </c>
@@ -2861,13 +3168,17 @@
         <v>73</v>
       </c>
       <c r="C76" s="5">
+        <f>SUM(D$4:D76)</f>
+        <v>380270</v>
+      </c>
+      <c r="D76" s="5">
         <v>16695</v>
       </c>
-      <c r="D76" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E76" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A77" s="5">
         <v>74</v>
       </c>
@@ -2875,13 +3186,17 @@
         <v>74</v>
       </c>
       <c r="C77" s="5">
+        <f>SUM(D$4:D77)</f>
+        <v>398245</v>
+      </c>
+      <c r="D77" s="5">
         <v>17975</v>
       </c>
-      <c r="D77" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E77" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A78" s="5">
         <v>75</v>
       </c>
@@ -2889,13 +3204,17 @@
         <v>75</v>
       </c>
       <c r="C78" s="5">
+        <f>SUM(D$4:D78)</f>
+        <v>417505</v>
+      </c>
+      <c r="D78" s="5">
         <v>19260</v>
       </c>
-      <c r="D78" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E78" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A79" s="5">
         <v>76</v>
       </c>
@@ -2903,13 +3222,17 @@
         <v>76</v>
       </c>
       <c r="C79" s="5">
+        <f>SUM(D$4:D79)</f>
+        <v>438050</v>
+      </c>
+      <c r="D79" s="5">
         <v>20545</v>
       </c>
-      <c r="D79" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E79" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A80" s="5">
         <v>77</v>
       </c>
@@ -2917,13 +3240,17 @@
         <v>77</v>
       </c>
       <c r="C80" s="5">
+        <f>SUM(D$4:D80)</f>
+        <v>459880</v>
+      </c>
+      <c r="D80" s="5">
         <v>21830</v>
       </c>
-      <c r="D80" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E80" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A81" s="5">
         <v>78</v>
       </c>
@@ -2931,13 +3258,17 @@
         <v>78</v>
       </c>
       <c r="C81" s="5">
+        <f>SUM(D$4:D81)</f>
+        <v>482995</v>
+      </c>
+      <c r="D81" s="5">
         <v>23115</v>
       </c>
-      <c r="D81" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E81" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A82" s="5">
         <v>79</v>
       </c>
@@ -2945,13 +3276,17 @@
         <v>79</v>
       </c>
       <c r="C82" s="5">
+        <f>SUM(D$4:D82)</f>
+        <v>508675</v>
+      </c>
+      <c r="D82" s="5">
         <v>25680</v>
       </c>
-      <c r="D82" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E82" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A83" s="5">
         <v>80</v>
       </c>
@@ -2959,13 +3294,17 @@
         <v>80</v>
       </c>
       <c r="C83" s="5">
+        <f>SUM(D$4:D83)</f>
+        <v>529075</v>
+      </c>
+      <c r="D83" s="5">
         <v>20400</v>
       </c>
-      <c r="D83" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E83" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A84" s="5">
         <v>81</v>
       </c>
@@ -2973,13 +3312,17 @@
         <v>81</v>
       </c>
       <c r="C84" s="5">
+        <f>SUM(D$4:D84)</f>
+        <v>551515</v>
+      </c>
+      <c r="D84" s="5">
         <v>22440</v>
       </c>
-      <c r="D84" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E84" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A85" s="5">
         <v>82</v>
       </c>
@@ -2987,13 +3330,17 @@
         <v>82</v>
       </c>
       <c r="C85" s="5">
+        <f>SUM(D$4:D85)</f>
+        <v>575995</v>
+      </c>
+      <c r="D85" s="5">
         <v>24480</v>
       </c>
-      <c r="D85" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E85" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A86" s="5">
         <v>83</v>
       </c>
@@ -3001,13 +3348,17 @@
         <v>83</v>
       </c>
       <c r="C86" s="5">
+        <f>SUM(D$4:D86)</f>
+        <v>602520</v>
+      </c>
+      <c r="D86" s="5">
         <v>26525</v>
       </c>
-      <c r="D86" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E86" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A87" s="5">
         <v>84</v>
       </c>
@@ -3015,13 +3366,17 @@
         <v>84</v>
       </c>
       <c r="C87" s="5">
+        <f>SUM(D$4:D87)</f>
+        <v>631085</v>
+      </c>
+      <c r="D87" s="5">
         <v>28565</v>
       </c>
-      <c r="D87" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E87" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A88" s="5">
         <v>85</v>
       </c>
@@ -3029,13 +3384,17 @@
         <v>85</v>
       </c>
       <c r="C88" s="5">
+        <f>SUM(D$4:D88)</f>
+        <v>661690</v>
+      </c>
+      <c r="D88" s="5">
         <v>30605</v>
       </c>
-      <c r="D88" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E88" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A89" s="5">
         <v>86</v>
       </c>
@@ -3043,13 +3402,17 @@
         <v>86</v>
       </c>
       <c r="C89" s="5">
+        <f>SUM(D$4:D89)</f>
+        <v>694335</v>
+      </c>
+      <c r="D89" s="5">
         <v>32645</v>
       </c>
-      <c r="D89" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E89" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A90" s="5">
         <v>87</v>
       </c>
@@ -3057,13 +3420,17 @@
         <v>87</v>
       </c>
       <c r="C90" s="5">
+        <f>SUM(D$4:D90)</f>
+        <v>729020</v>
+      </c>
+      <c r="D90" s="5">
         <v>34685</v>
       </c>
-      <c r="D90" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E90" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A91" s="5">
         <v>88</v>
       </c>
@@ -3071,13 +3438,17 @@
         <v>88</v>
       </c>
       <c r="C91" s="5">
+        <f>SUM(D$4:D91)</f>
+        <v>765745</v>
+      </c>
+      <c r="D91" s="5">
         <v>36725</v>
       </c>
-      <c r="D91" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E91" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A92" s="5">
         <v>89</v>
       </c>
@@ -3085,13 +3456,17 @@
         <v>89</v>
       </c>
       <c r="C92" s="5">
+        <f>SUM(D$4:D92)</f>
+        <v>806550</v>
+      </c>
+      <c r="D92" s="5">
         <v>40805</v>
       </c>
-      <c r="D92" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E92" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A93" s="5">
         <v>90</v>
       </c>
@@ -3099,13 +3474,17 @@
         <v>90</v>
       </c>
       <c r="C93" s="5">
+        <f>SUM(D$4:D93)</f>
+        <v>842320</v>
+      </c>
+      <c r="D93" s="5">
         <v>35770</v>
       </c>
-      <c r="D93" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E93" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A94" s="5">
         <v>91</v>
       </c>
@@ -3113,13 +3492,17 @@
         <v>91</v>
       </c>
       <c r="C94" s="5">
+        <f>SUM(D$4:D94)</f>
+        <v>881670</v>
+      </c>
+      <c r="D94" s="5">
         <v>39350</v>
       </c>
-      <c r="D94" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E94" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A95" s="5">
         <v>92</v>
       </c>
@@ -3127,13 +3510,17 @@
         <v>92</v>
       </c>
       <c r="C95" s="5">
+        <f>SUM(D$4:D95)</f>
+        <v>924595</v>
+      </c>
+      <c r="D95" s="5">
         <v>42925</v>
       </c>
-      <c r="D95" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E95" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A96" s="5">
         <v>93</v>
       </c>
@@ -3141,13 +3528,17 @@
         <v>93</v>
       </c>
       <c r="C96" s="5">
+        <f>SUM(D$4:D96)</f>
+        <v>971100</v>
+      </c>
+      <c r="D96" s="5">
         <v>46505</v>
       </c>
-      <c r="D96" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E96" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A97" s="5">
         <v>94</v>
       </c>
@@ -3155,13 +3546,17 @@
         <v>94</v>
       </c>
       <c r="C97" s="5">
+        <f>SUM(D$4:D97)</f>
+        <v>1021180</v>
+      </c>
+      <c r="D97" s="5">
         <v>50080</v>
       </c>
-      <c r="D97" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E97" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A98" s="5">
         <v>95</v>
       </c>
@@ -3169,13 +3564,17 @@
         <v>95</v>
       </c>
       <c r="C98" s="5">
+        <f>SUM(D$4:D98)</f>
+        <v>1074840</v>
+      </c>
+      <c r="D98" s="5">
         <v>53660</v>
       </c>
-      <c r="D98" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E98" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A99" s="5">
         <v>96</v>
       </c>
@@ -3183,13 +3582,17 @@
         <v>96</v>
       </c>
       <c r="C99" s="5">
+        <f>SUM(D$4:D99)</f>
+        <v>1132075</v>
+      </c>
+      <c r="D99" s="5">
         <v>57235</v>
       </c>
-      <c r="D99" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E99" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A100" s="5">
         <v>97</v>
       </c>
@@ -3197,13 +3600,17 @@
         <v>97</v>
       </c>
       <c r="C100" s="5">
+        <f>SUM(D$4:D100)</f>
+        <v>1192890</v>
+      </c>
+      <c r="D100" s="5">
         <v>60815</v>
       </c>
-      <c r="D100" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E100" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A101" s="5">
         <v>98</v>
       </c>
@@ -3211,13 +3618,17 @@
         <v>98</v>
       </c>
       <c r="C101" s="5">
+        <f>SUM(D$4:D101)</f>
+        <v>1257280</v>
+      </c>
+      <c r="D101" s="5">
         <v>64390</v>
       </c>
-      <c r="D101" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E101" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A102" s="5">
         <v>99</v>
       </c>
@@ -3225,13 +3636,17 @@
         <v>99</v>
       </c>
       <c r="C102" s="5">
+        <f>SUM(D$4:D102)</f>
+        <v>1328825</v>
+      </c>
+      <c r="D102" s="5">
         <v>71545</v>
       </c>
-      <c r="D102" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E102" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A103" s="5">
         <v>100</v>
       </c>
@@ -3239,9 +3654,13 @@
         <v>100</v>
       </c>
       <c r="C103" s="5">
+        <f>SUM(D$4:D103)</f>
+        <v>1529835</v>
+      </c>
+      <c r="D103" s="5">
         <v>201010</v>
       </c>
-      <c r="D103" s="5">
+      <c r="E103" s="5">
         <v>5</v>
       </c>
     </row>
@@ -3270,21 +3689,21 @@
         <v>10</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.2">
@@ -3292,10 +3711,10 @@
         <v>10</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -3303,10 +3722,10 @@
         <v>1000</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -3314,10 +3733,10 @@
         <v>1001</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>37</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -3325,10 +3744,10 @@
         <v>1002</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -3336,10 +3755,10 @@
         <v>1003</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>41</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -3347,10 +3766,10 @@
         <v>1004</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -3358,10 +3777,10 @@
         <v>1005</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -3369,10 +3788,10 @@
         <v>2000</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>47</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -3380,10 +3799,10 @@
         <v>2001</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>49</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -3391,10 +3810,10 @@
         <v>2002</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>51</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -3402,10 +3821,10 @@
         <v>2003</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>53</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -3413,10 +3832,10 @@
         <v>2004</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>55</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -3424,10 +3843,10 @@
         <v>2005</v>
       </c>
       <c r="B15" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>57</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -3435,10 +3854,10 @@
         <v>2006</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>59</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -3446,10 +3865,10 @@
         <v>2007</v>
       </c>
       <c r="B17" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>61</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -3457,10 +3876,10 @@
         <v>2008</v>
       </c>
       <c r="B18" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>63</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -3468,10 +3887,10 @@
         <v>2009</v>
       </c>
       <c r="B19" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>65</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -3479,10 +3898,10 @@
         <v>2010</v>
       </c>
       <c r="B20" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>67</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -3490,10 +3909,10 @@
         <v>2011</v>
       </c>
       <c r="B21" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>69</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -3501,10 +3920,10 @@
         <v>2012</v>
       </c>
       <c r="B22" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>71</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -3512,10 +3931,10 @@
         <v>2013</v>
       </c>
       <c r="B23" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>73</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -3523,10 +3942,10 @@
         <v>2014</v>
       </c>
       <c r="B24" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>75</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -3534,10 +3953,10 @@
         <v>2015</v>
       </c>
       <c r="B25" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>77</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -3545,10 +3964,10 @@
         <v>2016</v>
       </c>
       <c r="B26" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>79</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -3556,10 +3975,10 @@
         <v>2017</v>
       </c>
       <c r="B27" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" s="5" t="s">
         <v>81</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -3567,10 +3986,10 @@
         <v>2018</v>
       </c>
       <c r="B28" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" s="5" t="s">
         <v>83</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -3578,10 +3997,10 @@
         <v>2019</v>
       </c>
       <c r="B29" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" s="5" t="s">
         <v>85</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -3589,10 +4008,10 @@
         <v>2020</v>
       </c>
       <c r="B30" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C30" s="5" t="s">
         <v>87</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -3600,10 +4019,10 @@
         <v>3001</v>
       </c>
       <c r="B31" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C31" s="5" t="s">
         <v>89</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -3611,10 +4030,10 @@
         <v>3002</v>
       </c>
       <c r="B32" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C32" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -3622,10 +4041,10 @@
         <v>4000</v>
       </c>
       <c r="B33" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C33" s="5" t="s">
         <v>93</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -3633,10 +4052,10 @@
         <v>4001</v>
       </c>
       <c r="B34" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C34" s="5" t="s">
         <v>95</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -3644,10 +4063,10 @@
         <v>4002</v>
       </c>
       <c r="B35" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C35" s="5" t="s">
         <v>97</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -3655,10 +4074,10 @@
         <v>4003</v>
       </c>
       <c r="B36" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C36" s="5" t="s">
         <v>97</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -3666,10 +4085,10 @@
         <v>4004</v>
       </c>
       <c r="B37" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C37" s="5" t="s">
         <v>99</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -3677,10 +4096,10 @@
         <v>4005</v>
       </c>
       <c r="B38" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C38" s="5" t="s">
         <v>101</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -3688,10 +4107,10 @@
         <v>4006</v>
       </c>
       <c r="B39" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C39" s="5" t="s">
         <v>103</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -3699,10 +4118,10 @@
         <v>4007</v>
       </c>
       <c r="B40" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C40" s="5" t="s">
         <v>105</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -3710,10 +4129,10 @@
         <v>4008</v>
       </c>
       <c r="B41" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C41" s="5" t="s">
         <v>107</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -3721,10 +4140,10 @@
         <v>4009</v>
       </c>
       <c r="B42" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C42" s="5" t="s">
         <v>109</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -3732,10 +4151,10 @@
         <v>5000</v>
       </c>
       <c r="B43" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C43" s="5" t="s">
         <v>111</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -3743,10 +4162,10 @@
         <v>5001</v>
       </c>
       <c r="B44" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C44" s="5" t="s">
         <v>113</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -3754,10 +4173,10 @@
         <v>5002</v>
       </c>
       <c r="B45" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C45" s="5" t="s">
         <v>115</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -3765,10 +4184,10 @@
         <v>5003</v>
       </c>
       <c r="B46" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C46" s="5" t="s">
         <v>117</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -3776,10 +4195,10 @@
         <v>5004</v>
       </c>
       <c r="B47" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C47" s="5" t="s">
         <v>119</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -3787,10 +4206,10 @@
         <v>5005</v>
       </c>
       <c r="B48" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C48" s="5" t="s">
         <v>121</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -3798,10 +4217,10 @@
         <v>5006</v>
       </c>
       <c r="B49" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C49" s="5" t="s">
         <v>123</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -3809,10 +4228,10 @@
         <v>5007</v>
       </c>
       <c r="B50" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C50" s="5" t="s">
         <v>125</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -3820,10 +4239,10 @@
         <v>5008</v>
       </c>
       <c r="B51" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C51" s="5" t="s">
         <v>127</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -3831,10 +4250,10 @@
         <v>5009</v>
       </c>
       <c r="B52" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C52" s="5" t="s">
         <v>129</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -3842,10 +4261,10 @@
         <v>5010</v>
       </c>
       <c r="B53" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C53" s="5" t="s">
         <v>131</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -3853,10 +4272,10 @@
         <v>6000</v>
       </c>
       <c r="B54" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C54" s="5" t="s">
         <v>133</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -3864,10 +4283,10 @@
         <v>6001</v>
       </c>
       <c r="B55" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C55" s="5" t="s">
         <v>135</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -3875,10 +4294,10 @@
         <v>6002</v>
       </c>
       <c r="B56" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C56" s="5" t="s">
         <v>137</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -3886,10 +4305,10 @@
         <v>6003</v>
       </c>
       <c r="B57" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C57" s="5" t="s">
         <v>139</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -3897,10 +4316,10 @@
         <v>6004</v>
       </c>
       <c r="B58" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C58" s="5" t="s">
         <v>141</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -3908,10 +4327,10 @@
         <v>6005</v>
       </c>
       <c r="B59" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C59" s="5" t="s">
         <v>143</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -3919,10 +4338,10 @@
         <v>6006</v>
       </c>
       <c r="B60" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C60" s="5" t="s">
         <v>145</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -3930,10 +4349,10 @@
         <v>6007</v>
       </c>
       <c r="B61" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C61" s="5" t="s">
         <v>147</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -3941,10 +4360,10 @@
         <v>6008</v>
       </c>
       <c r="B62" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C62" s="5" t="s">
         <v>149</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -3952,10 +4371,10 @@
         <v>6009</v>
       </c>
       <c r="B63" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C63" s="5" t="s">
         <v>151</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -3963,10 +4382,10 @@
         <v>6010</v>
       </c>
       <c r="B64" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C64" s="5" t="s">
         <v>153</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -3974,10 +4393,10 @@
         <v>6011</v>
       </c>
       <c r="B65" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C65" s="5" t="s">
         <v>155</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -3985,10 +4404,10 @@
         <v>6012</v>
       </c>
       <c r="B66" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C66" s="5" t="s">
         <v>157</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -3996,10 +4415,10 @@
         <v>6013</v>
       </c>
       <c r="B67" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C67" s="5" t="s">
         <v>159</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -4007,10 +4426,10 @@
         <v>6014</v>
       </c>
       <c r="B68" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C68" s="5" t="s">
         <v>161</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -4018,10 +4437,10 @@
         <v>6015</v>
       </c>
       <c r="B69" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C69" s="5" t="s">
         <v>163</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -4029,10 +4448,10 @@
         <v>6016</v>
       </c>
       <c r="B70" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C70" s="5" t="s">
         <v>165</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -4040,10 +4459,10 @@
         <v>6017</v>
       </c>
       <c r="B71" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C71" s="5" t="s">
         <v>167</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -4051,10 +4470,10 @@
         <v>6018</v>
       </c>
       <c r="B72" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C72" s="5" t="s">
         <v>169</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -4062,10 +4481,10 @@
         <v>6019</v>
       </c>
       <c r="B73" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C73" s="5" t="s">
         <v>171</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -4073,10 +4492,10 @@
         <v>6020</v>
       </c>
       <c r="B74" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C74" s="5" t="s">
         <v>173</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -4084,10 +4503,10 @@
         <v>6021</v>
       </c>
       <c r="B75" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C75" s="5" t="s">
         <v>175</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -4095,10 +4514,10 @@
         <v>6022</v>
       </c>
       <c r="B76" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C76" s="5" t="s">
         <v>177</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -4106,10 +4525,10 @@
         <v>6023</v>
       </c>
       <c r="B77" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C77" s="5" t="s">
         <v>179</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -4117,10 +4536,10 @@
         <v>6024</v>
       </c>
       <c r="B78" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C78" s="5" t="s">
         <v>181</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -4128,10 +4547,10 @@
         <v>6025</v>
       </c>
       <c r="B79" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C79" s="5" t="s">
         <v>183</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -4139,10 +4558,10 @@
         <v>7001</v>
       </c>
       <c r="B80" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C80" s="5" t="s">
         <v>185</v>
-      </c>
-      <c r="C80" s="5" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -4150,10 +4569,10 @@
         <v>7002</v>
       </c>
       <c r="B81" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C81" s="5" t="s">
         <v>187</v>
-      </c>
-      <c r="C81" s="5" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -4161,10 +4580,10 @@
         <v>7003</v>
       </c>
       <c r="B82" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C82" s="5" t="s">
         <v>189</v>
-      </c>
-      <c r="C82" s="5" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -4172,10 +4591,10 @@
         <v>7004</v>
       </c>
       <c r="B83" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C83" s="5" t="s">
         <v>191</v>
-      </c>
-      <c r="C83" s="5" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -4183,10 +4602,10 @@
         <v>7005</v>
       </c>
       <c r="B84" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C84" s="5" t="s">
         <v>193</v>
-      </c>
-      <c r="C84" s="5" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -4194,10 +4613,10 @@
         <v>7006</v>
       </c>
       <c r="B85" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C85" s="5" t="s">
         <v>195</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -4205,10 +4624,10 @@
         <v>7007</v>
       </c>
       <c r="B86" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C86" s="5" t="s">
         <v>197</v>
-      </c>
-      <c r="C86" s="5" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -4216,10 +4635,10 @@
         <v>7008</v>
       </c>
       <c r="B87" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C87" s="5" t="s">
         <v>199</v>
-      </c>
-      <c r="C87" s="5" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -4227,10 +4646,10 @@
         <v>7009</v>
       </c>
       <c r="B88" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C88" s="5" t="s">
         <v>201</v>
-      </c>
-      <c r="C88" s="5" t="s">
-        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -4266,80 +4685,80 @@
         <v>10</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>209</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="45" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>215</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>216</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>217</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4347,19 +4766,19 @@
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C4" s="5">
         <v>0</v>
       </c>
       <c r="D4" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="E4" s="5">
+        <v>1</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>220</v>
-      </c>
-      <c r="E4" s="5">
-        <v>1</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>221</v>
       </c>
       <c r="G4" s="5">
         <v>1</v>
@@ -4368,7 +4787,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4376,13 +4795,13 @@
         <v>2</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>220</v>
-      </c>
-      <c r="C5" s="5">
-        <v>1</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>221</v>
       </c>
       <c r="E5" s="5">
         <v>1</v>
@@ -4393,7 +4812,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4401,13 +4820,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>220</v>
-      </c>
-      <c r="C6" s="5">
-        <v>1</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>221</v>
       </c>
       <c r="E6" s="5">
         <v>1</v>
@@ -4418,7 +4837,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4426,13 +4845,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>220</v>
-      </c>
-      <c r="C7" s="5">
-        <v>1</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>221</v>
       </c>
       <c r="E7" s="5">
         <v>1</v>
@@ -4443,7 +4862,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4451,13 +4870,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>220</v>
-      </c>
-      <c r="C8" s="5">
-        <v>1</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>221</v>
       </c>
       <c r="E8" s="5">
         <v>1</v>
@@ -4468,7 +4887,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4476,13 +4895,13 @@
         <v>6</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>220</v>
-      </c>
-      <c r="C9" s="5">
-        <v>1</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>221</v>
       </c>
       <c r="E9" s="5">
         <v>1</v>
@@ -4493,7 +4912,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4501,7 +4920,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C10" s="5">
         <v>1</v>
@@ -4514,7 +4933,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4522,13 +4941,13 @@
         <v>8</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>220</v>
-      </c>
-      <c r="C11" s="5">
-        <v>1</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>221</v>
       </c>
       <c r="E11" s="5">
         <v>1</v>
@@ -4539,7 +4958,7 @@
         <v>1</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4547,19 +4966,19 @@
         <v>9</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C12" s="5">
+        <v>1</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="C12" s="5">
-        <v>1</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>221</v>
-      </c>
       <c r="E12" s="5">
         <v>1</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G12" s="5">
         <v>0</v>
@@ -4568,7 +4987,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4576,19 +4995,19 @@
         <v>10</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C13" s="5">
+        <v>1</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="C13" s="5">
-        <v>1</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>221</v>
-      </c>
       <c r="E13" s="5">
         <v>1</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G13" s="5">
         <v>1</v>
@@ -4597,7 +5016,7 @@
         <v>1</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4605,13 +5024,13 @@
         <v>11</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C14" s="5">
+        <v>1</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>220</v>
-      </c>
-      <c r="C14" s="5">
-        <v>1</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>221</v>
       </c>
       <c r="E14" s="5">
         <v>1</v>
@@ -4622,7 +5041,7 @@
         <v>1</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4630,19 +5049,19 @@
         <v>12</v>
       </c>
       <c r="B15" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C15" s="5">
+        <v>1</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="C15" s="5">
-        <v>1</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>221</v>
-      </c>
       <c r="E15" s="5">
         <v>1</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G15" s="5">
         <v>0</v>
@@ -4651,7 +5070,7 @@
         <v>1</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4659,19 +5078,19 @@
         <v>13</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C16" s="5">
+        <v>1</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="C16" s="5">
-        <v>1</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>221</v>
-      </c>
       <c r="E16" s="5">
         <v>1</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G16" s="5">
         <v>1</v>
@@ -4680,7 +5099,7 @@
         <v>1</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4688,13 +5107,13 @@
         <v>14</v>
       </c>
       <c r="B17" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C17" s="5">
+        <v>1</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>220</v>
-      </c>
-      <c r="C17" s="5">
-        <v>1</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>221</v>
       </c>
       <c r="E17" s="5">
         <v>1</v>
@@ -4705,7 +5124,7 @@
         <v>1</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4713,13 +5132,13 @@
         <v>15</v>
       </c>
       <c r="B18" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C18" s="5">
+        <v>1</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>220</v>
-      </c>
-      <c r="C18" s="5">
-        <v>1</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>221</v>
       </c>
       <c r="E18" s="5">
         <v>1</v>
@@ -4730,7 +5149,7 @@
         <v>1</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4738,13 +5157,13 @@
         <v>16</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C19" s="5">
         <v>1</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E19" s="5">
         <v>1</v>
@@ -4755,7 +5174,7 @@
         <v>1</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4763,13 +5182,13 @@
         <v>17</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C20" s="5">
         <v>1</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E20" s="5">
         <v>1</v>
@@ -4780,7 +5199,7 @@
         <v>1</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4788,13 +5207,13 @@
         <v>18</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C21" s="5">
         <v>1</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E21" s="5">
         <v>1</v>
@@ -4805,7 +5224,7 @@
         <v>1</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4813,13 +5232,13 @@
         <v>19</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C22" s="5">
         <v>1</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E22" s="5">
         <v>1</v>
@@ -4830,7 +5249,7 @@
         <v>1</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4838,28 +5257,28 @@
         <v>20</v>
       </c>
       <c r="B23" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C23" s="5">
+        <v>1</v>
+      </c>
+      <c r="D23" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="C23" s="5">
-        <v>1</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>221</v>
-      </c>
       <c r="E23" s="5">
         <v>1</v>
       </c>
       <c r="F23" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="G23" s="5">
+        <v>1</v>
+      </c>
+      <c r="H23" s="5">
+        <v>1</v>
+      </c>
+      <c r="I23" s="5" t="s">
         <v>246</v>
-      </c>
-      <c r="G23" s="5">
-        <v>1</v>
-      </c>
-      <c r="H23" s="5">
-        <v>1</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4867,19 +5286,19 @@
         <v>21</v>
       </c>
       <c r="B24" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C24" s="5">
+        <v>1</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="C24" s="5">
-        <v>1</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>221</v>
-      </c>
       <c r="E24" s="5">
         <v>1</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G24" s="5">
         <v>0</v>
@@ -4888,7 +5307,7 @@
         <v>1</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4896,7 +5315,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C25" s="5">
         <v>0</v>
@@ -4909,7 +5328,7 @@
         <v>1</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4917,28 +5336,28 @@
         <v>23</v>
       </c>
       <c r="B26" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C26" s="5">
+        <v>1</v>
+      </c>
+      <c r="D26" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="C26" s="5">
-        <v>1</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>221</v>
-      </c>
       <c r="E26" s="5">
         <v>1</v>
       </c>
       <c r="F26" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="G26" s="5">
+        <v>1</v>
+      </c>
+      <c r="H26" s="5">
+        <v>1</v>
+      </c>
+      <c r="I26" s="5" t="s">
         <v>252</v>
-      </c>
-      <c r="G26" s="5">
-        <v>1</v>
-      </c>
-      <c r="H26" s="5">
-        <v>1</v>
-      </c>
-      <c r="I26" s="5" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4946,7 +5365,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C27" s="5">
         <v>1</v>
@@ -4959,7 +5378,7 @@
         <v>0</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4967,13 +5386,13 @@
         <v>25</v>
       </c>
       <c r="B28" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C28" s="5">
+        <v>1</v>
+      </c>
+      <c r="D28" s="5" t="s">
         <v>220</v>
-      </c>
-      <c r="C28" s="5">
-        <v>1</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>221</v>
       </c>
       <c r="E28" s="5">
         <v>1</v>
@@ -4984,7 +5403,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4992,7 +5411,7 @@
         <v>26</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C29" s="5">
         <v>1</v>
@@ -5005,7 +5424,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -5013,7 +5432,7 @@
         <v>27</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C30" s="5">
         <v>0</v>
@@ -5026,7 +5445,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -5034,7 +5453,7 @@
         <v>28</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C31" s="5">
         <v>0</v>
@@ -5047,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -5055,7 +5474,7 @@
         <v>29</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C32" s="5">
         <v>0</v>
@@ -5068,7 +5487,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -5076,7 +5495,7 @@
         <v>30</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C33" s="5">
         <v>0</v>
@@ -5089,7 +5508,7 @@
         <v>0</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -5119,45 +5538,45 @@
         <v>10</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>266</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.2">
@@ -5165,22 +5584,22 @@
         <v>10</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="F3" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="G3" s="6" t="s">
         <v>273</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="280.5" x14ac:dyDescent="0.2">
@@ -5191,10 +5610,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>275</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>276</v>
       </c>
       <c r="E4" s="5">
         <v>1</v>
@@ -5214,10 +5633,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>277</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>278</v>
       </c>
       <c r="E5" s="5">
         <v>1</v>
@@ -5267,149 +5686,149 @@
         <v>10</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>291</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="L2" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="M2" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="N2" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="O2" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="P2" s="1" t="s">
         <v>295</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="M3" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="N3" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="O3" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="P3" s="4" t="s">
         <v>310</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
@@ -5417,7 +5836,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C4" s="5">
         <v>1</v>
@@ -5426,40 +5845,40 @@
         <v>60</v>
       </c>
       <c r="E4" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="H4" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="I4" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="J4" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="K4" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="J4" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="K4" s="5" t="s">
+      <c r="L4" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="M4" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>319</v>
-      </c>
       <c r="N4" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/镇魂街/basicInfo.基础信息.xlsx
+++ b/Excel/镇魂街/basicInfo.基础信息.xlsx
@@ -1800,10 +1800,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E103"/>
+  <dimension ref="A1:E153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C103"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1873,10 +1873,10 @@
       </c>
       <c r="C4" s="5">
         <f>SUM(D$4:D4)</f>
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="D4" s="5">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E4" s="5">
         <v>1</v>
@@ -1891,13 +1891,13 @@
       </c>
       <c r="C5" s="5">
         <f>SUM(D$4:D5)</f>
-        <v>110</v>
+        <v>170</v>
       </c>
       <c r="D5" s="5">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="E5" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -1909,13 +1909,13 @@
       </c>
       <c r="C6" s="5">
         <f>SUM(D$4:D6)</f>
-        <v>185</v>
+        <v>285</v>
       </c>
       <c r="D6" s="5">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="E6" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -1927,13 +1927,13 @@
       </c>
       <c r="C7" s="5">
         <f>SUM(D$4:D7)</f>
-        <v>270</v>
+        <v>420</v>
       </c>
       <c r="D7" s="5">
-        <v>85</v>
+        <v>135</v>
       </c>
       <c r="E7" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -1945,13 +1945,13 @@
       </c>
       <c r="C8" s="5">
         <f>SUM(D$4:D8)</f>
-        <v>370</v>
+        <v>575</v>
       </c>
       <c r="D8" s="5">
-        <v>100</v>
+        <v>155</v>
       </c>
       <c r="E8" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -1963,13 +1963,13 @@
       </c>
       <c r="C9" s="5">
         <f>SUM(D$4:D9)</f>
-        <v>495</v>
+        <v>765</v>
       </c>
       <c r="D9" s="5">
-        <v>125</v>
+        <v>190</v>
       </c>
       <c r="E9" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -1981,13 +1981,13 @@
       </c>
       <c r="C10" s="5">
         <f>SUM(D$4:D10)</f>
-        <v>645</v>
+        <v>995</v>
       </c>
       <c r="D10" s="5">
-        <v>150</v>
+        <v>230</v>
       </c>
       <c r="E10" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -1999,13 +1999,13 @@
       </c>
       <c r="C11" s="5">
         <f>SUM(D$4:D11)</f>
-        <v>820</v>
+        <v>1265</v>
       </c>
       <c r="D11" s="5">
-        <v>175</v>
+        <v>270</v>
       </c>
       <c r="E11" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -2017,13 +2017,13 @@
       </c>
       <c r="C12" s="5">
         <f>SUM(D$4:D12)</f>
-        <v>1070</v>
+        <v>1650</v>
       </c>
       <c r="D12" s="5">
-        <v>250</v>
+        <v>385</v>
       </c>
       <c r="E12" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -2035,13 +2035,13 @@
       </c>
       <c r="C13" s="5">
         <f>SUM(D$4:D13)</f>
-        <v>1380</v>
+        <v>2135</v>
       </c>
       <c r="D13" s="5">
-        <v>310</v>
+        <v>485</v>
       </c>
       <c r="E13" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -2053,13 +2053,13 @@
       </c>
       <c r="C14" s="5">
         <f>SUM(D$4:D14)</f>
-        <v>1720</v>
+        <v>2670</v>
       </c>
       <c r="D14" s="5">
-        <v>340</v>
+        <v>535</v>
       </c>
       <c r="E14" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -2071,13 +2071,13 @@
       </c>
       <c r="C15" s="5">
         <f>SUM(D$4:D15)</f>
-        <v>2090</v>
+        <v>3250</v>
       </c>
       <c r="D15" s="5">
-        <v>370</v>
+        <v>580</v>
       </c>
       <c r="E15" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -2089,13 +2089,13 @@
       </c>
       <c r="C16" s="5">
         <f>SUM(D$4:D16)</f>
-        <v>2490</v>
+        <v>3880</v>
       </c>
       <c r="D16" s="5">
-        <v>400</v>
+        <v>630</v>
       </c>
       <c r="E16" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -2107,13 +2107,13 @@
       </c>
       <c r="C17" s="5">
         <f>SUM(D$4:D17)</f>
-        <v>2920</v>
+        <v>4560</v>
       </c>
       <c r="D17" s="5">
-        <v>430</v>
+        <v>680</v>
       </c>
       <c r="E17" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -2125,13 +2125,13 @@
       </c>
       <c r="C18" s="5">
         <f>SUM(D$4:D18)</f>
-        <v>3385</v>
+        <v>5290</v>
       </c>
       <c r="D18" s="5">
-        <v>465</v>
+        <v>730</v>
       </c>
       <c r="E18" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -2143,13 +2143,13 @@
       </c>
       <c r="C19" s="5">
         <f>SUM(D$4:D19)</f>
-        <v>3880</v>
+        <v>6065</v>
       </c>
       <c r="D19" s="5">
-        <v>495</v>
+        <v>775</v>
       </c>
       <c r="E19" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -2161,13 +2161,13 @@
       </c>
       <c r="C20" s="5">
         <f>SUM(D$4:D20)</f>
-        <v>4405</v>
+        <v>6890</v>
       </c>
       <c r="D20" s="5">
-        <v>525</v>
+        <v>825</v>
       </c>
       <c r="E20" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -2179,13 +2179,13 @@
       </c>
       <c r="C21" s="5">
         <f>SUM(D$4:D21)</f>
-        <v>4960</v>
+        <v>7765</v>
       </c>
       <c r="D21" s="5">
-        <v>555</v>
+        <v>875</v>
       </c>
       <c r="E21" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -2197,13 +2197,13 @@
       </c>
       <c r="C22" s="5">
         <f>SUM(D$4:D22)</f>
-        <v>5580</v>
+        <v>8735</v>
       </c>
       <c r="D22" s="5">
-        <v>620</v>
+        <v>970</v>
       </c>
       <c r="E22" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -2215,13 +2215,13 @@
       </c>
       <c r="C23" s="5">
         <f>SUM(D$4:D23)</f>
-        <v>6240</v>
+        <v>9480</v>
       </c>
       <c r="D23" s="5">
-        <v>660</v>
+        <v>745</v>
       </c>
       <c r="E23" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -2233,13 +2233,13 @@
       </c>
       <c r="C24" s="5">
         <f>SUM(D$4:D24)</f>
-        <v>6965</v>
+        <v>10300</v>
       </c>
       <c r="D24" s="5">
-        <v>725</v>
+        <v>820</v>
       </c>
       <c r="E24" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -2251,13 +2251,13 @@
       </c>
       <c r="C25" s="5">
         <f>SUM(D$4:D25)</f>
-        <v>7760</v>
+        <v>11195</v>
       </c>
       <c r="D25" s="5">
-        <v>795</v>
+        <v>895</v>
       </c>
       <c r="E25" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -2269,13 +2269,13 @@
       </c>
       <c r="C26" s="5">
         <f>SUM(D$4:D26)</f>
-        <v>8620</v>
+        <v>12165</v>
       </c>
       <c r="D26" s="5">
-        <v>860</v>
+        <v>970</v>
       </c>
       <c r="E26" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -2287,13 +2287,13 @@
       </c>
       <c r="C27" s="5">
         <f>SUM(D$4:D27)</f>
-        <v>9545</v>
+        <v>13210</v>
       </c>
       <c r="D27" s="5">
-        <v>925</v>
+        <v>1045</v>
       </c>
       <c r="E27" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -2305,13 +2305,13 @@
       </c>
       <c r="C28" s="5">
         <f>SUM(D$4:D28)</f>
-        <v>10540</v>
+        <v>14325</v>
       </c>
       <c r="D28" s="5">
-        <v>995</v>
+        <v>1115</v>
       </c>
       <c r="E28" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -2323,13 +2323,13 @@
       </c>
       <c r="C29" s="5">
         <f>SUM(D$4:D29)</f>
-        <v>11600</v>
+        <v>15515</v>
       </c>
       <c r="D29" s="5">
-        <v>1060</v>
+        <v>1190</v>
       </c>
       <c r="E29" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -2341,13 +2341,13 @@
       </c>
       <c r="C30" s="5">
         <f>SUM(D$4:D30)</f>
-        <v>12725</v>
+        <v>16780</v>
       </c>
       <c r="D30" s="5">
-        <v>1125</v>
+        <v>1265</v>
       </c>
       <c r="E30" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -2359,13 +2359,13 @@
       </c>
       <c r="C31" s="5">
         <f>SUM(D$4:D31)</f>
-        <v>13915</v>
+        <v>18120</v>
       </c>
       <c r="D31" s="5">
-        <v>1190</v>
+        <v>1340</v>
       </c>
       <c r="E31" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -2377,13 +2377,13 @@
       </c>
       <c r="C32" s="5">
         <f>SUM(D$4:D32)</f>
-        <v>15240</v>
+        <v>19610</v>
       </c>
       <c r="D32" s="5">
-        <v>1325</v>
+        <v>1490</v>
       </c>
       <c r="E32" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -2395,13 +2395,13 @@
       </c>
       <c r="C33" s="5">
         <f>SUM(D$4:D33)</f>
-        <v>16640</v>
+        <v>21055</v>
       </c>
       <c r="D33" s="5">
-        <v>1400</v>
+        <v>1445</v>
       </c>
       <c r="E33" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -2413,13 +2413,13 @@
       </c>
       <c r="C34" s="5">
         <f>SUM(D$4:D34)</f>
-        <v>18320</v>
+        <v>22790</v>
       </c>
       <c r="D34" s="5">
-        <v>1680</v>
+        <v>1735</v>
       </c>
       <c r="E34" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -2431,13 +2431,13 @@
       </c>
       <c r="C35" s="5">
         <f>SUM(D$4:D35)</f>
-        <v>20280</v>
+        <v>24815</v>
       </c>
       <c r="D35" s="5">
-        <v>1960</v>
+        <v>2025</v>
       </c>
       <c r="E35" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -2449,13 +2449,13 @@
       </c>
       <c r="C36" s="5">
         <f>SUM(D$4:D36)</f>
-        <v>22525</v>
+        <v>27130</v>
       </c>
       <c r="D36" s="5">
-        <v>2245</v>
+        <v>2315</v>
       </c>
       <c r="E36" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -2467,13 +2467,13 @@
       </c>
       <c r="C37" s="5">
         <f>SUM(D$4:D37)</f>
-        <v>25050</v>
+        <v>29735</v>
       </c>
       <c r="D37" s="5">
-        <v>2525</v>
+        <v>2605</v>
       </c>
       <c r="E37" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -2485,13 +2485,13 @@
       </c>
       <c r="C38" s="5">
         <f>SUM(D$4:D38)</f>
-        <v>27855</v>
+        <v>32630</v>
       </c>
       <c r="D38" s="5">
-        <v>2805</v>
+        <v>2895</v>
       </c>
       <c r="E38" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -2503,13 +2503,13 @@
       </c>
       <c r="C39" s="5">
         <f>SUM(D$4:D39)</f>
-        <v>30940</v>
+        <v>35815</v>
       </c>
       <c r="D39" s="5">
-        <v>3085</v>
+        <v>3185</v>
       </c>
       <c r="E39" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -2521,13 +2521,13 @@
       </c>
       <c r="C40" s="5">
         <f>SUM(D$4:D40)</f>
-        <v>34305</v>
+        <v>39290</v>
       </c>
       <c r="D40" s="5">
-        <v>3365</v>
+        <v>3475</v>
       </c>
       <c r="E40" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -2539,13 +2539,13 @@
       </c>
       <c r="C41" s="5">
         <f>SUM(D$4:D41)</f>
-        <v>37950</v>
+        <v>43050</v>
       </c>
       <c r="D41" s="5">
-        <v>3645</v>
+        <v>3760</v>
       </c>
       <c r="E41" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -2557,13 +2557,13 @@
       </c>
       <c r="C42" s="5">
         <f>SUM(D$4:D42)</f>
-        <v>42160</v>
+        <v>47390</v>
       </c>
       <c r="D42" s="5">
-        <v>4210</v>
+        <v>4340</v>
       </c>
       <c r="E42" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -2575,13 +2575,13 @@
       </c>
       <c r="C43" s="5">
         <f>SUM(D$4:D43)</f>
-        <v>46165</v>
+        <v>53390</v>
       </c>
       <c r="D43" s="5">
-        <v>4005</v>
+        <v>6000</v>
       </c>
       <c r="E43" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -2593,13 +2593,13 @@
       </c>
       <c r="C44" s="5">
         <f>SUM(D$4:D44)</f>
-        <v>50575</v>
+        <v>59990</v>
       </c>
       <c r="D44" s="5">
-        <v>4410</v>
+        <v>6600</v>
       </c>
       <c r="E44" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -2611,13 +2611,13 @@
       </c>
       <c r="C45" s="5">
         <f>SUM(D$4:D45)</f>
-        <v>55385</v>
+        <v>67190</v>
       </c>
       <c r="D45" s="5">
-        <v>4810</v>
+        <v>7200</v>
       </c>
       <c r="E45" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -2629,13 +2629,13 @@
       </c>
       <c r="C46" s="5">
         <f>SUM(D$4:D46)</f>
-        <v>60595</v>
+        <v>74990</v>
       </c>
       <c r="D46" s="5">
-        <v>5210</v>
+        <v>7800</v>
       </c>
       <c r="E46" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -2647,13 +2647,13 @@
       </c>
       <c r="C47" s="5">
         <f>SUM(D$4:D47)</f>
-        <v>66205</v>
+        <v>83390</v>
       </c>
       <c r="D47" s="5">
-        <v>5610</v>
+        <v>8400</v>
       </c>
       <c r="E47" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -2665,13 +2665,13 @@
       </c>
       <c r="C48" s="5">
         <f>SUM(D$4:D48)</f>
-        <v>72215</v>
+        <v>92390</v>
       </c>
       <c r="D48" s="5">
-        <v>6010</v>
+        <v>9000</v>
       </c>
       <c r="E48" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -2683,13 +2683,13 @@
       </c>
       <c r="C49" s="5">
         <f>SUM(D$4:D49)</f>
-        <v>78625</v>
+        <v>101990</v>
       </c>
       <c r="D49" s="5">
-        <v>6410</v>
+        <v>9600</v>
       </c>
       <c r="E49" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -2701,13 +2701,13 @@
       </c>
       <c r="C50" s="5">
         <f>SUM(D$4:D50)</f>
-        <v>85440</v>
+        <v>112190</v>
       </c>
       <c r="D50" s="5">
-        <v>6815</v>
+        <v>10200</v>
       </c>
       <c r="E50" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -2719,13 +2719,13 @@
       </c>
       <c r="C51" s="5">
         <f>SUM(D$4:D51)</f>
-        <v>92655</v>
+        <v>122990</v>
       </c>
       <c r="D51" s="5">
-        <v>7215</v>
+        <v>10800</v>
       </c>
       <c r="E51" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -2737,13 +2737,13 @@
       </c>
       <c r="C52" s="5">
         <f>SUM(D$4:D52)</f>
-        <v>100670</v>
+        <v>134990</v>
       </c>
       <c r="D52" s="5">
-        <v>8015</v>
+        <v>12000</v>
       </c>
       <c r="E52" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -2755,13 +2755,13 @@
       </c>
       <c r="C53" s="5">
         <f>SUM(D$4:D53)</f>
-        <v>106630</v>
+        <v>144150</v>
       </c>
       <c r="D53" s="5">
-        <v>5960</v>
+        <v>9160</v>
       </c>
       <c r="E53" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -2773,13 +2773,13 @@
       </c>
       <c r="C54" s="5">
         <f>SUM(D$4:D54)</f>
-        <v>113190</v>
+        <v>154225</v>
       </c>
       <c r="D54" s="5">
-        <v>6560</v>
+        <v>10075</v>
       </c>
       <c r="E54" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -2791,13 +2791,13 @@
       </c>
       <c r="C55" s="5">
         <f>SUM(D$4:D55)</f>
-        <v>120345</v>
+        <v>165215</v>
       </c>
       <c r="D55" s="5">
-        <v>7155</v>
+        <v>10990</v>
       </c>
       <c r="E55" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -2809,13 +2809,13 @@
       </c>
       <c r="C56" s="5">
         <f>SUM(D$4:D56)</f>
-        <v>128095</v>
+        <v>177120</v>
       </c>
       <c r="D56" s="5">
-        <v>7750</v>
+        <v>11905</v>
       </c>
       <c r="E56" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -2827,13 +2827,13 @@
       </c>
       <c r="C57" s="5">
         <f>SUM(D$4:D57)</f>
-        <v>136445</v>
+        <v>189945</v>
       </c>
       <c r="D57" s="5">
-        <v>8350</v>
+        <v>12825</v>
       </c>
       <c r="E57" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -2845,13 +2845,13 @@
       </c>
       <c r="C58" s="5">
         <f>SUM(D$4:D58)</f>
-        <v>145390</v>
+        <v>203685</v>
       </c>
       <c r="D58" s="5">
-        <v>8945</v>
+        <v>13740</v>
       </c>
       <c r="E58" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -2863,13 +2863,13 @@
       </c>
       <c r="C59" s="5">
         <f>SUM(D$4:D59)</f>
-        <v>154930</v>
+        <v>218340</v>
       </c>
       <c r="D59" s="5">
-        <v>9540</v>
+        <v>14655</v>
       </c>
       <c r="E59" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -2881,13 +2881,13 @@
       </c>
       <c r="C60" s="5">
         <f>SUM(D$4:D60)</f>
-        <v>165065</v>
+        <v>233910</v>
       </c>
       <c r="D60" s="5">
-        <v>10135</v>
+        <v>15570</v>
       </c>
       <c r="E60" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -2899,13 +2899,13 @@
       </c>
       <c r="C61" s="5">
         <f>SUM(D$4:D61)</f>
-        <v>175800</v>
+        <v>250395</v>
       </c>
       <c r="D61" s="5">
-        <v>10735</v>
+        <v>16485</v>
       </c>
       <c r="E61" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -2917,13 +2917,13 @@
       </c>
       <c r="C62" s="5">
         <f>SUM(D$4:D62)</f>
-        <v>187725</v>
+        <v>268715</v>
       </c>
       <c r="D62" s="5">
-        <v>11925</v>
+        <v>18320</v>
       </c>
       <c r="E62" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -2935,13 +2935,13 @@
       </c>
       <c r="C63" s="5">
         <f>SUM(D$4:D63)</f>
-        <v>196865</v>
+        <v>283715</v>
       </c>
       <c r="D63" s="5">
-        <v>9140</v>
+        <v>15000</v>
       </c>
       <c r="E63" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -2953,13 +2953,13 @@
       </c>
       <c r="C64" s="5">
         <f>SUM(D$4:D64)</f>
-        <v>206920</v>
+        <v>300215</v>
       </c>
       <c r="D64" s="5">
-        <v>10055</v>
+        <v>16500</v>
       </c>
       <c r="E64" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -2971,13 +2971,13 @@
       </c>
       <c r="C65" s="5">
         <f>SUM(D$4:D65)</f>
-        <v>217890</v>
+        <v>318215</v>
       </c>
       <c r="D65" s="5">
-        <v>10970</v>
+        <v>18000</v>
       </c>
       <c r="E65" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -2989,13 +2989,13 @@
       </c>
       <c r="C66" s="5">
         <f>SUM(D$4:D66)</f>
-        <v>229775</v>
+        <v>337715</v>
       </c>
       <c r="D66" s="5">
-        <v>11885</v>
+        <v>19500</v>
       </c>
       <c r="E66" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -3007,13 +3007,13 @@
       </c>
       <c r="C67" s="5">
         <f>SUM(D$4:D67)</f>
-        <v>242575</v>
+        <v>358715</v>
       </c>
       <c r="D67" s="5">
-        <v>12800</v>
+        <v>21000</v>
       </c>
       <c r="E67" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -3025,13 +3025,13 @@
       </c>
       <c r="C68" s="5">
         <f>SUM(D$4:D68)</f>
-        <v>256290</v>
+        <v>381215</v>
       </c>
       <c r="D68" s="5">
-        <v>13715</v>
+        <v>22500</v>
       </c>
       <c r="E68" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -3043,13 +3043,13 @@
       </c>
       <c r="C69" s="5">
         <f>SUM(D$4:D69)</f>
-        <v>270920</v>
+        <v>405215</v>
       </c>
       <c r="D69" s="5">
-        <v>14630</v>
+        <v>24000</v>
       </c>
       <c r="E69" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -3061,13 +3061,13 @@
       </c>
       <c r="C70" s="5">
         <f>SUM(D$4:D70)</f>
-        <v>286460</v>
+        <v>430715</v>
       </c>
       <c r="D70" s="5">
-        <v>15540</v>
+        <v>25500</v>
       </c>
       <c r="E70" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -3079,13 +3079,13 @@
       </c>
       <c r="C71" s="5">
         <f>SUM(D$4:D71)</f>
-        <v>302915</v>
+        <v>457715</v>
       </c>
       <c r="D71" s="5">
-        <v>16455</v>
+        <v>27000</v>
       </c>
       <c r="E71" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -3097,13 +3097,13 @@
       </c>
       <c r="C72" s="5">
         <f>SUM(D$4:D72)</f>
-        <v>321200</v>
+        <v>487715</v>
       </c>
       <c r="D72" s="5">
-        <v>18285</v>
+        <v>30000</v>
       </c>
       <c r="E72" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -3115,13 +3115,13 @@
       </c>
       <c r="C73" s="5">
         <f>SUM(D$4:D73)</f>
-        <v>334040</v>
+        <v>507950</v>
       </c>
       <c r="D73" s="5">
-        <v>12840</v>
+        <v>20235</v>
       </c>
       <c r="E73" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -3133,13 +3133,13 @@
       </c>
       <c r="C74" s="5">
         <f>SUM(D$4:D74)</f>
-        <v>348165</v>
+        <v>530210</v>
       </c>
       <c r="D74" s="5">
-        <v>14125</v>
+        <v>22260</v>
       </c>
       <c r="E74" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -3151,13 +3151,13 @@
       </c>
       <c r="C75" s="5">
         <f>SUM(D$4:D75)</f>
-        <v>363575</v>
+        <v>554495</v>
       </c>
       <c r="D75" s="5">
-        <v>15410</v>
+        <v>24285</v>
       </c>
       <c r="E75" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -3169,13 +3169,13 @@
       </c>
       <c r="C76" s="5">
         <f>SUM(D$4:D76)</f>
-        <v>380270</v>
+        <v>580805</v>
       </c>
       <c r="D76" s="5">
-        <v>16695</v>
+        <v>26310</v>
       </c>
       <c r="E76" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -3187,13 +3187,13 @@
       </c>
       <c r="C77" s="5">
         <f>SUM(D$4:D77)</f>
-        <v>398245</v>
+        <v>609140</v>
       </c>
       <c r="D77" s="5">
-        <v>17975</v>
+        <v>28335</v>
       </c>
       <c r="E77" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -3205,13 +3205,13 @@
       </c>
       <c r="C78" s="5">
         <f>SUM(D$4:D78)</f>
-        <v>417505</v>
+        <v>639495</v>
       </c>
       <c r="D78" s="5">
-        <v>19260</v>
+        <v>30355</v>
       </c>
       <c r="E78" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -3223,13 +3223,13 @@
       </c>
       <c r="C79" s="5">
         <f>SUM(D$4:D79)</f>
-        <v>438050</v>
+        <v>671875</v>
       </c>
       <c r="D79" s="5">
-        <v>20545</v>
+        <v>32380</v>
       </c>
       <c r="E79" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -3241,13 +3241,13 @@
       </c>
       <c r="C80" s="5">
         <f>SUM(D$4:D80)</f>
-        <v>459880</v>
+        <v>706280</v>
       </c>
       <c r="D80" s="5">
-        <v>21830</v>
+        <v>34405</v>
       </c>
       <c r="E80" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -3259,13 +3259,13 @@
       </c>
       <c r="C81" s="5">
         <f>SUM(D$4:D81)</f>
-        <v>482995</v>
+        <v>742710</v>
       </c>
       <c r="D81" s="5">
-        <v>23115</v>
+        <v>36430</v>
       </c>
       <c r="E81" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -3277,13 +3277,13 @@
       </c>
       <c r="C82" s="5">
         <f>SUM(D$4:D82)</f>
-        <v>508675</v>
+        <v>783185</v>
       </c>
       <c r="D82" s="5">
-        <v>25680</v>
+        <v>40475</v>
       </c>
       <c r="E82" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -3295,13 +3295,13 @@
       </c>
       <c r="C83" s="5">
         <f>SUM(D$4:D83)</f>
-        <v>529075</v>
+        <v>813390</v>
       </c>
       <c r="D83" s="5">
-        <v>20400</v>
+        <v>30205</v>
       </c>
       <c r="E83" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -3313,13 +3313,13 @@
       </c>
       <c r="C84" s="5">
         <f>SUM(D$4:D84)</f>
-        <v>551515</v>
+        <v>846615</v>
       </c>
       <c r="D84" s="5">
-        <v>22440</v>
+        <v>33225</v>
       </c>
       <c r="E84" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -3331,13 +3331,13 @@
       </c>
       <c r="C85" s="5">
         <f>SUM(D$4:D85)</f>
-        <v>575995</v>
+        <v>882860</v>
       </c>
       <c r="D85" s="5">
-        <v>24480</v>
+        <v>36245</v>
       </c>
       <c r="E85" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -3349,13 +3349,13 @@
       </c>
       <c r="C86" s="5">
         <f>SUM(D$4:D86)</f>
-        <v>602520</v>
+        <v>922125</v>
       </c>
       <c r="D86" s="5">
-        <v>26525</v>
+        <v>39265</v>
       </c>
       <c r="E86" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -3367,13 +3367,13 @@
       </c>
       <c r="C87" s="5">
         <f>SUM(D$4:D87)</f>
-        <v>631085</v>
+        <v>964410</v>
       </c>
       <c r="D87" s="5">
-        <v>28565</v>
+        <v>42285</v>
       </c>
       <c r="E87" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -3385,13 +3385,13 @@
       </c>
       <c r="C88" s="5">
         <f>SUM(D$4:D88)</f>
-        <v>661690</v>
+        <v>1009715</v>
       </c>
       <c r="D88" s="5">
-        <v>30605</v>
+        <v>45305</v>
       </c>
       <c r="E88" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -3403,13 +3403,13 @@
       </c>
       <c r="C89" s="5">
         <f>SUM(D$4:D89)</f>
-        <v>694335</v>
+        <v>1058040</v>
       </c>
       <c r="D89" s="5">
-        <v>32645</v>
+        <v>48325</v>
       </c>
       <c r="E89" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -3421,13 +3421,13 @@
       </c>
       <c r="C90" s="5">
         <f>SUM(D$4:D90)</f>
-        <v>729020</v>
+        <v>1109385</v>
       </c>
       <c r="D90" s="5">
-        <v>34685</v>
+        <v>51345</v>
       </c>
       <c r="E90" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -3439,13 +3439,13 @@
       </c>
       <c r="C91" s="5">
         <f>SUM(D$4:D91)</f>
-        <v>765745</v>
+        <v>1163750</v>
       </c>
       <c r="D91" s="5">
-        <v>36725</v>
+        <v>54365</v>
       </c>
       <c r="E91" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -3457,13 +3457,13 @@
       </c>
       <c r="C92" s="5">
         <f>SUM(D$4:D92)</f>
-        <v>806550</v>
+        <v>1224160</v>
       </c>
       <c r="D92" s="5">
-        <v>40805</v>
+        <v>60410</v>
       </c>
       <c r="E92" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -3475,13 +3475,13 @@
       </c>
       <c r="C93" s="5">
         <f>SUM(D$4:D93)</f>
-        <v>842320</v>
+        <v>1271910</v>
       </c>
       <c r="D93" s="5">
-        <v>35770</v>
+        <v>47750</v>
       </c>
       <c r="E93" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -3493,13 +3493,13 @@
       </c>
       <c r="C94" s="5">
         <f>SUM(D$4:D94)</f>
-        <v>881670</v>
+        <v>1324435</v>
       </c>
       <c r="D94" s="5">
-        <v>39350</v>
+        <v>52525</v>
       </c>
       <c r="E94" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -3511,13 +3511,13 @@
       </c>
       <c r="C95" s="5">
         <f>SUM(D$4:D95)</f>
-        <v>924595</v>
+        <v>1381735</v>
       </c>
       <c r="D95" s="5">
-        <v>42925</v>
+        <v>57300</v>
       </c>
       <c r="E95" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -3529,13 +3529,13 @@
       </c>
       <c r="C96" s="5">
         <f>SUM(D$4:D96)</f>
-        <v>971100</v>
+        <v>1443810</v>
       </c>
       <c r="D96" s="5">
-        <v>46505</v>
+        <v>62075</v>
       </c>
       <c r="E96" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -3547,13 +3547,13 @@
       </c>
       <c r="C97" s="5">
         <f>SUM(D$4:D97)</f>
-        <v>1021180</v>
+        <v>1510660</v>
       </c>
       <c r="D97" s="5">
-        <v>50080</v>
+        <v>66850</v>
       </c>
       <c r="E97" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -3565,13 +3565,13 @@
       </c>
       <c r="C98" s="5">
         <f>SUM(D$4:D98)</f>
-        <v>1074840</v>
+        <v>1582290</v>
       </c>
       <c r="D98" s="5">
-        <v>53660</v>
+        <v>71630</v>
       </c>
       <c r="E98" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -3583,13 +3583,13 @@
       </c>
       <c r="C99" s="5">
         <f>SUM(D$4:D99)</f>
-        <v>1132075</v>
+        <v>1658695</v>
       </c>
       <c r="D99" s="5">
-        <v>57235</v>
+        <v>76405</v>
       </c>
       <c r="E99" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -3601,13 +3601,13 @@
       </c>
       <c r="C100" s="5">
         <f>SUM(D$4:D100)</f>
-        <v>1192890</v>
+        <v>1739875</v>
       </c>
       <c r="D100" s="5">
-        <v>60815</v>
+        <v>81180</v>
       </c>
       <c r="E100" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -3619,13 +3619,13 @@
       </c>
       <c r="C101" s="5">
         <f>SUM(D$4:D101)</f>
-        <v>1257280</v>
+        <v>1825830</v>
       </c>
       <c r="D101" s="5">
-        <v>64390</v>
+        <v>85955</v>
       </c>
       <c r="E101" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -3637,13 +3637,13 @@
       </c>
       <c r="C102" s="5">
         <f>SUM(D$4:D102)</f>
-        <v>1328825</v>
+        <v>1921335</v>
       </c>
       <c r="D102" s="5">
-        <v>71545</v>
+        <v>95505</v>
       </c>
       <c r="E102" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -3655,13 +3655,913 @@
       </c>
       <c r="C103" s="5">
         <f>SUM(D$4:D103)</f>
-        <v>1529835</v>
+        <v>1998470</v>
       </c>
       <c r="D103" s="5">
-        <v>201010</v>
+        <v>77135</v>
       </c>
       <c r="E103" s="5">
-        <v>5</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A104" s="5">
+        <v>101</v>
+      </c>
+      <c r="B104" s="5">
+        <v>101</v>
+      </c>
+      <c r="C104" s="5">
+        <f>SUM(D$4:D104)</f>
+        <v>2083320</v>
+      </c>
+      <c r="D104" s="5">
+        <v>84850</v>
+      </c>
+      <c r="E104" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A105" s="5">
+        <v>102</v>
+      </c>
+      <c r="B105" s="5">
+        <v>102</v>
+      </c>
+      <c r="C105" s="5">
+        <f>SUM(D$4:D105)</f>
+        <v>2175880</v>
+      </c>
+      <c r="D105" s="5">
+        <v>92560</v>
+      </c>
+      <c r="E105" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A106" s="5">
+        <v>103</v>
+      </c>
+      <c r="B106" s="5">
+        <v>103</v>
+      </c>
+      <c r="C106" s="5">
+        <f>SUM(D$4:D106)</f>
+        <v>2276155</v>
+      </c>
+      <c r="D106" s="5">
+        <v>100275</v>
+      </c>
+      <c r="E106" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A107" s="5">
+        <v>104</v>
+      </c>
+      <c r="B107" s="5">
+        <v>104</v>
+      </c>
+      <c r="C107" s="5">
+        <f>SUM(D$4:D107)</f>
+        <v>2384145</v>
+      </c>
+      <c r="D107" s="5">
+        <v>107990</v>
+      </c>
+      <c r="E107" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A108" s="5">
+        <v>105</v>
+      </c>
+      <c r="B108" s="5">
+        <v>105</v>
+      </c>
+      <c r="C108" s="5">
+        <f>SUM(D$4:D108)</f>
+        <v>2499850</v>
+      </c>
+      <c r="D108" s="5">
+        <v>115705</v>
+      </c>
+      <c r="E108" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A109" s="5">
+        <v>106</v>
+      </c>
+      <c r="B109" s="5">
+        <v>106</v>
+      </c>
+      <c r="C109" s="5">
+        <f>SUM(D$4:D109)</f>
+        <v>2623265</v>
+      </c>
+      <c r="D109" s="5">
+        <v>123415</v>
+      </c>
+      <c r="E109" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A110" s="5">
+        <v>107</v>
+      </c>
+      <c r="B110" s="5">
+        <v>107</v>
+      </c>
+      <c r="C110" s="5">
+        <f>SUM(D$4:D110)</f>
+        <v>2754395</v>
+      </c>
+      <c r="D110" s="5">
+        <v>131130</v>
+      </c>
+      <c r="E110" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A111" s="5">
+        <v>108</v>
+      </c>
+      <c r="B111" s="5">
+        <v>108</v>
+      </c>
+      <c r="C111" s="5">
+        <f>SUM(D$4:D111)</f>
+        <v>2893240</v>
+      </c>
+      <c r="D111" s="5">
+        <v>138845</v>
+      </c>
+      <c r="E111" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A112" s="5">
+        <v>109</v>
+      </c>
+      <c r="B112" s="5">
+        <v>109</v>
+      </c>
+      <c r="C112" s="5">
+        <f>SUM(D$4:D112)</f>
+        <v>3047510</v>
+      </c>
+      <c r="D112" s="5">
+        <v>154270</v>
+      </c>
+      <c r="E112" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A113" s="5">
+        <v>110</v>
+      </c>
+      <c r="B113" s="5">
+        <v>110</v>
+      </c>
+      <c r="C113" s="5">
+        <f>SUM(D$4:D113)</f>
+        <v>3162125</v>
+      </c>
+      <c r="D113" s="5">
+        <v>114615</v>
+      </c>
+      <c r="E113" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A114" s="5">
+        <v>111</v>
+      </c>
+      <c r="B114" s="5">
+        <v>111</v>
+      </c>
+      <c r="C114" s="5">
+        <f>SUM(D$4:D114)</f>
+        <v>3288200</v>
+      </c>
+      <c r="D114" s="5">
+        <v>126075</v>
+      </c>
+      <c r="E114" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A115" s="5">
+        <v>112</v>
+      </c>
+      <c r="B115" s="5">
+        <v>112</v>
+      </c>
+      <c r="C115" s="5">
+        <f>SUM(D$4:D115)</f>
+        <v>3425735</v>
+      </c>
+      <c r="D115" s="5">
+        <v>137535</v>
+      </c>
+      <c r="E115" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A116" s="5">
+        <v>113</v>
+      </c>
+      <c r="B116" s="5">
+        <v>113</v>
+      </c>
+      <c r="C116" s="5">
+        <f>SUM(D$4:D116)</f>
+        <v>3574735</v>
+      </c>
+      <c r="D116" s="5">
+        <v>149000</v>
+      </c>
+      <c r="E116" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A117" s="5">
+        <v>114</v>
+      </c>
+      <c r="B117" s="5">
+        <v>114</v>
+      </c>
+      <c r="C117" s="5">
+        <f>SUM(D$4:D117)</f>
+        <v>3735195</v>
+      </c>
+      <c r="D117" s="5">
+        <v>160460</v>
+      </c>
+      <c r="E117" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A118" s="5">
+        <v>115</v>
+      </c>
+      <c r="B118" s="5">
+        <v>115</v>
+      </c>
+      <c r="C118" s="5">
+        <f>SUM(D$4:D118)</f>
+        <v>3907115</v>
+      </c>
+      <c r="D118" s="5">
+        <v>171920</v>
+      </c>
+      <c r="E118" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A119" s="5">
+        <v>116</v>
+      </c>
+      <c r="B119" s="5">
+        <v>116</v>
+      </c>
+      <c r="C119" s="5">
+        <f>SUM(D$4:D119)</f>
+        <v>4090500</v>
+      </c>
+      <c r="D119" s="5">
+        <v>183385</v>
+      </c>
+      <c r="E119" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A120" s="5">
+        <v>117</v>
+      </c>
+      <c r="B120" s="5">
+        <v>117</v>
+      </c>
+      <c r="C120" s="5">
+        <f>SUM(D$4:D120)</f>
+        <v>4285345</v>
+      </c>
+      <c r="D120" s="5">
+        <v>194845</v>
+      </c>
+      <c r="E120" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A121" s="5">
+        <v>118</v>
+      </c>
+      <c r="B121" s="5">
+        <v>118</v>
+      </c>
+      <c r="C121" s="5">
+        <f>SUM(D$4:D121)</f>
+        <v>4491650</v>
+      </c>
+      <c r="D121" s="5">
+        <v>206305</v>
+      </c>
+      <c r="E121" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A122" s="5">
+        <v>119</v>
+      </c>
+      <c r="B122" s="5">
+        <v>119</v>
+      </c>
+      <c r="C122" s="5">
+        <f>SUM(D$4:D122)</f>
+        <v>4720880</v>
+      </c>
+      <c r="D122" s="5">
+        <v>229230</v>
+      </c>
+      <c r="E122" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A123" s="5">
+        <v>120</v>
+      </c>
+      <c r="B123" s="5">
+        <v>120</v>
+      </c>
+      <c r="C123" s="5">
+        <f>SUM(D$4:D123)</f>
+        <v>4882650</v>
+      </c>
+      <c r="D123" s="5">
+        <v>161770</v>
+      </c>
+      <c r="E123" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A124" s="5">
+        <v>121</v>
+      </c>
+      <c r="B124" s="5">
+        <v>121</v>
+      </c>
+      <c r="C124" s="5">
+        <f>SUM(D$4:D124)</f>
+        <v>5060600</v>
+      </c>
+      <c r="D124" s="5">
+        <v>177950</v>
+      </c>
+      <c r="E124" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A125" s="5">
+        <v>122</v>
+      </c>
+      <c r="B125" s="5">
+        <v>122</v>
+      </c>
+      <c r="C125" s="5">
+        <f>SUM(D$4:D125)</f>
+        <v>5254725</v>
+      </c>
+      <c r="D125" s="5">
+        <v>194125</v>
+      </c>
+      <c r="E125" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A126" s="5">
+        <v>123</v>
+      </c>
+      <c r="B126" s="5">
+        <v>123</v>
+      </c>
+      <c r="C126" s="5">
+        <f>SUM(D$4:D126)</f>
+        <v>5465030</v>
+      </c>
+      <c r="D126" s="5">
+        <v>210305</v>
+      </c>
+      <c r="E126" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A127" s="5">
+        <v>124</v>
+      </c>
+      <c r="B127" s="5">
+        <v>124</v>
+      </c>
+      <c r="C127" s="5">
+        <f>SUM(D$4:D127)</f>
+        <v>5691510</v>
+      </c>
+      <c r="D127" s="5">
+        <v>226480</v>
+      </c>
+      <c r="E127" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A128" s="5">
+        <v>125</v>
+      </c>
+      <c r="B128" s="5">
+        <v>125</v>
+      </c>
+      <c r="C128" s="5">
+        <f>SUM(D$4:D128)</f>
+        <v>5934170</v>
+      </c>
+      <c r="D128" s="5">
+        <v>242660</v>
+      </c>
+      <c r="E128" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A129" s="5">
+        <v>126</v>
+      </c>
+      <c r="B129" s="5">
+        <v>126</v>
+      </c>
+      <c r="C129" s="5">
+        <f>SUM(D$4:D129)</f>
+        <v>6193005</v>
+      </c>
+      <c r="D129" s="5">
+        <v>258835</v>
+      </c>
+      <c r="E129" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A130" s="5">
+        <v>127</v>
+      </c>
+      <c r="B130" s="5">
+        <v>127</v>
+      </c>
+      <c r="C130" s="5">
+        <f>SUM(D$4:D130)</f>
+        <v>6468020</v>
+      </c>
+      <c r="D130" s="5">
+        <v>275015</v>
+      </c>
+      <c r="E130" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A131" s="5">
+        <v>128</v>
+      </c>
+      <c r="B131" s="5">
+        <v>128</v>
+      </c>
+      <c r="C131" s="5">
+        <f>SUM(D$4:D131)</f>
+        <v>6759210</v>
+      </c>
+      <c r="D131" s="5">
+        <v>291190</v>
+      </c>
+      <c r="E131" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A132" s="5">
+        <v>129</v>
+      </c>
+      <c r="B132" s="5">
+        <v>129</v>
+      </c>
+      <c r="C132" s="5">
+        <f>SUM(D$4:D132)</f>
+        <v>7082755</v>
+      </c>
+      <c r="D132" s="5">
+        <v>323545</v>
+      </c>
+      <c r="E132" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A133" s="5">
+        <v>130</v>
+      </c>
+      <c r="B133" s="5">
+        <v>130</v>
+      </c>
+      <c r="C133" s="5">
+        <f>SUM(D$4:D133)</f>
+        <v>7357685</v>
+      </c>
+      <c r="D133" s="5">
+        <v>274930</v>
+      </c>
+      <c r="E133" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A134" s="5">
+        <v>131</v>
+      </c>
+      <c r="B134" s="5">
+        <v>131</v>
+      </c>
+      <c r="C134" s="5">
+        <f>SUM(D$4:D134)</f>
+        <v>7660105</v>
+      </c>
+      <c r="D134" s="5">
+        <v>302420</v>
+      </c>
+      <c r="E134" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A135" s="5">
+        <v>132</v>
+      </c>
+      <c r="B135" s="5">
+        <v>132</v>
+      </c>
+      <c r="C135" s="5">
+        <f>SUM(D$4:D135)</f>
+        <v>7990020</v>
+      </c>
+      <c r="D135" s="5">
+        <v>329915</v>
+      </c>
+      <c r="E135" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A136" s="5">
+        <v>133</v>
+      </c>
+      <c r="B136" s="5">
+        <v>133</v>
+      </c>
+      <c r="C136" s="5">
+        <f>SUM(D$4:D136)</f>
+        <v>8347430</v>
+      </c>
+      <c r="D136" s="5">
+        <v>357410</v>
+      </c>
+      <c r="E136" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A137" s="5">
+        <v>134</v>
+      </c>
+      <c r="B137" s="5">
+        <v>134</v>
+      </c>
+      <c r="C137" s="5">
+        <f>SUM(D$4:D137)</f>
+        <v>8732330</v>
+      </c>
+      <c r="D137" s="5">
+        <v>384900</v>
+      </c>
+      <c r="E137" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A138" s="5">
+        <v>135</v>
+      </c>
+      <c r="B138" s="5">
+        <v>135</v>
+      </c>
+      <c r="C138" s="5">
+        <f>SUM(D$4:D138)</f>
+        <v>9144725</v>
+      </c>
+      <c r="D138" s="5">
+        <v>412395</v>
+      </c>
+      <c r="E138" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A139" s="5">
+        <v>136</v>
+      </c>
+      <c r="B139" s="5">
+        <v>136</v>
+      </c>
+      <c r="C139" s="5">
+        <f>SUM(D$4:D139)</f>
+        <v>9584615</v>
+      </c>
+      <c r="D139" s="5">
+        <v>439890</v>
+      </c>
+      <c r="E139" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A140" s="5">
+        <v>137</v>
+      </c>
+      <c r="B140" s="5">
+        <v>137</v>
+      </c>
+      <c r="C140" s="5">
+        <f>SUM(D$4:D140)</f>
+        <v>10051995</v>
+      </c>
+      <c r="D140" s="5">
+        <v>467380</v>
+      </c>
+      <c r="E140" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A141" s="5">
+        <v>138</v>
+      </c>
+      <c r="B141" s="5">
+        <v>138</v>
+      </c>
+      <c r="C141" s="5">
+        <f>SUM(D$4:D141)</f>
+        <v>10546870</v>
+      </c>
+      <c r="D141" s="5">
+        <v>494875</v>
+      </c>
+      <c r="E141" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A142" s="5">
+        <v>139</v>
+      </c>
+      <c r="B142" s="5">
+        <v>139</v>
+      </c>
+      <c r="C142" s="5">
+        <f>SUM(D$4:D142)</f>
+        <v>11096730</v>
+      </c>
+      <c r="D142" s="5">
+        <v>549860</v>
+      </c>
+      <c r="E142" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A143" s="5">
+        <v>140</v>
+      </c>
+      <c r="B143" s="5">
+        <v>140</v>
+      </c>
+      <c r="C143" s="5">
+        <f>SUM(D$4:D143)</f>
+        <v>11597585</v>
+      </c>
+      <c r="D143" s="5">
+        <v>500855</v>
+      </c>
+      <c r="E143" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A144" s="5">
+        <v>141</v>
+      </c>
+      <c r="B144" s="5">
+        <v>141</v>
+      </c>
+      <c r="C144" s="5">
+        <f>SUM(D$4:D144)</f>
+        <v>12148525</v>
+      </c>
+      <c r="D144" s="5">
+        <v>550940</v>
+      </c>
+      <c r="E144" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A145" s="5">
+        <v>142</v>
+      </c>
+      <c r="B145" s="5">
+        <v>142</v>
+      </c>
+      <c r="C145" s="5">
+        <f>SUM(D$4:D145)</f>
+        <v>12749550</v>
+      </c>
+      <c r="D145" s="5">
+        <v>601025</v>
+      </c>
+      <c r="E145" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A146" s="5">
+        <v>143</v>
+      </c>
+      <c r="B146" s="5">
+        <v>143</v>
+      </c>
+      <c r="C146" s="5">
+        <f>SUM(D$4:D146)</f>
+        <v>13400660</v>
+      </c>
+      <c r="D146" s="5">
+        <v>651110</v>
+      </c>
+      <c r="E146" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A147" s="5">
+        <v>144</v>
+      </c>
+      <c r="B147" s="5">
+        <v>144</v>
+      </c>
+      <c r="C147" s="5">
+        <f>SUM(D$4:D147)</f>
+        <v>14101855</v>
+      </c>
+      <c r="D147" s="5">
+        <v>701195</v>
+      </c>
+      <c r="E147" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A148" s="5">
+        <v>145</v>
+      </c>
+      <c r="B148" s="5">
+        <v>145</v>
+      </c>
+      <c r="C148" s="5">
+        <f>SUM(D$4:D148)</f>
+        <v>14853135</v>
+      </c>
+      <c r="D148" s="5">
+        <v>751280</v>
+      </c>
+      <c r="E148" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A149" s="5">
+        <v>146</v>
+      </c>
+      <c r="B149" s="5">
+        <v>146</v>
+      </c>
+      <c r="C149" s="5">
+        <f>SUM(D$4:D149)</f>
+        <v>15654500</v>
+      </c>
+      <c r="D149" s="5">
+        <v>801365</v>
+      </c>
+      <c r="E149" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A150" s="5">
+        <v>147</v>
+      </c>
+      <c r="B150" s="5">
+        <v>147</v>
+      </c>
+      <c r="C150" s="5">
+        <f>SUM(D$4:D150)</f>
+        <v>16505955</v>
+      </c>
+      <c r="D150" s="5">
+        <v>851455</v>
+      </c>
+      <c r="E150" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A151" s="5">
+        <v>148</v>
+      </c>
+      <c r="B151" s="5">
+        <v>148</v>
+      </c>
+      <c r="C151" s="5">
+        <f>SUM(D$4:D151)</f>
+        <v>17407495</v>
+      </c>
+      <c r="D151" s="5">
+        <v>901540</v>
+      </c>
+      <c r="E151" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A152" s="5">
+        <v>149</v>
+      </c>
+      <c r="B152" s="5">
+        <v>149</v>
+      </c>
+      <c r="C152" s="5">
+        <f>SUM(D$4:D152)</f>
+        <v>18409205</v>
+      </c>
+      <c r="D152" s="5">
+        <v>1001710</v>
+      </c>
+      <c r="E152" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A153" s="5">
+        <v>150</v>
+      </c>
+      <c r="B153" s="5">
+        <v>150</v>
+      </c>
+      <c r="C153" s="5">
+        <f>SUM(D$4:D153)</f>
+        <v>19511085</v>
+      </c>
+      <c r="D153" s="5">
+        <v>1101880</v>
+      </c>
+      <c r="E153" s="5">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/镇魂街/basicInfo.基础信息.xlsx
+++ b/Excel/镇魂街/basicInfo.基础信息.xlsx
@@ -9,22 +9,21 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
     <sheet name="队伍经验" sheetId="26" r:id="rId2"/>
-    <sheet name="服务端信息" sheetId="27" r:id="rId3"/>
-    <sheet name="resource_bar" sheetId="28" r:id="rId4"/>
-    <sheet name="公告" sheetId="29" r:id="rId5"/>
-    <sheet name="User表" sheetId="30" r:id="rId6"/>
+    <sheet name="resource_bar" sheetId="28" r:id="rId3"/>
+    <sheet name="公告" sheetId="29" r:id="rId4"/>
+    <sheet name="User表" sheetId="30" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="147">
   <si>
     <t>sheet名</t>
   </si>
@@ -62,15 +61,6 @@
     <t>team_level.txt</t>
   </si>
   <si>
-    <t>服务端信息</t>
-  </si>
-  <si>
-    <t>server_message.lua</t>
-  </si>
-  <si>
-    <t>server_message.txt</t>
-  </si>
-  <si>
     <t>resource_bar</t>
   </si>
   <si>
@@ -113,523 +103,7 @@
     <t>挂机队伍数量</t>
   </si>
   <si>
-    <t>Key</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
     <t>string:&lt;&gt;</t>
-  </si>
-  <si>
-    <t>键</t>
-  </si>
-  <si>
-    <t>消息{}为英文输入法</t>
-  </si>
-  <si>
-    <t>get_card</t>
-  </si>
-  <si>
-    <t>恭喜玩家：{0}获得卡牌：{1}</t>
-  </si>
-  <si>
-    <t>rank_reward_title</t>
-  </si>
-  <si>
-    <t>名次奖励</t>
-  </si>
-  <si>
-    <t>rank_reward_content</t>
-  </si>
-  <si>
-    <t>恭喜竞技场排名达到：{0}名</t>
-  </si>
-  <si>
-    <t>score_reward_title</t>
-  </si>
-  <si>
-    <t>积分奖励</t>
-  </si>
-  <si>
-    <t>score_reward_content</t>
-  </si>
-  <si>
-    <t>竞技场积分为：{0}</t>
-  </si>
-  <si>
-    <t>weapon_level</t>
-  </si>
-  <si>
-    <t>恭喜玩家：{0}将武器：{1}升到顶级</t>
-  </si>
-  <si>
-    <t>error_time</t>
-  </si>
-  <si>
-    <t>不在时间段内</t>
-  </si>
-  <si>
-    <t>error_param</t>
-  </si>
-  <si>
-    <t>参数错误</t>
-  </si>
-  <si>
-    <t>not_enough_item</t>
-  </si>
-  <si>
-    <t>材料不足</t>
-  </si>
-  <si>
-    <t>not_enough_level</t>
-  </si>
-  <si>
-    <t>等级不足</t>
-  </si>
-  <si>
-    <t>level_limit</t>
-  </si>
-  <si>
-    <t>达到等级上限</t>
-  </si>
-  <si>
-    <t>token_error</t>
-  </si>
-  <si>
-    <t>token错误</t>
-  </si>
-  <si>
-    <t>mail_not_found_mail</t>
-  </si>
-  <si>
-    <t>邮件未找到</t>
-  </si>
-  <si>
-    <t>mail_already_delete</t>
-  </si>
-  <si>
-    <t>邮件已被删除</t>
-  </si>
-  <si>
-    <t>mail_have_reward_cannot_delete</t>
-  </si>
-  <si>
-    <t>邮件有附件未领取，不能删除</t>
-  </si>
-  <si>
-    <t>mail_already_get</t>
-  </si>
-  <si>
-    <t>邮件已领取</t>
-  </si>
-  <si>
-    <t>mail_none_reward</t>
-  </si>
-  <si>
-    <t>邮件无附件</t>
-  </si>
-  <si>
-    <t>mail_state_already_read</t>
-  </si>
-  <si>
-    <t>邮件是已读</t>
-  </si>
-  <si>
-    <t>mail_have_reward_cannot_read</t>
-  </si>
-  <si>
-    <t>邮件有附件，不能设置为已读</t>
-  </si>
-  <si>
-    <t>stamina_not_enough</t>
-  </si>
-  <si>
-    <t>体力不足</t>
-  </si>
-  <si>
-    <t>time_enough</t>
-  </si>
-  <si>
-    <t>时间不够</t>
-  </si>
-  <si>
-    <t>no_user</t>
-  </si>
-  <si>
-    <t>玩家不存在</t>
-  </si>
-  <si>
-    <t>goods_sell_over</t>
-  </si>
-  <si>
-    <t>商品已售罄</t>
-  </si>
-  <si>
-    <t>coin_not_enough</t>
-  </si>
-  <si>
-    <t>货币不足</t>
-  </si>
-  <si>
-    <t>goods_not_open</t>
-  </si>
-  <si>
-    <t>商品未开放购买</t>
-  </si>
-  <si>
-    <t>coin_exchange_no_times</t>
-  </si>
-  <si>
-    <t>货币兑换次数不足</t>
-  </si>
-  <si>
-    <t>no_msg</t>
-  </si>
-  <si>
-    <t>暂无信息</t>
-  </si>
-  <si>
-    <t>no_pool_id</t>
-  </si>
-  <si>
-    <t>卡池不存在</t>
-  </si>
-  <si>
-    <t>cant_sell</t>
-  </si>
-  <si>
-    <t>不可出售</t>
-  </si>
-  <si>
-    <t>no_card</t>
-  </si>
-  <si>
-    <t>卡牌不存在</t>
-  </si>
-  <si>
-    <t>exp_not_enough</t>
-  </si>
-  <si>
-    <t>卡牌升级经验池经验不足</t>
-  </si>
-  <si>
-    <t>no_hell</t>
-  </si>
-  <si>
-    <t>当前地狱道不存在</t>
-  </si>
-  <si>
-    <t>not_enough_skill_blank</t>
-  </si>
-  <si>
-    <t>插槽不足</t>
-  </si>
-  <si>
-    <t>no_skill</t>
-  </si>
-  <si>
-    <t>技能不存在</t>
-  </si>
-  <si>
-    <t>not_match</t>
-  </si>
-  <si>
-    <t>学习技能红黄蓝类型不对</t>
-  </si>
-  <si>
-    <t>skill_study</t>
-  </si>
-  <si>
-    <t>该技能已经学习</t>
-  </si>
-  <si>
-    <t>card_condition_not_enough</t>
-  </si>
-  <si>
-    <t>条件未满足</t>
-  </si>
-  <si>
-    <t>card_host_not_level_up</t>
-  </si>
-  <si>
-    <t>寄灵人不可手动升级</t>
-  </si>
-  <si>
-    <t>fight_entity_dead</t>
-  </si>
-  <si>
-    <t>实体已死亡</t>
-  </si>
-  <si>
-    <t>fight_entity_no_action</t>
-  </si>
-  <si>
-    <t>禁止行动</t>
-  </si>
-  <si>
-    <t>fight_entity_no_call</t>
-  </si>
-  <si>
-    <t>禁止召唤守护灵</t>
-  </si>
-  <si>
-    <t>fight_entity_no_skill</t>
-  </si>
-  <si>
-    <t>禁止释放技能</t>
-  </si>
-  <si>
-    <t>fight_entity_error_skill</t>
-  </si>
-  <si>
-    <t>被动技能不可释放</t>
-  </si>
-  <si>
-    <t>fight_entity_skill_cd</t>
-  </si>
-  <si>
-    <t>技能CD中</t>
-  </si>
-  <si>
-    <t>fight_entity_call_cd</t>
-  </si>
-  <si>
-    <t>召唤CD中</t>
-  </si>
-  <si>
-    <t>fight_entity_had_call</t>
-  </si>
-  <si>
-    <t>已召唤守护灵，不可释放技能</t>
-  </si>
-  <si>
-    <t>fight_error_team</t>
-  </si>
-  <si>
-    <t>阵容错误</t>
-  </si>
-  <si>
-    <t>fight_is_end</t>
-  </si>
-  <si>
-    <t>战斗已结束</t>
-  </si>
-  <si>
-    <t>array_not_learn</t>
-  </si>
-  <si>
-    <t>阵法未学习</t>
-  </si>
-  <si>
-    <t>chapter_not_found_chapter_id</t>
-  </si>
-  <si>
-    <t>章节不存在~</t>
-  </si>
-  <si>
-    <t>chapter_got_chest_no_star_found</t>
-  </si>
-  <si>
-    <t>数据表中没有此星级的奖励</t>
-  </si>
-  <si>
-    <t>chapter_got_chest_star_already_get</t>
-  </si>
-  <si>
-    <t>已经领取过这个星级的宝箱了</t>
-  </si>
-  <si>
-    <t>chapter_got_chest_not_enouth_star</t>
-  </si>
-  <si>
-    <t>星星数量不足</t>
-  </si>
-  <si>
-    <t>chapter_not_found_level_id</t>
-  </si>
-  <si>
-    <t>不存在关卡id</t>
-  </si>
-  <si>
-    <t>chapter_set_onhook_not_onhook_level</t>
-  </si>
-  <si>
-    <t>不是挂机关卡</t>
-  </si>
-  <si>
-    <t>chapter_pre_level_condition_not_satisfy</t>
-  </si>
-  <si>
-    <t>前置关卡条件不满足</t>
-  </si>
-  <si>
-    <t>chapter_get_onhook_reward_not_in</t>
-  </si>
-  <si>
-    <t>该关卡不在挂机中</t>
-  </si>
-  <si>
-    <t>chapter_get_onhook_reward_time_too_short</t>
-  </si>
-  <si>
-    <t>挂机时长太短</t>
-  </si>
-  <si>
-    <t>chapter_set_onhook_already_in_onhook</t>
-  </si>
-  <si>
-    <t>该关卡已经在挂机中，不能挂机</t>
-  </si>
-  <si>
-    <t>chapter_set_onhook_do_not_set_greater_than_limit_team</t>
-  </si>
-  <si>
-    <t>超过当前等级可设置最大队伍数</t>
-  </si>
-  <si>
-    <t>chapter_set_onhook_team_empty</t>
-  </si>
-  <si>
-    <t>未设置队伍</t>
-  </si>
-  <si>
-    <t>chapter_set_onhook_team_greater_than_max_person_num</t>
-  </si>
-  <si>
-    <t>超过队伍最大设置上限</t>
-  </si>
-  <si>
-    <t>chapter_set_onhook_team_same_id_repeat</t>
-  </si>
-  <si>
-    <t>卡牌id不正确</t>
-  </si>
-  <si>
-    <t>chapter_set_onhook_team_card_level_not_satisfy</t>
-  </si>
-  <si>
-    <t>卡牌等级没有达到最低限度</t>
-  </si>
-  <si>
-    <t>chapter_set_onhook_team_card_in_other_team</t>
-  </si>
-  <si>
-    <t>该卡牌已经在其他队伍中挂机</t>
-  </si>
-  <si>
-    <t>chapter_use_onhook_item_not_enouth_num</t>
-  </si>
-  <si>
-    <t>挂机令不足</t>
-  </si>
-  <si>
-    <t>chapter_is_not_attack_map</t>
-  </si>
-  <si>
-    <t>非战斗关卡，不能打</t>
-  </si>
-  <si>
-    <t>team_error</t>
-  </si>
-  <si>
-    <t>布阵错误</t>
-  </si>
-  <si>
-    <t>level_last_not_pass</t>
-  </si>
-  <si>
-    <t>上一关未通关</t>
-  </si>
-  <si>
-    <t>solo_boss_not_open</t>
-  </si>
-  <si>
-    <t>boss未开启</t>
-  </si>
-  <si>
-    <t>level_has_pass</t>
-  </si>
-  <si>
-    <t>当前关卡已过关</t>
-  </si>
-  <si>
-    <t>level_is_not_story</t>
-  </si>
-  <si>
-    <t>当前关卡不是剧情关卡</t>
-  </si>
-  <si>
-    <t>chapter_story_not_start</t>
-  </si>
-  <si>
-    <t>剧情关卡未开始</t>
-  </si>
-  <si>
-    <t>reed_id_error</t>
-  </si>
-  <si>
-    <t>错误的芦花古楼ID</t>
-  </si>
-  <si>
-    <t>reed_end</t>
-  </si>
-  <si>
-    <t>关卡未开启</t>
-  </si>
-  <si>
-    <t>has_reward</t>
-  </si>
-  <si>
-    <t>已经领取奖励</t>
-  </si>
-  <si>
-    <t>cant_fight</t>
-  </si>
-  <si>
-    <t>不能进入战斗</t>
-  </si>
-  <si>
-    <t>times_limit</t>
-  </si>
-  <si>
-    <t>达到最大购买限制</t>
-  </si>
-  <si>
-    <t>cant_reward</t>
-  </si>
-  <si>
-    <t>不可领奖</t>
-  </si>
-  <si>
-    <t>dirty_words</t>
-  </si>
-  <si>
-    <t>敏感字</t>
-  </si>
-  <si>
-    <t>friend_num_limit</t>
-  </si>
-  <si>
-    <t>好友达到上限</t>
-  </si>
-  <si>
-    <t>be_friend</t>
-  </si>
-  <si>
-    <t>已经是好友</t>
-  </si>
-  <si>
-    <t>friend_black</t>
-  </si>
-  <si>
-    <t>好友在黑名单中</t>
-  </si>
-  <si>
-    <t>arena_out_score</t>
-  </si>
-  <si>
-    <t>已超出当前段位</t>
   </si>
   <si>
     <t>ItemShow[1][1]</t>
@@ -1578,10 +1052,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1659,7 +1133,7 @@
       </c>
       <c r="H3" s="5"/>
     </row>
-    <row r="4" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -1670,41 +1144,41 @@
       <c r="D4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>10</v>
-      </c>
+      <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5" t="s">
         <v>14</v>
       </c>
+      <c r="B5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="5"/>
       <c r="D5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="5"/>
+      <c r="E5" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="5"/>
       <c r="D6" s="5" t="s">
         <v>10</v>
       </c>
@@ -1715,7 +1189,7 @@
       </c>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>17</v>
       </c>
@@ -1735,7 +1209,7 @@
       </c>
       <c r="H7" s="5"/>
     </row>
-    <row r="8" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>17</v>
       </c>
@@ -1752,44 +1226,6 @@
         <v>1</v>
       </c>
       <c r="H8" s="5"/>
-    </row>
-    <row r="9" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" s="5"/>
-    </row>
-    <row r="10" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
@@ -1802,7 +1238,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E153"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
@@ -1818,33 +1254,33 @@
         <v>10</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>319</v>
+        <v>144</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>320</v>
+        <v>145</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>321</v>
+        <v>146</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -1852,16 +1288,16 @@
         <v>10</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -4571,994 +4007,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C88"/>
-  <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="D88" sqref="D88"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="59.875" customWidth="1"/>
-    <col min="3" max="3" width="45.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
-        <v>1000</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
-        <v>1001</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
-        <v>1002</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="5">
-        <v>1003</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="5">
-        <v>1004</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="5">
-        <v>1005</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="5">
-        <v>2000</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="5">
-        <v>2001</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="5">
-        <v>2002</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="5">
-        <v>2003</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="5">
-        <v>2004</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="5">
-        <v>2005</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="5">
-        <v>2006</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="5">
-        <v>2007</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="5">
-        <v>2008</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="5">
-        <v>2009</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="5">
-        <v>2010</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="5">
-        <v>2011</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="5">
-        <v>2012</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="5">
-        <v>2013</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="5">
-        <v>2014</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="5">
-        <v>2015</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="5">
-        <v>2016</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="5">
-        <v>2017</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="5">
-        <v>2018</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="5">
-        <v>2019</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A30" s="5">
-        <v>2020</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A31" s="5">
-        <v>3001</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="5">
-        <v>3002</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="5">
-        <v>4000</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A34" s="5">
-        <v>4001</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A35" s="5">
-        <v>4002</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A36" s="5">
-        <v>4003</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A37" s="5">
-        <v>4004</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A38" s="5">
-        <v>4005</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A39" s="5">
-        <v>4006</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A40" s="5">
-        <v>4007</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A41" s="5">
-        <v>4008</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A42" s="5">
-        <v>4009</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A43" s="5">
-        <v>5000</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A44" s="5">
-        <v>5001</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A45" s="5">
-        <v>5002</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A46" s="5">
-        <v>5003</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A47" s="5">
-        <v>5004</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A48" s="5">
-        <v>5005</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A49" s="5">
-        <v>5006</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A50" s="5">
-        <v>5007</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A51" s="5">
-        <v>5008</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A52" s="5">
-        <v>5009</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A53" s="5">
-        <v>5010</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A54" s="5">
-        <v>6000</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A55" s="5">
-        <v>6001</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A56" s="5">
-        <v>6002</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A57" s="5">
-        <v>6003</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A58" s="5">
-        <v>6004</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A59" s="5">
-        <v>6005</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A60" s="5">
-        <v>6006</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A61" s="5">
-        <v>6007</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A62" s="5">
-        <v>6008</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A63" s="5">
-        <v>6009</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A64" s="5">
-        <v>6010</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A65" s="5">
-        <v>6011</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A66" s="5">
-        <v>6012</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A67" s="5">
-        <v>6013</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A68" s="5">
-        <v>6014</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A69" s="5">
-        <v>6015</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A70" s="5">
-        <v>6016</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A71" s="5">
-        <v>6017</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A72" s="5">
-        <v>6018</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A73" s="5">
-        <v>6019</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A74" s="5">
-        <v>6020</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A75" s="5">
-        <v>6021</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A76" s="5">
-        <v>6022</v>
-      </c>
-      <c r="B76" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A77" s="5">
-        <v>6023</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A78" s="5">
-        <v>6024</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A79" s="5">
-        <v>6025</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A80" s="5">
-        <v>7001</v>
-      </c>
-      <c r="B80" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="C80" s="5" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A81" s="5">
-        <v>7002</v>
-      </c>
-      <c r="B81" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="C81" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A82" s="5">
-        <v>7003</v>
-      </c>
-      <c r="B82" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="C82" s="5" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A83" s="5">
-        <v>7004</v>
-      </c>
-      <c r="B83" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="C83" s="5" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A84" s="5">
-        <v>7005</v>
-      </c>
-      <c r="B84" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="C84" s="5" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A85" s="5">
-        <v>7006</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A86" s="5">
-        <v>7007</v>
-      </c>
-      <c r="B86" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="C86" s="5" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A87" s="5">
-        <v>7008</v>
-      </c>
-      <c r="B87" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="C87" s="5" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A88" s="5">
-        <v>7009</v>
-      </c>
-      <c r="B88" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="C88" s="5" t="s">
-        <v>201</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I33"/>
   <sheetViews>
@@ -5585,80 +4033,80 @@
         <v>10</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>202</v>
+        <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>203</v>
+        <v>28</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>204</v>
+        <v>29</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>205</v>
+        <v>30</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>206</v>
+        <v>31</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>207</v>
+        <v>32</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>208</v>
+        <v>33</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>209</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>210</v>
+        <v>35</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>211</v>
+        <v>36</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>212</v>
+        <v>37</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>211</v>
+        <v>36</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>212</v>
+        <v>37</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>211</v>
+        <v>36</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>212</v>
+        <v>37</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>212</v>
+        <v>37</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>213</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="45" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>214</v>
+        <v>39</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>215</v>
+        <v>40</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4" t="s">
-        <v>215</v>
+        <v>40</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4" t="s">
-        <v>215</v>
+        <v>40</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4" t="s">
-        <v>216</v>
+        <v>41</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>217</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -5666,19 +4114,19 @@
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>218</v>
+        <v>43</v>
       </c>
       <c r="C4" s="5">
         <v>0</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>219</v>
+        <v>44</v>
       </c>
       <c r="E4" s="5">
         <v>1</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>220</v>
+        <v>45</v>
       </c>
       <c r="G4" s="5">
         <v>1</v>
@@ -5687,7 +4135,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>221</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -5695,13 +4143,13 @@
         <v>2</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>219</v>
+        <v>44</v>
       </c>
       <c r="C5" s="5">
         <v>1</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>220</v>
+        <v>45</v>
       </c>
       <c r="E5" s="5">
         <v>1</v>
@@ -5712,7 +4160,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>222</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -5720,13 +4168,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>219</v>
+        <v>44</v>
       </c>
       <c r="C6" s="5">
         <v>1</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>220</v>
+        <v>45</v>
       </c>
       <c r="E6" s="5">
         <v>1</v>
@@ -5737,7 +4185,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>223</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -5745,13 +4193,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>219</v>
+        <v>44</v>
       </c>
       <c r="C7" s="5">
         <v>1</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>220</v>
+        <v>45</v>
       </c>
       <c r="E7" s="5">
         <v>1</v>
@@ -5762,7 +4210,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>224</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -5770,13 +4218,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>219</v>
+        <v>44</v>
       </c>
       <c r="C8" s="5">
         <v>1</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>220</v>
+        <v>45</v>
       </c>
       <c r="E8" s="5">
         <v>1</v>
@@ -5787,7 +4235,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>225</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -5795,13 +4243,13 @@
         <v>6</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>219</v>
+        <v>44</v>
       </c>
       <c r="C9" s="5">
         <v>1</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>220</v>
+        <v>45</v>
       </c>
       <c r="E9" s="5">
         <v>1</v>
@@ -5812,7 +4260,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>226</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -5820,7 +4268,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>227</v>
+        <v>52</v>
       </c>
       <c r="C10" s="5">
         <v>1</v>
@@ -5833,7 +4281,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>228</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -5841,13 +4289,13 @@
         <v>8</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>219</v>
+        <v>44</v>
       </c>
       <c r="C11" s="5">
         <v>1</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>220</v>
+        <v>45</v>
       </c>
       <c r="E11" s="5">
         <v>1</v>
@@ -5858,7 +4306,7 @@
         <v>1</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>229</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -5866,19 +4314,19 @@
         <v>9</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>219</v>
+        <v>44</v>
       </c>
       <c r="C12" s="5">
         <v>1</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>220</v>
+        <v>45</v>
       </c>
       <c r="E12" s="5">
         <v>1</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>230</v>
+        <v>55</v>
       </c>
       <c r="G12" s="5">
         <v>0</v>
@@ -5887,7 +4335,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>231</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -5895,19 +4343,19 @@
         <v>10</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>219</v>
+        <v>44</v>
       </c>
       <c r="C13" s="5">
         <v>1</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>220</v>
+        <v>45</v>
       </c>
       <c r="E13" s="5">
         <v>1</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>227</v>
+        <v>52</v>
       </c>
       <c r="G13" s="5">
         <v>1</v>
@@ -5916,7 +4364,7 @@
         <v>1</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>232</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -5924,13 +4372,13 @@
         <v>11</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>219</v>
+        <v>44</v>
       </c>
       <c r="C14" s="5">
         <v>1</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>220</v>
+        <v>45</v>
       </c>
       <c r="E14" s="5">
         <v>1</v>
@@ -5941,7 +4389,7 @@
         <v>1</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>233</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -5949,19 +4397,19 @@
         <v>12</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>219</v>
+        <v>44</v>
       </c>
       <c r="C15" s="5">
         <v>1</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>220</v>
+        <v>45</v>
       </c>
       <c r="E15" s="5">
         <v>1</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>234</v>
+        <v>59</v>
       </c>
       <c r="G15" s="5">
         <v>0</v>
@@ -5970,7 +4418,7 @@
         <v>1</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>235</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -5978,19 +4426,19 @@
         <v>13</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>219</v>
+        <v>44</v>
       </c>
       <c r="C16" s="5">
         <v>1</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>220</v>
+        <v>45</v>
       </c>
       <c r="E16" s="5">
         <v>1</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>227</v>
+        <v>52</v>
       </c>
       <c r="G16" s="5">
         <v>1</v>
@@ -5999,7 +4447,7 @@
         <v>1</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>236</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6007,13 +4455,13 @@
         <v>14</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>219</v>
+        <v>44</v>
       </c>
       <c r="C17" s="5">
         <v>1</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>220</v>
+        <v>45</v>
       </c>
       <c r="E17" s="5">
         <v>1</v>
@@ -6024,7 +4472,7 @@
         <v>1</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>237</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6032,13 +4480,13 @@
         <v>15</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>219</v>
+        <v>44</v>
       </c>
       <c r="C18" s="5">
         <v>1</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>220</v>
+        <v>45</v>
       </c>
       <c r="E18" s="5">
         <v>1</v>
@@ -6049,7 +4497,7 @@
         <v>1</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>238</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6057,13 +4505,13 @@
         <v>16</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>220</v>
+        <v>45</v>
       </c>
       <c r="C19" s="5">
         <v>1</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>239</v>
+        <v>64</v>
       </c>
       <c r="E19" s="5">
         <v>1</v>
@@ -6074,7 +4522,7 @@
         <v>1</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>240</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6082,13 +4530,13 @@
         <v>17</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>220</v>
+        <v>45</v>
       </c>
       <c r="C20" s="5">
         <v>1</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>241</v>
+        <v>66</v>
       </c>
       <c r="E20" s="5">
         <v>1</v>
@@ -6099,7 +4547,7 @@
         <v>1</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>242</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6107,13 +4555,13 @@
         <v>18</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>220</v>
+        <v>45</v>
       </c>
       <c r="C21" s="5">
         <v>1</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>239</v>
+        <v>64</v>
       </c>
       <c r="E21" s="5">
         <v>1</v>
@@ -6124,7 +4572,7 @@
         <v>1</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>243</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6132,13 +4580,13 @@
         <v>19</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>220</v>
+        <v>45</v>
       </c>
       <c r="C22" s="5">
         <v>1</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>241</v>
+        <v>66</v>
       </c>
       <c r="E22" s="5">
         <v>1</v>
@@ -6149,7 +4597,7 @@
         <v>1</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>244</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6157,19 +4605,19 @@
         <v>20</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>219</v>
+        <v>44</v>
       </c>
       <c r="C23" s="5">
         <v>1</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>220</v>
+        <v>45</v>
       </c>
       <c r="E23" s="5">
         <v>1</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>245</v>
+        <v>70</v>
       </c>
       <c r="G23" s="5">
         <v>1</v>
@@ -6178,7 +4626,7 @@
         <v>1</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>246</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6186,19 +4634,19 @@
         <v>21</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>219</v>
+        <v>44</v>
       </c>
       <c r="C24" s="5">
         <v>1</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>220</v>
+        <v>45</v>
       </c>
       <c r="E24" s="5">
         <v>1</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>247</v>
+        <v>72</v>
       </c>
       <c r="G24" s="5">
         <v>0</v>
@@ -6207,7 +4655,7 @@
         <v>1</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>248</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6215,7 +4663,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>249</v>
+        <v>74</v>
       </c>
       <c r="C25" s="5">
         <v>0</v>
@@ -6228,7 +4676,7 @@
         <v>1</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>250</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6236,19 +4684,19 @@
         <v>23</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>219</v>
+        <v>44</v>
       </c>
       <c r="C26" s="5">
         <v>1</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>220</v>
+        <v>45</v>
       </c>
       <c r="E26" s="5">
         <v>1</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>251</v>
+        <v>76</v>
       </c>
       <c r="G26" s="5">
         <v>1</v>
@@ -6257,7 +4705,7 @@
         <v>1</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>252</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6265,7 +4713,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>220</v>
+        <v>45</v>
       </c>
       <c r="C27" s="5">
         <v>1</v>
@@ -6278,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>253</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6286,13 +4734,13 @@
         <v>25</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>219</v>
+        <v>44</v>
       </c>
       <c r="C28" s="5">
         <v>1</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>220</v>
+        <v>45</v>
       </c>
       <c r="E28" s="5">
         <v>1</v>
@@ -6303,7 +4751,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>254</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6311,7 +4759,7 @@
         <v>26</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>219</v>
+        <v>44</v>
       </c>
       <c r="C29" s="5">
         <v>1</v>
@@ -6324,7 +4772,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>255</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6332,7 +4780,7 @@
         <v>27</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>256</v>
+        <v>81</v>
       </c>
       <c r="C30" s="5">
         <v>0</v>
@@ -6345,7 +4793,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>257</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6353,7 +4801,7 @@
         <v>28</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>256</v>
+        <v>81</v>
       </c>
       <c r="C31" s="5">
         <v>0</v>
@@ -6366,7 +4814,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>258</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6374,7 +4822,7 @@
         <v>29</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>247</v>
+        <v>72</v>
       </c>
       <c r="C32" s="5">
         <v>0</v>
@@ -6387,7 +4835,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>259</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6395,7 +4843,7 @@
         <v>30</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>247</v>
+        <v>72</v>
       </c>
       <c r="C33" s="5">
         <v>0</v>
@@ -6408,7 +4856,7 @@
         <v>0</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>260</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -6418,7 +4866,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
@@ -6438,45 +4886,45 @@
         <v>10</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>261</v>
+        <v>86</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>262</v>
+        <v>87</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>263</v>
+        <v>88</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>264</v>
+        <v>89</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>265</v>
+        <v>90</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>266</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>267</v>
+        <v>92</v>
       </c>
       <c r="G2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.2">
@@ -6484,22 +4932,22 @@
         <v>10</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>268</v>
+        <v>93</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>269</v>
+        <v>94</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>270</v>
+        <v>95</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>271</v>
+        <v>96</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>272</v>
+        <v>97</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>273</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="280.5" x14ac:dyDescent="0.2">
@@ -6510,10 +4958,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>274</v>
+        <v>99</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>275</v>
+        <v>100</v>
       </c>
       <c r="E4" s="5">
         <v>1</v>
@@ -6533,10 +4981,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>276</v>
+        <v>101</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>277</v>
+        <v>102</v>
       </c>
       <c r="E5" s="5">
         <v>1</v>
@@ -6554,7 +5002,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P4"/>
   <sheetViews>
@@ -6586,149 +5034,149 @@
         <v>10</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>278</v>
+        <v>103</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>279</v>
+        <v>104</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>280</v>
+        <v>105</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>281</v>
+        <v>106</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>282</v>
+        <v>107</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>283</v>
+        <v>108</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>284</v>
+        <v>109</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>285</v>
+        <v>110</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>286</v>
+        <v>111</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>287</v>
+        <v>112</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>288</v>
+        <v>113</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>289</v>
+        <v>114</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>290</v>
+        <v>115</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>291</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>292</v>
+        <v>117</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>293</v>
+        <v>118</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>292</v>
+        <v>117</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>292</v>
+        <v>117</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>294</v>
+        <v>119</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>294</v>
+        <v>119</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>294</v>
+        <v>119</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>294</v>
+        <v>119</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>294</v>
+        <v>119</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>294</v>
+        <v>119</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>295</v>
+        <v>120</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>295</v>
+        <v>120</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>295</v>
+        <v>120</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>295</v>
+        <v>120</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>295</v>
+        <v>120</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>295</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>214</v>
+        <v>39</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>296</v>
+        <v>121</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>297</v>
+        <v>122</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>298</v>
+        <v>123</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>299</v>
+        <v>124</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>300</v>
+        <v>125</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>301</v>
+        <v>126</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>302</v>
+        <v>127</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>303</v>
+        <v>128</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>304</v>
+        <v>129</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>305</v>
+        <v>130</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>306</v>
+        <v>131</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>307</v>
+        <v>132</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>308</v>
+        <v>133</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>309</v>
+        <v>134</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>310</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
@@ -6736,7 +5184,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>311</v>
+        <v>136</v>
       </c>
       <c r="C4" s="5">
         <v>1</v>
@@ -6745,40 +5193,40 @@
         <v>60</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>312</v>
+        <v>137</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>313</v>
+        <v>138</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>314</v>
+        <v>139</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>315</v>
+        <v>140</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>316</v>
+        <v>141</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>316</v>
+        <v>141</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>317</v>
+        <v>142</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>316</v>
+        <v>141</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>318</v>
+        <v>143</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>316</v>
+        <v>141</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>316</v>
+        <v>141</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>316</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/镇魂街/basicInfo.基础信息.xlsx
+++ b/Excel/镇魂街/basicInfo.基础信息.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12465" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="144">
   <si>
     <t>sheet名</t>
   </si>
@@ -88,12 +88,21 @@
     <t>level</t>
   </si>
   <si>
+    <t>Exp</t>
+  </si>
+  <si>
+    <t>ExpCur</t>
+  </si>
+  <si>
     <t>HangUpTeamNum</t>
   </si>
   <si>
     <t>int:&lt;&gt;</t>
   </si>
   <si>
+    <t>int:&lt;</t>
+  </si>
+  <si>
     <t>等级</t>
   </si>
   <si>
@@ -101,9 +110,6 @@
   </si>
   <si>
     <t>挂机队伍数量</t>
-  </si>
-  <si>
-    <t>string:&lt;&gt;</t>
   </si>
   <si>
     <t>ItemShow[1][1]</t>
@@ -268,10 +274,7 @@
     <t>芦花古楼</t>
   </si>
   <si>
-    <t>个人boss挑战券</t>
-  </si>
-  <si>
-    <t>单人boss</t>
+    <t>恶灵入侵</t>
   </si>
   <si>
     <t>2小时扫荡券</t>
@@ -322,7 +325,7 @@
     <t>IfOpen</t>
   </si>
   <si>
-    <t>int:&lt;</t>
+    <t>string:&lt;&gt;</t>
   </si>
   <si>
     <t>类型</t>
@@ -462,9 +465,6 @@
     </r>
   </si>
   <si>
-    <t>card_id:e&gt;|0</t>
-  </si>
-  <si>
     <t>skill_id:e&gt;|0</t>
   </si>
   <si>
@@ -516,36 +516,30 @@
     <t>???</t>
   </si>
   <si>
-    <t>常服曹焱兵</t>
-  </si>
-  <si>
-    <t>于禁</t>
+    <t>@0</t>
   </si>
   <si>
     <t>曹玄亮</t>
-  </si>
-  <si>
-    <t>唐流雨</t>
-  </si>
-  <si>
-    <t>@0</t>
-  </si>
-  <si>
-    <t>殇魂秘术</t>
-  </si>
-  <si>
-    <t>斩灵秘术</t>
-  </si>
-  <si>
-    <t>Exp</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>ExpCur</t>
+    <t>card_id:e&gt;|@0</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>int:&lt;</t>
+    <t>card_id:e&gt;|@0</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>card_id:e&gt;|@0</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>card_id:e&gt;|@0</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗夏玲</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -592,6 +586,15 @@
       <charset val="134"/>
     </font>
     <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -601,15 +604,6 @@
     </font>
     <font>
       <sz val="16"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <strike/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
@@ -654,25 +648,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14981536301767021"/>
+        <fgColor theme="0" tint="-0.34934537797173987"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14978484450819421"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6600"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34934537797173987"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF6600"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -720,26 +714,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" applyFont="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" applyFont="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -760,10 +754,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="13" applyFill="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="4" quotePrefix="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="14">
     <cellStyle name="Grid" xfId="4"/>
@@ -1054,8 +1048,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1238,8 +1232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E153"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="D83" sqref="D83:D92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1257,30 +1251,30 @@
         <v>20</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>144</v>
+        <v>21</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>145</v>
+        <v>22</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>146</v>
+        <v>24</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -1288,16 +1282,16 @@
         <v>10</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -4010,9 +4004,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4033,80 +4025,80 @@
         <v>10</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="45" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4114,19 +4106,19 @@
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C4" s="5">
         <v>0</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E4" s="5">
         <v>1</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G4" s="5">
         <v>1</v>
@@ -4135,7 +4127,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4143,13 +4135,13 @@
         <v>2</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C5" s="5">
         <v>1</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E5" s="5">
         <v>1</v>
@@ -4160,7 +4152,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4168,13 +4160,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C6" s="5">
         <v>1</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E6" s="5">
         <v>1</v>
@@ -4185,7 +4177,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4193,13 +4185,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C7" s="5">
         <v>1</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E7" s="5">
         <v>1</v>
@@ -4210,7 +4202,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4218,13 +4210,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C8" s="5">
         <v>1</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E8" s="5">
         <v>1</v>
@@ -4235,7 +4227,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4243,13 +4235,13 @@
         <v>6</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C9" s="5">
         <v>1</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E9" s="5">
         <v>1</v>
@@ -4260,7 +4252,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4268,7 +4260,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C10" s="5">
         <v>1</v>
@@ -4281,7 +4273,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4289,13 +4281,13 @@
         <v>8</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C11" s="5">
         <v>1</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E11" s="5">
         <v>1</v>
@@ -4306,7 +4298,7 @@
         <v>1</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4314,19 +4306,19 @@
         <v>9</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C12" s="5">
         <v>1</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E12" s="5">
         <v>1</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G12" s="5">
         <v>0</v>
@@ -4335,7 +4327,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4343,19 +4335,19 @@
         <v>10</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C13" s="5">
         <v>1</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E13" s="5">
         <v>1</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G13" s="5">
         <v>1</v>
@@ -4364,7 +4356,7 @@
         <v>1</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4372,13 +4364,13 @@
         <v>11</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C14" s="5">
         <v>1</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E14" s="5">
         <v>1</v>
@@ -4389,7 +4381,7 @@
         <v>1</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4397,19 +4389,19 @@
         <v>12</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C15" s="5">
         <v>1</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E15" s="5">
         <v>1</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G15" s="5">
         <v>0</v>
@@ -4418,7 +4410,7 @@
         <v>1</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4426,19 +4418,19 @@
         <v>13</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C16" s="5">
         <v>1</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E16" s="5">
         <v>1</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G16" s="5">
         <v>1</v>
@@ -4447,7 +4439,7 @@
         <v>1</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4455,13 +4447,13 @@
         <v>14</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C17" s="5">
         <v>1</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E17" s="5">
         <v>1</v>
@@ -4472,7 +4464,7 @@
         <v>1</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4480,13 +4472,13 @@
         <v>15</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C18" s="5">
         <v>1</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E18" s="5">
         <v>1</v>
@@ -4497,7 +4489,7 @@
         <v>1</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4505,13 +4497,13 @@
         <v>16</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C19" s="5">
         <v>1</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E19" s="5">
         <v>1</v>
@@ -4522,7 +4514,7 @@
         <v>1</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4530,13 +4522,13 @@
         <v>17</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C20" s="5">
         <v>1</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E20" s="5">
         <v>1</v>
@@ -4547,7 +4539,7 @@
         <v>1</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4555,13 +4547,13 @@
         <v>18</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C21" s="5">
         <v>1</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E21" s="5">
         <v>1</v>
@@ -4572,7 +4564,7 @@
         <v>1</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4580,13 +4572,13 @@
         <v>19</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C22" s="5">
         <v>1</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E22" s="5">
         <v>1</v>
@@ -4597,7 +4589,7 @@
         <v>1</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4605,19 +4597,19 @@
         <v>20</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C23" s="5">
         <v>1</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E23" s="5">
         <v>1</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G23" s="5">
         <v>1</v>
@@ -4626,7 +4618,7 @@
         <v>1</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4634,19 +4626,19 @@
         <v>21</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C24" s="5">
         <v>1</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E24" s="5">
         <v>1</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G24" s="5">
         <v>0</v>
@@ -4655,7 +4647,7 @@
         <v>1</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4663,20 +4655,20 @@
         <v>22</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="C25" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4684,19 +4676,19 @@
         <v>23</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C26" s="5">
         <v>1</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E26" s="5">
         <v>1</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G26" s="5">
         <v>1</v>
@@ -4705,7 +4697,7 @@
         <v>1</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4713,7 +4705,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C27" s="5">
         <v>1</v>
@@ -4726,7 +4718,7 @@
         <v>0</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4734,13 +4726,13 @@
         <v>25</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C28" s="5">
         <v>1</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E28" s="5">
         <v>1</v>
@@ -4751,7 +4743,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4759,7 +4751,7 @@
         <v>26</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C29" s="5">
         <v>1</v>
@@ -4772,7 +4764,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4780,7 +4772,7 @@
         <v>27</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C30" s="5">
         <v>0</v>
@@ -4793,7 +4785,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4801,7 +4793,7 @@
         <v>28</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C31" s="5">
         <v>0</v>
@@ -4814,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4822,7 +4814,7 @@
         <v>29</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C32" s="5">
         <v>0</v>
@@ -4835,7 +4827,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4843,7 +4835,7 @@
         <v>30</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C33" s="5">
         <v>0</v>
@@ -4856,7 +4848,7 @@
         <v>0</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -4886,45 +4878,45 @@
         <v>10</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>93</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>93</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.2">
@@ -4932,22 +4924,22 @@
         <v>10</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="280.5" x14ac:dyDescent="0.2">
@@ -4958,10 +4950,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E4" s="5">
         <v>1</v>
@@ -4981,10 +4973,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E5" s="5">
         <v>1</v>
@@ -5007,7 +4999,7 @@
   <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5034,81 +5026,81 @@
         <v>10</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>117</v>
-      </c>
       <c r="D2" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>120</v>
@@ -5131,7 +5123,7 @@
     </row>
     <row r="3" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>121</v>
@@ -5193,40 +5185,36 @@
         <v>60</v>
       </c>
       <c r="E4" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>141</v>
+      <c r="J4" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/镇魂街/basicInfo.基础信息.xlsx
+++ b/Excel/镇魂街/basicInfo.基础信息.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12465" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12465" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="144">
   <si>
     <t>sheet名</t>
   </si>
@@ -1232,8 +1232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="D83" sqref="D83:D92"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1303,10 +1303,10 @@
       </c>
       <c r="C4" s="5">
         <f>SUM(D$4:D4)</f>
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="D4" s="5">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="E4" s="5">
         <v>1</v>
@@ -1321,10 +1321,10 @@
       </c>
       <c r="C5" s="5">
         <f>SUM(D$4:D5)</f>
-        <v>170</v>
+        <v>100</v>
       </c>
       <c r="D5" s="5">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="E5" s="5">
         <v>1</v>
@@ -1339,10 +1339,10 @@
       </c>
       <c r="C6" s="5">
         <f>SUM(D$4:D6)</f>
-        <v>285</v>
+        <v>165</v>
       </c>
       <c r="D6" s="5">
-        <v>115</v>
+        <v>65</v>
       </c>
       <c r="E6" s="5">
         <v>1</v>
@@ -1357,10 +1357,10 @@
       </c>
       <c r="C7" s="5">
         <f>SUM(D$4:D7)</f>
-        <v>420</v>
+        <v>245</v>
       </c>
       <c r="D7" s="5">
-        <v>135</v>
+        <v>80</v>
       </c>
       <c r="E7" s="5">
         <v>1</v>
@@ -1375,10 +1375,10 @@
       </c>
       <c r="C8" s="5">
         <f>SUM(D$4:D8)</f>
-        <v>575</v>
+        <v>335</v>
       </c>
       <c r="D8" s="5">
-        <v>155</v>
+        <v>90</v>
       </c>
       <c r="E8" s="5">
         <v>1</v>
@@ -1393,10 +1393,10 @@
       </c>
       <c r="C9" s="5">
         <f>SUM(D$4:D9)</f>
-        <v>765</v>
+        <v>450</v>
       </c>
       <c r="D9" s="5">
-        <v>190</v>
+        <v>115</v>
       </c>
       <c r="E9" s="5">
         <v>1</v>
@@ -1411,10 +1411,10 @@
       </c>
       <c r="C10" s="5">
         <f>SUM(D$4:D10)</f>
-        <v>995</v>
+        <v>585</v>
       </c>
       <c r="D10" s="5">
-        <v>230</v>
+        <v>135</v>
       </c>
       <c r="E10" s="5">
         <v>1</v>
@@ -1429,10 +1429,10 @@
       </c>
       <c r="C11" s="5">
         <f>SUM(D$4:D11)</f>
-        <v>1265</v>
+        <v>745</v>
       </c>
       <c r="D11" s="5">
-        <v>270</v>
+        <v>160</v>
       </c>
       <c r="E11" s="5">
         <v>1</v>
@@ -1447,10 +1447,10 @@
       </c>
       <c r="C12" s="5">
         <f>SUM(D$4:D12)</f>
-        <v>1650</v>
+        <v>975</v>
       </c>
       <c r="D12" s="5">
-        <v>385</v>
+        <v>230</v>
       </c>
       <c r="E12" s="5">
         <v>1</v>
@@ -1465,10 +1465,10 @@
       </c>
       <c r="C13" s="5">
         <f>SUM(D$4:D13)</f>
-        <v>2135</v>
+        <v>1295</v>
       </c>
       <c r="D13" s="5">
-        <v>485</v>
+        <v>320</v>
       </c>
       <c r="E13" s="5">
         <v>1</v>
@@ -1483,10 +1483,10 @@
       </c>
       <c r="C14" s="5">
         <f>SUM(D$4:D14)</f>
-        <v>2670</v>
+        <v>1650</v>
       </c>
       <c r="D14" s="5">
-        <v>535</v>
+        <v>355</v>
       </c>
       <c r="E14" s="5">
         <v>1</v>
@@ -1501,10 +1501,10 @@
       </c>
       <c r="C15" s="5">
         <f>SUM(D$4:D15)</f>
-        <v>3250</v>
+        <v>2035</v>
       </c>
       <c r="D15" s="5">
-        <v>580</v>
+        <v>385</v>
       </c>
       <c r="E15" s="5">
         <v>1</v>
@@ -1519,10 +1519,10 @@
       </c>
       <c r="C16" s="5">
         <f>SUM(D$4:D16)</f>
-        <v>3880</v>
+        <v>2455</v>
       </c>
       <c r="D16" s="5">
-        <v>630</v>
+        <v>420</v>
       </c>
       <c r="E16" s="5">
         <v>1</v>
@@ -1537,10 +1537,10 @@
       </c>
       <c r="C17" s="5">
         <f>SUM(D$4:D17)</f>
-        <v>4560</v>
+        <v>2905</v>
       </c>
       <c r="D17" s="5">
-        <v>680</v>
+        <v>450</v>
       </c>
       <c r="E17" s="5">
         <v>1</v>
@@ -1555,10 +1555,10 @@
       </c>
       <c r="C18" s="5">
         <f>SUM(D$4:D18)</f>
-        <v>5290</v>
+        <v>3390</v>
       </c>
       <c r="D18" s="5">
-        <v>730</v>
+        <v>485</v>
       </c>
       <c r="E18" s="5">
         <v>1</v>
@@ -1573,10 +1573,10 @@
       </c>
       <c r="C19" s="5">
         <f>SUM(D$4:D19)</f>
-        <v>6065</v>
+        <v>3905</v>
       </c>
       <c r="D19" s="5">
-        <v>775</v>
+        <v>515</v>
       </c>
       <c r="E19" s="5">
         <v>1</v>
@@ -1591,10 +1591,10 @@
       </c>
       <c r="C20" s="5">
         <f>SUM(D$4:D20)</f>
-        <v>6890</v>
+        <v>4455</v>
       </c>
       <c r="D20" s="5">
-        <v>825</v>
+        <v>550</v>
       </c>
       <c r="E20" s="5">
         <v>1</v>
@@ -1609,10 +1609,10 @@
       </c>
       <c r="C21" s="5">
         <f>SUM(D$4:D21)</f>
-        <v>7765</v>
+        <v>5035</v>
       </c>
       <c r="D21" s="5">
-        <v>875</v>
+        <v>580</v>
       </c>
       <c r="E21" s="5">
         <v>1</v>
@@ -1627,10 +1627,10 @@
       </c>
       <c r="C22" s="5">
         <f>SUM(D$4:D22)</f>
-        <v>8735</v>
+        <v>5680</v>
       </c>
       <c r="D22" s="5">
-        <v>970</v>
+        <v>645</v>
       </c>
       <c r="E22" s="5">
         <v>1</v>
@@ -1645,10 +1645,10 @@
       </c>
       <c r="C23" s="5">
         <f>SUM(D$4:D23)</f>
-        <v>9480</v>
+        <v>6275</v>
       </c>
       <c r="D23" s="5">
-        <v>745</v>
+        <v>595</v>
       </c>
       <c r="E23" s="5">
         <v>1</v>
@@ -1663,10 +1663,10 @@
       </c>
       <c r="C24" s="5">
         <f>SUM(D$4:D24)</f>
-        <v>10300</v>
+        <v>6930</v>
       </c>
       <c r="D24" s="5">
-        <v>820</v>
+        <v>655</v>
       </c>
       <c r="E24" s="5">
         <v>1</v>
@@ -1681,10 +1681,10 @@
       </c>
       <c r="C25" s="5">
         <f>SUM(D$4:D25)</f>
-        <v>11195</v>
+        <v>7645</v>
       </c>
       <c r="D25" s="5">
-        <v>895</v>
+        <v>715</v>
       </c>
       <c r="E25" s="5">
         <v>1</v>
@@ -1699,10 +1699,10 @@
       </c>
       <c r="C26" s="5">
         <f>SUM(D$4:D26)</f>
-        <v>12165</v>
+        <v>8420</v>
       </c>
       <c r="D26" s="5">
-        <v>970</v>
+        <v>775</v>
       </c>
       <c r="E26" s="5">
         <v>1</v>
@@ -1717,10 +1717,10 @@
       </c>
       <c r="C27" s="5">
         <f>SUM(D$4:D27)</f>
-        <v>13210</v>
+        <v>9255</v>
       </c>
       <c r="D27" s="5">
-        <v>1045</v>
+        <v>835</v>
       </c>
       <c r="E27" s="5">
         <v>1</v>
@@ -1735,10 +1735,10 @@
       </c>
       <c r="C28" s="5">
         <f>SUM(D$4:D28)</f>
-        <v>14325</v>
+        <v>10150</v>
       </c>
       <c r="D28" s="5">
-        <v>1115</v>
+        <v>895</v>
       </c>
       <c r="E28" s="5">
         <v>1</v>
@@ -1753,10 +1753,10 @@
       </c>
       <c r="C29" s="5">
         <f>SUM(D$4:D29)</f>
-        <v>15515</v>
+        <v>11105</v>
       </c>
       <c r="D29" s="5">
-        <v>1190</v>
+        <v>955</v>
       </c>
       <c r="E29" s="5">
         <v>1</v>
@@ -1771,10 +1771,10 @@
       </c>
       <c r="C30" s="5">
         <f>SUM(D$4:D30)</f>
-        <v>16780</v>
+        <v>12120</v>
       </c>
       <c r="D30" s="5">
-        <v>1265</v>
+        <v>1015</v>
       </c>
       <c r="E30" s="5">
         <v>1</v>
@@ -1789,10 +1789,10 @@
       </c>
       <c r="C31" s="5">
         <f>SUM(D$4:D31)</f>
-        <v>18120</v>
+        <v>13195</v>
       </c>
       <c r="D31" s="5">
-        <v>1340</v>
+        <v>1075</v>
       </c>
       <c r="E31" s="5">
         <v>1</v>
@@ -1807,10 +1807,10 @@
       </c>
       <c r="C32" s="5">
         <f>SUM(D$4:D32)</f>
-        <v>19610</v>
+        <v>14385</v>
       </c>
       <c r="D32" s="5">
-        <v>1490</v>
+        <v>1190</v>
       </c>
       <c r="E32" s="5">
         <v>1</v>
@@ -1825,10 +1825,10 @@
       </c>
       <c r="C33" s="5">
         <f>SUM(D$4:D33)</f>
-        <v>21055</v>
+        <v>15945</v>
       </c>
       <c r="D33" s="5">
-        <v>1445</v>
+        <v>1560</v>
       </c>
       <c r="E33" s="5">
         <v>1</v>
@@ -1843,10 +1843,10 @@
       </c>
       <c r="C34" s="5">
         <f>SUM(D$4:D34)</f>
-        <v>22790</v>
+        <v>17820</v>
       </c>
       <c r="D34" s="5">
-        <v>1735</v>
+        <v>1875</v>
       </c>
       <c r="E34" s="5">
         <v>1</v>
@@ -1861,10 +1861,10 @@
       </c>
       <c r="C35" s="5">
         <f>SUM(D$4:D35)</f>
-        <v>24815</v>
+        <v>20005</v>
       </c>
       <c r="D35" s="5">
-        <v>2025</v>
+        <v>2185</v>
       </c>
       <c r="E35" s="5">
         <v>1</v>
@@ -1879,10 +1879,10 @@
       </c>
       <c r="C36" s="5">
         <f>SUM(D$4:D36)</f>
-        <v>27130</v>
+        <v>22505</v>
       </c>
       <c r="D36" s="5">
-        <v>2315</v>
+        <v>2500</v>
       </c>
       <c r="E36" s="5">
         <v>1</v>
@@ -1897,10 +1897,10 @@
       </c>
       <c r="C37" s="5">
         <f>SUM(D$4:D37)</f>
-        <v>29735</v>
+        <v>25315</v>
       </c>
       <c r="D37" s="5">
-        <v>2605</v>
+        <v>2810</v>
       </c>
       <c r="E37" s="5">
         <v>1</v>
@@ -1915,10 +1915,10 @@
       </c>
       <c r="C38" s="5">
         <f>SUM(D$4:D38)</f>
-        <v>32630</v>
+        <v>28440</v>
       </c>
       <c r="D38" s="5">
-        <v>2895</v>
+        <v>3125</v>
       </c>
       <c r="E38" s="5">
         <v>1</v>
@@ -1933,10 +1933,10 @@
       </c>
       <c r="C39" s="5">
         <f>SUM(D$4:D39)</f>
-        <v>35815</v>
+        <v>31875</v>
       </c>
       <c r="D39" s="5">
-        <v>3185</v>
+        <v>3435</v>
       </c>
       <c r="E39" s="5">
         <v>1</v>
@@ -1951,10 +1951,10 @@
       </c>
       <c r="C40" s="5">
         <f>SUM(D$4:D40)</f>
-        <v>39290</v>
+        <v>35625</v>
       </c>
       <c r="D40" s="5">
-        <v>3475</v>
+        <v>3750</v>
       </c>
       <c r="E40" s="5">
         <v>1</v>
@@ -1969,10 +1969,10 @@
       </c>
       <c r="C41" s="5">
         <f>SUM(D$4:D41)</f>
-        <v>43050</v>
+        <v>39690</v>
       </c>
       <c r="D41" s="5">
-        <v>3760</v>
+        <v>4065</v>
       </c>
       <c r="E41" s="5">
         <v>1</v>
@@ -1987,10 +1987,10 @@
       </c>
       <c r="C42" s="5">
         <f>SUM(D$4:D42)</f>
-        <v>47390</v>
+        <v>44380</v>
       </c>
       <c r="D42" s="5">
-        <v>4340</v>
+        <v>4690</v>
       </c>
       <c r="E42" s="5">
         <v>1</v>
@@ -2005,10 +2005,10 @@
       </c>
       <c r="C43" s="5">
         <f>SUM(D$4:D43)</f>
-        <v>53390</v>
+        <v>50710</v>
       </c>
       <c r="D43" s="5">
-        <v>6000</v>
+        <v>6330</v>
       </c>
       <c r="E43" s="5">
         <v>2</v>
@@ -2023,10 +2023,10 @@
       </c>
       <c r="C44" s="5">
         <f>SUM(D$4:D44)</f>
-        <v>59990</v>
+        <v>57675</v>
       </c>
       <c r="D44" s="5">
-        <v>6600</v>
+        <v>6965</v>
       </c>
       <c r="E44" s="5">
         <v>2</v>
@@ -2041,10 +2041,10 @@
       </c>
       <c r="C45" s="5">
         <f>SUM(D$4:D45)</f>
-        <v>67190</v>
+        <v>65275</v>
       </c>
       <c r="D45" s="5">
-        <v>7200</v>
+        <v>7600</v>
       </c>
       <c r="E45" s="5">
         <v>2</v>
@@ -2059,10 +2059,10 @@
       </c>
       <c r="C46" s="5">
         <f>SUM(D$4:D46)</f>
-        <v>74990</v>
+        <v>73505</v>
       </c>
       <c r="D46" s="5">
-        <v>7800</v>
+        <v>8230</v>
       </c>
       <c r="E46" s="5">
         <v>2</v>
@@ -2077,10 +2077,10 @@
       </c>
       <c r="C47" s="5">
         <f>SUM(D$4:D47)</f>
-        <v>83390</v>
+        <v>82370</v>
       </c>
       <c r="D47" s="5">
-        <v>8400</v>
+        <v>8865</v>
       </c>
       <c r="E47" s="5">
         <v>2</v>
@@ -2095,10 +2095,10 @@
       </c>
       <c r="C48" s="5">
         <f>SUM(D$4:D48)</f>
-        <v>92390</v>
+        <v>91870</v>
       </c>
       <c r="D48" s="5">
-        <v>9000</v>
+        <v>9500</v>
       </c>
       <c r="E48" s="5">
         <v>2</v>
@@ -2113,10 +2113,10 @@
       </c>
       <c r="C49" s="5">
         <f>SUM(D$4:D49)</f>
-        <v>101990</v>
+        <v>102000</v>
       </c>
       <c r="D49" s="5">
-        <v>9600</v>
+        <v>10130</v>
       </c>
       <c r="E49" s="5">
         <v>2</v>
@@ -2131,10 +2131,10 @@
       </c>
       <c r="C50" s="5">
         <f>SUM(D$4:D50)</f>
-        <v>112190</v>
+        <v>112765</v>
       </c>
       <c r="D50" s="5">
-        <v>10200</v>
+        <v>10765</v>
       </c>
       <c r="E50" s="5">
         <v>2</v>
@@ -2149,10 +2149,10 @@
       </c>
       <c r="C51" s="5">
         <f>SUM(D$4:D51)</f>
-        <v>122990</v>
+        <v>124165</v>
       </c>
       <c r="D51" s="5">
-        <v>10800</v>
+        <v>11400</v>
       </c>
       <c r="E51" s="5">
         <v>2</v>
@@ -2167,10 +2167,10 @@
       </c>
       <c r="C52" s="5">
         <f>SUM(D$4:D52)</f>
-        <v>134990</v>
+        <v>136830</v>
       </c>
       <c r="D52" s="5">
-        <v>12000</v>
+        <v>12665</v>
       </c>
       <c r="E52" s="5">
         <v>2</v>
@@ -2185,7 +2185,7 @@
       </c>
       <c r="C53" s="5">
         <f>SUM(D$4:D53)</f>
-        <v>144150</v>
+        <v>145990</v>
       </c>
       <c r="D53" s="5">
         <v>9160</v>
@@ -2203,7 +2203,7 @@
       </c>
       <c r="C54" s="5">
         <f>SUM(D$4:D54)</f>
-        <v>154225</v>
+        <v>156065</v>
       </c>
       <c r="D54" s="5">
         <v>10075</v>
@@ -2221,7 +2221,7 @@
       </c>
       <c r="C55" s="5">
         <f>SUM(D$4:D55)</f>
-        <v>165215</v>
+        <v>167055</v>
       </c>
       <c r="D55" s="5">
         <v>10990</v>
@@ -2239,7 +2239,7 @@
       </c>
       <c r="C56" s="5">
         <f>SUM(D$4:D56)</f>
-        <v>177120</v>
+        <v>178960</v>
       </c>
       <c r="D56" s="5">
         <v>11905</v>
@@ -2257,7 +2257,7 @@
       </c>
       <c r="C57" s="5">
         <f>SUM(D$4:D57)</f>
-        <v>189945</v>
+        <v>191785</v>
       </c>
       <c r="D57" s="5">
         <v>12825</v>
@@ -2275,7 +2275,7 @@
       </c>
       <c r="C58" s="5">
         <f>SUM(D$4:D58)</f>
-        <v>203685</v>
+        <v>205525</v>
       </c>
       <c r="D58" s="5">
         <v>13740</v>
@@ -2293,7 +2293,7 @@
       </c>
       <c r="C59" s="5">
         <f>SUM(D$4:D59)</f>
-        <v>218340</v>
+        <v>220180</v>
       </c>
       <c r="D59" s="5">
         <v>14655</v>
@@ -2311,7 +2311,7 @@
       </c>
       <c r="C60" s="5">
         <f>SUM(D$4:D60)</f>
-        <v>233910</v>
+        <v>235750</v>
       </c>
       <c r="D60" s="5">
         <v>15570</v>
@@ -2329,7 +2329,7 @@
       </c>
       <c r="C61" s="5">
         <f>SUM(D$4:D61)</f>
-        <v>250395</v>
+        <v>252235</v>
       </c>
       <c r="D61" s="5">
         <v>16485</v>
@@ -2347,7 +2347,7 @@
       </c>
       <c r="C62" s="5">
         <f>SUM(D$4:D62)</f>
-        <v>268715</v>
+        <v>270555</v>
       </c>
       <c r="D62" s="5">
         <v>18320</v>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="C63" s="5">
         <f>SUM(D$4:D63)</f>
-        <v>283715</v>
+        <v>285555</v>
       </c>
       <c r="D63" s="5">
         <v>15000</v>
@@ -2383,7 +2383,7 @@
       </c>
       <c r="C64" s="5">
         <f>SUM(D$4:D64)</f>
-        <v>300215</v>
+        <v>302055</v>
       </c>
       <c r="D64" s="5">
         <v>16500</v>
@@ -2401,7 +2401,7 @@
       </c>
       <c r="C65" s="5">
         <f>SUM(D$4:D65)</f>
-        <v>318215</v>
+        <v>320055</v>
       </c>
       <c r="D65" s="5">
         <v>18000</v>
@@ -2419,7 +2419,7 @@
       </c>
       <c r="C66" s="5">
         <f>SUM(D$4:D66)</f>
-        <v>337715</v>
+        <v>339555</v>
       </c>
       <c r="D66" s="5">
         <v>19500</v>
@@ -2437,7 +2437,7 @@
       </c>
       <c r="C67" s="5">
         <f>SUM(D$4:D67)</f>
-        <v>358715</v>
+        <v>360555</v>
       </c>
       <c r="D67" s="5">
         <v>21000</v>
@@ -2455,7 +2455,7 @@
       </c>
       <c r="C68" s="5">
         <f>SUM(D$4:D68)</f>
-        <v>381215</v>
+        <v>383055</v>
       </c>
       <c r="D68" s="5">
         <v>22500</v>
@@ -2473,7 +2473,7 @@
       </c>
       <c r="C69" s="5">
         <f>SUM(D$4:D69)</f>
-        <v>405215</v>
+        <v>407055</v>
       </c>
       <c r="D69" s="5">
         <v>24000</v>
@@ -2491,7 +2491,7 @@
       </c>
       <c r="C70" s="5">
         <f>SUM(D$4:D70)</f>
-        <v>430715</v>
+        <v>432555</v>
       </c>
       <c r="D70" s="5">
         <v>25500</v>
@@ -2509,7 +2509,7 @@
       </c>
       <c r="C71" s="5">
         <f>SUM(D$4:D71)</f>
-        <v>457715</v>
+        <v>459555</v>
       </c>
       <c r="D71" s="5">
         <v>27000</v>
@@ -2527,7 +2527,7 @@
       </c>
       <c r="C72" s="5">
         <f>SUM(D$4:D72)</f>
-        <v>487715</v>
+        <v>489555</v>
       </c>
       <c r="D72" s="5">
         <v>30000</v>
@@ -2545,7 +2545,7 @@
       </c>
       <c r="C73" s="5">
         <f>SUM(D$4:D73)</f>
-        <v>507950</v>
+        <v>509790</v>
       </c>
       <c r="D73" s="5">
         <v>20235</v>
@@ -2563,7 +2563,7 @@
       </c>
       <c r="C74" s="5">
         <f>SUM(D$4:D74)</f>
-        <v>530210</v>
+        <v>532050</v>
       </c>
       <c r="D74" s="5">
         <v>22260</v>
@@ -2581,7 +2581,7 @@
       </c>
       <c r="C75" s="5">
         <f>SUM(D$4:D75)</f>
-        <v>554495</v>
+        <v>556335</v>
       </c>
       <c r="D75" s="5">
         <v>24285</v>
@@ -2599,7 +2599,7 @@
       </c>
       <c r="C76" s="5">
         <f>SUM(D$4:D76)</f>
-        <v>580805</v>
+        <v>582645</v>
       </c>
       <c r="D76" s="5">
         <v>26310</v>
@@ -2617,7 +2617,7 @@
       </c>
       <c r="C77" s="5">
         <f>SUM(D$4:D77)</f>
-        <v>609140</v>
+        <v>610980</v>
       </c>
       <c r="D77" s="5">
         <v>28335</v>
@@ -2635,7 +2635,7 @@
       </c>
       <c r="C78" s="5">
         <f>SUM(D$4:D78)</f>
-        <v>639495</v>
+        <v>641335</v>
       </c>
       <c r="D78" s="5">
         <v>30355</v>
@@ -2653,7 +2653,7 @@
       </c>
       <c r="C79" s="5">
         <f>SUM(D$4:D79)</f>
-        <v>671875</v>
+        <v>673715</v>
       </c>
       <c r="D79" s="5">
         <v>32380</v>
@@ -2671,7 +2671,7 @@
       </c>
       <c r="C80" s="5">
         <f>SUM(D$4:D80)</f>
-        <v>706280</v>
+        <v>708120</v>
       </c>
       <c r="D80" s="5">
         <v>34405</v>
@@ -2689,7 +2689,7 @@
       </c>
       <c r="C81" s="5">
         <f>SUM(D$4:D81)</f>
-        <v>742710</v>
+        <v>744550</v>
       </c>
       <c r="D81" s="5">
         <v>36430</v>
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C82" s="5">
         <f>SUM(D$4:D82)</f>
-        <v>783185</v>
+        <v>785025</v>
       </c>
       <c r="D82" s="5">
         <v>40475</v>
@@ -2725,7 +2725,7 @@
       </c>
       <c r="C83" s="5">
         <f>SUM(D$4:D83)</f>
-        <v>813390</v>
+        <v>815230</v>
       </c>
       <c r="D83" s="5">
         <v>30205</v>
@@ -2743,7 +2743,7 @@
       </c>
       <c r="C84" s="5">
         <f>SUM(D$4:D84)</f>
-        <v>846615</v>
+        <v>848455</v>
       </c>
       <c r="D84" s="5">
         <v>33225</v>
@@ -2761,7 +2761,7 @@
       </c>
       <c r="C85" s="5">
         <f>SUM(D$4:D85)</f>
-        <v>882860</v>
+        <v>884700</v>
       </c>
       <c r="D85" s="5">
         <v>36245</v>
@@ -2779,7 +2779,7 @@
       </c>
       <c r="C86" s="5">
         <f>SUM(D$4:D86)</f>
-        <v>922125</v>
+        <v>923965</v>
       </c>
       <c r="D86" s="5">
         <v>39265</v>
@@ -2797,7 +2797,7 @@
       </c>
       <c r="C87" s="5">
         <f>SUM(D$4:D87)</f>
-        <v>964410</v>
+        <v>966250</v>
       </c>
       <c r="D87" s="5">
         <v>42285</v>
@@ -2815,7 +2815,7 @@
       </c>
       <c r="C88" s="5">
         <f>SUM(D$4:D88)</f>
-        <v>1009715</v>
+        <v>1011555</v>
       </c>
       <c r="D88" s="5">
         <v>45305</v>
@@ -2833,7 +2833,7 @@
       </c>
       <c r="C89" s="5">
         <f>SUM(D$4:D89)</f>
-        <v>1058040</v>
+        <v>1059880</v>
       </c>
       <c r="D89" s="5">
         <v>48325</v>
@@ -2851,7 +2851,7 @@
       </c>
       <c r="C90" s="5">
         <f>SUM(D$4:D90)</f>
-        <v>1109385</v>
+        <v>1111225</v>
       </c>
       <c r="D90" s="5">
         <v>51345</v>
@@ -2869,7 +2869,7 @@
       </c>
       <c r="C91" s="5">
         <f>SUM(D$4:D91)</f>
-        <v>1163750</v>
+        <v>1165590</v>
       </c>
       <c r="D91" s="5">
         <v>54365</v>
@@ -2887,7 +2887,7 @@
       </c>
       <c r="C92" s="5">
         <f>SUM(D$4:D92)</f>
-        <v>1224160</v>
+        <v>1226000</v>
       </c>
       <c r="D92" s="5">
         <v>60410</v>
@@ -2905,7 +2905,7 @@
       </c>
       <c r="C93" s="5">
         <f>SUM(D$4:D93)</f>
-        <v>1271910</v>
+        <v>1273750</v>
       </c>
       <c r="D93" s="5">
         <v>47750</v>
@@ -2923,7 +2923,7 @@
       </c>
       <c r="C94" s="5">
         <f>SUM(D$4:D94)</f>
-        <v>1324435</v>
+        <v>1326275</v>
       </c>
       <c r="D94" s="5">
         <v>52525</v>
@@ -2941,7 +2941,7 @@
       </c>
       <c r="C95" s="5">
         <f>SUM(D$4:D95)</f>
-        <v>1381735</v>
+        <v>1383575</v>
       </c>
       <c r="D95" s="5">
         <v>57300</v>
@@ -2959,7 +2959,7 @@
       </c>
       <c r="C96" s="5">
         <f>SUM(D$4:D96)</f>
-        <v>1443810</v>
+        <v>1445650</v>
       </c>
       <c r="D96" s="5">
         <v>62075</v>
@@ -2977,7 +2977,7 @@
       </c>
       <c r="C97" s="5">
         <f>SUM(D$4:D97)</f>
-        <v>1510660</v>
+        <v>1512500</v>
       </c>
       <c r="D97" s="5">
         <v>66850</v>
@@ -2995,7 +2995,7 @@
       </c>
       <c r="C98" s="5">
         <f>SUM(D$4:D98)</f>
-        <v>1582290</v>
+        <v>1584130</v>
       </c>
       <c r="D98" s="5">
         <v>71630</v>
@@ -3013,7 +3013,7 @@
       </c>
       <c r="C99" s="5">
         <f>SUM(D$4:D99)</f>
-        <v>1658695</v>
+        <v>1660535</v>
       </c>
       <c r="D99" s="5">
         <v>76405</v>
@@ -3031,7 +3031,7 @@
       </c>
       <c r="C100" s="5">
         <f>SUM(D$4:D100)</f>
-        <v>1739875</v>
+        <v>1741715</v>
       </c>
       <c r="D100" s="5">
         <v>81180</v>
@@ -3049,7 +3049,7 @@
       </c>
       <c r="C101" s="5">
         <f>SUM(D$4:D101)</f>
-        <v>1825830</v>
+        <v>1827670</v>
       </c>
       <c r="D101" s="5">
         <v>85955</v>
@@ -3067,7 +3067,7 @@
       </c>
       <c r="C102" s="5">
         <f>SUM(D$4:D102)</f>
-        <v>1921335</v>
+        <v>1923175</v>
       </c>
       <c r="D102" s="5">
         <v>95505</v>
@@ -3085,7 +3085,7 @@
       </c>
       <c r="C103" s="5">
         <f>SUM(D$4:D103)</f>
-        <v>1998470</v>
+        <v>2000310</v>
       </c>
       <c r="D103" s="5">
         <v>77135</v>
@@ -3103,7 +3103,7 @@
       </c>
       <c r="C104" s="5">
         <f>SUM(D$4:D104)</f>
-        <v>2083320</v>
+        <v>2085160</v>
       </c>
       <c r="D104" s="5">
         <v>84850</v>
@@ -3121,7 +3121,7 @@
       </c>
       <c r="C105" s="5">
         <f>SUM(D$4:D105)</f>
-        <v>2175880</v>
+        <v>2177720</v>
       </c>
       <c r="D105" s="5">
         <v>92560</v>
@@ -3139,7 +3139,7 @@
       </c>
       <c r="C106" s="5">
         <f>SUM(D$4:D106)</f>
-        <v>2276155</v>
+        <v>2277995</v>
       </c>
       <c r="D106" s="5">
         <v>100275</v>
@@ -3157,7 +3157,7 @@
       </c>
       <c r="C107" s="5">
         <f>SUM(D$4:D107)</f>
-        <v>2384145</v>
+        <v>2385985</v>
       </c>
       <c r="D107" s="5">
         <v>107990</v>
@@ -3175,7 +3175,7 @@
       </c>
       <c r="C108" s="5">
         <f>SUM(D$4:D108)</f>
-        <v>2499850</v>
+        <v>2501690</v>
       </c>
       <c r="D108" s="5">
         <v>115705</v>
@@ -3193,7 +3193,7 @@
       </c>
       <c r="C109" s="5">
         <f>SUM(D$4:D109)</f>
-        <v>2623265</v>
+        <v>2625105</v>
       </c>
       <c r="D109" s="5">
         <v>123415</v>
@@ -3211,7 +3211,7 @@
       </c>
       <c r="C110" s="5">
         <f>SUM(D$4:D110)</f>
-        <v>2754395</v>
+        <v>2756235</v>
       </c>
       <c r="D110" s="5">
         <v>131130</v>
@@ -3229,7 +3229,7 @@
       </c>
       <c r="C111" s="5">
         <f>SUM(D$4:D111)</f>
-        <v>2893240</v>
+        <v>2895080</v>
       </c>
       <c r="D111" s="5">
         <v>138845</v>
@@ -3247,7 +3247,7 @@
       </c>
       <c r="C112" s="5">
         <f>SUM(D$4:D112)</f>
-        <v>3047510</v>
+        <v>3049350</v>
       </c>
       <c r="D112" s="5">
         <v>154270</v>
@@ -3265,7 +3265,7 @@
       </c>
       <c r="C113" s="5">
         <f>SUM(D$4:D113)</f>
-        <v>3162125</v>
+        <v>3163965</v>
       </c>
       <c r="D113" s="5">
         <v>114615</v>
@@ -3283,7 +3283,7 @@
       </c>
       <c r="C114" s="5">
         <f>SUM(D$4:D114)</f>
-        <v>3288200</v>
+        <v>3290040</v>
       </c>
       <c r="D114" s="5">
         <v>126075</v>
@@ -3301,7 +3301,7 @@
       </c>
       <c r="C115" s="5">
         <f>SUM(D$4:D115)</f>
-        <v>3425735</v>
+        <v>3427575</v>
       </c>
       <c r="D115" s="5">
         <v>137535</v>
@@ -3319,7 +3319,7 @@
       </c>
       <c r="C116" s="5">
         <f>SUM(D$4:D116)</f>
-        <v>3574735</v>
+        <v>3576575</v>
       </c>
       <c r="D116" s="5">
         <v>149000</v>
@@ -3337,7 +3337,7 @@
       </c>
       <c r="C117" s="5">
         <f>SUM(D$4:D117)</f>
-        <v>3735195</v>
+        <v>3737035</v>
       </c>
       <c r="D117" s="5">
         <v>160460</v>
@@ -3355,7 +3355,7 @@
       </c>
       <c r="C118" s="5">
         <f>SUM(D$4:D118)</f>
-        <v>3907115</v>
+        <v>3908955</v>
       </c>
       <c r="D118" s="5">
         <v>171920</v>
@@ -3373,7 +3373,7 @@
       </c>
       <c r="C119" s="5">
         <f>SUM(D$4:D119)</f>
-        <v>4090500</v>
+        <v>4092340</v>
       </c>
       <c r="D119" s="5">
         <v>183385</v>
@@ -3391,7 +3391,7 @@
       </c>
       <c r="C120" s="5">
         <f>SUM(D$4:D120)</f>
-        <v>4285345</v>
+        <v>4287185</v>
       </c>
       <c r="D120" s="5">
         <v>194845</v>
@@ -3409,7 +3409,7 @@
       </c>
       <c r="C121" s="5">
         <f>SUM(D$4:D121)</f>
-        <v>4491650</v>
+        <v>4493490</v>
       </c>
       <c r="D121" s="5">
         <v>206305</v>
@@ -3427,7 +3427,7 @@
       </c>
       <c r="C122" s="5">
         <f>SUM(D$4:D122)</f>
-        <v>4720880</v>
+        <v>4722720</v>
       </c>
       <c r="D122" s="5">
         <v>229230</v>
@@ -3445,7 +3445,7 @@
       </c>
       <c r="C123" s="5">
         <f>SUM(D$4:D123)</f>
-        <v>4882650</v>
+        <v>4884490</v>
       </c>
       <c r="D123" s="5">
         <v>161770</v>
@@ -3463,7 +3463,7 @@
       </c>
       <c r="C124" s="5">
         <f>SUM(D$4:D124)</f>
-        <v>5060600</v>
+        <v>5062440</v>
       </c>
       <c r="D124" s="5">
         <v>177950</v>
@@ -3481,7 +3481,7 @@
       </c>
       <c r="C125" s="5">
         <f>SUM(D$4:D125)</f>
-        <v>5254725</v>
+        <v>5256565</v>
       </c>
       <c r="D125" s="5">
         <v>194125</v>
@@ -3499,7 +3499,7 @@
       </c>
       <c r="C126" s="5">
         <f>SUM(D$4:D126)</f>
-        <v>5465030</v>
+        <v>5466870</v>
       </c>
       <c r="D126" s="5">
         <v>210305</v>
@@ -3517,7 +3517,7 @@
       </c>
       <c r="C127" s="5">
         <f>SUM(D$4:D127)</f>
-        <v>5691510</v>
+        <v>5693350</v>
       </c>
       <c r="D127" s="5">
         <v>226480</v>
@@ -3535,7 +3535,7 @@
       </c>
       <c r="C128" s="5">
         <f>SUM(D$4:D128)</f>
-        <v>5934170</v>
+        <v>5936010</v>
       </c>
       <c r="D128" s="5">
         <v>242660</v>
@@ -3553,7 +3553,7 @@
       </c>
       <c r="C129" s="5">
         <f>SUM(D$4:D129)</f>
-        <v>6193005</v>
+        <v>6194845</v>
       </c>
       <c r="D129" s="5">
         <v>258835</v>
@@ -3571,7 +3571,7 @@
       </c>
       <c r="C130" s="5">
         <f>SUM(D$4:D130)</f>
-        <v>6468020</v>
+        <v>6469860</v>
       </c>
       <c r="D130" s="5">
         <v>275015</v>
@@ -3589,7 +3589,7 @@
       </c>
       <c r="C131" s="5">
         <f>SUM(D$4:D131)</f>
-        <v>6759210</v>
+        <v>6761050</v>
       </c>
       <c r="D131" s="5">
         <v>291190</v>
@@ -3607,7 +3607,7 @@
       </c>
       <c r="C132" s="5">
         <f>SUM(D$4:D132)</f>
-        <v>7082755</v>
+        <v>7084595</v>
       </c>
       <c r="D132" s="5">
         <v>323545</v>
@@ -3625,7 +3625,7 @@
       </c>
       <c r="C133" s="5">
         <f>SUM(D$4:D133)</f>
-        <v>7357685</v>
+        <v>7359525</v>
       </c>
       <c r="D133" s="5">
         <v>274930</v>
@@ -3643,7 +3643,7 @@
       </c>
       <c r="C134" s="5">
         <f>SUM(D$4:D134)</f>
-        <v>7660105</v>
+        <v>7661945</v>
       </c>
       <c r="D134" s="5">
         <v>302420</v>
@@ -3661,7 +3661,7 @@
       </c>
       <c r="C135" s="5">
         <f>SUM(D$4:D135)</f>
-        <v>7990020</v>
+        <v>7991860</v>
       </c>
       <c r="D135" s="5">
         <v>329915</v>
@@ -3679,7 +3679,7 @@
       </c>
       <c r="C136" s="5">
         <f>SUM(D$4:D136)</f>
-        <v>8347430</v>
+        <v>8349270</v>
       </c>
       <c r="D136" s="5">
         <v>357410</v>
@@ -3697,7 +3697,7 @@
       </c>
       <c r="C137" s="5">
         <f>SUM(D$4:D137)</f>
-        <v>8732330</v>
+        <v>8734170</v>
       </c>
       <c r="D137" s="5">
         <v>384900</v>
@@ -3715,7 +3715,7 @@
       </c>
       <c r="C138" s="5">
         <f>SUM(D$4:D138)</f>
-        <v>9144725</v>
+        <v>9146565</v>
       </c>
       <c r="D138" s="5">
         <v>412395</v>
@@ -3733,7 +3733,7 @@
       </c>
       <c r="C139" s="5">
         <f>SUM(D$4:D139)</f>
-        <v>9584615</v>
+        <v>9586455</v>
       </c>
       <c r="D139" s="5">
         <v>439890</v>
@@ -3751,7 +3751,7 @@
       </c>
       <c r="C140" s="5">
         <f>SUM(D$4:D140)</f>
-        <v>10051995</v>
+        <v>10053835</v>
       </c>
       <c r="D140" s="5">
         <v>467380</v>
@@ -3769,7 +3769,7 @@
       </c>
       <c r="C141" s="5">
         <f>SUM(D$4:D141)</f>
-        <v>10546870</v>
+        <v>10548710</v>
       </c>
       <c r="D141" s="5">
         <v>494875</v>
@@ -3787,7 +3787,7 @@
       </c>
       <c r="C142" s="5">
         <f>SUM(D$4:D142)</f>
-        <v>11096730</v>
+        <v>11098570</v>
       </c>
       <c r="D142" s="5">
         <v>549860</v>
@@ -3805,7 +3805,7 @@
       </c>
       <c r="C143" s="5">
         <f>SUM(D$4:D143)</f>
-        <v>11597585</v>
+        <v>11599425</v>
       </c>
       <c r="D143" s="5">
         <v>500855</v>
@@ -3823,7 +3823,7 @@
       </c>
       <c r="C144" s="5">
         <f>SUM(D$4:D144)</f>
-        <v>12148525</v>
+        <v>12150365</v>
       </c>
       <c r="D144" s="5">
         <v>550940</v>
@@ -3841,7 +3841,7 @@
       </c>
       <c r="C145" s="5">
         <f>SUM(D$4:D145)</f>
-        <v>12749550</v>
+        <v>12751390</v>
       </c>
       <c r="D145" s="5">
         <v>601025</v>
@@ -3859,7 +3859,7 @@
       </c>
       <c r="C146" s="5">
         <f>SUM(D$4:D146)</f>
-        <v>13400660</v>
+        <v>13402500</v>
       </c>
       <c r="D146" s="5">
         <v>651110</v>
@@ -3877,7 +3877,7 @@
       </c>
       <c r="C147" s="5">
         <f>SUM(D$4:D147)</f>
-        <v>14101855</v>
+        <v>14103695</v>
       </c>
       <c r="D147" s="5">
         <v>701195</v>
@@ -3895,7 +3895,7 @@
       </c>
       <c r="C148" s="5">
         <f>SUM(D$4:D148)</f>
-        <v>14853135</v>
+        <v>14854975</v>
       </c>
       <c r="D148" s="5">
         <v>751280</v>
@@ -3913,7 +3913,7 @@
       </c>
       <c r="C149" s="5">
         <f>SUM(D$4:D149)</f>
-        <v>15654500</v>
+        <v>15656340</v>
       </c>
       <c r="D149" s="5">
         <v>801365</v>
@@ -3931,7 +3931,7 @@
       </c>
       <c r="C150" s="5">
         <f>SUM(D$4:D150)</f>
-        <v>16505955</v>
+        <v>16507795</v>
       </c>
       <c r="D150" s="5">
         <v>851455</v>
@@ -3949,7 +3949,7 @@
       </c>
       <c r="C151" s="5">
         <f>SUM(D$4:D151)</f>
-        <v>17407495</v>
+        <v>17409335</v>
       </c>
       <c r="D151" s="5">
         <v>901540</v>
@@ -3967,7 +3967,7 @@
       </c>
       <c r="C152" s="5">
         <f>SUM(D$4:D152)</f>
-        <v>18409205</v>
+        <v>18411045</v>
       </c>
       <c r="D152" s="5">
         <v>1001710</v>
@@ -3985,7 +3985,7 @@
       </c>
       <c r="C153" s="5">
         <f>SUM(D$4:D153)</f>
-        <v>19511085</v>
+        <v>19512925</v>
       </c>
       <c r="D153" s="5">
         <v>1101880</v>
@@ -4998,8 +4998,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5182,18 +5182,16 @@
         <v>1</v>
       </c>
       <c r="D4" s="5">
-        <v>60</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>138</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="E4" s="5"/>
       <c r="F4" s="8"/>
       <c r="G4" s="5" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="H4" s="8"/>
       <c r="I4" s="8" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="J4" s="8" t="s">
         <v>137</v>

--- a/Excel/镇魂街/basicInfo.基础信息.xlsx
+++ b/Excel/镇魂街/basicInfo.基础信息.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WORK\CeHua\trunk\ZHJStaffSpace\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WORK\ExcelToLua\Excel\镇魂街\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78DDDFBB-D54E-4E38-9B85-5600ACCBFBA5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12465" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -18,7 +19,14 @@
     <sheet name="公告" sheetId="29" r:id="rId4"/>
     <sheet name="User表" sheetId="30" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -546,7 +554,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -760,20 +768,20 @@
     </xf>
   </cellXfs>
   <cellStyles count="14">
-    <cellStyle name="Grid" xfId="4"/>
-    <cellStyle name="Normal" xfId="7"/>
+    <cellStyle name="Grid" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Normal" xfId="7" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="8"/>
-    <cellStyle name="常规 3" xfId="10"/>
-    <cellStyle name="超链接 2" xfId="11"/>
-    <cellStyle name="大标题" xfId="6"/>
-    <cellStyle name="横向标题" xfId="1"/>
-    <cellStyle name="文本" xfId="9"/>
-    <cellStyle name="无效" xfId="12"/>
-    <cellStyle name="因变Grid" xfId="3"/>
-    <cellStyle name="英文标题" xfId="2"/>
-    <cellStyle name="中文标题" xfId="13"/>
-    <cellStyle name="纵向标题" xfId="5"/>
+    <cellStyle name="常规 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="常规 3" xfId="10" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="超链接 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="大标题" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="横向标题" xfId="1" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="文本" xfId="9" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="无效" xfId="12" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="因变Grid" xfId="3" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="英文标题" xfId="2" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="中文标题" xfId="13" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="纵向标题" xfId="5" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1045,7 +1053,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1229,11 +1237,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E153"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1303,10 +1311,10 @@
       </c>
       <c r="C4" s="5">
         <f>SUM(D$4:D4)</f>
-        <v>45</v>
+        <v>115</v>
       </c>
       <c r="D4" s="5">
-        <v>45</v>
+        <v>115</v>
       </c>
       <c r="E4" s="5">
         <v>1</v>
@@ -1321,10 +1329,10 @@
       </c>
       <c r="C5" s="5">
         <f>SUM(D$4:D5)</f>
-        <v>100</v>
+        <v>240</v>
       </c>
       <c r="D5" s="5">
-        <v>55</v>
+        <v>125</v>
       </c>
       <c r="E5" s="5">
         <v>1</v>
@@ -1339,10 +1347,10 @@
       </c>
       <c r="C6" s="5">
         <f>SUM(D$4:D6)</f>
-        <v>165</v>
+        <v>375</v>
       </c>
       <c r="D6" s="5">
-        <v>65</v>
+        <v>135</v>
       </c>
       <c r="E6" s="5">
         <v>1</v>
@@ -1357,10 +1365,10 @@
       </c>
       <c r="C7" s="5">
         <f>SUM(D$4:D7)</f>
-        <v>245</v>
+        <v>535</v>
       </c>
       <c r="D7" s="5">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="E7" s="5">
         <v>1</v>
@@ -1375,10 +1383,10 @@
       </c>
       <c r="C8" s="5">
         <f>SUM(D$4:D8)</f>
-        <v>335</v>
+        <v>715</v>
       </c>
       <c r="D8" s="5">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="E8" s="5">
         <v>1</v>
@@ -1393,10 +1401,10 @@
       </c>
       <c r="C9" s="5">
         <f>SUM(D$4:D9)</f>
-        <v>450</v>
+        <v>940</v>
       </c>
       <c r="D9" s="5">
-        <v>115</v>
+        <v>225</v>
       </c>
       <c r="E9" s="5">
         <v>1</v>
@@ -1411,10 +1419,10 @@
       </c>
       <c r="C10" s="5">
         <f>SUM(D$4:D10)</f>
-        <v>585</v>
+        <v>1210</v>
       </c>
       <c r="D10" s="5">
-        <v>135</v>
+        <v>270</v>
       </c>
       <c r="E10" s="5">
         <v>1</v>
@@ -1429,10 +1437,10 @@
       </c>
       <c r="C11" s="5">
         <f>SUM(D$4:D11)</f>
-        <v>745</v>
+        <v>1570</v>
       </c>
       <c r="D11" s="5">
-        <v>160</v>
+        <v>360</v>
       </c>
       <c r="E11" s="5">
         <v>1</v>
@@ -1447,10 +1455,10 @@
       </c>
       <c r="C12" s="5">
         <f>SUM(D$4:D12)</f>
-        <v>975</v>
+        <v>2020</v>
       </c>
       <c r="D12" s="5">
-        <v>230</v>
+        <v>450</v>
       </c>
       <c r="E12" s="5">
         <v>1</v>
@@ -1465,10 +1473,10 @@
       </c>
       <c r="C13" s="5">
         <f>SUM(D$4:D13)</f>
-        <v>1295</v>
+        <v>2495</v>
       </c>
       <c r="D13" s="5">
-        <v>320</v>
+        <v>475</v>
       </c>
       <c r="E13" s="5">
         <v>1</v>
@@ -1483,10 +1491,10 @@
       </c>
       <c r="C14" s="5">
         <f>SUM(D$4:D14)</f>
-        <v>1650</v>
+        <v>3020</v>
       </c>
       <c r="D14" s="5">
-        <v>355</v>
+        <v>525</v>
       </c>
       <c r="E14" s="5">
         <v>1</v>
@@ -1501,10 +1509,10 @@
       </c>
       <c r="C15" s="5">
         <f>SUM(D$4:D15)</f>
-        <v>2035</v>
+        <v>3590</v>
       </c>
       <c r="D15" s="5">
-        <v>385</v>
+        <v>570</v>
       </c>
       <c r="E15" s="5">
         <v>1</v>
@@ -1519,10 +1527,10 @@
       </c>
       <c r="C16" s="5">
         <f>SUM(D$4:D16)</f>
-        <v>2455</v>
+        <v>4210</v>
       </c>
       <c r="D16" s="5">
-        <v>420</v>
+        <v>620</v>
       </c>
       <c r="E16" s="5">
         <v>1</v>
@@ -1537,10 +1545,10 @@
       </c>
       <c r="C17" s="5">
         <f>SUM(D$4:D17)</f>
-        <v>2905</v>
+        <v>4875</v>
       </c>
       <c r="D17" s="5">
-        <v>450</v>
+        <v>665</v>
       </c>
       <c r="E17" s="5">
         <v>1</v>
@@ -1555,10 +1563,10 @@
       </c>
       <c r="C18" s="5">
         <f>SUM(D$4:D18)</f>
-        <v>3390</v>
+        <v>5590</v>
       </c>
       <c r="D18" s="5">
-        <v>485</v>
+        <v>715</v>
       </c>
       <c r="E18" s="5">
         <v>1</v>
@@ -1573,10 +1581,10 @@
       </c>
       <c r="C19" s="5">
         <f>SUM(D$4:D19)</f>
-        <v>3905</v>
+        <v>6350</v>
       </c>
       <c r="D19" s="5">
-        <v>515</v>
+        <v>760</v>
       </c>
       <c r="E19" s="5">
         <v>1</v>
@@ -1591,10 +1599,10 @@
       </c>
       <c r="C20" s="5">
         <f>SUM(D$4:D20)</f>
-        <v>4455</v>
+        <v>7160</v>
       </c>
       <c r="D20" s="5">
-        <v>550</v>
+        <v>810</v>
       </c>
       <c r="E20" s="5">
         <v>1</v>
@@ -1609,10 +1617,10 @@
       </c>
       <c r="C21" s="5">
         <f>SUM(D$4:D21)</f>
-        <v>5035</v>
+        <v>8015</v>
       </c>
       <c r="D21" s="5">
-        <v>580</v>
+        <v>855</v>
       </c>
       <c r="E21" s="5">
         <v>1</v>
@@ -1627,10 +1635,10 @@
       </c>
       <c r="C22" s="5">
         <f>SUM(D$4:D22)</f>
-        <v>5680</v>
+        <v>8970</v>
       </c>
       <c r="D22" s="5">
-        <v>645</v>
+        <v>955</v>
       </c>
       <c r="E22" s="5">
         <v>1</v>
@@ -1645,10 +1653,10 @@
       </c>
       <c r="C23" s="5">
         <f>SUM(D$4:D23)</f>
-        <v>6275</v>
+        <v>9860</v>
       </c>
       <c r="D23" s="5">
-        <v>595</v>
+        <v>890</v>
       </c>
       <c r="E23" s="5">
         <v>1</v>
@@ -1663,10 +1671,10 @@
       </c>
       <c r="C24" s="5">
         <f>SUM(D$4:D24)</f>
-        <v>6930</v>
+        <v>10840</v>
       </c>
       <c r="D24" s="5">
-        <v>655</v>
+        <v>980</v>
       </c>
       <c r="E24" s="5">
         <v>1</v>
@@ -1681,10 +1689,10 @@
       </c>
       <c r="C25" s="5">
         <f>SUM(D$4:D25)</f>
-        <v>7645</v>
+        <v>11910</v>
       </c>
       <c r="D25" s="5">
-        <v>715</v>
+        <v>1070</v>
       </c>
       <c r="E25" s="5">
         <v>1</v>
@@ -1699,10 +1707,10 @@
       </c>
       <c r="C26" s="5">
         <f>SUM(D$4:D26)</f>
-        <v>8420</v>
+        <v>13065</v>
       </c>
       <c r="D26" s="5">
-        <v>775</v>
+        <v>1155</v>
       </c>
       <c r="E26" s="5">
         <v>1</v>
@@ -1717,10 +1725,10 @@
       </c>
       <c r="C27" s="5">
         <f>SUM(D$4:D27)</f>
-        <v>9255</v>
+        <v>14310</v>
       </c>
       <c r="D27" s="5">
-        <v>835</v>
+        <v>1245</v>
       </c>
       <c r="E27" s="5">
         <v>1</v>
@@ -1735,10 +1743,10 @@
       </c>
       <c r="C28" s="5">
         <f>SUM(D$4:D28)</f>
-        <v>10150</v>
+        <v>15645</v>
       </c>
       <c r="D28" s="5">
-        <v>895</v>
+        <v>1335</v>
       </c>
       <c r="E28" s="5">
         <v>1</v>
@@ -1753,10 +1761,10 @@
       </c>
       <c r="C29" s="5">
         <f>SUM(D$4:D29)</f>
-        <v>11105</v>
+        <v>17070</v>
       </c>
       <c r="D29" s="5">
-        <v>955</v>
+        <v>1425</v>
       </c>
       <c r="E29" s="5">
         <v>1</v>
@@ -1771,10 +1779,10 @@
       </c>
       <c r="C30" s="5">
         <f>SUM(D$4:D30)</f>
-        <v>12120</v>
+        <v>18585</v>
       </c>
       <c r="D30" s="5">
-        <v>1015</v>
+        <v>1515</v>
       </c>
       <c r="E30" s="5">
         <v>1</v>
@@ -1789,10 +1797,10 @@
       </c>
       <c r="C31" s="5">
         <f>SUM(D$4:D31)</f>
-        <v>13195</v>
+        <v>20190</v>
       </c>
       <c r="D31" s="5">
-        <v>1075</v>
+        <v>1605</v>
       </c>
       <c r="E31" s="5">
         <v>1</v>
@@ -1807,10 +1815,10 @@
       </c>
       <c r="C32" s="5">
         <f>SUM(D$4:D32)</f>
-        <v>14385</v>
+        <v>21970</v>
       </c>
       <c r="D32" s="5">
-        <v>1190</v>
+        <v>1780</v>
       </c>
       <c r="E32" s="5">
         <v>1</v>
@@ -1825,10 +1833,10 @@
       </c>
       <c r="C33" s="5">
         <f>SUM(D$4:D33)</f>
-        <v>15945</v>
+        <v>24125</v>
       </c>
       <c r="D33" s="5">
-        <v>1560</v>
+        <v>2155</v>
       </c>
       <c r="E33" s="5">
         <v>1</v>
@@ -1843,10 +1851,10 @@
       </c>
       <c r="C34" s="5">
         <f>SUM(D$4:D34)</f>
-        <v>17820</v>
+        <v>26715</v>
       </c>
       <c r="D34" s="5">
-        <v>1875</v>
+        <v>2590</v>
       </c>
       <c r="E34" s="5">
         <v>1</v>
@@ -1861,10 +1869,10 @@
       </c>
       <c r="C35" s="5">
         <f>SUM(D$4:D35)</f>
-        <v>20005</v>
+        <v>29735</v>
       </c>
       <c r="D35" s="5">
-        <v>2185</v>
+        <v>3020</v>
       </c>
       <c r="E35" s="5">
         <v>1</v>
@@ -1879,10 +1887,10 @@
       </c>
       <c r="C36" s="5">
         <f>SUM(D$4:D36)</f>
-        <v>22505</v>
+        <v>33185</v>
       </c>
       <c r="D36" s="5">
-        <v>2500</v>
+        <v>3450</v>
       </c>
       <c r="E36" s="5">
         <v>1</v>
@@ -1897,10 +1905,10 @@
       </c>
       <c r="C37" s="5">
         <f>SUM(D$4:D37)</f>
-        <v>25315</v>
+        <v>37070</v>
       </c>
       <c r="D37" s="5">
-        <v>2810</v>
+        <v>3885</v>
       </c>
       <c r="E37" s="5">
         <v>1</v>
@@ -1915,10 +1923,10 @@
       </c>
       <c r="C38" s="5">
         <f>SUM(D$4:D38)</f>
-        <v>28440</v>
+        <v>41385</v>
       </c>
       <c r="D38" s="5">
-        <v>3125</v>
+        <v>4315</v>
       </c>
       <c r="E38" s="5">
         <v>1</v>
@@ -1933,10 +1941,10 @@
       </c>
       <c r="C39" s="5">
         <f>SUM(D$4:D39)</f>
-        <v>31875</v>
+        <v>46130</v>
       </c>
       <c r="D39" s="5">
-        <v>3435</v>
+        <v>4745</v>
       </c>
       <c r="E39" s="5">
         <v>1</v>
@@ -1951,10 +1959,10 @@
       </c>
       <c r="C40" s="5">
         <f>SUM(D$4:D40)</f>
-        <v>35625</v>
+        <v>51310</v>
       </c>
       <c r="D40" s="5">
-        <v>3750</v>
+        <v>5180</v>
       </c>
       <c r="E40" s="5">
         <v>1</v>
@@ -1969,10 +1977,10 @@
       </c>
       <c r="C41" s="5">
         <f>SUM(D$4:D41)</f>
-        <v>39690</v>
+        <v>56920</v>
       </c>
       <c r="D41" s="5">
-        <v>4065</v>
+        <v>5610</v>
       </c>
       <c r="E41" s="5">
         <v>1</v>
@@ -1987,10 +1995,10 @@
       </c>
       <c r="C42" s="5">
         <f>SUM(D$4:D42)</f>
-        <v>44380</v>
+        <v>63395</v>
       </c>
       <c r="D42" s="5">
-        <v>4690</v>
+        <v>6475</v>
       </c>
       <c r="E42" s="5">
         <v>1</v>
@@ -2005,7 +2013,7 @@
       </c>
       <c r="C43" s="5">
         <f>SUM(D$4:D43)</f>
-        <v>50710</v>
+        <v>69725</v>
       </c>
       <c r="D43" s="5">
         <v>6330</v>
@@ -2023,7 +2031,7 @@
       </c>
       <c r="C44" s="5">
         <f>SUM(D$4:D44)</f>
-        <v>57675</v>
+        <v>76690</v>
       </c>
       <c r="D44" s="5">
         <v>6965</v>
@@ -2041,7 +2049,7 @@
       </c>
       <c r="C45" s="5">
         <f>SUM(D$4:D45)</f>
-        <v>65275</v>
+        <v>84290</v>
       </c>
       <c r="D45" s="5">
         <v>7600</v>
@@ -2059,7 +2067,7 @@
       </c>
       <c r="C46" s="5">
         <f>SUM(D$4:D46)</f>
-        <v>73505</v>
+        <v>92520</v>
       </c>
       <c r="D46" s="5">
         <v>8230</v>
@@ -2077,7 +2085,7 @@
       </c>
       <c r="C47" s="5">
         <f>SUM(D$4:D47)</f>
-        <v>82370</v>
+        <v>101385</v>
       </c>
       <c r="D47" s="5">
         <v>8865</v>
@@ -2095,7 +2103,7 @@
       </c>
       <c r="C48" s="5">
         <f>SUM(D$4:D48)</f>
-        <v>91870</v>
+        <v>110885</v>
       </c>
       <c r="D48" s="5">
         <v>9500</v>
@@ -2113,7 +2121,7 @@
       </c>
       <c r="C49" s="5">
         <f>SUM(D$4:D49)</f>
-        <v>102000</v>
+        <v>121015</v>
       </c>
       <c r="D49" s="5">
         <v>10130</v>
@@ -2131,7 +2139,7 @@
       </c>
       <c r="C50" s="5">
         <f>SUM(D$4:D50)</f>
-        <v>112765</v>
+        <v>131780</v>
       </c>
       <c r="D50" s="5">
         <v>10765</v>
@@ -2149,7 +2157,7 @@
       </c>
       <c r="C51" s="5">
         <f>SUM(D$4:D51)</f>
-        <v>124165</v>
+        <v>143180</v>
       </c>
       <c r="D51" s="5">
         <v>11400</v>
@@ -2167,7 +2175,7 @@
       </c>
       <c r="C52" s="5">
         <f>SUM(D$4:D52)</f>
-        <v>136830</v>
+        <v>155845</v>
       </c>
       <c r="D52" s="5">
         <v>12665</v>
@@ -2185,7 +2193,7 @@
       </c>
       <c r="C53" s="5">
         <f>SUM(D$4:D53)</f>
-        <v>145990</v>
+        <v>165005</v>
       </c>
       <c r="D53" s="5">
         <v>9160</v>
@@ -2203,7 +2211,7 @@
       </c>
       <c r="C54" s="5">
         <f>SUM(D$4:D54)</f>
-        <v>156065</v>
+        <v>175080</v>
       </c>
       <c r="D54" s="5">
         <v>10075</v>
@@ -2221,7 +2229,7 @@
       </c>
       <c r="C55" s="5">
         <f>SUM(D$4:D55)</f>
-        <v>167055</v>
+        <v>186070</v>
       </c>
       <c r="D55" s="5">
         <v>10990</v>
@@ -2239,7 +2247,7 @@
       </c>
       <c r="C56" s="5">
         <f>SUM(D$4:D56)</f>
-        <v>178960</v>
+        <v>197975</v>
       </c>
       <c r="D56" s="5">
         <v>11905</v>
@@ -2257,7 +2265,7 @@
       </c>
       <c r="C57" s="5">
         <f>SUM(D$4:D57)</f>
-        <v>191785</v>
+        <v>210800</v>
       </c>
       <c r="D57" s="5">
         <v>12825</v>
@@ -2275,7 +2283,7 @@
       </c>
       <c r="C58" s="5">
         <f>SUM(D$4:D58)</f>
-        <v>205525</v>
+        <v>224540</v>
       </c>
       <c r="D58" s="5">
         <v>13740</v>
@@ -2293,7 +2301,7 @@
       </c>
       <c r="C59" s="5">
         <f>SUM(D$4:D59)</f>
-        <v>220180</v>
+        <v>239195</v>
       </c>
       <c r="D59" s="5">
         <v>14655</v>
@@ -2311,7 +2319,7 @@
       </c>
       <c r="C60" s="5">
         <f>SUM(D$4:D60)</f>
-        <v>235750</v>
+        <v>254765</v>
       </c>
       <c r="D60" s="5">
         <v>15570</v>
@@ -2329,7 +2337,7 @@
       </c>
       <c r="C61" s="5">
         <f>SUM(D$4:D61)</f>
-        <v>252235</v>
+        <v>271250</v>
       </c>
       <c r="D61" s="5">
         <v>16485</v>
@@ -2347,7 +2355,7 @@
       </c>
       <c r="C62" s="5">
         <f>SUM(D$4:D62)</f>
-        <v>270555</v>
+        <v>289570</v>
       </c>
       <c r="D62" s="5">
         <v>18320</v>
@@ -2365,7 +2373,7 @@
       </c>
       <c r="C63" s="5">
         <f>SUM(D$4:D63)</f>
-        <v>285555</v>
+        <v>304570</v>
       </c>
       <c r="D63" s="5">
         <v>15000</v>
@@ -2383,7 +2391,7 @@
       </c>
       <c r="C64" s="5">
         <f>SUM(D$4:D64)</f>
-        <v>302055</v>
+        <v>321070</v>
       </c>
       <c r="D64" s="5">
         <v>16500</v>
@@ -2401,7 +2409,7 @@
       </c>
       <c r="C65" s="5">
         <f>SUM(D$4:D65)</f>
-        <v>320055</v>
+        <v>339070</v>
       </c>
       <c r="D65" s="5">
         <v>18000</v>
@@ -2419,7 +2427,7 @@
       </c>
       <c r="C66" s="5">
         <f>SUM(D$4:D66)</f>
-        <v>339555</v>
+        <v>358570</v>
       </c>
       <c r="D66" s="5">
         <v>19500</v>
@@ -2437,7 +2445,7 @@
       </c>
       <c r="C67" s="5">
         <f>SUM(D$4:D67)</f>
-        <v>360555</v>
+        <v>379570</v>
       </c>
       <c r="D67" s="5">
         <v>21000</v>
@@ -2455,7 +2463,7 @@
       </c>
       <c r="C68" s="5">
         <f>SUM(D$4:D68)</f>
-        <v>383055</v>
+        <v>402070</v>
       </c>
       <c r="D68" s="5">
         <v>22500</v>
@@ -2473,7 +2481,7 @@
       </c>
       <c r="C69" s="5">
         <f>SUM(D$4:D69)</f>
-        <v>407055</v>
+        <v>426070</v>
       </c>
       <c r="D69" s="5">
         <v>24000</v>
@@ -2491,7 +2499,7 @@
       </c>
       <c r="C70" s="5">
         <f>SUM(D$4:D70)</f>
-        <v>432555</v>
+        <v>451570</v>
       </c>
       <c r="D70" s="5">
         <v>25500</v>
@@ -2509,7 +2517,7 @@
       </c>
       <c r="C71" s="5">
         <f>SUM(D$4:D71)</f>
-        <v>459555</v>
+        <v>478570</v>
       </c>
       <c r="D71" s="5">
         <v>27000</v>
@@ -2527,7 +2535,7 @@
       </c>
       <c r="C72" s="5">
         <f>SUM(D$4:D72)</f>
-        <v>489555</v>
+        <v>508570</v>
       </c>
       <c r="D72" s="5">
         <v>30000</v>
@@ -2545,7 +2553,7 @@
       </c>
       <c r="C73" s="5">
         <f>SUM(D$4:D73)</f>
-        <v>509790</v>
+        <v>528805</v>
       </c>
       <c r="D73" s="5">
         <v>20235</v>
@@ -2563,7 +2571,7 @@
       </c>
       <c r="C74" s="5">
         <f>SUM(D$4:D74)</f>
-        <v>532050</v>
+        <v>551065</v>
       </c>
       <c r="D74" s="5">
         <v>22260</v>
@@ -2581,7 +2589,7 @@
       </c>
       <c r="C75" s="5">
         <f>SUM(D$4:D75)</f>
-        <v>556335</v>
+        <v>575350</v>
       </c>
       <c r="D75" s="5">
         <v>24285</v>
@@ -2599,7 +2607,7 @@
       </c>
       <c r="C76" s="5">
         <f>SUM(D$4:D76)</f>
-        <v>582645</v>
+        <v>601660</v>
       </c>
       <c r="D76" s="5">
         <v>26310</v>
@@ -2617,7 +2625,7 @@
       </c>
       <c r="C77" s="5">
         <f>SUM(D$4:D77)</f>
-        <v>610980</v>
+        <v>629995</v>
       </c>
       <c r="D77" s="5">
         <v>28335</v>
@@ -2635,7 +2643,7 @@
       </c>
       <c r="C78" s="5">
         <f>SUM(D$4:D78)</f>
-        <v>641335</v>
+        <v>660350</v>
       </c>
       <c r="D78" s="5">
         <v>30355</v>
@@ -2653,7 +2661,7 @@
       </c>
       <c r="C79" s="5">
         <f>SUM(D$4:D79)</f>
-        <v>673715</v>
+        <v>692730</v>
       </c>
       <c r="D79" s="5">
         <v>32380</v>
@@ -2671,7 +2679,7 @@
       </c>
       <c r="C80" s="5">
         <f>SUM(D$4:D80)</f>
-        <v>708120</v>
+        <v>727135</v>
       </c>
       <c r="D80" s="5">
         <v>34405</v>
@@ -2689,7 +2697,7 @@
       </c>
       <c r="C81" s="5">
         <f>SUM(D$4:D81)</f>
-        <v>744550</v>
+        <v>763565</v>
       </c>
       <c r="D81" s="5">
         <v>36430</v>
@@ -2707,7 +2715,7 @@
       </c>
       <c r="C82" s="5">
         <f>SUM(D$4:D82)</f>
-        <v>785025</v>
+        <v>804040</v>
       </c>
       <c r="D82" s="5">
         <v>40475</v>
@@ -2725,7 +2733,7 @@
       </c>
       <c r="C83" s="5">
         <f>SUM(D$4:D83)</f>
-        <v>815230</v>
+        <v>834245</v>
       </c>
       <c r="D83" s="5">
         <v>30205</v>
@@ -2743,7 +2751,7 @@
       </c>
       <c r="C84" s="5">
         <f>SUM(D$4:D84)</f>
-        <v>848455</v>
+        <v>867470</v>
       </c>
       <c r="D84" s="5">
         <v>33225</v>
@@ -2761,7 +2769,7 @@
       </c>
       <c r="C85" s="5">
         <f>SUM(D$4:D85)</f>
-        <v>884700</v>
+        <v>903715</v>
       </c>
       <c r="D85" s="5">
         <v>36245</v>
@@ -2779,7 +2787,7 @@
       </c>
       <c r="C86" s="5">
         <f>SUM(D$4:D86)</f>
-        <v>923965</v>
+        <v>942980</v>
       </c>
       <c r="D86" s="5">
         <v>39265</v>
@@ -2797,7 +2805,7 @@
       </c>
       <c r="C87" s="5">
         <f>SUM(D$4:D87)</f>
-        <v>966250</v>
+        <v>985265</v>
       </c>
       <c r="D87" s="5">
         <v>42285</v>
@@ -2815,7 +2823,7 @@
       </c>
       <c r="C88" s="5">
         <f>SUM(D$4:D88)</f>
-        <v>1011555</v>
+        <v>1030570</v>
       </c>
       <c r="D88" s="5">
         <v>45305</v>
@@ -2833,7 +2841,7 @@
       </c>
       <c r="C89" s="5">
         <f>SUM(D$4:D89)</f>
-        <v>1059880</v>
+        <v>1078895</v>
       </c>
       <c r="D89" s="5">
         <v>48325</v>
@@ -2851,7 +2859,7 @@
       </c>
       <c r="C90" s="5">
         <f>SUM(D$4:D90)</f>
-        <v>1111225</v>
+        <v>1130240</v>
       </c>
       <c r="D90" s="5">
         <v>51345</v>
@@ -2869,7 +2877,7 @@
       </c>
       <c r="C91" s="5">
         <f>SUM(D$4:D91)</f>
-        <v>1165590</v>
+        <v>1184605</v>
       </c>
       <c r="D91" s="5">
         <v>54365</v>
@@ -2887,7 +2895,7 @@
       </c>
       <c r="C92" s="5">
         <f>SUM(D$4:D92)</f>
-        <v>1226000</v>
+        <v>1245015</v>
       </c>
       <c r="D92" s="5">
         <v>60410</v>
@@ -2905,7 +2913,7 @@
       </c>
       <c r="C93" s="5">
         <f>SUM(D$4:D93)</f>
-        <v>1273750</v>
+        <v>1292765</v>
       </c>
       <c r="D93" s="5">
         <v>47750</v>
@@ -2923,7 +2931,7 @@
       </c>
       <c r="C94" s="5">
         <f>SUM(D$4:D94)</f>
-        <v>1326275</v>
+        <v>1345290</v>
       </c>
       <c r="D94" s="5">
         <v>52525</v>
@@ -2941,7 +2949,7 @@
       </c>
       <c r="C95" s="5">
         <f>SUM(D$4:D95)</f>
-        <v>1383575</v>
+        <v>1402590</v>
       </c>
       <c r="D95" s="5">
         <v>57300</v>
@@ -2959,7 +2967,7 @@
       </c>
       <c r="C96" s="5">
         <f>SUM(D$4:D96)</f>
-        <v>1445650</v>
+        <v>1464665</v>
       </c>
       <c r="D96" s="5">
         <v>62075</v>
@@ -2977,7 +2985,7 @@
       </c>
       <c r="C97" s="5">
         <f>SUM(D$4:D97)</f>
-        <v>1512500</v>
+        <v>1531515</v>
       </c>
       <c r="D97" s="5">
         <v>66850</v>
@@ -2995,7 +3003,7 @@
       </c>
       <c r="C98" s="5">
         <f>SUM(D$4:D98)</f>
-        <v>1584130</v>
+        <v>1603145</v>
       </c>
       <c r="D98" s="5">
         <v>71630</v>
@@ -3013,7 +3021,7 @@
       </c>
       <c r="C99" s="5">
         <f>SUM(D$4:D99)</f>
-        <v>1660535</v>
+        <v>1679550</v>
       </c>
       <c r="D99" s="5">
         <v>76405</v>
@@ -3031,7 +3039,7 @@
       </c>
       <c r="C100" s="5">
         <f>SUM(D$4:D100)</f>
-        <v>1741715</v>
+        <v>1760730</v>
       </c>
       <c r="D100" s="5">
         <v>81180</v>
@@ -3049,7 +3057,7 @@
       </c>
       <c r="C101" s="5">
         <f>SUM(D$4:D101)</f>
-        <v>1827670</v>
+        <v>1846685</v>
       </c>
       <c r="D101" s="5">
         <v>85955</v>
@@ -3067,7 +3075,7 @@
       </c>
       <c r="C102" s="5">
         <f>SUM(D$4:D102)</f>
-        <v>1923175</v>
+        <v>1942190</v>
       </c>
       <c r="D102" s="5">
         <v>95505</v>
@@ -3085,7 +3093,7 @@
       </c>
       <c r="C103" s="5">
         <f>SUM(D$4:D103)</f>
-        <v>2000310</v>
+        <v>2019325</v>
       </c>
       <c r="D103" s="5">
         <v>77135</v>
@@ -3103,7 +3111,7 @@
       </c>
       <c r="C104" s="5">
         <f>SUM(D$4:D104)</f>
-        <v>2085160</v>
+        <v>2104175</v>
       </c>
       <c r="D104" s="5">
         <v>84850</v>
@@ -3121,7 +3129,7 @@
       </c>
       <c r="C105" s="5">
         <f>SUM(D$4:D105)</f>
-        <v>2177720</v>
+        <v>2196735</v>
       </c>
       <c r="D105" s="5">
         <v>92560</v>
@@ -3139,7 +3147,7 @@
       </c>
       <c r="C106" s="5">
         <f>SUM(D$4:D106)</f>
-        <v>2277995</v>
+        <v>2297010</v>
       </c>
       <c r="D106" s="5">
         <v>100275</v>
@@ -3157,7 +3165,7 @@
       </c>
       <c r="C107" s="5">
         <f>SUM(D$4:D107)</f>
-        <v>2385985</v>
+        <v>2405000</v>
       </c>
       <c r="D107" s="5">
         <v>107990</v>
@@ -3175,7 +3183,7 @@
       </c>
       <c r="C108" s="5">
         <f>SUM(D$4:D108)</f>
-        <v>2501690</v>
+        <v>2520705</v>
       </c>
       <c r="D108" s="5">
         <v>115705</v>
@@ -3193,7 +3201,7 @@
       </c>
       <c r="C109" s="5">
         <f>SUM(D$4:D109)</f>
-        <v>2625105</v>
+        <v>2644120</v>
       </c>
       <c r="D109" s="5">
         <v>123415</v>
@@ -3211,7 +3219,7 @@
       </c>
       <c r="C110" s="5">
         <f>SUM(D$4:D110)</f>
-        <v>2756235</v>
+        <v>2775250</v>
       </c>
       <c r="D110" s="5">
         <v>131130</v>
@@ -3229,7 +3237,7 @@
       </c>
       <c r="C111" s="5">
         <f>SUM(D$4:D111)</f>
-        <v>2895080</v>
+        <v>2914095</v>
       </c>
       <c r="D111" s="5">
         <v>138845</v>
@@ -3247,7 +3255,7 @@
       </c>
       <c r="C112" s="5">
         <f>SUM(D$4:D112)</f>
-        <v>3049350</v>
+        <v>3068365</v>
       </c>
       <c r="D112" s="5">
         <v>154270</v>
@@ -3265,7 +3273,7 @@
       </c>
       <c r="C113" s="5">
         <f>SUM(D$4:D113)</f>
-        <v>3163965</v>
+        <v>3182980</v>
       </c>
       <c r="D113" s="5">
         <v>114615</v>
@@ -3283,7 +3291,7 @@
       </c>
       <c r="C114" s="5">
         <f>SUM(D$4:D114)</f>
-        <v>3290040</v>
+        <v>3309055</v>
       </c>
       <c r="D114" s="5">
         <v>126075</v>
@@ -3301,7 +3309,7 @@
       </c>
       <c r="C115" s="5">
         <f>SUM(D$4:D115)</f>
-        <v>3427575</v>
+        <v>3446590</v>
       </c>
       <c r="D115" s="5">
         <v>137535</v>
@@ -3319,7 +3327,7 @@
       </c>
       <c r="C116" s="5">
         <f>SUM(D$4:D116)</f>
-        <v>3576575</v>
+        <v>3595590</v>
       </c>
       <c r="D116" s="5">
         <v>149000</v>
@@ -3337,7 +3345,7 @@
       </c>
       <c r="C117" s="5">
         <f>SUM(D$4:D117)</f>
-        <v>3737035</v>
+        <v>3756050</v>
       </c>
       <c r="D117" s="5">
         <v>160460</v>
@@ -3355,7 +3363,7 @@
       </c>
       <c r="C118" s="5">
         <f>SUM(D$4:D118)</f>
-        <v>3908955</v>
+        <v>3927970</v>
       </c>
       <c r="D118" s="5">
         <v>171920</v>
@@ -3373,7 +3381,7 @@
       </c>
       <c r="C119" s="5">
         <f>SUM(D$4:D119)</f>
-        <v>4092340</v>
+        <v>4111355</v>
       </c>
       <c r="D119" s="5">
         <v>183385</v>
@@ -3391,7 +3399,7 @@
       </c>
       <c r="C120" s="5">
         <f>SUM(D$4:D120)</f>
-        <v>4287185</v>
+        <v>4306200</v>
       </c>
       <c r="D120" s="5">
         <v>194845</v>
@@ -3409,7 +3417,7 @@
       </c>
       <c r="C121" s="5">
         <f>SUM(D$4:D121)</f>
-        <v>4493490</v>
+        <v>4512505</v>
       </c>
       <c r="D121" s="5">
         <v>206305</v>
@@ -3427,7 +3435,7 @@
       </c>
       <c r="C122" s="5">
         <f>SUM(D$4:D122)</f>
-        <v>4722720</v>
+        <v>4741735</v>
       </c>
       <c r="D122" s="5">
         <v>229230</v>
@@ -3445,7 +3453,7 @@
       </c>
       <c r="C123" s="5">
         <f>SUM(D$4:D123)</f>
-        <v>4884490</v>
+        <v>4903505</v>
       </c>
       <c r="D123" s="5">
         <v>161770</v>
@@ -3463,7 +3471,7 @@
       </c>
       <c r="C124" s="5">
         <f>SUM(D$4:D124)</f>
-        <v>5062440</v>
+        <v>5081455</v>
       </c>
       <c r="D124" s="5">
         <v>177950</v>
@@ -3481,7 +3489,7 @@
       </c>
       <c r="C125" s="5">
         <f>SUM(D$4:D125)</f>
-        <v>5256565</v>
+        <v>5275580</v>
       </c>
       <c r="D125" s="5">
         <v>194125</v>
@@ -3499,7 +3507,7 @@
       </c>
       <c r="C126" s="5">
         <f>SUM(D$4:D126)</f>
-        <v>5466870</v>
+        <v>5485885</v>
       </c>
       <c r="D126" s="5">
         <v>210305</v>
@@ -3517,7 +3525,7 @@
       </c>
       <c r="C127" s="5">
         <f>SUM(D$4:D127)</f>
-        <v>5693350</v>
+        <v>5712365</v>
       </c>
       <c r="D127" s="5">
         <v>226480</v>
@@ -3535,7 +3543,7 @@
       </c>
       <c r="C128" s="5">
         <f>SUM(D$4:D128)</f>
-        <v>5936010</v>
+        <v>5955025</v>
       </c>
       <c r="D128" s="5">
         <v>242660</v>
@@ -3553,7 +3561,7 @@
       </c>
       <c r="C129" s="5">
         <f>SUM(D$4:D129)</f>
-        <v>6194845</v>
+        <v>6213860</v>
       </c>
       <c r="D129" s="5">
         <v>258835</v>
@@ -3571,7 +3579,7 @@
       </c>
       <c r="C130" s="5">
         <f>SUM(D$4:D130)</f>
-        <v>6469860</v>
+        <v>6488875</v>
       </c>
       <c r="D130" s="5">
         <v>275015</v>
@@ -3589,7 +3597,7 @@
       </c>
       <c r="C131" s="5">
         <f>SUM(D$4:D131)</f>
-        <v>6761050</v>
+        <v>6780065</v>
       </c>
       <c r="D131" s="5">
         <v>291190</v>
@@ -3607,7 +3615,7 @@
       </c>
       <c r="C132" s="5">
         <f>SUM(D$4:D132)</f>
-        <v>7084595</v>
+        <v>7103610</v>
       </c>
       <c r="D132" s="5">
         <v>323545</v>
@@ -3625,7 +3633,7 @@
       </c>
       <c r="C133" s="5">
         <f>SUM(D$4:D133)</f>
-        <v>7359525</v>
+        <v>7378540</v>
       </c>
       <c r="D133" s="5">
         <v>274930</v>
@@ -3643,7 +3651,7 @@
       </c>
       <c r="C134" s="5">
         <f>SUM(D$4:D134)</f>
-        <v>7661945</v>
+        <v>7680960</v>
       </c>
       <c r="D134" s="5">
         <v>302420</v>
@@ -3661,7 +3669,7 @@
       </c>
       <c r="C135" s="5">
         <f>SUM(D$4:D135)</f>
-        <v>7991860</v>
+        <v>8010875</v>
       </c>
       <c r="D135" s="5">
         <v>329915</v>
@@ -3679,7 +3687,7 @@
       </c>
       <c r="C136" s="5">
         <f>SUM(D$4:D136)</f>
-        <v>8349270</v>
+        <v>8368285</v>
       </c>
       <c r="D136" s="5">
         <v>357410</v>
@@ -3697,7 +3705,7 @@
       </c>
       <c r="C137" s="5">
         <f>SUM(D$4:D137)</f>
-        <v>8734170</v>
+        <v>8753185</v>
       </c>
       <c r="D137" s="5">
         <v>384900</v>
@@ -3715,7 +3723,7 @@
       </c>
       <c r="C138" s="5">
         <f>SUM(D$4:D138)</f>
-        <v>9146565</v>
+        <v>9165580</v>
       </c>
       <c r="D138" s="5">
         <v>412395</v>
@@ -3733,7 +3741,7 @@
       </c>
       <c r="C139" s="5">
         <f>SUM(D$4:D139)</f>
-        <v>9586455</v>
+        <v>9605470</v>
       </c>
       <c r="D139" s="5">
         <v>439890</v>
@@ -3751,7 +3759,7 @@
       </c>
       <c r="C140" s="5">
         <f>SUM(D$4:D140)</f>
-        <v>10053835</v>
+        <v>10072850</v>
       </c>
       <c r="D140" s="5">
         <v>467380</v>
@@ -3769,7 +3777,7 @@
       </c>
       <c r="C141" s="5">
         <f>SUM(D$4:D141)</f>
-        <v>10548710</v>
+        <v>10567725</v>
       </c>
       <c r="D141" s="5">
         <v>494875</v>
@@ -3787,7 +3795,7 @@
       </c>
       <c r="C142" s="5">
         <f>SUM(D$4:D142)</f>
-        <v>11098570</v>
+        <v>11117585</v>
       </c>
       <c r="D142" s="5">
         <v>549860</v>
@@ -3805,7 +3813,7 @@
       </c>
       <c r="C143" s="5">
         <f>SUM(D$4:D143)</f>
-        <v>11599425</v>
+        <v>11618440</v>
       </c>
       <c r="D143" s="5">
         <v>500855</v>
@@ -3823,7 +3831,7 @@
       </c>
       <c r="C144" s="5">
         <f>SUM(D$4:D144)</f>
-        <v>12150365</v>
+        <v>12169380</v>
       </c>
       <c r="D144" s="5">
         <v>550940</v>
@@ -3841,7 +3849,7 @@
       </c>
       <c r="C145" s="5">
         <f>SUM(D$4:D145)</f>
-        <v>12751390</v>
+        <v>12770405</v>
       </c>
       <c r="D145" s="5">
         <v>601025</v>
@@ -3859,7 +3867,7 @@
       </c>
       <c r="C146" s="5">
         <f>SUM(D$4:D146)</f>
-        <v>13402500</v>
+        <v>13421515</v>
       </c>
       <c r="D146" s="5">
         <v>651110</v>
@@ -3877,7 +3885,7 @@
       </c>
       <c r="C147" s="5">
         <f>SUM(D$4:D147)</f>
-        <v>14103695</v>
+        <v>14122710</v>
       </c>
       <c r="D147" s="5">
         <v>701195</v>
@@ -3895,7 +3903,7 @@
       </c>
       <c r="C148" s="5">
         <f>SUM(D$4:D148)</f>
-        <v>14854975</v>
+        <v>14873990</v>
       </c>
       <c r="D148" s="5">
         <v>751280</v>
@@ -3913,7 +3921,7 @@
       </c>
       <c r="C149" s="5">
         <f>SUM(D$4:D149)</f>
-        <v>15656340</v>
+        <v>15675355</v>
       </c>
       <c r="D149" s="5">
         <v>801365</v>
@@ -3931,7 +3939,7 @@
       </c>
       <c r="C150" s="5">
         <f>SUM(D$4:D150)</f>
-        <v>16507795</v>
+        <v>16526810</v>
       </c>
       <c r="D150" s="5">
         <v>851455</v>
@@ -3949,7 +3957,7 @@
       </c>
       <c r="C151" s="5">
         <f>SUM(D$4:D151)</f>
-        <v>17409335</v>
+        <v>17428350</v>
       </c>
       <c r="D151" s="5">
         <v>901540</v>
@@ -3967,7 +3975,7 @@
       </c>
       <c r="C152" s="5">
         <f>SUM(D$4:D152)</f>
-        <v>18411045</v>
+        <v>18430060</v>
       </c>
       <c r="D152" s="5">
         <v>1001710</v>
@@ -3985,7 +3993,7 @@
       </c>
       <c r="C153" s="5">
         <f>SUM(D$4:D153)</f>
-        <v>19512925</v>
+        <v>19531940</v>
       </c>
       <c r="D153" s="5">
         <v>1101880</v>
@@ -4001,7 +4009,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4859,7 +4867,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4995,10 +5003,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>

--- a/Excel/镇魂街/basicInfo.基础信息.xlsx
+++ b/Excel/镇魂街/basicInfo.基础信息.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WORK\ExcelToLua\Excel\镇魂街\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WORK\CeHua\trunk\ZHJStaffSpace\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78DDDFBB-D54E-4E38-9B85-5600ACCBFBA5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -19,7 +18,7 @@
     <sheet name="公告" sheetId="29" r:id="rId4"/>
     <sheet name="User表" sheetId="30" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -554,7 +553,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -768,20 +767,20 @@
     </xf>
   </cellXfs>
   <cellStyles count="14">
-    <cellStyle name="Grid" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Normal" xfId="7" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Grid" xfId="4"/>
+    <cellStyle name="Normal" xfId="7"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="常规 3" xfId="10" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="超链接 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="大标题" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="横向标题" xfId="1" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="文本" xfId="9" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="无效" xfId="12" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="因变Grid" xfId="3" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="英文标题" xfId="2" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="中文标题" xfId="13" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="纵向标题" xfId="5" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="常规 2" xfId="8"/>
+    <cellStyle name="常规 3" xfId="10"/>
+    <cellStyle name="超链接 2" xfId="11"/>
+    <cellStyle name="大标题" xfId="6"/>
+    <cellStyle name="横向标题" xfId="1"/>
+    <cellStyle name="文本" xfId="9"/>
+    <cellStyle name="无效" xfId="12"/>
+    <cellStyle name="因变Grid" xfId="3"/>
+    <cellStyle name="英文标题" xfId="2"/>
+    <cellStyle name="中文标题" xfId="13"/>
+    <cellStyle name="纵向标题" xfId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1053,7 +1052,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1237,11 +1236,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:D12"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1311,10 +1310,10 @@
       </c>
       <c r="C4" s="5">
         <f>SUM(D$4:D4)</f>
-        <v>115</v>
+        <v>65</v>
       </c>
       <c r="D4" s="5">
-        <v>115</v>
+        <v>65</v>
       </c>
       <c r="E4" s="5">
         <v>1</v>
@@ -1329,10 +1328,10 @@
       </c>
       <c r="C5" s="5">
         <f>SUM(D$4:D5)</f>
-        <v>240</v>
+        <v>140</v>
       </c>
       <c r="D5" s="5">
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="E5" s="5">
         <v>1</v>
@@ -1347,10 +1346,10 @@
       </c>
       <c r="C6" s="5">
         <f>SUM(D$4:D6)</f>
-        <v>375</v>
+        <v>230</v>
       </c>
       <c r="D6" s="5">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="E6" s="5">
         <v>1</v>
@@ -1365,10 +1364,10 @@
       </c>
       <c r="C7" s="5">
         <f>SUM(D$4:D7)</f>
-        <v>535</v>
+        <v>350</v>
       </c>
       <c r="D7" s="5">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="E7" s="5">
         <v>1</v>
@@ -1383,10 +1382,10 @@
       </c>
       <c r="C8" s="5">
         <f>SUM(D$4:D8)</f>
-        <v>715</v>
+        <v>500</v>
       </c>
       <c r="D8" s="5">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="E8" s="5">
         <v>1</v>
@@ -1401,10 +1400,10 @@
       </c>
       <c r="C9" s="5">
         <f>SUM(D$4:D9)</f>
-        <v>940</v>
+        <v>675</v>
       </c>
       <c r="D9" s="5">
-        <v>225</v>
+        <v>175</v>
       </c>
       <c r="E9" s="5">
         <v>1</v>
@@ -1419,10 +1418,10 @@
       </c>
       <c r="C10" s="5">
         <f>SUM(D$4:D10)</f>
-        <v>1210</v>
+        <v>935</v>
       </c>
       <c r="D10" s="5">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="E10" s="5">
         <v>1</v>
@@ -1437,10 +1436,10 @@
       </c>
       <c r="C11" s="5">
         <f>SUM(D$4:D11)</f>
-        <v>1570</v>
+        <v>1245</v>
       </c>
       <c r="D11" s="5">
-        <v>360</v>
+        <v>310</v>
       </c>
       <c r="E11" s="5">
         <v>1</v>
@@ -1455,10 +1454,10 @@
       </c>
       <c r="C12" s="5">
         <f>SUM(D$4:D12)</f>
-        <v>2020</v>
+        <v>1665</v>
       </c>
       <c r="D12" s="5">
-        <v>450</v>
+        <v>420</v>
       </c>
       <c r="E12" s="5">
         <v>1</v>
@@ -1473,10 +1472,10 @@
       </c>
       <c r="C13" s="5">
         <f>SUM(D$4:D13)</f>
-        <v>2495</v>
+        <v>2030</v>
       </c>
       <c r="D13" s="5">
-        <v>475</v>
+        <v>365</v>
       </c>
       <c r="E13" s="5">
         <v>1</v>
@@ -1491,10 +1490,10 @@
       </c>
       <c r="C14" s="5">
         <f>SUM(D$4:D14)</f>
-        <v>3020</v>
+        <v>2470</v>
       </c>
       <c r="D14" s="5">
-        <v>525</v>
+        <v>440</v>
       </c>
       <c r="E14" s="5">
         <v>1</v>
@@ -1509,10 +1508,10 @@
       </c>
       <c r="C15" s="5">
         <f>SUM(D$4:D15)</f>
-        <v>3590</v>
+        <v>2980</v>
       </c>
       <c r="D15" s="5">
-        <v>570</v>
+        <v>510</v>
       </c>
       <c r="E15" s="5">
         <v>1</v>
@@ -1527,10 +1526,10 @@
       </c>
       <c r="C16" s="5">
         <f>SUM(D$4:D16)</f>
-        <v>4210</v>
+        <v>3565</v>
       </c>
       <c r="D16" s="5">
-        <v>620</v>
+        <v>585</v>
       </c>
       <c r="E16" s="5">
         <v>1</v>
@@ -1545,10 +1544,10 @@
       </c>
       <c r="C17" s="5">
         <f>SUM(D$4:D17)</f>
-        <v>4875</v>
+        <v>4225</v>
       </c>
       <c r="D17" s="5">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="E17" s="5">
         <v>1</v>
@@ -1563,10 +1562,10 @@
       </c>
       <c r="C18" s="5">
         <f>SUM(D$4:D18)</f>
-        <v>5590</v>
+        <v>4955</v>
       </c>
       <c r="D18" s="5">
-        <v>715</v>
+        <v>730</v>
       </c>
       <c r="E18" s="5">
         <v>1</v>
@@ -1581,10 +1580,10 @@
       </c>
       <c r="C19" s="5">
         <f>SUM(D$4:D19)</f>
-        <v>6350</v>
+        <v>5780</v>
       </c>
       <c r="D19" s="5">
-        <v>760</v>
+        <v>825</v>
       </c>
       <c r="E19" s="5">
         <v>1</v>
@@ -1599,10 +1598,10 @@
       </c>
       <c r="C20" s="5">
         <f>SUM(D$4:D20)</f>
-        <v>7160</v>
+        <v>6695</v>
       </c>
       <c r="D20" s="5">
-        <v>810</v>
+        <v>915</v>
       </c>
       <c r="E20" s="5">
         <v>1</v>
@@ -1617,10 +1616,10 @@
       </c>
       <c r="C21" s="5">
         <f>SUM(D$4:D21)</f>
-        <v>8015</v>
+        <v>7705</v>
       </c>
       <c r="D21" s="5">
-        <v>855</v>
+        <v>1010</v>
       </c>
       <c r="E21" s="5">
         <v>1</v>
@@ -1635,10 +1634,10 @@
       </c>
       <c r="C22" s="5">
         <f>SUM(D$4:D22)</f>
-        <v>8970</v>
+        <v>8805</v>
       </c>
       <c r="D22" s="5">
-        <v>955</v>
+        <v>1100</v>
       </c>
       <c r="E22" s="5">
         <v>1</v>
@@ -1653,10 +1652,10 @@
       </c>
       <c r="C23" s="5">
         <f>SUM(D$4:D23)</f>
-        <v>9860</v>
+        <v>9725</v>
       </c>
       <c r="D23" s="5">
-        <v>890</v>
+        <v>920</v>
       </c>
       <c r="E23" s="5">
         <v>1</v>
@@ -1671,10 +1670,10 @@
       </c>
       <c r="C24" s="5">
         <f>SUM(D$4:D24)</f>
-        <v>10840</v>
+        <v>10735</v>
       </c>
       <c r="D24" s="5">
-        <v>980</v>
+        <v>1010</v>
       </c>
       <c r="E24" s="5">
         <v>1</v>
@@ -1689,10 +1688,10 @@
       </c>
       <c r="C25" s="5">
         <f>SUM(D$4:D25)</f>
-        <v>11910</v>
+        <v>11840</v>
       </c>
       <c r="D25" s="5">
-        <v>1070</v>
+        <v>1105</v>
       </c>
       <c r="E25" s="5">
         <v>1</v>
@@ -1707,10 +1706,10 @@
       </c>
       <c r="C26" s="5">
         <f>SUM(D$4:D26)</f>
-        <v>13065</v>
+        <v>13035</v>
       </c>
       <c r="D26" s="5">
-        <v>1155</v>
+        <v>1195</v>
       </c>
       <c r="E26" s="5">
         <v>1</v>
@@ -1725,10 +1724,10 @@
       </c>
       <c r="C27" s="5">
         <f>SUM(D$4:D27)</f>
-        <v>14310</v>
+        <v>14325</v>
       </c>
       <c r="D27" s="5">
-        <v>1245</v>
+        <v>1290</v>
       </c>
       <c r="E27" s="5">
         <v>1</v>
@@ -1743,10 +1742,10 @@
       </c>
       <c r="C28" s="5">
         <f>SUM(D$4:D28)</f>
-        <v>15645</v>
+        <v>15705</v>
       </c>
       <c r="D28" s="5">
-        <v>1335</v>
+        <v>1380</v>
       </c>
       <c r="E28" s="5">
         <v>1</v>
@@ -1761,10 +1760,10 @@
       </c>
       <c r="C29" s="5">
         <f>SUM(D$4:D29)</f>
-        <v>17070</v>
+        <v>17180</v>
       </c>
       <c r="D29" s="5">
-        <v>1425</v>
+        <v>1475</v>
       </c>
       <c r="E29" s="5">
         <v>1</v>
@@ -1779,10 +1778,10 @@
       </c>
       <c r="C30" s="5">
         <f>SUM(D$4:D30)</f>
-        <v>18585</v>
+        <v>18745</v>
       </c>
       <c r="D30" s="5">
-        <v>1515</v>
+        <v>1565</v>
       </c>
       <c r="E30" s="5">
         <v>1</v>
@@ -1797,10 +1796,10 @@
       </c>
       <c r="C31" s="5">
         <f>SUM(D$4:D31)</f>
-        <v>20190</v>
+        <v>20405</v>
       </c>
       <c r="D31" s="5">
-        <v>1605</v>
+        <v>1660</v>
       </c>
       <c r="E31" s="5">
         <v>1</v>
@@ -1815,10 +1814,10 @@
       </c>
       <c r="C32" s="5">
         <f>SUM(D$4:D32)</f>
-        <v>21970</v>
+        <v>22245</v>
       </c>
       <c r="D32" s="5">
-        <v>1780</v>
+        <v>1840</v>
       </c>
       <c r="E32" s="5">
         <v>1</v>
@@ -1833,7 +1832,7 @@
       </c>
       <c r="C33" s="5">
         <f>SUM(D$4:D33)</f>
-        <v>24125</v>
+        <v>24400</v>
       </c>
       <c r="D33" s="5">
         <v>2155</v>
@@ -1851,7 +1850,7 @@
       </c>
       <c r="C34" s="5">
         <f>SUM(D$4:D34)</f>
-        <v>26715</v>
+        <v>26990</v>
       </c>
       <c r="D34" s="5">
         <v>2590</v>
@@ -1869,7 +1868,7 @@
       </c>
       <c r="C35" s="5">
         <f>SUM(D$4:D35)</f>
-        <v>29735</v>
+        <v>30010</v>
       </c>
       <c r="D35" s="5">
         <v>3020</v>
@@ -1887,7 +1886,7 @@
       </c>
       <c r="C36" s="5">
         <f>SUM(D$4:D36)</f>
-        <v>33185</v>
+        <v>33460</v>
       </c>
       <c r="D36" s="5">
         <v>3450</v>
@@ -1905,7 +1904,7 @@
       </c>
       <c r="C37" s="5">
         <f>SUM(D$4:D37)</f>
-        <v>37070</v>
+        <v>37345</v>
       </c>
       <c r="D37" s="5">
         <v>3885</v>
@@ -1923,7 +1922,7 @@
       </c>
       <c r="C38" s="5">
         <f>SUM(D$4:D38)</f>
-        <v>41385</v>
+        <v>41660</v>
       </c>
       <c r="D38" s="5">
         <v>4315</v>
@@ -1941,7 +1940,7 @@
       </c>
       <c r="C39" s="5">
         <f>SUM(D$4:D39)</f>
-        <v>46130</v>
+        <v>46405</v>
       </c>
       <c r="D39" s="5">
         <v>4745</v>
@@ -1959,7 +1958,7 @@
       </c>
       <c r="C40" s="5">
         <f>SUM(D$4:D40)</f>
-        <v>51310</v>
+        <v>51585</v>
       </c>
       <c r="D40" s="5">
         <v>5180</v>
@@ -1977,7 +1976,7 @@
       </c>
       <c r="C41" s="5">
         <f>SUM(D$4:D41)</f>
-        <v>56920</v>
+        <v>57195</v>
       </c>
       <c r="D41" s="5">
         <v>5610</v>
@@ -1995,7 +1994,7 @@
       </c>
       <c r="C42" s="5">
         <f>SUM(D$4:D42)</f>
-        <v>63395</v>
+        <v>63670</v>
       </c>
       <c r="D42" s="5">
         <v>6475</v>
@@ -2013,7 +2012,7 @@
       </c>
       <c r="C43" s="5">
         <f>SUM(D$4:D43)</f>
-        <v>69725</v>
+        <v>70000</v>
       </c>
       <c r="D43" s="5">
         <v>6330</v>
@@ -2031,7 +2030,7 @@
       </c>
       <c r="C44" s="5">
         <f>SUM(D$4:D44)</f>
-        <v>76690</v>
+        <v>76965</v>
       </c>
       <c r="D44" s="5">
         <v>6965</v>
@@ -2049,7 +2048,7 @@
       </c>
       <c r="C45" s="5">
         <f>SUM(D$4:D45)</f>
-        <v>84290</v>
+        <v>84565</v>
       </c>
       <c r="D45" s="5">
         <v>7600</v>
@@ -2067,7 +2066,7 @@
       </c>
       <c r="C46" s="5">
         <f>SUM(D$4:D46)</f>
-        <v>92520</v>
+        <v>92795</v>
       </c>
       <c r="D46" s="5">
         <v>8230</v>
@@ -2085,7 +2084,7 @@
       </c>
       <c r="C47" s="5">
         <f>SUM(D$4:D47)</f>
-        <v>101385</v>
+        <v>101660</v>
       </c>
       <c r="D47" s="5">
         <v>8865</v>
@@ -2103,7 +2102,7 @@
       </c>
       <c r="C48" s="5">
         <f>SUM(D$4:D48)</f>
-        <v>110885</v>
+        <v>111160</v>
       </c>
       <c r="D48" s="5">
         <v>9500</v>
@@ -2121,7 +2120,7 @@
       </c>
       <c r="C49" s="5">
         <f>SUM(D$4:D49)</f>
-        <v>121015</v>
+        <v>121290</v>
       </c>
       <c r="D49" s="5">
         <v>10130</v>
@@ -2139,7 +2138,7 @@
       </c>
       <c r="C50" s="5">
         <f>SUM(D$4:D50)</f>
-        <v>131780</v>
+        <v>132055</v>
       </c>
       <c r="D50" s="5">
         <v>10765</v>
@@ -2157,7 +2156,7 @@
       </c>
       <c r="C51" s="5">
         <f>SUM(D$4:D51)</f>
-        <v>143180</v>
+        <v>143455</v>
       </c>
       <c r="D51" s="5">
         <v>11400</v>
@@ -2175,7 +2174,7 @@
       </c>
       <c r="C52" s="5">
         <f>SUM(D$4:D52)</f>
-        <v>155845</v>
+        <v>156120</v>
       </c>
       <c r="D52" s="5">
         <v>12665</v>
@@ -2193,7 +2192,7 @@
       </c>
       <c r="C53" s="5">
         <f>SUM(D$4:D53)</f>
-        <v>165005</v>
+        <v>165280</v>
       </c>
       <c r="D53" s="5">
         <v>9160</v>
@@ -2211,7 +2210,7 @@
       </c>
       <c r="C54" s="5">
         <f>SUM(D$4:D54)</f>
-        <v>175080</v>
+        <v>175355</v>
       </c>
       <c r="D54" s="5">
         <v>10075</v>
@@ -2229,7 +2228,7 @@
       </c>
       <c r="C55" s="5">
         <f>SUM(D$4:D55)</f>
-        <v>186070</v>
+        <v>186345</v>
       </c>
       <c r="D55" s="5">
         <v>10990</v>
@@ -2247,7 +2246,7 @@
       </c>
       <c r="C56" s="5">
         <f>SUM(D$4:D56)</f>
-        <v>197975</v>
+        <v>198250</v>
       </c>
       <c r="D56" s="5">
         <v>11905</v>
@@ -2265,7 +2264,7 @@
       </c>
       <c r="C57" s="5">
         <f>SUM(D$4:D57)</f>
-        <v>210800</v>
+        <v>211075</v>
       </c>
       <c r="D57" s="5">
         <v>12825</v>
@@ -2283,7 +2282,7 @@
       </c>
       <c r="C58" s="5">
         <f>SUM(D$4:D58)</f>
-        <v>224540</v>
+        <v>224815</v>
       </c>
       <c r="D58" s="5">
         <v>13740</v>
@@ -2301,7 +2300,7 @@
       </c>
       <c r="C59" s="5">
         <f>SUM(D$4:D59)</f>
-        <v>239195</v>
+        <v>239470</v>
       </c>
       <c r="D59" s="5">
         <v>14655</v>
@@ -2319,7 +2318,7 @@
       </c>
       <c r="C60" s="5">
         <f>SUM(D$4:D60)</f>
-        <v>254765</v>
+        <v>255040</v>
       </c>
       <c r="D60" s="5">
         <v>15570</v>
@@ -2337,7 +2336,7 @@
       </c>
       <c r="C61" s="5">
         <f>SUM(D$4:D61)</f>
-        <v>271250</v>
+        <v>271525</v>
       </c>
       <c r="D61" s="5">
         <v>16485</v>
@@ -2355,7 +2354,7 @@
       </c>
       <c r="C62" s="5">
         <f>SUM(D$4:D62)</f>
-        <v>289570</v>
+        <v>289845</v>
       </c>
       <c r="D62" s="5">
         <v>18320</v>
@@ -2373,7 +2372,7 @@
       </c>
       <c r="C63" s="5">
         <f>SUM(D$4:D63)</f>
-        <v>304570</v>
+        <v>304845</v>
       </c>
       <c r="D63" s="5">
         <v>15000</v>
@@ -2391,7 +2390,7 @@
       </c>
       <c r="C64" s="5">
         <f>SUM(D$4:D64)</f>
-        <v>321070</v>
+        <v>321345</v>
       </c>
       <c r="D64" s="5">
         <v>16500</v>
@@ -2409,7 +2408,7 @@
       </c>
       <c r="C65" s="5">
         <f>SUM(D$4:D65)</f>
-        <v>339070</v>
+        <v>339345</v>
       </c>
       <c r="D65" s="5">
         <v>18000</v>
@@ -2427,7 +2426,7 @@
       </c>
       <c r="C66" s="5">
         <f>SUM(D$4:D66)</f>
-        <v>358570</v>
+        <v>358845</v>
       </c>
       <c r="D66" s="5">
         <v>19500</v>
@@ -2445,7 +2444,7 @@
       </c>
       <c r="C67" s="5">
         <f>SUM(D$4:D67)</f>
-        <v>379570</v>
+        <v>379845</v>
       </c>
       <c r="D67" s="5">
         <v>21000</v>
@@ -2463,7 +2462,7 @@
       </c>
       <c r="C68" s="5">
         <f>SUM(D$4:D68)</f>
-        <v>402070</v>
+        <v>402345</v>
       </c>
       <c r="D68" s="5">
         <v>22500</v>
@@ -2481,7 +2480,7 @@
       </c>
       <c r="C69" s="5">
         <f>SUM(D$4:D69)</f>
-        <v>426070</v>
+        <v>426345</v>
       </c>
       <c r="D69" s="5">
         <v>24000</v>
@@ -2499,7 +2498,7 @@
       </c>
       <c r="C70" s="5">
         <f>SUM(D$4:D70)</f>
-        <v>451570</v>
+        <v>451845</v>
       </c>
       <c r="D70" s="5">
         <v>25500</v>
@@ -2517,7 +2516,7 @@
       </c>
       <c r="C71" s="5">
         <f>SUM(D$4:D71)</f>
-        <v>478570</v>
+        <v>478845</v>
       </c>
       <c r="D71" s="5">
         <v>27000</v>
@@ -2535,7 +2534,7 @@
       </c>
       <c r="C72" s="5">
         <f>SUM(D$4:D72)</f>
-        <v>508570</v>
+        <v>508845</v>
       </c>
       <c r="D72" s="5">
         <v>30000</v>
@@ -2553,7 +2552,7 @@
       </c>
       <c r="C73" s="5">
         <f>SUM(D$4:D73)</f>
-        <v>528805</v>
+        <v>529080</v>
       </c>
       <c r="D73" s="5">
         <v>20235</v>
@@ -2571,7 +2570,7 @@
       </c>
       <c r="C74" s="5">
         <f>SUM(D$4:D74)</f>
-        <v>551065</v>
+        <v>551340</v>
       </c>
       <c r="D74" s="5">
         <v>22260</v>
@@ -2589,7 +2588,7 @@
       </c>
       <c r="C75" s="5">
         <f>SUM(D$4:D75)</f>
-        <v>575350</v>
+        <v>575625</v>
       </c>
       <c r="D75" s="5">
         <v>24285</v>
@@ -2607,7 +2606,7 @@
       </c>
       <c r="C76" s="5">
         <f>SUM(D$4:D76)</f>
-        <v>601660</v>
+        <v>601935</v>
       </c>
       <c r="D76" s="5">
         <v>26310</v>
@@ -2625,7 +2624,7 @@
       </c>
       <c r="C77" s="5">
         <f>SUM(D$4:D77)</f>
-        <v>629995</v>
+        <v>630270</v>
       </c>
       <c r="D77" s="5">
         <v>28335</v>
@@ -2643,7 +2642,7 @@
       </c>
       <c r="C78" s="5">
         <f>SUM(D$4:D78)</f>
-        <v>660350</v>
+        <v>660625</v>
       </c>
       <c r="D78" s="5">
         <v>30355</v>
@@ -2661,7 +2660,7 @@
       </c>
       <c r="C79" s="5">
         <f>SUM(D$4:D79)</f>
-        <v>692730</v>
+        <v>693005</v>
       </c>
       <c r="D79" s="5">
         <v>32380</v>
@@ -2679,7 +2678,7 @@
       </c>
       <c r="C80" s="5">
         <f>SUM(D$4:D80)</f>
-        <v>727135</v>
+        <v>727410</v>
       </c>
       <c r="D80" s="5">
         <v>34405</v>
@@ -2697,7 +2696,7 @@
       </c>
       <c r="C81" s="5">
         <f>SUM(D$4:D81)</f>
-        <v>763565</v>
+        <v>763840</v>
       </c>
       <c r="D81" s="5">
         <v>36430</v>
@@ -2715,7 +2714,7 @@
       </c>
       <c r="C82" s="5">
         <f>SUM(D$4:D82)</f>
-        <v>804040</v>
+        <v>804315</v>
       </c>
       <c r="D82" s="5">
         <v>40475</v>
@@ -2733,7 +2732,7 @@
       </c>
       <c r="C83" s="5">
         <f>SUM(D$4:D83)</f>
-        <v>834245</v>
+        <v>834520</v>
       </c>
       <c r="D83" s="5">
         <v>30205</v>
@@ -2751,7 +2750,7 @@
       </c>
       <c r="C84" s="5">
         <f>SUM(D$4:D84)</f>
-        <v>867470</v>
+        <v>867745</v>
       </c>
       <c r="D84" s="5">
         <v>33225</v>
@@ -2769,7 +2768,7 @@
       </c>
       <c r="C85" s="5">
         <f>SUM(D$4:D85)</f>
-        <v>903715</v>
+        <v>903990</v>
       </c>
       <c r="D85" s="5">
         <v>36245</v>
@@ -2787,7 +2786,7 @@
       </c>
       <c r="C86" s="5">
         <f>SUM(D$4:D86)</f>
-        <v>942980</v>
+        <v>943255</v>
       </c>
       <c r="D86" s="5">
         <v>39265</v>
@@ -2805,7 +2804,7 @@
       </c>
       <c r="C87" s="5">
         <f>SUM(D$4:D87)</f>
-        <v>985265</v>
+        <v>985540</v>
       </c>
       <c r="D87" s="5">
         <v>42285</v>
@@ -2823,7 +2822,7 @@
       </c>
       <c r="C88" s="5">
         <f>SUM(D$4:D88)</f>
-        <v>1030570</v>
+        <v>1030845</v>
       </c>
       <c r="D88" s="5">
         <v>45305</v>
@@ -2841,7 +2840,7 @@
       </c>
       <c r="C89" s="5">
         <f>SUM(D$4:D89)</f>
-        <v>1078895</v>
+        <v>1079170</v>
       </c>
       <c r="D89" s="5">
         <v>48325</v>
@@ -2859,7 +2858,7 @@
       </c>
       <c r="C90" s="5">
         <f>SUM(D$4:D90)</f>
-        <v>1130240</v>
+        <v>1130515</v>
       </c>
       <c r="D90" s="5">
         <v>51345</v>
@@ -2877,7 +2876,7 @@
       </c>
       <c r="C91" s="5">
         <f>SUM(D$4:D91)</f>
-        <v>1184605</v>
+        <v>1184880</v>
       </c>
       <c r="D91" s="5">
         <v>54365</v>
@@ -2895,7 +2894,7 @@
       </c>
       <c r="C92" s="5">
         <f>SUM(D$4:D92)</f>
-        <v>1245015</v>
+        <v>1245290</v>
       </c>
       <c r="D92" s="5">
         <v>60410</v>
@@ -2913,7 +2912,7 @@
       </c>
       <c r="C93" s="5">
         <f>SUM(D$4:D93)</f>
-        <v>1292765</v>
+        <v>1293040</v>
       </c>
       <c r="D93" s="5">
         <v>47750</v>
@@ -2931,7 +2930,7 @@
       </c>
       <c r="C94" s="5">
         <f>SUM(D$4:D94)</f>
-        <v>1345290</v>
+        <v>1345565</v>
       </c>
       <c r="D94" s="5">
         <v>52525</v>
@@ -2949,7 +2948,7 @@
       </c>
       <c r="C95" s="5">
         <f>SUM(D$4:D95)</f>
-        <v>1402590</v>
+        <v>1402865</v>
       </c>
       <c r="D95" s="5">
         <v>57300</v>
@@ -2967,7 +2966,7 @@
       </c>
       <c r="C96" s="5">
         <f>SUM(D$4:D96)</f>
-        <v>1464665</v>
+        <v>1464940</v>
       </c>
       <c r="D96" s="5">
         <v>62075</v>
@@ -2985,7 +2984,7 @@
       </c>
       <c r="C97" s="5">
         <f>SUM(D$4:D97)</f>
-        <v>1531515</v>
+        <v>1531790</v>
       </c>
       <c r="D97" s="5">
         <v>66850</v>
@@ -3003,7 +3002,7 @@
       </c>
       <c r="C98" s="5">
         <f>SUM(D$4:D98)</f>
-        <v>1603145</v>
+        <v>1603420</v>
       </c>
       <c r="D98" s="5">
         <v>71630</v>
@@ -3021,7 +3020,7 @@
       </c>
       <c r="C99" s="5">
         <f>SUM(D$4:D99)</f>
-        <v>1679550</v>
+        <v>1679825</v>
       </c>
       <c r="D99" s="5">
         <v>76405</v>
@@ -3039,7 +3038,7 @@
       </c>
       <c r="C100" s="5">
         <f>SUM(D$4:D100)</f>
-        <v>1760730</v>
+        <v>1761005</v>
       </c>
       <c r="D100" s="5">
         <v>81180</v>
@@ -3057,7 +3056,7 @@
       </c>
       <c r="C101" s="5">
         <f>SUM(D$4:D101)</f>
-        <v>1846685</v>
+        <v>1846960</v>
       </c>
       <c r="D101" s="5">
         <v>85955</v>
@@ -3075,7 +3074,7 @@
       </c>
       <c r="C102" s="5">
         <f>SUM(D$4:D102)</f>
-        <v>1942190</v>
+        <v>1942465</v>
       </c>
       <c r="D102" s="5">
         <v>95505</v>
@@ -3093,7 +3092,7 @@
       </c>
       <c r="C103" s="5">
         <f>SUM(D$4:D103)</f>
-        <v>2019325</v>
+        <v>2019600</v>
       </c>
       <c r="D103" s="5">
         <v>77135</v>
@@ -3111,7 +3110,7 @@
       </c>
       <c r="C104" s="5">
         <f>SUM(D$4:D104)</f>
-        <v>2104175</v>
+        <v>2104450</v>
       </c>
       <c r="D104" s="5">
         <v>84850</v>
@@ -3129,7 +3128,7 @@
       </c>
       <c r="C105" s="5">
         <f>SUM(D$4:D105)</f>
-        <v>2196735</v>
+        <v>2197010</v>
       </c>
       <c r="D105" s="5">
         <v>92560</v>
@@ -3147,7 +3146,7 @@
       </c>
       <c r="C106" s="5">
         <f>SUM(D$4:D106)</f>
-        <v>2297010</v>
+        <v>2297285</v>
       </c>
       <c r="D106" s="5">
         <v>100275</v>
@@ -3165,7 +3164,7 @@
       </c>
       <c r="C107" s="5">
         <f>SUM(D$4:D107)</f>
-        <v>2405000</v>
+        <v>2405275</v>
       </c>
       <c r="D107" s="5">
         <v>107990</v>
@@ -3183,7 +3182,7 @@
       </c>
       <c r="C108" s="5">
         <f>SUM(D$4:D108)</f>
-        <v>2520705</v>
+        <v>2520980</v>
       </c>
       <c r="D108" s="5">
         <v>115705</v>
@@ -3201,7 +3200,7 @@
       </c>
       <c r="C109" s="5">
         <f>SUM(D$4:D109)</f>
-        <v>2644120</v>
+        <v>2644395</v>
       </c>
       <c r="D109" s="5">
         <v>123415</v>
@@ -3219,7 +3218,7 @@
       </c>
       <c r="C110" s="5">
         <f>SUM(D$4:D110)</f>
-        <v>2775250</v>
+        <v>2775525</v>
       </c>
       <c r="D110" s="5">
         <v>131130</v>
@@ -3237,7 +3236,7 @@
       </c>
       <c r="C111" s="5">
         <f>SUM(D$4:D111)</f>
-        <v>2914095</v>
+        <v>2914370</v>
       </c>
       <c r="D111" s="5">
         <v>138845</v>
@@ -3255,7 +3254,7 @@
       </c>
       <c r="C112" s="5">
         <f>SUM(D$4:D112)</f>
-        <v>3068365</v>
+        <v>3068640</v>
       </c>
       <c r="D112" s="5">
         <v>154270</v>
@@ -3273,7 +3272,7 @@
       </c>
       <c r="C113" s="5">
         <f>SUM(D$4:D113)</f>
-        <v>3182980</v>
+        <v>3183255</v>
       </c>
       <c r="D113" s="5">
         <v>114615</v>
@@ -3291,7 +3290,7 @@
       </c>
       <c r="C114" s="5">
         <f>SUM(D$4:D114)</f>
-        <v>3309055</v>
+        <v>3309330</v>
       </c>
       <c r="D114" s="5">
         <v>126075</v>
@@ -3309,7 +3308,7 @@
       </c>
       <c r="C115" s="5">
         <f>SUM(D$4:D115)</f>
-        <v>3446590</v>
+        <v>3446865</v>
       </c>
       <c r="D115" s="5">
         <v>137535</v>
@@ -3327,7 +3326,7 @@
       </c>
       <c r="C116" s="5">
         <f>SUM(D$4:D116)</f>
-        <v>3595590</v>
+        <v>3595865</v>
       </c>
       <c r="D116" s="5">
         <v>149000</v>
@@ -3345,7 +3344,7 @@
       </c>
       <c r="C117" s="5">
         <f>SUM(D$4:D117)</f>
-        <v>3756050</v>
+        <v>3756325</v>
       </c>
       <c r="D117" s="5">
         <v>160460</v>
@@ -3363,7 +3362,7 @@
       </c>
       <c r="C118" s="5">
         <f>SUM(D$4:D118)</f>
-        <v>3927970</v>
+        <v>3928245</v>
       </c>
       <c r="D118" s="5">
         <v>171920</v>
@@ -3381,7 +3380,7 @@
       </c>
       <c r="C119" s="5">
         <f>SUM(D$4:D119)</f>
-        <v>4111355</v>
+        <v>4111630</v>
       </c>
       <c r="D119" s="5">
         <v>183385</v>
@@ -3399,7 +3398,7 @@
       </c>
       <c r="C120" s="5">
         <f>SUM(D$4:D120)</f>
-        <v>4306200</v>
+        <v>4306475</v>
       </c>
       <c r="D120" s="5">
         <v>194845</v>
@@ -3417,7 +3416,7 @@
       </c>
       <c r="C121" s="5">
         <f>SUM(D$4:D121)</f>
-        <v>4512505</v>
+        <v>4512780</v>
       </c>
       <c r="D121" s="5">
         <v>206305</v>
@@ -3435,7 +3434,7 @@
       </c>
       <c r="C122" s="5">
         <f>SUM(D$4:D122)</f>
-        <v>4741735</v>
+        <v>4742010</v>
       </c>
       <c r="D122" s="5">
         <v>229230</v>
@@ -3453,7 +3452,7 @@
       </c>
       <c r="C123" s="5">
         <f>SUM(D$4:D123)</f>
-        <v>4903505</v>
+        <v>4903780</v>
       </c>
       <c r="D123" s="5">
         <v>161770</v>
@@ -3471,7 +3470,7 @@
       </c>
       <c r="C124" s="5">
         <f>SUM(D$4:D124)</f>
-        <v>5081455</v>
+        <v>5081730</v>
       </c>
       <c r="D124" s="5">
         <v>177950</v>
@@ -3489,7 +3488,7 @@
       </c>
       <c r="C125" s="5">
         <f>SUM(D$4:D125)</f>
-        <v>5275580</v>
+        <v>5275855</v>
       </c>
       <c r="D125" s="5">
         <v>194125</v>
@@ -3507,7 +3506,7 @@
       </c>
       <c r="C126" s="5">
         <f>SUM(D$4:D126)</f>
-        <v>5485885</v>
+        <v>5486160</v>
       </c>
       <c r="D126" s="5">
         <v>210305</v>
@@ -3525,7 +3524,7 @@
       </c>
       <c r="C127" s="5">
         <f>SUM(D$4:D127)</f>
-        <v>5712365</v>
+        <v>5712640</v>
       </c>
       <c r="D127" s="5">
         <v>226480</v>
@@ -3543,7 +3542,7 @@
       </c>
       <c r="C128" s="5">
         <f>SUM(D$4:D128)</f>
-        <v>5955025</v>
+        <v>5955300</v>
       </c>
       <c r="D128" s="5">
         <v>242660</v>
@@ -3561,7 +3560,7 @@
       </c>
       <c r="C129" s="5">
         <f>SUM(D$4:D129)</f>
-        <v>6213860</v>
+        <v>6214135</v>
       </c>
       <c r="D129" s="5">
         <v>258835</v>
@@ -3579,7 +3578,7 @@
       </c>
       <c r="C130" s="5">
         <f>SUM(D$4:D130)</f>
-        <v>6488875</v>
+        <v>6489150</v>
       </c>
       <c r="D130" s="5">
         <v>275015</v>
@@ -3597,7 +3596,7 @@
       </c>
       <c r="C131" s="5">
         <f>SUM(D$4:D131)</f>
-        <v>6780065</v>
+        <v>6780340</v>
       </c>
       <c r="D131" s="5">
         <v>291190</v>
@@ -3615,7 +3614,7 @@
       </c>
       <c r="C132" s="5">
         <f>SUM(D$4:D132)</f>
-        <v>7103610</v>
+        <v>7103885</v>
       </c>
       <c r="D132" s="5">
         <v>323545</v>
@@ -3633,7 +3632,7 @@
       </c>
       <c r="C133" s="5">
         <f>SUM(D$4:D133)</f>
-        <v>7378540</v>
+        <v>7378815</v>
       </c>
       <c r="D133" s="5">
         <v>274930</v>
@@ -3651,7 +3650,7 @@
       </c>
       <c r="C134" s="5">
         <f>SUM(D$4:D134)</f>
-        <v>7680960</v>
+        <v>7681235</v>
       </c>
       <c r="D134" s="5">
         <v>302420</v>
@@ -3669,7 +3668,7 @@
       </c>
       <c r="C135" s="5">
         <f>SUM(D$4:D135)</f>
-        <v>8010875</v>
+        <v>8011150</v>
       </c>
       <c r="D135" s="5">
         <v>329915</v>
@@ -3687,7 +3686,7 @@
       </c>
       <c r="C136" s="5">
         <f>SUM(D$4:D136)</f>
-        <v>8368285</v>
+        <v>8368560</v>
       </c>
       <c r="D136" s="5">
         <v>357410</v>
@@ -3705,7 +3704,7 @@
       </c>
       <c r="C137" s="5">
         <f>SUM(D$4:D137)</f>
-        <v>8753185</v>
+        <v>8753460</v>
       </c>
       <c r="D137" s="5">
         <v>384900</v>
@@ -3723,7 +3722,7 @@
       </c>
       <c r="C138" s="5">
         <f>SUM(D$4:D138)</f>
-        <v>9165580</v>
+        <v>9165855</v>
       </c>
       <c r="D138" s="5">
         <v>412395</v>
@@ -3741,7 +3740,7 @@
       </c>
       <c r="C139" s="5">
         <f>SUM(D$4:D139)</f>
-        <v>9605470</v>
+        <v>9605745</v>
       </c>
       <c r="D139" s="5">
         <v>439890</v>
@@ -3759,7 +3758,7 @@
       </c>
       <c r="C140" s="5">
         <f>SUM(D$4:D140)</f>
-        <v>10072850</v>
+        <v>10073125</v>
       </c>
       <c r="D140" s="5">
         <v>467380</v>
@@ -3777,7 +3776,7 @@
       </c>
       <c r="C141" s="5">
         <f>SUM(D$4:D141)</f>
-        <v>10567725</v>
+        <v>10568000</v>
       </c>
       <c r="D141" s="5">
         <v>494875</v>
@@ -3795,7 +3794,7 @@
       </c>
       <c r="C142" s="5">
         <f>SUM(D$4:D142)</f>
-        <v>11117585</v>
+        <v>11117860</v>
       </c>
       <c r="D142" s="5">
         <v>549860</v>
@@ -3813,7 +3812,7 @@
       </c>
       <c r="C143" s="5">
         <f>SUM(D$4:D143)</f>
-        <v>11618440</v>
+        <v>11618715</v>
       </c>
       <c r="D143" s="5">
         <v>500855</v>
@@ -3831,7 +3830,7 @@
       </c>
       <c r="C144" s="5">
         <f>SUM(D$4:D144)</f>
-        <v>12169380</v>
+        <v>12169655</v>
       </c>
       <c r="D144" s="5">
         <v>550940</v>
@@ -3849,7 +3848,7 @@
       </c>
       <c r="C145" s="5">
         <f>SUM(D$4:D145)</f>
-        <v>12770405</v>
+        <v>12770680</v>
       </c>
       <c r="D145" s="5">
         <v>601025</v>
@@ -3867,7 +3866,7 @@
       </c>
       <c r="C146" s="5">
         <f>SUM(D$4:D146)</f>
-        <v>13421515</v>
+        <v>13421790</v>
       </c>
       <c r="D146" s="5">
         <v>651110</v>
@@ -3885,7 +3884,7 @@
       </c>
       <c r="C147" s="5">
         <f>SUM(D$4:D147)</f>
-        <v>14122710</v>
+        <v>14122985</v>
       </c>
       <c r="D147" s="5">
         <v>701195</v>
@@ -3903,7 +3902,7 @@
       </c>
       <c r="C148" s="5">
         <f>SUM(D$4:D148)</f>
-        <v>14873990</v>
+        <v>14874265</v>
       </c>
       <c r="D148" s="5">
         <v>751280</v>
@@ -3921,7 +3920,7 @@
       </c>
       <c r="C149" s="5">
         <f>SUM(D$4:D149)</f>
-        <v>15675355</v>
+        <v>15675630</v>
       </c>
       <c r="D149" s="5">
         <v>801365</v>
@@ -3939,7 +3938,7 @@
       </c>
       <c r="C150" s="5">
         <f>SUM(D$4:D150)</f>
-        <v>16526810</v>
+        <v>16527085</v>
       </c>
       <c r="D150" s="5">
         <v>851455</v>
@@ -3957,7 +3956,7 @@
       </c>
       <c r="C151" s="5">
         <f>SUM(D$4:D151)</f>
-        <v>17428350</v>
+        <v>17428625</v>
       </c>
       <c r="D151" s="5">
         <v>901540</v>
@@ -3975,7 +3974,7 @@
       </c>
       <c r="C152" s="5">
         <f>SUM(D$4:D152)</f>
-        <v>18430060</v>
+        <v>18430335</v>
       </c>
       <c r="D152" s="5">
         <v>1001710</v>
@@ -3993,7 +3992,7 @@
       </c>
       <c r="C153" s="5">
         <f>SUM(D$4:D153)</f>
-        <v>19531940</v>
+        <v>19532215</v>
       </c>
       <c r="D153" s="5">
         <v>1101880</v>
@@ -4009,7 +4008,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4867,7 +4866,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5003,7 +5002,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">

--- a/Excel/镇魂街/basicInfo.基础信息.xlsx
+++ b/Excel/镇魂街/basicInfo.基础信息.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WORK\CeHua\trunk\ZHJStaffSpace\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ZHJcehua\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A953AB-D6DC-4F78-9BB7-D2C71C16A18C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -18,11 +19,12 @@
     <sheet name="公告" sheetId="29" r:id="rId4"/>
     <sheet name="User表" sheetId="30" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="133">
   <si>
     <t>sheet名</t>
   </si>
@@ -406,24 +408,6 @@
     <t>Monsters[3].shl</t>
   </si>
   <si>
-    <t>slot[1][1]</t>
-  </si>
-  <si>
-    <t>slot[1][2]</t>
-  </si>
-  <si>
-    <t>slot[2][1]</t>
-  </si>
-  <si>
-    <t>slot[2][2]</t>
-  </si>
-  <si>
-    <t>slot[3][1]</t>
-  </si>
-  <si>
-    <t>slot[3][2]</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -472,9 +456,6 @@
     </r>
   </si>
   <si>
-    <t>skill_id:e&gt;|0</t>
-  </si>
-  <si>
     <t>头像</t>
   </si>
   <si>
@@ -500,24 +481,6 @@
   </si>
   <si>
     <t>怪物[3].守护灵</t>
-  </si>
-  <si>
-    <t>守护灵1技能槽1</t>
-  </si>
-  <si>
-    <t>守护灵1技能槽2</t>
-  </si>
-  <si>
-    <t>守护灵2技能槽1</t>
-  </si>
-  <si>
-    <t>守护灵2技能槽2</t>
-  </si>
-  <si>
-    <t>守护灵3技能槽1</t>
-  </si>
-  <si>
-    <t>守护灵3技能槽2</t>
   </si>
   <si>
     <t>???</t>
@@ -546,14 +509,22 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>战斗夏玲</t>
+    <t>Speed</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>先手值</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗夏铃</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -767,20 +738,20 @@
     </xf>
   </cellXfs>
   <cellStyles count="14">
-    <cellStyle name="Grid" xfId="4"/>
-    <cellStyle name="Normal" xfId="7"/>
+    <cellStyle name="Grid" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Normal" xfId="7" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="8"/>
-    <cellStyle name="常规 3" xfId="10"/>
-    <cellStyle name="超链接 2" xfId="11"/>
-    <cellStyle name="大标题" xfId="6"/>
-    <cellStyle name="横向标题" xfId="1"/>
-    <cellStyle name="文本" xfId="9"/>
-    <cellStyle name="无效" xfId="12"/>
-    <cellStyle name="因变Grid" xfId="3"/>
-    <cellStyle name="英文标题" xfId="2"/>
-    <cellStyle name="中文标题" xfId="13"/>
-    <cellStyle name="纵向标题" xfId="5"/>
+    <cellStyle name="常规 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="常规 3" xfId="10" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="超链接 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="大标题" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="横向标题" xfId="1" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="文本" xfId="9" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="无效" xfId="12" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="因变Grid" xfId="3" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="英文标题" xfId="2" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="中文标题" xfId="13" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="纵向标题" xfId="5" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1052,7 +1023,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1236,21 +1207,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E153"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F153"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="3" width="10.125" customWidth="1"/>
     <col min="4" max="4" width="9.5" customWidth="1"/>
-    <col min="5" max="5" width="19.625" customWidth="1"/>
+    <col min="5" max="6" width="19.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -1266,8 +1237,11 @@
       <c r="E1" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -1283,8 +1257,11 @@
       <c r="E2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
@@ -1300,8 +1277,11 @@
       <c r="E3" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F3" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -1318,8 +1298,11 @@
       <c r="E4" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F4" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>2</v>
       </c>
@@ -1336,8 +1319,11 @@
       <c r="E5" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F5" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>3</v>
       </c>
@@ -1354,8 +1340,11 @@
       <c r="E6" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F6" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>4</v>
       </c>
@@ -1372,8 +1361,11 @@
       <c r="E7" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F7" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>5</v>
       </c>
@@ -1390,8 +1382,11 @@
       <c r="E8" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F8" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>6</v>
       </c>
@@ -1408,8 +1403,11 @@
       <c r="E9" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F9" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>7</v>
       </c>
@@ -1426,8 +1424,11 @@
       <c r="E10" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F10" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>8</v>
       </c>
@@ -1444,8 +1445,11 @@
       <c r="E11" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F11" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>9</v>
       </c>
@@ -1462,8 +1466,11 @@
       <c r="E12" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F12" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>10</v>
       </c>
@@ -1480,8 +1487,11 @@
       <c r="E13" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F13" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>11</v>
       </c>
@@ -1498,8 +1508,11 @@
       <c r="E14" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F14" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>12</v>
       </c>
@@ -1516,8 +1529,11 @@
       <c r="E15" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F15" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>13</v>
       </c>
@@ -1534,8 +1550,11 @@
       <c r="E16" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F16" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>14</v>
       </c>
@@ -1552,8 +1571,11 @@
       <c r="E17" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F17" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>15</v>
       </c>
@@ -1570,8 +1592,11 @@
       <c r="E18" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F18" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>16</v>
       </c>
@@ -1588,8 +1613,11 @@
       <c r="E19" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F19" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>17</v>
       </c>
@@ -1606,8 +1634,11 @@
       <c r="E20" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F20" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>18</v>
       </c>
@@ -1624,8 +1655,11 @@
       <c r="E21" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F21" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>19</v>
       </c>
@@ -1642,8 +1676,11 @@
       <c r="E22" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F22" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>20</v>
       </c>
@@ -1660,8 +1697,11 @@
       <c r="E23" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F23" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>21</v>
       </c>
@@ -1678,8 +1718,11 @@
       <c r="E24" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F24" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>22</v>
       </c>
@@ -1696,8 +1739,11 @@
       <c r="E25" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F25" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>23</v>
       </c>
@@ -1714,8 +1760,11 @@
       <c r="E26" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F26" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>24</v>
       </c>
@@ -1732,8 +1781,11 @@
       <c r="E27" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F27" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>25</v>
       </c>
@@ -1750,8 +1802,11 @@
       <c r="E28" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F28" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>26</v>
       </c>
@@ -1768,8 +1823,11 @@
       <c r="E29" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F29" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>27</v>
       </c>
@@ -1786,8 +1844,11 @@
       <c r="E30" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F30" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <v>28</v>
       </c>
@@ -1804,8 +1865,11 @@
       <c r="E31" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F31" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
         <v>29</v>
       </c>
@@ -1822,8 +1886,11 @@
       <c r="E32" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F32" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <v>30</v>
       </c>
@@ -1840,8 +1907,11 @@
       <c r="E33" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F33" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
         <v>31</v>
       </c>
@@ -1858,8 +1928,11 @@
       <c r="E34" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F34" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
         <v>32</v>
       </c>
@@ -1876,8 +1949,11 @@
       <c r="E35" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F35" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
         <v>33</v>
       </c>
@@ -1894,8 +1970,11 @@
       <c r="E36" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F36" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
         <v>34</v>
       </c>
@@ -1912,8 +1991,11 @@
       <c r="E37" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F37" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
         <v>35</v>
       </c>
@@ -1930,8 +2012,11 @@
       <c r="E38" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F38" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
         <v>36</v>
       </c>
@@ -1948,8 +2033,11 @@
       <c r="E39" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F39" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
         <v>37</v>
       </c>
@@ -1966,8 +2054,11 @@
       <c r="E40" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F40" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
         <v>38</v>
       </c>
@@ -1984,8 +2075,11 @@
       <c r="E41" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F41" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
         <v>39</v>
       </c>
@@ -2002,8 +2096,11 @@
       <c r="E42" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F42" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A43" s="5">
         <v>40</v>
       </c>
@@ -2020,8 +2117,11 @@
       <c r="E43" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F43" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A44" s="5">
         <v>41</v>
       </c>
@@ -2038,8 +2138,11 @@
       <c r="E44" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F44" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A45" s="5">
         <v>42</v>
       </c>
@@ -2056,8 +2159,11 @@
       <c r="E45" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F45" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A46" s="5">
         <v>43</v>
       </c>
@@ -2074,8 +2180,11 @@
       <c r="E46" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F46" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A47" s="5">
         <v>44</v>
       </c>
@@ -2092,8 +2201,11 @@
       <c r="E47" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F47" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A48" s="5">
         <v>45</v>
       </c>
@@ -2110,8 +2222,11 @@
       <c r="E48" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F48" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A49" s="5">
         <v>46</v>
       </c>
@@ -2128,8 +2243,11 @@
       <c r="E49" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F49" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A50" s="5">
         <v>47</v>
       </c>
@@ -2146,8 +2264,11 @@
       <c r="E50" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F50" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A51" s="5">
         <v>48</v>
       </c>
@@ -2164,8 +2285,11 @@
       <c r="E51" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F51" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A52" s="5">
         <v>49</v>
       </c>
@@ -2182,8 +2306,11 @@
       <c r="E52" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F52" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A53" s="5">
         <v>50</v>
       </c>
@@ -2200,8 +2327,11 @@
       <c r="E53" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F53" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A54" s="5">
         <v>51</v>
       </c>
@@ -2218,8 +2348,11 @@
       <c r="E54" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F54" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A55" s="5">
         <v>52</v>
       </c>
@@ -2236,8 +2369,11 @@
       <c r="E55" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F55" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A56" s="5">
         <v>53</v>
       </c>
@@ -2254,8 +2390,11 @@
       <c r="E56" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F56" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A57" s="5">
         <v>54</v>
       </c>
@@ -2272,8 +2411,11 @@
       <c r="E57" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F57" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A58" s="5">
         <v>55</v>
       </c>
@@ -2290,8 +2432,11 @@
       <c r="E58" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F58" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A59" s="5">
         <v>56</v>
       </c>
@@ -2308,8 +2453,11 @@
       <c r="E59" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F59" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A60" s="5">
         <v>57</v>
       </c>
@@ -2326,8 +2474,11 @@
       <c r="E60" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F60" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A61" s="5">
         <v>58</v>
       </c>
@@ -2344,8 +2495,11 @@
       <c r="E61" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F61" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A62" s="5">
         <v>59</v>
       </c>
@@ -2362,8 +2516,11 @@
       <c r="E62" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F62" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A63" s="5">
         <v>60</v>
       </c>
@@ -2380,8 +2537,11 @@
       <c r="E63" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F63" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A64" s="5">
         <v>61</v>
       </c>
@@ -2398,8 +2558,11 @@
       <c r="E64" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F64" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A65" s="5">
         <v>62</v>
       </c>
@@ -2416,8 +2579,11 @@
       <c r="E65" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F65" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A66" s="5">
         <v>63</v>
       </c>
@@ -2434,8 +2600,11 @@
       <c r="E66" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F66" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A67" s="5">
         <v>64</v>
       </c>
@@ -2452,8 +2621,11 @@
       <c r="E67" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F67" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A68" s="5">
         <v>65</v>
       </c>
@@ -2470,8 +2642,11 @@
       <c r="E68" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F68" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A69" s="5">
         <v>66</v>
       </c>
@@ -2488,8 +2663,11 @@
       <c r="E69" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F69" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A70" s="5">
         <v>67</v>
       </c>
@@ -2506,8 +2684,11 @@
       <c r="E70" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F70" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A71" s="5">
         <v>68</v>
       </c>
@@ -2524,8 +2705,11 @@
       <c r="E71" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F71" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A72" s="5">
         <v>69</v>
       </c>
@@ -2542,8 +2726,11 @@
       <c r="E72" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F72" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A73" s="5">
         <v>70</v>
       </c>
@@ -2560,8 +2747,11 @@
       <c r="E73" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F73" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A74" s="5">
         <v>71</v>
       </c>
@@ -2578,8 +2768,11 @@
       <c r="E74" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F74" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A75" s="5">
         <v>72</v>
       </c>
@@ -2596,8 +2789,11 @@
       <c r="E75" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F75" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A76" s="5">
         <v>73</v>
       </c>
@@ -2614,8 +2810,11 @@
       <c r="E76" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F76" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A77" s="5">
         <v>74</v>
       </c>
@@ -2632,8 +2831,11 @@
       <c r="E77" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F77" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A78" s="5">
         <v>75</v>
       </c>
@@ -2650,8 +2852,11 @@
       <c r="E78" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F78" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A79" s="5">
         <v>76</v>
       </c>
@@ -2668,8 +2873,11 @@
       <c r="E79" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F79" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A80" s="5">
         <v>77</v>
       </c>
@@ -2686,8 +2894,11 @@
       <c r="E80" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F80" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A81" s="5">
         <v>78</v>
       </c>
@@ -2704,8 +2915,11 @@
       <c r="E81" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F81" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A82" s="5">
         <v>79</v>
       </c>
@@ -2722,8 +2936,11 @@
       <c r="E82" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F82" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A83" s="5">
         <v>80</v>
       </c>
@@ -2740,8 +2957,11 @@
       <c r="E83" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F83" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A84" s="5">
         <v>81</v>
       </c>
@@ -2758,8 +2978,11 @@
       <c r="E84" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F84" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A85" s="5">
         <v>82</v>
       </c>
@@ -2776,8 +2999,11 @@
       <c r="E85" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F85" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A86" s="5">
         <v>83</v>
       </c>
@@ -2794,8 +3020,11 @@
       <c r="E86" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F86" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A87" s="5">
         <v>84</v>
       </c>
@@ -2812,8 +3041,11 @@
       <c r="E87" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F87" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A88" s="5">
         <v>85</v>
       </c>
@@ -2830,8 +3062,11 @@
       <c r="E88" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F88" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A89" s="5">
         <v>86</v>
       </c>
@@ -2848,8 +3083,11 @@
       <c r="E89" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F89" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A90" s="5">
         <v>87</v>
       </c>
@@ -2866,8 +3104,11 @@
       <c r="E90" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F90" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A91" s="5">
         <v>88</v>
       </c>
@@ -2884,8 +3125,11 @@
       <c r="E91" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F91" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A92" s="5">
         <v>89</v>
       </c>
@@ -2902,8 +3146,11 @@
       <c r="E92" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F92" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A93" s="5">
         <v>90</v>
       </c>
@@ -2920,8 +3167,11 @@
       <c r="E93" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F93" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A94" s="5">
         <v>91</v>
       </c>
@@ -2938,8 +3188,11 @@
       <c r="E94" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F94" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A95" s="5">
         <v>92</v>
       </c>
@@ -2956,8 +3209,11 @@
       <c r="E95" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F95" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A96" s="5">
         <v>93</v>
       </c>
@@ -2974,8 +3230,11 @@
       <c r="E96" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F96" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A97" s="5">
         <v>94</v>
       </c>
@@ -2992,8 +3251,11 @@
       <c r="E97" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F97" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A98" s="5">
         <v>95</v>
       </c>
@@ -3010,8 +3272,11 @@
       <c r="E98" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F98" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A99" s="5">
         <v>96</v>
       </c>
@@ -3028,8 +3293,11 @@
       <c r="E99" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F99" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A100" s="5">
         <v>97</v>
       </c>
@@ -3046,8 +3314,11 @@
       <c r="E100" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F100" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A101" s="5">
         <v>98</v>
       </c>
@@ -3064,8 +3335,11 @@
       <c r="E101" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F101" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A102" s="5">
         <v>99</v>
       </c>
@@ -3082,8 +3356,11 @@
       <c r="E102" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F102" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A103" s="5">
         <v>100</v>
       </c>
@@ -3100,8 +3377,11 @@
       <c r="E103" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F103" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A104" s="5">
         <v>101</v>
       </c>
@@ -3118,8 +3398,11 @@
       <c r="E104" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F104" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A105" s="5">
         <v>102</v>
       </c>
@@ -3136,8 +3419,11 @@
       <c r="E105" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F105" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A106" s="5">
         <v>103</v>
       </c>
@@ -3154,8 +3440,11 @@
       <c r="E106" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F106" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A107" s="5">
         <v>104</v>
       </c>
@@ -3172,8 +3461,11 @@
       <c r="E107" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F107" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A108" s="5">
         <v>105</v>
       </c>
@@ -3190,8 +3482,11 @@
       <c r="E108" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F108" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A109" s="5">
         <v>106</v>
       </c>
@@ -3208,8 +3503,11 @@
       <c r="E109" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F109" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A110" s="5">
         <v>107</v>
       </c>
@@ -3226,8 +3524,11 @@
       <c r="E110" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F110" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A111" s="5">
         <v>108</v>
       </c>
@@ -3244,8 +3545,11 @@
       <c r="E111" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F111" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A112" s="5">
         <v>109</v>
       </c>
@@ -3262,8 +3566,11 @@
       <c r="E112" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F112" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A113" s="5">
         <v>110</v>
       </c>
@@ -3280,8 +3587,11 @@
       <c r="E113" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F113" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A114" s="5">
         <v>111</v>
       </c>
@@ -3298,8 +3608,11 @@
       <c r="E114" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F114" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A115" s="5">
         <v>112</v>
       </c>
@@ -3316,8 +3629,11 @@
       <c r="E115" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F115" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A116" s="5">
         <v>113</v>
       </c>
@@ -3334,8 +3650,11 @@
       <c r="E116" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F116" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A117" s="5">
         <v>114</v>
       </c>
@@ -3352,8 +3671,11 @@
       <c r="E117" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F117" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A118" s="5">
         <v>115</v>
       </c>
@@ -3370,8 +3692,11 @@
       <c r="E118" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F118" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A119" s="5">
         <v>116</v>
       </c>
@@ -3388,8 +3713,11 @@
       <c r="E119" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F119" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A120" s="5">
         <v>117</v>
       </c>
@@ -3406,8 +3734,11 @@
       <c r="E120" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F120" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A121" s="5">
         <v>118</v>
       </c>
@@ -3424,8 +3755,11 @@
       <c r="E121" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F121" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A122" s="5">
         <v>119</v>
       </c>
@@ -3442,8 +3776,11 @@
       <c r="E122" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F122" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A123" s="5">
         <v>120</v>
       </c>
@@ -3460,8 +3797,11 @@
       <c r="E123" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F123" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A124" s="5">
         <v>121</v>
       </c>
@@ -3478,8 +3818,11 @@
       <c r="E124" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F124" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A125" s="5">
         <v>122</v>
       </c>
@@ -3496,8 +3839,11 @@
       <c r="E125" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F125" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A126" s="5">
         <v>123</v>
       </c>
@@ -3514,8 +3860,11 @@
       <c r="E126" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F126" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A127" s="5">
         <v>124</v>
       </c>
@@ -3532,8 +3881,11 @@
       <c r="E127" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F127" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A128" s="5">
         <v>125</v>
       </c>
@@ -3550,8 +3902,11 @@
       <c r="E128" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F128" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A129" s="5">
         <v>126</v>
       </c>
@@ -3568,8 +3923,11 @@
       <c r="E129" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F129" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A130" s="5">
         <v>127</v>
       </c>
@@ -3586,8 +3944,11 @@
       <c r="E130" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F130" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A131" s="5">
         <v>128</v>
       </c>
@@ -3604,8 +3965,11 @@
       <c r="E131" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F131" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A132" s="5">
         <v>129</v>
       </c>
@@ -3622,8 +3986,11 @@
       <c r="E132" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F132" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A133" s="5">
         <v>130</v>
       </c>
@@ -3640,8 +4007,11 @@
       <c r="E133" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F133" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A134" s="5">
         <v>131</v>
       </c>
@@ -3658,8 +4028,11 @@
       <c r="E134" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F134" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A135" s="5">
         <v>132</v>
       </c>
@@ -3676,8 +4049,11 @@
       <c r="E135" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F135" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A136" s="5">
         <v>133</v>
       </c>
@@ -3694,8 +4070,11 @@
       <c r="E136" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F136" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A137" s="5">
         <v>134</v>
       </c>
@@ -3712,8 +4091,11 @@
       <c r="E137" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F137" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A138" s="5">
         <v>135</v>
       </c>
@@ -3730,8 +4112,11 @@
       <c r="E138" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F138" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A139" s="5">
         <v>136</v>
       </c>
@@ -3748,8 +4133,11 @@
       <c r="E139" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F139" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A140" s="5">
         <v>137</v>
       </c>
@@ -3766,8 +4154,11 @@
       <c r="E140" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F140" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A141" s="5">
         <v>138</v>
       </c>
@@ -3784,8 +4175,11 @@
       <c r="E141" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F141" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A142" s="5">
         <v>139</v>
       </c>
@@ -3802,8 +4196,11 @@
       <c r="E142" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F142" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A143" s="5">
         <v>140</v>
       </c>
@@ -3820,8 +4217,11 @@
       <c r="E143" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F143" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A144" s="5">
         <v>141</v>
       </c>
@@ -3838,8 +4238,11 @@
       <c r="E144" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F144" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A145" s="5">
         <v>142</v>
       </c>
@@ -3856,8 +4259,11 @@
       <c r="E145" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F145" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A146" s="5">
         <v>143</v>
       </c>
@@ -3874,8 +4280,11 @@
       <c r="E146" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F146" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A147" s="5">
         <v>144</v>
       </c>
@@ -3892,8 +4301,11 @@
       <c r="E147" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F147" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A148" s="5">
         <v>145</v>
       </c>
@@ -3910,8 +4322,11 @@
       <c r="E148" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F148" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A149" s="5">
         <v>146</v>
       </c>
@@ -3928,8 +4343,11 @@
       <c r="E149" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F149" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A150" s="5">
         <v>147</v>
       </c>
@@ -3946,8 +4364,11 @@
       <c r="E150" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F150" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A151" s="5">
         <v>148</v>
       </c>
@@ -3964,8 +4385,11 @@
       <c r="E151" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F151" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A152" s="5">
         <v>149</v>
       </c>
@@ -3982,8 +4406,11 @@
       <c r="E152" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F152" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A153" s="5">
         <v>150</v>
       </c>
@@ -3999,6 +4426,9 @@
       </c>
       <c r="E153" s="5">
         <v>3</v>
+      </c>
+      <c r="F153" s="5">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -4008,7 +4438,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4866,7 +5296,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5002,10 +5432,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
@@ -5019,16 +5449,10 @@
     <col min="8" max="8" width="16.875" style="1" customWidth="1"/>
     <col min="9" max="9" width="16.125" style="1" customWidth="1"/>
     <col min="10" max="10" width="16.875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="14.875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="14.75" style="1" customWidth="1"/>
-    <col min="14" max="14" width="15.25" style="1" customWidth="1"/>
-    <col min="15" max="15" width="15.125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="14.875" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -5059,131 +5483,77 @@
       <c r="J1" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="K1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>119</v>
-      </c>
       <c r="C2" s="3" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="D3" s="4" t="s">
+    </row>
+    <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>123</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
-        <v>1</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>136</v>
       </c>
       <c r="C4" s="5">
         <v>1</v>
@@ -5194,32 +5564,14 @@
       <c r="E4" s="5"/>
       <c r="F4" s="8"/>
       <c r="G4" s="5" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="H4" s="8"/>
       <c r="I4" s="8" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="M4" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="N4" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="O4" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="P4" s="8" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/镇魂街/basicInfo.基础信息.xlsx
+++ b/Excel/镇魂街/basicInfo.基础信息.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ZHJcehua\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A953AB-D6DC-4F78-9BB7-D2C71C16A18C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10C79F62-55D0-4B6D-B78C-94BA84571588}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="274">
   <si>
     <t>sheet名</t>
   </si>
@@ -486,9 +486,6 @@
     <t>???</t>
   </si>
   <si>
-    <t>@0</t>
-  </si>
-  <si>
     <t>曹玄亮</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -517,7 +514,434 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>战斗夏铃</t>
+    <t>普通1章第1关</t>
+  </si>
+  <si>
+    <t>普通1章第2关</t>
+  </si>
+  <si>
+    <t>普通1章第3关</t>
+  </si>
+  <si>
+    <t>普通1章第4关</t>
+  </si>
+  <si>
+    <t>普通1章第5关</t>
+  </si>
+  <si>
+    <t>普通1章第6关</t>
+  </si>
+  <si>
+    <t>普通1章第7关</t>
+  </si>
+  <si>
+    <t>普通1章第8关</t>
+  </si>
+  <si>
+    <t>普通1章第9关</t>
+  </si>
+  <si>
+    <t>普通2章第1关</t>
+  </si>
+  <si>
+    <t>普通2章第2关</t>
+  </si>
+  <si>
+    <t>普通2章第3关</t>
+  </si>
+  <si>
+    <t>普通2章第4关</t>
+  </si>
+  <si>
+    <t>普通2章第5关</t>
+  </si>
+  <si>
+    <t>普通2章第6关</t>
+  </si>
+  <si>
+    <t>普通2章第7关</t>
+  </si>
+  <si>
+    <t>普通2章第8关</t>
+  </si>
+  <si>
+    <t>普通2章第9关</t>
+  </si>
+  <si>
+    <t>普通3章第1关</t>
+  </si>
+  <si>
+    <t>普通3章第2关</t>
+  </si>
+  <si>
+    <t>普通3章第3关</t>
+  </si>
+  <si>
+    <t>普通3章第4关</t>
+  </si>
+  <si>
+    <t>普通3章第5关</t>
+  </si>
+  <si>
+    <t>普通3章第6关</t>
+  </si>
+  <si>
+    <t>普通3章第7关</t>
+  </si>
+  <si>
+    <t>普通3章第8关</t>
+  </si>
+  <si>
+    <t>普通3章第9关</t>
+  </si>
+  <si>
+    <t>普通4章第1关</t>
+  </si>
+  <si>
+    <t>普通4章第2关</t>
+  </si>
+  <si>
+    <t>普通4章第3关</t>
+  </si>
+  <si>
+    <t>普通4章第4关</t>
+  </si>
+  <si>
+    <t>普通4章第5关</t>
+  </si>
+  <si>
+    <t>普通4章第6关</t>
+  </si>
+  <si>
+    <t>普通4章第7关</t>
+  </si>
+  <si>
+    <t>普通4章第8关</t>
+  </si>
+  <si>
+    <t>普通4章第9关</t>
+  </si>
+  <si>
+    <t>普通5章第1关</t>
+  </si>
+  <si>
+    <t>普通5章第2关</t>
+  </si>
+  <si>
+    <t>普通5章第3关</t>
+  </si>
+  <si>
+    <t>普通5章第4关</t>
+  </si>
+  <si>
+    <t>普通5章第5关</t>
+  </si>
+  <si>
+    <t>普通5章第6关</t>
+  </si>
+  <si>
+    <t>普通5章第7关</t>
+  </si>
+  <si>
+    <t>普通5章第8关</t>
+  </si>
+  <si>
+    <t>普通5章第9关</t>
+  </si>
+  <si>
+    <t>普通5章第10关</t>
+  </si>
+  <si>
+    <t>普通5章第11关</t>
+  </si>
+  <si>
+    <t>普通5章第12关</t>
+  </si>
+  <si>
+    <t>普通5章第13关</t>
+  </si>
+  <si>
+    <t>普通5章第14关</t>
+  </si>
+  <si>
+    <t>普通5章第15关</t>
+  </si>
+  <si>
+    <t>普通6章第1关</t>
+  </si>
+  <si>
+    <t>普通6章第2关</t>
+  </si>
+  <si>
+    <t>普通6章第3关</t>
+  </si>
+  <si>
+    <t>普通6章第4关</t>
+  </si>
+  <si>
+    <t>普通6章第5关</t>
+  </si>
+  <si>
+    <t>普通6章第6关</t>
+  </si>
+  <si>
+    <t>普通6章第7关</t>
+  </si>
+  <si>
+    <t>普通6章第8关</t>
+  </si>
+  <si>
+    <t>普通6章第9关</t>
+  </si>
+  <si>
+    <t>普通6章第10关</t>
+  </si>
+  <si>
+    <t>普通6章第11关</t>
+  </si>
+  <si>
+    <t>普通6章第12关</t>
+  </si>
+  <si>
+    <t>普通6章第13关</t>
+  </si>
+  <si>
+    <t>普通6章第14关</t>
+  </si>
+  <si>
+    <t>普通6章第15关</t>
+  </si>
+  <si>
+    <t>普通7章第1关</t>
+  </si>
+  <si>
+    <t>普通7章第2关</t>
+  </si>
+  <si>
+    <t>普通7章第3关</t>
+  </si>
+  <si>
+    <t>普通7章第4关</t>
+  </si>
+  <si>
+    <t>普通7章第5关</t>
+  </si>
+  <si>
+    <t>普通7章第6关</t>
+  </si>
+  <si>
+    <t>普通7章第7关</t>
+  </si>
+  <si>
+    <t>普通7章第8关</t>
+  </si>
+  <si>
+    <t>普通7章第9关</t>
+  </si>
+  <si>
+    <t>普通7章第10关</t>
+  </si>
+  <si>
+    <t>普通7章第11关</t>
+  </si>
+  <si>
+    <t>普通7章第12关</t>
+  </si>
+  <si>
+    <t>普通7章第13关</t>
+  </si>
+  <si>
+    <t>普通7章第14关</t>
+  </si>
+  <si>
+    <t>普通7章第15关</t>
+  </si>
+  <si>
+    <t>普通8章第1关</t>
+  </si>
+  <si>
+    <t>普通8章第2关</t>
+  </si>
+  <si>
+    <t>普通8章第3关</t>
+  </si>
+  <si>
+    <t>普通8章第4关</t>
+  </si>
+  <si>
+    <t>普通8章第5关</t>
+  </si>
+  <si>
+    <t>普通8章第6关</t>
+  </si>
+  <si>
+    <t>普通8章第7关</t>
+  </si>
+  <si>
+    <t>普通8章第8关</t>
+  </si>
+  <si>
+    <t>普通8章第9关</t>
+  </si>
+  <si>
+    <t>普通8章第10关</t>
+  </si>
+  <si>
+    <t>普通8章第11关</t>
+  </si>
+  <si>
+    <t>普通8章第12关</t>
+  </si>
+  <si>
+    <t>普通8章第13关</t>
+  </si>
+  <si>
+    <t>普通8章第14关</t>
+  </si>
+  <si>
+    <t>普通8章第15关</t>
+  </si>
+  <si>
+    <t>普通9章第1关</t>
+  </si>
+  <si>
+    <t>普通9章第2关</t>
+  </si>
+  <si>
+    <t>普通9章第3关</t>
+  </si>
+  <si>
+    <t>普通9章第4关</t>
+  </si>
+  <si>
+    <t>普通9章第5关</t>
+  </si>
+  <si>
+    <t>普通9章第6关</t>
+  </si>
+  <si>
+    <t>普通9章第7关</t>
+  </si>
+  <si>
+    <t>普通9章第8关</t>
+  </si>
+  <si>
+    <t>普通9章第9关</t>
+  </si>
+  <si>
+    <t>普通9章第10关</t>
+  </si>
+  <si>
+    <t>普通9章第11关</t>
+  </si>
+  <si>
+    <t>普通9章第12关</t>
+  </si>
+  <si>
+    <t>普通9章第13关</t>
+  </si>
+  <si>
+    <t>普通9章第14关</t>
+  </si>
+  <si>
+    <t>普通9章第15关</t>
+  </si>
+  <si>
+    <t>普通10章第1关</t>
+  </si>
+  <si>
+    <t>普通10章第2关</t>
+  </si>
+  <si>
+    <t>普通10章第3关</t>
+  </si>
+  <si>
+    <t>普通10章第4关</t>
+  </si>
+  <si>
+    <t>普通10章第5关</t>
+  </si>
+  <si>
+    <t>普通10章第6关</t>
+  </si>
+  <si>
+    <t>普通10章第7关</t>
+  </si>
+  <si>
+    <t>普通10章第8关</t>
+  </si>
+  <si>
+    <t>普通10章第9关</t>
+  </si>
+  <si>
+    <t>普通10章第10关</t>
+  </si>
+  <si>
+    <t>普通10章第11关</t>
+  </si>
+  <si>
+    <t>普通10章第12关</t>
+  </si>
+  <si>
+    <t>普通10章第13关</t>
+  </si>
+  <si>
+    <t>普通10章第14关</t>
+  </si>
+  <si>
+    <t>普通10章第15关</t>
+  </si>
+  <si>
+    <t>普通11章第1关</t>
+  </si>
+  <si>
+    <t>普通11章第2关</t>
+  </si>
+  <si>
+    <t>普通11章第3关</t>
+  </si>
+  <si>
+    <t>普通11章第4关</t>
+  </si>
+  <si>
+    <t>普通11章第5关</t>
+  </si>
+  <si>
+    <t>普通11章第6关</t>
+  </si>
+  <si>
+    <t>普通11章第7关</t>
+  </si>
+  <si>
+    <t>普通11章第8关</t>
+  </si>
+  <si>
+    <t>普通11章第9关</t>
+  </si>
+  <si>
+    <t>普通11章第10关</t>
+  </si>
+  <si>
+    <t>普通11章第11关</t>
+  </si>
+  <si>
+    <t>普通11章第12关</t>
+  </si>
+  <si>
+    <t>普通11章第13关</t>
+  </si>
+  <si>
+    <t>普通11章第14关</t>
+  </si>
+  <si>
+    <t>普通11章第15关</t>
+  </si>
+  <si>
+    <t>等级</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>唐流雨</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -1208,10 +1632,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F153"/>
+  <dimension ref="A1:L153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1219,9 +1643,10 @@
     <col min="2" max="3" width="10.125" customWidth="1"/>
     <col min="4" max="4" width="9.5" customWidth="1"/>
     <col min="5" max="6" width="19.625" customWidth="1"/>
+    <col min="9" max="9" width="15.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -1238,10 +1663,10 @@
         <v>23</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -1261,7 +1686,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
@@ -1278,10 +1703,13 @@
         <v>28</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -1301,8 +1729,21 @@
       <c r="F4" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I4" t="s">
+        <v>131</v>
+      </c>
+      <c r="J4">
+        <v>30</v>
+      </c>
+      <c r="K4">
+        <f>SUM($J$4:J4)</f>
+        <v>30</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>2</v>
       </c>
@@ -1322,8 +1763,21 @@
       <c r="F5" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I5" t="s">
+        <v>132</v>
+      </c>
+      <c r="J5">
+        <v>35</v>
+      </c>
+      <c r="K5">
+        <f>SUM($J$4:J5)</f>
+        <v>65</v>
+      </c>
+      <c r="L5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>3</v>
       </c>
@@ -1332,10 +1786,10 @@
       </c>
       <c r="C6" s="5">
         <f>SUM(D$4:D6)</f>
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="D6" s="5">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E6" s="5">
         <v>1</v>
@@ -1343,8 +1797,21 @@
       <c r="F6" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I6" t="s">
+        <v>133</v>
+      </c>
+      <c r="J6">
+        <v>40</v>
+      </c>
+      <c r="K6">
+        <f>SUM($J$4:J6)</f>
+        <v>105</v>
+      </c>
+      <c r="L6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>4</v>
       </c>
@@ -1353,10 +1820,10 @@
       </c>
       <c r="C7" s="5">
         <f>SUM(D$4:D7)</f>
-        <v>350</v>
+        <v>375</v>
       </c>
       <c r="D7" s="5">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="E7" s="5">
         <v>1</v>
@@ -1364,8 +1831,21 @@
       <c r="F7" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I7" t="s">
+        <v>134</v>
+      </c>
+      <c r="J7">
+        <v>45</v>
+      </c>
+      <c r="K7">
+        <f>SUM($J$4:J7)</f>
+        <v>150</v>
+      </c>
+      <c r="L7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>5</v>
       </c>
@@ -1374,7 +1854,7 @@
       </c>
       <c r="C8" s="5">
         <f>SUM(D$4:D8)</f>
-        <v>500</v>
+        <v>525</v>
       </c>
       <c r="D8" s="5">
         <v>150</v>
@@ -1385,8 +1865,21 @@
       <c r="F8" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I8" t="s">
+        <v>135</v>
+      </c>
+      <c r="J8">
+        <v>50</v>
+      </c>
+      <c r="K8">
+        <f>SUM($J$4:J8)</f>
+        <v>200</v>
+      </c>
+      <c r="L8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>6</v>
       </c>
@@ -1395,7 +1888,7 @@
       </c>
       <c r="C9" s="5">
         <f>SUM(D$4:D9)</f>
-        <v>675</v>
+        <v>700</v>
       </c>
       <c r="D9" s="5">
         <v>175</v>
@@ -1406,8 +1899,21 @@
       <c r="F9" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I9" t="s">
+        <v>136</v>
+      </c>
+      <c r="J9">
+        <v>65</v>
+      </c>
+      <c r="K9">
+        <f>SUM($J$4:J9)</f>
+        <v>265</v>
+      </c>
+      <c r="L9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>7</v>
       </c>
@@ -1416,7 +1922,7 @@
       </c>
       <c r="C10" s="5">
         <f>SUM(D$4:D10)</f>
-        <v>935</v>
+        <v>960</v>
       </c>
       <c r="D10" s="5">
         <v>260</v>
@@ -1427,8 +1933,21 @@
       <c r="F10" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I10" t="s">
+        <v>137</v>
+      </c>
+      <c r="J10">
+        <v>65</v>
+      </c>
+      <c r="K10">
+        <f>SUM($J$4:J10)</f>
+        <v>330</v>
+      </c>
+      <c r="L10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>8</v>
       </c>
@@ -1437,7 +1956,7 @@
       </c>
       <c r="C11" s="5">
         <f>SUM(D$4:D11)</f>
-        <v>1245</v>
+        <v>1270</v>
       </c>
       <c r="D11" s="5">
         <v>310</v>
@@ -1448,8 +1967,21 @@
       <c r="F11" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I11" t="s">
+        <v>138</v>
+      </c>
+      <c r="J11">
+        <v>65</v>
+      </c>
+      <c r="K11">
+        <f>SUM($J$4:J11)</f>
+        <v>395</v>
+      </c>
+      <c r="L11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>9</v>
       </c>
@@ -1458,7 +1990,7 @@
       </c>
       <c r="C12" s="5">
         <f>SUM(D$4:D12)</f>
-        <v>1665</v>
+        <v>1690</v>
       </c>
       <c r="D12" s="5">
         <v>420</v>
@@ -1469,8 +2001,21 @@
       <c r="F12" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I12" t="s">
+        <v>139</v>
+      </c>
+      <c r="J12">
+        <v>130</v>
+      </c>
+      <c r="K12">
+        <f>SUM($J$4:J12)</f>
+        <v>525</v>
+      </c>
+      <c r="L12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>10</v>
       </c>
@@ -1479,7 +2024,7 @@
       </c>
       <c r="C13" s="5">
         <f>SUM(D$4:D13)</f>
-        <v>2030</v>
+        <v>2055</v>
       </c>
       <c r="D13" s="5">
         <v>365</v>
@@ -1490,8 +2035,21 @@
       <c r="F13" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I13" t="s">
+        <v>140</v>
+      </c>
+      <c r="J13">
+        <v>140</v>
+      </c>
+      <c r="K13">
+        <f>SUM($J$4:J13)</f>
+        <v>665</v>
+      </c>
+      <c r="L13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>11</v>
       </c>
@@ -1500,7 +2058,7 @@
       </c>
       <c r="C14" s="5">
         <f>SUM(D$4:D14)</f>
-        <v>2470</v>
+        <v>2495</v>
       </c>
       <c r="D14" s="5">
         <v>440</v>
@@ -1511,8 +2069,21 @@
       <c r="F14" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I14" t="s">
+        <v>141</v>
+      </c>
+      <c r="J14">
+        <v>140</v>
+      </c>
+      <c r="K14">
+        <f>SUM($J$4:J14)</f>
+        <v>805</v>
+      </c>
+      <c r="L14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>12</v>
       </c>
@@ -1521,7 +2092,7 @@
       </c>
       <c r="C15" s="5">
         <f>SUM(D$4:D15)</f>
-        <v>2980</v>
+        <v>3005</v>
       </c>
       <c r="D15" s="5">
         <v>510</v>
@@ -1532,8 +2103,21 @@
       <c r="F15" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I15" t="s">
+        <v>142</v>
+      </c>
+      <c r="J15">
+        <v>140</v>
+      </c>
+      <c r="K15">
+        <f>SUM($J$4:J15)</f>
+        <v>945</v>
+      </c>
+      <c r="L15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>13</v>
       </c>
@@ -1542,7 +2126,7 @@
       </c>
       <c r="C16" s="5">
         <f>SUM(D$4:D16)</f>
-        <v>3565</v>
+        <v>3590</v>
       </c>
       <c r="D16" s="5">
         <v>585</v>
@@ -1553,8 +2137,21 @@
       <c r="F16" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I16" t="s">
+        <v>143</v>
+      </c>
+      <c r="J16">
+        <v>140</v>
+      </c>
+      <c r="K16">
+        <f>SUM($J$4:J16)</f>
+        <v>1085</v>
+      </c>
+      <c r="L16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>14</v>
       </c>
@@ -1563,7 +2160,7 @@
       </c>
       <c r="C17" s="5">
         <f>SUM(D$4:D17)</f>
-        <v>4225</v>
+        <v>4250</v>
       </c>
       <c r="D17" s="5">
         <v>660</v>
@@ -1574,8 +2171,21 @@
       <c r="F17" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I17" t="s">
+        <v>144</v>
+      </c>
+      <c r="J17">
+        <v>140</v>
+      </c>
+      <c r="K17">
+        <f>SUM($J$4:J17)</f>
+        <v>1225</v>
+      </c>
+      <c r="L17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>15</v>
       </c>
@@ -1584,7 +2194,7 @@
       </c>
       <c r="C18" s="5">
         <f>SUM(D$4:D18)</f>
-        <v>4955</v>
+        <v>4980</v>
       </c>
       <c r="D18" s="5">
         <v>730</v>
@@ -1595,8 +2205,21 @@
       <c r="F18" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I18" t="s">
+        <v>145</v>
+      </c>
+      <c r="J18">
+        <v>140</v>
+      </c>
+      <c r="K18">
+        <f>SUM($J$4:J18)</f>
+        <v>1365</v>
+      </c>
+      <c r="L18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>16</v>
       </c>
@@ -1605,7 +2228,7 @@
       </c>
       <c r="C19" s="5">
         <f>SUM(D$4:D19)</f>
-        <v>5780</v>
+        <v>5805</v>
       </c>
       <c r="D19" s="5">
         <v>825</v>
@@ -1616,8 +2239,21 @@
       <c r="F19" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I19" t="s">
+        <v>146</v>
+      </c>
+      <c r="J19">
+        <v>140</v>
+      </c>
+      <c r="K19">
+        <f>SUM($J$4:J19)</f>
+        <v>1505</v>
+      </c>
+      <c r="L19">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>17</v>
       </c>
@@ -1626,7 +2262,7 @@
       </c>
       <c r="C20" s="5">
         <f>SUM(D$4:D20)</f>
-        <v>6695</v>
+        <v>6720</v>
       </c>
       <c r="D20" s="5">
         <v>915</v>
@@ -1637,8 +2273,21 @@
       <c r="F20" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I20" t="s">
+        <v>147</v>
+      </c>
+      <c r="J20">
+        <v>140</v>
+      </c>
+      <c r="K20">
+        <f>SUM($J$4:J20)</f>
+        <v>1645</v>
+      </c>
+      <c r="L20">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>18</v>
       </c>
@@ -1647,7 +2296,7 @@
       </c>
       <c r="C21" s="5">
         <f>SUM(D$4:D21)</f>
-        <v>7705</v>
+        <v>7730</v>
       </c>
       <c r="D21" s="5">
         <v>1010</v>
@@ -1658,8 +2307,21 @@
       <c r="F21" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I21" t="s">
+        <v>148</v>
+      </c>
+      <c r="J21">
+        <v>140</v>
+      </c>
+      <c r="K21">
+        <f>SUM($J$4:J21)</f>
+        <v>1785</v>
+      </c>
+      <c r="L21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>19</v>
       </c>
@@ -1668,7 +2330,7 @@
       </c>
       <c r="C22" s="5">
         <f>SUM(D$4:D22)</f>
-        <v>8805</v>
+        <v>8830</v>
       </c>
       <c r="D22" s="5">
         <v>1100</v>
@@ -1679,8 +2341,21 @@
       <c r="F22" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I22" t="s">
+        <v>149</v>
+      </c>
+      <c r="J22">
+        <v>200</v>
+      </c>
+      <c r="K22">
+        <f>SUM($J$4:J22)</f>
+        <v>1985</v>
+      </c>
+      <c r="L22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>20</v>
       </c>
@@ -1689,7 +2364,7 @@
       </c>
       <c r="C23" s="5">
         <f>SUM(D$4:D23)</f>
-        <v>9725</v>
+        <v>9750</v>
       </c>
       <c r="D23" s="5">
         <v>920</v>
@@ -1700,8 +2375,21 @@
       <c r="F23" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I23" t="s">
+        <v>150</v>
+      </c>
+      <c r="J23">
+        <v>200</v>
+      </c>
+      <c r="K23">
+        <f>SUM($J$4:J23)</f>
+        <v>2185</v>
+      </c>
+      <c r="L23">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>21</v>
       </c>
@@ -1710,7 +2398,7 @@
       </c>
       <c r="C24" s="5">
         <f>SUM(D$4:D24)</f>
-        <v>10735</v>
+        <v>10760</v>
       </c>
       <c r="D24" s="5">
         <v>1010</v>
@@ -1721,8 +2409,21 @@
       <c r="F24" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I24" t="s">
+        <v>151</v>
+      </c>
+      <c r="J24">
+        <v>200</v>
+      </c>
+      <c r="K24">
+        <f>SUM($J$4:J24)</f>
+        <v>2385</v>
+      </c>
+      <c r="L24">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>22</v>
       </c>
@@ -1731,7 +2432,7 @@
       </c>
       <c r="C25" s="5">
         <f>SUM(D$4:D25)</f>
-        <v>11840</v>
+        <v>11865</v>
       </c>
       <c r="D25" s="5">
         <v>1105</v>
@@ -1742,8 +2443,21 @@
       <c r="F25" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I25" t="s">
+        <v>152</v>
+      </c>
+      <c r="J25">
+        <v>200</v>
+      </c>
+      <c r="K25">
+        <f>SUM($J$4:J25)</f>
+        <v>2585</v>
+      </c>
+      <c r="L25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>23</v>
       </c>
@@ -1752,7 +2466,7 @@
       </c>
       <c r="C26" s="5">
         <f>SUM(D$4:D26)</f>
-        <v>13035</v>
+        <v>13060</v>
       </c>
       <c r="D26" s="5">
         <v>1195</v>
@@ -1763,8 +2477,21 @@
       <c r="F26" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I26" t="s">
+        <v>153</v>
+      </c>
+      <c r="J26">
+        <v>200</v>
+      </c>
+      <c r="K26">
+        <f>SUM($J$4:J26)</f>
+        <v>2785</v>
+      </c>
+      <c r="L26">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>24</v>
       </c>
@@ -1773,7 +2500,7 @@
       </c>
       <c r="C27" s="5">
         <f>SUM(D$4:D27)</f>
-        <v>14325</v>
+        <v>14350</v>
       </c>
       <c r="D27" s="5">
         <v>1290</v>
@@ -1784,8 +2511,21 @@
       <c r="F27" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I27" t="s">
+        <v>154</v>
+      </c>
+      <c r="J27">
+        <v>200</v>
+      </c>
+      <c r="K27">
+        <f>SUM($J$4:J27)</f>
+        <v>2985</v>
+      </c>
+      <c r="L27">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>25</v>
       </c>
@@ -1794,7 +2534,7 @@
       </c>
       <c r="C28" s="5">
         <f>SUM(D$4:D28)</f>
-        <v>15705</v>
+        <v>15730</v>
       </c>
       <c r="D28" s="5">
         <v>1380</v>
@@ -1805,8 +2545,21 @@
       <c r="F28" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I28" t="s">
+        <v>155</v>
+      </c>
+      <c r="J28">
+        <v>200</v>
+      </c>
+      <c r="K28">
+        <f>SUM($J$4:J28)</f>
+        <v>3185</v>
+      </c>
+      <c r="L28">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>26</v>
       </c>
@@ -1815,7 +2568,7 @@
       </c>
       <c r="C29" s="5">
         <f>SUM(D$4:D29)</f>
-        <v>17180</v>
+        <v>17205</v>
       </c>
       <c r="D29" s="5">
         <v>1475</v>
@@ -1826,8 +2579,21 @@
       <c r="F29" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I29" t="s">
+        <v>156</v>
+      </c>
+      <c r="J29">
+        <v>200</v>
+      </c>
+      <c r="K29">
+        <f>SUM($J$4:J29)</f>
+        <v>3385</v>
+      </c>
+      <c r="L29">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>27</v>
       </c>
@@ -1836,7 +2602,7 @@
       </c>
       <c r="C30" s="5">
         <f>SUM(D$4:D30)</f>
-        <v>18745</v>
+        <v>18770</v>
       </c>
       <c r="D30" s="5">
         <v>1565</v>
@@ -1847,8 +2613,21 @@
       <c r="F30" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I30" t="s">
+        <v>157</v>
+      </c>
+      <c r="J30">
+        <v>200</v>
+      </c>
+      <c r="K30">
+        <f>SUM($J$4:J30)</f>
+        <v>3585</v>
+      </c>
+      <c r="L30">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <v>28</v>
       </c>
@@ -1857,7 +2636,7 @@
       </c>
       <c r="C31" s="5">
         <f>SUM(D$4:D31)</f>
-        <v>20405</v>
+        <v>20430</v>
       </c>
       <c r="D31" s="5">
         <v>1660</v>
@@ -1868,8 +2647,18 @@
       <c r="F31" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I31" t="s">
+        <v>158</v>
+      </c>
+      <c r="J31">
+        <v>260</v>
+      </c>
+      <c r="K31">
+        <f>SUM($J$4:J31)</f>
+        <v>3845</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
         <v>29</v>
       </c>
@@ -1878,7 +2667,7 @@
       </c>
       <c r="C32" s="5">
         <f>SUM(D$4:D32)</f>
-        <v>22245</v>
+        <v>22270</v>
       </c>
       <c r="D32" s="5">
         <v>1840</v>
@@ -1889,8 +2678,18 @@
       <c r="F32" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I32" t="s">
+        <v>159</v>
+      </c>
+      <c r="J32">
+        <v>260</v>
+      </c>
+      <c r="K32">
+        <f>SUM($J$4:J32)</f>
+        <v>4105</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <v>30</v>
       </c>
@@ -1899,7 +2698,7 @@
       </c>
       <c r="C33" s="5">
         <f>SUM(D$4:D33)</f>
-        <v>24400</v>
+        <v>24425</v>
       </c>
       <c r="D33" s="5">
         <v>2155</v>
@@ -1910,8 +2709,18 @@
       <c r="F33" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I33" t="s">
+        <v>160</v>
+      </c>
+      <c r="J33">
+        <v>260</v>
+      </c>
+      <c r="K33">
+        <f>SUM($J$4:J33)</f>
+        <v>4365</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
         <v>31</v>
       </c>
@@ -1920,7 +2729,7 @@
       </c>
       <c r="C34" s="5">
         <f>SUM(D$4:D34)</f>
-        <v>26990</v>
+        <v>27015</v>
       </c>
       <c r="D34" s="5">
         <v>2590</v>
@@ -1931,8 +2740,18 @@
       <c r="F34" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I34" t="s">
+        <v>161</v>
+      </c>
+      <c r="J34">
+        <v>260</v>
+      </c>
+      <c r="K34">
+        <f>SUM($J$4:J34)</f>
+        <v>4625</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
         <v>32</v>
       </c>
@@ -1941,7 +2760,7 @@
       </c>
       <c r="C35" s="5">
         <f>SUM(D$4:D35)</f>
-        <v>30010</v>
+        <v>30035</v>
       </c>
       <c r="D35" s="5">
         <v>3020</v>
@@ -1952,8 +2771,18 @@
       <c r="F35" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I35" t="s">
+        <v>162</v>
+      </c>
+      <c r="J35">
+        <v>260</v>
+      </c>
+      <c r="K35">
+        <f>SUM($J$4:J35)</f>
+        <v>4885</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
         <v>33</v>
       </c>
@@ -1962,7 +2791,7 @@
       </c>
       <c r="C36" s="5">
         <f>SUM(D$4:D36)</f>
-        <v>33460</v>
+        <v>33485</v>
       </c>
       <c r="D36" s="5">
         <v>3450</v>
@@ -1973,8 +2802,18 @@
       <c r="F36" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I36" t="s">
+        <v>163</v>
+      </c>
+      <c r="J36">
+        <v>260</v>
+      </c>
+      <c r="K36">
+        <f>SUM($J$4:J36)</f>
+        <v>5145</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
         <v>34</v>
       </c>
@@ -1983,7 +2822,7 @@
       </c>
       <c r="C37" s="5">
         <f>SUM(D$4:D37)</f>
-        <v>37345</v>
+        <v>37370</v>
       </c>
       <c r="D37" s="5">
         <v>3885</v>
@@ -1994,8 +2833,18 @@
       <c r="F37" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I37" t="s">
+        <v>164</v>
+      </c>
+      <c r="J37">
+        <v>260</v>
+      </c>
+      <c r="K37">
+        <f>SUM($J$4:J37)</f>
+        <v>5405</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
         <v>35</v>
       </c>
@@ -2004,7 +2853,7 @@
       </c>
       <c r="C38" s="5">
         <f>SUM(D$4:D38)</f>
-        <v>41660</v>
+        <v>41685</v>
       </c>
       <c r="D38" s="5">
         <v>4315</v>
@@ -2015,8 +2864,18 @@
       <c r="F38" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I38" t="s">
+        <v>165</v>
+      </c>
+      <c r="J38">
+        <v>260</v>
+      </c>
+      <c r="K38">
+        <f>SUM($J$4:J38)</f>
+        <v>5665</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
         <v>36</v>
       </c>
@@ -2025,7 +2884,7 @@
       </c>
       <c r="C39" s="5">
         <f>SUM(D$4:D39)</f>
-        <v>46405</v>
+        <v>46430</v>
       </c>
       <c r="D39" s="5">
         <v>4745</v>
@@ -2036,8 +2895,18 @@
       <c r="F39" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I39" t="s">
+        <v>166</v>
+      </c>
+      <c r="J39">
+        <v>260</v>
+      </c>
+      <c r="K39">
+        <f>SUM($J$4:J39)</f>
+        <v>5925</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
         <v>37</v>
       </c>
@@ -2046,7 +2915,7 @@
       </c>
       <c r="C40" s="5">
         <f>SUM(D$4:D40)</f>
-        <v>51585</v>
+        <v>51610</v>
       </c>
       <c r="D40" s="5">
         <v>5180</v>
@@ -2057,8 +2926,18 @@
       <c r="F40" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I40" t="s">
+        <v>167</v>
+      </c>
+      <c r="J40">
+        <v>320</v>
+      </c>
+      <c r="K40">
+        <f>SUM($J$4:J40)</f>
+        <v>6245</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
         <v>38</v>
       </c>
@@ -2067,7 +2946,7 @@
       </c>
       <c r="C41" s="5">
         <f>SUM(D$4:D41)</f>
-        <v>57195</v>
+        <v>57220</v>
       </c>
       <c r="D41" s="5">
         <v>5610</v>
@@ -2078,8 +2957,18 @@
       <c r="F41" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I41" t="s">
+        <v>168</v>
+      </c>
+      <c r="J41">
+        <v>320</v>
+      </c>
+      <c r="K41">
+        <f>SUM($J$4:J41)</f>
+        <v>6565</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
         <v>39</v>
       </c>
@@ -2088,7 +2977,7 @@
       </c>
       <c r="C42" s="5">
         <f>SUM(D$4:D42)</f>
-        <v>63670</v>
+        <v>63695</v>
       </c>
       <c r="D42" s="5">
         <v>6475</v>
@@ -2099,8 +2988,18 @@
       <c r="F42" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I42" t="s">
+        <v>169</v>
+      </c>
+      <c r="J42">
+        <v>320</v>
+      </c>
+      <c r="K42">
+        <f>SUM($J$4:J42)</f>
+        <v>6885</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A43" s="5">
         <v>40</v>
       </c>
@@ -2109,7 +3008,7 @@
       </c>
       <c r="C43" s="5">
         <f>SUM(D$4:D43)</f>
-        <v>70000</v>
+        <v>70025</v>
       </c>
       <c r="D43" s="5">
         <v>6330</v>
@@ -2120,8 +3019,18 @@
       <c r="F43" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I43" t="s">
+        <v>170</v>
+      </c>
+      <c r="J43">
+        <v>320</v>
+      </c>
+      <c r="K43">
+        <f>SUM($J$4:J43)</f>
+        <v>7205</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A44" s="5">
         <v>41</v>
       </c>
@@ -2130,7 +3039,7 @@
       </c>
       <c r="C44" s="5">
         <f>SUM(D$4:D44)</f>
-        <v>76965</v>
+        <v>76990</v>
       </c>
       <c r="D44" s="5">
         <v>6965</v>
@@ -2141,8 +3050,18 @@
       <c r="F44" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I44" t="s">
+        <v>171</v>
+      </c>
+      <c r="J44">
+        <v>320</v>
+      </c>
+      <c r="K44">
+        <f>SUM($J$4:J44)</f>
+        <v>7525</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A45" s="5">
         <v>42</v>
       </c>
@@ -2151,7 +3070,7 @@
       </c>
       <c r="C45" s="5">
         <f>SUM(D$4:D45)</f>
-        <v>84565</v>
+        <v>84590</v>
       </c>
       <c r="D45" s="5">
         <v>7600</v>
@@ -2162,8 +3081,18 @@
       <c r="F45" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I45" t="s">
+        <v>172</v>
+      </c>
+      <c r="J45">
+        <v>320</v>
+      </c>
+      <c r="K45">
+        <f>SUM($J$4:J45)</f>
+        <v>7845</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A46" s="5">
         <v>43</v>
       </c>
@@ -2172,7 +3101,7 @@
       </c>
       <c r="C46" s="5">
         <f>SUM(D$4:D46)</f>
-        <v>92795</v>
+        <v>92820</v>
       </c>
       <c r="D46" s="5">
         <v>8230</v>
@@ -2183,8 +3112,18 @@
       <c r="F46" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I46" t="s">
+        <v>173</v>
+      </c>
+      <c r="J46">
+        <v>320</v>
+      </c>
+      <c r="K46">
+        <f>SUM($J$4:J46)</f>
+        <v>8165</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A47" s="5">
         <v>44</v>
       </c>
@@ -2193,7 +3132,7 @@
       </c>
       <c r="C47" s="5">
         <f>SUM(D$4:D47)</f>
-        <v>101660</v>
+        <v>101685</v>
       </c>
       <c r="D47" s="5">
         <v>8865</v>
@@ -2204,8 +3143,18 @@
       <c r="F47" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I47" t="s">
+        <v>174</v>
+      </c>
+      <c r="J47">
+        <v>320</v>
+      </c>
+      <c r="K47">
+        <f>SUM($J$4:J47)</f>
+        <v>8485</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A48" s="5">
         <v>45</v>
       </c>
@@ -2214,7 +3163,7 @@
       </c>
       <c r="C48" s="5">
         <f>SUM(D$4:D48)</f>
-        <v>111160</v>
+        <v>111185</v>
       </c>
       <c r="D48" s="5">
         <v>9500</v>
@@ -2225,8 +3174,18 @@
       <c r="F48" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I48" t="s">
+        <v>175</v>
+      </c>
+      <c r="J48">
+        <v>320</v>
+      </c>
+      <c r="K48">
+        <f>SUM($J$4:J48)</f>
+        <v>8805</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A49" s="5">
         <v>46</v>
       </c>
@@ -2235,7 +3194,7 @@
       </c>
       <c r="C49" s="5">
         <f>SUM(D$4:D49)</f>
-        <v>121290</v>
+        <v>121315</v>
       </c>
       <c r="D49" s="5">
         <v>10130</v>
@@ -2246,8 +3205,18 @@
       <c r="F49" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I49" t="s">
+        <v>176</v>
+      </c>
+      <c r="J49">
+        <v>320</v>
+      </c>
+      <c r="K49">
+        <f>SUM($J$4:J49)</f>
+        <v>9125</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A50" s="5">
         <v>47</v>
       </c>
@@ -2256,7 +3225,7 @@
       </c>
       <c r="C50" s="5">
         <f>SUM(D$4:D50)</f>
-        <v>132055</v>
+        <v>132080</v>
       </c>
       <c r="D50" s="5">
         <v>10765</v>
@@ -2267,8 +3236,18 @@
       <c r="F50" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I50" t="s">
+        <v>177</v>
+      </c>
+      <c r="J50">
+        <v>320</v>
+      </c>
+      <c r="K50">
+        <f>SUM($J$4:J50)</f>
+        <v>9445</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A51" s="5">
         <v>48</v>
       </c>
@@ -2277,7 +3256,7 @@
       </c>
       <c r="C51" s="5">
         <f>SUM(D$4:D51)</f>
-        <v>143455</v>
+        <v>143480</v>
       </c>
       <c r="D51" s="5">
         <v>11400</v>
@@ -2288,8 +3267,18 @@
       <c r="F51" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I51" t="s">
+        <v>178</v>
+      </c>
+      <c r="J51">
+        <v>320</v>
+      </c>
+      <c r="K51">
+        <f>SUM($J$4:J51)</f>
+        <v>9765</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A52" s="5">
         <v>49</v>
       </c>
@@ -2298,7 +3287,7 @@
       </c>
       <c r="C52" s="5">
         <f>SUM(D$4:D52)</f>
-        <v>156120</v>
+        <v>156145</v>
       </c>
       <c r="D52" s="5">
         <v>12665</v>
@@ -2309,8 +3298,18 @@
       <c r="F52" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I52" t="s">
+        <v>179</v>
+      </c>
+      <c r="J52">
+        <v>320</v>
+      </c>
+      <c r="K52">
+        <f>SUM($J$4:J52)</f>
+        <v>10085</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A53" s="5">
         <v>50</v>
       </c>
@@ -2319,7 +3318,7 @@
       </c>
       <c r="C53" s="5">
         <f>SUM(D$4:D53)</f>
-        <v>165280</v>
+        <v>165305</v>
       </c>
       <c r="D53" s="5">
         <v>9160</v>
@@ -2330,8 +3329,18 @@
       <c r="F53" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I53" t="s">
+        <v>180</v>
+      </c>
+      <c r="J53">
+        <v>320</v>
+      </c>
+      <c r="K53">
+        <f>SUM($J$4:J53)</f>
+        <v>10405</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A54" s="5">
         <v>51</v>
       </c>
@@ -2340,7 +3349,7 @@
       </c>
       <c r="C54" s="5">
         <f>SUM(D$4:D54)</f>
-        <v>175355</v>
+        <v>175380</v>
       </c>
       <c r="D54" s="5">
         <v>10075</v>
@@ -2351,8 +3360,18 @@
       <c r="F54" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I54" t="s">
+        <v>181</v>
+      </c>
+      <c r="J54">
+        <v>320</v>
+      </c>
+      <c r="K54">
+        <f>SUM($J$4:J54)</f>
+        <v>10725</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A55" s="5">
         <v>52</v>
       </c>
@@ -2361,7 +3380,7 @@
       </c>
       <c r="C55" s="5">
         <f>SUM(D$4:D55)</f>
-        <v>186345</v>
+        <v>186370</v>
       </c>
       <c r="D55" s="5">
         <v>10990</v>
@@ -2372,8 +3391,18 @@
       <c r="F55" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I55" t="s">
+        <v>182</v>
+      </c>
+      <c r="J55">
+        <v>400</v>
+      </c>
+      <c r="K55">
+        <f>SUM($J$4:J55)</f>
+        <v>11125</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A56" s="5">
         <v>53</v>
       </c>
@@ -2382,7 +3411,7 @@
       </c>
       <c r="C56" s="5">
         <f>SUM(D$4:D56)</f>
-        <v>198250</v>
+        <v>198275</v>
       </c>
       <c r="D56" s="5">
         <v>11905</v>
@@ -2393,8 +3422,18 @@
       <c r="F56" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I56" t="s">
+        <v>183</v>
+      </c>
+      <c r="J56">
+        <v>400</v>
+      </c>
+      <c r="K56">
+        <f>SUM($J$4:J56)</f>
+        <v>11525</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A57" s="5">
         <v>54</v>
       </c>
@@ -2403,7 +3442,7 @@
       </c>
       <c r="C57" s="5">
         <f>SUM(D$4:D57)</f>
-        <v>211075</v>
+        <v>211100</v>
       </c>
       <c r="D57" s="5">
         <v>12825</v>
@@ -2414,8 +3453,18 @@
       <c r="F57" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I57" t="s">
+        <v>184</v>
+      </c>
+      <c r="J57">
+        <v>400</v>
+      </c>
+      <c r="K57">
+        <f>SUM($J$4:J57)</f>
+        <v>11925</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A58" s="5">
         <v>55</v>
       </c>
@@ -2424,7 +3473,7 @@
       </c>
       <c r="C58" s="5">
         <f>SUM(D$4:D58)</f>
-        <v>224815</v>
+        <v>224840</v>
       </c>
       <c r="D58" s="5">
         <v>13740</v>
@@ -2435,8 +3484,18 @@
       <c r="F58" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I58" t="s">
+        <v>185</v>
+      </c>
+      <c r="J58">
+        <v>400</v>
+      </c>
+      <c r="K58">
+        <f>SUM($J$4:J58)</f>
+        <v>12325</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A59" s="5">
         <v>56</v>
       </c>
@@ -2445,7 +3504,7 @@
       </c>
       <c r="C59" s="5">
         <f>SUM(D$4:D59)</f>
-        <v>239470</v>
+        <v>239495</v>
       </c>
       <c r="D59" s="5">
         <v>14655</v>
@@ -2456,8 +3515,18 @@
       <c r="F59" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I59" t="s">
+        <v>186</v>
+      </c>
+      <c r="J59">
+        <v>400</v>
+      </c>
+      <c r="K59">
+        <f>SUM($J$4:J59)</f>
+        <v>12725</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A60" s="5">
         <v>57</v>
       </c>
@@ -2466,7 +3535,7 @@
       </c>
       <c r="C60" s="5">
         <f>SUM(D$4:D60)</f>
-        <v>255040</v>
+        <v>255065</v>
       </c>
       <c r="D60" s="5">
         <v>15570</v>
@@ -2477,8 +3546,18 @@
       <c r="F60" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I60" t="s">
+        <v>187</v>
+      </c>
+      <c r="J60">
+        <v>400</v>
+      </c>
+      <c r="K60">
+        <f>SUM($J$4:J60)</f>
+        <v>13125</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A61" s="5">
         <v>58</v>
       </c>
@@ -2487,7 +3566,7 @@
       </c>
       <c r="C61" s="5">
         <f>SUM(D$4:D61)</f>
-        <v>271525</v>
+        <v>271550</v>
       </c>
       <c r="D61" s="5">
         <v>16485</v>
@@ -2498,8 +3577,18 @@
       <c r="F61" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I61" t="s">
+        <v>188</v>
+      </c>
+      <c r="J61">
+        <v>400</v>
+      </c>
+      <c r="K61">
+        <f>SUM($J$4:J61)</f>
+        <v>13525</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A62" s="5">
         <v>59</v>
       </c>
@@ -2508,7 +3597,7 @@
       </c>
       <c r="C62" s="5">
         <f>SUM(D$4:D62)</f>
-        <v>289845</v>
+        <v>289870</v>
       </c>
       <c r="D62" s="5">
         <v>18320</v>
@@ -2519,8 +3608,18 @@
       <c r="F62" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I62" t="s">
+        <v>189</v>
+      </c>
+      <c r="J62">
+        <v>400</v>
+      </c>
+      <c r="K62">
+        <f>SUM($J$4:J62)</f>
+        <v>13925</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A63" s="5">
         <v>60</v>
       </c>
@@ -2529,7 +3628,7 @@
       </c>
       <c r="C63" s="5">
         <f>SUM(D$4:D63)</f>
-        <v>304845</v>
+        <v>304870</v>
       </c>
       <c r="D63" s="5">
         <v>15000</v>
@@ -2540,8 +3639,18 @@
       <c r="F63" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I63" t="s">
+        <v>190</v>
+      </c>
+      <c r="J63">
+        <v>400</v>
+      </c>
+      <c r="K63">
+        <f>SUM($J$4:J63)</f>
+        <v>14325</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A64" s="5">
         <v>61</v>
       </c>
@@ -2550,7 +3659,7 @@
       </c>
       <c r="C64" s="5">
         <f>SUM(D$4:D64)</f>
-        <v>321345</v>
+        <v>321370</v>
       </c>
       <c r="D64" s="5">
         <v>16500</v>
@@ -2561,8 +3670,18 @@
       <c r="F64" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I64" t="s">
+        <v>191</v>
+      </c>
+      <c r="J64">
+        <v>400</v>
+      </c>
+      <c r="K64">
+        <f>SUM($J$4:J64)</f>
+        <v>14725</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A65" s="5">
         <v>62</v>
       </c>
@@ -2571,7 +3690,7 @@
       </c>
       <c r="C65" s="5">
         <f>SUM(D$4:D65)</f>
-        <v>339345</v>
+        <v>339370</v>
       </c>
       <c r="D65" s="5">
         <v>18000</v>
@@ -2582,8 +3701,18 @@
       <c r="F65" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I65" t="s">
+        <v>192</v>
+      </c>
+      <c r="J65">
+        <v>400</v>
+      </c>
+      <c r="K65">
+        <f>SUM($J$4:J65)</f>
+        <v>15125</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A66" s="5">
         <v>63</v>
       </c>
@@ -2592,7 +3721,7 @@
       </c>
       <c r="C66" s="5">
         <f>SUM(D$4:D66)</f>
-        <v>358845</v>
+        <v>358870</v>
       </c>
       <c r="D66" s="5">
         <v>19500</v>
@@ -2603,8 +3732,18 @@
       <c r="F66" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I66" t="s">
+        <v>193</v>
+      </c>
+      <c r="J66">
+        <v>400</v>
+      </c>
+      <c r="K66">
+        <f>SUM($J$4:J66)</f>
+        <v>15525</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A67" s="5">
         <v>64</v>
       </c>
@@ -2613,7 +3752,7 @@
       </c>
       <c r="C67" s="5">
         <f>SUM(D$4:D67)</f>
-        <v>379845</v>
+        <v>379870</v>
       </c>
       <c r="D67" s="5">
         <v>21000</v>
@@ -2624,8 +3763,18 @@
       <c r="F67" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I67" t="s">
+        <v>194</v>
+      </c>
+      <c r="J67">
+        <v>400</v>
+      </c>
+      <c r="K67">
+        <f>SUM($J$4:J67)</f>
+        <v>15925</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A68" s="5">
         <v>65</v>
       </c>
@@ -2634,7 +3783,7 @@
       </c>
       <c r="C68" s="5">
         <f>SUM(D$4:D68)</f>
-        <v>402345</v>
+        <v>402370</v>
       </c>
       <c r="D68" s="5">
         <v>22500</v>
@@ -2645,8 +3794,18 @@
       <c r="F68" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I68" t="s">
+        <v>195</v>
+      </c>
+      <c r="J68">
+        <v>400</v>
+      </c>
+      <c r="K68">
+        <f>SUM($J$4:J68)</f>
+        <v>16325</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A69" s="5">
         <v>66</v>
       </c>
@@ -2655,7 +3814,7 @@
       </c>
       <c r="C69" s="5">
         <f>SUM(D$4:D69)</f>
-        <v>426345</v>
+        <v>426370</v>
       </c>
       <c r="D69" s="5">
         <v>24000</v>
@@ -2666,8 +3825,18 @@
       <c r="F69" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I69" t="s">
+        <v>196</v>
+      </c>
+      <c r="J69">
+        <v>400</v>
+      </c>
+      <c r="K69">
+        <f>SUM($J$4:J69)</f>
+        <v>16725</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A70" s="5">
         <v>67</v>
       </c>
@@ -2676,7 +3845,7 @@
       </c>
       <c r="C70" s="5">
         <f>SUM(D$4:D70)</f>
-        <v>451845</v>
+        <v>451870</v>
       </c>
       <c r="D70" s="5">
         <v>25500</v>
@@ -2687,8 +3856,18 @@
       <c r="F70" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I70" t="s">
+        <v>197</v>
+      </c>
+      <c r="J70">
+        <v>500</v>
+      </c>
+      <c r="K70">
+        <f>SUM($J$4:J70)</f>
+        <v>17225</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A71" s="5">
         <v>68</v>
       </c>
@@ -2697,7 +3876,7 @@
       </c>
       <c r="C71" s="5">
         <f>SUM(D$4:D71)</f>
-        <v>478845</v>
+        <v>478870</v>
       </c>
       <c r="D71" s="5">
         <v>27000</v>
@@ -2708,8 +3887,18 @@
       <c r="F71" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I71" t="s">
+        <v>198</v>
+      </c>
+      <c r="J71">
+        <v>500</v>
+      </c>
+      <c r="K71">
+        <f>SUM($J$4:J71)</f>
+        <v>17725</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A72" s="5">
         <v>69</v>
       </c>
@@ -2718,7 +3907,7 @@
       </c>
       <c r="C72" s="5">
         <f>SUM(D$4:D72)</f>
-        <v>508845</v>
+        <v>508870</v>
       </c>
       <c r="D72" s="5">
         <v>30000</v>
@@ -2729,8 +3918,18 @@
       <c r="F72" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I72" t="s">
+        <v>199</v>
+      </c>
+      <c r="J72">
+        <v>500</v>
+      </c>
+      <c r="K72">
+        <f>SUM($J$4:J72)</f>
+        <v>18225</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A73" s="5">
         <v>70</v>
       </c>
@@ -2739,7 +3938,7 @@
       </c>
       <c r="C73" s="5">
         <f>SUM(D$4:D73)</f>
-        <v>529080</v>
+        <v>529105</v>
       </c>
       <c r="D73" s="5">
         <v>20235</v>
@@ -2750,8 +3949,18 @@
       <c r="F73" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I73" t="s">
+        <v>200</v>
+      </c>
+      <c r="J73">
+        <v>500</v>
+      </c>
+      <c r="K73">
+        <f>SUM($J$4:J73)</f>
+        <v>18725</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A74" s="5">
         <v>71</v>
       </c>
@@ -2760,7 +3969,7 @@
       </c>
       <c r="C74" s="5">
         <f>SUM(D$4:D74)</f>
-        <v>551340</v>
+        <v>551365</v>
       </c>
       <c r="D74" s="5">
         <v>22260</v>
@@ -2771,8 +3980,18 @@
       <c r="F74" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I74" t="s">
+        <v>201</v>
+      </c>
+      <c r="J74">
+        <v>500</v>
+      </c>
+      <c r="K74">
+        <f>SUM($J$4:J74)</f>
+        <v>19225</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A75" s="5">
         <v>72</v>
       </c>
@@ -2781,7 +4000,7 @@
       </c>
       <c r="C75" s="5">
         <f>SUM(D$4:D75)</f>
-        <v>575625</v>
+        <v>575650</v>
       </c>
       <c r="D75" s="5">
         <v>24285</v>
@@ -2792,8 +4011,18 @@
       <c r="F75" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I75" t="s">
+        <v>202</v>
+      </c>
+      <c r="J75">
+        <v>500</v>
+      </c>
+      <c r="K75">
+        <f>SUM($J$4:J75)</f>
+        <v>19725</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A76" s="5">
         <v>73</v>
       </c>
@@ -2802,7 +4031,7 @@
       </c>
       <c r="C76" s="5">
         <f>SUM(D$4:D76)</f>
-        <v>601935</v>
+        <v>601960</v>
       </c>
       <c r="D76" s="5">
         <v>26310</v>
@@ -2813,8 +4042,18 @@
       <c r="F76" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I76" t="s">
+        <v>203</v>
+      </c>
+      <c r="J76">
+        <v>500</v>
+      </c>
+      <c r="K76">
+        <f>SUM($J$4:J76)</f>
+        <v>20225</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A77" s="5">
         <v>74</v>
       </c>
@@ -2823,7 +4062,7 @@
       </c>
       <c r="C77" s="5">
         <f>SUM(D$4:D77)</f>
-        <v>630270</v>
+        <v>630295</v>
       </c>
       <c r="D77" s="5">
         <v>28335</v>
@@ -2834,8 +4073,18 @@
       <c r="F77" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I77" t="s">
+        <v>204</v>
+      </c>
+      <c r="J77">
+        <v>500</v>
+      </c>
+      <c r="K77">
+        <f>SUM($J$4:J77)</f>
+        <v>20725</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A78" s="5">
         <v>75</v>
       </c>
@@ -2844,7 +4093,7 @@
       </c>
       <c r="C78" s="5">
         <f>SUM(D$4:D78)</f>
-        <v>660625</v>
+        <v>660650</v>
       </c>
       <c r="D78" s="5">
         <v>30355</v>
@@ -2855,8 +4104,18 @@
       <c r="F78" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I78" t="s">
+        <v>205</v>
+      </c>
+      <c r="J78">
+        <v>500</v>
+      </c>
+      <c r="K78">
+        <f>SUM($J$4:J78)</f>
+        <v>21225</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A79" s="5">
         <v>76</v>
       </c>
@@ -2865,7 +4124,7 @@
       </c>
       <c r="C79" s="5">
         <f>SUM(D$4:D79)</f>
-        <v>693005</v>
+        <v>693030</v>
       </c>
       <c r="D79" s="5">
         <v>32380</v>
@@ -2876,8 +4135,18 @@
       <c r="F79" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I79" t="s">
+        <v>206</v>
+      </c>
+      <c r="J79">
+        <v>500</v>
+      </c>
+      <c r="K79">
+        <f>SUM($J$4:J79)</f>
+        <v>21725</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A80" s="5">
         <v>77</v>
       </c>
@@ -2886,7 +4155,7 @@
       </c>
       <c r="C80" s="5">
         <f>SUM(D$4:D80)</f>
-        <v>727410</v>
+        <v>727435</v>
       </c>
       <c r="D80" s="5">
         <v>34405</v>
@@ -2897,8 +4166,18 @@
       <c r="F80" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I80" t="s">
+        <v>207</v>
+      </c>
+      <c r="J80">
+        <v>500</v>
+      </c>
+      <c r="K80">
+        <f>SUM($J$4:J80)</f>
+        <v>22225</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A81" s="5">
         <v>78</v>
       </c>
@@ -2907,7 +4186,7 @@
       </c>
       <c r="C81" s="5">
         <f>SUM(D$4:D81)</f>
-        <v>763840</v>
+        <v>763865</v>
       </c>
       <c r="D81" s="5">
         <v>36430</v>
@@ -2918,8 +4197,18 @@
       <c r="F81" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I81" t="s">
+        <v>208</v>
+      </c>
+      <c r="J81">
+        <v>500</v>
+      </c>
+      <c r="K81">
+        <f>SUM($J$4:J81)</f>
+        <v>22725</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A82" s="5">
         <v>79</v>
       </c>
@@ -2928,7 +4217,7 @@
       </c>
       <c r="C82" s="5">
         <f>SUM(D$4:D82)</f>
-        <v>804315</v>
+        <v>804340</v>
       </c>
       <c r="D82" s="5">
         <v>40475</v>
@@ -2939,8 +4228,18 @@
       <c r="F82" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I82" t="s">
+        <v>209</v>
+      </c>
+      <c r="J82">
+        <v>500</v>
+      </c>
+      <c r="K82">
+        <f>SUM($J$4:J82)</f>
+        <v>23225</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A83" s="5">
         <v>80</v>
       </c>
@@ -2949,7 +4248,7 @@
       </c>
       <c r="C83" s="5">
         <f>SUM(D$4:D83)</f>
-        <v>834520</v>
+        <v>834545</v>
       </c>
       <c r="D83" s="5">
         <v>30205</v>
@@ -2960,8 +4259,18 @@
       <c r="F83" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I83" t="s">
+        <v>210</v>
+      </c>
+      <c r="J83">
+        <v>500</v>
+      </c>
+      <c r="K83">
+        <f>SUM($J$4:J83)</f>
+        <v>23725</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A84" s="5">
         <v>81</v>
       </c>
@@ -2970,7 +4279,7 @@
       </c>
       <c r="C84" s="5">
         <f>SUM(D$4:D84)</f>
-        <v>867745</v>
+        <v>867770</v>
       </c>
       <c r="D84" s="5">
         <v>33225</v>
@@ -2981,8 +4290,18 @@
       <c r="F84" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I84" t="s">
+        <v>211</v>
+      </c>
+      <c r="J84">
+        <v>500</v>
+      </c>
+      <c r="K84">
+        <f>SUM($J$4:J84)</f>
+        <v>24225</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A85" s="5">
         <v>82</v>
       </c>
@@ -2991,7 +4310,7 @@
       </c>
       <c r="C85" s="5">
         <f>SUM(D$4:D85)</f>
-        <v>903990</v>
+        <v>904015</v>
       </c>
       <c r="D85" s="5">
         <v>36245</v>
@@ -3002,8 +4321,18 @@
       <c r="F85" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I85" t="s">
+        <v>212</v>
+      </c>
+      <c r="J85">
+        <v>600</v>
+      </c>
+      <c r="K85">
+        <f>SUM($J$4:J85)</f>
+        <v>24825</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A86" s="5">
         <v>83</v>
       </c>
@@ -3012,7 +4341,7 @@
       </c>
       <c r="C86" s="5">
         <f>SUM(D$4:D86)</f>
-        <v>943255</v>
+        <v>943280</v>
       </c>
       <c r="D86" s="5">
         <v>39265</v>
@@ -3023,8 +4352,18 @@
       <c r="F86" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I86" t="s">
+        <v>213</v>
+      </c>
+      <c r="J86">
+        <v>600</v>
+      </c>
+      <c r="K86">
+        <f>SUM($J$4:J86)</f>
+        <v>25425</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A87" s="5">
         <v>84</v>
       </c>
@@ -3033,7 +4372,7 @@
       </c>
       <c r="C87" s="5">
         <f>SUM(D$4:D87)</f>
-        <v>985540</v>
+        <v>985565</v>
       </c>
       <c r="D87" s="5">
         <v>42285</v>
@@ -3044,8 +4383,18 @@
       <c r="F87" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I87" t="s">
+        <v>214</v>
+      </c>
+      <c r="J87">
+        <v>600</v>
+      </c>
+      <c r="K87">
+        <f>SUM($J$4:J87)</f>
+        <v>26025</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A88" s="5">
         <v>85</v>
       </c>
@@ -3054,7 +4403,7 @@
       </c>
       <c r="C88" s="5">
         <f>SUM(D$4:D88)</f>
-        <v>1030845</v>
+        <v>1030870</v>
       </c>
       <c r="D88" s="5">
         <v>45305</v>
@@ -3065,8 +4414,18 @@
       <c r="F88" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I88" t="s">
+        <v>215</v>
+      </c>
+      <c r="J88">
+        <v>600</v>
+      </c>
+      <c r="K88">
+        <f>SUM($J$4:J88)</f>
+        <v>26625</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A89" s="5">
         <v>86</v>
       </c>
@@ -3075,7 +4434,7 @@
       </c>
       <c r="C89" s="5">
         <f>SUM(D$4:D89)</f>
-        <v>1079170</v>
+        <v>1079195</v>
       </c>
       <c r="D89" s="5">
         <v>48325</v>
@@ -3086,8 +4445,18 @@
       <c r="F89" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I89" t="s">
+        <v>216</v>
+      </c>
+      <c r="J89">
+        <v>600</v>
+      </c>
+      <c r="K89">
+        <f>SUM($J$4:J89)</f>
+        <v>27225</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A90" s="5">
         <v>87</v>
       </c>
@@ -3096,7 +4465,7 @@
       </c>
       <c r="C90" s="5">
         <f>SUM(D$4:D90)</f>
-        <v>1130515</v>
+        <v>1130540</v>
       </c>
       <c r="D90" s="5">
         <v>51345</v>
@@ -3107,8 +4476,18 @@
       <c r="F90" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I90" t="s">
+        <v>217</v>
+      </c>
+      <c r="J90">
+        <v>600</v>
+      </c>
+      <c r="K90">
+        <f>SUM($J$4:J90)</f>
+        <v>27825</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A91" s="5">
         <v>88</v>
       </c>
@@ -3117,7 +4496,7 @@
       </c>
       <c r="C91" s="5">
         <f>SUM(D$4:D91)</f>
-        <v>1184880</v>
+        <v>1184905</v>
       </c>
       <c r="D91" s="5">
         <v>54365</v>
@@ -3128,8 +4507,18 @@
       <c r="F91" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I91" t="s">
+        <v>218</v>
+      </c>
+      <c r="J91">
+        <v>600</v>
+      </c>
+      <c r="K91">
+        <f>SUM($J$4:J91)</f>
+        <v>28425</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A92" s="5">
         <v>89</v>
       </c>
@@ -3138,7 +4527,7 @@
       </c>
       <c r="C92" s="5">
         <f>SUM(D$4:D92)</f>
-        <v>1245290</v>
+        <v>1245315</v>
       </c>
       <c r="D92" s="5">
         <v>60410</v>
@@ -3149,8 +4538,18 @@
       <c r="F92" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I92" t="s">
+        <v>219</v>
+      </c>
+      <c r="J92">
+        <v>600</v>
+      </c>
+      <c r="K92">
+        <f>SUM($J$4:J92)</f>
+        <v>29025</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A93" s="5">
         <v>90</v>
       </c>
@@ -3159,7 +4558,7 @@
       </c>
       <c r="C93" s="5">
         <f>SUM(D$4:D93)</f>
-        <v>1293040</v>
+        <v>1293065</v>
       </c>
       <c r="D93" s="5">
         <v>47750</v>
@@ -3170,8 +4569,18 @@
       <c r="F93" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I93" t="s">
+        <v>220</v>
+      </c>
+      <c r="J93">
+        <v>600</v>
+      </c>
+      <c r="K93">
+        <f>SUM($J$4:J93)</f>
+        <v>29625</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A94" s="5">
         <v>91</v>
       </c>
@@ -3180,7 +4589,7 @@
       </c>
       <c r="C94" s="5">
         <f>SUM(D$4:D94)</f>
-        <v>1345565</v>
+        <v>1345590</v>
       </c>
       <c r="D94" s="5">
         <v>52525</v>
@@ -3191,8 +4600,18 @@
       <c r="F94" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I94" t="s">
+        <v>221</v>
+      </c>
+      <c r="J94">
+        <v>600</v>
+      </c>
+      <c r="K94">
+        <f>SUM($J$4:J94)</f>
+        <v>30225</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A95" s="5">
         <v>92</v>
       </c>
@@ -3201,7 +4620,7 @@
       </c>
       <c r="C95" s="5">
         <f>SUM(D$4:D95)</f>
-        <v>1402865</v>
+        <v>1402890</v>
       </c>
       <c r="D95" s="5">
         <v>57300</v>
@@ -3212,8 +4631,18 @@
       <c r="F95" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I95" t="s">
+        <v>222</v>
+      </c>
+      <c r="J95">
+        <v>600</v>
+      </c>
+      <c r="K95">
+        <f>SUM($J$4:J95)</f>
+        <v>30825</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A96" s="5">
         <v>93</v>
       </c>
@@ -3222,7 +4651,7 @@
       </c>
       <c r="C96" s="5">
         <f>SUM(D$4:D96)</f>
-        <v>1464940</v>
+        <v>1464965</v>
       </c>
       <c r="D96" s="5">
         <v>62075</v>
@@ -3233,8 +4662,18 @@
       <c r="F96" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I96" t="s">
+        <v>223</v>
+      </c>
+      <c r="J96">
+        <v>600</v>
+      </c>
+      <c r="K96">
+        <f>SUM($J$4:J96)</f>
+        <v>31425</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A97" s="5">
         <v>94</v>
       </c>
@@ -3243,7 +4682,7 @@
       </c>
       <c r="C97" s="5">
         <f>SUM(D$4:D97)</f>
-        <v>1531790</v>
+        <v>1531815</v>
       </c>
       <c r="D97" s="5">
         <v>66850</v>
@@ -3254,8 +4693,18 @@
       <c r="F97" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I97" t="s">
+        <v>224</v>
+      </c>
+      <c r="J97">
+        <v>600</v>
+      </c>
+      <c r="K97">
+        <f>SUM($J$4:J97)</f>
+        <v>32025</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A98" s="5">
         <v>95</v>
       </c>
@@ -3264,7 +4713,7 @@
       </c>
       <c r="C98" s="5">
         <f>SUM(D$4:D98)</f>
-        <v>1603420</v>
+        <v>1603445</v>
       </c>
       <c r="D98" s="5">
         <v>71630</v>
@@ -3275,8 +4724,18 @@
       <c r="F98" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I98" t="s">
+        <v>225</v>
+      </c>
+      <c r="J98">
+        <v>600</v>
+      </c>
+      <c r="K98">
+        <f>SUM($J$4:J98)</f>
+        <v>32625</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A99" s="5">
         <v>96</v>
       </c>
@@ -3285,7 +4744,7 @@
       </c>
       <c r="C99" s="5">
         <f>SUM(D$4:D99)</f>
-        <v>1679825</v>
+        <v>1679850</v>
       </c>
       <c r="D99" s="5">
         <v>76405</v>
@@ -3296,8 +4755,18 @@
       <c r="F99" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I99" t="s">
+        <v>226</v>
+      </c>
+      <c r="J99">
+        <v>600</v>
+      </c>
+      <c r="K99">
+        <f>SUM($J$4:J99)</f>
+        <v>33225</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A100" s="5">
         <v>97</v>
       </c>
@@ -3306,7 +4775,7 @@
       </c>
       <c r="C100" s="5">
         <f>SUM(D$4:D100)</f>
-        <v>1761005</v>
+        <v>1761030</v>
       </c>
       <c r="D100" s="5">
         <v>81180</v>
@@ -3317,8 +4786,18 @@
       <c r="F100" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I100" t="s">
+        <v>227</v>
+      </c>
+      <c r="J100">
+        <v>720</v>
+      </c>
+      <c r="K100">
+        <f>SUM($J$4:J100)</f>
+        <v>33945</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A101" s="5">
         <v>98</v>
       </c>
@@ -3327,7 +4806,7 @@
       </c>
       <c r="C101" s="5">
         <f>SUM(D$4:D101)</f>
-        <v>1846960</v>
+        <v>1846985</v>
       </c>
       <c r="D101" s="5">
         <v>85955</v>
@@ -3338,8 +4817,18 @@
       <c r="F101" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I101" t="s">
+        <v>228</v>
+      </c>
+      <c r="J101">
+        <v>720</v>
+      </c>
+      <c r="K101">
+        <f>SUM($J$4:J101)</f>
+        <v>34665</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A102" s="5">
         <v>99</v>
       </c>
@@ -3348,7 +4837,7 @@
       </c>
       <c r="C102" s="5">
         <f>SUM(D$4:D102)</f>
-        <v>1942465</v>
+        <v>1942490</v>
       </c>
       <c r="D102" s="5">
         <v>95505</v>
@@ -3359,8 +4848,18 @@
       <c r="F102" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I102" t="s">
+        <v>229</v>
+      </c>
+      <c r="J102">
+        <v>720</v>
+      </c>
+      <c r="K102">
+        <f>SUM($J$4:J102)</f>
+        <v>35385</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A103" s="5">
         <v>100</v>
       </c>
@@ -3369,7 +4868,7 @@
       </c>
       <c r="C103" s="5">
         <f>SUM(D$4:D103)</f>
-        <v>2019600</v>
+        <v>2019625</v>
       </c>
       <c r="D103" s="5">
         <v>77135</v>
@@ -3380,8 +4879,18 @@
       <c r="F103" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I103" t="s">
+        <v>230</v>
+      </c>
+      <c r="J103">
+        <v>720</v>
+      </c>
+      <c r="K103">
+        <f>SUM($J$4:J103)</f>
+        <v>36105</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A104" s="5">
         <v>101</v>
       </c>
@@ -3390,7 +4899,7 @@
       </c>
       <c r="C104" s="5">
         <f>SUM(D$4:D104)</f>
-        <v>2104450</v>
+        <v>2104475</v>
       </c>
       <c r="D104" s="5">
         <v>84850</v>
@@ -3401,8 +4910,18 @@
       <c r="F104" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I104" t="s">
+        <v>231</v>
+      </c>
+      <c r="J104">
+        <v>720</v>
+      </c>
+      <c r="K104">
+        <f>SUM($J$4:J104)</f>
+        <v>36825</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A105" s="5">
         <v>102</v>
       </c>
@@ -3411,7 +4930,7 @@
       </c>
       <c r="C105" s="5">
         <f>SUM(D$4:D105)</f>
-        <v>2197010</v>
+        <v>2197035</v>
       </c>
       <c r="D105" s="5">
         <v>92560</v>
@@ -3422,8 +4941,18 @@
       <c r="F105" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I105" t="s">
+        <v>232</v>
+      </c>
+      <c r="J105">
+        <v>720</v>
+      </c>
+      <c r="K105">
+        <f>SUM($J$4:J105)</f>
+        <v>37545</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A106" s="5">
         <v>103</v>
       </c>
@@ -3432,7 +4961,7 @@
       </c>
       <c r="C106" s="5">
         <f>SUM(D$4:D106)</f>
-        <v>2297285</v>
+        <v>2297310</v>
       </c>
       <c r="D106" s="5">
         <v>100275</v>
@@ -3443,8 +4972,18 @@
       <c r="F106" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I106" t="s">
+        <v>233</v>
+      </c>
+      <c r="J106">
+        <v>720</v>
+      </c>
+      <c r="K106">
+        <f>SUM($J$4:J106)</f>
+        <v>38265</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A107" s="5">
         <v>104</v>
       </c>
@@ -3453,7 +4992,7 @@
       </c>
       <c r="C107" s="5">
         <f>SUM(D$4:D107)</f>
-        <v>2405275</v>
+        <v>2405300</v>
       </c>
       <c r="D107" s="5">
         <v>107990</v>
@@ -3464,8 +5003,18 @@
       <c r="F107" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I107" t="s">
+        <v>234</v>
+      </c>
+      <c r="J107">
+        <v>720</v>
+      </c>
+      <c r="K107">
+        <f>SUM($J$4:J107)</f>
+        <v>38985</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A108" s="5">
         <v>105</v>
       </c>
@@ -3474,7 +5023,7 @@
       </c>
       <c r="C108" s="5">
         <f>SUM(D$4:D108)</f>
-        <v>2520980</v>
+        <v>2521005</v>
       </c>
       <c r="D108" s="5">
         <v>115705</v>
@@ -3485,8 +5034,18 @@
       <c r="F108" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I108" t="s">
+        <v>235</v>
+      </c>
+      <c r="J108">
+        <v>720</v>
+      </c>
+      <c r="K108">
+        <f>SUM($J$4:J108)</f>
+        <v>39705</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A109" s="5">
         <v>106</v>
       </c>
@@ -3495,7 +5054,7 @@
       </c>
       <c r="C109" s="5">
         <f>SUM(D$4:D109)</f>
-        <v>2644395</v>
+        <v>2644420</v>
       </c>
       <c r="D109" s="5">
         <v>123415</v>
@@ -3506,8 +5065,18 @@
       <c r="F109" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I109" t="s">
+        <v>236</v>
+      </c>
+      <c r="J109">
+        <v>720</v>
+      </c>
+      <c r="K109">
+        <f>SUM($J$4:J109)</f>
+        <v>40425</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A110" s="5">
         <v>107</v>
       </c>
@@ -3516,7 +5085,7 @@
       </c>
       <c r="C110" s="5">
         <f>SUM(D$4:D110)</f>
-        <v>2775525</v>
+        <v>2775550</v>
       </c>
       <c r="D110" s="5">
         <v>131130</v>
@@ -3527,8 +5096,18 @@
       <c r="F110" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I110" t="s">
+        <v>237</v>
+      </c>
+      <c r="J110">
+        <v>720</v>
+      </c>
+      <c r="K110">
+        <f>SUM($J$4:J110)</f>
+        <v>41145</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A111" s="5">
         <v>108</v>
       </c>
@@ -3537,7 +5116,7 @@
       </c>
       <c r="C111" s="5">
         <f>SUM(D$4:D111)</f>
-        <v>2914370</v>
+        <v>2914395</v>
       </c>
       <c r="D111" s="5">
         <v>138845</v>
@@ -3548,8 +5127,18 @@
       <c r="F111" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I111" t="s">
+        <v>238</v>
+      </c>
+      <c r="J111">
+        <v>720</v>
+      </c>
+      <c r="K111">
+        <f>SUM($J$4:J111)</f>
+        <v>41865</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A112" s="5">
         <v>109</v>
       </c>
@@ -3558,7 +5147,7 @@
       </c>
       <c r="C112" s="5">
         <f>SUM(D$4:D112)</f>
-        <v>3068640</v>
+        <v>3068665</v>
       </c>
       <c r="D112" s="5">
         <v>154270</v>
@@ -3569,8 +5158,18 @@
       <c r="F112" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I112" t="s">
+        <v>239</v>
+      </c>
+      <c r="J112">
+        <v>720</v>
+      </c>
+      <c r="K112">
+        <f>SUM($J$4:J112)</f>
+        <v>42585</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A113" s="5">
         <v>110</v>
       </c>
@@ -3579,7 +5178,7 @@
       </c>
       <c r="C113" s="5">
         <f>SUM(D$4:D113)</f>
-        <v>3183255</v>
+        <v>3183280</v>
       </c>
       <c r="D113" s="5">
         <v>114615</v>
@@ -3590,8 +5189,18 @@
       <c r="F113" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I113" t="s">
+        <v>240</v>
+      </c>
+      <c r="J113">
+        <v>720</v>
+      </c>
+      <c r="K113">
+        <f>SUM($J$4:J113)</f>
+        <v>43305</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A114" s="5">
         <v>111</v>
       </c>
@@ -3600,7 +5209,7 @@
       </c>
       <c r="C114" s="5">
         <f>SUM(D$4:D114)</f>
-        <v>3309330</v>
+        <v>3309355</v>
       </c>
       <c r="D114" s="5">
         <v>126075</v>
@@ -3611,8 +5220,18 @@
       <c r="F114" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I114" t="s">
+        <v>241</v>
+      </c>
+      <c r="J114">
+        <v>720</v>
+      </c>
+      <c r="K114">
+        <f>SUM($J$4:J114)</f>
+        <v>44025</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A115" s="5">
         <v>112</v>
       </c>
@@ -3621,7 +5240,7 @@
       </c>
       <c r="C115" s="5">
         <f>SUM(D$4:D115)</f>
-        <v>3446865</v>
+        <v>3446890</v>
       </c>
       <c r="D115" s="5">
         <v>137535</v>
@@ -3632,8 +5251,18 @@
       <c r="F115" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I115" t="s">
+        <v>242</v>
+      </c>
+      <c r="J115">
+        <v>880</v>
+      </c>
+      <c r="K115">
+        <f>SUM($J$4:J115)</f>
+        <v>44905</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A116" s="5">
         <v>113</v>
       </c>
@@ -3642,7 +5271,7 @@
       </c>
       <c r="C116" s="5">
         <f>SUM(D$4:D116)</f>
-        <v>3595865</v>
+        <v>3595890</v>
       </c>
       <c r="D116" s="5">
         <v>149000</v>
@@ -3653,8 +5282,18 @@
       <c r="F116" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I116" t="s">
+        <v>243</v>
+      </c>
+      <c r="J116">
+        <v>880</v>
+      </c>
+      <c r="K116">
+        <f>SUM($J$4:J116)</f>
+        <v>45785</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A117" s="5">
         <v>114</v>
       </c>
@@ -3663,7 +5302,7 @@
       </c>
       <c r="C117" s="5">
         <f>SUM(D$4:D117)</f>
-        <v>3756325</v>
+        <v>3756350</v>
       </c>
       <c r="D117" s="5">
         <v>160460</v>
@@ -3674,8 +5313,18 @@
       <c r="F117" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="118" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I117" t="s">
+        <v>244</v>
+      </c>
+      <c r="J117">
+        <v>880</v>
+      </c>
+      <c r="K117">
+        <f>SUM($J$4:J117)</f>
+        <v>46665</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A118" s="5">
         <v>115</v>
       </c>
@@ -3684,7 +5333,7 @@
       </c>
       <c r="C118" s="5">
         <f>SUM(D$4:D118)</f>
-        <v>3928245</v>
+        <v>3928270</v>
       </c>
       <c r="D118" s="5">
         <v>171920</v>
@@ -3695,8 +5344,18 @@
       <c r="F118" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I118" t="s">
+        <v>245</v>
+      </c>
+      <c r="J118">
+        <v>880</v>
+      </c>
+      <c r="K118">
+        <f>SUM($J$4:J118)</f>
+        <v>47545</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A119" s="5">
         <v>116</v>
       </c>
@@ -3705,7 +5364,7 @@
       </c>
       <c r="C119" s="5">
         <f>SUM(D$4:D119)</f>
-        <v>4111630</v>
+        <v>4111655</v>
       </c>
       <c r="D119" s="5">
         <v>183385</v>
@@ -3716,8 +5375,18 @@
       <c r="F119" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I119" t="s">
+        <v>246</v>
+      </c>
+      <c r="J119">
+        <v>880</v>
+      </c>
+      <c r="K119">
+        <f>SUM($J$4:J119)</f>
+        <v>48425</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A120" s="5">
         <v>117</v>
       </c>
@@ -3726,7 +5395,7 @@
       </c>
       <c r="C120" s="5">
         <f>SUM(D$4:D120)</f>
-        <v>4306475</v>
+        <v>4306500</v>
       </c>
       <c r="D120" s="5">
         <v>194845</v>
@@ -3737,8 +5406,18 @@
       <c r="F120" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I120" t="s">
+        <v>247</v>
+      </c>
+      <c r="J120">
+        <v>880</v>
+      </c>
+      <c r="K120">
+        <f>SUM($J$4:J120)</f>
+        <v>49305</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A121" s="5">
         <v>118</v>
       </c>
@@ -3747,7 +5426,7 @@
       </c>
       <c r="C121" s="5">
         <f>SUM(D$4:D121)</f>
-        <v>4512780</v>
+        <v>4512805</v>
       </c>
       <c r="D121" s="5">
         <v>206305</v>
@@ -3758,8 +5437,18 @@
       <c r="F121" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I121" t="s">
+        <v>248</v>
+      </c>
+      <c r="J121">
+        <v>880</v>
+      </c>
+      <c r="K121">
+        <f>SUM($J$4:J121)</f>
+        <v>50185</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A122" s="5">
         <v>119</v>
       </c>
@@ -3768,7 +5457,7 @@
       </c>
       <c r="C122" s="5">
         <f>SUM(D$4:D122)</f>
-        <v>4742010</v>
+        <v>4742035</v>
       </c>
       <c r="D122" s="5">
         <v>229230</v>
@@ -3779,8 +5468,18 @@
       <c r="F122" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I122" t="s">
+        <v>249</v>
+      </c>
+      <c r="J122">
+        <v>880</v>
+      </c>
+      <c r="K122">
+        <f>SUM($J$4:J122)</f>
+        <v>51065</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A123" s="5">
         <v>120</v>
       </c>
@@ -3789,7 +5488,7 @@
       </c>
       <c r="C123" s="5">
         <f>SUM(D$4:D123)</f>
-        <v>4903780</v>
+        <v>4903805</v>
       </c>
       <c r="D123" s="5">
         <v>161770</v>
@@ -3800,8 +5499,18 @@
       <c r="F123" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I123" t="s">
+        <v>250</v>
+      </c>
+      <c r="J123">
+        <v>880</v>
+      </c>
+      <c r="K123">
+        <f>SUM($J$4:J123)</f>
+        <v>51945</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A124" s="5">
         <v>121</v>
       </c>
@@ -3810,7 +5519,7 @@
       </c>
       <c r="C124" s="5">
         <f>SUM(D$4:D124)</f>
-        <v>5081730</v>
+        <v>5081755</v>
       </c>
       <c r="D124" s="5">
         <v>177950</v>
@@ -3821,8 +5530,18 @@
       <c r="F124" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I124" t="s">
+        <v>251</v>
+      </c>
+      <c r="J124">
+        <v>880</v>
+      </c>
+      <c r="K124">
+        <f>SUM($J$4:J124)</f>
+        <v>52825</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A125" s="5">
         <v>122</v>
       </c>
@@ -3831,7 +5550,7 @@
       </c>
       <c r="C125" s="5">
         <f>SUM(D$4:D125)</f>
-        <v>5275855</v>
+        <v>5275880</v>
       </c>
       <c r="D125" s="5">
         <v>194125</v>
@@ -3842,8 +5561,18 @@
       <c r="F125" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="126" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I125" t="s">
+        <v>252</v>
+      </c>
+      <c r="J125">
+        <v>880</v>
+      </c>
+      <c r="K125">
+        <f>SUM($J$4:J125)</f>
+        <v>53705</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A126" s="5">
         <v>123</v>
       </c>
@@ -3852,7 +5581,7 @@
       </c>
       <c r="C126" s="5">
         <f>SUM(D$4:D126)</f>
-        <v>5486160</v>
+        <v>5486185</v>
       </c>
       <c r="D126" s="5">
         <v>210305</v>
@@ -3863,8 +5592,18 @@
       <c r="F126" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="127" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I126" t="s">
+        <v>253</v>
+      </c>
+      <c r="J126">
+        <v>880</v>
+      </c>
+      <c r="K126">
+        <f>SUM($J$4:J126)</f>
+        <v>54585</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A127" s="5">
         <v>124</v>
       </c>
@@ -3873,7 +5612,7 @@
       </c>
       <c r="C127" s="5">
         <f>SUM(D$4:D127)</f>
-        <v>5712640</v>
+        <v>5712665</v>
       </c>
       <c r="D127" s="5">
         <v>226480</v>
@@ -3884,8 +5623,18 @@
       <c r="F127" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="128" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I127" t="s">
+        <v>254</v>
+      </c>
+      <c r="J127">
+        <v>880</v>
+      </c>
+      <c r="K127">
+        <f>SUM($J$4:J127)</f>
+        <v>55465</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A128" s="5">
         <v>125</v>
       </c>
@@ -3894,7 +5643,7 @@
       </c>
       <c r="C128" s="5">
         <f>SUM(D$4:D128)</f>
-        <v>5955300</v>
+        <v>5955325</v>
       </c>
       <c r="D128" s="5">
         <v>242660</v>
@@ -3905,8 +5654,18 @@
       <c r="F128" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="129" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I128" t="s">
+        <v>255</v>
+      </c>
+      <c r="J128">
+        <v>880</v>
+      </c>
+      <c r="K128">
+        <f>SUM($J$4:J128)</f>
+        <v>56345</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A129" s="5">
         <v>126</v>
       </c>
@@ -3915,7 +5674,7 @@
       </c>
       <c r="C129" s="5">
         <f>SUM(D$4:D129)</f>
-        <v>6214135</v>
+        <v>6214160</v>
       </c>
       <c r="D129" s="5">
         <v>258835</v>
@@ -3926,8 +5685,18 @@
       <c r="F129" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="130" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I129" t="s">
+        <v>256</v>
+      </c>
+      <c r="J129">
+        <v>880</v>
+      </c>
+      <c r="K129">
+        <f>SUM($J$4:J129)</f>
+        <v>57225</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A130" s="5">
         <v>127</v>
       </c>
@@ -3936,7 +5705,7 @@
       </c>
       <c r="C130" s="5">
         <f>SUM(D$4:D130)</f>
-        <v>6489150</v>
+        <v>6489175</v>
       </c>
       <c r="D130" s="5">
         <v>275015</v>
@@ -3947,8 +5716,18 @@
       <c r="F130" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="131" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I130" t="s">
+        <v>257</v>
+      </c>
+      <c r="J130">
+        <v>1060</v>
+      </c>
+      <c r="K130">
+        <f>SUM($J$4:J130)</f>
+        <v>58285</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A131" s="5">
         <v>128</v>
       </c>
@@ -3957,7 +5736,7 @@
       </c>
       <c r="C131" s="5">
         <f>SUM(D$4:D131)</f>
-        <v>6780340</v>
+        <v>6780365</v>
       </c>
       <c r="D131" s="5">
         <v>291190</v>
@@ -3968,8 +5747,18 @@
       <c r="F131" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="132" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I131" t="s">
+        <v>258</v>
+      </c>
+      <c r="J131">
+        <v>1060</v>
+      </c>
+      <c r="K131">
+        <f>SUM($J$4:J131)</f>
+        <v>59345</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A132" s="5">
         <v>129</v>
       </c>
@@ -3978,7 +5767,7 @@
       </c>
       <c r="C132" s="5">
         <f>SUM(D$4:D132)</f>
-        <v>7103885</v>
+        <v>7103910</v>
       </c>
       <c r="D132" s="5">
         <v>323545</v>
@@ -3989,8 +5778,18 @@
       <c r="F132" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I132" t="s">
+        <v>259</v>
+      </c>
+      <c r="J132">
+        <v>1060</v>
+      </c>
+      <c r="K132">
+        <f>SUM($J$4:J132)</f>
+        <v>60405</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A133" s="5">
         <v>130</v>
       </c>
@@ -3999,7 +5798,7 @@
       </c>
       <c r="C133" s="5">
         <f>SUM(D$4:D133)</f>
-        <v>7378815</v>
+        <v>7378840</v>
       </c>
       <c r="D133" s="5">
         <v>274930</v>
@@ -4010,8 +5809,18 @@
       <c r="F133" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="134" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I133" t="s">
+        <v>260</v>
+      </c>
+      <c r="J133">
+        <v>1060</v>
+      </c>
+      <c r="K133">
+        <f>SUM($J$4:J133)</f>
+        <v>61465</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A134" s="5">
         <v>131</v>
       </c>
@@ -4020,7 +5829,7 @@
       </c>
       <c r="C134" s="5">
         <f>SUM(D$4:D134)</f>
-        <v>7681235</v>
+        <v>7681260</v>
       </c>
       <c r="D134" s="5">
         <v>302420</v>
@@ -4031,8 +5840,18 @@
       <c r="F134" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="135" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I134" t="s">
+        <v>261</v>
+      </c>
+      <c r="J134">
+        <v>1060</v>
+      </c>
+      <c r="K134">
+        <f>SUM($J$4:J134)</f>
+        <v>62525</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A135" s="5">
         <v>132</v>
       </c>
@@ -4041,7 +5860,7 @@
       </c>
       <c r="C135" s="5">
         <f>SUM(D$4:D135)</f>
-        <v>8011150</v>
+        <v>8011175</v>
       </c>
       <c r="D135" s="5">
         <v>329915</v>
@@ -4052,8 +5871,18 @@
       <c r="F135" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="136" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I135" t="s">
+        <v>262</v>
+      </c>
+      <c r="J135">
+        <v>1060</v>
+      </c>
+      <c r="K135">
+        <f>SUM($J$4:J135)</f>
+        <v>63585</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A136" s="5">
         <v>133</v>
       </c>
@@ -4062,7 +5891,7 @@
       </c>
       <c r="C136" s="5">
         <f>SUM(D$4:D136)</f>
-        <v>8368560</v>
+        <v>8368585</v>
       </c>
       <c r="D136" s="5">
         <v>357410</v>
@@ -4073,8 +5902,18 @@
       <c r="F136" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="137" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I136" t="s">
+        <v>263</v>
+      </c>
+      <c r="J136">
+        <v>1060</v>
+      </c>
+      <c r="K136">
+        <f>SUM($J$4:J136)</f>
+        <v>64645</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A137" s="5">
         <v>134</v>
       </c>
@@ -4083,7 +5922,7 @@
       </c>
       <c r="C137" s="5">
         <f>SUM(D$4:D137)</f>
-        <v>8753460</v>
+        <v>8753485</v>
       </c>
       <c r="D137" s="5">
         <v>384900</v>
@@ -4094,8 +5933,18 @@
       <c r="F137" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="138" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I137" t="s">
+        <v>264</v>
+      </c>
+      <c r="J137">
+        <v>1060</v>
+      </c>
+      <c r="K137">
+        <f>SUM($J$4:J137)</f>
+        <v>65705</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A138" s="5">
         <v>135</v>
       </c>
@@ -4104,7 +5953,7 @@
       </c>
       <c r="C138" s="5">
         <f>SUM(D$4:D138)</f>
-        <v>9165855</v>
+        <v>9165880</v>
       </c>
       <c r="D138" s="5">
         <v>412395</v>
@@ -4115,8 +5964,18 @@
       <c r="F138" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="139" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I138" t="s">
+        <v>265</v>
+      </c>
+      <c r="J138">
+        <v>1060</v>
+      </c>
+      <c r="K138">
+        <f>SUM($J$4:J138)</f>
+        <v>66765</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A139" s="5">
         <v>136</v>
       </c>
@@ -4125,7 +5984,7 @@
       </c>
       <c r="C139" s="5">
         <f>SUM(D$4:D139)</f>
-        <v>9605745</v>
+        <v>9605770</v>
       </c>
       <c r="D139" s="5">
         <v>439890</v>
@@ -4136,8 +5995,18 @@
       <c r="F139" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="140" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I139" t="s">
+        <v>266</v>
+      </c>
+      <c r="J139">
+        <v>1060</v>
+      </c>
+      <c r="K139">
+        <f>SUM($J$4:J139)</f>
+        <v>67825</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A140" s="5">
         <v>137</v>
       </c>
@@ -4146,7 +6015,7 @@
       </c>
       <c r="C140" s="5">
         <f>SUM(D$4:D140)</f>
-        <v>10073125</v>
+        <v>10073150</v>
       </c>
       <c r="D140" s="5">
         <v>467380</v>
@@ -4157,8 +6026,18 @@
       <c r="F140" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="141" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I140" t="s">
+        <v>267</v>
+      </c>
+      <c r="J140">
+        <v>1060</v>
+      </c>
+      <c r="K140">
+        <f>SUM($J$4:J140)</f>
+        <v>68885</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A141" s="5">
         <v>138</v>
       </c>
@@ -4167,7 +6046,7 @@
       </c>
       <c r="C141" s="5">
         <f>SUM(D$4:D141)</f>
-        <v>10568000</v>
+        <v>10568025</v>
       </c>
       <c r="D141" s="5">
         <v>494875</v>
@@ -4178,8 +6057,18 @@
       <c r="F141" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="142" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I141" t="s">
+        <v>268</v>
+      </c>
+      <c r="J141">
+        <v>1060</v>
+      </c>
+      <c r="K141">
+        <f>SUM($J$4:J141)</f>
+        <v>69945</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A142" s="5">
         <v>139</v>
       </c>
@@ -4188,7 +6077,7 @@
       </c>
       <c r="C142" s="5">
         <f>SUM(D$4:D142)</f>
-        <v>11117860</v>
+        <v>11117885</v>
       </c>
       <c r="D142" s="5">
         <v>549860</v>
@@ -4199,8 +6088,18 @@
       <c r="F142" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="143" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I142" t="s">
+        <v>269</v>
+      </c>
+      <c r="J142">
+        <v>1060</v>
+      </c>
+      <c r="K142">
+        <f>SUM($J$4:J142)</f>
+        <v>71005</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A143" s="5">
         <v>140</v>
       </c>
@@ -4209,7 +6108,7 @@
       </c>
       <c r="C143" s="5">
         <f>SUM(D$4:D143)</f>
-        <v>11618715</v>
+        <v>11618740</v>
       </c>
       <c r="D143" s="5">
         <v>500855</v>
@@ -4220,8 +6119,18 @@
       <c r="F143" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="144" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I143" t="s">
+        <v>270</v>
+      </c>
+      <c r="J143">
+        <v>1060</v>
+      </c>
+      <c r="K143">
+        <f>SUM($J$4:J143)</f>
+        <v>72065</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A144" s="5">
         <v>141</v>
       </c>
@@ -4230,7 +6139,7 @@
       </c>
       <c r="C144" s="5">
         <f>SUM(D$4:D144)</f>
-        <v>12169655</v>
+        <v>12169680</v>
       </c>
       <c r="D144" s="5">
         <v>550940</v>
@@ -4240,6 +6149,16 @@
       </c>
       <c r="F144" s="5">
         <v>100</v>
+      </c>
+      <c r="I144" t="s">
+        <v>271</v>
+      </c>
+      <c r="J144">
+        <v>1060</v>
+      </c>
+      <c r="K144">
+        <f>SUM($J$4:J144)</f>
+        <v>73125</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -4251,7 +6170,7 @@
       </c>
       <c r="C145" s="5">
         <f>SUM(D$4:D145)</f>
-        <v>12770680</v>
+        <v>12770705</v>
       </c>
       <c r="D145" s="5">
         <v>601025</v>
@@ -4272,7 +6191,7 @@
       </c>
       <c r="C146" s="5">
         <f>SUM(D$4:D146)</f>
-        <v>13421790</v>
+        <v>13421815</v>
       </c>
       <c r="D146" s="5">
         <v>651110</v>
@@ -4293,7 +6212,7 @@
       </c>
       <c r="C147" s="5">
         <f>SUM(D$4:D147)</f>
-        <v>14122985</v>
+        <v>14123010</v>
       </c>
       <c r="D147" s="5">
         <v>701195</v>
@@ -4314,7 +6233,7 @@
       </c>
       <c r="C148" s="5">
         <f>SUM(D$4:D148)</f>
-        <v>14874265</v>
+        <v>14874290</v>
       </c>
       <c r="D148" s="5">
         <v>751280</v>
@@ -4335,7 +6254,7 @@
       </c>
       <c r="C149" s="5">
         <f>SUM(D$4:D149)</f>
-        <v>15675630</v>
+        <v>15675655</v>
       </c>
       <c r="D149" s="5">
         <v>801365</v>
@@ -4356,7 +6275,7 @@
       </c>
       <c r="C150" s="5">
         <f>SUM(D$4:D150)</f>
-        <v>16527085</v>
+        <v>16527110</v>
       </c>
       <c r="D150" s="5">
         <v>851455</v>
@@ -4377,7 +6296,7 @@
       </c>
       <c r="C151" s="5">
         <f>SUM(D$4:D151)</f>
-        <v>17428625</v>
+        <v>17428650</v>
       </c>
       <c r="D151" s="5">
         <v>901540</v>
@@ -4398,7 +6317,7 @@
       </c>
       <c r="C152" s="5">
         <f>SUM(D$4:D152)</f>
-        <v>18430335</v>
+        <v>18430360</v>
       </c>
       <c r="D152" s="5">
         <v>1001710</v>
@@ -4419,7 +6338,7 @@
       </c>
       <c r="C153" s="5">
         <f>SUM(D$4:D153)</f>
-        <v>19532215</v>
+        <v>19532240</v>
       </c>
       <c r="D153" s="5">
         <v>1101880</v>
@@ -5435,8 +7354,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5498,22 +7417,22 @@
         <v>112</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>129</v>
-      </c>
       <c r="J2" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.2">
@@ -5564,15 +7483,13 @@
       <c r="E4" s="5"/>
       <c r="F4" s="8"/>
       <c r="G4" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="J4" s="8" t="s">
         <v>124</v>
       </c>
+      <c r="H4" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>

--- a/Excel/镇魂街/basicInfo.基础信息.xlsx
+++ b/Excel/镇魂街/basicInfo.基础信息.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ZHJcehua\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ZHJ_PROJECT\trunk\ZHJStaffSpace\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10C79F62-55D0-4B6D-B78C-94BA84571588}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12465" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -19,20 +18,12 @@
     <sheet name="公告" sheetId="29" r:id="rId4"/>
     <sheet name="User表" sheetId="30" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="280">
   <si>
     <t>sheet名</t>
   </si>
@@ -106,6 +97,12 @@
     <t>HangUpTeamNum</t>
   </si>
   <si>
+    <t>Speed</t>
+  </si>
+  <si>
+    <t>MaxEqpStrengthLv</t>
+  </si>
+  <si>
     <t>int:&lt;&gt;</t>
   </si>
   <si>
@@ -119,6 +116,435 @@
   </si>
   <si>
     <t>挂机队伍数量</t>
+  </si>
+  <si>
+    <t>先手值</t>
+  </si>
+  <si>
+    <t>最大装备强化等级</t>
+  </si>
+  <si>
+    <t>普通1章第1关</t>
+  </si>
+  <si>
+    <t>普通1章第2关</t>
+  </si>
+  <si>
+    <t>普通1章第3关</t>
+  </si>
+  <si>
+    <t>普通1章第4关</t>
+  </si>
+  <si>
+    <t>普通1章第5关</t>
+  </si>
+  <si>
+    <t>普通1章第6关</t>
+  </si>
+  <si>
+    <t>普通1章第7关</t>
+  </si>
+  <si>
+    <t>普通1章第8关</t>
+  </si>
+  <si>
+    <t>普通1章第9关</t>
+  </si>
+  <si>
+    <t>普通2章第1关</t>
+  </si>
+  <si>
+    <t>普通2章第2关</t>
+  </si>
+  <si>
+    <t>普通2章第3关</t>
+  </si>
+  <si>
+    <t>普通2章第4关</t>
+  </si>
+  <si>
+    <t>普通2章第5关</t>
+  </si>
+  <si>
+    <t>普通2章第6关</t>
+  </si>
+  <si>
+    <t>普通2章第7关</t>
+  </si>
+  <si>
+    <t>普通2章第8关</t>
+  </si>
+  <si>
+    <t>普通2章第9关</t>
+  </si>
+  <si>
+    <t>普通3章第1关</t>
+  </si>
+  <si>
+    <t>普通3章第2关</t>
+  </si>
+  <si>
+    <t>普通3章第3关</t>
+  </si>
+  <si>
+    <t>普通3章第4关</t>
+  </si>
+  <si>
+    <t>普通3章第5关</t>
+  </si>
+  <si>
+    <t>普通3章第6关</t>
+  </si>
+  <si>
+    <t>普通3章第7关</t>
+  </si>
+  <si>
+    <t>普通3章第8关</t>
+  </si>
+  <si>
+    <t>普通3章第9关</t>
+  </si>
+  <si>
+    <t>普通4章第1关</t>
+  </si>
+  <si>
+    <t>普通4章第2关</t>
+  </si>
+  <si>
+    <t>普通4章第3关</t>
+  </si>
+  <si>
+    <t>普通4章第4关</t>
+  </si>
+  <si>
+    <t>普通4章第5关</t>
+  </si>
+  <si>
+    <t>普通4章第6关</t>
+  </si>
+  <si>
+    <t>普通4章第7关</t>
+  </si>
+  <si>
+    <t>普通4章第8关</t>
+  </si>
+  <si>
+    <t>普通4章第9关</t>
+  </si>
+  <si>
+    <t>普通5章第1关</t>
+  </si>
+  <si>
+    <t>普通5章第2关</t>
+  </si>
+  <si>
+    <t>普通5章第3关</t>
+  </si>
+  <si>
+    <t>普通5章第4关</t>
+  </si>
+  <si>
+    <t>普通5章第5关</t>
+  </si>
+  <si>
+    <t>普通5章第6关</t>
+  </si>
+  <si>
+    <t>普通5章第7关</t>
+  </si>
+  <si>
+    <t>普通5章第8关</t>
+  </si>
+  <si>
+    <t>普通5章第9关</t>
+  </si>
+  <si>
+    <t>普通5章第10关</t>
+  </si>
+  <si>
+    <t>普通5章第11关</t>
+  </si>
+  <si>
+    <t>普通5章第12关</t>
+  </si>
+  <si>
+    <t>普通5章第13关</t>
+  </si>
+  <si>
+    <t>普通5章第14关</t>
+  </si>
+  <si>
+    <t>普通5章第15关</t>
+  </si>
+  <si>
+    <t>普通6章第1关</t>
+  </si>
+  <si>
+    <t>普通6章第2关</t>
+  </si>
+  <si>
+    <t>普通6章第3关</t>
+  </si>
+  <si>
+    <t>普通6章第4关</t>
+  </si>
+  <si>
+    <t>普通6章第5关</t>
+  </si>
+  <si>
+    <t>普通6章第6关</t>
+  </si>
+  <si>
+    <t>普通6章第7关</t>
+  </si>
+  <si>
+    <t>普通6章第8关</t>
+  </si>
+  <si>
+    <t>普通6章第9关</t>
+  </si>
+  <si>
+    <t>普通6章第10关</t>
+  </si>
+  <si>
+    <t>普通6章第11关</t>
+  </si>
+  <si>
+    <t>普通6章第12关</t>
+  </si>
+  <si>
+    <t>普通6章第13关</t>
+  </si>
+  <si>
+    <t>普通6章第14关</t>
+  </si>
+  <si>
+    <t>普通6章第15关</t>
+  </si>
+  <si>
+    <t>普通7章第1关</t>
+  </si>
+  <si>
+    <t>普通7章第2关</t>
+  </si>
+  <si>
+    <t>普通7章第3关</t>
+  </si>
+  <si>
+    <t>普通7章第4关</t>
+  </si>
+  <si>
+    <t>普通7章第5关</t>
+  </si>
+  <si>
+    <t>普通7章第6关</t>
+  </si>
+  <si>
+    <t>普通7章第7关</t>
+  </si>
+  <si>
+    <t>普通7章第8关</t>
+  </si>
+  <si>
+    <t>普通7章第9关</t>
+  </si>
+  <si>
+    <t>普通7章第10关</t>
+  </si>
+  <si>
+    <t>普通7章第11关</t>
+  </si>
+  <si>
+    <t>普通7章第12关</t>
+  </si>
+  <si>
+    <t>普通7章第13关</t>
+  </si>
+  <si>
+    <t>普通7章第14关</t>
+  </si>
+  <si>
+    <t>普通7章第15关</t>
+  </si>
+  <si>
+    <t>普通8章第1关</t>
+  </si>
+  <si>
+    <t>普通8章第2关</t>
+  </si>
+  <si>
+    <t>普通8章第3关</t>
+  </si>
+  <si>
+    <t>普通8章第4关</t>
+  </si>
+  <si>
+    <t>普通8章第5关</t>
+  </si>
+  <si>
+    <t>普通8章第6关</t>
+  </si>
+  <si>
+    <t>普通8章第7关</t>
+  </si>
+  <si>
+    <t>普通8章第8关</t>
+  </si>
+  <si>
+    <t>普通8章第9关</t>
+  </si>
+  <si>
+    <t>普通8章第10关</t>
+  </si>
+  <si>
+    <t>普通8章第11关</t>
+  </si>
+  <si>
+    <t>普通8章第12关</t>
+  </si>
+  <si>
+    <t>普通8章第13关</t>
+  </si>
+  <si>
+    <t>普通8章第14关</t>
+  </si>
+  <si>
+    <t>普通8章第15关</t>
+  </si>
+  <si>
+    <t>普通9章第1关</t>
+  </si>
+  <si>
+    <t>普通9章第2关</t>
+  </si>
+  <si>
+    <t>普通9章第3关</t>
+  </si>
+  <si>
+    <t>普通9章第4关</t>
+  </si>
+  <si>
+    <t>普通9章第5关</t>
+  </si>
+  <si>
+    <t>普通9章第6关</t>
+  </si>
+  <si>
+    <t>普通9章第7关</t>
+  </si>
+  <si>
+    <t>普通9章第8关</t>
+  </si>
+  <si>
+    <t>普通9章第9关</t>
+  </si>
+  <si>
+    <t>普通9章第10关</t>
+  </si>
+  <si>
+    <t>普通9章第11关</t>
+  </si>
+  <si>
+    <t>普通9章第12关</t>
+  </si>
+  <si>
+    <t>普通9章第13关</t>
+  </si>
+  <si>
+    <t>普通9章第14关</t>
+  </si>
+  <si>
+    <t>普通9章第15关</t>
+  </si>
+  <si>
+    <t>普通10章第1关</t>
+  </si>
+  <si>
+    <t>普通10章第2关</t>
+  </si>
+  <si>
+    <t>普通10章第3关</t>
+  </si>
+  <si>
+    <t>普通10章第4关</t>
+  </si>
+  <si>
+    <t>普通10章第5关</t>
+  </si>
+  <si>
+    <t>普通10章第6关</t>
+  </si>
+  <si>
+    <t>普通10章第7关</t>
+  </si>
+  <si>
+    <t>普通10章第8关</t>
+  </si>
+  <si>
+    <t>普通10章第9关</t>
+  </si>
+  <si>
+    <t>普通10章第10关</t>
+  </si>
+  <si>
+    <t>普通10章第11关</t>
+  </si>
+  <si>
+    <t>普通10章第12关</t>
+  </si>
+  <si>
+    <t>普通10章第13关</t>
+  </si>
+  <si>
+    <t>普通10章第14关</t>
+  </si>
+  <si>
+    <t>普通10章第15关</t>
+  </si>
+  <si>
+    <t>普通11章第1关</t>
+  </si>
+  <si>
+    <t>普通11章第2关</t>
+  </si>
+  <si>
+    <t>普通11章第3关</t>
+  </si>
+  <si>
+    <t>普通11章第4关</t>
+  </si>
+  <si>
+    <t>普通11章第5关</t>
+  </si>
+  <si>
+    <t>普通11章第6关</t>
+  </si>
+  <si>
+    <t>普通11章第7关</t>
+  </si>
+  <si>
+    <t>普通11章第8关</t>
+  </si>
+  <si>
+    <t>普通11章第9关</t>
+  </si>
+  <si>
+    <t>普通11章第10关</t>
+  </si>
+  <si>
+    <t>普通11章第11关</t>
+  </si>
+  <si>
+    <t>普通11章第12关</t>
+  </si>
+  <si>
+    <t>普通11章第13关</t>
+  </si>
+  <si>
+    <t>普通11章第14关</t>
+  </si>
+  <si>
+    <t>普通11章第15关</t>
   </si>
   <si>
     <t>ItemShow[1][1]</t>
@@ -150,7 +576,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -161,7 +586,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -314,6 +738,21 @@
   </si>
   <si>
     <t>芦花古楼-卡牌福利</t>
+  </si>
+  <si>
+    <t>守护灵初级抽卡券</t>
+  </si>
+  <si>
+    <t>破碎守护灵抽卡</t>
+  </si>
+  <si>
+    <t>熔炼值</t>
+  </si>
+  <si>
+    <t>卡牌装备界面</t>
+  </si>
+  <si>
+    <t>熔炼打造界面</t>
   </si>
   <si>
     <t>Type</t>
@@ -413,7 +852,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -424,7 +862,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -437,7 +874,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -448,7 +884,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -456,6 +891,9 @@
     </r>
   </si>
   <si>
+    <t>card_id:e&gt;|@0</t>
+  </si>
+  <si>
     <t>头像</t>
   </si>
   <si>
@@ -487,469 +925,27 @@
   </si>
   <si>
     <t>曹玄亮</t>
+  </si>
+  <si>
+    <t>唐流雨</t>
+  </si>
+  <si>
+    <t>常服夏铃</t>
+  </si>
+  <si>
+    <t>钻石</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>card_id:e&gt;|@0</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>card_id:e&gt;|@0</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>card_id:e&gt;|@0</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>card_id:e&gt;|@0</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Speed</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>先手值</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通1章第1关</t>
-  </si>
-  <si>
-    <t>普通1章第2关</t>
-  </si>
-  <si>
-    <t>普通1章第3关</t>
-  </si>
-  <si>
-    <t>普通1章第4关</t>
-  </si>
-  <si>
-    <t>普通1章第5关</t>
-  </si>
-  <si>
-    <t>普通1章第6关</t>
-  </si>
-  <si>
-    <t>普通1章第7关</t>
-  </si>
-  <si>
-    <t>普通1章第8关</t>
-  </si>
-  <si>
-    <t>普通1章第9关</t>
-  </si>
-  <si>
-    <t>普通2章第1关</t>
-  </si>
-  <si>
-    <t>普通2章第2关</t>
-  </si>
-  <si>
-    <t>普通2章第3关</t>
-  </si>
-  <si>
-    <t>普通2章第4关</t>
-  </si>
-  <si>
-    <t>普通2章第5关</t>
-  </si>
-  <si>
-    <t>普通2章第6关</t>
-  </si>
-  <si>
-    <t>普通2章第7关</t>
-  </si>
-  <si>
-    <t>普通2章第8关</t>
-  </si>
-  <si>
-    <t>普通2章第9关</t>
-  </si>
-  <si>
-    <t>普通3章第1关</t>
-  </si>
-  <si>
-    <t>普通3章第2关</t>
-  </si>
-  <si>
-    <t>普通3章第3关</t>
-  </si>
-  <si>
-    <t>普通3章第4关</t>
-  </si>
-  <si>
-    <t>普通3章第5关</t>
-  </si>
-  <si>
-    <t>普通3章第6关</t>
-  </si>
-  <si>
-    <t>普通3章第7关</t>
-  </si>
-  <si>
-    <t>普通3章第8关</t>
-  </si>
-  <si>
-    <t>普通3章第9关</t>
-  </si>
-  <si>
-    <t>普通4章第1关</t>
-  </si>
-  <si>
-    <t>普通4章第2关</t>
-  </si>
-  <si>
-    <t>普通4章第3关</t>
-  </si>
-  <si>
-    <t>普通4章第4关</t>
-  </si>
-  <si>
-    <t>普通4章第5关</t>
-  </si>
-  <si>
-    <t>普通4章第6关</t>
-  </si>
-  <si>
-    <t>普通4章第7关</t>
-  </si>
-  <si>
-    <t>普通4章第8关</t>
-  </si>
-  <si>
-    <t>普通4章第9关</t>
-  </si>
-  <si>
-    <t>普通5章第1关</t>
-  </si>
-  <si>
-    <t>普通5章第2关</t>
-  </si>
-  <si>
-    <t>普通5章第3关</t>
-  </si>
-  <si>
-    <t>普通5章第4关</t>
-  </si>
-  <si>
-    <t>普通5章第5关</t>
-  </si>
-  <si>
-    <t>普通5章第6关</t>
-  </si>
-  <si>
-    <t>普通5章第7关</t>
-  </si>
-  <si>
-    <t>普通5章第8关</t>
-  </si>
-  <si>
-    <t>普通5章第9关</t>
-  </si>
-  <si>
-    <t>普通5章第10关</t>
-  </si>
-  <si>
-    <t>普通5章第11关</t>
-  </si>
-  <si>
-    <t>普通5章第12关</t>
-  </si>
-  <si>
-    <t>普通5章第13关</t>
-  </si>
-  <si>
-    <t>普通5章第14关</t>
-  </si>
-  <si>
-    <t>普通5章第15关</t>
-  </si>
-  <si>
-    <t>普通6章第1关</t>
-  </si>
-  <si>
-    <t>普通6章第2关</t>
-  </si>
-  <si>
-    <t>普通6章第3关</t>
-  </si>
-  <si>
-    <t>普通6章第4关</t>
-  </si>
-  <si>
-    <t>普通6章第5关</t>
-  </si>
-  <si>
-    <t>普通6章第6关</t>
-  </si>
-  <si>
-    <t>普通6章第7关</t>
-  </si>
-  <si>
-    <t>普通6章第8关</t>
-  </si>
-  <si>
-    <t>普通6章第9关</t>
-  </si>
-  <si>
-    <t>普通6章第10关</t>
-  </si>
-  <si>
-    <t>普通6章第11关</t>
-  </si>
-  <si>
-    <t>普通6章第12关</t>
-  </si>
-  <si>
-    <t>普通6章第13关</t>
-  </si>
-  <si>
-    <t>普通6章第14关</t>
-  </si>
-  <si>
-    <t>普通6章第15关</t>
-  </si>
-  <si>
-    <t>普通7章第1关</t>
-  </si>
-  <si>
-    <t>普通7章第2关</t>
-  </si>
-  <si>
-    <t>普通7章第3关</t>
-  </si>
-  <si>
-    <t>普通7章第4关</t>
-  </si>
-  <si>
-    <t>普通7章第5关</t>
-  </si>
-  <si>
-    <t>普通7章第6关</t>
-  </si>
-  <si>
-    <t>普通7章第7关</t>
-  </si>
-  <si>
-    <t>普通7章第8关</t>
-  </si>
-  <si>
-    <t>普通7章第9关</t>
-  </si>
-  <si>
-    <t>普通7章第10关</t>
-  </si>
-  <si>
-    <t>普通7章第11关</t>
-  </si>
-  <si>
-    <t>普通7章第12关</t>
-  </si>
-  <si>
-    <t>普通7章第13关</t>
-  </si>
-  <si>
-    <t>普通7章第14关</t>
-  </si>
-  <si>
-    <t>普通7章第15关</t>
-  </si>
-  <si>
-    <t>普通8章第1关</t>
-  </si>
-  <si>
-    <t>普通8章第2关</t>
-  </si>
-  <si>
-    <t>普通8章第3关</t>
-  </si>
-  <si>
-    <t>普通8章第4关</t>
-  </si>
-  <si>
-    <t>普通8章第5关</t>
-  </si>
-  <si>
-    <t>普通8章第6关</t>
-  </si>
-  <si>
-    <t>普通8章第7关</t>
-  </si>
-  <si>
-    <t>普通8章第8关</t>
-  </si>
-  <si>
-    <t>普通8章第9关</t>
-  </si>
-  <si>
-    <t>普通8章第10关</t>
-  </si>
-  <si>
-    <t>普通8章第11关</t>
-  </si>
-  <si>
-    <t>普通8章第12关</t>
-  </si>
-  <si>
-    <t>普通8章第13关</t>
-  </si>
-  <si>
-    <t>普通8章第14关</t>
-  </si>
-  <si>
-    <t>普通8章第15关</t>
-  </si>
-  <si>
-    <t>普通9章第1关</t>
-  </si>
-  <si>
-    <t>普通9章第2关</t>
-  </si>
-  <si>
-    <t>普通9章第3关</t>
-  </si>
-  <si>
-    <t>普通9章第4关</t>
-  </si>
-  <si>
-    <t>普通9章第5关</t>
-  </si>
-  <si>
-    <t>普通9章第6关</t>
-  </si>
-  <si>
-    <t>普通9章第7关</t>
-  </si>
-  <si>
-    <t>普通9章第8关</t>
-  </si>
-  <si>
-    <t>普通9章第9关</t>
-  </si>
-  <si>
-    <t>普通9章第10关</t>
-  </si>
-  <si>
-    <t>普通9章第11关</t>
-  </si>
-  <si>
-    <t>普通9章第12关</t>
-  </si>
-  <si>
-    <t>普通9章第13关</t>
-  </si>
-  <si>
-    <t>普通9章第14关</t>
-  </si>
-  <si>
-    <t>普通9章第15关</t>
-  </si>
-  <si>
-    <t>普通10章第1关</t>
-  </si>
-  <si>
-    <t>普通10章第2关</t>
-  </si>
-  <si>
-    <t>普通10章第3关</t>
-  </si>
-  <si>
-    <t>普通10章第4关</t>
-  </si>
-  <si>
-    <t>普通10章第5关</t>
-  </si>
-  <si>
-    <t>普通10章第6关</t>
-  </si>
-  <si>
-    <t>普通10章第7关</t>
-  </si>
-  <si>
-    <t>普通10章第8关</t>
-  </si>
-  <si>
-    <t>普通10章第9关</t>
-  </si>
-  <si>
-    <t>普通10章第10关</t>
-  </si>
-  <si>
-    <t>普通10章第11关</t>
-  </si>
-  <si>
-    <t>普通10章第12关</t>
-  </si>
-  <si>
-    <t>普通10章第13关</t>
-  </si>
-  <si>
-    <t>普通10章第14关</t>
-  </si>
-  <si>
-    <t>普通10章第15关</t>
-  </si>
-  <si>
-    <t>普通11章第1关</t>
-  </si>
-  <si>
-    <t>普通11章第2关</t>
-  </si>
-  <si>
-    <t>普通11章第3关</t>
-  </si>
-  <si>
-    <t>普通11章第4关</t>
-  </si>
-  <si>
-    <t>普通11章第5关</t>
-  </si>
-  <si>
-    <t>普通11章第6关</t>
-  </si>
-  <si>
-    <t>普通11章第7关</t>
-  </si>
-  <si>
-    <t>普通11章第8关</t>
-  </si>
-  <si>
-    <t>普通11章第9关</t>
-  </si>
-  <si>
-    <t>普通11章第10关</t>
-  </si>
-  <si>
-    <t>普通11章第11关</t>
-  </si>
-  <si>
-    <t>普通11章第12关</t>
-  </si>
-  <si>
-    <t>普通11章第13关</t>
-  </si>
-  <si>
-    <t>普通11章第14关</t>
-  </si>
-  <si>
-    <t>普通11章第15关</t>
-  </si>
-  <si>
-    <t>等级</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>唐流雨</t>
+    <t>国战主界面-资源栏</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -961,7 +957,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -970,21 +965,26 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -992,7 +992,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1000,7 +999,6 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1008,21 +1006,19 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
+      <sz val="9"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1056,7 +1052,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14978484450819421"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1068,12 +1064,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="0" tint="-0.14975432599871821"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1097,6 +1093,32 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1110,13 +1132,13 @@
   </borders>
   <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1">
@@ -1125,22 +1147,22 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" applyFont="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2">
@@ -1156,26 +1178,40 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="13" applyFill="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="4" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="4" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="10" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="4" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="4" applyFont="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="4" quotePrefix="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10" applyFont="1"/>
   </cellXfs>
   <cellStyles count="14">
-    <cellStyle name="Grid" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Normal" xfId="7" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Grid" xfId="4"/>
+    <cellStyle name="Normal" xfId="7"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="常规 3" xfId="10" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="超链接 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="大标题" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="横向标题" xfId="1" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="文本" xfId="9" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="无效" xfId="12" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="因变Grid" xfId="3" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="英文标题" xfId="2" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="中文标题" xfId="13" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="纵向标题" xfId="5" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="常规 2" xfId="8"/>
+    <cellStyle name="常规 3" xfId="10"/>
+    <cellStyle name="超链接 2" xfId="11"/>
+    <cellStyle name="大标题" xfId="6"/>
+    <cellStyle name="横向标题" xfId="1"/>
+    <cellStyle name="文本" xfId="9"/>
+    <cellStyle name="无效" xfId="12"/>
+    <cellStyle name="因变Grid" xfId="3"/>
+    <cellStyle name="英文标题" xfId="2"/>
+    <cellStyle name="中文标题" xfId="13"/>
+    <cellStyle name="纵向标题" xfId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1447,11 +1483,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1631,22 +1667,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L153"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="3" width="10.125" customWidth="1"/>
     <col min="4" max="4" width="9.5" customWidth="1"/>
-    <col min="5" max="6" width="19.625" customWidth="1"/>
-    <col min="9" max="9" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="19.625" customWidth="1"/>
+    <col min="10" max="10" width="15.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -1663,53 +1699,62 @@
         <v>23</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -1729,21 +1774,24 @@
       <c r="F4" s="5">
         <v>100</v>
       </c>
-      <c r="I4" t="s">
-        <v>131</v>
-      </c>
-      <c r="J4">
-        <v>30</v>
+      <c r="G4" s="5">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>33</v>
       </c>
       <c r="K4">
-        <f>SUM($J$4:J4)</f>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="L4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+        <f>SUM($K$4:K4)</f>
+        <v>50</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>2</v>
       </c>
@@ -1763,21 +1811,24 @@
       <c r="F5" s="5">
         <v>100</v>
       </c>
-      <c r="I5" t="s">
-        <v>132</v>
-      </c>
-      <c r="J5">
-        <v>35</v>
+      <c r="G5" s="5">
+        <v>2</v>
+      </c>
+      <c r="J5" t="s">
+        <v>34</v>
       </c>
       <c r="K5">
-        <f>SUM($J$4:J5)</f>
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="L5">
+        <f>SUM($K$4:K5)</f>
+        <v>100</v>
+      </c>
+      <c r="M5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>3</v>
       </c>
@@ -1797,21 +1848,24 @@
       <c r="F6" s="5">
         <v>100</v>
       </c>
-      <c r="I6" t="s">
-        <v>133</v>
-      </c>
-      <c r="J6">
-        <v>40</v>
+      <c r="G6" s="5">
+        <v>3</v>
+      </c>
+      <c r="J6" t="s">
+        <v>35</v>
       </c>
       <c r="K6">
-        <f>SUM($J$4:J6)</f>
-        <v>105</v>
+        <v>50</v>
       </c>
       <c r="L6">
+        <f>SUM($K$4:K6)</f>
+        <v>150</v>
+      </c>
+      <c r="M6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>4</v>
       </c>
@@ -1820,10 +1874,10 @@
       </c>
       <c r="C7" s="5">
         <f>SUM(D$4:D7)</f>
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D7" s="5">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E7" s="5">
         <v>1</v>
@@ -1831,21 +1885,24 @@
       <c r="F7" s="5">
         <v>100</v>
       </c>
-      <c r="I7" t="s">
-        <v>134</v>
-      </c>
-      <c r="J7">
-        <v>45</v>
+      <c r="G7" s="5">
+        <v>4</v>
+      </c>
+      <c r="J7" t="s">
+        <v>36</v>
       </c>
       <c r="K7">
-        <f>SUM($J$4:J7)</f>
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="L7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+        <f>SUM($K$4:K7)</f>
+        <v>200</v>
+      </c>
+      <c r="M7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>5</v>
       </c>
@@ -1854,10 +1911,10 @@
       </c>
       <c r="C8" s="5">
         <f>SUM(D$4:D8)</f>
-        <v>525</v>
+        <v>510</v>
       </c>
       <c r="D8" s="5">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="E8" s="5">
         <v>1</v>
@@ -1865,21 +1922,24 @@
       <c r="F8" s="5">
         <v>100</v>
       </c>
-      <c r="I8" t="s">
-        <v>135</v>
-      </c>
-      <c r="J8">
+      <c r="G8" s="5">
+        <v>5</v>
+      </c>
+      <c r="J8" t="s">
+        <v>37</v>
+      </c>
+      <c r="K8">
         <v>50</v>
       </c>
-      <c r="K8">
-        <f>SUM($J$4:J8)</f>
-        <v>200</v>
-      </c>
       <c r="L8">
+        <f>SUM($K$4:K8)</f>
+        <v>250</v>
+      </c>
+      <c r="M8">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>6</v>
       </c>
@@ -1888,7 +1948,7 @@
       </c>
       <c r="C9" s="5">
         <f>SUM(D$4:D9)</f>
-        <v>700</v>
+        <v>685</v>
       </c>
       <c r="D9" s="5">
         <v>175</v>
@@ -1899,21 +1959,24 @@
       <c r="F9" s="5">
         <v>100</v>
       </c>
-      <c r="I9" t="s">
-        <v>136</v>
-      </c>
-      <c r="J9">
+      <c r="G9" s="5">
+        <v>6</v>
+      </c>
+      <c r="J9" t="s">
+        <v>38</v>
+      </c>
+      <c r="K9">
         <v>65</v>
       </c>
-      <c r="K9">
-        <f>SUM($J$4:J9)</f>
-        <v>265</v>
-      </c>
       <c r="L9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+        <f>SUM($K$4:K9)</f>
+        <v>315</v>
+      </c>
+      <c r="M9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>7</v>
       </c>
@@ -1922,7 +1985,7 @@
       </c>
       <c r="C10" s="5">
         <f>SUM(D$4:D10)</f>
-        <v>960</v>
+        <v>945</v>
       </c>
       <c r="D10" s="5">
         <v>260</v>
@@ -1933,21 +1996,24 @@
       <c r="F10" s="5">
         <v>100</v>
       </c>
-      <c r="I10" t="s">
-        <v>137</v>
-      </c>
-      <c r="J10">
+      <c r="G10" s="5">
+        <v>7</v>
+      </c>
+      <c r="J10" t="s">
+        <v>39</v>
+      </c>
+      <c r="K10">
         <v>65</v>
       </c>
-      <c r="K10">
-        <f>SUM($J$4:J10)</f>
-        <v>330</v>
-      </c>
       <c r="L10">
+        <f>SUM($K$4:K10)</f>
+        <v>380</v>
+      </c>
+      <c r="M10">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>8</v>
       </c>
@@ -1956,10 +2022,10 @@
       </c>
       <c r="C11" s="5">
         <f>SUM(D$4:D11)</f>
-        <v>1270</v>
-      </c>
-      <c r="D11" s="5">
-        <v>310</v>
+        <v>1205</v>
+      </c>
+      <c r="D11" s="12">
+        <v>260</v>
       </c>
       <c r="E11" s="5">
         <v>1</v>
@@ -1967,21 +2033,24 @@
       <c r="F11" s="5">
         <v>100</v>
       </c>
-      <c r="I11" t="s">
-        <v>138</v>
-      </c>
-      <c r="J11">
+      <c r="G11" s="5">
+        <v>8</v>
+      </c>
+      <c r="J11" t="s">
+        <v>40</v>
+      </c>
+      <c r="K11">
         <v>65</v>
       </c>
-      <c r="K11">
-        <f>SUM($J$4:J11)</f>
-        <v>395</v>
-      </c>
       <c r="L11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+        <f>SUM($K$4:K11)</f>
+        <v>445</v>
+      </c>
+      <c r="M11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>9</v>
       </c>
@@ -1990,10 +2059,10 @@
       </c>
       <c r="C12" s="5">
         <f>SUM(D$4:D12)</f>
-        <v>1690</v>
+        <v>1515</v>
       </c>
       <c r="D12" s="5">
-        <v>420</v>
+        <v>310</v>
       </c>
       <c r="E12" s="5">
         <v>1</v>
@@ -2001,21 +2070,24 @@
       <c r="F12" s="5">
         <v>100</v>
       </c>
-      <c r="I12" t="s">
-        <v>139</v>
-      </c>
-      <c r="J12">
-        <v>130</v>
+      <c r="G12" s="5">
+        <v>9</v>
+      </c>
+      <c r="J12" t="s">
+        <v>41</v>
       </c>
       <c r="K12">
-        <f>SUM($J$4:J12)</f>
-        <v>525</v>
+        <v>65</v>
       </c>
       <c r="L12">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+        <f>SUM($K$4:K12)</f>
+        <v>510</v>
+      </c>
+      <c r="M12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>10</v>
       </c>
@@ -2024,10 +2096,10 @@
       </c>
       <c r="C13" s="5">
         <f>SUM(D$4:D13)</f>
-        <v>2055</v>
-      </c>
-      <c r="D13" s="5">
-        <v>365</v>
+        <v>1870</v>
+      </c>
+      <c r="D13" s="12">
+        <v>355</v>
       </c>
       <c r="E13" s="5">
         <v>1</v>
@@ -2035,21 +2107,24 @@
       <c r="F13" s="5">
         <v>100</v>
       </c>
-      <c r="I13" t="s">
+      <c r="G13" s="5">
+        <v>10</v>
+      </c>
+      <c r="J13" t="s">
+        <v>42</v>
+      </c>
+      <c r="K13">
         <v>140</v>
       </c>
-      <c r="J13">
-        <v>140</v>
-      </c>
-      <c r="K13">
-        <f>SUM($J$4:J13)</f>
-        <v>665</v>
-      </c>
       <c r="L13">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+        <f>SUM($K$4:K13)</f>
+        <v>650</v>
+      </c>
+      <c r="M13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>11</v>
       </c>
@@ -2058,10 +2133,10 @@
       </c>
       <c r="C14" s="5">
         <f>SUM(D$4:D14)</f>
-        <v>2495</v>
+        <v>2250</v>
       </c>
       <c r="D14" s="5">
-        <v>440</v>
+        <v>380</v>
       </c>
       <c r="E14" s="5">
         <v>1</v>
@@ -2069,21 +2144,24 @@
       <c r="F14" s="5">
         <v>100</v>
       </c>
-      <c r="I14" t="s">
-        <v>141</v>
-      </c>
-      <c r="J14">
+      <c r="G14" s="5">
+        <v>11</v>
+      </c>
+      <c r="J14" t="s">
+        <v>43</v>
+      </c>
+      <c r="K14">
         <v>140</v>
       </c>
-      <c r="K14">
-        <f>SUM($J$4:J14)</f>
-        <v>805</v>
-      </c>
       <c r="L14">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+        <f>SUM($K$4:K14)</f>
+        <v>790</v>
+      </c>
+      <c r="M14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>12</v>
       </c>
@@ -2092,10 +2170,10 @@
       </c>
       <c r="C15" s="5">
         <f>SUM(D$4:D15)</f>
-        <v>3005</v>
-      </c>
-      <c r="D15" s="5">
-        <v>510</v>
+        <v>2640</v>
+      </c>
+      <c r="D15" s="12">
+        <v>390</v>
       </c>
       <c r="E15" s="5">
         <v>1</v>
@@ -2103,21 +2181,24 @@
       <c r="F15" s="5">
         <v>100</v>
       </c>
-      <c r="I15" t="s">
-        <v>142</v>
-      </c>
-      <c r="J15">
+      <c r="G15" s="5">
+        <v>12</v>
+      </c>
+      <c r="J15" t="s">
+        <v>44</v>
+      </c>
+      <c r="K15">
         <v>140</v>
       </c>
-      <c r="K15">
-        <f>SUM($J$4:J15)</f>
-        <v>945</v>
-      </c>
       <c r="L15">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+        <f>SUM($K$4:K15)</f>
+        <v>930</v>
+      </c>
+      <c r="M15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>13</v>
       </c>
@@ -2126,10 +2207,10 @@
       </c>
       <c r="C16" s="5">
         <f>SUM(D$4:D16)</f>
-        <v>3590</v>
+        <v>3060</v>
       </c>
       <c r="D16" s="5">
-        <v>585</v>
+        <v>420</v>
       </c>
       <c r="E16" s="5">
         <v>1</v>
@@ -2137,21 +2218,24 @@
       <c r="F16" s="5">
         <v>100</v>
       </c>
-      <c r="I16" t="s">
-        <v>143</v>
-      </c>
-      <c r="J16">
+      <c r="G16" s="5">
+        <v>13</v>
+      </c>
+      <c r="J16" t="s">
+        <v>45</v>
+      </c>
+      <c r="K16">
         <v>140</v>
       </c>
-      <c r="K16">
-        <f>SUM($J$4:J16)</f>
-        <v>1085</v>
-      </c>
       <c r="L16">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+        <f>SUM($K$4:K16)</f>
+        <v>1070</v>
+      </c>
+      <c r="M16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>14</v>
       </c>
@@ -2160,10 +2244,10 @@
       </c>
       <c r="C17" s="5">
         <f>SUM(D$4:D17)</f>
-        <v>4250</v>
+        <v>3480</v>
       </c>
       <c r="D17" s="5">
-        <v>660</v>
+        <v>420</v>
       </c>
       <c r="E17" s="5">
         <v>1</v>
@@ -2171,21 +2255,24 @@
       <c r="F17" s="5">
         <v>100</v>
       </c>
-      <c r="I17" t="s">
-        <v>144</v>
-      </c>
-      <c r="J17">
+      <c r="G17" s="5">
+        <v>14</v>
+      </c>
+      <c r="J17" t="s">
+        <v>46</v>
+      </c>
+      <c r="K17">
         <v>140</v>
       </c>
-      <c r="K17">
-        <f>SUM($J$4:J17)</f>
-        <v>1225</v>
-      </c>
       <c r="L17">
+        <f>SUM($K$4:K17)</f>
+        <v>1210</v>
+      </c>
+      <c r="M17">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>15</v>
       </c>
@@ -2194,10 +2281,10 @@
       </c>
       <c r="C18" s="5">
         <f>SUM(D$4:D18)</f>
-        <v>4980</v>
+        <v>3920</v>
       </c>
       <c r="D18" s="5">
-        <v>730</v>
+        <v>440</v>
       </c>
       <c r="E18" s="5">
         <v>1</v>
@@ -2205,21 +2292,24 @@
       <c r="F18" s="5">
         <v>100</v>
       </c>
-      <c r="I18" t="s">
-        <v>145</v>
-      </c>
-      <c r="J18">
-        <v>140</v>
+      <c r="G18" s="5">
+        <v>15</v>
+      </c>
+      <c r="J18" t="s">
+        <v>47</v>
       </c>
       <c r="K18">
-        <f>SUM($J$4:J18)</f>
-        <v>1365</v>
+        <v>830</v>
       </c>
       <c r="L18">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+        <f>SUM($K$4:K18)</f>
+        <v>2040</v>
+      </c>
+      <c r="M18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>16</v>
       </c>
@@ -2228,10 +2318,10 @@
       </c>
       <c r="C19" s="5">
         <f>SUM(D$4:D19)</f>
-        <v>5805</v>
-      </c>
-      <c r="D19" s="5">
-        <v>825</v>
+        <v>4400</v>
+      </c>
+      <c r="D19" s="12">
+        <v>480</v>
       </c>
       <c r="E19" s="5">
         <v>1</v>
@@ -2239,21 +2329,24 @@
       <c r="F19" s="5">
         <v>100</v>
       </c>
-      <c r="I19" t="s">
-        <v>146</v>
-      </c>
-      <c r="J19">
-        <v>140</v>
+      <c r="G19" s="5">
+        <v>16</v>
+      </c>
+      <c r="J19" t="s">
+        <v>48</v>
       </c>
       <c r="K19">
-        <f>SUM($J$4:J19)</f>
-        <v>1505</v>
+        <v>240</v>
       </c>
       <c r="L19">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+        <f>SUM($K$4:K19)</f>
+        <v>2280</v>
+      </c>
+      <c r="M19">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>17</v>
       </c>
@@ -2262,10 +2355,10 @@
       </c>
       <c r="C20" s="5">
         <f>SUM(D$4:D20)</f>
-        <v>6720</v>
+        <v>4910</v>
       </c>
       <c r="D20" s="5">
-        <v>915</v>
+        <v>510</v>
       </c>
       <c r="E20" s="5">
         <v>1</v>
@@ -2273,21 +2366,24 @@
       <c r="F20" s="5">
         <v>100</v>
       </c>
-      <c r="I20" t="s">
-        <v>147</v>
-      </c>
-      <c r="J20">
-        <v>140</v>
+      <c r="G20" s="5">
+        <v>17</v>
+      </c>
+      <c r="J20" t="s">
+        <v>49</v>
       </c>
       <c r="K20">
-        <f>SUM($J$4:J20)</f>
-        <v>1645</v>
+        <v>240</v>
       </c>
       <c r="L20">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+        <f>SUM($K$4:K20)</f>
+        <v>2520</v>
+      </c>
+      <c r="M20">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>18</v>
       </c>
@@ -2296,10 +2392,10 @@
       </c>
       <c r="C21" s="5">
         <f>SUM(D$4:D21)</f>
-        <v>7730</v>
-      </c>
-      <c r="D21" s="5">
-        <v>1010</v>
+        <v>5430</v>
+      </c>
+      <c r="D21" s="12">
+        <v>520</v>
       </c>
       <c r="E21" s="5">
         <v>1</v>
@@ -2307,21 +2403,24 @@
       <c r="F21" s="5">
         <v>100</v>
       </c>
-      <c r="I21" t="s">
-        <v>148</v>
-      </c>
-      <c r="J21">
-        <v>140</v>
+      <c r="G21" s="5">
+        <v>18</v>
+      </c>
+      <c r="J21" t="s">
+        <v>50</v>
       </c>
       <c r="K21">
-        <f>SUM($J$4:J21)</f>
-        <v>1785</v>
+        <v>240</v>
       </c>
       <c r="L21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+        <f>SUM($K$4:K21)</f>
+        <v>2760</v>
+      </c>
+      <c r="M21">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>19</v>
       </c>
@@ -2330,10 +2429,10 @@
       </c>
       <c r="C22" s="5">
         <f>SUM(D$4:D22)</f>
-        <v>8830</v>
-      </c>
-      <c r="D22" s="5">
-        <v>1100</v>
+        <v>6095</v>
+      </c>
+      <c r="D22" s="12">
+        <v>665</v>
       </c>
       <c r="E22" s="5">
         <v>1</v>
@@ -2341,21 +2440,24 @@
       <c r="F22" s="5">
         <v>100</v>
       </c>
-      <c r="I22" t="s">
-        <v>149</v>
-      </c>
-      <c r="J22">
-        <v>200</v>
+      <c r="G22" s="5">
+        <v>19</v>
+      </c>
+      <c r="J22" t="s">
+        <v>51</v>
       </c>
       <c r="K22">
-        <f>SUM($J$4:J22)</f>
-        <v>1985</v>
+        <v>300</v>
       </c>
       <c r="L22">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+        <f>SUM($K$4:K22)</f>
+        <v>3060</v>
+      </c>
+      <c r="M22">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>20</v>
       </c>
@@ -2364,10 +2466,10 @@
       </c>
       <c r="C23" s="5">
         <f>SUM(D$4:D23)</f>
-        <v>9750</v>
+        <v>6695</v>
       </c>
       <c r="D23" s="5">
-        <v>920</v>
+        <v>600</v>
       </c>
       <c r="E23" s="5">
         <v>1</v>
@@ -2375,21 +2477,24 @@
       <c r="F23" s="5">
         <v>100</v>
       </c>
-      <c r="I23" t="s">
-        <v>150</v>
-      </c>
-      <c r="J23">
-        <v>200</v>
+      <c r="G23" s="5">
+        <v>20</v>
+      </c>
+      <c r="J23" t="s">
+        <v>52</v>
       </c>
       <c r="K23">
-        <f>SUM($J$4:J23)</f>
-        <v>2185</v>
+        <v>300</v>
       </c>
       <c r="L23">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+        <f>SUM($K$4:K23)</f>
+        <v>3360</v>
+      </c>
+      <c r="M23">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>21</v>
       </c>
@@ -2398,10 +2503,10 @@
       </c>
       <c r="C24" s="5">
         <f>SUM(D$4:D24)</f>
-        <v>10760</v>
+        <v>7300</v>
       </c>
       <c r="D24" s="5">
-        <v>1010</v>
+        <v>605</v>
       </c>
       <c r="E24" s="5">
         <v>1</v>
@@ -2409,21 +2514,21 @@
       <c r="F24" s="5">
         <v>100</v>
       </c>
-      <c r="I24" t="s">
-        <v>151</v>
-      </c>
-      <c r="J24">
-        <v>200</v>
+      <c r="G24" s="5">
+        <v>21</v>
+      </c>
+      <c r="J24" t="s">
+        <v>53</v>
       </c>
       <c r="K24">
-        <f>SUM($J$4:J24)</f>
-        <v>2385</v>
+        <v>300</v>
       </c>
       <c r="L24">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+        <f>SUM($K$4:K24)</f>
+        <v>3660</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>22</v>
       </c>
@@ -2432,10 +2537,10 @@
       </c>
       <c r="C25" s="5">
         <f>SUM(D$4:D25)</f>
-        <v>11865</v>
+        <v>7995</v>
       </c>
       <c r="D25" s="5">
-        <v>1105</v>
+        <v>695</v>
       </c>
       <c r="E25" s="5">
         <v>1</v>
@@ -2443,21 +2548,21 @@
       <c r="F25" s="5">
         <v>100</v>
       </c>
-      <c r="I25" t="s">
-        <v>152</v>
-      </c>
-      <c r="J25">
-        <v>200</v>
+      <c r="G25" s="5">
+        <v>22</v>
+      </c>
+      <c r="J25" t="s">
+        <v>54</v>
       </c>
       <c r="K25">
-        <f>SUM($J$4:J25)</f>
-        <v>2585</v>
+        <v>300</v>
       </c>
       <c r="L25">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+        <f>SUM($K$4:K25)</f>
+        <v>3960</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>23</v>
       </c>
@@ -2466,10 +2571,10 @@
       </c>
       <c r="C26" s="5">
         <f>SUM(D$4:D26)</f>
-        <v>13060</v>
-      </c>
-      <c r="D26" s="5">
-        <v>1195</v>
+        <v>8755</v>
+      </c>
+      <c r="D26" s="12">
+        <v>760</v>
       </c>
       <c r="E26" s="5">
         <v>1</v>
@@ -2477,21 +2582,21 @@
       <c r="F26" s="5">
         <v>100</v>
       </c>
-      <c r="I26" t="s">
-        <v>153</v>
-      </c>
-      <c r="J26">
-        <v>200</v>
+      <c r="G26" s="5">
+        <v>23</v>
+      </c>
+      <c r="J26" t="s">
+        <v>55</v>
       </c>
       <c r="K26">
-        <f>SUM($J$4:J26)</f>
-        <v>2785</v>
+        <v>300</v>
       </c>
       <c r="L26">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+        <f>SUM($K$4:K26)</f>
+        <v>4260</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>24</v>
       </c>
@@ -2500,10 +2605,10 @@
       </c>
       <c r="C27" s="5">
         <f>SUM(D$4:D27)</f>
-        <v>14350</v>
+        <v>9545</v>
       </c>
       <c r="D27" s="5">
-        <v>1290</v>
+        <v>790</v>
       </c>
       <c r="E27" s="5">
         <v>1</v>
@@ -2511,21 +2616,21 @@
       <c r="F27" s="5">
         <v>100</v>
       </c>
-      <c r="I27" t="s">
-        <v>154</v>
-      </c>
-      <c r="J27">
-        <v>200</v>
+      <c r="G27" s="5">
+        <v>24</v>
+      </c>
+      <c r="J27" t="s">
+        <v>56</v>
       </c>
       <c r="K27">
-        <f>SUM($J$4:J27)</f>
-        <v>2985</v>
+        <v>300</v>
       </c>
       <c r="L27">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+        <f>SUM($K$4:K27)</f>
+        <v>4560</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>25</v>
       </c>
@@ -2534,10 +2639,10 @@
       </c>
       <c r="C28" s="5">
         <f>SUM(D$4:D28)</f>
-        <v>15730</v>
+        <v>10425</v>
       </c>
       <c r="D28" s="5">
-        <v>1380</v>
+        <v>880</v>
       </c>
       <c r="E28" s="5">
         <v>1</v>
@@ -2545,21 +2650,21 @@
       <c r="F28" s="5">
         <v>100</v>
       </c>
-      <c r="I28" t="s">
-        <v>155</v>
-      </c>
-      <c r="J28">
-        <v>200</v>
+      <c r="G28" s="5">
+        <v>25</v>
+      </c>
+      <c r="J28" t="s">
+        <v>57</v>
       </c>
       <c r="K28">
-        <f>SUM($J$4:J28)</f>
-        <v>3185</v>
+        <v>300</v>
       </c>
       <c r="L28">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+        <f>SUM($K$4:K28)</f>
+        <v>4860</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>26</v>
       </c>
@@ -2568,10 +2673,10 @@
       </c>
       <c r="C29" s="5">
         <f>SUM(D$4:D29)</f>
-        <v>17205</v>
+        <v>11400</v>
       </c>
       <c r="D29" s="5">
-        <v>1475</v>
+        <v>975</v>
       </c>
       <c r="E29" s="5">
         <v>1</v>
@@ -2579,21 +2684,21 @@
       <c r="F29" s="5">
         <v>100</v>
       </c>
-      <c r="I29" t="s">
-        <v>156</v>
-      </c>
-      <c r="J29">
-        <v>200</v>
+      <c r="G29" s="5">
+        <v>26</v>
+      </c>
+      <c r="J29" t="s">
+        <v>58</v>
       </c>
       <c r="K29">
-        <f>SUM($J$4:J29)</f>
-        <v>3385</v>
+        <v>300</v>
       </c>
       <c r="L29">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+        <f>SUM($K$4:K29)</f>
+        <v>5160</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>27</v>
       </c>
@@ -2602,10 +2707,10 @@
       </c>
       <c r="C30" s="5">
         <f>SUM(D$4:D30)</f>
-        <v>18770</v>
+        <v>12465</v>
       </c>
       <c r="D30" s="5">
-        <v>1565</v>
+        <v>1065</v>
       </c>
       <c r="E30" s="5">
         <v>1</v>
@@ -2613,21 +2718,21 @@
       <c r="F30" s="5">
         <v>100</v>
       </c>
-      <c r="I30" t="s">
-        <v>157</v>
-      </c>
-      <c r="J30">
-        <v>200</v>
+      <c r="G30" s="5">
+        <v>27</v>
+      </c>
+      <c r="J30" t="s">
+        <v>59</v>
       </c>
       <c r="K30">
-        <f>SUM($J$4:J30)</f>
-        <v>3585</v>
+        <v>300</v>
       </c>
       <c r="L30">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+        <f>SUM($K$4:K30)</f>
+        <v>5460</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <v>28</v>
       </c>
@@ -2636,10 +2741,10 @@
       </c>
       <c r="C31" s="5">
         <f>SUM(D$4:D31)</f>
-        <v>20430</v>
+        <v>13625</v>
       </c>
       <c r="D31" s="5">
-        <v>1660</v>
+        <v>1160</v>
       </c>
       <c r="E31" s="5">
         <v>1</v>
@@ -2647,18 +2752,21 @@
       <c r="F31" s="5">
         <v>100</v>
       </c>
-      <c r="I31" t="s">
-        <v>158</v>
-      </c>
-      <c r="J31">
-        <v>260</v>
+      <c r="G31" s="5">
+        <v>28</v>
+      </c>
+      <c r="J31" t="s">
+        <v>60</v>
       </c>
       <c r="K31">
-        <f>SUM($J$4:J31)</f>
-        <v>3845</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+        <v>460</v>
+      </c>
+      <c r="L31">
+        <f>SUM($K$4:K31)</f>
+        <v>5920</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
         <v>29</v>
       </c>
@@ -2667,7 +2775,7 @@
       </c>
       <c r="C32" s="5">
         <f>SUM(D$4:D32)</f>
-        <v>22270</v>
+        <v>15465</v>
       </c>
       <c r="D32" s="5">
         <v>1840</v>
@@ -2678,18 +2786,21 @@
       <c r="F32" s="5">
         <v>100</v>
       </c>
-      <c r="I32" t="s">
-        <v>159</v>
-      </c>
-      <c r="J32">
-        <v>260</v>
+      <c r="G32" s="5">
+        <v>29</v>
+      </c>
+      <c r="J32" t="s">
+        <v>61</v>
       </c>
       <c r="K32">
-        <f>SUM($J$4:J32)</f>
-        <v>4105</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>460</v>
+      </c>
+      <c r="L32">
+        <f>SUM($K$4:K32)</f>
+        <v>6380</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <v>30</v>
       </c>
@@ -2698,10 +2809,10 @@
       </c>
       <c r="C33" s="5">
         <f>SUM(D$4:D33)</f>
-        <v>24425</v>
+        <v>17340</v>
       </c>
       <c r="D33" s="5">
-        <v>2155</v>
+        <v>1875</v>
       </c>
       <c r="E33" s="5">
         <v>1</v>
@@ -2709,18 +2820,21 @@
       <c r="F33" s="5">
         <v>100</v>
       </c>
-      <c r="I33" t="s">
-        <v>160</v>
-      </c>
-      <c r="J33">
-        <v>260</v>
+      <c r="G33" s="5">
+        <v>30</v>
+      </c>
+      <c r="J33" t="s">
+        <v>62</v>
       </c>
       <c r="K33">
-        <f>SUM($J$4:J33)</f>
-        <v>4365</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>460</v>
+      </c>
+      <c r="L33">
+        <f>SUM($K$4:K33)</f>
+        <v>6840</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
         <v>31</v>
       </c>
@@ -2729,10 +2843,10 @@
       </c>
       <c r="C34" s="5">
         <f>SUM(D$4:D34)</f>
-        <v>27015</v>
+        <v>19590</v>
       </c>
       <c r="D34" s="5">
-        <v>2590</v>
+        <v>2250</v>
       </c>
       <c r="E34" s="5">
         <v>1</v>
@@ -2740,18 +2854,21 @@
       <c r="F34" s="5">
         <v>100</v>
       </c>
-      <c r="I34" t="s">
-        <v>161</v>
-      </c>
-      <c r="J34">
-        <v>260</v>
+      <c r="G34" s="5">
+        <v>31</v>
+      </c>
+      <c r="J34" t="s">
+        <v>63</v>
       </c>
       <c r="K34">
-        <f>SUM($J$4:J34)</f>
-        <v>4625</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>460</v>
+      </c>
+      <c r="L34">
+        <f>SUM($K$4:K34)</f>
+        <v>7300</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
         <v>32</v>
       </c>
@@ -2760,10 +2877,10 @@
       </c>
       <c r="C35" s="5">
         <f>SUM(D$4:D35)</f>
-        <v>30035</v>
+        <v>22215</v>
       </c>
       <c r="D35" s="5">
-        <v>3020</v>
+        <v>2625</v>
       </c>
       <c r="E35" s="5">
         <v>1</v>
@@ -2771,18 +2888,21 @@
       <c r="F35" s="5">
         <v>100</v>
       </c>
-      <c r="I35" t="s">
-        <v>162</v>
-      </c>
-      <c r="J35">
-        <v>260</v>
+      <c r="G35" s="5">
+        <v>32</v>
+      </c>
+      <c r="J35" t="s">
+        <v>64</v>
       </c>
       <c r="K35">
-        <f>SUM($J$4:J35)</f>
-        <v>4885</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>460</v>
+      </c>
+      <c r="L35">
+        <f>SUM($K$4:K35)</f>
+        <v>7760</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
         <v>33</v>
       </c>
@@ -2791,10 +2911,10 @@
       </c>
       <c r="C36" s="5">
         <f>SUM(D$4:D36)</f>
-        <v>33485</v>
+        <v>25215</v>
       </c>
       <c r="D36" s="5">
-        <v>3450</v>
+        <v>3000</v>
       </c>
       <c r="E36" s="5">
         <v>1</v>
@@ -2802,18 +2922,21 @@
       <c r="F36" s="5">
         <v>100</v>
       </c>
-      <c r="I36" t="s">
-        <v>163</v>
-      </c>
-      <c r="J36">
-        <v>260</v>
+      <c r="G36" s="5">
+        <v>33</v>
+      </c>
+      <c r="J36" t="s">
+        <v>65</v>
       </c>
       <c r="K36">
-        <f>SUM($J$4:J36)</f>
-        <v>5145</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>460</v>
+      </c>
+      <c r="L36">
+        <f>SUM($K$4:K36)</f>
+        <v>8220</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
         <v>34</v>
       </c>
@@ -2822,10 +2945,10 @@
       </c>
       <c r="C37" s="5">
         <f>SUM(D$4:D37)</f>
-        <v>37370</v>
+        <v>28590</v>
       </c>
       <c r="D37" s="5">
-        <v>3885</v>
+        <v>3375</v>
       </c>
       <c r="E37" s="5">
         <v>1</v>
@@ -2833,18 +2956,21 @@
       <c r="F37" s="5">
         <v>100</v>
       </c>
-      <c r="I37" t="s">
-        <v>164</v>
-      </c>
-      <c r="J37">
-        <v>260</v>
+      <c r="G37" s="5">
+        <v>34</v>
+      </c>
+      <c r="J37" t="s">
+        <v>66</v>
       </c>
       <c r="K37">
-        <f>SUM($J$4:J37)</f>
-        <v>5405</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>460</v>
+      </c>
+      <c r="L37">
+        <f>SUM($K$4:K37)</f>
+        <v>8680</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
         <v>35</v>
       </c>
@@ -2853,10 +2979,10 @@
       </c>
       <c r="C38" s="5">
         <f>SUM(D$4:D38)</f>
-        <v>41685</v>
+        <v>32340</v>
       </c>
       <c r="D38" s="5">
-        <v>4315</v>
+        <v>3750</v>
       </c>
       <c r="E38" s="5">
         <v>1</v>
@@ -2864,18 +2990,21 @@
       <c r="F38" s="5">
         <v>100</v>
       </c>
-      <c r="I38" t="s">
-        <v>165</v>
-      </c>
-      <c r="J38">
-        <v>260</v>
+      <c r="G38" s="5">
+        <v>35</v>
+      </c>
+      <c r="J38" t="s">
+        <v>67</v>
       </c>
       <c r="K38">
-        <f>SUM($J$4:J38)</f>
-        <v>5665</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>460</v>
+      </c>
+      <c r="L38">
+        <f>SUM($K$4:K38)</f>
+        <v>9140</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
         <v>36</v>
       </c>
@@ -2884,10 +3013,10 @@
       </c>
       <c r="C39" s="5">
         <f>SUM(D$4:D39)</f>
-        <v>46430</v>
+        <v>36465</v>
       </c>
       <c r="D39" s="5">
-        <v>4745</v>
+        <v>4125</v>
       </c>
       <c r="E39" s="5">
         <v>1</v>
@@ -2895,18 +3024,21 @@
       <c r="F39" s="5">
         <v>100</v>
       </c>
-      <c r="I39" t="s">
-        <v>166</v>
-      </c>
-      <c r="J39">
-        <v>260</v>
+      <c r="G39" s="5">
+        <v>36</v>
+      </c>
+      <c r="J39" t="s">
+        <v>68</v>
       </c>
       <c r="K39">
-        <f>SUM($J$4:J39)</f>
-        <v>5925</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>460</v>
+      </c>
+      <c r="L39">
+        <f>SUM($K$4:K39)</f>
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
         <v>37</v>
       </c>
@@ -2915,10 +3047,10 @@
       </c>
       <c r="C40" s="5">
         <f>SUM(D$4:D40)</f>
-        <v>51610</v>
+        <v>40970</v>
       </c>
       <c r="D40" s="5">
-        <v>5180</v>
+        <v>4505</v>
       </c>
       <c r="E40" s="5">
         <v>1</v>
@@ -2926,18 +3058,21 @@
       <c r="F40" s="5">
         <v>100</v>
       </c>
-      <c r="I40" t="s">
-        <v>167</v>
-      </c>
-      <c r="J40">
-        <v>320</v>
+      <c r="G40" s="5">
+        <v>37</v>
+      </c>
+      <c r="J40" t="s">
+        <v>69</v>
       </c>
       <c r="K40">
-        <f>SUM($J$4:J40)</f>
-        <v>6245</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>460</v>
+      </c>
+      <c r="L40">
+        <f>SUM($K$4:K40)</f>
+        <v>10060</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
         <v>38</v>
       </c>
@@ -2946,10 +3081,10 @@
       </c>
       <c r="C41" s="5">
         <f>SUM(D$4:D41)</f>
-        <v>57220</v>
+        <v>45850</v>
       </c>
       <c r="D41" s="5">
-        <v>5610</v>
+        <v>4880</v>
       </c>
       <c r="E41" s="5">
         <v>1</v>
@@ -2957,18 +3092,21 @@
       <c r="F41" s="5">
         <v>100</v>
       </c>
-      <c r="I41" t="s">
-        <v>168</v>
-      </c>
-      <c r="J41">
-        <v>320</v>
+      <c r="G41" s="5">
+        <v>38</v>
+      </c>
+      <c r="J41" t="s">
+        <v>70</v>
       </c>
       <c r="K41">
-        <f>SUM($J$4:J41)</f>
-        <v>6565</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>460</v>
+      </c>
+      <c r="L41">
+        <f>SUM($K$4:K41)</f>
+        <v>10520</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
         <v>39</v>
       </c>
@@ -2977,10 +3115,10 @@
       </c>
       <c r="C42" s="5">
         <f>SUM(D$4:D42)</f>
-        <v>63695</v>
+        <v>51480</v>
       </c>
       <c r="D42" s="5">
-        <v>6475</v>
+        <v>5630</v>
       </c>
       <c r="E42" s="5">
         <v>1</v>
@@ -2988,18 +3126,21 @@
       <c r="F42" s="5">
         <v>100</v>
       </c>
-      <c r="I42" t="s">
-        <v>169</v>
-      </c>
-      <c r="J42">
-        <v>320</v>
+      <c r="G42" s="5">
+        <v>39</v>
+      </c>
+      <c r="J42" t="s">
+        <v>71</v>
       </c>
       <c r="K42">
-        <f>SUM($J$4:J42)</f>
-        <v>6885</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>460</v>
+      </c>
+      <c r="L42">
+        <f>SUM($K$4:K42)</f>
+        <v>10980</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A43" s="5">
         <v>40</v>
       </c>
@@ -3008,10 +3149,10 @@
       </c>
       <c r="C43" s="5">
         <f>SUM(D$4:D43)</f>
-        <v>70025</v>
+        <v>54110</v>
       </c>
       <c r="D43" s="5">
-        <v>6330</v>
+        <v>2630</v>
       </c>
       <c r="E43" s="5">
         <v>2</v>
@@ -3019,18 +3160,21 @@
       <c r="F43" s="5">
         <v>100</v>
       </c>
-      <c r="I43" t="s">
-        <v>170</v>
-      </c>
-      <c r="J43">
-        <v>320</v>
+      <c r="G43" s="5">
+        <v>40</v>
+      </c>
+      <c r="J43" t="s">
+        <v>72</v>
       </c>
       <c r="K43">
-        <f>SUM($J$4:J43)</f>
-        <v>7205</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>460</v>
+      </c>
+      <c r="L43">
+        <f>SUM($K$4:K43)</f>
+        <v>11440</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A44" s="5">
         <v>41</v>
       </c>
@@ -3039,10 +3183,10 @@
       </c>
       <c r="C44" s="5">
         <f>SUM(D$4:D44)</f>
-        <v>76990</v>
+        <v>57000</v>
       </c>
       <c r="D44" s="5">
-        <v>6965</v>
+        <v>2890</v>
       </c>
       <c r="E44" s="5">
         <v>2</v>
@@ -3050,18 +3194,21 @@
       <c r="F44" s="5">
         <v>100</v>
       </c>
-      <c r="I44" t="s">
-        <v>171</v>
-      </c>
-      <c r="J44">
-        <v>320</v>
+      <c r="G44" s="5">
+        <v>41</v>
+      </c>
+      <c r="J44" t="s">
+        <v>73</v>
       </c>
       <c r="K44">
-        <f>SUM($J$4:J44)</f>
-        <v>7525</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>460</v>
+      </c>
+      <c r="L44">
+        <f>SUM($K$4:K44)</f>
+        <v>11900</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A45" s="5">
         <v>42</v>
       </c>
@@ -3070,10 +3217,10 @@
       </c>
       <c r="C45" s="5">
         <f>SUM(D$4:D45)</f>
-        <v>84590</v>
+        <v>60155</v>
       </c>
       <c r="D45" s="5">
-        <v>7600</v>
+        <v>3155</v>
       </c>
       <c r="E45" s="5">
         <v>2</v>
@@ -3081,18 +3228,21 @@
       <c r="F45" s="5">
         <v>100</v>
       </c>
-      <c r="I45" t="s">
-        <v>172</v>
-      </c>
-      <c r="J45">
-        <v>320</v>
+      <c r="G45" s="5">
+        <v>42</v>
+      </c>
+      <c r="J45" t="s">
+        <v>74</v>
       </c>
       <c r="K45">
-        <f>SUM($J$4:J45)</f>
-        <v>7845</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>460</v>
+      </c>
+      <c r="L45">
+        <f>SUM($K$4:K45)</f>
+        <v>12360</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A46" s="5">
         <v>43</v>
       </c>
@@ -3101,10 +3251,10 @@
       </c>
       <c r="C46" s="5">
         <f>SUM(D$4:D46)</f>
-        <v>92820</v>
+        <v>63570</v>
       </c>
       <c r="D46" s="5">
-        <v>8230</v>
+        <v>3415</v>
       </c>
       <c r="E46" s="5">
         <v>2</v>
@@ -3112,18 +3262,21 @@
       <c r="F46" s="5">
         <v>100</v>
       </c>
-      <c r="I46" t="s">
-        <v>173</v>
-      </c>
-      <c r="J46">
-        <v>320</v>
+      <c r="G46" s="5">
+        <v>43</v>
+      </c>
+      <c r="J46" t="s">
+        <v>75</v>
       </c>
       <c r="K46">
-        <f>SUM($J$4:J46)</f>
-        <v>8165</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>460</v>
+      </c>
+      <c r="L46">
+        <f>SUM($K$4:K46)</f>
+        <v>12820</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A47" s="5">
         <v>44</v>
       </c>
@@ -3132,10 +3285,10 @@
       </c>
       <c r="C47" s="5">
         <f>SUM(D$4:D47)</f>
-        <v>101685</v>
+        <v>67250</v>
       </c>
       <c r="D47" s="5">
-        <v>8865</v>
+        <v>3680</v>
       </c>
       <c r="E47" s="5">
         <v>2</v>
@@ -3143,18 +3296,21 @@
       <c r="F47" s="5">
         <v>100</v>
       </c>
-      <c r="I47" t="s">
-        <v>174</v>
-      </c>
-      <c r="J47">
-        <v>320</v>
+      <c r="G47" s="5">
+        <v>44</v>
+      </c>
+      <c r="J47" t="s">
+        <v>76</v>
       </c>
       <c r="K47">
-        <f>SUM($J$4:J47)</f>
-        <v>8485</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>460</v>
+      </c>
+      <c r="L47">
+        <f>SUM($K$4:K47)</f>
+        <v>13280</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A48" s="5">
         <v>45</v>
       </c>
@@ -3163,10 +3319,10 @@
       </c>
       <c r="C48" s="5">
         <f>SUM(D$4:D48)</f>
-        <v>111185</v>
+        <v>71195</v>
       </c>
       <c r="D48" s="5">
-        <v>9500</v>
+        <v>3945</v>
       </c>
       <c r="E48" s="5">
         <v>2</v>
@@ -3174,18 +3330,21 @@
       <c r="F48" s="5">
         <v>100</v>
       </c>
-      <c r="I48" t="s">
-        <v>175</v>
-      </c>
-      <c r="J48">
-        <v>320</v>
+      <c r="G48" s="5">
+        <v>45</v>
+      </c>
+      <c r="J48" t="s">
+        <v>77</v>
       </c>
       <c r="K48">
-        <f>SUM($J$4:J48)</f>
-        <v>8805</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>460</v>
+      </c>
+      <c r="L48">
+        <f>SUM($K$4:K48)</f>
+        <v>13740</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A49" s="5">
         <v>46</v>
       </c>
@@ -3194,10 +3353,10 @@
       </c>
       <c r="C49" s="5">
         <f>SUM(D$4:D49)</f>
-        <v>121315</v>
+        <v>75400</v>
       </c>
       <c r="D49" s="5">
-        <v>10130</v>
+        <v>4205</v>
       </c>
       <c r="E49" s="5">
         <v>2</v>
@@ -3205,18 +3364,21 @@
       <c r="F49" s="5">
         <v>100</v>
       </c>
-      <c r="I49" t="s">
-        <v>176</v>
-      </c>
-      <c r="J49">
-        <v>320</v>
+      <c r="G49" s="5">
+        <v>46</v>
+      </c>
+      <c r="J49" t="s">
+        <v>78</v>
       </c>
       <c r="K49">
-        <f>SUM($J$4:J49)</f>
-        <v>9125</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>460</v>
+      </c>
+      <c r="L49">
+        <f>SUM($K$4:K49)</f>
+        <v>14200</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A50" s="5">
         <v>47</v>
       </c>
@@ -3225,10 +3387,10 @@
       </c>
       <c r="C50" s="5">
         <f>SUM(D$4:D50)</f>
-        <v>132080</v>
+        <v>79870</v>
       </c>
       <c r="D50" s="5">
-        <v>10765</v>
+        <v>4470</v>
       </c>
       <c r="E50" s="5">
         <v>2</v>
@@ -3236,18 +3398,21 @@
       <c r="F50" s="5">
         <v>100</v>
       </c>
-      <c r="I50" t="s">
-        <v>177</v>
-      </c>
-      <c r="J50">
-        <v>320</v>
+      <c r="G50" s="5">
+        <v>47</v>
+      </c>
+      <c r="J50" t="s">
+        <v>79</v>
       </c>
       <c r="K50">
-        <f>SUM($J$4:J50)</f>
-        <v>9445</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>460</v>
+      </c>
+      <c r="L50">
+        <f>SUM($K$4:K50)</f>
+        <v>14660</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A51" s="5">
         <v>48</v>
       </c>
@@ -3256,10 +3421,10 @@
       </c>
       <c r="C51" s="5">
         <f>SUM(D$4:D51)</f>
-        <v>143480</v>
+        <v>84600</v>
       </c>
       <c r="D51" s="5">
-        <v>11400</v>
+        <v>4730</v>
       </c>
       <c r="E51" s="5">
         <v>2</v>
@@ -3267,18 +3432,21 @@
       <c r="F51" s="5">
         <v>100</v>
       </c>
-      <c r="I51" t="s">
-        <v>178</v>
-      </c>
-      <c r="J51">
-        <v>320</v>
+      <c r="G51" s="5">
+        <v>48</v>
+      </c>
+      <c r="J51" t="s">
+        <v>80</v>
       </c>
       <c r="K51">
-        <f>SUM($J$4:J51)</f>
-        <v>9765</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>460</v>
+      </c>
+      <c r="L51">
+        <f>SUM($K$4:K51)</f>
+        <v>15120</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A52" s="5">
         <v>49</v>
       </c>
@@ -3287,10 +3455,10 @@
       </c>
       <c r="C52" s="5">
         <f>SUM(D$4:D52)</f>
-        <v>156145</v>
+        <v>89860</v>
       </c>
       <c r="D52" s="5">
-        <v>12665</v>
+        <v>5260</v>
       </c>
       <c r="E52" s="5">
         <v>2</v>
@@ -3298,18 +3466,21 @@
       <c r="F52" s="5">
         <v>100</v>
       </c>
-      <c r="I52" t="s">
-        <v>179</v>
-      </c>
-      <c r="J52">
-        <v>320</v>
+      <c r="G52" s="5">
+        <v>49</v>
+      </c>
+      <c r="J52" t="s">
+        <v>81</v>
       </c>
       <c r="K52">
-        <f>SUM($J$4:J52)</f>
-        <v>10085</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>460</v>
+      </c>
+      <c r="L52">
+        <f>SUM($K$4:K52)</f>
+        <v>15580</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A53" s="5">
         <v>50</v>
       </c>
@@ -3318,10 +3489,10 @@
       </c>
       <c r="C53" s="5">
         <f>SUM(D$4:D53)</f>
-        <v>165305</v>
+        <v>93150</v>
       </c>
       <c r="D53" s="5">
-        <v>9160</v>
+        <v>3290</v>
       </c>
       <c r="E53" s="5">
         <v>2</v>
@@ -3329,18 +3500,21 @@
       <c r="F53" s="5">
         <v>100</v>
       </c>
-      <c r="I53" t="s">
-        <v>180</v>
-      </c>
-      <c r="J53">
-        <v>320</v>
+      <c r="G53" s="5">
+        <v>50</v>
+      </c>
+      <c r="J53" t="s">
+        <v>82</v>
       </c>
       <c r="K53">
-        <f>SUM($J$4:J53)</f>
-        <v>10405</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>460</v>
+      </c>
+      <c r="L53">
+        <f>SUM($K$4:K53)</f>
+        <v>16040</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A54" s="5">
         <v>51</v>
       </c>
@@ -3349,10 +3523,10 @@
       </c>
       <c r="C54" s="5">
         <f>SUM(D$4:D54)</f>
-        <v>175380</v>
+        <v>96770</v>
       </c>
       <c r="D54" s="5">
-        <v>10075</v>
+        <v>3620</v>
       </c>
       <c r="E54" s="5">
         <v>2</v>
@@ -3360,18 +3534,21 @@
       <c r="F54" s="5">
         <v>100</v>
       </c>
-      <c r="I54" t="s">
-        <v>181</v>
-      </c>
-      <c r="J54">
-        <v>320</v>
+      <c r="G54" s="5">
+        <v>51</v>
+      </c>
+      <c r="J54" t="s">
+        <v>83</v>
       </c>
       <c r="K54">
-        <f>SUM($J$4:J54)</f>
-        <v>10725</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>460</v>
+      </c>
+      <c r="L54">
+        <f>SUM($K$4:K54)</f>
+        <v>16500</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A55" s="5">
         <v>52</v>
       </c>
@@ -3380,10 +3557,10 @@
       </c>
       <c r="C55" s="5">
         <f>SUM(D$4:D55)</f>
-        <v>186370</v>
+        <v>100720</v>
       </c>
       <c r="D55" s="5">
-        <v>10990</v>
+        <v>3950</v>
       </c>
       <c r="E55" s="5">
         <v>2</v>
@@ -3391,18 +3568,21 @@
       <c r="F55" s="5">
         <v>100</v>
       </c>
-      <c r="I55" t="s">
-        <v>182</v>
-      </c>
-      <c r="J55">
-        <v>400</v>
+      <c r="G55" s="5">
+        <v>52</v>
+      </c>
+      <c r="J55" t="s">
+        <v>84</v>
       </c>
       <c r="K55">
-        <f>SUM($J$4:J55)</f>
-        <v>11125</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>460</v>
+      </c>
+      <c r="L55">
+        <f>SUM($K$4:K55)</f>
+        <v>16960</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A56" s="5">
         <v>53</v>
       </c>
@@ -3411,10 +3591,10 @@
       </c>
       <c r="C56" s="5">
         <f>SUM(D$4:D56)</f>
-        <v>198275</v>
+        <v>105000</v>
       </c>
       <c r="D56" s="5">
-        <v>11905</v>
+        <v>4280</v>
       </c>
       <c r="E56" s="5">
         <v>2</v>
@@ -3422,18 +3602,21 @@
       <c r="F56" s="5">
         <v>100</v>
       </c>
-      <c r="I56" t="s">
-        <v>183</v>
-      </c>
-      <c r="J56">
-        <v>400</v>
+      <c r="G56" s="5">
+        <v>53</v>
+      </c>
+      <c r="J56" t="s">
+        <v>85</v>
       </c>
       <c r="K56">
-        <f>SUM($J$4:J56)</f>
-        <v>11525</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>460</v>
+      </c>
+      <c r="L56">
+        <f>SUM($K$4:K56)</f>
+        <v>17420</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A57" s="5">
         <v>54</v>
       </c>
@@ -3442,10 +3625,10 @@
       </c>
       <c r="C57" s="5">
         <f>SUM(D$4:D57)</f>
-        <v>211100</v>
+        <v>109605</v>
       </c>
       <c r="D57" s="5">
-        <v>12825</v>
+        <v>4605</v>
       </c>
       <c r="E57" s="5">
         <v>2</v>
@@ -3453,18 +3636,21 @@
       <c r="F57" s="5">
         <v>100</v>
       </c>
-      <c r="I57" t="s">
-        <v>184</v>
-      </c>
-      <c r="J57">
-        <v>400</v>
+      <c r="G57" s="5">
+        <v>54</v>
+      </c>
+      <c r="J57" t="s">
+        <v>86</v>
       </c>
       <c r="K57">
-        <f>SUM($J$4:J57)</f>
-        <v>11925</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>460</v>
+      </c>
+      <c r="L57">
+        <f>SUM($K$4:K57)</f>
+        <v>17880</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A58" s="5">
         <v>55</v>
       </c>
@@ -3473,10 +3659,10 @@
       </c>
       <c r="C58" s="5">
         <f>SUM(D$4:D58)</f>
-        <v>224840</v>
+        <v>114540</v>
       </c>
       <c r="D58" s="5">
-        <v>13740</v>
+        <v>4935</v>
       </c>
       <c r="E58" s="5">
         <v>2</v>
@@ -3484,18 +3670,21 @@
       <c r="F58" s="5">
         <v>100</v>
       </c>
-      <c r="I58" t="s">
-        <v>185</v>
-      </c>
-      <c r="J58">
-        <v>400</v>
+      <c r="G58" s="5">
+        <v>55</v>
+      </c>
+      <c r="J58" t="s">
+        <v>87</v>
       </c>
       <c r="K58">
-        <f>SUM($J$4:J58)</f>
-        <v>12325</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>460</v>
+      </c>
+      <c r="L58">
+        <f>SUM($K$4:K58)</f>
+        <v>18340</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A59" s="5">
         <v>56</v>
       </c>
@@ -3504,10 +3693,10 @@
       </c>
       <c r="C59" s="5">
         <f>SUM(D$4:D59)</f>
-        <v>239495</v>
+        <v>119805</v>
       </c>
       <c r="D59" s="5">
-        <v>14655</v>
+        <v>5265</v>
       </c>
       <c r="E59" s="5">
         <v>2</v>
@@ -3515,18 +3704,21 @@
       <c r="F59" s="5">
         <v>100</v>
       </c>
-      <c r="I59" t="s">
-        <v>186</v>
-      </c>
-      <c r="J59">
-        <v>400</v>
+      <c r="G59" s="5">
+        <v>56</v>
+      </c>
+      <c r="J59" t="s">
+        <v>88</v>
       </c>
       <c r="K59">
-        <f>SUM($J$4:J59)</f>
-        <v>12725</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>460</v>
+      </c>
+      <c r="L59">
+        <f>SUM($K$4:K59)</f>
+        <v>18800</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A60" s="5">
         <v>57</v>
       </c>
@@ -3535,10 +3727,10 @@
       </c>
       <c r="C60" s="5">
         <f>SUM(D$4:D60)</f>
-        <v>255065</v>
+        <v>125400</v>
       </c>
       <c r="D60" s="5">
-        <v>15570</v>
+        <v>5595</v>
       </c>
       <c r="E60" s="5">
         <v>2</v>
@@ -3546,18 +3738,21 @@
       <c r="F60" s="5">
         <v>100</v>
       </c>
-      <c r="I60" t="s">
-        <v>187</v>
-      </c>
-      <c r="J60">
-        <v>400</v>
+      <c r="G60" s="5">
+        <v>57</v>
+      </c>
+      <c r="J60" t="s">
+        <v>89</v>
       </c>
       <c r="K60">
-        <f>SUM($J$4:J60)</f>
-        <v>13125</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>460</v>
+      </c>
+      <c r="L60">
+        <f>SUM($K$4:K60)</f>
+        <v>19260</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A61" s="5">
         <v>58</v>
       </c>
@@ -3566,10 +3761,10 @@
       </c>
       <c r="C61" s="5">
         <f>SUM(D$4:D61)</f>
-        <v>271550</v>
+        <v>131325</v>
       </c>
       <c r="D61" s="5">
-        <v>16485</v>
+        <v>5925</v>
       </c>
       <c r="E61" s="5">
         <v>2</v>
@@ -3577,18 +3772,21 @@
       <c r="F61" s="5">
         <v>100</v>
       </c>
-      <c r="I61" t="s">
-        <v>188</v>
-      </c>
-      <c r="J61">
-        <v>400</v>
+      <c r="G61" s="5">
+        <v>58</v>
+      </c>
+      <c r="J61" t="s">
+        <v>90</v>
       </c>
       <c r="K61">
-        <f>SUM($J$4:J61)</f>
-        <v>13525</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>460</v>
+      </c>
+      <c r="L61">
+        <f>SUM($K$4:K61)</f>
+        <v>19720</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A62" s="5">
         <v>59</v>
       </c>
@@ -3597,10 +3795,10 @@
       </c>
       <c r="C62" s="5">
         <f>SUM(D$4:D62)</f>
-        <v>289870</v>
+        <v>137905</v>
       </c>
       <c r="D62" s="5">
-        <v>18320</v>
+        <v>6580</v>
       </c>
       <c r="E62" s="5">
         <v>2</v>
@@ -3608,18 +3806,21 @@
       <c r="F62" s="5">
         <v>100</v>
       </c>
-      <c r="I62" t="s">
-        <v>189</v>
-      </c>
-      <c r="J62">
-        <v>400</v>
+      <c r="G62" s="5">
+        <v>59</v>
+      </c>
+      <c r="J62" t="s">
+        <v>91</v>
       </c>
       <c r="K62">
-        <f>SUM($J$4:J62)</f>
-        <v>13925</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>460</v>
+      </c>
+      <c r="L62">
+        <f>SUM($K$4:K62)</f>
+        <v>20180</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A63" s="5">
         <v>60</v>
       </c>
@@ -3628,10 +3829,10 @@
       </c>
       <c r="C63" s="5">
         <f>SUM(D$4:D63)</f>
-        <v>304870</v>
+        <v>142770</v>
       </c>
       <c r="D63" s="5">
-        <v>15000</v>
+        <v>4865</v>
       </c>
       <c r="E63" s="5">
         <v>2</v>
@@ -3639,18 +3840,21 @@
       <c r="F63" s="5">
         <v>100</v>
       </c>
-      <c r="I63" t="s">
-        <v>190</v>
-      </c>
-      <c r="J63">
-        <v>400</v>
+      <c r="G63" s="5">
+        <v>60</v>
+      </c>
+      <c r="J63" t="s">
+        <v>92</v>
       </c>
       <c r="K63">
-        <f>SUM($J$4:J63)</f>
-        <v>14325</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>460</v>
+      </c>
+      <c r="L63">
+        <f>SUM($K$4:K63)</f>
+        <v>20640</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A64" s="5">
         <v>61</v>
       </c>
@@ -3659,10 +3863,10 @@
       </c>
       <c r="C64" s="5">
         <f>SUM(D$4:D64)</f>
-        <v>321370</v>
+        <v>148125</v>
       </c>
       <c r="D64" s="5">
-        <v>16500</v>
+        <v>5355</v>
       </c>
       <c r="E64" s="5">
         <v>2</v>
@@ -3670,18 +3874,21 @@
       <c r="F64" s="5">
         <v>100</v>
       </c>
-      <c r="I64" t="s">
-        <v>191</v>
-      </c>
-      <c r="J64">
-        <v>400</v>
+      <c r="G64" s="5">
+        <v>61</v>
+      </c>
+      <c r="J64" t="s">
+        <v>93</v>
       </c>
       <c r="K64">
-        <f>SUM($J$4:J64)</f>
-        <v>14725</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>460</v>
+      </c>
+      <c r="L64">
+        <f>SUM($K$4:K64)</f>
+        <v>21100</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A65" s="5">
         <v>62</v>
       </c>
@@ -3690,10 +3897,10 @@
       </c>
       <c r="C65" s="5">
         <f>SUM(D$4:D65)</f>
-        <v>339370</v>
+        <v>153965</v>
       </c>
       <c r="D65" s="5">
-        <v>18000</v>
+        <v>5840</v>
       </c>
       <c r="E65" s="5">
         <v>2</v>
@@ -3701,18 +3908,21 @@
       <c r="F65" s="5">
         <v>100</v>
       </c>
-      <c r="I65" t="s">
-        <v>192</v>
-      </c>
-      <c r="J65">
-        <v>400</v>
+      <c r="G65" s="5">
+        <v>62</v>
+      </c>
+      <c r="J65" t="s">
+        <v>94</v>
       </c>
       <c r="K65">
-        <f>SUM($J$4:J65)</f>
-        <v>15125</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>460</v>
+      </c>
+      <c r="L65">
+        <f>SUM($K$4:K65)</f>
+        <v>21560</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A66" s="5">
         <v>63</v>
       </c>
@@ -3721,10 +3931,10 @@
       </c>
       <c r="C66" s="5">
         <f>SUM(D$4:D66)</f>
-        <v>358870</v>
+        <v>160295</v>
       </c>
       <c r="D66" s="5">
-        <v>19500</v>
+        <v>6330</v>
       </c>
       <c r="E66" s="5">
         <v>2</v>
@@ -3732,18 +3942,21 @@
       <c r="F66" s="5">
         <v>100</v>
       </c>
-      <c r="I66" t="s">
-        <v>193</v>
-      </c>
-      <c r="J66">
-        <v>400</v>
+      <c r="G66" s="5">
+        <v>63</v>
+      </c>
+      <c r="J66" t="s">
+        <v>95</v>
       </c>
       <c r="K66">
-        <f>SUM($J$4:J66)</f>
-        <v>15525</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>460</v>
+      </c>
+      <c r="L66">
+        <f>SUM($K$4:K66)</f>
+        <v>22020</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A67" s="5">
         <v>64</v>
       </c>
@@ -3752,10 +3965,10 @@
       </c>
       <c r="C67" s="5">
         <f>SUM(D$4:D67)</f>
-        <v>379870</v>
+        <v>167110</v>
       </c>
       <c r="D67" s="5">
-        <v>21000</v>
+        <v>6815</v>
       </c>
       <c r="E67" s="5">
         <v>2</v>
@@ -3763,18 +3976,21 @@
       <c r="F67" s="5">
         <v>100</v>
       </c>
-      <c r="I67" t="s">
-        <v>194</v>
-      </c>
-      <c r="J67">
-        <v>400</v>
+      <c r="G67" s="5">
+        <v>64</v>
+      </c>
+      <c r="J67" t="s">
+        <v>96</v>
       </c>
       <c r="K67">
-        <f>SUM($J$4:J67)</f>
-        <v>15925</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>460</v>
+      </c>
+      <c r="L67">
+        <f>SUM($K$4:K67)</f>
+        <v>22480</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A68" s="5">
         <v>65</v>
       </c>
@@ -3783,10 +3999,10 @@
       </c>
       <c r="C68" s="5">
         <f>SUM(D$4:D68)</f>
-        <v>402370</v>
+        <v>174410</v>
       </c>
       <c r="D68" s="5">
-        <v>22500</v>
+        <v>7300</v>
       </c>
       <c r="E68" s="5">
         <v>2</v>
@@ -3794,18 +4010,21 @@
       <c r="F68" s="5">
         <v>100</v>
       </c>
-      <c r="I68" t="s">
-        <v>195</v>
-      </c>
-      <c r="J68">
-        <v>400</v>
+      <c r="G68" s="5">
+        <v>65</v>
+      </c>
+      <c r="J68" t="s">
+        <v>97</v>
       </c>
       <c r="K68">
-        <f>SUM($J$4:J68)</f>
-        <v>16325</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>460</v>
+      </c>
+      <c r="L68">
+        <f>SUM($K$4:K68)</f>
+        <v>22940</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A69" s="5">
         <v>66</v>
       </c>
@@ -3814,10 +4033,10 @@
       </c>
       <c r="C69" s="5">
         <f>SUM(D$4:D69)</f>
-        <v>426370</v>
+        <v>182200</v>
       </c>
       <c r="D69" s="5">
-        <v>24000</v>
+        <v>7790</v>
       </c>
       <c r="E69" s="5">
         <v>2</v>
@@ -3825,18 +4044,21 @@
       <c r="F69" s="5">
         <v>100</v>
       </c>
-      <c r="I69" t="s">
-        <v>196</v>
-      </c>
-      <c r="J69">
-        <v>400</v>
+      <c r="G69" s="5">
+        <v>66</v>
+      </c>
+      <c r="J69" t="s">
+        <v>98</v>
       </c>
       <c r="K69">
-        <f>SUM($J$4:J69)</f>
-        <v>16725</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>460</v>
+      </c>
+      <c r="L69">
+        <f>SUM($K$4:K69)</f>
+        <v>23400</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A70" s="5">
         <v>67</v>
       </c>
@@ -3845,10 +4067,10 @@
       </c>
       <c r="C70" s="5">
         <f>SUM(D$4:D70)</f>
-        <v>451870</v>
+        <v>190475</v>
       </c>
       <c r="D70" s="5">
-        <v>25500</v>
+        <v>8275</v>
       </c>
       <c r="E70" s="5">
         <v>2</v>
@@ -3856,18 +4078,21 @@
       <c r="F70" s="5">
         <v>100</v>
       </c>
-      <c r="I70" t="s">
-        <v>197</v>
-      </c>
-      <c r="J70">
+      <c r="G70" s="5">
+        <v>67</v>
+      </c>
+      <c r="J70" t="s">
+        <v>99</v>
+      </c>
+      <c r="K70">
         <v>500</v>
       </c>
-      <c r="K70">
-        <f>SUM($J$4:J70)</f>
-        <v>17225</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L70">
+        <f>SUM($K$4:K70)</f>
+        <v>23900</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A71" s="5">
         <v>68</v>
       </c>
@@ -3876,10 +4101,10 @@
       </c>
       <c r="C71" s="5">
         <f>SUM(D$4:D71)</f>
-        <v>478870</v>
+        <v>199240</v>
       </c>
       <c r="D71" s="5">
-        <v>27000</v>
+        <v>8765</v>
       </c>
       <c r="E71" s="5">
         <v>2</v>
@@ -3887,18 +4112,21 @@
       <c r="F71" s="5">
         <v>100</v>
       </c>
-      <c r="I71" t="s">
-        <v>198</v>
-      </c>
-      <c r="J71">
+      <c r="G71" s="5">
+        <v>68</v>
+      </c>
+      <c r="J71" t="s">
+        <v>100</v>
+      </c>
+      <c r="K71">
         <v>500</v>
       </c>
-      <c r="K71">
-        <f>SUM($J$4:J71)</f>
-        <v>17725</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L71">
+        <f>SUM($K$4:K71)</f>
+        <v>24400</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A72" s="5">
         <v>69</v>
       </c>
@@ -3907,10 +4135,10 @@
       </c>
       <c r="C72" s="5">
         <f>SUM(D$4:D72)</f>
-        <v>508870</v>
+        <v>208975</v>
       </c>
       <c r="D72" s="5">
-        <v>30000</v>
+        <v>9735</v>
       </c>
       <c r="E72" s="5">
         <v>2</v>
@@ -3918,18 +4146,21 @@
       <c r="F72" s="5">
         <v>100</v>
       </c>
-      <c r="I72" t="s">
-        <v>199</v>
-      </c>
-      <c r="J72">
+      <c r="G72" s="5">
+        <v>69</v>
+      </c>
+      <c r="J72" t="s">
+        <v>101</v>
+      </c>
+      <c r="K72">
         <v>500</v>
       </c>
-      <c r="K72">
-        <f>SUM($J$4:J72)</f>
-        <v>18225</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L72">
+        <f>SUM($K$4:K72)</f>
+        <v>24900</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A73" s="5">
         <v>70</v>
       </c>
@@ -3938,10 +4169,10 @@
       </c>
       <c r="C73" s="5">
         <f>SUM(D$4:D73)</f>
-        <v>529105</v>
+        <v>217055</v>
       </c>
       <c r="D73" s="5">
-        <v>20235</v>
+        <v>8080</v>
       </c>
       <c r="E73" s="5">
         <v>2</v>
@@ -3949,18 +4180,21 @@
       <c r="F73" s="5">
         <v>100</v>
       </c>
-      <c r="I73" t="s">
-        <v>200</v>
-      </c>
-      <c r="J73">
+      <c r="G73" s="5">
+        <v>70</v>
+      </c>
+      <c r="J73" t="s">
+        <v>102</v>
+      </c>
+      <c r="K73">
         <v>500</v>
       </c>
-      <c r="K73">
-        <f>SUM($J$4:J73)</f>
-        <v>18725</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L73">
+        <f>SUM($K$4:K73)</f>
+        <v>25400</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A74" s="5">
         <v>71</v>
       </c>
@@ -3969,10 +4203,10 @@
       </c>
       <c r="C74" s="5">
         <f>SUM(D$4:D74)</f>
-        <v>551365</v>
+        <v>225945</v>
       </c>
       <c r="D74" s="5">
-        <v>22260</v>
+        <v>8890</v>
       </c>
       <c r="E74" s="5">
         <v>2</v>
@@ -3980,18 +4214,21 @@
       <c r="F74" s="5">
         <v>100</v>
       </c>
-      <c r="I74" t="s">
-        <v>201</v>
-      </c>
-      <c r="J74">
+      <c r="G74" s="5">
+        <v>71</v>
+      </c>
+      <c r="J74" t="s">
+        <v>103</v>
+      </c>
+      <c r="K74">
         <v>500</v>
       </c>
-      <c r="K74">
-        <f>SUM($J$4:J74)</f>
-        <v>19225</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L74">
+        <f>SUM($K$4:K74)</f>
+        <v>25900</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A75" s="5">
         <v>72</v>
       </c>
@@ -4000,10 +4237,10 @@
       </c>
       <c r="C75" s="5">
         <f>SUM(D$4:D75)</f>
-        <v>575650</v>
+        <v>235645</v>
       </c>
       <c r="D75" s="5">
-        <v>24285</v>
+        <v>9700</v>
       </c>
       <c r="E75" s="5">
         <v>2</v>
@@ -4011,18 +4248,21 @@
       <c r="F75" s="5">
         <v>100</v>
       </c>
-      <c r="I75" t="s">
-        <v>202</v>
-      </c>
-      <c r="J75">
+      <c r="G75" s="5">
+        <v>72</v>
+      </c>
+      <c r="J75" t="s">
+        <v>104</v>
+      </c>
+      <c r="K75">
         <v>500</v>
       </c>
-      <c r="K75">
-        <f>SUM($J$4:J75)</f>
-        <v>19725</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L75">
+        <f>SUM($K$4:K75)</f>
+        <v>26400</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A76" s="5">
         <v>73</v>
       </c>
@@ -4031,10 +4271,10 @@
       </c>
       <c r="C76" s="5">
         <f>SUM(D$4:D76)</f>
-        <v>601960</v>
+        <v>246150</v>
       </c>
       <c r="D76" s="5">
-        <v>26310</v>
+        <v>10505</v>
       </c>
       <c r="E76" s="5">
         <v>2</v>
@@ -4042,18 +4282,21 @@
       <c r="F76" s="5">
         <v>100</v>
       </c>
-      <c r="I76" t="s">
-        <v>203</v>
-      </c>
-      <c r="J76">
+      <c r="G76" s="5">
+        <v>73</v>
+      </c>
+      <c r="J76" t="s">
+        <v>105</v>
+      </c>
+      <c r="K76">
         <v>500</v>
       </c>
-      <c r="K76">
-        <f>SUM($J$4:J76)</f>
-        <v>20225</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L76">
+        <f>SUM($K$4:K76)</f>
+        <v>26900</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A77" s="5">
         <v>74</v>
       </c>
@@ -4062,10 +4305,10 @@
       </c>
       <c r="C77" s="5">
         <f>SUM(D$4:D77)</f>
-        <v>630295</v>
+        <v>257465</v>
       </c>
       <c r="D77" s="5">
-        <v>28335</v>
+        <v>11315</v>
       </c>
       <c r="E77" s="5">
         <v>2</v>
@@ -4073,18 +4316,21 @@
       <c r="F77" s="5">
         <v>100</v>
       </c>
-      <c r="I77" t="s">
-        <v>204</v>
-      </c>
-      <c r="J77">
+      <c r="G77" s="5">
+        <v>74</v>
+      </c>
+      <c r="J77" t="s">
+        <v>106</v>
+      </c>
+      <c r="K77">
         <v>500</v>
       </c>
-      <c r="K77">
-        <f>SUM($J$4:J77)</f>
-        <v>20725</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L77">
+        <f>SUM($K$4:K77)</f>
+        <v>27400</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A78" s="5">
         <v>75</v>
       </c>
@@ -4093,10 +4339,10 @@
       </c>
       <c r="C78" s="5">
         <f>SUM(D$4:D78)</f>
-        <v>660650</v>
+        <v>269590</v>
       </c>
       <c r="D78" s="5">
-        <v>30355</v>
+        <v>12125</v>
       </c>
       <c r="E78" s="5">
         <v>2</v>
@@ -4104,18 +4350,21 @@
       <c r="F78" s="5">
         <v>100</v>
       </c>
-      <c r="I78" t="s">
-        <v>205</v>
-      </c>
-      <c r="J78">
+      <c r="G78" s="5">
+        <v>75</v>
+      </c>
+      <c r="J78" t="s">
+        <v>107</v>
+      </c>
+      <c r="K78">
         <v>500</v>
       </c>
-      <c r="K78">
-        <f>SUM($J$4:J78)</f>
-        <v>21225</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L78">
+        <f>SUM($K$4:K78)</f>
+        <v>27900</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A79" s="5">
         <v>76</v>
       </c>
@@ -4124,10 +4373,10 @@
       </c>
       <c r="C79" s="5">
         <f>SUM(D$4:D79)</f>
-        <v>693030</v>
+        <v>282520</v>
       </c>
       <c r="D79" s="5">
-        <v>32380</v>
+        <v>12930</v>
       </c>
       <c r="E79" s="5">
         <v>2</v>
@@ -4135,18 +4384,21 @@
       <c r="F79" s="5">
         <v>100</v>
       </c>
-      <c r="I79" t="s">
-        <v>206</v>
-      </c>
-      <c r="J79">
+      <c r="G79" s="5">
+        <v>76</v>
+      </c>
+      <c r="J79" t="s">
+        <v>108</v>
+      </c>
+      <c r="K79">
         <v>500</v>
       </c>
-      <c r="K79">
-        <f>SUM($J$4:J79)</f>
-        <v>21725</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L79">
+        <f>SUM($K$4:K79)</f>
+        <v>28400</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A80" s="5">
         <v>77</v>
       </c>
@@ -4155,10 +4407,10 @@
       </c>
       <c r="C80" s="5">
         <f>SUM(D$4:D80)</f>
-        <v>727435</v>
+        <v>296260</v>
       </c>
       <c r="D80" s="5">
-        <v>34405</v>
+        <v>13740</v>
       </c>
       <c r="E80" s="5">
         <v>2</v>
@@ -4166,18 +4418,21 @@
       <c r="F80" s="5">
         <v>100</v>
       </c>
-      <c r="I80" t="s">
-        <v>207</v>
-      </c>
-      <c r="J80">
+      <c r="G80" s="5">
+        <v>77</v>
+      </c>
+      <c r="J80" t="s">
+        <v>109</v>
+      </c>
+      <c r="K80">
         <v>500</v>
       </c>
-      <c r="K80">
-        <f>SUM($J$4:J80)</f>
-        <v>22225</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L80">
+        <f>SUM($K$4:K80)</f>
+        <v>28900</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A81" s="5">
         <v>78</v>
       </c>
@@ -4186,10 +4441,10 @@
       </c>
       <c r="C81" s="5">
         <f>SUM(D$4:D81)</f>
-        <v>763865</v>
+        <v>310810</v>
       </c>
       <c r="D81" s="5">
-        <v>36430</v>
+        <v>14550</v>
       </c>
       <c r="E81" s="5">
         <v>2</v>
@@ -4197,18 +4452,21 @@
       <c r="F81" s="5">
         <v>100</v>
       </c>
-      <c r="I81" t="s">
-        <v>208</v>
-      </c>
-      <c r="J81">
+      <c r="G81" s="5">
+        <v>78</v>
+      </c>
+      <c r="J81" t="s">
+        <v>110</v>
+      </c>
+      <c r="K81">
         <v>500</v>
       </c>
-      <c r="K81">
-        <f>SUM($J$4:J81)</f>
-        <v>22725</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L81">
+        <f>SUM($K$4:K81)</f>
+        <v>29400</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A82" s="5">
         <v>79</v>
       </c>
@@ -4217,10 +4475,10 @@
       </c>
       <c r="C82" s="5">
         <f>SUM(D$4:D82)</f>
-        <v>804340</v>
+        <v>326975</v>
       </c>
       <c r="D82" s="5">
-        <v>40475</v>
+        <v>16165</v>
       </c>
       <c r="E82" s="5">
         <v>2</v>
@@ -4228,18 +4486,21 @@
       <c r="F82" s="5">
         <v>100</v>
       </c>
-      <c r="I82" t="s">
-        <v>209</v>
-      </c>
-      <c r="J82">
+      <c r="G82" s="5">
+        <v>79</v>
+      </c>
+      <c r="J82" t="s">
+        <v>111</v>
+      </c>
+      <c r="K82">
         <v>500</v>
       </c>
-      <c r="K82">
-        <f>SUM($J$4:J82)</f>
-        <v>23225</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L82">
+        <f>SUM($K$4:K82)</f>
+        <v>29900</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A83" s="5">
         <v>80</v>
       </c>
@@ -4248,10 +4509,10 @@
       </c>
       <c r="C83" s="5">
         <f>SUM(D$4:D83)</f>
-        <v>834545</v>
+        <v>341110</v>
       </c>
       <c r="D83" s="5">
-        <v>30205</v>
+        <v>14135</v>
       </c>
       <c r="E83" s="5">
         <v>3</v>
@@ -4259,18 +4520,21 @@
       <c r="F83" s="5">
         <v>100</v>
       </c>
-      <c r="I83" t="s">
-        <v>210</v>
-      </c>
-      <c r="J83">
+      <c r="G83" s="5">
+        <v>80</v>
+      </c>
+      <c r="J83" t="s">
+        <v>112</v>
+      </c>
+      <c r="K83">
         <v>500</v>
       </c>
-      <c r="K83">
-        <f>SUM($J$4:J83)</f>
-        <v>23725</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L83">
+        <f>SUM($K$4:K83)</f>
+        <v>30400</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A84" s="5">
         <v>81</v>
       </c>
@@ -4279,10 +4543,10 @@
       </c>
       <c r="C84" s="5">
         <f>SUM(D$4:D84)</f>
-        <v>867770</v>
+        <v>356660</v>
       </c>
       <c r="D84" s="5">
-        <v>33225</v>
+        <v>15550</v>
       </c>
       <c r="E84" s="5">
         <v>3</v>
@@ -4290,18 +4554,21 @@
       <c r="F84" s="5">
         <v>100</v>
       </c>
-      <c r="I84" t="s">
-        <v>211</v>
-      </c>
-      <c r="J84">
+      <c r="G84" s="5">
+        <v>81</v>
+      </c>
+      <c r="J84" t="s">
+        <v>113</v>
+      </c>
+      <c r="K84">
         <v>500</v>
       </c>
-      <c r="K84">
-        <f>SUM($J$4:J84)</f>
-        <v>24225</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L84">
+        <f>SUM($K$4:K84)</f>
+        <v>30900</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A85" s="5">
         <v>82</v>
       </c>
@@ -4310,10 +4577,10 @@
       </c>
       <c r="C85" s="5">
         <f>SUM(D$4:D85)</f>
-        <v>904015</v>
+        <v>373625</v>
       </c>
       <c r="D85" s="5">
-        <v>36245</v>
+        <v>16965</v>
       </c>
       <c r="E85" s="5">
         <v>3</v>
@@ -4321,18 +4588,21 @@
       <c r="F85" s="5">
         <v>100</v>
       </c>
-      <c r="I85" t="s">
-        <v>212</v>
-      </c>
-      <c r="J85">
+      <c r="G85" s="5">
+        <v>82</v>
+      </c>
+      <c r="J85" t="s">
+        <v>114</v>
+      </c>
+      <c r="K85">
         <v>600</v>
       </c>
-      <c r="K85">
-        <f>SUM($J$4:J85)</f>
-        <v>24825</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L85">
+        <f>SUM($K$4:K85)</f>
+        <v>31500</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A86" s="5">
         <v>83</v>
       </c>
@@ -4341,10 +4611,10 @@
       </c>
       <c r="C86" s="5">
         <f>SUM(D$4:D86)</f>
-        <v>943280</v>
+        <v>392005</v>
       </c>
       <c r="D86" s="5">
-        <v>39265</v>
+        <v>18380</v>
       </c>
       <c r="E86" s="5">
         <v>3</v>
@@ -4352,18 +4622,21 @@
       <c r="F86" s="5">
         <v>100</v>
       </c>
-      <c r="I86" t="s">
-        <v>213</v>
-      </c>
-      <c r="J86">
+      <c r="G86" s="5">
+        <v>83</v>
+      </c>
+      <c r="J86" t="s">
+        <v>115</v>
+      </c>
+      <c r="K86">
         <v>600</v>
       </c>
-      <c r="K86">
-        <f>SUM($J$4:J86)</f>
-        <v>25425</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L86">
+        <f>SUM($K$4:K86)</f>
+        <v>32100</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A87" s="5">
         <v>84</v>
       </c>
@@ -4372,10 +4645,10 @@
       </c>
       <c r="C87" s="5">
         <f>SUM(D$4:D87)</f>
-        <v>985565</v>
+        <v>411795</v>
       </c>
       <c r="D87" s="5">
-        <v>42285</v>
+        <v>19790</v>
       </c>
       <c r="E87" s="5">
         <v>3</v>
@@ -4383,18 +4656,21 @@
       <c r="F87" s="5">
         <v>100</v>
       </c>
-      <c r="I87" t="s">
-        <v>214</v>
-      </c>
-      <c r="J87">
+      <c r="G87" s="5">
+        <v>84</v>
+      </c>
+      <c r="J87" t="s">
+        <v>116</v>
+      </c>
+      <c r="K87">
         <v>600</v>
       </c>
-      <c r="K87">
-        <f>SUM($J$4:J87)</f>
-        <v>26025</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L87">
+        <f>SUM($K$4:K87)</f>
+        <v>32700</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A88" s="5">
         <v>85</v>
       </c>
@@ -4403,10 +4679,10 @@
       </c>
       <c r="C88" s="5">
         <f>SUM(D$4:D88)</f>
-        <v>1030870</v>
+        <v>433000</v>
       </c>
       <c r="D88" s="5">
-        <v>45305</v>
+        <v>21205</v>
       </c>
       <c r="E88" s="5">
         <v>3</v>
@@ -4414,18 +4690,21 @@
       <c r="F88" s="5">
         <v>100</v>
       </c>
-      <c r="I88" t="s">
-        <v>215</v>
-      </c>
-      <c r="J88">
+      <c r="G88" s="5">
+        <v>85</v>
+      </c>
+      <c r="J88" t="s">
+        <v>117</v>
+      </c>
+      <c r="K88">
         <v>600</v>
       </c>
-      <c r="K88">
-        <f>SUM($J$4:J88)</f>
-        <v>26625</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L88">
+        <f>SUM($K$4:K88)</f>
+        <v>33300</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A89" s="5">
         <v>86</v>
       </c>
@@ -4434,10 +4713,10 @@
       </c>
       <c r="C89" s="5">
         <f>SUM(D$4:D89)</f>
-        <v>1079195</v>
+        <v>455620</v>
       </c>
       <c r="D89" s="5">
-        <v>48325</v>
+        <v>22620</v>
       </c>
       <c r="E89" s="5">
         <v>3</v>
@@ -4445,18 +4724,21 @@
       <c r="F89" s="5">
         <v>100</v>
       </c>
-      <c r="I89" t="s">
-        <v>216</v>
-      </c>
-      <c r="J89">
+      <c r="G89" s="5">
+        <v>86</v>
+      </c>
+      <c r="J89" t="s">
+        <v>118</v>
+      </c>
+      <c r="K89">
         <v>600</v>
       </c>
-      <c r="K89">
-        <f>SUM($J$4:J89)</f>
-        <v>27225</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L89">
+        <f>SUM($K$4:K89)</f>
+        <v>33900</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A90" s="5">
         <v>87</v>
       </c>
@@ -4465,10 +4747,10 @@
       </c>
       <c r="C90" s="5">
         <f>SUM(D$4:D90)</f>
-        <v>1130540</v>
+        <v>479655</v>
       </c>
       <c r="D90" s="5">
-        <v>51345</v>
+        <v>24035</v>
       </c>
       <c r="E90" s="5">
         <v>3</v>
@@ -4476,18 +4758,21 @@
       <c r="F90" s="5">
         <v>100</v>
       </c>
-      <c r="I90" t="s">
-        <v>217</v>
-      </c>
-      <c r="J90">
+      <c r="G90" s="5">
+        <v>87</v>
+      </c>
+      <c r="J90" t="s">
+        <v>119</v>
+      </c>
+      <c r="K90">
         <v>600</v>
       </c>
-      <c r="K90">
-        <f>SUM($J$4:J90)</f>
-        <v>27825</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L90">
+        <f>SUM($K$4:K90)</f>
+        <v>34500</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A91" s="5">
         <v>88</v>
       </c>
@@ -4496,10 +4781,10 @@
       </c>
       <c r="C91" s="5">
         <f>SUM(D$4:D91)</f>
-        <v>1184905</v>
+        <v>505100</v>
       </c>
       <c r="D91" s="5">
-        <v>54365</v>
+        <v>25445</v>
       </c>
       <c r="E91" s="5">
         <v>3</v>
@@ -4507,18 +4792,21 @@
       <c r="F91" s="5">
         <v>100</v>
       </c>
-      <c r="I91" t="s">
-        <v>218</v>
-      </c>
-      <c r="J91">
+      <c r="G91" s="5">
+        <v>88</v>
+      </c>
+      <c r="J91" t="s">
+        <v>120</v>
+      </c>
+      <c r="K91">
         <v>600</v>
       </c>
-      <c r="K91">
-        <f>SUM($J$4:J91)</f>
-        <v>28425</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L91">
+        <f>SUM($K$4:K91)</f>
+        <v>35100</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A92" s="5">
         <v>89</v>
       </c>
@@ -4527,10 +4815,10 @@
       </c>
       <c r="C92" s="5">
         <f>SUM(D$4:D92)</f>
-        <v>1245315</v>
+        <v>533375</v>
       </c>
       <c r="D92" s="5">
-        <v>60410</v>
+        <v>28275</v>
       </c>
       <c r="E92" s="5">
         <v>3</v>
@@ -4538,18 +4826,21 @@
       <c r="F92" s="5">
         <v>100</v>
       </c>
-      <c r="I92" t="s">
-        <v>219</v>
-      </c>
-      <c r="J92">
+      <c r="G92" s="5">
+        <v>89</v>
+      </c>
+      <c r="J92" t="s">
+        <v>121</v>
+      </c>
+      <c r="K92">
         <v>600</v>
       </c>
-      <c r="K92">
-        <f>SUM($J$4:J92)</f>
-        <v>29025</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L92">
+        <f>SUM($K$4:K92)</f>
+        <v>35700</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A93" s="5">
         <v>90</v>
       </c>
@@ -4558,10 +4849,10 @@
       </c>
       <c r="C93" s="5">
         <f>SUM(D$4:D93)</f>
-        <v>1293065</v>
+        <v>558235</v>
       </c>
       <c r="D93" s="5">
-        <v>47750</v>
+        <v>24860</v>
       </c>
       <c r="E93" s="5">
         <v>3</v>
@@ -4569,18 +4860,21 @@
       <c r="F93" s="5">
         <v>100</v>
       </c>
-      <c r="I93" t="s">
-        <v>220</v>
-      </c>
-      <c r="J93">
+      <c r="G93" s="5">
+        <v>90</v>
+      </c>
+      <c r="J93" t="s">
+        <v>122</v>
+      </c>
+      <c r="K93">
         <v>600</v>
       </c>
-      <c r="K93">
-        <f>SUM($J$4:J93)</f>
-        <v>29625</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L93">
+        <f>SUM($K$4:K93)</f>
+        <v>36300</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A94" s="5">
         <v>91</v>
       </c>
@@ -4589,10 +4883,10 @@
       </c>
       <c r="C94" s="5">
         <f>SUM(D$4:D94)</f>
-        <v>1345590</v>
+        <v>585580</v>
       </c>
       <c r="D94" s="5">
-        <v>52525</v>
+        <v>27345</v>
       </c>
       <c r="E94" s="5">
         <v>3</v>
@@ -4600,18 +4894,21 @@
       <c r="F94" s="5">
         <v>100</v>
       </c>
-      <c r="I94" t="s">
-        <v>221</v>
-      </c>
-      <c r="J94">
+      <c r="G94" s="5">
+        <v>91</v>
+      </c>
+      <c r="J94" t="s">
+        <v>123</v>
+      </c>
+      <c r="K94">
         <v>600</v>
       </c>
-      <c r="K94">
-        <f>SUM($J$4:J94)</f>
-        <v>30225</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L94">
+        <f>SUM($K$4:K94)</f>
+        <v>36900</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A95" s="5">
         <v>92</v>
       </c>
@@ -4620,10 +4917,10 @@
       </c>
       <c r="C95" s="5">
         <f>SUM(D$4:D95)</f>
-        <v>1402890</v>
+        <v>615410</v>
       </c>
       <c r="D95" s="5">
-        <v>57300</v>
+        <v>29830</v>
       </c>
       <c r="E95" s="5">
         <v>3</v>
@@ -4631,18 +4928,21 @@
       <c r="F95" s="5">
         <v>100</v>
       </c>
-      <c r="I95" t="s">
-        <v>222</v>
-      </c>
-      <c r="J95">
+      <c r="G95" s="5">
+        <v>92</v>
+      </c>
+      <c r="J95" t="s">
+        <v>124</v>
+      </c>
+      <c r="K95">
         <v>600</v>
       </c>
-      <c r="K95">
-        <f>SUM($J$4:J95)</f>
-        <v>30825</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L95">
+        <f>SUM($K$4:K95)</f>
+        <v>37500</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A96" s="5">
         <v>93</v>
       </c>
@@ -4651,10 +4951,10 @@
       </c>
       <c r="C96" s="5">
         <f>SUM(D$4:D96)</f>
-        <v>1464965</v>
+        <v>647725</v>
       </c>
       <c r="D96" s="5">
-        <v>62075</v>
+        <v>32315</v>
       </c>
       <c r="E96" s="5">
         <v>3</v>
@@ -4662,18 +4962,21 @@
       <c r="F96" s="5">
         <v>100</v>
       </c>
-      <c r="I96" t="s">
-        <v>223</v>
-      </c>
-      <c r="J96">
+      <c r="G96" s="5">
+        <v>93</v>
+      </c>
+      <c r="J96" t="s">
+        <v>125</v>
+      </c>
+      <c r="K96">
         <v>600</v>
       </c>
-      <c r="K96">
-        <f>SUM($J$4:J96)</f>
-        <v>31425</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L96">
+        <f>SUM($K$4:K96)</f>
+        <v>38100</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A97" s="5">
         <v>94</v>
       </c>
@@ -4682,10 +4985,10 @@
       </c>
       <c r="C97" s="5">
         <f>SUM(D$4:D97)</f>
-        <v>1531815</v>
+        <v>682530</v>
       </c>
       <c r="D97" s="5">
-        <v>66850</v>
+        <v>34805</v>
       </c>
       <c r="E97" s="5">
         <v>3</v>
@@ -4693,18 +4996,21 @@
       <c r="F97" s="5">
         <v>100</v>
       </c>
-      <c r="I97" t="s">
-        <v>224</v>
-      </c>
-      <c r="J97">
+      <c r="G97" s="5">
+        <v>94</v>
+      </c>
+      <c r="J97" t="s">
+        <v>126</v>
+      </c>
+      <c r="K97">
         <v>600</v>
       </c>
-      <c r="K97">
-        <f>SUM($J$4:J97)</f>
-        <v>32025</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L97">
+        <f>SUM($K$4:K97)</f>
+        <v>38700</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A98" s="5">
         <v>95</v>
       </c>
@@ -4713,10 +5019,10 @@
       </c>
       <c r="C98" s="5">
         <f>SUM(D$4:D98)</f>
-        <v>1603445</v>
+        <v>719820</v>
       </c>
       <c r="D98" s="5">
-        <v>71630</v>
+        <v>37290</v>
       </c>
       <c r="E98" s="5">
         <v>3</v>
@@ -4724,18 +5030,21 @@
       <c r="F98" s="5">
         <v>100</v>
       </c>
-      <c r="I98" t="s">
-        <v>225</v>
-      </c>
-      <c r="J98">
+      <c r="G98" s="5">
+        <v>95</v>
+      </c>
+      <c r="J98" t="s">
+        <v>127</v>
+      </c>
+      <c r="K98">
         <v>600</v>
       </c>
-      <c r="K98">
-        <f>SUM($J$4:J98)</f>
-        <v>32625</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L98">
+        <f>SUM($K$4:K98)</f>
+        <v>39300</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A99" s="5">
         <v>96</v>
       </c>
@@ -4744,10 +5053,10 @@
       </c>
       <c r="C99" s="5">
         <f>SUM(D$4:D99)</f>
-        <v>1679850</v>
+        <v>759595</v>
       </c>
       <c r="D99" s="5">
-        <v>76405</v>
+        <v>39775</v>
       </c>
       <c r="E99" s="5">
         <v>3</v>
@@ -4755,18 +5064,21 @@
       <c r="F99" s="5">
         <v>100</v>
       </c>
-      <c r="I99" t="s">
-        <v>226</v>
-      </c>
-      <c r="J99">
+      <c r="G99" s="5">
+        <v>96</v>
+      </c>
+      <c r="J99" t="s">
+        <v>128</v>
+      </c>
+      <c r="K99">
         <v>600</v>
       </c>
-      <c r="K99">
-        <f>SUM($J$4:J99)</f>
-        <v>33225</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L99">
+        <f>SUM($K$4:K99)</f>
+        <v>39900</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A100" s="5">
         <v>97</v>
       </c>
@@ -4775,10 +5087,10 @@
       </c>
       <c r="C100" s="5">
         <f>SUM(D$4:D100)</f>
-        <v>1761030</v>
+        <v>801855</v>
       </c>
       <c r="D100" s="5">
-        <v>81180</v>
+        <v>42260</v>
       </c>
       <c r="E100" s="5">
         <v>3</v>
@@ -4786,18 +5098,21 @@
       <c r="F100" s="5">
         <v>100</v>
       </c>
-      <c r="I100" t="s">
-        <v>227</v>
-      </c>
-      <c r="J100">
+      <c r="G100" s="5">
+        <v>97</v>
+      </c>
+      <c r="J100" t="s">
+        <v>129</v>
+      </c>
+      <c r="K100">
         <v>720</v>
       </c>
-      <c r="K100">
-        <f>SUM($J$4:J100)</f>
-        <v>33945</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L100">
+        <f>SUM($K$4:K100)</f>
+        <v>40620</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A101" s="5">
         <v>98</v>
       </c>
@@ -4806,10 +5121,10 @@
       </c>
       <c r="C101" s="5">
         <f>SUM(D$4:D101)</f>
-        <v>1846985</v>
+        <v>846605</v>
       </c>
       <c r="D101" s="5">
-        <v>85955</v>
+        <v>44750</v>
       </c>
       <c r="E101" s="5">
         <v>3</v>
@@ -4817,18 +5132,21 @@
       <c r="F101" s="5">
         <v>100</v>
       </c>
-      <c r="I101" t="s">
-        <v>228</v>
-      </c>
-      <c r="J101">
+      <c r="G101" s="5">
+        <v>98</v>
+      </c>
+      <c r="J101" t="s">
+        <v>130</v>
+      </c>
+      <c r="K101">
         <v>720</v>
       </c>
-      <c r="K101">
-        <f>SUM($J$4:J101)</f>
-        <v>34665</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L101">
+        <f>SUM($K$4:K101)</f>
+        <v>41340</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A102" s="5">
         <v>99</v>
       </c>
@@ -4837,10 +5155,10 @@
       </c>
       <c r="C102" s="5">
         <f>SUM(D$4:D102)</f>
-        <v>1942490</v>
+        <v>896325</v>
       </c>
       <c r="D102" s="5">
-        <v>95505</v>
+        <v>49720</v>
       </c>
       <c r="E102" s="5">
         <v>3</v>
@@ -4848,18 +5166,21 @@
       <c r="F102" s="5">
         <v>100</v>
       </c>
-      <c r="I102" t="s">
-        <v>229</v>
-      </c>
-      <c r="J102">
+      <c r="G102" s="5">
+        <v>99</v>
+      </c>
+      <c r="J102" t="s">
+        <v>131</v>
+      </c>
+      <c r="K102">
         <v>720</v>
       </c>
-      <c r="K102">
-        <f>SUM($J$4:J102)</f>
-        <v>35385</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L102">
+        <f>SUM($K$4:K102)</f>
+        <v>42060</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A103" s="5">
         <v>100</v>
       </c>
@@ -4868,10 +5189,10 @@
       </c>
       <c r="C103" s="5">
         <f>SUM(D$4:D103)</f>
-        <v>2019625</v>
+        <v>949805</v>
       </c>
       <c r="D103" s="5">
-        <v>77135</v>
+        <v>53480</v>
       </c>
       <c r="E103" s="5">
         <v>3</v>
@@ -4879,18 +5200,21 @@
       <c r="F103" s="5">
         <v>100</v>
       </c>
-      <c r="I103" t="s">
-        <v>230</v>
-      </c>
-      <c r="J103">
+      <c r="G103" s="5">
+        <v>100</v>
+      </c>
+      <c r="J103" t="s">
+        <v>132</v>
+      </c>
+      <c r="K103">
         <v>720</v>
       </c>
-      <c r="K103">
-        <f>SUM($J$4:J103)</f>
-        <v>36105</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L103">
+        <f>SUM($K$4:K103)</f>
+        <v>42780</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A104" s="5">
         <v>101</v>
       </c>
@@ -4899,10 +5223,10 @@
       </c>
       <c r="C104" s="5">
         <f>SUM(D$4:D104)</f>
-        <v>2104475</v>
+        <v>1008635</v>
       </c>
       <c r="D104" s="5">
-        <v>84850</v>
+        <v>58830</v>
       </c>
       <c r="E104" s="5">
         <v>3</v>
@@ -4910,18 +5234,21 @@
       <c r="F104" s="5">
         <v>100</v>
       </c>
-      <c r="I104" t="s">
-        <v>231</v>
-      </c>
-      <c r="J104">
+      <c r="G104" s="5">
+        <v>101</v>
+      </c>
+      <c r="J104" t="s">
+        <v>133</v>
+      </c>
+      <c r="K104">
         <v>720</v>
       </c>
-      <c r="K104">
-        <f>SUM($J$4:J104)</f>
-        <v>36825</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L104">
+        <f>SUM($K$4:K104)</f>
+        <v>43500</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A105" s="5">
         <v>102</v>
       </c>
@@ -4930,10 +5257,10 @@
       </c>
       <c r="C105" s="5">
         <f>SUM(D$4:D105)</f>
-        <v>2197035</v>
+        <v>1072810</v>
       </c>
       <c r="D105" s="5">
-        <v>92560</v>
+        <v>64175</v>
       </c>
       <c r="E105" s="5">
         <v>3</v>
@@ -4941,18 +5268,21 @@
       <c r="F105" s="5">
         <v>100</v>
       </c>
-      <c r="I105" t="s">
-        <v>232</v>
-      </c>
-      <c r="J105">
+      <c r="G105" s="5">
+        <v>102</v>
+      </c>
+      <c r="J105" t="s">
+        <v>134</v>
+      </c>
+      <c r="K105">
         <v>720</v>
       </c>
-      <c r="K105">
-        <f>SUM($J$4:J105)</f>
-        <v>37545</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L105">
+        <f>SUM($K$4:K105)</f>
+        <v>44220</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A106" s="5">
         <v>103</v>
       </c>
@@ -4961,10 +5291,10 @@
       </c>
       <c r="C106" s="5">
         <f>SUM(D$4:D106)</f>
-        <v>2297310</v>
+        <v>1142335</v>
       </c>
       <c r="D106" s="5">
-        <v>100275</v>
+        <v>69525</v>
       </c>
       <c r="E106" s="5">
         <v>3</v>
@@ -4972,18 +5302,21 @@
       <c r="F106" s="5">
         <v>100</v>
       </c>
-      <c r="I106" t="s">
-        <v>233</v>
-      </c>
-      <c r="J106">
+      <c r="G106" s="5">
+        <v>103</v>
+      </c>
+      <c r="J106" t="s">
+        <v>135</v>
+      </c>
+      <c r="K106">
         <v>720</v>
       </c>
-      <c r="K106">
-        <f>SUM($J$4:J106)</f>
-        <v>38265</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L106">
+        <f>SUM($K$4:K106)</f>
+        <v>44940</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A107" s="5">
         <v>104</v>
       </c>
@@ -4992,10 +5325,10 @@
       </c>
       <c r="C107" s="5">
         <f>SUM(D$4:D107)</f>
-        <v>2405300</v>
+        <v>1217210</v>
       </c>
       <c r="D107" s="5">
-        <v>107990</v>
+        <v>74875</v>
       </c>
       <c r="E107" s="5">
         <v>3</v>
@@ -5003,18 +5336,21 @@
       <c r="F107" s="5">
         <v>100</v>
       </c>
-      <c r="I107" t="s">
-        <v>234</v>
-      </c>
-      <c r="J107">
+      <c r="G107" s="5">
+        <v>104</v>
+      </c>
+      <c r="J107" t="s">
+        <v>136</v>
+      </c>
+      <c r="K107">
         <v>720</v>
       </c>
-      <c r="K107">
-        <f>SUM($J$4:J107)</f>
-        <v>38985</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L107">
+        <f>SUM($K$4:K107)</f>
+        <v>45660</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A108" s="5">
         <v>105</v>
       </c>
@@ -5023,10 +5359,10 @@
       </c>
       <c r="C108" s="5">
         <f>SUM(D$4:D108)</f>
-        <v>2521005</v>
+        <v>1297430</v>
       </c>
       <c r="D108" s="5">
-        <v>115705</v>
+        <v>80220</v>
       </c>
       <c r="E108" s="5">
         <v>3</v>
@@ -5034,18 +5370,21 @@
       <c r="F108" s="5">
         <v>100</v>
       </c>
-      <c r="I108" t="s">
-        <v>235</v>
-      </c>
-      <c r="J108">
+      <c r="G108" s="5">
+        <v>105</v>
+      </c>
+      <c r="J108" t="s">
+        <v>137</v>
+      </c>
+      <c r="K108">
         <v>720</v>
       </c>
-      <c r="K108">
-        <f>SUM($J$4:J108)</f>
-        <v>39705</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L108">
+        <f>SUM($K$4:K108)</f>
+        <v>46380</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A109" s="5">
         <v>106</v>
       </c>
@@ -5054,10 +5393,10 @@
       </c>
       <c r="C109" s="5">
         <f>SUM(D$4:D109)</f>
-        <v>2644420</v>
+        <v>1383000</v>
       </c>
       <c r="D109" s="5">
-        <v>123415</v>
+        <v>85570</v>
       </c>
       <c r="E109" s="5">
         <v>3</v>
@@ -5065,18 +5404,21 @@
       <c r="F109" s="5">
         <v>100</v>
       </c>
-      <c r="I109" t="s">
-        <v>236</v>
-      </c>
-      <c r="J109">
+      <c r="G109" s="5">
+        <v>106</v>
+      </c>
+      <c r="J109" t="s">
+        <v>138</v>
+      </c>
+      <c r="K109">
         <v>720</v>
       </c>
-      <c r="K109">
-        <f>SUM($J$4:J109)</f>
-        <v>40425</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L109">
+        <f>SUM($K$4:K109)</f>
+        <v>47100</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A110" s="5">
         <v>107</v>
       </c>
@@ -5085,10 +5427,10 @@
       </c>
       <c r="C110" s="5">
         <f>SUM(D$4:D110)</f>
-        <v>2775550</v>
+        <v>1473920</v>
       </c>
       <c r="D110" s="5">
-        <v>131130</v>
+        <v>90920</v>
       </c>
       <c r="E110" s="5">
         <v>3</v>
@@ -5096,18 +5438,21 @@
       <c r="F110" s="5">
         <v>100</v>
       </c>
-      <c r="I110" t="s">
-        <v>237</v>
-      </c>
-      <c r="J110">
+      <c r="G110" s="5">
+        <v>107</v>
+      </c>
+      <c r="J110" t="s">
+        <v>139</v>
+      </c>
+      <c r="K110">
         <v>720</v>
       </c>
-      <c r="K110">
-        <f>SUM($J$4:J110)</f>
-        <v>41145</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L110">
+        <f>SUM($K$4:K110)</f>
+        <v>47820</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A111" s="5">
         <v>108</v>
       </c>
@@ -5116,10 +5461,10 @@
       </c>
       <c r="C111" s="5">
         <f>SUM(D$4:D111)</f>
-        <v>2914395</v>
+        <v>1570185</v>
       </c>
       <c r="D111" s="5">
-        <v>138845</v>
+        <v>96265</v>
       </c>
       <c r="E111" s="5">
         <v>3</v>
@@ -5127,18 +5472,21 @@
       <c r="F111" s="5">
         <v>100</v>
       </c>
-      <c r="I111" t="s">
-        <v>238</v>
-      </c>
-      <c r="J111">
+      <c r="G111" s="5">
+        <v>108</v>
+      </c>
+      <c r="J111" t="s">
+        <v>140</v>
+      </c>
+      <c r="K111">
         <v>720</v>
       </c>
-      <c r="K111">
-        <f>SUM($J$4:J111)</f>
-        <v>41865</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L111">
+        <f>SUM($K$4:K111)</f>
+        <v>48540</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A112" s="5">
         <v>109</v>
       </c>
@@ -5147,10 +5495,10 @@
       </c>
       <c r="C112" s="5">
         <f>SUM(D$4:D112)</f>
-        <v>3068665</v>
+        <v>1677150</v>
       </c>
       <c r="D112" s="5">
-        <v>154270</v>
+        <v>106965</v>
       </c>
       <c r="E112" s="5">
         <v>3</v>
@@ -5158,18 +5506,21 @@
       <c r="F112" s="5">
         <v>100</v>
       </c>
-      <c r="I112" t="s">
-        <v>239</v>
-      </c>
-      <c r="J112">
+      <c r="G112" s="5">
+        <v>109</v>
+      </c>
+      <c r="J112" t="s">
+        <v>141</v>
+      </c>
+      <c r="K112">
         <v>720</v>
       </c>
-      <c r="K112">
-        <f>SUM($J$4:J112)</f>
-        <v>42585</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L112">
+        <f>SUM($K$4:K112)</f>
+        <v>49260</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A113" s="5">
         <v>110</v>
       </c>
@@ -5178,10 +5529,10 @@
       </c>
       <c r="C113" s="5">
         <f>SUM(D$4:D113)</f>
-        <v>3183280</v>
+        <v>1771570</v>
       </c>
       <c r="D113" s="5">
-        <v>114615</v>
+        <v>94420</v>
       </c>
       <c r="E113" s="5">
         <v>3</v>
@@ -5189,18 +5540,21 @@
       <c r="F113" s="5">
         <v>100</v>
       </c>
-      <c r="I113" t="s">
-        <v>240</v>
-      </c>
-      <c r="J113">
+      <c r="G113" s="5">
+        <v>110</v>
+      </c>
+      <c r="J113" t="s">
+        <v>142</v>
+      </c>
+      <c r="K113">
         <v>720</v>
       </c>
-      <c r="K113">
-        <f>SUM($J$4:J113)</f>
-        <v>43305</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L113">
+        <f>SUM($K$4:K113)</f>
+        <v>49980</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A114" s="5">
         <v>111</v>
       </c>
@@ -5209,10 +5563,10 @@
       </c>
       <c r="C114" s="5">
         <f>SUM(D$4:D114)</f>
-        <v>3309355</v>
+        <v>1875430</v>
       </c>
       <c r="D114" s="5">
-        <v>126075</v>
+        <v>103860</v>
       </c>
       <c r="E114" s="5">
         <v>3</v>
@@ -5220,18 +5574,21 @@
       <c r="F114" s="5">
         <v>100</v>
       </c>
-      <c r="I114" t="s">
-        <v>241</v>
-      </c>
-      <c r="J114">
+      <c r="G114" s="5">
+        <v>111</v>
+      </c>
+      <c r="J114" t="s">
+        <v>143</v>
+      </c>
+      <c r="K114">
         <v>720</v>
       </c>
-      <c r="K114">
-        <f>SUM($J$4:J114)</f>
-        <v>44025</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L114">
+        <f>SUM($K$4:K114)</f>
+        <v>50700</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A115" s="5">
         <v>112</v>
       </c>
@@ -5240,10 +5597,10 @@
       </c>
       <c r="C115" s="5">
         <f>SUM(D$4:D115)</f>
-        <v>3446890</v>
+        <v>1988735</v>
       </c>
       <c r="D115" s="5">
-        <v>137535</v>
+        <v>113305</v>
       </c>
       <c r="E115" s="5">
         <v>3</v>
@@ -5251,18 +5608,21 @@
       <c r="F115" s="5">
         <v>100</v>
       </c>
-      <c r="I115" t="s">
-        <v>242</v>
-      </c>
-      <c r="J115">
+      <c r="G115" s="5">
+        <v>112</v>
+      </c>
+      <c r="J115" t="s">
+        <v>144</v>
+      </c>
+      <c r="K115">
         <v>880</v>
       </c>
-      <c r="K115">
-        <f>SUM($J$4:J115)</f>
-        <v>44905</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L115">
+        <f>SUM($K$4:K115)</f>
+        <v>51580</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A116" s="5">
         <v>113</v>
       </c>
@@ -5271,10 +5631,10 @@
       </c>
       <c r="C116" s="5">
         <f>SUM(D$4:D116)</f>
-        <v>3595890</v>
+        <v>2111480</v>
       </c>
       <c r="D116" s="5">
-        <v>149000</v>
+        <v>122745</v>
       </c>
       <c r="E116" s="5">
         <v>3</v>
@@ -5282,18 +5642,21 @@
       <c r="F116" s="5">
         <v>100</v>
       </c>
-      <c r="I116" t="s">
-        <v>243</v>
-      </c>
-      <c r="J116">
+      <c r="G116" s="5">
+        <v>113</v>
+      </c>
+      <c r="J116" t="s">
+        <v>145</v>
+      </c>
+      <c r="K116">
         <v>880</v>
       </c>
-      <c r="K116">
-        <f>SUM($J$4:J116)</f>
-        <v>45785</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L116">
+        <f>SUM($K$4:K116)</f>
+        <v>52460</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A117" s="5">
         <v>114</v>
       </c>
@@ -5302,10 +5665,10 @@
       </c>
       <c r="C117" s="5">
         <f>SUM(D$4:D117)</f>
-        <v>3756350</v>
+        <v>2243670</v>
       </c>
       <c r="D117" s="5">
-        <v>160460</v>
+        <v>132190</v>
       </c>
       <c r="E117" s="5">
         <v>3</v>
@@ -5313,18 +5676,21 @@
       <c r="F117" s="5">
         <v>100</v>
       </c>
-      <c r="I117" t="s">
-        <v>244</v>
-      </c>
-      <c r="J117">
+      <c r="G117" s="5">
+        <v>114</v>
+      </c>
+      <c r="J117" t="s">
+        <v>146</v>
+      </c>
+      <c r="K117">
         <v>880</v>
       </c>
-      <c r="K117">
-        <f>SUM($J$4:J117)</f>
-        <v>46665</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L117">
+        <f>SUM($K$4:K117)</f>
+        <v>53340</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A118" s="5">
         <v>115</v>
       </c>
@@ -5333,10 +5699,10 @@
       </c>
       <c r="C118" s="5">
         <f>SUM(D$4:D118)</f>
-        <v>3928270</v>
+        <v>2385300</v>
       </c>
       <c r="D118" s="5">
-        <v>171920</v>
+        <v>141630</v>
       </c>
       <c r="E118" s="5">
         <v>3</v>
@@ -5344,18 +5710,21 @@
       <c r="F118" s="5">
         <v>100</v>
       </c>
-      <c r="I118" t="s">
-        <v>245</v>
-      </c>
-      <c r="J118">
+      <c r="G118" s="5">
+        <v>115</v>
+      </c>
+      <c r="J118" t="s">
+        <v>147</v>
+      </c>
+      <c r="K118">
         <v>880</v>
       </c>
-      <c r="K118">
-        <f>SUM($J$4:J118)</f>
-        <v>47545</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L118">
+        <f>SUM($K$4:K118)</f>
+        <v>54220</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A119" s="5">
         <v>116</v>
       </c>
@@ -5364,10 +5733,10 @@
       </c>
       <c r="C119" s="5">
         <f>SUM(D$4:D119)</f>
-        <v>4111655</v>
+        <v>2536375</v>
       </c>
       <c r="D119" s="5">
-        <v>183385</v>
+        <v>151075</v>
       </c>
       <c r="E119" s="5">
         <v>3</v>
@@ -5375,18 +5744,21 @@
       <c r="F119" s="5">
         <v>100</v>
       </c>
-      <c r="I119" t="s">
-        <v>246</v>
-      </c>
-      <c r="J119">
+      <c r="G119" s="5">
+        <v>116</v>
+      </c>
+      <c r="J119" t="s">
+        <v>148</v>
+      </c>
+      <c r="K119">
         <v>880</v>
       </c>
-      <c r="K119">
-        <f>SUM($J$4:J119)</f>
-        <v>48425</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L119">
+        <f>SUM($K$4:K119)</f>
+        <v>55100</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A120" s="5">
         <v>117</v>
       </c>
@@ -5395,10 +5767,10 @@
       </c>
       <c r="C120" s="5">
         <f>SUM(D$4:D120)</f>
-        <v>4306500</v>
+        <v>2696890</v>
       </c>
       <c r="D120" s="5">
-        <v>194845</v>
+        <v>160515</v>
       </c>
       <c r="E120" s="5">
         <v>3</v>
@@ -5406,18 +5778,21 @@
       <c r="F120" s="5">
         <v>100</v>
       </c>
-      <c r="I120" t="s">
-        <v>247</v>
-      </c>
-      <c r="J120">
+      <c r="G120" s="5">
+        <v>117</v>
+      </c>
+      <c r="J120" t="s">
+        <v>149</v>
+      </c>
+      <c r="K120">
         <v>880</v>
       </c>
-      <c r="K120">
-        <f>SUM($J$4:J120)</f>
-        <v>49305</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L120">
+        <f>SUM($K$4:K120)</f>
+        <v>55980</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A121" s="5">
         <v>118</v>
       </c>
@@ -5426,10 +5801,10 @@
       </c>
       <c r="C121" s="5">
         <f>SUM(D$4:D121)</f>
-        <v>4512805</v>
+        <v>2866845</v>
       </c>
       <c r="D121" s="5">
-        <v>206305</v>
+        <v>169955</v>
       </c>
       <c r="E121" s="5">
         <v>3</v>
@@ -5437,18 +5812,21 @@
       <c r="F121" s="5">
         <v>100</v>
       </c>
-      <c r="I121" t="s">
-        <v>248</v>
-      </c>
-      <c r="J121">
+      <c r="G121" s="5">
+        <v>118</v>
+      </c>
+      <c r="J121" t="s">
+        <v>150</v>
+      </c>
+      <c r="K121">
         <v>880</v>
       </c>
-      <c r="K121">
-        <f>SUM($J$4:J121)</f>
-        <v>50185</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L121">
+        <f>SUM($K$4:K121)</f>
+        <v>56860</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A122" s="5">
         <v>119</v>
       </c>
@@ -5457,10 +5835,10 @@
       </c>
       <c r="C122" s="5">
         <f>SUM(D$4:D122)</f>
-        <v>4742035</v>
+        <v>3055685</v>
       </c>
       <c r="D122" s="5">
-        <v>229230</v>
+        <v>188840</v>
       </c>
       <c r="E122" s="5">
         <v>3</v>
@@ -5468,18 +5846,21 @@
       <c r="F122" s="5">
         <v>100</v>
       </c>
-      <c r="I122" t="s">
-        <v>249</v>
-      </c>
-      <c r="J122">
+      <c r="G122" s="5">
+        <v>119</v>
+      </c>
+      <c r="J122" t="s">
+        <v>151</v>
+      </c>
+      <c r="K122">
         <v>880</v>
       </c>
-      <c r="K122">
-        <f>SUM($J$4:J122)</f>
-        <v>51065</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L122">
+        <f>SUM($K$4:K122)</f>
+        <v>57740</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A123" s="5">
         <v>120</v>
       </c>
@@ -5488,10 +5869,10 @@
       </c>
       <c r="C123" s="5">
         <f>SUM(D$4:D123)</f>
-        <v>4903805</v>
+        <v>3205425</v>
       </c>
       <c r="D123" s="5">
-        <v>161770</v>
+        <v>149740</v>
       </c>
       <c r="E123" s="5">
         <v>3</v>
@@ -5499,18 +5880,21 @@
       <c r="F123" s="5">
         <v>100</v>
       </c>
-      <c r="I123" t="s">
-        <v>250</v>
-      </c>
-      <c r="J123">
+      <c r="G123" s="5">
+        <v>120</v>
+      </c>
+      <c r="J123" t="s">
+        <v>152</v>
+      </c>
+      <c r="K123">
         <v>880</v>
       </c>
-      <c r="K123">
-        <f>SUM($J$4:J123)</f>
-        <v>51945</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L123">
+        <f>SUM($K$4:K123)</f>
+        <v>58620</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A124" s="5">
         <v>121</v>
       </c>
@@ -5519,10 +5903,10 @@
       </c>
       <c r="C124" s="5">
         <f>SUM(D$4:D124)</f>
-        <v>5081755</v>
+        <v>3370140</v>
       </c>
       <c r="D124" s="5">
-        <v>177950</v>
+        <v>164715</v>
       </c>
       <c r="E124" s="5">
         <v>3</v>
@@ -5530,18 +5914,21 @@
       <c r="F124" s="5">
         <v>100</v>
       </c>
-      <c r="I124" t="s">
-        <v>251</v>
-      </c>
-      <c r="J124">
+      <c r="G124" s="5">
+        <v>121</v>
+      </c>
+      <c r="J124" t="s">
+        <v>153</v>
+      </c>
+      <c r="K124">
         <v>880</v>
       </c>
-      <c r="K124">
-        <f>SUM($J$4:J124)</f>
-        <v>52825</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L124">
+        <f>SUM($K$4:K124)</f>
+        <v>59500</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A125" s="5">
         <v>122</v>
       </c>
@@ -5550,10 +5937,10 @@
       </c>
       <c r="C125" s="5">
         <f>SUM(D$4:D125)</f>
-        <v>5275880</v>
+        <v>3549825</v>
       </c>
       <c r="D125" s="5">
-        <v>194125</v>
+        <v>179685</v>
       </c>
       <c r="E125" s="5">
         <v>3</v>
@@ -5561,18 +5948,21 @@
       <c r="F125" s="5">
         <v>100</v>
       </c>
-      <c r="I125" t="s">
-        <v>252</v>
-      </c>
-      <c r="J125">
+      <c r="G125" s="5">
+        <v>122</v>
+      </c>
+      <c r="J125" t="s">
+        <v>154</v>
+      </c>
+      <c r="K125">
         <v>880</v>
       </c>
-      <c r="K125">
-        <f>SUM($J$4:J125)</f>
-        <v>53705</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L125">
+        <f>SUM($K$4:K125)</f>
+        <v>60380</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A126" s="5">
         <v>123</v>
       </c>
@@ -5581,10 +5971,10 @@
       </c>
       <c r="C126" s="5">
         <f>SUM(D$4:D126)</f>
-        <v>5486185</v>
+        <v>3744485</v>
       </c>
       <c r="D126" s="5">
-        <v>210305</v>
+        <v>194660</v>
       </c>
       <c r="E126" s="5">
         <v>3</v>
@@ -5592,18 +5982,21 @@
       <c r="F126" s="5">
         <v>100</v>
       </c>
-      <c r="I126" t="s">
-        <v>253</v>
-      </c>
-      <c r="J126">
+      <c r="G126" s="5">
+        <v>123</v>
+      </c>
+      <c r="J126" t="s">
+        <v>155</v>
+      </c>
+      <c r="K126">
         <v>880</v>
       </c>
-      <c r="K126">
-        <f>SUM($J$4:J126)</f>
-        <v>54585</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L126">
+        <f>SUM($K$4:K126)</f>
+        <v>61260</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A127" s="5">
         <v>124</v>
       </c>
@@ -5612,10 +6005,10 @@
       </c>
       <c r="C127" s="5">
         <f>SUM(D$4:D127)</f>
-        <v>5712665</v>
+        <v>3954120</v>
       </c>
       <c r="D127" s="5">
-        <v>226480</v>
+        <v>209635</v>
       </c>
       <c r="E127" s="5">
         <v>3</v>
@@ -5623,18 +6016,21 @@
       <c r="F127" s="5">
         <v>100</v>
       </c>
-      <c r="I127" t="s">
-        <v>254</v>
-      </c>
-      <c r="J127">
+      <c r="G127" s="5">
+        <v>124</v>
+      </c>
+      <c r="J127" t="s">
+        <v>156</v>
+      </c>
+      <c r="K127">
         <v>880</v>
       </c>
-      <c r="K127">
-        <f>SUM($J$4:J127)</f>
-        <v>55465</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L127">
+        <f>SUM($K$4:K127)</f>
+        <v>62140</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A128" s="5">
         <v>125</v>
       </c>
@@ -5643,10 +6039,10 @@
       </c>
       <c r="C128" s="5">
         <f>SUM(D$4:D128)</f>
-        <v>5955325</v>
+        <v>4178730</v>
       </c>
       <c r="D128" s="5">
-        <v>242660</v>
+        <v>224610</v>
       </c>
       <c r="E128" s="5">
         <v>3</v>
@@ -5654,18 +6050,21 @@
       <c r="F128" s="5">
         <v>100</v>
       </c>
-      <c r="I128" t="s">
-        <v>255</v>
-      </c>
-      <c r="J128">
+      <c r="G128" s="5">
+        <v>125</v>
+      </c>
+      <c r="J128" t="s">
+        <v>157</v>
+      </c>
+      <c r="K128">
         <v>880</v>
       </c>
-      <c r="K128">
-        <f>SUM($J$4:J128)</f>
-        <v>56345</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L128">
+        <f>SUM($K$4:K128)</f>
+        <v>63020</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A129" s="5">
         <v>126</v>
       </c>
@@ -5674,10 +6073,10 @@
       </c>
       <c r="C129" s="5">
         <f>SUM(D$4:D129)</f>
-        <v>6214160</v>
+        <v>4418315</v>
       </c>
       <c r="D129" s="5">
-        <v>258835</v>
+        <v>239585</v>
       </c>
       <c r="E129" s="5">
         <v>3</v>
@@ -5685,18 +6084,21 @@
       <c r="F129" s="5">
         <v>100</v>
       </c>
-      <c r="I129" t="s">
-        <v>256</v>
-      </c>
-      <c r="J129">
+      <c r="G129" s="5">
+        <v>126</v>
+      </c>
+      <c r="J129" t="s">
+        <v>158</v>
+      </c>
+      <c r="K129">
         <v>880</v>
       </c>
-      <c r="K129">
-        <f>SUM($J$4:J129)</f>
-        <v>57225</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L129">
+        <f>SUM($K$4:K129)</f>
+        <v>63900</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A130" s="5">
         <v>127</v>
       </c>
@@ -5705,10 +6107,10 @@
       </c>
       <c r="C130" s="5">
         <f>SUM(D$4:D130)</f>
-        <v>6489175</v>
+        <v>4672870</v>
       </c>
       <c r="D130" s="5">
-        <v>275015</v>
+        <v>254555</v>
       </c>
       <c r="E130" s="5">
         <v>3</v>
@@ -5716,18 +6118,21 @@
       <c r="F130" s="5">
         <v>100</v>
       </c>
-      <c r="I130" t="s">
-        <v>257</v>
-      </c>
-      <c r="J130">
+      <c r="G130" s="5">
+        <v>127</v>
+      </c>
+      <c r="J130" t="s">
+        <v>159</v>
+      </c>
+      <c r="K130">
         <v>1060</v>
       </c>
-      <c r="K130">
-        <f>SUM($J$4:J130)</f>
-        <v>58285</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L130">
+        <f>SUM($K$4:K130)</f>
+        <v>64960</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A131" s="5">
         <v>128</v>
       </c>
@@ -5736,10 +6141,10 @@
       </c>
       <c r="C131" s="5">
         <f>SUM(D$4:D131)</f>
-        <v>6780365</v>
+        <v>4942400</v>
       </c>
       <c r="D131" s="5">
-        <v>291190</v>
+        <v>269530</v>
       </c>
       <c r="E131" s="5">
         <v>3</v>
@@ -5747,18 +6152,21 @@
       <c r="F131" s="5">
         <v>100</v>
       </c>
-      <c r="I131" t="s">
-        <v>258</v>
-      </c>
-      <c r="J131">
+      <c r="G131" s="5">
+        <v>128</v>
+      </c>
+      <c r="J131" t="s">
+        <v>160</v>
+      </c>
+      <c r="K131">
         <v>1060</v>
       </c>
-      <c r="K131">
-        <f>SUM($J$4:J131)</f>
-        <v>59345</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L131">
+        <f>SUM($K$4:K131)</f>
+        <v>66020</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A132" s="5">
         <v>129</v>
       </c>
@@ -5767,10 +6175,10 @@
       </c>
       <c r="C132" s="5">
         <f>SUM(D$4:D132)</f>
-        <v>7103910</v>
+        <v>5241880</v>
       </c>
       <c r="D132" s="5">
-        <v>323545</v>
+        <v>299480</v>
       </c>
       <c r="E132" s="5">
         <v>3</v>
@@ -5778,18 +6186,21 @@
       <c r="F132" s="5">
         <v>100</v>
       </c>
-      <c r="I132" t="s">
-        <v>259</v>
-      </c>
-      <c r="J132">
+      <c r="G132" s="5">
+        <v>129</v>
+      </c>
+      <c r="J132" t="s">
+        <v>161</v>
+      </c>
+      <c r="K132">
         <v>1060</v>
       </c>
-      <c r="K132">
-        <f>SUM($J$4:J132)</f>
-        <v>60405</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L132">
+        <f>SUM($K$4:K132)</f>
+        <v>67080</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A133" s="5">
         <v>130</v>
       </c>
@@ -5798,10 +6209,10 @@
       </c>
       <c r="C133" s="5">
         <f>SUM(D$4:D133)</f>
-        <v>7378840</v>
+        <v>5490670</v>
       </c>
       <c r="D133" s="5">
-        <v>274930</v>
+        <v>248790</v>
       </c>
       <c r="E133" s="5">
         <v>3</v>
@@ -5809,18 +6220,21 @@
       <c r="F133" s="5">
         <v>100</v>
       </c>
-      <c r="I133" t="s">
-        <v>260</v>
-      </c>
-      <c r="J133">
+      <c r="G133" s="5">
+        <v>130</v>
+      </c>
+      <c r="J133" t="s">
+        <v>162</v>
+      </c>
+      <c r="K133">
         <v>1060</v>
       </c>
-      <c r="K133">
-        <f>SUM($J$4:J133)</f>
-        <v>61465</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L133">
+        <f>SUM($K$4:K133)</f>
+        <v>68140</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A134" s="5">
         <v>131</v>
       </c>
@@ -5829,10 +6243,10 @@
       </c>
       <c r="C134" s="5">
         <f>SUM(D$4:D134)</f>
-        <v>7681260</v>
+        <v>5764340</v>
       </c>
       <c r="D134" s="5">
-        <v>302420</v>
+        <v>273670</v>
       </c>
       <c r="E134" s="5">
         <v>3</v>
@@ -5840,18 +6254,21 @@
       <c r="F134" s="5">
         <v>100</v>
       </c>
-      <c r="I134" t="s">
-        <v>261</v>
-      </c>
-      <c r="J134">
+      <c r="G134" s="5">
+        <v>131</v>
+      </c>
+      <c r="J134" t="s">
+        <v>163</v>
+      </c>
+      <c r="K134">
         <v>1060</v>
       </c>
-      <c r="K134">
-        <f>SUM($J$4:J134)</f>
-        <v>62525</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L134">
+        <f>SUM($K$4:K134)</f>
+        <v>69200</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A135" s="5">
         <v>132</v>
       </c>
@@ -5860,10 +6277,10 @@
       </c>
       <c r="C135" s="5">
         <f>SUM(D$4:D135)</f>
-        <v>8011175</v>
+        <v>6062890</v>
       </c>
       <c r="D135" s="5">
-        <v>329915</v>
+        <v>298550</v>
       </c>
       <c r="E135" s="5">
         <v>3</v>
@@ -5871,18 +6288,21 @@
       <c r="F135" s="5">
         <v>100</v>
       </c>
-      <c r="I135" t="s">
-        <v>262</v>
-      </c>
-      <c r="J135">
+      <c r="G135" s="5">
+        <v>132</v>
+      </c>
+      <c r="J135" t="s">
+        <v>164</v>
+      </c>
+      <c r="K135">
         <v>1060</v>
       </c>
-      <c r="K135">
-        <f>SUM($J$4:J135)</f>
-        <v>63585</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L135">
+        <f>SUM($K$4:K135)</f>
+        <v>70260</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A136" s="5">
         <v>133</v>
       </c>
@@ -5891,10 +6311,10 @@
       </c>
       <c r="C136" s="5">
         <f>SUM(D$4:D136)</f>
-        <v>8368585</v>
+        <v>6386320</v>
       </c>
       <c r="D136" s="5">
-        <v>357410</v>
+        <v>323430</v>
       </c>
       <c r="E136" s="5">
         <v>3</v>
@@ -5902,18 +6322,21 @@
       <c r="F136" s="5">
         <v>100</v>
       </c>
-      <c r="I136" t="s">
-        <v>263</v>
-      </c>
-      <c r="J136">
+      <c r="G136" s="5">
+        <v>133</v>
+      </c>
+      <c r="J136" t="s">
+        <v>165</v>
+      </c>
+      <c r="K136">
         <v>1060</v>
       </c>
-      <c r="K136">
-        <f>SUM($J$4:J136)</f>
-        <v>64645</v>
-      </c>
-    </row>
-    <row r="137" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L136">
+        <f>SUM($K$4:K136)</f>
+        <v>71320</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A137" s="5">
         <v>134</v>
       </c>
@@ -5922,10 +6345,10 @@
       </c>
       <c r="C137" s="5">
         <f>SUM(D$4:D137)</f>
-        <v>8753485</v>
+        <v>6734630</v>
       </c>
       <c r="D137" s="5">
-        <v>384900</v>
+        <v>348310</v>
       </c>
       <c r="E137" s="5">
         <v>3</v>
@@ -5933,18 +6356,21 @@
       <c r="F137" s="5">
         <v>100</v>
       </c>
-      <c r="I137" t="s">
-        <v>264</v>
-      </c>
-      <c r="J137">
+      <c r="G137" s="5">
+        <v>134</v>
+      </c>
+      <c r="J137" t="s">
+        <v>166</v>
+      </c>
+      <c r="K137">
         <v>1060</v>
       </c>
-      <c r="K137">
-        <f>SUM($J$4:J137)</f>
-        <v>65705</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L137">
+        <f>SUM($K$4:K137)</f>
+        <v>72380</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A138" s="5">
         <v>135</v>
       </c>
@@ -5953,10 +6379,10 @@
       </c>
       <c r="C138" s="5">
         <f>SUM(D$4:D138)</f>
-        <v>9165880</v>
+        <v>7107820</v>
       </c>
       <c r="D138" s="5">
-        <v>412395</v>
+        <v>373190</v>
       </c>
       <c r="E138" s="5">
         <v>3</v>
@@ -5964,18 +6390,21 @@
       <c r="F138" s="5">
         <v>100</v>
       </c>
-      <c r="I138" t="s">
-        <v>265</v>
-      </c>
-      <c r="J138">
+      <c r="G138" s="5">
+        <v>135</v>
+      </c>
+      <c r="J138" t="s">
+        <v>167</v>
+      </c>
+      <c r="K138">
         <v>1060</v>
       </c>
-      <c r="K138">
-        <f>SUM($J$4:J138)</f>
-        <v>66765</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L138">
+        <f>SUM($K$4:K138)</f>
+        <v>73440</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A139" s="5">
         <v>136</v>
       </c>
@@ -5984,10 +6413,10 @@
       </c>
       <c r="C139" s="5">
         <f>SUM(D$4:D139)</f>
-        <v>9605770</v>
+        <v>7505890</v>
       </c>
       <c r="D139" s="5">
-        <v>439890</v>
+        <v>398070</v>
       </c>
       <c r="E139" s="5">
         <v>3</v>
@@ -5995,18 +6424,21 @@
       <c r="F139" s="5">
         <v>100</v>
       </c>
-      <c r="I139" t="s">
-        <v>266</v>
-      </c>
-      <c r="J139">
+      <c r="G139" s="5">
+        <v>136</v>
+      </c>
+      <c r="J139" t="s">
+        <v>168</v>
+      </c>
+      <c r="K139">
         <v>1060</v>
       </c>
-      <c r="K139">
-        <f>SUM($J$4:J139)</f>
-        <v>67825</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L139">
+        <f>SUM($K$4:K139)</f>
+        <v>74500</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A140" s="5">
         <v>137</v>
       </c>
@@ -6015,10 +6447,10 @@
       </c>
       <c r="C140" s="5">
         <f>SUM(D$4:D140)</f>
-        <v>10073150</v>
+        <v>7928840</v>
       </c>
       <c r="D140" s="5">
-        <v>467380</v>
+        <v>422950</v>
       </c>
       <c r="E140" s="5">
         <v>3</v>
@@ -6026,18 +6458,21 @@
       <c r="F140" s="5">
         <v>100</v>
       </c>
-      <c r="I140" t="s">
-        <v>267</v>
-      </c>
-      <c r="J140">
+      <c r="G140" s="5">
+        <v>137</v>
+      </c>
+      <c r="J140" t="s">
+        <v>169</v>
+      </c>
+      <c r="K140">
         <v>1060</v>
       </c>
-      <c r="K140">
-        <f>SUM($J$4:J140)</f>
-        <v>68885</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L140">
+        <f>SUM($K$4:K140)</f>
+        <v>75560</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A141" s="5">
         <v>138</v>
       </c>
@@ -6046,10 +6481,10 @@
       </c>
       <c r="C141" s="5">
         <f>SUM(D$4:D141)</f>
-        <v>10568025</v>
+        <v>8376670</v>
       </c>
       <c r="D141" s="5">
-        <v>494875</v>
+        <v>447830</v>
       </c>
       <c r="E141" s="5">
         <v>3</v>
@@ -6057,18 +6492,21 @@
       <c r="F141" s="5">
         <v>100</v>
       </c>
-      <c r="I141" t="s">
-        <v>268</v>
-      </c>
-      <c r="J141">
+      <c r="G141" s="5">
+        <v>138</v>
+      </c>
+      <c r="J141" t="s">
+        <v>170</v>
+      </c>
+      <c r="K141">
         <v>1060</v>
       </c>
-      <c r="K141">
-        <f>SUM($J$4:J141)</f>
-        <v>69945</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L141">
+        <f>SUM($K$4:K141)</f>
+        <v>76620</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A142" s="5">
         <v>139</v>
       </c>
@@ -6077,10 +6515,10 @@
       </c>
       <c r="C142" s="5">
         <f>SUM(D$4:D142)</f>
-        <v>11117885</v>
+        <v>8874255</v>
       </c>
       <c r="D142" s="5">
-        <v>549860</v>
+        <v>497585</v>
       </c>
       <c r="E142" s="5">
         <v>3</v>
@@ -6088,18 +6526,21 @@
       <c r="F142" s="5">
         <v>100</v>
       </c>
-      <c r="I142" t="s">
-        <v>269</v>
-      </c>
-      <c r="J142">
+      <c r="G142" s="5">
+        <v>139</v>
+      </c>
+      <c r="J142" t="s">
+        <v>171</v>
+      </c>
+      <c r="K142">
         <v>1060</v>
       </c>
-      <c r="K142">
-        <f>SUM($J$4:J142)</f>
-        <v>71005</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L142">
+        <f>SUM($K$4:K142)</f>
+        <v>77680</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A143" s="5">
         <v>140</v>
       </c>
@@ -6108,10 +6549,10 @@
       </c>
       <c r="C143" s="5">
         <f>SUM(D$4:D143)</f>
-        <v>11618740</v>
+        <v>9339355</v>
       </c>
       <c r="D143" s="5">
-        <v>500855</v>
+        <v>465100</v>
       </c>
       <c r="E143" s="5">
         <v>3</v>
@@ -6119,18 +6560,21 @@
       <c r="F143" s="5">
         <v>100</v>
       </c>
-      <c r="I143" t="s">
-        <v>270</v>
-      </c>
-      <c r="J143">
+      <c r="G143" s="5">
+        <v>140</v>
+      </c>
+      <c r="J143" t="s">
+        <v>172</v>
+      </c>
+      <c r="K143">
         <v>1060</v>
       </c>
-      <c r="K143">
-        <f>SUM($J$4:J143)</f>
-        <v>72065</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L143">
+        <f>SUM($K$4:K143)</f>
+        <v>78740</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A144" s="5">
         <v>141</v>
       </c>
@@ -6139,10 +6583,10 @@
       </c>
       <c r="C144" s="5">
         <f>SUM(D$4:D144)</f>
-        <v>12169680</v>
+        <v>9850965</v>
       </c>
       <c r="D144" s="5">
-        <v>550940</v>
+        <v>511610</v>
       </c>
       <c r="E144" s="5">
         <v>3</v>
@@ -6150,18 +6594,21 @@
       <c r="F144" s="5">
         <v>100</v>
       </c>
-      <c r="I144" t="s">
-        <v>271</v>
-      </c>
-      <c r="J144">
+      <c r="G144" s="5">
+        <v>141</v>
+      </c>
+      <c r="J144" t="s">
+        <v>173</v>
+      </c>
+      <c r="K144">
         <v>1060</v>
       </c>
-      <c r="K144">
-        <f>SUM($J$4:J144)</f>
-        <v>73125</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L144">
+        <f>SUM($K$4:K144)</f>
+        <v>79800</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A145" s="5">
         <v>142</v>
       </c>
@@ -6170,10 +6617,10 @@
       </c>
       <c r="C145" s="5">
         <f>SUM(D$4:D145)</f>
-        <v>12770705</v>
+        <v>10409085</v>
       </c>
       <c r="D145" s="5">
-        <v>601025</v>
+        <v>558120</v>
       </c>
       <c r="E145" s="5">
         <v>3</v>
@@ -6181,8 +6628,11 @@
       <c r="F145" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="146" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G145" s="5">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A146" s="5">
         <v>143</v>
       </c>
@@ -6191,10 +6641,10 @@
       </c>
       <c r="C146" s="5">
         <f>SUM(D$4:D146)</f>
-        <v>13421815</v>
+        <v>11013715</v>
       </c>
       <c r="D146" s="5">
-        <v>651110</v>
+        <v>604630</v>
       </c>
       <c r="E146" s="5">
         <v>3</v>
@@ -6202,8 +6652,11 @@
       <c r="F146" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="147" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G146" s="5">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A147" s="5">
         <v>144</v>
       </c>
@@ -6212,10 +6665,10 @@
       </c>
       <c r="C147" s="5">
         <f>SUM(D$4:D147)</f>
-        <v>14123010</v>
+        <v>11664855</v>
       </c>
       <c r="D147" s="5">
-        <v>701195</v>
+        <v>651140</v>
       </c>
       <c r="E147" s="5">
         <v>3</v>
@@ -6223,8 +6676,11 @@
       <c r="F147" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="148" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G147" s="5">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A148" s="5">
         <v>145</v>
       </c>
@@ -6233,10 +6689,10 @@
       </c>
       <c r="C148" s="5">
         <f>SUM(D$4:D148)</f>
-        <v>14874290</v>
+        <v>12362505</v>
       </c>
       <c r="D148" s="5">
-        <v>751280</v>
+        <v>697650</v>
       </c>
       <c r="E148" s="5">
         <v>3</v>
@@ -6244,8 +6700,11 @@
       <c r="F148" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="149" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G148" s="5">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A149" s="5">
         <v>146</v>
       </c>
@@ -6254,10 +6713,10 @@
       </c>
       <c r="C149" s="5">
         <f>SUM(D$4:D149)</f>
-        <v>15675655</v>
+        <v>13106665</v>
       </c>
       <c r="D149" s="5">
-        <v>801365</v>
+        <v>744160</v>
       </c>
       <c r="E149" s="5">
         <v>3</v>
@@ -6265,8 +6724,11 @@
       <c r="F149" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="150" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G149" s="5">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A150" s="5">
         <v>147</v>
       </c>
@@ -6275,10 +6737,10 @@
       </c>
       <c r="C150" s="5">
         <f>SUM(D$4:D150)</f>
-        <v>16527110</v>
+        <v>13897335</v>
       </c>
       <c r="D150" s="5">
-        <v>851455</v>
+        <v>790670</v>
       </c>
       <c r="E150" s="5">
         <v>3</v>
@@ -6286,8 +6748,11 @@
       <c r="F150" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="151" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G150" s="5">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A151" s="5">
         <v>148</v>
       </c>
@@ -6296,10 +6761,10 @@
       </c>
       <c r="C151" s="5">
         <f>SUM(D$4:D151)</f>
-        <v>17428650</v>
+        <v>14734515</v>
       </c>
       <c r="D151" s="5">
-        <v>901540</v>
+        <v>837180</v>
       </c>
       <c r="E151" s="5">
         <v>3</v>
@@ -6307,8 +6772,11 @@
       <c r="F151" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="152" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G151" s="5">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A152" s="5">
         <v>149</v>
       </c>
@@ -6317,10 +6785,10 @@
       </c>
       <c r="C152" s="5">
         <f>SUM(D$4:D152)</f>
-        <v>18430360</v>
+        <v>15664720</v>
       </c>
       <c r="D152" s="5">
-        <v>1001710</v>
+        <v>930205</v>
       </c>
       <c r="E152" s="5">
         <v>3</v>
@@ -6328,8 +6796,11 @@
       <c r="F152" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="153" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G152" s="5">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A153" s="5">
         <v>150</v>
       </c>
@@ -6338,29 +6809,35 @@
       </c>
       <c r="C153" s="5">
         <f>SUM(D$4:D153)</f>
-        <v>19532240</v>
+        <v>16687950</v>
       </c>
       <c r="D153" s="5">
-        <v>1101880</v>
+        <v>1023230</v>
       </c>
       <c r="E153" s="5">
         <v>3</v>
       </c>
       <c r="F153" s="5">
         <v>100</v>
+      </c>
+      <c r="G153" s="5">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -6381,80 +6858,80 @@
         <v>10</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>29</v>
+        <v>174</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>30</v>
+        <v>175</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>31</v>
+        <v>176</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>32</v>
+        <v>177</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>33</v>
+        <v>178</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>34</v>
+        <v>179</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>35</v>
+        <v>180</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>36</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>182</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>38</v>
+        <v>183</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>39</v>
+        <v>184</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>38</v>
+        <v>183</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>39</v>
+        <v>184</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>38</v>
+        <v>183</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>39</v>
+        <v>184</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>39</v>
+        <v>184</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>40</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="45" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>41</v>
+        <v>186</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>42</v>
+        <v>187</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4" t="s">
-        <v>42</v>
+        <v>187</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4" t="s">
-        <v>42</v>
+        <v>187</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4" t="s">
-        <v>43</v>
+        <v>188</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>44</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6462,19 +6939,19 @@
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>45</v>
+        <v>190</v>
       </c>
       <c r="C4" s="5">
         <v>0</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>46</v>
+        <v>191</v>
       </c>
       <c r="E4" s="5">
         <v>1</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>47</v>
+        <v>192</v>
       </c>
       <c r="G4" s="5">
         <v>1</v>
@@ -6483,7 +6960,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>48</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6491,13 +6968,13 @@
         <v>2</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>46</v>
+        <v>191</v>
       </c>
       <c r="C5" s="5">
         <v>1</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>47</v>
+        <v>192</v>
       </c>
       <c r="E5" s="5">
         <v>1</v>
@@ -6508,7 +6985,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>49</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6516,13 +6993,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>46</v>
+        <v>191</v>
       </c>
       <c r="C6" s="5">
         <v>1</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>47</v>
+        <v>192</v>
       </c>
       <c r="E6" s="5">
         <v>1</v>
@@ -6533,7 +7010,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>50</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6541,13 +7018,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>46</v>
+        <v>191</v>
       </c>
       <c r="C7" s="5">
         <v>1</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>47</v>
+        <v>192</v>
       </c>
       <c r="E7" s="5">
         <v>1</v>
@@ -6558,7 +7035,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>51</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6566,13 +7043,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>46</v>
+        <v>191</v>
       </c>
       <c r="C8" s="5">
         <v>1</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>47</v>
+        <v>192</v>
       </c>
       <c r="E8" s="5">
         <v>1</v>
@@ -6583,7 +7060,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>52</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6591,13 +7068,13 @@
         <v>6</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>46</v>
+        <v>191</v>
       </c>
       <c r="C9" s="5">
         <v>1</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>47</v>
+        <v>192</v>
       </c>
       <c r="E9" s="5">
         <v>1</v>
@@ -6608,7 +7085,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>53</v>
+        <v>198</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6616,7 +7093,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>54</v>
+        <v>199</v>
       </c>
       <c r="C10" s="5">
         <v>1</v>
@@ -6629,7 +7106,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>55</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6637,13 +7114,13 @@
         <v>8</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>46</v>
+        <v>191</v>
       </c>
       <c r="C11" s="5">
         <v>1</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>47</v>
+        <v>192</v>
       </c>
       <c r="E11" s="5">
         <v>1</v>
@@ -6654,7 +7131,7 @@
         <v>1</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>56</v>
+        <v>201</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6662,19 +7139,19 @@
         <v>9</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>46</v>
+        <v>191</v>
       </c>
       <c r="C12" s="5">
         <v>1</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>47</v>
+        <v>192</v>
       </c>
       <c r="E12" s="5">
         <v>1</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>57</v>
+        <v>202</v>
       </c>
       <c r="G12" s="5">
         <v>0</v>
@@ -6683,7 +7160,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>58</v>
+        <v>203</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6691,19 +7168,19 @@
         <v>10</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>46</v>
+        <v>191</v>
       </c>
       <c r="C13" s="5">
         <v>1</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>47</v>
+        <v>192</v>
       </c>
       <c r="E13" s="5">
         <v>1</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>54</v>
+        <v>199</v>
       </c>
       <c r="G13" s="5">
         <v>1</v>
@@ -6712,7 +7189,7 @@
         <v>1</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>59</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6720,13 +7197,13 @@
         <v>11</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>46</v>
+        <v>191</v>
       </c>
       <c r="C14" s="5">
         <v>1</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>47</v>
+        <v>192</v>
       </c>
       <c r="E14" s="5">
         <v>1</v>
@@ -6737,7 +7214,7 @@
         <v>1</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>60</v>
+        <v>205</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6745,19 +7222,19 @@
         <v>12</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>46</v>
+        <v>191</v>
       </c>
       <c r="C15" s="5">
         <v>1</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>47</v>
+        <v>192</v>
       </c>
       <c r="E15" s="5">
         <v>1</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>61</v>
+        <v>206</v>
       </c>
       <c r="G15" s="5">
         <v>0</v>
@@ -6766,7 +7243,7 @@
         <v>1</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>62</v>
+        <v>207</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6774,19 +7251,19 @@
         <v>13</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>46</v>
+        <v>191</v>
       </c>
       <c r="C16" s="5">
         <v>1</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>47</v>
+        <v>192</v>
       </c>
       <c r="E16" s="5">
         <v>1</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>54</v>
+        <v>199</v>
       </c>
       <c r="G16" s="5">
         <v>1</v>
@@ -6795,7 +7272,7 @@
         <v>1</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>63</v>
+        <v>208</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6803,13 +7280,13 @@
         <v>14</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>46</v>
+        <v>191</v>
       </c>
       <c r="C17" s="5">
         <v>1</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>47</v>
+        <v>192</v>
       </c>
       <c r="E17" s="5">
         <v>1</v>
@@ -6820,7 +7297,7 @@
         <v>1</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>64</v>
+        <v>209</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6828,13 +7305,13 @@
         <v>15</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>46</v>
+        <v>191</v>
       </c>
       <c r="C18" s="5">
         <v>1</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>47</v>
+        <v>192</v>
       </c>
       <c r="E18" s="5">
         <v>1</v>
@@ -6845,7 +7322,7 @@
         <v>1</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>65</v>
+        <v>210</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6853,13 +7330,13 @@
         <v>16</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>47</v>
+        <v>192</v>
       </c>
       <c r="C19" s="5">
         <v>1</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>66</v>
+        <v>211</v>
       </c>
       <c r="E19" s="5">
         <v>1</v>
@@ -6870,7 +7347,7 @@
         <v>1</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>67</v>
+        <v>212</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6878,13 +7355,13 @@
         <v>17</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>47</v>
+        <v>192</v>
       </c>
       <c r="C20" s="5">
         <v>1</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>68</v>
+        <v>213</v>
       </c>
       <c r="E20" s="5">
         <v>1</v>
@@ -6895,7 +7372,7 @@
         <v>1</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>69</v>
+        <v>214</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6903,13 +7380,13 @@
         <v>18</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>47</v>
+        <v>192</v>
       </c>
       <c r="C21" s="5">
         <v>1</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>66</v>
+        <v>211</v>
       </c>
       <c r="E21" s="5">
         <v>1</v>
@@ -6920,7 +7397,7 @@
         <v>1</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>70</v>
+        <v>215</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6928,13 +7405,13 @@
         <v>19</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>47</v>
+        <v>192</v>
       </c>
       <c r="C22" s="5">
         <v>1</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>68</v>
+        <v>213</v>
       </c>
       <c r="E22" s="5">
         <v>1</v>
@@ -6945,7 +7422,7 @@
         <v>1</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>71</v>
+        <v>216</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6953,19 +7430,19 @@
         <v>20</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>46</v>
+        <v>191</v>
       </c>
       <c r="C23" s="5">
         <v>1</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>47</v>
+        <v>192</v>
       </c>
       <c r="E23" s="5">
         <v>1</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>72</v>
+        <v>217</v>
       </c>
       <c r="G23" s="5">
         <v>1</v>
@@ -6974,7 +7451,7 @@
         <v>1</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>73</v>
+        <v>218</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6982,19 +7459,19 @@
         <v>21</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>46</v>
+        <v>191</v>
       </c>
       <c r="C24" s="5">
         <v>1</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>47</v>
+        <v>192</v>
       </c>
       <c r="E24" s="5">
         <v>1</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>74</v>
+        <v>219</v>
       </c>
       <c r="G24" s="5">
         <v>0</v>
@@ -7003,7 +7480,7 @@
         <v>1</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>75</v>
+        <v>220</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -7011,7 +7488,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>47</v>
+        <v>192</v>
       </c>
       <c r="C25" s="5">
         <v>1</v>
@@ -7024,7 +7501,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>76</v>
+        <v>221</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -7032,19 +7509,19 @@
         <v>23</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>46</v>
+        <v>191</v>
       </c>
       <c r="C26" s="5">
         <v>1</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>47</v>
+        <v>192</v>
       </c>
       <c r="E26" s="5">
         <v>1</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>77</v>
+        <v>222</v>
       </c>
       <c r="G26" s="5">
         <v>1</v>
@@ -7053,7 +7530,7 @@
         <v>1</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>78</v>
+        <v>223</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -7061,7 +7538,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>47</v>
+        <v>192</v>
       </c>
       <c r="C27" s="5">
         <v>1</v>
@@ -7074,7 +7551,7 @@
         <v>0</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>79</v>
+        <v>224</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -7082,13 +7559,13 @@
         <v>25</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>46</v>
+        <v>191</v>
       </c>
       <c r="C28" s="5">
         <v>1</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>47</v>
+        <v>192</v>
       </c>
       <c r="E28" s="5">
         <v>1</v>
@@ -7099,7 +7576,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>80</v>
+        <v>225</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -7107,7 +7584,7 @@
         <v>26</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>46</v>
+        <v>191</v>
       </c>
       <c r="C29" s="5">
         <v>1</v>
@@ -7120,7 +7597,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>81</v>
+        <v>226</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -7128,7 +7605,7 @@
         <v>27</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>82</v>
+        <v>227</v>
       </c>
       <c r="C30" s="5">
         <v>0</v>
@@ -7141,7 +7618,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>83</v>
+        <v>228</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -7149,7 +7626,7 @@
         <v>28</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>82</v>
+        <v>227</v>
       </c>
       <c r="C31" s="5">
         <v>0</v>
@@ -7162,7 +7639,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>84</v>
+        <v>229</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -7170,7 +7647,7 @@
         <v>29</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>74</v>
+        <v>219</v>
       </c>
       <c r="C32" s="5">
         <v>0</v>
@@ -7183,7 +7660,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>85</v>
+        <v>230</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -7191,20 +7668,105 @@
         <v>30</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>74</v>
+        <v>219</v>
       </c>
       <c r="C33" s="5">
         <v>0</v>
       </c>
       <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5">
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7">
         <v>0</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>86</v>
+        <v>231</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A34" s="5">
+        <v>31</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C34" s="5">
+        <v>1</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="E34" s="7">
+        <v>1</v>
+      </c>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7">
+        <v>0</v>
+      </c>
+      <c r="I34" s="8" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A35" s="5">
+        <v>32</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C35" s="9">
+        <v>1</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="E35" s="7">
+        <v>1</v>
+      </c>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9">
+        <v>0</v>
+      </c>
+      <c r="I35" s="9" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A36" s="5">
+        <v>33</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C36" s="10">
+        <v>0</v>
+      </c>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9">
+        <v>0</v>
+      </c>
+      <c r="I36" s="9" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>34</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="C37" s="1">
+        <v>1</v>
+      </c>
+      <c r="I37" s="14" t="s">
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -7215,7 +7777,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7234,45 +7796,45 @@
         <v>10</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>87</v>
+        <v>237</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>88</v>
+        <v>238</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>89</v>
+        <v>239</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>90</v>
+        <v>240</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>91</v>
+        <v>241</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>92</v>
+        <v>242</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>93</v>
+        <v>243</v>
       </c>
       <c r="D2" t="s">
-        <v>93</v>
+        <v>243</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.2">
@@ -7280,22 +7842,22 @@
         <v>10</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>94</v>
+        <v>244</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>95</v>
+        <v>245</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>96</v>
+        <v>246</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>97</v>
+        <v>247</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>98</v>
+        <v>248</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>99</v>
+        <v>249</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="280.5" x14ac:dyDescent="0.2">
@@ -7306,10 +7868,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>101</v>
+        <v>251</v>
       </c>
       <c r="E4" s="5">
         <v>1</v>
@@ -7329,10 +7891,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>102</v>
+        <v>252</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>103</v>
+        <v>253</v>
       </c>
       <c r="E5" s="5">
         <v>1</v>
@@ -7351,11 +7913,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7376,95 +7938,95 @@
         <v>10</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>104</v>
+        <v>254</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>105</v>
+        <v>255</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>106</v>
+        <v>256</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>107</v>
+        <v>257</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>108</v>
+        <v>258</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>109</v>
+        <v>259</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>110</v>
+        <v>260</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>111</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>112</v>
+        <v>262</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>113</v>
+        <v>263</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>112</v>
+        <v>262</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>112</v>
+        <v>262</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>125</v>
+        <v>264</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>126</v>
+        <v>264</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>127</v>
+        <v>264</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>125</v>
+        <v>264</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>128</v>
+        <v>264</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>127</v>
+        <v>264</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>41</v>
+        <v>186</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>114</v>
+        <v>265</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>115</v>
+        <v>266</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>116</v>
+        <v>267</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>117</v>
+        <v>268</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>118</v>
+        <v>269</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>119</v>
+        <v>270</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>120</v>
+        <v>271</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>121</v>
+        <v>272</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>122</v>
+        <v>273</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
@@ -7472,7 +8034,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>123</v>
+        <v>274</v>
       </c>
       <c r="C4" s="5">
         <v>1</v>
@@ -7481,15 +8043,17 @@
         <v>100</v>
       </c>
       <c r="E4" s="5"/>
-      <c r="F4" s="8"/>
+      <c r="F4" s="5"/>
       <c r="G4" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
+        <v>275</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="J4" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>

--- a/Excel/镇魂街/basicInfo.基础信息.xlsx
+++ b/Excel/镇魂街/basicInfo.基础信息.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WORK\CeHua\trunk\ZHJStaffSpace\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28245" windowHeight="12465" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -13,20 +18,12 @@
     <sheet name="公告" sheetId="29" r:id="rId4"/>
     <sheet name="User表" sheetId="30" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="145621"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="138">
   <si>
     <t>sheet名</t>
   </si>
@@ -97,6 +94,9 @@
     <t>ExpCur</t>
   </si>
   <si>
+    <t>HangUpTeamNum</t>
+  </si>
+  <si>
     <t>Speed</t>
   </si>
   <si>
@@ -113,6 +113,9 @@
   </si>
   <si>
     <t>经验</t>
+  </si>
+  <si>
+    <t>挂机阵位数量</t>
   </si>
   <si>
     <t>先手值</t>
@@ -295,6 +298,9 @@
     <t>杂货店-灵石商城</t>
   </si>
   <si>
+    <t>杂货店-卡牌商城</t>
+  </si>
+  <si>
     <t>杂货店-杂货铺</t>
   </si>
   <si>
@@ -328,6 +334,15 @@
     <t>熔炼打造界面</t>
   </si>
   <si>
+    <t>国战主界面-资源栏</t>
+  </si>
+  <si>
+    <t>试炼宝库</t>
+  </si>
+  <si>
+    <t>传记副本</t>
+  </si>
+  <si>
     <t>Type</t>
   </si>
   <si>
@@ -365,6 +380,16 @@
   </si>
   <si>
     <t>是否开放</t>
+  </si>
+  <si>
+    <t>开测公告</t>
+  </si>
+  <si>
+    <t>亲爱的玩家：
+       这是我们的首个版本，可能存在很多问题和不足，非常感谢参加本次限号删档测试。
+       我们希望通过此次测试收集广大玩家的建议，以便对游戏系统和技术进行验证和优化，精益求精，希望正式上线版本可以提供最优质的游戏体验。有关游戏的建议，欢迎加入官方QQ群联系管理员反馈。
+       官方QQ群：724613365
+       话不多说，这条街交给你了！</t>
   </si>
   <si>
     <t>Icon</t>
@@ -480,43 +505,11 @@
   <si>
     <t>常服夏铃</t>
   </si>
-  <si>
-    <t>钻石</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>国战主界面-资源栏</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>杂货店-卡牌商城</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>开测公告</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>亲爱的玩家：
-       这是我们的首个版本，可能存在很多问题和不足，非常感谢参加本次限号删档测试。
-       我们希望通过此次测试收集广大玩家的建议，以便对游戏系统和技术进行验证和优化，精益求精，希望正式上线版本可以提供最优质的游戏体验。有关游戏的建议，欢迎加入官方QQ群联系管理员反馈。
-       官方QQ群：724613365
-       话不多说，这条街交给你了！</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>HangUpTeamNum</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>挂机阵位数量</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -560,6 +553,14 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -567,14 +568,6 @@
     <font>
       <strike/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
@@ -612,6 +605,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFF6600"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -624,24 +629,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF6600"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14975432599871821"/>
+        <fgColor theme="0" tint="-0.14972380748924222"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -665,6 +658,32 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -678,7 +697,7 @@
   </borders>
   <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
@@ -690,25 +709,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" applyFont="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyFont="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2">
@@ -724,10 +743,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="13" applyFill="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="4" quotePrefix="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="4" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="4" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="10" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -747,6 +769,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="4" quotePrefix="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -1222,8 +1251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L203"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A138" workbookViewId="0">
+      <selection activeCell="F145" sqref="F145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1236,4889 +1265,4137 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="F1" s="9" t="s">
+      <c r="E1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="F1" s="10" t="s">
         <v>24</v>
       </c>
+      <c r="G1" s="10" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="11" t="s">
+      <c r="A2" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>25</v>
+      <c r="B2" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="12" t="s">
+      <c r="B3" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="F3" s="12" t="s">
+      <c r="C3" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="D3" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="7"/>
+      <c r="F3" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="18"/>
     </row>
     <row r="4" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="13">
-        <v>1</v>
-      </c>
-      <c r="B4" s="13">
-        <v>1</v>
-      </c>
-      <c r="C4" s="13">
+      <c r="A4" s="14">
+        <v>1</v>
+      </c>
+      <c r="B4" s="14">
+        <v>1</v>
+      </c>
+      <c r="C4" s="14">
         <f>SUM(D$4:D4)</f>
         <v>65</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="14">
         <v>65</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="15">
         <v>3</v>
       </c>
-      <c r="F4" s="13">
-        <v>100</v>
-      </c>
-      <c r="G4" s="13">
+      <c r="F4" s="14">
+        <v>100</v>
+      </c>
+      <c r="G4" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="13">
+      <c r="A5" s="14">
         <v>2</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="14">
         <v>2</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="14">
         <f>SUM(D$4:D5)</f>
         <v>140</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="14">
         <v>75</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="15">
         <v>3</v>
       </c>
-      <c r="F5" s="13">
-        <v>100</v>
-      </c>
-      <c r="G5" s="13">
+      <c r="F5" s="14">
+        <v>100</v>
+      </c>
+      <c r="G5" s="14">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="13">
+      <c r="A6" s="14">
         <v>3</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="14">
         <v>3</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="14">
         <f>SUM(D$4:D6)</f>
         <v>240</v>
       </c>
-      <c r="D6" s="13">
-        <v>100</v>
-      </c>
-      <c r="E6" s="14">
+      <c r="D6" s="14">
+        <v>100</v>
+      </c>
+      <c r="E6" s="15">
         <v>3</v>
       </c>
-      <c r="F6" s="13">
-        <v>100</v>
-      </c>
-      <c r="G6" s="13">
+      <c r="F6" s="14">
+        <v>100</v>
+      </c>
+      <c r="G6" s="14">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="13">
+      <c r="A7" s="14">
         <v>4</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="14">
         <v>4</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="14">
         <f>SUM(D$4:D7)</f>
         <v>370</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="14">
         <v>130</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="15">
         <v>3</v>
       </c>
-      <c r="F7" s="13">
-        <v>100</v>
-      </c>
-      <c r="G7" s="13">
+      <c r="F7" s="14">
+        <v>100</v>
+      </c>
+      <c r="G7" s="14">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="13">
+      <c r="A8" s="14">
         <v>5</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="14">
         <v>5</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="14">
         <f>SUM(D$4:D8)</f>
         <v>510</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="14">
         <v>140</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="15">
         <v>3</v>
       </c>
-      <c r="F8" s="13">
-        <v>100</v>
-      </c>
-      <c r="G8" s="13">
+      <c r="F8" s="14">
+        <v>100</v>
+      </c>
+      <c r="G8" s="14">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="13">
+      <c r="A9" s="14">
         <v>6</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="14">
         <v>6</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="14">
         <f>SUM(D$4:D9)</f>
         <v>685</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="14">
         <v>175</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="15">
         <v>3</v>
       </c>
-      <c r="F9" s="13">
-        <v>100</v>
-      </c>
-      <c r="G9" s="13">
+      <c r="F9" s="14">
+        <v>100</v>
+      </c>
+      <c r="G9" s="14">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="13">
+      <c r="A10" s="14">
         <v>7</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="14">
         <v>7</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="14">
         <f>SUM(D$4:D10)</f>
         <v>945</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="14">
         <v>260</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="15">
         <v>3</v>
       </c>
-      <c r="F10" s="13">
-        <v>100</v>
-      </c>
-      <c r="G10" s="13">
+      <c r="F10" s="14">
+        <v>100</v>
+      </c>
+      <c r="G10" s="14">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="13">
+      <c r="A11" s="14">
         <v>8</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11" s="14">
         <v>8</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="14">
         <f>SUM(D$4:D11)</f>
         <v>1205</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="16">
         <v>260</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="15">
         <v>3</v>
       </c>
-      <c r="F11" s="13">
-        <v>100</v>
-      </c>
-      <c r="G11" s="13">
+      <c r="F11" s="14">
+        <v>100</v>
+      </c>
+      <c r="G11" s="14">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="13">
+      <c r="A12" s="14">
         <v>9</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="14">
         <v>9</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="14">
         <f>SUM(D$4:D12)</f>
         <v>1515</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="14">
         <v>310</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="15">
         <v>3</v>
       </c>
-      <c r="F12" s="13">
-        <v>100</v>
-      </c>
-      <c r="G12" s="13">
+      <c r="F12" s="14">
+        <v>100</v>
+      </c>
+      <c r="G12" s="14">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="13">
+      <c r="A13" s="14">
         <v>10</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13" s="14">
         <v>10</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="14">
         <f>SUM(D$4:D13)</f>
         <v>1870</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="16">
         <v>355</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="15">
         <v>3</v>
       </c>
-      <c r="F13" s="13">
-        <v>100</v>
-      </c>
-      <c r="G13" s="13">
+      <c r="F13" s="14">
+        <v>100</v>
+      </c>
+      <c r="G13" s="14">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="13">
+      <c r="A14" s="14">
         <v>11</v>
       </c>
-      <c r="B14" s="13">
+      <c r="B14" s="14">
         <v>11</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14" s="14">
         <f>SUM(D$4:D14)</f>
         <v>2250</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="14">
         <v>380</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14" s="15">
         <v>3</v>
       </c>
-      <c r="F14" s="13">
-        <v>100</v>
-      </c>
-      <c r="G14" s="13">
+      <c r="F14" s="14">
+        <v>100</v>
+      </c>
+      <c r="G14" s="14">
         <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="13">
+      <c r="A15" s="14">
         <v>12</v>
       </c>
-      <c r="B15" s="13">
+      <c r="B15" s="14">
         <v>12</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15" s="14">
         <f>SUM(D$4:D15)</f>
         <v>2640</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="16">
         <v>390</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="15">
         <v>3</v>
       </c>
-      <c r="F15" s="13">
-        <v>100</v>
-      </c>
-      <c r="G15" s="13">
+      <c r="F15" s="14">
+        <v>100</v>
+      </c>
+      <c r="G15" s="14">
         <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="13">
+      <c r="A16" s="14">
         <v>13</v>
       </c>
-      <c r="B16" s="13">
+      <c r="B16" s="14">
         <v>13</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="14">
         <f>SUM(D$4:D16)</f>
         <v>3060</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="14">
         <v>420</v>
       </c>
-      <c r="E16" s="14">
+      <c r="E16" s="15">
         <v>3</v>
       </c>
-      <c r="F16" s="13">
-        <v>100</v>
-      </c>
-      <c r="G16" s="13">
+      <c r="F16" s="14">
+        <v>100</v>
+      </c>
+      <c r="G16" s="14">
         <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="13">
+      <c r="A17" s="14">
         <v>14</v>
       </c>
-      <c r="B17" s="13">
+      <c r="B17" s="14">
         <v>14</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C17" s="14">
         <f>SUM(D$4:D17)</f>
         <v>3480</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="14">
         <v>420</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17" s="15">
         <v>3</v>
       </c>
-      <c r="F17" s="13">
-        <v>100</v>
-      </c>
-      <c r="G17" s="13">
+      <c r="F17" s="14">
+        <v>100</v>
+      </c>
+      <c r="G17" s="14">
         <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="13">
+      <c r="A18" s="14">
         <v>15</v>
       </c>
-      <c r="B18" s="13">
+      <c r="B18" s="14">
         <v>15</v>
       </c>
-      <c r="C18" s="13">
+      <c r="C18" s="14">
         <f>SUM(D$4:D18)</f>
         <v>3920</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D18" s="14">
         <v>440</v>
       </c>
-      <c r="E18" s="14">
+      <c r="E18" s="15">
         <v>3</v>
       </c>
-      <c r="F18" s="13">
-        <v>100</v>
-      </c>
-      <c r="G18" s="13">
+      <c r="F18" s="14">
+        <v>100</v>
+      </c>
+      <c r="G18" s="14">
         <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="13">
+      <c r="A19" s="14">
         <v>16</v>
       </c>
-      <c r="B19" s="13">
+      <c r="B19" s="14">
         <v>16</v>
       </c>
-      <c r="C19" s="13">
+      <c r="C19" s="14">
         <f>SUM(D$4:D19)</f>
         <v>4400</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D19" s="16">
         <v>480</v>
       </c>
-      <c r="E19" s="14">
+      <c r="E19" s="15">
         <v>3</v>
       </c>
-      <c r="F19" s="13">
-        <v>100</v>
-      </c>
-      <c r="G19" s="13">
+      <c r="F19" s="14">
+        <v>100</v>
+      </c>
+      <c r="G19" s="14">
         <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="13">
+      <c r="A20" s="14">
         <v>17</v>
       </c>
-      <c r="B20" s="13">
+      <c r="B20" s="14">
         <v>17</v>
       </c>
-      <c r="C20" s="13">
+      <c r="C20" s="14">
         <f>SUM(D$4:D20)</f>
         <v>4910</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D20" s="14">
         <v>510</v>
       </c>
-      <c r="E20" s="14">
+      <c r="E20" s="15">
         <v>3</v>
       </c>
-      <c r="F20" s="13">
-        <v>100</v>
-      </c>
-      <c r="G20" s="13">
+      <c r="F20" s="14">
+        <v>100</v>
+      </c>
+      <c r="G20" s="14">
         <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="13">
+      <c r="A21" s="14">
         <v>18</v>
       </c>
-      <c r="B21" s="13">
+      <c r="B21" s="14">
         <v>18</v>
       </c>
-      <c r="C21" s="13">
+      <c r="C21" s="14">
         <f>SUM(D$4:D21)</f>
         <v>5430</v>
       </c>
-      <c r="D21" s="15">
+      <c r="D21" s="16">
         <v>520</v>
       </c>
-      <c r="E21" s="14">
+      <c r="E21" s="15">
         <v>3</v>
       </c>
-      <c r="F21" s="13">
-        <v>100</v>
-      </c>
-      <c r="G21" s="13">
+      <c r="F21" s="14">
+        <v>100</v>
+      </c>
+      <c r="G21" s="14">
         <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="13">
+      <c r="A22" s="14">
         <v>19</v>
       </c>
-      <c r="B22" s="13">
+      <c r="B22" s="14">
         <v>19</v>
       </c>
-      <c r="C22" s="13">
+      <c r="C22" s="14">
         <f>SUM(D$4:D22)</f>
         <v>6095</v>
       </c>
-      <c r="D22" s="15">
+      <c r="D22" s="16">
         <v>665</v>
       </c>
-      <c r="E22" s="14">
+      <c r="E22" s="15">
         <v>3</v>
       </c>
-      <c r="F22" s="13">
-        <v>100</v>
-      </c>
-      <c r="G22" s="13">
+      <c r="F22" s="14">
+        <v>100</v>
+      </c>
+      <c r="G22" s="14">
         <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="13">
+      <c r="A23" s="14">
         <v>20</v>
       </c>
-      <c r="B23" s="13">
+      <c r="B23" s="14">
         <v>20</v>
       </c>
-      <c r="C23" s="13">
+      <c r="C23" s="14">
         <f>SUM(D$4:D23)</f>
         <v>6695</v>
       </c>
-      <c r="D23" s="13">
+      <c r="D23" s="14">
         <v>600</v>
       </c>
-      <c r="E23" s="14">
+      <c r="E23" s="15">
         <v>4</v>
       </c>
-      <c r="F23" s="13">
-        <v>100</v>
-      </c>
-      <c r="G23" s="13">
+      <c r="F23" s="14">
+        <v>100</v>
+      </c>
+      <c r="G23" s="14">
         <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="13">
+      <c r="A24" s="14">
         <v>21</v>
       </c>
-      <c r="B24" s="13">
+      <c r="B24" s="14">
         <v>21</v>
       </c>
-      <c r="C24" s="13">
+      <c r="C24" s="14">
         <f>SUM(D$4:D24)</f>
         <v>7300</v>
       </c>
-      <c r="D24" s="13">
+      <c r="D24" s="14">
         <v>605</v>
       </c>
-      <c r="E24" s="14">
+      <c r="E24" s="15">
         <v>4</v>
       </c>
-      <c r="F24" s="13">
-        <v>100</v>
-      </c>
-      <c r="G24" s="13">
+      <c r="F24" s="14">
+        <v>100</v>
+      </c>
+      <c r="G24" s="14">
         <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="13">
+      <c r="A25" s="14">
         <v>22</v>
       </c>
-      <c r="B25" s="13">
+      <c r="B25" s="14">
         <v>22</v>
       </c>
-      <c r="C25" s="13">
+      <c r="C25" s="14">
         <f>SUM(D$4:D25)</f>
         <v>7995</v>
       </c>
-      <c r="D25" s="13">
+      <c r="D25" s="14">
         <v>695</v>
       </c>
-      <c r="E25" s="14">
+      <c r="E25" s="15">
         <v>4</v>
       </c>
-      <c r="F25" s="13">
-        <v>100</v>
-      </c>
-      <c r="G25" s="13">
+      <c r="F25" s="14">
+        <v>100</v>
+      </c>
+      <c r="G25" s="14">
         <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="13">
+      <c r="A26" s="14">
         <v>23</v>
       </c>
-      <c r="B26" s="13">
+      <c r="B26" s="14">
         <v>23</v>
       </c>
-      <c r="C26" s="13">
+      <c r="C26" s="14">
         <f>SUM(D$4:D26)</f>
         <v>8755</v>
       </c>
-      <c r="D26" s="15">
+      <c r="D26" s="16">
         <v>760</v>
       </c>
-      <c r="E26" s="14">
+      <c r="E26" s="15">
         <v>4</v>
       </c>
-      <c r="F26" s="13">
-        <v>100</v>
-      </c>
-      <c r="G26" s="13">
+      <c r="F26" s="14">
+        <v>100</v>
+      </c>
+      <c r="G26" s="14">
         <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="13">
+      <c r="A27" s="14">
         <v>24</v>
       </c>
-      <c r="B27" s="13">
+      <c r="B27" s="14">
         <v>24</v>
       </c>
-      <c r="C27" s="13">
+      <c r="C27" s="14">
         <f>SUM(D$4:D27)</f>
         <v>9545</v>
       </c>
-      <c r="D27" s="13">
+      <c r="D27" s="14">
         <v>790</v>
       </c>
-      <c r="E27" s="14">
+      <c r="E27" s="15">
         <v>4</v>
       </c>
-      <c r="F27" s="13">
-        <v>100</v>
-      </c>
-      <c r="G27" s="13">
+      <c r="F27" s="14">
+        <v>100</v>
+      </c>
+      <c r="G27" s="14">
         <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="13">
+      <c r="A28" s="14">
         <v>25</v>
       </c>
-      <c r="B28" s="13">
+      <c r="B28" s="14">
         <v>25</v>
       </c>
-      <c r="C28" s="13">
+      <c r="C28" s="14">
         <f>SUM(D$4:D28)</f>
         <v>10425</v>
       </c>
-      <c r="D28" s="13">
+      <c r="D28" s="14">
         <v>880</v>
       </c>
-      <c r="E28" s="14">
+      <c r="E28" s="15">
         <v>4</v>
       </c>
-      <c r="F28" s="13">
-        <v>100</v>
-      </c>
-      <c r="G28" s="13">
+      <c r="F28" s="14">
+        <v>100</v>
+      </c>
+      <c r="G28" s="14">
         <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="13">
+      <c r="A29" s="14">
         <v>26</v>
       </c>
-      <c r="B29" s="13">
+      <c r="B29" s="14">
         <v>26</v>
       </c>
-      <c r="C29" s="13">
+      <c r="C29" s="14">
         <f>SUM(D$4:D29)</f>
         <v>11400</v>
       </c>
-      <c r="D29" s="13">
+      <c r="D29" s="14">
         <v>975</v>
       </c>
-      <c r="E29" s="14">
+      <c r="E29" s="15">
         <v>4</v>
       </c>
-      <c r="F29" s="13">
-        <v>100</v>
-      </c>
-      <c r="G29" s="13">
+      <c r="F29" s="14">
+        <v>100</v>
+      </c>
+      <c r="G29" s="14">
         <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A30" s="13">
+      <c r="A30" s="14">
         <v>27</v>
       </c>
-      <c r="B30" s="13">
+      <c r="B30" s="14">
         <v>27</v>
       </c>
-      <c r="C30" s="13">
+      <c r="C30" s="14">
         <f>SUM(D$4:D30)</f>
         <v>12465</v>
       </c>
-      <c r="D30" s="13">
+      <c r="D30" s="14">
         <v>1065</v>
       </c>
-      <c r="E30" s="14">
+      <c r="E30" s="15">
         <v>4</v>
       </c>
-      <c r="F30" s="13">
-        <v>100</v>
-      </c>
-      <c r="G30" s="13">
+      <c r="F30" s="14">
+        <v>100</v>
+      </c>
+      <c r="G30" s="14">
         <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A31" s="13">
+      <c r="A31" s="14">
         <v>28</v>
       </c>
-      <c r="B31" s="13">
+      <c r="B31" s="14">
         <v>28</v>
       </c>
-      <c r="C31" s="13">
+      <c r="C31" s="14">
         <f>SUM(D$4:D31)</f>
         <v>13625</v>
       </c>
-      <c r="D31" s="13">
+      <c r="D31" s="14">
         <v>1160</v>
       </c>
-      <c r="E31" s="14">
+      <c r="E31" s="15">
         <v>4</v>
       </c>
-      <c r="F31" s="13">
-        <v>100</v>
-      </c>
-      <c r="G31" s="13">
+      <c r="F31" s="14">
+        <v>100</v>
+      </c>
+      <c r="G31" s="14">
         <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="13">
+      <c r="A32" s="14">
         <v>29</v>
       </c>
-      <c r="B32" s="13">
+      <c r="B32" s="14">
         <v>29</v>
       </c>
-      <c r="C32" s="13">
+      <c r="C32" s="14">
         <f>SUM(D$4:D32)</f>
         <v>15465</v>
       </c>
-      <c r="D32" s="13">
+      <c r="D32" s="14">
         <v>1840</v>
       </c>
-      <c r="E32" s="14">
+      <c r="E32" s="15">
         <v>4</v>
       </c>
-      <c r="F32" s="13">
-        <v>100</v>
-      </c>
-      <c r="G32" s="13">
+      <c r="F32" s="14">
+        <v>100</v>
+      </c>
+      <c r="G32" s="14">
         <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="13">
+      <c r="A33" s="14">
         <v>30</v>
       </c>
-      <c r="B33" s="13">
+      <c r="B33" s="14">
         <v>30</v>
       </c>
-      <c r="C33" s="13">
+      <c r="C33" s="14">
         <f>SUM(D$4:D33)</f>
         <v>17560</v>
       </c>
-      <c r="D33" s="13">
+      <c r="D33" s="14">
         <v>2095</v>
       </c>
-      <c r="E33" s="14">
+      <c r="E33" s="15">
         <v>5</v>
       </c>
-      <c r="F33" s="13">
-        <v>100</v>
-      </c>
-      <c r="G33" s="13">
+      <c r="F33" s="14">
+        <v>100</v>
+      </c>
+      <c r="G33" s="14">
         <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A34" s="13">
+      <c r="A34" s="14">
         <v>31</v>
       </c>
-      <c r="B34" s="13">
+      <c r="B34" s="14">
         <v>31</v>
       </c>
-      <c r="C34" s="13">
+      <c r="C34" s="14">
         <f>SUM(D$4:D34)</f>
         <v>20075</v>
       </c>
-      <c r="D34" s="13">
+      <c r="D34" s="14">
         <v>2515</v>
       </c>
-      <c r="E34" s="14">
+      <c r="E34" s="15">
         <v>5</v>
       </c>
-      <c r="F34" s="13">
-        <v>100</v>
-      </c>
-      <c r="G34" s="13">
+      <c r="F34" s="14">
+        <v>100</v>
+      </c>
+      <c r="G34" s="14">
         <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A35" s="13">
+      <c r="A35" s="14">
         <v>32</v>
       </c>
-      <c r="B35" s="13">
+      <c r="B35" s="14">
         <v>32</v>
       </c>
-      <c r="C35" s="13">
+      <c r="C35" s="14">
         <f>SUM(D$4:D35)</f>
         <v>23010</v>
       </c>
-      <c r="D35" s="13">
+      <c r="D35" s="14">
         <v>2935</v>
       </c>
-      <c r="E35" s="14">
+      <c r="E35" s="15">
         <v>5</v>
       </c>
-      <c r="F35" s="13">
-        <v>100</v>
-      </c>
-      <c r="G35" s="13">
+      <c r="F35" s="14">
+        <v>100</v>
+      </c>
+      <c r="G35" s="14">
         <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A36" s="13">
+      <c r="A36" s="14">
         <v>33</v>
       </c>
-      <c r="B36" s="13">
+      <c r="B36" s="14">
         <v>33</v>
       </c>
-      <c r="C36" s="13">
+      <c r="C36" s="14">
         <f>SUM(D$4:D36)</f>
         <v>26365</v>
       </c>
-      <c r="D36" s="13">
+      <c r="D36" s="14">
         <v>3355</v>
       </c>
-      <c r="E36" s="14">
+      <c r="E36" s="15">
         <v>5</v>
       </c>
-      <c r="F36" s="13">
-        <v>100</v>
-      </c>
-      <c r="G36" s="13">
+      <c r="F36" s="14">
+        <v>100</v>
+      </c>
+      <c r="G36" s="14">
         <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A37" s="13">
+      <c r="A37" s="14">
         <v>34</v>
       </c>
-      <c r="B37" s="13">
+      <c r="B37" s="14">
         <v>34</v>
       </c>
-      <c r="C37" s="13">
+      <c r="C37" s="14">
         <f>SUM(D$4:D37)</f>
         <v>30135</v>
       </c>
-      <c r="D37" s="13">
+      <c r="D37" s="14">
         <v>3770</v>
       </c>
-      <c r="E37" s="14">
+      <c r="E37" s="15">
         <v>5</v>
       </c>
-      <c r="F37" s="13">
-        <v>100</v>
-      </c>
-      <c r="G37" s="13">
+      <c r="F37" s="14">
+        <v>100</v>
+      </c>
+      <c r="G37" s="14">
         <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A38" s="13">
+      <c r="A38" s="14">
         <v>35</v>
       </c>
-      <c r="B38" s="13">
+      <c r="B38" s="14">
         <v>35</v>
       </c>
-      <c r="C38" s="13">
+      <c r="C38" s="14">
         <f>SUM(D$4:D38)</f>
         <v>34325</v>
       </c>
-      <c r="D38" s="13">
+      <c r="D38" s="14">
         <v>4190</v>
       </c>
-      <c r="E38" s="14">
+      <c r="E38" s="15">
         <v>5</v>
       </c>
-      <c r="F38" s="13">
-        <v>100</v>
-      </c>
-      <c r="G38" s="13">
+      <c r="F38" s="14">
+        <v>100</v>
+      </c>
+      <c r="G38" s="14">
         <v>35</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A39" s="13">
+      <c r="A39" s="14">
         <v>36</v>
       </c>
-      <c r="B39" s="13">
+      <c r="B39" s="14">
         <v>36</v>
       </c>
-      <c r="C39" s="13">
+      <c r="C39" s="14">
         <f>SUM(D$4:D39)</f>
         <v>38935</v>
       </c>
-      <c r="D39" s="13">
+      <c r="D39" s="14">
         <v>4610</v>
       </c>
-      <c r="E39" s="14">
+      <c r="E39" s="15">
         <v>5</v>
       </c>
-      <c r="F39" s="13">
-        <v>100</v>
-      </c>
-      <c r="G39" s="13">
+      <c r="F39" s="14">
+        <v>100</v>
+      </c>
+      <c r="G39" s="14">
         <v>36</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A40" s="13">
+      <c r="A40" s="14">
         <v>37</v>
       </c>
-      <c r="B40" s="13">
+      <c r="B40" s="14">
         <v>37</v>
       </c>
-      <c r="C40" s="13">
+      <c r="C40" s="14">
         <f>SUM(D$4:D40)</f>
         <v>43965</v>
       </c>
-      <c r="D40" s="13">
+      <c r="D40" s="14">
         <v>5030</v>
       </c>
-      <c r="E40" s="14">
+      <c r="E40" s="15">
         <v>5</v>
       </c>
-      <c r="F40" s="13">
-        <v>100</v>
-      </c>
-      <c r="G40" s="13">
+      <c r="F40" s="14">
+        <v>100</v>
+      </c>
+      <c r="G40" s="14">
         <v>37</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A41" s="13">
+      <c r="A41" s="14">
         <v>38</v>
       </c>
-      <c r="B41" s="13">
+      <c r="B41" s="14">
         <v>38</v>
       </c>
-      <c r="C41" s="13">
+      <c r="C41" s="14">
         <f>SUM(D$4:D41)</f>
         <v>49415</v>
       </c>
-      <c r="D41" s="13">
+      <c r="D41" s="14">
         <v>5450</v>
       </c>
-      <c r="E41" s="14">
+      <c r="E41" s="15">
         <v>5</v>
       </c>
-      <c r="F41" s="13">
-        <v>100</v>
-      </c>
-      <c r="G41" s="13">
+      <c r="F41" s="14">
+        <v>100</v>
+      </c>
+      <c r="G41" s="14">
         <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A42" s="13">
+      <c r="A42" s="14">
         <v>39</v>
       </c>
-      <c r="B42" s="13">
+      <c r="B42" s="14">
         <v>39</v>
       </c>
-      <c r="C42" s="13">
+      <c r="C42" s="14">
         <f>SUM(D$4:D42)</f>
         <v>55705</v>
       </c>
-      <c r="D42" s="13">
+      <c r="D42" s="14">
         <v>6290</v>
       </c>
-      <c r="E42" s="14">
+      <c r="E42" s="15">
         <v>5</v>
       </c>
-      <c r="F42" s="13">
-        <v>100</v>
-      </c>
-      <c r="G42" s="13">
+      <c r="F42" s="14">
+        <v>100</v>
+      </c>
+      <c r="G42" s="14">
         <v>39</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A43" s="13">
+      <c r="A43" s="14">
         <v>40</v>
       </c>
-      <c r="B43" s="13">
+      <c r="B43" s="14">
         <v>40</v>
       </c>
-      <c r="C43" s="13">
+      <c r="C43" s="14">
         <f>SUM(D$4:D43)</f>
         <v>59475</v>
       </c>
-      <c r="D43" s="13">
+      <c r="D43" s="14">
         <v>3770</v>
       </c>
-      <c r="E43" s="16">
+      <c r="E43" s="17">
         <v>6</v>
       </c>
-      <c r="F43" s="13">
-        <v>100</v>
-      </c>
-      <c r="G43" s="13">
+      <c r="F43" s="14">
+        <v>100</v>
+      </c>
+      <c r="G43" s="14">
         <v>40</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A44" s="13">
+      <c r="A44" s="14">
         <v>41</v>
       </c>
-      <c r="B44" s="13">
+      <c r="B44" s="14">
         <v>41</v>
       </c>
-      <c r="C44" s="13">
+      <c r="C44" s="14">
         <f>SUM(D$4:D44)</f>
         <v>63620</v>
       </c>
-      <c r="D44" s="13">
+      <c r="D44" s="14">
         <v>4145</v>
       </c>
-      <c r="E44" s="16">
+      <c r="E44" s="17">
         <v>6</v>
       </c>
-      <c r="F44" s="13">
-        <v>100</v>
-      </c>
-      <c r="G44" s="13">
+      <c r="F44" s="14">
+        <v>100</v>
+      </c>
+      <c r="G44" s="14">
         <v>41</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A45" s="13">
+      <c r="A45" s="14">
         <v>42</v>
       </c>
-      <c r="B45" s="13">
+      <c r="B45" s="14">
         <v>42</v>
       </c>
-      <c r="C45" s="13">
+      <c r="C45" s="14">
         <f>SUM(D$4:D45)</f>
         <v>68145</v>
       </c>
-      <c r="D45" s="13">
+      <c r="D45" s="14">
         <v>4525</v>
       </c>
-      <c r="E45" s="16">
+      <c r="E45" s="17">
         <v>6</v>
       </c>
-      <c r="F45" s="13">
-        <v>100</v>
-      </c>
-      <c r="G45" s="13">
+      <c r="F45" s="14">
+        <v>100</v>
+      </c>
+      <c r="G45" s="14">
         <v>42</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A46" s="13">
+      <c r="A46" s="14">
         <v>43</v>
       </c>
-      <c r="B46" s="13">
+      <c r="B46" s="14">
         <v>43</v>
       </c>
-      <c r="C46" s="13">
+      <c r="C46" s="14">
         <f>SUM(D$4:D46)</f>
         <v>73045</v>
       </c>
-      <c r="D46" s="13">
+      <c r="D46" s="14">
         <v>4900</v>
       </c>
-      <c r="E46" s="16">
+      <c r="E46" s="17">
         <v>6</v>
       </c>
-      <c r="F46" s="13">
-        <v>100</v>
-      </c>
-      <c r="G46" s="13">
+      <c r="F46" s="14">
+        <v>100</v>
+      </c>
+      <c r="G46" s="14">
         <v>43</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A47" s="13">
+      <c r="A47" s="14">
         <v>44</v>
       </c>
-      <c r="B47" s="13">
+      <c r="B47" s="14">
         <v>44</v>
       </c>
-      <c r="C47" s="13">
+      <c r="C47" s="14">
         <f>SUM(D$4:D47)</f>
         <v>78325</v>
       </c>
-      <c r="D47" s="13">
+      <c r="D47" s="14">
         <v>5280</v>
       </c>
-      <c r="E47" s="16">
+      <c r="E47" s="17">
         <v>6</v>
       </c>
-      <c r="F47" s="13">
-        <v>100</v>
-      </c>
-      <c r="G47" s="13">
+      <c r="F47" s="14">
+        <v>100</v>
+      </c>
+      <c r="G47" s="14">
         <v>44</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A48" s="13">
+      <c r="A48" s="14">
         <v>45</v>
       </c>
-      <c r="B48" s="13">
+      <c r="B48" s="14">
         <v>45</v>
       </c>
-      <c r="C48" s="13">
+      <c r="C48" s="14">
         <f>SUM(D$4:D48)</f>
         <v>83980</v>
       </c>
-      <c r="D48" s="13">
+      <c r="D48" s="14">
         <v>5655</v>
       </c>
-      <c r="E48" s="16">
+      <c r="E48" s="17">
         <v>6</v>
       </c>
-      <c r="F48" s="13">
-        <v>100</v>
-      </c>
-      <c r="G48" s="13">
+      <c r="F48" s="14">
+        <v>100</v>
+      </c>
+      <c r="G48" s="14">
         <v>45</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A49" s="13">
+      <c r="A49" s="14">
         <v>46</v>
       </c>
-      <c r="B49" s="13">
+      <c r="B49" s="14">
         <v>46</v>
       </c>
-      <c r="C49" s="13">
+      <c r="C49" s="14">
         <f>SUM(D$4:D49)</f>
         <v>90015</v>
       </c>
-      <c r="D49" s="13">
+      <c r="D49" s="14">
         <v>6035</v>
       </c>
-      <c r="E49" s="16">
+      <c r="E49" s="17">
         <v>6</v>
       </c>
-      <c r="F49" s="13">
-        <v>100</v>
-      </c>
-      <c r="G49" s="13">
+      <c r="F49" s="14">
+        <v>100</v>
+      </c>
+      <c r="G49" s="14">
         <v>46</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A50" s="13">
+      <c r="A50" s="14">
         <v>47</v>
       </c>
-      <c r="B50" s="13">
+      <c r="B50" s="14">
         <v>47</v>
       </c>
-      <c r="C50" s="13">
+      <c r="C50" s="14">
         <f>SUM(D$4:D50)</f>
         <v>96425</v>
       </c>
-      <c r="D50" s="13">
+      <c r="D50" s="14">
         <v>6410</v>
       </c>
-      <c r="E50" s="16">
+      <c r="E50" s="17">
         <v>6</v>
       </c>
-      <c r="F50" s="13">
-        <v>100</v>
-      </c>
-      <c r="G50" s="13">
+      <c r="F50" s="14">
+        <v>100</v>
+      </c>
+      <c r="G50" s="14">
         <v>47</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A51" s="13">
+      <c r="A51" s="14">
         <v>48</v>
       </c>
-      <c r="B51" s="13">
+      <c r="B51" s="14">
         <v>48</v>
       </c>
-      <c r="C51" s="13">
+      <c r="C51" s="14">
         <f>SUM(D$4:D51)</f>
         <v>103215</v>
       </c>
-      <c r="D51" s="13">
+      <c r="D51" s="14">
         <v>6790</v>
       </c>
-      <c r="E51" s="16">
+      <c r="E51" s="17">
         <v>6</v>
       </c>
-      <c r="F51" s="13">
-        <v>100</v>
-      </c>
-      <c r="G51" s="13">
+      <c r="F51" s="14">
+        <v>100</v>
+      </c>
+      <c r="G51" s="14">
         <v>48</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A52" s="13">
+      <c r="A52" s="14">
         <v>49</v>
       </c>
-      <c r="B52" s="13">
+      <c r="B52" s="14">
         <v>49</v>
       </c>
-      <c r="C52" s="13">
+      <c r="C52" s="14">
         <f>SUM(D$4:D52)</f>
         <v>110760</v>
       </c>
-      <c r="D52" s="13">
+      <c r="D52" s="14">
         <v>7545</v>
       </c>
-      <c r="E52" s="16">
+      <c r="E52" s="17">
         <v>6</v>
       </c>
-      <c r="F52" s="13">
-        <v>100</v>
-      </c>
-      <c r="G52" s="13">
+      <c r="F52" s="14">
+        <v>100</v>
+      </c>
+      <c r="G52" s="14">
         <v>49</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A53" s="13">
+      <c r="A53" s="14">
         <v>50</v>
       </c>
-      <c r="B53" s="13">
+      <c r="B53" s="14">
         <v>50</v>
       </c>
-      <c r="C53" s="13">
+      <c r="C53" s="14">
         <f>SUM(D$4:D53)</f>
         <v>116550</v>
       </c>
-      <c r="D53" s="13">
+      <c r="D53" s="14">
         <v>5790</v>
       </c>
-      <c r="E53" s="16">
+      <c r="E53" s="17">
         <v>7</v>
       </c>
-      <c r="F53" s="13">
-        <v>100</v>
-      </c>
-      <c r="G53" s="13">
+      <c r="F53" s="14">
+        <v>100</v>
+      </c>
+      <c r="G53" s="14">
         <v>50</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A54" s="13">
+      <c r="A54" s="14">
         <v>51</v>
       </c>
-      <c r="B54" s="13">
+      <c r="B54" s="14">
         <v>51</v>
       </c>
-      <c r="C54" s="13">
+      <c r="C54" s="14">
         <f>SUM(D$4:D54)</f>
         <v>122920</v>
       </c>
-      <c r="D54" s="13">
+      <c r="D54" s="14">
         <v>6370</v>
       </c>
-      <c r="E54" s="16">
+      <c r="E54" s="17">
         <v>7</v>
       </c>
-      <c r="F54" s="13">
-        <v>100</v>
-      </c>
-      <c r="G54" s="13">
+      <c r="F54" s="14">
+        <v>100</v>
+      </c>
+      <c r="G54" s="14">
         <v>51</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A55" s="13">
+      <c r="A55" s="14">
         <v>52</v>
       </c>
-      <c r="B55" s="13">
+      <c r="B55" s="14">
         <v>52</v>
       </c>
-      <c r="C55" s="13">
+      <c r="C55" s="14">
         <f>SUM(D$4:D55)</f>
         <v>129870</v>
       </c>
-      <c r="D55" s="13">
+      <c r="D55" s="14">
         <v>6950</v>
       </c>
-      <c r="E55" s="16">
+      <c r="E55" s="17">
         <v>7</v>
       </c>
-      <c r="F55" s="13">
-        <v>100</v>
-      </c>
-      <c r="G55" s="13">
+      <c r="F55" s="14">
+        <v>100</v>
+      </c>
+      <c r="G55" s="14">
         <v>52</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A56" s="13">
+      <c r="A56" s="14">
         <v>53</v>
       </c>
-      <c r="B56" s="13">
+      <c r="B56" s="14">
         <v>53</v>
       </c>
-      <c r="C56" s="13">
+      <c r="C56" s="14">
         <f>SUM(D$4:D56)</f>
         <v>137400</v>
       </c>
-      <c r="D56" s="13">
+      <c r="D56" s="14">
         <v>7530</v>
       </c>
-      <c r="E56" s="16">
+      <c r="E56" s="17">
         <v>7</v>
       </c>
-      <c r="F56" s="13">
-        <v>100</v>
-      </c>
-      <c r="G56" s="13">
+      <c r="F56" s="14">
+        <v>100</v>
+      </c>
+      <c r="G56" s="14">
         <v>53</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A57" s="13">
+      <c r="A57" s="14">
         <v>54</v>
       </c>
-      <c r="B57" s="13">
+      <c r="B57" s="14">
         <v>54</v>
       </c>
-      <c r="C57" s="13">
+      <c r="C57" s="14">
         <f>SUM(D$4:D57)</f>
         <v>145510</v>
       </c>
-      <c r="D57" s="13">
+      <c r="D57" s="14">
         <v>8110</v>
       </c>
-      <c r="E57" s="16">
+      <c r="E57" s="17">
         <v>7</v>
       </c>
-      <c r="F57" s="13">
-        <v>100</v>
-      </c>
-      <c r="G57" s="13">
+      <c r="F57" s="14">
+        <v>100</v>
+      </c>
+      <c r="G57" s="14">
         <v>54</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A58" s="13">
+      <c r="A58" s="14">
         <v>55</v>
       </c>
-      <c r="B58" s="13">
+      <c r="B58" s="14">
         <v>55</v>
       </c>
-      <c r="C58" s="13">
+      <c r="C58" s="14">
         <f>SUM(D$4:D58)</f>
         <v>154200</v>
       </c>
-      <c r="D58" s="13">
+      <c r="D58" s="14">
         <v>8690</v>
       </c>
-      <c r="E58" s="16">
+      <c r="E58" s="17">
         <v>7</v>
       </c>
-      <c r="F58" s="13">
-        <v>100</v>
-      </c>
-      <c r="G58" s="13">
+      <c r="F58" s="14">
+        <v>100</v>
+      </c>
+      <c r="G58" s="14">
         <v>55</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A59" s="13">
+      <c r="A59" s="14">
         <v>56</v>
       </c>
-      <c r="B59" s="13">
+      <c r="B59" s="14">
         <v>56</v>
       </c>
-      <c r="C59" s="13">
+      <c r="C59" s="14">
         <f>SUM(D$4:D59)</f>
         <v>163470</v>
       </c>
-      <c r="D59" s="13">
+      <c r="D59" s="14">
         <v>9270</v>
       </c>
-      <c r="E59" s="16">
+      <c r="E59" s="17">
         <v>7</v>
       </c>
-      <c r="F59" s="13">
-        <v>100</v>
-      </c>
-      <c r="G59" s="13">
+      <c r="F59" s="14">
+        <v>100</v>
+      </c>
+      <c r="G59" s="14">
         <v>56</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A60" s="13">
+      <c r="A60" s="14">
         <v>57</v>
       </c>
-      <c r="B60" s="13">
+      <c r="B60" s="14">
         <v>57</v>
       </c>
-      <c r="C60" s="13">
+      <c r="C60" s="14">
         <f>SUM(D$4:D60)</f>
         <v>173320</v>
       </c>
-      <c r="D60" s="13">
+      <c r="D60" s="14">
         <v>9850</v>
       </c>
-      <c r="E60" s="16">
+      <c r="E60" s="17">
         <v>7</v>
       </c>
-      <c r="F60" s="13">
-        <v>100</v>
-      </c>
-      <c r="G60" s="13">
+      <c r="F60" s="14">
+        <v>100</v>
+      </c>
+      <c r="G60" s="14">
         <v>57</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A61" s="13">
+      <c r="A61" s="14">
         <v>58</v>
       </c>
-      <c r="B61" s="13">
+      <c r="B61" s="14">
         <v>58</v>
       </c>
-      <c r="C61" s="13">
+      <c r="C61" s="14">
         <f>SUM(D$4:D61)</f>
         <v>183750</v>
       </c>
-      <c r="D61" s="13">
+      <c r="D61" s="14">
         <v>10430</v>
       </c>
-      <c r="E61" s="16">
+      <c r="E61" s="17">
         <v>7</v>
       </c>
-      <c r="F61" s="13">
-        <v>100</v>
-      </c>
-      <c r="G61" s="13">
+      <c r="F61" s="14">
+        <v>100</v>
+      </c>
+      <c r="G61" s="14">
         <v>58</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A62" s="13">
+      <c r="A62" s="14">
         <v>59</v>
       </c>
-      <c r="B62" s="13">
+      <c r="B62" s="14">
         <v>59</v>
       </c>
-      <c r="C62" s="13">
+      <c r="C62" s="14">
         <f>SUM(D$4:D62)</f>
         <v>195335</v>
       </c>
-      <c r="D62" s="13">
+      <c r="D62" s="14">
         <v>11585</v>
       </c>
-      <c r="E62" s="16">
+      <c r="E62" s="17">
         <v>7</v>
       </c>
-      <c r="F62" s="13">
-        <v>100</v>
-      </c>
-      <c r="G62" s="13">
+      <c r="F62" s="14">
+        <v>100</v>
+      </c>
+      <c r="G62" s="14">
         <v>59</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A63" s="13">
+      <c r="A63" s="14">
         <v>60</v>
       </c>
-      <c r="B63" s="13">
+      <c r="B63" s="14">
         <v>60</v>
       </c>
-      <c r="C63" s="13">
+      <c r="C63" s="14">
         <f>SUM(D$4:D63)</f>
         <v>202660</v>
       </c>
-      <c r="D63" s="13">
+      <c r="D63" s="14">
         <v>7325</v>
       </c>
-      <c r="E63" s="16">
+      <c r="E63" s="17">
         <v>8</v>
       </c>
-      <c r="F63" s="13">
-        <v>100</v>
-      </c>
-      <c r="G63" s="13">
+      <c r="F63" s="14">
+        <v>100</v>
+      </c>
+      <c r="G63" s="14">
         <v>60</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A64" s="13">
+      <c r="A64" s="14">
         <v>61</v>
       </c>
-      <c r="B64" s="13">
+      <c r="B64" s="14">
         <v>61</v>
       </c>
-      <c r="C64" s="13">
+      <c r="C64" s="14">
         <f>SUM(D$4:D64)</f>
         <v>210715</v>
       </c>
-      <c r="D64" s="13">
+      <c r="D64" s="14">
         <v>8055</v>
       </c>
-      <c r="E64" s="16">
+      <c r="E64" s="17">
         <v>8</v>
       </c>
-      <c r="F64" s="13">
-        <v>100</v>
-      </c>
-      <c r="G64" s="13">
+      <c r="F64" s="14">
+        <v>100</v>
+      </c>
+      <c r="G64" s="14">
         <v>61</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A65" s="13">
+      <c r="A65" s="14">
         <v>62</v>
       </c>
-      <c r="B65" s="13">
+      <c r="B65" s="14">
         <v>62</v>
       </c>
-      <c r="C65" s="13">
+      <c r="C65" s="14">
         <f>SUM(D$4:D65)</f>
         <v>219505</v>
       </c>
-      <c r="D65" s="13">
+      <c r="D65" s="14">
         <v>8790</v>
       </c>
-      <c r="E65" s="16">
+      <c r="E65" s="17">
         <v>8</v>
       </c>
-      <c r="F65" s="13">
-        <v>100</v>
-      </c>
-      <c r="G65" s="13">
+      <c r="F65" s="14">
+        <v>100</v>
+      </c>
+      <c r="G65" s="14">
         <v>62</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A66" s="13">
+      <c r="A66" s="14">
         <v>63</v>
       </c>
-      <c r="B66" s="13">
+      <c r="B66" s="14">
         <v>63</v>
       </c>
-      <c r="C66" s="13">
+      <c r="C66" s="14">
         <f>SUM(D$4:D66)</f>
         <v>229025</v>
       </c>
-      <c r="D66" s="13">
+      <c r="D66" s="14">
         <v>9520</v>
       </c>
-      <c r="E66" s="16">
+      <c r="E66" s="17">
         <v>8</v>
       </c>
-      <c r="F66" s="13">
-        <v>100</v>
-      </c>
-      <c r="G66" s="13">
+      <c r="F66" s="14">
+        <v>100</v>
+      </c>
+      <c r="G66" s="14">
         <v>63</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A67" s="13">
+      <c r="A67" s="14">
         <v>64</v>
       </c>
-      <c r="B67" s="13">
+      <c r="B67" s="14">
         <v>64</v>
       </c>
-      <c r="C67" s="13">
+      <c r="C67" s="14">
         <f>SUM(D$4:D67)</f>
         <v>239280</v>
       </c>
-      <c r="D67" s="13">
+      <c r="D67" s="14">
         <v>10255</v>
       </c>
-      <c r="E67" s="16">
+      <c r="E67" s="17">
         <v>8</v>
       </c>
-      <c r="F67" s="13">
-        <v>100</v>
-      </c>
-      <c r="G67" s="13">
+      <c r="F67" s="14">
+        <v>100</v>
+      </c>
+      <c r="G67" s="14">
         <v>64</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A68" s="13">
+      <c r="A68" s="14">
         <v>65</v>
       </c>
-      <c r="B68" s="13">
+      <c r="B68" s="14">
         <v>65</v>
       </c>
-      <c r="C68" s="13">
+      <c r="C68" s="14">
         <f>SUM(D$4:D68)</f>
         <v>250265</v>
       </c>
-      <c r="D68" s="13">
+      <c r="D68" s="14">
         <v>10985</v>
       </c>
-      <c r="E68" s="16">
+      <c r="E68" s="17">
         <v>8</v>
       </c>
-      <c r="F68" s="13">
-        <v>100</v>
-      </c>
-      <c r="G68" s="13">
+      <c r="F68" s="14">
+        <v>100</v>
+      </c>
+      <c r="G68" s="14">
         <v>65</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A69" s="13">
+      <c r="A69" s="14">
         <v>66</v>
       </c>
-      <c r="B69" s="13">
+      <c r="B69" s="14">
         <v>66</v>
       </c>
-      <c r="C69" s="13">
+      <c r="C69" s="14">
         <f>SUM(D$4:D69)</f>
         <v>261985</v>
       </c>
-      <c r="D69" s="13">
+      <c r="D69" s="14">
         <v>11720</v>
       </c>
-      <c r="E69" s="16">
+      <c r="E69" s="17">
         <v>8</v>
       </c>
-      <c r="F69" s="13">
-        <v>100</v>
-      </c>
-      <c r="G69" s="13">
+      <c r="F69" s="14">
+        <v>100</v>
+      </c>
+      <c r="G69" s="14">
         <v>66</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A70" s="13">
+      <c r="A70" s="14">
         <v>67</v>
       </c>
-      <c r="B70" s="13">
+      <c r="B70" s="14">
         <v>67</v>
       </c>
-      <c r="C70" s="13">
+      <c r="C70" s="14">
         <f>SUM(D$4:D70)</f>
         <v>274435</v>
       </c>
-      <c r="D70" s="13">
+      <c r="D70" s="14">
         <v>12450</v>
       </c>
-      <c r="E70" s="16">
+      <c r="E70" s="17">
         <v>8</v>
       </c>
-      <c r="F70" s="13">
-        <v>100</v>
-      </c>
-      <c r="G70" s="13">
+      <c r="F70" s="14">
+        <v>100</v>
+      </c>
+      <c r="G70" s="14">
         <v>67</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A71" s="13">
+      <c r="A71" s="14">
         <v>68</v>
       </c>
-      <c r="B71" s="13">
+      <c r="B71" s="14">
         <v>68</v>
       </c>
-      <c r="C71" s="13">
+      <c r="C71" s="14">
         <f>SUM(D$4:D71)</f>
         <v>287620</v>
       </c>
-      <c r="D71" s="13">
+      <c r="D71" s="14">
         <v>13185</v>
       </c>
-      <c r="E71" s="16">
+      <c r="E71" s="17">
         <v>8</v>
       </c>
-      <c r="F71" s="13">
-        <v>100</v>
-      </c>
-      <c r="G71" s="13">
+      <c r="F71" s="14">
+        <v>100</v>
+      </c>
+      <c r="G71" s="14">
         <v>68</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A72" s="13">
+      <c r="A72" s="14">
         <v>69</v>
       </c>
-      <c r="B72" s="13">
+      <c r="B72" s="14">
         <v>69</v>
       </c>
-      <c r="C72" s="13">
+      <c r="C72" s="14">
         <f>SUM(D$4:D72)</f>
         <v>302270</v>
       </c>
-      <c r="D72" s="13">
+      <c r="D72" s="14">
         <v>14650</v>
       </c>
-      <c r="E72" s="16">
+      <c r="E72" s="17">
         <v>8</v>
       </c>
-      <c r="F72" s="13">
-        <v>100</v>
-      </c>
-      <c r="G72" s="13">
+      <c r="F72" s="14">
+        <v>100</v>
+      </c>
+      <c r="G72" s="14">
         <v>69</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A73" s="13">
+      <c r="A73" s="14">
         <v>70</v>
       </c>
-      <c r="B73" s="13">
+      <c r="B73" s="14">
         <v>70</v>
       </c>
-      <c r="C73" s="13">
+      <c r="C73" s="14">
         <f>SUM(D$4:D73)</f>
         <v>312145</v>
       </c>
-      <c r="D73" s="13">
+      <c r="D73" s="14">
         <v>9875</v>
       </c>
-      <c r="E73" s="16">
+      <c r="E73" s="17">
         <v>9</v>
       </c>
-      <c r="F73" s="13">
-        <v>100</v>
-      </c>
-      <c r="G73" s="13">
+      <c r="F73" s="14">
+        <v>100</v>
+      </c>
+      <c r="G73" s="14">
         <v>70</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A74" s="13">
+      <c r="A74" s="14">
         <v>71</v>
       </c>
-      <c r="B74" s="13">
+      <c r="B74" s="14">
         <v>71</v>
       </c>
-      <c r="C74" s="13">
+      <c r="C74" s="14">
         <f>SUM(D$4:D74)</f>
         <v>323010</v>
       </c>
-      <c r="D74" s="13">
+      <c r="D74" s="14">
         <v>10865</v>
       </c>
-      <c r="E74" s="16">
+      <c r="E74" s="17">
         <v>9</v>
       </c>
-      <c r="F74" s="13">
-        <v>100</v>
-      </c>
-      <c r="G74" s="13">
+      <c r="F74" s="14">
+        <v>100</v>
+      </c>
+      <c r="G74" s="14">
         <v>71</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A75" s="13">
+      <c r="A75" s="14">
         <v>72</v>
       </c>
-      <c r="B75" s="13">
+      <c r="B75" s="14">
         <v>72</v>
       </c>
-      <c r="C75" s="13">
+      <c r="C75" s="14">
         <f>SUM(D$4:D75)</f>
         <v>334865</v>
       </c>
-      <c r="D75" s="13">
+      <c r="D75" s="14">
         <v>11855</v>
       </c>
-      <c r="E75" s="16">
+      <c r="E75" s="17">
         <v>9</v>
       </c>
-      <c r="F75" s="13">
-        <v>100</v>
-      </c>
-      <c r="G75" s="13">
+      <c r="F75" s="14">
+        <v>100</v>
+      </c>
+      <c r="G75" s="14">
         <v>72</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A76" s="13">
+      <c r="A76" s="14">
         <v>73</v>
       </c>
-      <c r="B76" s="13">
+      <c r="B76" s="14">
         <v>73</v>
       </c>
-      <c r="C76" s="13">
+      <c r="C76" s="14">
         <f>SUM(D$4:D76)</f>
         <v>347705</v>
       </c>
-      <c r="D76" s="13">
+      <c r="D76" s="14">
         <v>12840</v>
       </c>
-      <c r="E76" s="16">
+      <c r="E76" s="17">
         <v>9</v>
       </c>
-      <c r="F76" s="13">
-        <v>100</v>
-      </c>
-      <c r="G76" s="13">
+      <c r="F76" s="14">
+        <v>100</v>
+      </c>
+      <c r="G76" s="14">
         <v>73</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A77" s="13">
+      <c r="A77" s="14">
         <v>74</v>
       </c>
-      <c r="B77" s="13">
+      <c r="B77" s="14">
         <v>74</v>
       </c>
-      <c r="C77" s="13">
+      <c r="C77" s="14">
         <f>SUM(D$4:D77)</f>
         <v>361535</v>
       </c>
-      <c r="D77" s="13">
+      <c r="D77" s="14">
         <v>13830</v>
       </c>
-      <c r="E77" s="16">
+      <c r="E77" s="17">
         <v>9</v>
       </c>
-      <c r="F77" s="13">
-        <v>100</v>
-      </c>
-      <c r="G77" s="13">
+      <c r="F77" s="14">
+        <v>100</v>
+      </c>
+      <c r="G77" s="14">
         <v>74</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A78" s="13">
+      <c r="A78" s="14">
         <v>75</v>
       </c>
-      <c r="B78" s="13">
+      <c r="B78" s="14">
         <v>75</v>
       </c>
-      <c r="C78" s="13">
+      <c r="C78" s="14">
         <f>SUM(D$4:D78)</f>
         <v>376350</v>
       </c>
-      <c r="D78" s="13">
+      <c r="D78" s="14">
         <v>14815</v>
       </c>
-      <c r="E78" s="16">
+      <c r="E78" s="17">
         <v>9</v>
       </c>
-      <c r="F78" s="13">
-        <v>100</v>
-      </c>
-      <c r="G78" s="13">
+      <c r="F78" s="14">
+        <v>100</v>
+      </c>
+      <c r="G78" s="14">
         <v>75</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A79" s="13">
+      <c r="A79" s="14">
         <v>76</v>
       </c>
-      <c r="B79" s="13">
+      <c r="B79" s="14">
         <v>76</v>
       </c>
-      <c r="C79" s="13">
+      <c r="C79" s="14">
         <f>SUM(D$4:D79)</f>
         <v>392155</v>
       </c>
-      <c r="D79" s="13">
+      <c r="D79" s="14">
         <v>15805</v>
       </c>
-      <c r="E79" s="16">
+      <c r="E79" s="17">
         <v>9</v>
       </c>
-      <c r="F79" s="13">
-        <v>100</v>
-      </c>
-      <c r="G79" s="13">
+      <c r="F79" s="14">
+        <v>100</v>
+      </c>
+      <c r="G79" s="14">
         <v>76</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A80" s="13">
+      <c r="A80" s="14">
         <v>77</v>
       </c>
-      <c r="B80" s="13">
+      <c r="B80" s="14">
         <v>77</v>
       </c>
-      <c r="C80" s="13">
+      <c r="C80" s="14">
         <f>SUM(D$4:D80)</f>
         <v>408950</v>
       </c>
-      <c r="D80" s="13">
+      <c r="D80" s="14">
         <v>16795</v>
       </c>
-      <c r="E80" s="16">
+      <c r="E80" s="17">
         <v>9</v>
       </c>
-      <c r="F80" s="13">
-        <v>100</v>
-      </c>
-      <c r="G80" s="13">
+      <c r="F80" s="14">
+        <v>100</v>
+      </c>
+      <c r="G80" s="14">
         <v>77</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A81" s="13">
+      <c r="A81" s="14">
         <v>78</v>
       </c>
-      <c r="B81" s="13">
+      <c r="B81" s="14">
         <v>78</v>
       </c>
-      <c r="C81" s="13">
+      <c r="C81" s="14">
         <f>SUM(D$4:D81)</f>
         <v>426730</v>
       </c>
-      <c r="D81" s="13">
+      <c r="D81" s="14">
         <v>17780</v>
       </c>
-      <c r="E81" s="16">
+      <c r="E81" s="17">
         <v>9</v>
       </c>
-      <c r="F81" s="13">
-        <v>100</v>
-      </c>
-      <c r="G81" s="13">
+      <c r="F81" s="14">
+        <v>100</v>
+      </c>
+      <c r="G81" s="14">
         <v>78</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A82" s="13">
+      <c r="A82" s="14">
         <v>79</v>
       </c>
-      <c r="B82" s="13">
+      <c r="B82" s="14">
         <v>79</v>
       </c>
-      <c r="C82" s="13">
+      <c r="C82" s="14">
         <f>SUM(D$4:D82)</f>
         <v>446485</v>
       </c>
-      <c r="D82" s="13">
+      <c r="D82" s="14">
         <v>19755</v>
       </c>
-      <c r="E82" s="16">
+      <c r="E82" s="17">
         <v>9</v>
       </c>
-      <c r="F82" s="13">
-        <v>100</v>
-      </c>
-      <c r="G82" s="13">
+      <c r="F82" s="14">
+        <v>100</v>
+      </c>
+      <c r="G82" s="14">
         <v>79</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A83" s="13">
+      <c r="A83" s="14">
         <v>80</v>
       </c>
-      <c r="B83" s="13">
+      <c r="B83" s="14">
         <v>80</v>
       </c>
-      <c r="C83" s="13">
+      <c r="C83" s="14">
         <f>SUM(D$4:D83)</f>
         <v>458910</v>
       </c>
-      <c r="D83" s="13">
+      <c r="D83" s="14">
         <v>12425</v>
       </c>
-      <c r="E83" s="16">
+      <c r="E83" s="17">
         <v>10</v>
       </c>
-      <c r="F83" s="13">
-        <v>100</v>
-      </c>
-      <c r="G83" s="13">
+      <c r="F83" s="14">
+        <v>100</v>
+      </c>
+      <c r="G83" s="14">
         <v>80</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A84" s="13">
+      <c r="A84" s="14">
         <v>81</v>
       </c>
-      <c r="B84" s="13">
+      <c r="B84" s="14">
         <v>81</v>
       </c>
-      <c r="C84" s="13">
+      <c r="C84" s="14">
         <f>SUM(D$4:D84)</f>
         <v>472580</v>
       </c>
-      <c r="D84" s="13">
+      <c r="D84" s="14">
         <v>13670</v>
       </c>
-      <c r="E84" s="16">
+      <c r="E84" s="17">
         <v>10</v>
       </c>
-      <c r="F84" s="13">
-        <v>100</v>
-      </c>
-      <c r="G84" s="13">
+      <c r="F84" s="14">
+        <v>100</v>
+      </c>
+      <c r="G84" s="14">
         <v>81</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A85" s="13">
+      <c r="A85" s="14">
         <v>82</v>
       </c>
-      <c r="B85" s="13">
+      <c r="B85" s="14">
         <v>82</v>
       </c>
-      <c r="C85" s="13">
+      <c r="C85" s="14">
         <f>SUM(D$4:D85)</f>
         <v>487490</v>
       </c>
-      <c r="D85" s="13">
+      <c r="D85" s="14">
         <v>14910</v>
       </c>
-      <c r="E85" s="16">
+      <c r="E85" s="17">
         <v>10</v>
       </c>
-      <c r="F85" s="13">
-        <v>100</v>
-      </c>
-      <c r="G85" s="13">
+      <c r="F85" s="14">
+        <v>100</v>
+      </c>
+      <c r="G85" s="14">
         <v>82</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A86" s="13">
+      <c r="A86" s="14">
         <v>83</v>
       </c>
-      <c r="B86" s="13">
+      <c r="B86" s="14">
         <v>83</v>
       </c>
-      <c r="C86" s="13">
+      <c r="C86" s="14">
         <f>SUM(D$4:D86)</f>
         <v>503645</v>
       </c>
-      <c r="D86" s="13">
+      <c r="D86" s="14">
         <v>16155</v>
       </c>
-      <c r="E86" s="16">
+      <c r="E86" s="17">
         <v>10</v>
       </c>
-      <c r="F86" s="13">
-        <v>100</v>
-      </c>
-      <c r="G86" s="13">
+      <c r="F86" s="14">
+        <v>100</v>
+      </c>
+      <c r="G86" s="14">
         <v>83</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A87" s="13">
+      <c r="A87" s="14">
         <v>84</v>
       </c>
-      <c r="B87" s="13">
+      <c r="B87" s="14">
         <v>84</v>
       </c>
-      <c r="C87" s="13">
+      <c r="C87" s="14">
         <f>SUM(D$4:D87)</f>
         <v>521040</v>
       </c>
-      <c r="D87" s="13">
+      <c r="D87" s="14">
         <v>17395</v>
       </c>
-      <c r="E87" s="16">
+      <c r="E87" s="17">
         <v>10</v>
       </c>
-      <c r="F87" s="13">
-        <v>100</v>
-      </c>
-      <c r="G87" s="13">
+      <c r="F87" s="14">
+        <v>100</v>
+      </c>
+      <c r="G87" s="14">
         <v>84</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A88" s="13">
+      <c r="A88" s="14">
         <v>85</v>
       </c>
-      <c r="B88" s="13">
+      <c r="B88" s="14">
         <v>85</v>
       </c>
-      <c r="C88" s="13">
+      <c r="C88" s="14">
         <f>SUM(D$4:D88)</f>
         <v>539680</v>
       </c>
-      <c r="D88" s="13">
+      <c r="D88" s="14">
         <v>18640</v>
       </c>
-      <c r="E88" s="16">
+      <c r="E88" s="17">
         <v>10</v>
       </c>
-      <c r="F88" s="13">
-        <v>100</v>
-      </c>
-      <c r="G88" s="13">
+      <c r="F88" s="14">
+        <v>100</v>
+      </c>
+      <c r="G88" s="14">
         <v>85</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A89" s="13">
+      <c r="A89" s="14">
         <v>86</v>
       </c>
-      <c r="B89" s="13">
+      <c r="B89" s="14">
         <v>86</v>
       </c>
-      <c r="C89" s="13">
+      <c r="C89" s="14">
         <f>SUM(D$4:D89)</f>
         <v>559560</v>
       </c>
-      <c r="D89" s="13">
+      <c r="D89" s="14">
         <v>19880</v>
       </c>
-      <c r="E89" s="16">
+      <c r="E89" s="17">
         <v>10</v>
       </c>
-      <c r="F89" s="13">
-        <v>100</v>
-      </c>
-      <c r="G89" s="13">
+      <c r="F89" s="14">
+        <v>100</v>
+      </c>
+      <c r="G89" s="14">
         <v>86</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A90" s="13">
+      <c r="A90" s="14">
         <v>87</v>
       </c>
-      <c r="B90" s="13">
+      <c r="B90" s="14">
         <v>87</v>
       </c>
-      <c r="C90" s="13">
+      <c r="C90" s="14">
         <f>SUM(D$4:D90)</f>
         <v>580685</v>
       </c>
-      <c r="D90" s="13">
+      <c r="D90" s="14">
         <v>21125</v>
       </c>
-      <c r="E90" s="16">
+      <c r="E90" s="17">
         <v>10</v>
       </c>
-      <c r="F90" s="13">
-        <v>100</v>
-      </c>
-      <c r="G90" s="13">
+      <c r="F90" s="14">
+        <v>100</v>
+      </c>
+      <c r="G90" s="14">
         <v>87</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A91" s="13">
+      <c r="A91" s="14">
         <v>88</v>
       </c>
-      <c r="B91" s="13">
+      <c r="B91" s="14">
         <v>88</v>
       </c>
-      <c r="C91" s="13">
+      <c r="C91" s="14">
         <f>SUM(D$4:D91)</f>
         <v>603050</v>
       </c>
-      <c r="D91" s="13">
+      <c r="D91" s="14">
         <v>22365</v>
       </c>
-      <c r="E91" s="16">
+      <c r="E91" s="17">
         <v>10</v>
       </c>
-      <c r="F91" s="13">
-        <v>100</v>
-      </c>
-      <c r="G91" s="13">
+      <c r="F91" s="14">
+        <v>100</v>
+      </c>
+      <c r="G91" s="14">
         <v>88</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A92" s="13">
+      <c r="A92" s="14">
         <v>89</v>
       </c>
-      <c r="B92" s="13">
+      <c r="B92" s="14">
         <v>89</v>
       </c>
-      <c r="C92" s="13">
+      <c r="C92" s="14">
         <f>SUM(D$4:D92)</f>
         <v>627900</v>
       </c>
-      <c r="D92" s="13">
+      <c r="D92" s="14">
         <v>24850</v>
       </c>
-      <c r="E92" s="16">
+      <c r="E92" s="17">
         <v>10</v>
       </c>
-      <c r="F92" s="13">
-        <v>100</v>
-      </c>
-      <c r="G92" s="13">
+      <c r="F92" s="14">
+        <v>100</v>
+      </c>
+      <c r="G92" s="14">
         <v>89</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A93" s="13">
+      <c r="A93" s="14">
         <v>90</v>
       </c>
-      <c r="B93" s="13">
+      <c r="B93" s="14">
         <v>90</v>
       </c>
-      <c r="C93" s="13">
+      <c r="C93" s="14">
         <f>SUM(D$4:D93)</f>
         <v>642950</v>
       </c>
-      <c r="D93" s="13">
+      <c r="D93" s="14">
         <v>15050</v>
       </c>
-      <c r="E93" s="16">
+      <c r="E93" s="17">
         <v>11</v>
       </c>
-      <c r="F93" s="13">
-        <v>100</v>
-      </c>
-      <c r="G93" s="13">
+      <c r="F93" s="14">
+        <v>100</v>
+      </c>
+      <c r="G93" s="14">
         <v>90</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A94" s="13">
+      <c r="A94" s="14">
         <v>91</v>
       </c>
-      <c r="B94" s="13">
+      <c r="B94" s="14">
         <v>91</v>
       </c>
-      <c r="C94" s="13">
+      <c r="C94" s="14">
         <f>SUM(D$4:D94)</f>
         <v>659505</v>
       </c>
-      <c r="D94" s="13">
+      <c r="D94" s="14">
         <v>16555</v>
       </c>
-      <c r="E94" s="16">
+      <c r="E94" s="17">
         <v>11</v>
       </c>
-      <c r="F94" s="13">
-        <v>100</v>
-      </c>
-      <c r="G94" s="13">
+      <c r="F94" s="14">
+        <v>100</v>
+      </c>
+      <c r="G94" s="14">
         <v>91</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A95" s="13">
+      <c r="A95" s="14">
         <v>92</v>
       </c>
-      <c r="B95" s="13">
+      <c r="B95" s="14">
         <v>92</v>
       </c>
-      <c r="C95" s="13">
+      <c r="C95" s="14">
         <f>SUM(D$4:D95)</f>
         <v>677565</v>
       </c>
-      <c r="D95" s="13">
+      <c r="D95" s="14">
         <v>18060</v>
       </c>
-      <c r="E95" s="16">
+      <c r="E95" s="17">
         <v>11</v>
       </c>
-      <c r="F95" s="13">
-        <v>100</v>
-      </c>
-      <c r="G95" s="13">
+      <c r="F95" s="14">
+        <v>100</v>
+      </c>
+      <c r="G95" s="14">
         <v>92</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A96" s="13">
+      <c r="A96" s="14">
         <v>93</v>
       </c>
-      <c r="B96" s="13">
+      <c r="B96" s="14">
         <v>93</v>
       </c>
-      <c r="C96" s="13">
+      <c r="C96" s="14">
         <f>SUM(D$4:D96)</f>
         <v>697130</v>
       </c>
-      <c r="D96" s="13">
+      <c r="D96" s="14">
         <v>19565</v>
       </c>
-      <c r="E96" s="16">
+      <c r="E96" s="17">
         <v>11</v>
       </c>
-      <c r="F96" s="13">
-        <v>100</v>
-      </c>
-      <c r="G96" s="13">
+      <c r="F96" s="14">
+        <v>100</v>
+      </c>
+      <c r="G96" s="14">
         <v>93</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A97" s="13">
+      <c r="A97" s="14">
         <v>94</v>
       </c>
-      <c r="B97" s="13">
+      <c r="B97" s="14">
         <v>94</v>
       </c>
-      <c r="C97" s="13">
+      <c r="C97" s="14">
         <f>SUM(D$4:D97)</f>
         <v>718200</v>
       </c>
-      <c r="D97" s="13">
+      <c r="D97" s="14">
         <v>21070</v>
       </c>
-      <c r="E97" s="16">
+      <c r="E97" s="17">
         <v>11</v>
       </c>
-      <c r="F97" s="13">
-        <v>100</v>
-      </c>
-      <c r="G97" s="13">
+      <c r="F97" s="14">
+        <v>100</v>
+      </c>
+      <c r="G97" s="14">
         <v>94</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A98" s="13">
+      <c r="A98" s="14">
         <v>95</v>
       </c>
-      <c r="B98" s="13">
+      <c r="B98" s="14">
         <v>95</v>
       </c>
-      <c r="C98" s="13">
+      <c r="C98" s="14">
         <f>SUM(D$4:D98)</f>
         <v>740780</v>
       </c>
-      <c r="D98" s="13">
+      <c r="D98" s="14">
         <v>22580</v>
       </c>
-      <c r="E98" s="16">
+      <c r="E98" s="17">
         <v>11</v>
       </c>
-      <c r="F98" s="13">
-        <v>100</v>
-      </c>
-      <c r="G98" s="13">
+      <c r="F98" s="14">
+        <v>100</v>
+      </c>
+      <c r="G98" s="14">
         <v>95</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A99" s="13">
+      <c r="A99" s="14">
         <v>96</v>
       </c>
-      <c r="B99" s="13">
+      <c r="B99" s="14">
         <v>96</v>
       </c>
-      <c r="C99" s="13">
+      <c r="C99" s="14">
         <f>SUM(D$4:D99)</f>
         <v>764865</v>
       </c>
-      <c r="D99" s="13">
+      <c r="D99" s="14">
         <v>24085</v>
       </c>
-      <c r="E99" s="16">
+      <c r="E99" s="17">
         <v>11</v>
       </c>
-      <c r="F99" s="13">
-        <v>100</v>
-      </c>
-      <c r="G99" s="13">
+      <c r="F99" s="14">
+        <v>100</v>
+      </c>
+      <c r="G99" s="14">
         <v>96</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A100" s="13">
+      <c r="A100" s="14">
         <v>97</v>
       </c>
-      <c r="B100" s="13">
+      <c r="B100" s="14">
         <v>97</v>
       </c>
-      <c r="C100" s="13">
+      <c r="C100" s="14">
         <f>SUM(D$4:D100)</f>
         <v>790455</v>
       </c>
-      <c r="D100" s="13">
+      <c r="D100" s="14">
         <v>25590</v>
       </c>
-      <c r="E100" s="16">
+      <c r="E100" s="17">
         <v>11</v>
       </c>
-      <c r="F100" s="13">
-        <v>100</v>
-      </c>
-      <c r="G100" s="13">
+      <c r="F100" s="14">
+        <v>100</v>
+      </c>
+      <c r="G100" s="14">
         <v>97</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A101" s="13">
+      <c r="A101" s="14">
         <v>98</v>
       </c>
-      <c r="B101" s="13">
+      <c r="B101" s="14">
         <v>98</v>
       </c>
-      <c r="C101" s="13">
+      <c r="C101" s="14">
         <f>SUM(D$4:D101)</f>
         <v>817550</v>
       </c>
-      <c r="D101" s="13">
+      <c r="D101" s="14">
         <v>27095</v>
       </c>
-      <c r="E101" s="16">
+      <c r="E101" s="17">
         <v>11</v>
       </c>
-      <c r="F101" s="13">
-        <v>100</v>
-      </c>
-      <c r="G101" s="13">
+      <c r="F101" s="14">
+        <v>100</v>
+      </c>
+      <c r="G101" s="14">
         <v>98</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A102" s="13">
+      <c r="A102" s="14">
         <v>99</v>
       </c>
-      <c r="B102" s="13">
+      <c r="B102" s="14">
         <v>99</v>
       </c>
-      <c r="C102" s="13">
+      <c r="C102" s="14">
         <f>SUM(D$4:D102)</f>
         <v>847655</v>
       </c>
-      <c r="D102" s="13">
+      <c r="D102" s="14">
         <v>30105</v>
       </c>
-      <c r="E102" s="16">
+      <c r="E102" s="17">
         <v>11</v>
       </c>
-      <c r="F102" s="13">
-        <v>100</v>
-      </c>
-      <c r="G102" s="13">
+      <c r="F102" s="14">
+        <v>100</v>
+      </c>
+      <c r="G102" s="14">
         <v>99</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A103" s="13">
-        <v>100</v>
-      </c>
-      <c r="B103" s="13">
-        <v>100</v>
-      </c>
-      <c r="C103" s="13">
+      <c r="A103" s="14">
+        <v>100</v>
+      </c>
+      <c r="B103" s="14">
+        <v>100</v>
+      </c>
+      <c r="C103" s="14">
         <f>SUM(D$4:D103)</f>
         <v>869875</v>
       </c>
-      <c r="D103" s="13">
+      <c r="D103" s="14">
         <v>22220</v>
       </c>
-      <c r="E103" s="16">
+      <c r="E103" s="17">
         <v>12</v>
       </c>
-      <c r="F103" s="13">
-        <v>100</v>
-      </c>
-      <c r="G103" s="13">
+      <c r="F103" s="14">
+        <v>100</v>
+      </c>
+      <c r="G103" s="14">
         <v>100</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A104" s="13">
+      <c r="A104" s="14">
         <v>101</v>
       </c>
-      <c r="B104" s="13">
+      <c r="B104" s="14">
         <v>101</v>
       </c>
-      <c r="C104" s="13">
+      <c r="C104" s="14">
         <f>SUM(D$4:D104)</f>
         <v>894320</v>
       </c>
-      <c r="D104" s="13">
+      <c r="D104" s="14">
         <v>24445</v>
       </c>
-      <c r="E104" s="16">
+      <c r="E104" s="17">
         <v>12</v>
       </c>
-      <c r="F104" s="13">
-        <v>100</v>
-      </c>
-      <c r="G104" s="13">
+      <c r="F104" s="14">
+        <v>100</v>
+      </c>
+      <c r="G104" s="14">
         <v>101</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A105" s="13">
+      <c r="A105" s="14">
         <v>102</v>
       </c>
-      <c r="B105" s="13">
+      <c r="B105" s="14">
         <v>102</v>
       </c>
-      <c r="C105" s="13">
+      <c r="C105" s="14">
         <f>SUM(D$4:D105)</f>
         <v>920985</v>
       </c>
-      <c r="D105" s="13">
+      <c r="D105" s="14">
         <v>26665</v>
       </c>
-      <c r="E105" s="16">
+      <c r="E105" s="17">
         <v>12</v>
       </c>
-      <c r="F105" s="13">
-        <v>100</v>
-      </c>
-      <c r="G105" s="13">
+      <c r="F105" s="14">
+        <v>100</v>
+      </c>
+      <c r="G105" s="14">
         <v>102</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A106" s="13">
+      <c r="A106" s="14">
         <v>103</v>
       </c>
-      <c r="B106" s="13">
+      <c r="B106" s="14">
         <v>103</v>
       </c>
-      <c r="C106" s="13">
+      <c r="C106" s="14">
         <f>SUM(D$4:D106)</f>
         <v>949875</v>
       </c>
-      <c r="D106" s="13">
+      <c r="D106" s="14">
         <v>28890</v>
       </c>
-      <c r="E106" s="16">
+      <c r="E106" s="17">
         <v>12</v>
       </c>
-      <c r="F106" s="13">
-        <v>100</v>
-      </c>
-      <c r="G106" s="13">
+      <c r="F106" s="14">
+        <v>100</v>
+      </c>
+      <c r="G106" s="14">
         <v>103</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A107" s="13">
+      <c r="A107" s="14">
         <v>104</v>
       </c>
-      <c r="B107" s="13">
+      <c r="B107" s="14">
         <v>104</v>
       </c>
-      <c r="C107" s="13">
+      <c r="C107" s="14">
         <f>SUM(D$4:D107)</f>
         <v>980985</v>
       </c>
-      <c r="D107" s="13">
+      <c r="D107" s="14">
         <v>31110</v>
       </c>
-      <c r="E107" s="16">
+      <c r="E107" s="17">
         <v>12</v>
       </c>
-      <c r="F107" s="13">
-        <v>100</v>
-      </c>
-      <c r="G107" s="13">
+      <c r="F107" s="14">
+        <v>100</v>
+      </c>
+      <c r="G107" s="14">
         <v>104</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A108" s="13">
+      <c r="A108" s="14">
         <v>105</v>
       </c>
-      <c r="B108" s="13">
+      <c r="B108" s="14">
         <v>105</v>
       </c>
-      <c r="C108" s="13">
+      <c r="C108" s="14">
         <f>SUM(D$4:D108)</f>
         <v>1014320</v>
       </c>
-      <c r="D108" s="13">
+      <c r="D108" s="14">
         <v>33335</v>
       </c>
-      <c r="E108" s="16">
+      <c r="E108" s="17">
         <v>12</v>
       </c>
-      <c r="F108" s="13">
-        <v>100</v>
-      </c>
-      <c r="G108" s="13">
+      <c r="F108" s="14">
+        <v>100</v>
+      </c>
+      <c r="G108" s="14">
         <v>105</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A109" s="13">
+      <c r="A109" s="14">
         <v>106</v>
       </c>
-      <c r="B109" s="13">
+      <c r="B109" s="14">
         <v>106</v>
       </c>
-      <c r="C109" s="13">
+      <c r="C109" s="14">
         <f>SUM(D$4:D109)</f>
         <v>1049875</v>
       </c>
-      <c r="D109" s="13">
+      <c r="D109" s="14">
         <v>35555</v>
       </c>
-      <c r="E109" s="16">
+      <c r="E109" s="17">
         <v>12</v>
       </c>
-      <c r="F109" s="13">
-        <v>100</v>
-      </c>
-      <c r="G109" s="13">
+      <c r="F109" s="14">
+        <v>100</v>
+      </c>
+      <c r="G109" s="14">
         <v>106</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A110" s="13">
+      <c r="A110" s="14">
         <v>107</v>
       </c>
-      <c r="B110" s="13">
+      <c r="B110" s="14">
         <v>107</v>
       </c>
-      <c r="C110" s="13">
+      <c r="C110" s="14">
         <f>SUM(D$4:D110)</f>
         <v>1087655</v>
       </c>
-      <c r="D110" s="13">
+      <c r="D110" s="14">
         <v>37780</v>
       </c>
-      <c r="E110" s="16">
+      <c r="E110" s="17">
         <v>12</v>
       </c>
-      <c r="F110" s="13">
-        <v>100</v>
-      </c>
-      <c r="G110" s="13">
+      <c r="F110" s="14">
+        <v>100</v>
+      </c>
+      <c r="G110" s="14">
         <v>107</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A111" s="13">
+      <c r="A111" s="14">
         <v>108</v>
       </c>
-      <c r="B111" s="13">
+      <c r="B111" s="14">
         <v>108</v>
       </c>
-      <c r="C111" s="13">
+      <c r="C111" s="14">
         <f>SUM(D$4:D111)</f>
         <v>1127655</v>
       </c>
-      <c r="D111" s="13">
+      <c r="D111" s="14">
         <v>40000</v>
       </c>
-      <c r="E111" s="16">
+      <c r="E111" s="17">
         <v>12</v>
       </c>
-      <c r="F111" s="13">
-        <v>100</v>
-      </c>
-      <c r="G111" s="13">
+      <c r="F111" s="14">
+        <v>100</v>
+      </c>
+      <c r="G111" s="14">
         <v>108</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A112" s="13">
+      <c r="A112" s="14">
         <v>109</v>
       </c>
-      <c r="B112" s="13">
+      <c r="B112" s="14">
         <v>109</v>
       </c>
-      <c r="C112" s="13">
+      <c r="C112" s="14">
         <f>SUM(D$4:D112)</f>
         <v>1172100</v>
       </c>
-      <c r="D112" s="13">
+      <c r="D112" s="14">
         <v>44445</v>
       </c>
-      <c r="E112" s="16">
+      <c r="E112" s="17">
         <v>12</v>
       </c>
-      <c r="F112" s="13">
-        <v>100</v>
-      </c>
-      <c r="G112" s="13">
+      <c r="F112" s="14">
+        <v>100</v>
+      </c>
+      <c r="G112" s="14">
         <v>109</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A113" s="13">
+      <c r="A113" s="14">
         <v>110</v>
       </c>
-      <c r="B113" s="13">
+      <c r="B113" s="14">
         <v>110</v>
       </c>
-      <c r="C113" s="13">
+      <c r="C113" s="14">
         <f>SUM(D$4:D113)</f>
         <v>1202510</v>
       </c>
-      <c r="D113" s="13">
+      <c r="D113" s="14">
         <v>30410</v>
       </c>
-      <c r="E113" s="16">
+      <c r="E113" s="17">
         <v>13</v>
       </c>
-      <c r="F113" s="13">
-        <v>100</v>
-      </c>
-      <c r="G113" s="13">
+      <c r="F113" s="14">
+        <v>100</v>
+      </c>
+      <c r="G113" s="14">
         <v>110</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A114" s="13">
+      <c r="A114" s="14">
         <v>111</v>
       </c>
-      <c r="B114" s="13">
+      <c r="B114" s="14">
         <v>111</v>
       </c>
-      <c r="C114" s="13">
+      <c r="C114" s="14">
         <f>SUM(D$4:D114)</f>
         <v>1235960</v>
       </c>
-      <c r="D114" s="13">
+      <c r="D114" s="14">
         <v>33450</v>
       </c>
-      <c r="E114" s="16">
+      <c r="E114" s="17">
         <v>13</v>
       </c>
-      <c r="F114" s="13">
-        <v>100</v>
-      </c>
-      <c r="G114" s="13">
+      <c r="F114" s="14">
+        <v>100</v>
+      </c>
+      <c r="G114" s="14">
         <v>111</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A115" s="13">
+      <c r="A115" s="14">
         <v>112</v>
       </c>
-      <c r="B115" s="13">
+      <c r="B115" s="14">
         <v>112</v>
       </c>
-      <c r="C115" s="13">
+      <c r="C115" s="14">
         <f>SUM(D$4:D115)</f>
         <v>1272450</v>
       </c>
-      <c r="D115" s="13">
+      <c r="D115" s="14">
         <v>36490</v>
       </c>
-      <c r="E115" s="16">
+      <c r="E115" s="17">
         <v>13</v>
       </c>
-      <c r="F115" s="13">
-        <v>100</v>
-      </c>
-      <c r="G115" s="13">
+      <c r="F115" s="14">
+        <v>100</v>
+      </c>
+      <c r="G115" s="14">
         <v>112</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A116" s="13">
+      <c r="A116" s="14">
         <v>113</v>
       </c>
-      <c r="B116" s="13">
+      <c r="B116" s="14">
         <v>113</v>
       </c>
-      <c r="C116" s="13">
+      <c r="C116" s="14">
         <f>SUM(D$4:D116)</f>
         <v>1311980</v>
       </c>
-      <c r="D116" s="13">
+      <c r="D116" s="14">
         <v>39530</v>
       </c>
-      <c r="E116" s="16">
+      <c r="E116" s="17">
         <v>13</v>
       </c>
-      <c r="F116" s="13">
-        <v>100</v>
-      </c>
-      <c r="G116" s="13">
+      <c r="F116" s="14">
+        <v>100</v>
+      </c>
+      <c r="G116" s="14">
         <v>113</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A117" s="13">
+      <c r="A117" s="14">
         <v>114</v>
       </c>
-      <c r="B117" s="13">
+      <c r="B117" s="14">
         <v>114</v>
       </c>
-      <c r="C117" s="13">
+      <c r="C117" s="14">
         <f>SUM(D$4:D117)</f>
         <v>1354555</v>
       </c>
-      <c r="D117" s="13">
+      <c r="D117" s="14">
         <v>42575</v>
       </c>
-      <c r="E117" s="16">
+      <c r="E117" s="17">
         <v>13</v>
       </c>
-      <c r="F117" s="13">
-        <v>100</v>
-      </c>
-      <c r="G117" s="13">
+      <c r="F117" s="14">
+        <v>100</v>
+      </c>
+      <c r="G117" s="14">
         <v>114</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A118" s="13">
+      <c r="A118" s="14">
         <v>115</v>
       </c>
-      <c r="B118" s="13">
+      <c r="B118" s="14">
         <v>115</v>
       </c>
-      <c r="C118" s="13">
+      <c r="C118" s="14">
         <f>SUM(D$4:D118)</f>
         <v>1400170</v>
       </c>
-      <c r="D118" s="13">
+      <c r="D118" s="14">
         <v>45615</v>
       </c>
-      <c r="E118" s="16">
+      <c r="E118" s="17">
         <v>13</v>
       </c>
-      <c r="F118" s="13">
-        <v>100</v>
-      </c>
-      <c r="G118" s="13">
+      <c r="F118" s="14">
+        <v>100</v>
+      </c>
+      <c r="G118" s="14">
         <v>115</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A119" s="13">
+      <c r="A119" s="14">
         <v>116</v>
       </c>
-      <c r="B119" s="13">
+      <c r="B119" s="14">
         <v>116</v>
       </c>
-      <c r="C119" s="13">
+      <c r="C119" s="14">
         <f>SUM(D$4:D119)</f>
         <v>1448825</v>
       </c>
-      <c r="D119" s="13">
+      <c r="D119" s="14">
         <v>48655</v>
       </c>
-      <c r="E119" s="16">
+      <c r="E119" s="17">
         <v>13</v>
       </c>
-      <c r="F119" s="13">
-        <v>100</v>
-      </c>
-      <c r="G119" s="13">
+      <c r="F119" s="14">
+        <v>100</v>
+      </c>
+      <c r="G119" s="14">
         <v>116</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A120" s="13">
+      <c r="A120" s="14">
         <v>117</v>
       </c>
-      <c r="B120" s="13">
+      <c r="B120" s="14">
         <v>117</v>
       </c>
-      <c r="C120" s="13">
+      <c r="C120" s="14">
         <f>SUM(D$4:D120)</f>
         <v>1500520</v>
       </c>
-      <c r="D120" s="13">
+      <c r="D120" s="14">
         <v>51695</v>
       </c>
-      <c r="E120" s="16">
+      <c r="E120" s="17">
         <v>13</v>
       </c>
-      <c r="F120" s="13">
-        <v>100</v>
-      </c>
-      <c r="G120" s="13">
+      <c r="F120" s="14">
+        <v>100</v>
+      </c>
+      <c r="G120" s="14">
         <v>117</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A121" s="13">
+      <c r="A121" s="14">
         <v>118</v>
       </c>
-      <c r="B121" s="13">
+      <c r="B121" s="14">
         <v>118</v>
       </c>
-      <c r="C121" s="13">
+      <c r="C121" s="14">
         <f>SUM(D$4:D121)</f>
         <v>1555255</v>
       </c>
-      <c r="D121" s="13">
+      <c r="D121" s="14">
         <v>54735</v>
       </c>
-      <c r="E121" s="16">
+      <c r="E121" s="17">
         <v>13</v>
       </c>
-      <c r="F121" s="13">
-        <v>100</v>
-      </c>
-      <c r="G121" s="13">
+      <c r="F121" s="14">
+        <v>100</v>
+      </c>
+      <c r="G121" s="14">
         <v>118</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A122" s="13">
+      <c r="A122" s="14">
         <v>119</v>
       </c>
-      <c r="B122" s="13">
+      <c r="B122" s="14">
         <v>119</v>
       </c>
-      <c r="C122" s="13">
+      <c r="C122" s="14">
         <f>SUM(D$4:D122)</f>
         <v>1616075</v>
       </c>
-      <c r="D122" s="13">
+      <c r="D122" s="14">
         <v>60820</v>
       </c>
-      <c r="E122" s="16">
+      <c r="E122" s="17">
         <v>13</v>
       </c>
-      <c r="F122" s="13">
-        <v>100</v>
-      </c>
-      <c r="G122" s="13">
+      <c r="F122" s="14">
+        <v>100</v>
+      </c>
+      <c r="G122" s="14">
         <v>119</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A123" s="13">
+      <c r="A123" s="14">
         <v>120</v>
       </c>
-      <c r="B123" s="13">
+      <c r="B123" s="14">
         <v>120</v>
       </c>
-      <c r="C123" s="13">
+      <c r="C123" s="14">
         <f>SUM(D$4:D123)</f>
         <v>1664870</v>
       </c>
-      <c r="D123" s="13">
+      <c r="D123" s="14">
         <v>48795</v>
       </c>
-      <c r="E123" s="16">
+      <c r="E123" s="17">
         <v>14</v>
       </c>
-      <c r="F123" s="13">
-        <v>100</v>
-      </c>
-      <c r="G123" s="13">
+      <c r="F123" s="14">
+        <v>100</v>
+      </c>
+      <c r="G123" s="14">
         <v>120</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A124" s="13">
+      <c r="A124" s="14">
         <v>121</v>
       </c>
-      <c r="B124" s="13">
+      <c r="B124" s="14">
         <v>121</v>
       </c>
-      <c r="C124" s="13">
+      <c r="C124" s="14">
         <f>SUM(D$4:D124)</f>
         <v>1718545</v>
       </c>
-      <c r="D124" s="13">
+      <c r="D124" s="14">
         <v>53675</v>
       </c>
-      <c r="E124" s="16">
+      <c r="E124" s="17">
         <v>14</v>
       </c>
-      <c r="F124" s="13">
-        <v>100</v>
-      </c>
-      <c r="G124" s="13">
+      <c r="F124" s="14">
+        <v>100</v>
+      </c>
+      <c r="G124" s="14">
         <v>121</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A125" s="13">
+      <c r="A125" s="14">
         <v>122</v>
       </c>
-      <c r="B125" s="13">
+      <c r="B125" s="14">
         <v>122</v>
       </c>
-      <c r="C125" s="13">
+      <c r="C125" s="14">
         <f>SUM(D$4:D125)</f>
         <v>1777100</v>
       </c>
-      <c r="D125" s="13">
+      <c r="D125" s="14">
         <v>58555</v>
       </c>
-      <c r="E125" s="16">
+      <c r="E125" s="17">
         <v>14</v>
       </c>
-      <c r="F125" s="13">
-        <v>100</v>
-      </c>
-      <c r="G125" s="13">
+      <c r="F125" s="14">
+        <v>100</v>
+      </c>
+      <c r="G125" s="14">
         <v>122</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A126" s="13">
+      <c r="A126" s="14">
         <v>123</v>
       </c>
-      <c r="B126" s="13">
+      <c r="B126" s="14">
         <v>123</v>
       </c>
-      <c r="C126" s="13">
+      <c r="C126" s="14">
         <f>SUM(D$4:D126)</f>
         <v>1840535</v>
       </c>
-      <c r="D126" s="13">
+      <c r="D126" s="14">
         <v>63435</v>
       </c>
-      <c r="E126" s="16">
+      <c r="E126" s="17">
         <v>14</v>
       </c>
-      <c r="F126" s="13">
-        <v>100</v>
-      </c>
-      <c r="G126" s="13">
+      <c r="F126" s="14">
+        <v>100</v>
+      </c>
+      <c r="G126" s="14">
         <v>123</v>
       </c>
     </row>
     <row r="127" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A127" s="13">
+      <c r="A127" s="14">
         <v>124</v>
       </c>
-      <c r="B127" s="13">
+      <c r="B127" s="14">
         <v>124</v>
       </c>
-      <c r="C127" s="13">
+      <c r="C127" s="14">
         <f>SUM(D$4:D127)</f>
         <v>1908850</v>
       </c>
-      <c r="D127" s="13">
+      <c r="D127" s="14">
         <v>68315</v>
       </c>
-      <c r="E127" s="16">
+      <c r="E127" s="17">
         <v>14</v>
       </c>
-      <c r="F127" s="13">
-        <v>100</v>
-      </c>
-      <c r="G127" s="13">
+      <c r="F127" s="14">
+        <v>100</v>
+      </c>
+      <c r="G127" s="14">
         <v>124</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A128" s="13">
+      <c r="A128" s="14">
         <v>125</v>
       </c>
-      <c r="B128" s="13">
+      <c r="B128" s="14">
         <v>125</v>
       </c>
-      <c r="C128" s="13">
+      <c r="C128" s="14">
         <f>SUM(D$4:D128)</f>
         <v>1982045</v>
       </c>
-      <c r="D128" s="13">
+      <c r="D128" s="14">
         <v>73195</v>
       </c>
-      <c r="E128" s="16">
+      <c r="E128" s="17">
         <v>14</v>
       </c>
-      <c r="F128" s="13">
-        <v>100</v>
-      </c>
-      <c r="G128" s="13">
+      <c r="F128" s="14">
+        <v>100</v>
+      </c>
+      <c r="G128" s="14">
         <v>125</v>
       </c>
     </row>
     <row r="129" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A129" s="13">
+      <c r="A129" s="14">
         <v>126</v>
       </c>
-      <c r="B129" s="13">
+      <c r="B129" s="14">
         <v>126</v>
       </c>
-      <c r="C129" s="13">
+      <c r="C129" s="14">
         <f>SUM(D$4:D129)</f>
         <v>2060120</v>
       </c>
-      <c r="D129" s="13">
+      <c r="D129" s="14">
         <v>78075</v>
       </c>
-      <c r="E129" s="16">
+      <c r="E129" s="17">
         <v>14</v>
       </c>
-      <c r="F129" s="13">
-        <v>100</v>
-      </c>
-      <c r="G129" s="13">
+      <c r="F129" s="14">
+        <v>100</v>
+      </c>
+      <c r="G129" s="14">
         <v>126</v>
       </c>
     </row>
     <row r="130" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A130" s="13">
+      <c r="A130" s="14">
         <v>127</v>
       </c>
-      <c r="B130" s="13">
+      <c r="B130" s="14">
         <v>127</v>
       </c>
-      <c r="C130" s="13">
+      <c r="C130" s="14">
         <f>SUM(D$4:D130)</f>
         <v>2143075</v>
       </c>
-      <c r="D130" s="13">
+      <c r="D130" s="14">
         <v>82955</v>
       </c>
-      <c r="E130" s="16">
+      <c r="E130" s="17">
         <v>14</v>
       </c>
-      <c r="F130" s="13">
-        <v>100</v>
-      </c>
-      <c r="G130" s="13">
+      <c r="F130" s="14">
+        <v>100</v>
+      </c>
+      <c r="G130" s="14">
         <v>127</v>
       </c>
     </row>
     <row r="131" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A131" s="13">
+      <c r="A131" s="14">
         <v>128</v>
       </c>
-      <c r="B131" s="13">
+      <c r="B131" s="14">
         <v>128</v>
       </c>
-      <c r="C131" s="13">
+      <c r="C131" s="14">
         <f>SUM(D$4:D131)</f>
         <v>2230910</v>
       </c>
-      <c r="D131" s="13">
+      <c r="D131" s="14">
         <v>87835</v>
       </c>
-      <c r="E131" s="16">
+      <c r="E131" s="17">
         <v>14</v>
       </c>
-      <c r="F131" s="13">
-        <v>100</v>
-      </c>
-      <c r="G131" s="13">
+      <c r="F131" s="14">
+        <v>100</v>
+      </c>
+      <c r="G131" s="14">
         <v>128</v>
       </c>
     </row>
     <row r="132" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A132" s="13">
+      <c r="A132" s="14">
         <v>129</v>
       </c>
-      <c r="B132" s="13">
+      <c r="B132" s="14">
         <v>129</v>
       </c>
-      <c r="C132" s="13">
+      <c r="C132" s="14">
         <f>SUM(D$4:D132)</f>
         <v>2328500</v>
       </c>
-      <c r="D132" s="13">
+      <c r="D132" s="14">
         <v>97590</v>
       </c>
-      <c r="E132" s="16">
+      <c r="E132" s="17">
         <v>14</v>
       </c>
-      <c r="F132" s="13">
-        <v>100</v>
-      </c>
-      <c r="G132" s="13">
+      <c r="F132" s="14">
+        <v>100</v>
+      </c>
+      <c r="G132" s="14">
         <v>129</v>
       </c>
     </row>
     <row r="133" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A133" s="13">
+      <c r="A133" s="14">
         <v>130</v>
       </c>
-      <c r="B133" s="13">
+      <c r="B133" s="14">
         <v>130</v>
       </c>
-      <c r="C133" s="13">
+      <c r="C133" s="14">
         <f>SUM(D$4:D133)</f>
         <v>2401465</v>
       </c>
-      <c r="D133" s="13">
+      <c r="D133" s="14">
         <v>72965</v>
       </c>
-      <c r="E133" s="16">
+      <c r="E133" s="17">
         <v>15</v>
       </c>
-      <c r="F133" s="13">
-        <v>100</v>
-      </c>
-      <c r="G133" s="13">
+      <c r="F133" s="14">
+        <v>100</v>
+      </c>
+      <c r="G133" s="14">
         <v>130</v>
       </c>
     </row>
     <row r="134" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A134" s="13">
+      <c r="A134" s="14">
         <v>131</v>
       </c>
-      <c r="B134" s="13">
+      <c r="B134" s="14">
         <v>131</v>
       </c>
-      <c r="C134" s="13">
+      <c r="C134" s="14">
         <f>SUM(D$4:D134)</f>
         <v>2481725</v>
       </c>
-      <c r="D134" s="13">
+      <c r="D134" s="14">
         <v>80260</v>
       </c>
-      <c r="E134" s="16">
+      <c r="E134" s="17">
         <v>15</v>
       </c>
-      <c r="F134" s="13">
-        <v>100</v>
-      </c>
-      <c r="G134" s="13">
+      <c r="F134" s="14">
+        <v>100</v>
+      </c>
+      <c r="G134" s="14">
         <v>131</v>
       </c>
     </row>
     <row r="135" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A135" s="13">
+      <c r="A135" s="14">
         <v>132</v>
       </c>
-      <c r="B135" s="13">
+      <c r="B135" s="14">
         <v>132</v>
       </c>
-      <c r="C135" s="13">
+      <c r="C135" s="14">
         <f>SUM(D$4:D135)</f>
         <v>2569280</v>
       </c>
-      <c r="D135" s="13">
+      <c r="D135" s="14">
         <v>87555</v>
       </c>
-      <c r="E135" s="16">
+      <c r="E135" s="17">
         <v>15</v>
       </c>
-      <c r="F135" s="13">
-        <v>100</v>
-      </c>
-      <c r="G135" s="13">
+      <c r="F135" s="14">
+        <v>100</v>
+      </c>
+      <c r="G135" s="14">
         <v>132</v>
       </c>
     </row>
     <row r="136" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A136" s="13">
+      <c r="A136" s="14">
         <v>133</v>
       </c>
-      <c r="B136" s="13">
+      <c r="B136" s="14">
         <v>133</v>
       </c>
-      <c r="C136" s="13">
+      <c r="C136" s="14">
         <f>SUM(D$4:D136)</f>
         <v>2664135</v>
       </c>
-      <c r="D136" s="13">
+      <c r="D136" s="14">
         <v>94855</v>
       </c>
-      <c r="E136" s="16">
+      <c r="E136" s="17">
         <v>15</v>
       </c>
-      <c r="F136" s="13">
-        <v>100</v>
-      </c>
-      <c r="G136" s="13">
+      <c r="F136" s="14">
+        <v>100</v>
+      </c>
+      <c r="G136" s="14">
         <v>133</v>
       </c>
     </row>
     <row r="137" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A137" s="13">
+      <c r="A137" s="14">
         <v>134</v>
       </c>
-      <c r="B137" s="13">
+      <c r="B137" s="14">
         <v>134</v>
       </c>
-      <c r="C137" s="13">
+      <c r="C137" s="14">
         <f>SUM(D$4:D137)</f>
         <v>2766285</v>
       </c>
-      <c r="D137" s="13">
+      <c r="D137" s="14">
         <v>102150</v>
       </c>
-      <c r="E137" s="16">
+      <c r="E137" s="17">
         <v>15</v>
       </c>
-      <c r="F137" s="13">
-        <v>100</v>
-      </c>
-      <c r="G137" s="13">
+      <c r="F137" s="14">
+        <v>100</v>
+      </c>
+      <c r="G137" s="14">
         <v>134</v>
       </c>
     </row>
     <row r="138" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A138" s="13">
+      <c r="A138" s="14">
         <v>135</v>
       </c>
-      <c r="B138" s="13">
+      <c r="B138" s="14">
         <v>135</v>
       </c>
-      <c r="C138" s="13">
+      <c r="C138" s="14">
         <f>SUM(D$4:D138)</f>
         <v>2875730</v>
       </c>
-      <c r="D138" s="13">
+      <c r="D138" s="14">
         <v>109445</v>
       </c>
-      <c r="E138" s="16">
+      <c r="E138" s="17">
         <v>15</v>
       </c>
-      <c r="F138" s="13">
-        <v>100</v>
-      </c>
-      <c r="G138" s="13">
+      <c r="F138" s="14">
+        <v>100</v>
+      </c>
+      <c r="G138" s="14">
         <v>135</v>
       </c>
     </row>
     <row r="139" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A139" s="13">
+      <c r="A139" s="14">
         <v>136</v>
       </c>
-      <c r="B139" s="13">
+      <c r="B139" s="14">
         <v>136</v>
       </c>
-      <c r="C139" s="13">
+      <c r="C139" s="14">
         <f>SUM(D$4:D139)</f>
         <v>2992475</v>
       </c>
-      <c r="D139" s="13">
+      <c r="D139" s="14">
         <v>116745</v>
       </c>
-      <c r="E139" s="16">
+      <c r="E139" s="17">
         <v>15</v>
       </c>
-      <c r="F139" s="13">
-        <v>100</v>
-      </c>
-      <c r="G139" s="13">
+      <c r="F139" s="14">
+        <v>100</v>
+      </c>
+      <c r="G139" s="14">
         <v>136</v>
       </c>
     </row>
     <row r="140" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A140" s="13">
+      <c r="A140" s="14">
         <v>137</v>
       </c>
-      <c r="B140" s="13">
+      <c r="B140" s="14">
         <v>137</v>
       </c>
-      <c r="C140" s="13">
+      <c r="C140" s="14">
         <f>SUM(D$4:D140)</f>
         <v>3116515</v>
       </c>
-      <c r="D140" s="13">
+      <c r="D140" s="14">
         <v>124040</v>
       </c>
-      <c r="E140" s="16">
+      <c r="E140" s="17">
         <v>15</v>
       </c>
-      <c r="F140" s="13">
-        <v>100</v>
-      </c>
-      <c r="G140" s="13">
+      <c r="F140" s="14">
+        <v>100</v>
+      </c>
+      <c r="G140" s="14">
         <v>137</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A141" s="13">
+      <c r="A141" s="14">
         <v>138</v>
       </c>
-      <c r="B141" s="13">
+      <c r="B141" s="14">
         <v>138</v>
       </c>
-      <c r="C141" s="13">
+      <c r="C141" s="14">
         <f>SUM(D$4:D141)</f>
         <v>3247850</v>
       </c>
-      <c r="D141" s="13">
+      <c r="D141" s="14">
         <v>131335</v>
       </c>
-      <c r="E141" s="16">
+      <c r="E141" s="17">
         <v>15</v>
       </c>
-      <c r="F141" s="13">
-        <v>100</v>
-      </c>
-      <c r="G141" s="13">
+      <c r="F141" s="14">
+        <v>100</v>
+      </c>
+      <c r="G141" s="14">
         <v>138</v>
       </c>
     </row>
     <row r="142" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A142" s="13">
+      <c r="A142" s="14">
         <v>139</v>
       </c>
-      <c r="B142" s="13">
+      <c r="B142" s="14">
         <v>139</v>
       </c>
-      <c r="C142" s="13">
+      <c r="C142" s="14">
         <f>SUM(D$4:D142)</f>
         <v>3393780</v>
       </c>
-      <c r="D142" s="13">
+      <c r="D142" s="14">
         <v>145930</v>
       </c>
-      <c r="E142" s="16">
+      <c r="E142" s="17">
         <v>15</v>
       </c>
-      <c r="F142" s="13">
-        <v>100</v>
-      </c>
-      <c r="G142" s="13">
+      <c r="F142" s="14">
+        <v>100</v>
+      </c>
+      <c r="G142" s="14">
         <v>139</v>
       </c>
     </row>
     <row r="143" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A143" s="13">
+      <c r="A143" s="14">
         <v>140</v>
       </c>
-      <c r="B143" s="13">
+      <c r="B143" s="14">
         <v>140</v>
       </c>
-      <c r="C143" s="13">
+      <c r="C143" s="14">
         <f>SUM(D$4:D143)</f>
         <v>3499395</v>
       </c>
-      <c r="D143" s="13">
+      <c r="D143" s="14">
         <v>105615</v>
       </c>
-      <c r="E143" s="16">
+      <c r="E143" s="17">
         <v>16</v>
       </c>
-      <c r="F143" s="13">
-        <v>100</v>
-      </c>
-      <c r="G143" s="13">
+      <c r="F143" s="14">
+        <v>100</v>
+      </c>
+      <c r="G143" s="14">
         <v>140</v>
       </c>
     </row>
     <row r="144" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A144" s="13">
+      <c r="A144" s="14">
         <v>141</v>
       </c>
-      <c r="B144" s="13">
+      <c r="B144" s="14">
         <v>141</v>
       </c>
-      <c r="C144" s="13">
+      <c r="C144" s="14">
         <f>SUM(D$4:D144)</f>
         <v>3615570</v>
       </c>
-      <c r="D144" s="13">
+      <c r="D144" s="14">
         <v>116175</v>
       </c>
-      <c r="E144" s="16">
+      <c r="E144" s="17">
         <v>16</v>
       </c>
-      <c r="F144" s="13">
-        <v>100</v>
-      </c>
-      <c r="G144" s="13">
+      <c r="F144" s="14">
+        <v>100</v>
+      </c>
+      <c r="G144" s="14">
         <v>141</v>
       </c>
     </row>
     <row r="145" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A145" s="13">
+      <c r="A145" s="14">
         <v>142</v>
       </c>
-      <c r="B145" s="13">
+      <c r="B145" s="14">
         <v>142</v>
       </c>
-      <c r="C145" s="13">
+      <c r="C145" s="14">
         <f>SUM(D$4:D145)</f>
         <v>3742305</v>
       </c>
-      <c r="D145" s="13">
+      <c r="D145" s="14">
         <v>126735</v>
       </c>
-      <c r="E145" s="16">
+      <c r="E145" s="17">
         <v>16</v>
       </c>
-      <c r="F145" s="13">
-        <v>100</v>
-      </c>
-      <c r="G145" s="13">
+      <c r="F145" s="14">
+        <v>100</v>
+      </c>
+      <c r="G145" s="14">
         <v>142</v>
       </c>
     </row>
     <row r="146" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A146" s="13">
+      <c r="A146" s="14">
         <v>143</v>
       </c>
-      <c r="B146" s="13">
+      <c r="B146" s="14">
         <v>143</v>
       </c>
-      <c r="C146" s="13">
+      <c r="C146" s="14">
         <f>SUM(D$4:D146)</f>
         <v>3879605</v>
       </c>
-      <c r="D146" s="13">
+      <c r="D146" s="14">
         <v>137300</v>
       </c>
-      <c r="E146" s="16">
+      <c r="E146" s="17">
         <v>16</v>
       </c>
-      <c r="F146" s="13">
-        <v>100</v>
-      </c>
-      <c r="G146" s="13">
+      <c r="F146" s="14">
+        <v>100</v>
+      </c>
+      <c r="G146" s="14">
         <v>143</v>
       </c>
     </row>
     <row r="147" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A147" s="13">
+      <c r="A147" s="14">
         <v>144</v>
       </c>
-      <c r="B147" s="13">
+      <c r="B147" s="14">
         <v>144</v>
       </c>
-      <c r="C147" s="13">
+      <c r="C147" s="14">
         <f>SUM(D$4:D147)</f>
         <v>4027465</v>
       </c>
-      <c r="D147" s="13">
+      <c r="D147" s="14">
         <v>147860</v>
       </c>
-      <c r="E147" s="16">
+      <c r="E147" s="17">
         <v>16</v>
       </c>
-      <c r="F147" s="13">
-        <v>100</v>
-      </c>
-      <c r="G147" s="13">
+      <c r="F147" s="14">
+        <v>100</v>
+      </c>
+      <c r="G147" s="14">
         <v>144</v>
       </c>
     </row>
     <row r="148" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A148" s="13">
+      <c r="A148" s="14">
         <v>145</v>
       </c>
-      <c r="B148" s="13">
+      <c r="B148" s="14">
         <v>145</v>
       </c>
-      <c r="C148" s="13">
+      <c r="C148" s="14">
         <f>SUM(D$4:D148)</f>
         <v>4185885</v>
       </c>
-      <c r="D148" s="13">
+      <c r="D148" s="14">
         <v>158420</v>
       </c>
-      <c r="E148" s="16">
+      <c r="E148" s="17">
         <v>16</v>
       </c>
-      <c r="F148" s="13">
-        <v>100</v>
-      </c>
-      <c r="G148" s="13">
+      <c r="F148" s="14">
+        <v>100</v>
+      </c>
+      <c r="G148" s="14">
         <v>145</v>
       </c>
     </row>
     <row r="149" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A149" s="13">
+      <c r="A149" s="14">
         <v>146</v>
       </c>
-      <c r="B149" s="13">
+      <c r="B149" s="14">
         <v>146</v>
       </c>
-      <c r="C149" s="13">
+      <c r="C149" s="14">
         <f>SUM(D$4:D149)</f>
         <v>4354870</v>
       </c>
-      <c r="D149" s="13">
+      <c r="D149" s="14">
         <v>168985</v>
       </c>
-      <c r="E149" s="16">
+      <c r="E149" s="17">
         <v>16</v>
       </c>
-      <c r="F149" s="13">
-        <v>100</v>
-      </c>
-      <c r="G149" s="13">
+      <c r="F149" s="14">
+        <v>100</v>
+      </c>
+      <c r="G149" s="14">
         <v>146</v>
       </c>
     </row>
     <row r="150" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A150" s="13">
+      <c r="A150" s="14">
         <v>147</v>
       </c>
-      <c r="B150" s="13">
+      <c r="B150" s="14">
         <v>147</v>
       </c>
-      <c r="C150" s="13">
+      <c r="C150" s="14">
         <f>SUM(D$4:D150)</f>
         <v>4534415</v>
       </c>
-      <c r="D150" s="13">
+      <c r="D150" s="14">
         <v>179545</v>
       </c>
-      <c r="E150" s="16">
+      <c r="E150" s="17">
         <v>16</v>
       </c>
-      <c r="F150" s="13">
-        <v>100</v>
-      </c>
-      <c r="G150" s="13">
+      <c r="F150" s="14">
+        <v>100</v>
+      </c>
+      <c r="G150" s="14">
         <v>147</v>
       </c>
     </row>
     <row r="151" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A151" s="13">
+      <c r="A151" s="14">
         <v>148</v>
       </c>
-      <c r="B151" s="13">
+      <c r="B151" s="14">
         <v>148</v>
       </c>
-      <c r="C151" s="13">
+      <c r="C151" s="14">
         <f>SUM(D$4:D151)</f>
         <v>4724520</v>
       </c>
-      <c r="D151" s="13">
+      <c r="D151" s="14">
         <v>190105</v>
       </c>
-      <c r="E151" s="16">
+      <c r="E151" s="17">
         <v>16</v>
       </c>
-      <c r="F151" s="13">
-        <v>100</v>
-      </c>
-      <c r="G151" s="13">
+      <c r="F151" s="14">
+        <v>100</v>
+      </c>
+      <c r="G151" s="14">
         <v>148</v>
       </c>
     </row>
     <row r="152" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A152" s="13">
+      <c r="A152" s="14">
         <v>149</v>
       </c>
-      <c r="B152" s="13">
+      <c r="B152" s="14">
         <v>149</v>
       </c>
-      <c r="C152" s="13">
+      <c r="C152" s="14">
         <f>SUM(D$4:D152)</f>
         <v>4935750</v>
       </c>
-      <c r="D152" s="13">
+      <c r="D152" s="14">
         <v>211230</v>
       </c>
-      <c r="E152" s="16">
+      <c r="E152" s="17">
         <v>16</v>
       </c>
-      <c r="F152" s="13">
-        <v>100</v>
-      </c>
-      <c r="G152" s="13">
+      <c r="F152" s="14">
+        <v>100</v>
+      </c>
+      <c r="G152" s="14">
         <v>149</v>
       </c>
     </row>
     <row r="153" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A153" s="13">
+      <c r="A153" s="14">
         <v>150</v>
       </c>
-      <c r="B153" s="13">
+      <c r="B153" s="14">
         <v>150</v>
       </c>
-      <c r="C153" s="13">
+      <c r="C153" s="14">
         <f>SUM(D$4:D153)</f>
         <v>5098325</v>
       </c>
-      <c r="D153" s="13">
+      <c r="D153" s="14">
         <v>162575</v>
       </c>
-      <c r="E153" s="16">
+      <c r="E153" s="17">
         <v>16</v>
       </c>
-      <c r="F153" s="13">
-        <v>100</v>
-      </c>
-      <c r="G153" s="13">
+      <c r="F153" s="14">
+        <v>100</v>
+      </c>
+      <c r="G153" s="14">
         <v>150</v>
       </c>
     </row>
-    <row r="154" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A154" s="13">
-        <v>151</v>
-      </c>
-      <c r="B154" s="13">
-        <v>151</v>
-      </c>
-      <c r="C154" s="13">
-        <f>SUM(D$4:D154)</f>
-        <v>5277160</v>
-      </c>
-      <c r="D154" s="13">
-        <v>178835</v>
-      </c>
-      <c r="E154" s="16">
-        <v>16</v>
-      </c>
-      <c r="F154" s="13">
-        <v>100</v>
-      </c>
-      <c r="G154" s="13">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A155" s="13">
-        <v>152</v>
-      </c>
-      <c r="B155" s="13">
-        <v>152</v>
-      </c>
-      <c r="C155" s="13">
-        <f>SUM(D$4:D155)</f>
-        <v>5472250</v>
-      </c>
-      <c r="D155" s="13">
-        <v>195090</v>
-      </c>
-      <c r="E155" s="16">
-        <v>16</v>
-      </c>
-      <c r="F155" s="13">
-        <v>100</v>
-      </c>
-      <c r="G155" s="13">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A156" s="13">
-        <v>153</v>
-      </c>
-      <c r="B156" s="13">
-        <v>153</v>
-      </c>
-      <c r="C156" s="13">
-        <f>SUM(D$4:D156)</f>
-        <v>5683600</v>
-      </c>
-      <c r="D156" s="13">
-        <v>211350</v>
-      </c>
-      <c r="E156" s="16">
-        <v>16</v>
-      </c>
-      <c r="F156" s="13">
-        <v>100</v>
-      </c>
-      <c r="G156" s="13">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A157" s="13">
-        <v>154</v>
-      </c>
-      <c r="B157" s="13">
-        <v>154</v>
-      </c>
-      <c r="C157" s="13">
-        <f>SUM(D$4:D157)</f>
-        <v>5911205</v>
-      </c>
-      <c r="D157" s="13">
-        <v>227605</v>
-      </c>
-      <c r="E157" s="16">
-        <v>16</v>
-      </c>
-      <c r="F157" s="13">
-        <v>100</v>
-      </c>
-      <c r="G157" s="13">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A158" s="13">
-        <v>155</v>
-      </c>
-      <c r="B158" s="13">
-        <v>155</v>
-      </c>
-      <c r="C158" s="13">
-        <f>SUM(D$4:D158)</f>
-        <v>6155070</v>
-      </c>
-      <c r="D158" s="13">
-        <v>243865</v>
-      </c>
-      <c r="E158" s="16">
-        <v>16</v>
-      </c>
-      <c r="F158" s="13">
-        <v>100</v>
-      </c>
-      <c r="G158" s="13">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A159" s="13">
-        <v>156</v>
-      </c>
-      <c r="B159" s="13">
-        <v>156</v>
-      </c>
-      <c r="C159" s="13">
-        <f>SUM(D$4:D159)</f>
-        <v>6415190</v>
-      </c>
-      <c r="D159" s="13">
-        <v>260120</v>
-      </c>
-      <c r="E159" s="16">
-        <v>16</v>
-      </c>
-      <c r="F159" s="13">
-        <v>100</v>
-      </c>
-      <c r="G159" s="13">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A160" s="13">
-        <v>157</v>
-      </c>
-      <c r="B160" s="13">
-        <v>157</v>
-      </c>
-      <c r="C160" s="13">
-        <f>SUM(D$4:D160)</f>
-        <v>6691570</v>
-      </c>
-      <c r="D160" s="13">
-        <v>276380</v>
-      </c>
-      <c r="E160" s="16">
-        <v>16</v>
-      </c>
-      <c r="F160" s="13">
-        <v>100</v>
-      </c>
-      <c r="G160" s="13">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A161" s="13">
-        <v>158</v>
-      </c>
-      <c r="B161" s="13">
-        <v>158</v>
-      </c>
-      <c r="C161" s="13">
-        <f>SUM(D$4:D161)</f>
-        <v>6984205</v>
-      </c>
-      <c r="D161" s="13">
-        <v>292635</v>
-      </c>
-      <c r="E161" s="16">
-        <v>16</v>
-      </c>
-      <c r="F161" s="13">
-        <v>100</v>
-      </c>
-      <c r="G161" s="13">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A162" s="13">
-        <v>159</v>
-      </c>
-      <c r="B162" s="13">
-        <v>159</v>
-      </c>
-      <c r="C162" s="13">
-        <f>SUM(D$4:D162)</f>
-        <v>7309355</v>
-      </c>
-      <c r="D162" s="13">
-        <v>325150</v>
-      </c>
-      <c r="E162" s="16">
-        <v>16</v>
-      </c>
-      <c r="F162" s="13">
-        <v>100</v>
-      </c>
-      <c r="G162" s="13">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A163" s="13">
-        <v>160</v>
-      </c>
-      <c r="B163" s="13">
-        <v>160</v>
-      </c>
-      <c r="C163" s="13">
-        <f>SUM(D$4:D163)</f>
-        <v>7557405</v>
-      </c>
-      <c r="D163" s="13">
-        <v>248050</v>
-      </c>
-      <c r="E163" s="16">
-        <v>16</v>
-      </c>
-      <c r="F163" s="13">
-        <v>100</v>
-      </c>
-      <c r="G163" s="13">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A164" s="13">
-        <v>161</v>
-      </c>
-      <c r="B164" s="13">
-        <v>161</v>
-      </c>
-      <c r="C164" s="13">
-        <f>SUM(D$4:D164)</f>
-        <v>7830265</v>
-      </c>
-      <c r="D164" s="13">
-        <v>272860</v>
-      </c>
-      <c r="E164" s="16">
-        <v>16</v>
-      </c>
-      <c r="F164" s="13">
-        <v>100</v>
-      </c>
-      <c r="G164" s="13">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A165" s="13">
-        <v>162</v>
-      </c>
-      <c r="B165" s="13">
-        <v>162</v>
-      </c>
-      <c r="C165" s="13">
-        <f>SUM(D$4:D165)</f>
-        <v>8127930</v>
-      </c>
-      <c r="D165" s="13">
-        <v>297665</v>
-      </c>
-      <c r="E165" s="16">
-        <v>16</v>
-      </c>
-      <c r="F165" s="13">
-        <v>100</v>
-      </c>
-      <c r="G165" s="13">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A166" s="13">
-        <v>163</v>
-      </c>
-      <c r="B166" s="13">
-        <v>163</v>
-      </c>
-      <c r="C166" s="13">
-        <f>SUM(D$4:D166)</f>
-        <v>8450400</v>
-      </c>
-      <c r="D166" s="13">
-        <v>322470</v>
-      </c>
-      <c r="E166" s="16">
-        <v>16</v>
-      </c>
-      <c r="F166" s="13">
-        <v>100</v>
-      </c>
-      <c r="G166" s="13">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A167" s="13">
-        <v>164</v>
-      </c>
-      <c r="B167" s="13">
-        <v>164</v>
-      </c>
-      <c r="C167" s="13">
-        <f>SUM(D$4:D167)</f>
-        <v>8797675</v>
-      </c>
-      <c r="D167" s="13">
-        <v>347275</v>
-      </c>
-      <c r="E167" s="16">
-        <v>16</v>
-      </c>
-      <c r="F167" s="13">
-        <v>100</v>
-      </c>
-      <c r="G167" s="13">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A168" s="13">
-        <v>165</v>
-      </c>
-      <c r="B168" s="13">
-        <v>165</v>
-      </c>
-      <c r="C168" s="13">
-        <f>SUM(D$4:D168)</f>
-        <v>9169755</v>
-      </c>
-      <c r="D168" s="13">
-        <v>372080</v>
-      </c>
-      <c r="E168" s="16">
-        <v>16</v>
-      </c>
-      <c r="F168" s="13">
-        <v>100</v>
-      </c>
-      <c r="G168" s="13">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A169" s="13">
-        <v>166</v>
-      </c>
-      <c r="B169" s="13">
-        <v>166</v>
-      </c>
-      <c r="C169" s="13">
-        <f>SUM(D$4:D169)</f>
-        <v>9566640</v>
-      </c>
-      <c r="D169" s="13">
-        <v>396885</v>
-      </c>
-      <c r="E169" s="16">
-        <v>16</v>
-      </c>
-      <c r="F169" s="13">
-        <v>100</v>
-      </c>
-      <c r="G169" s="13">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A170" s="13">
-        <v>167</v>
-      </c>
-      <c r="B170" s="13">
-        <v>167</v>
-      </c>
-      <c r="C170" s="13">
-        <f>SUM(D$4:D170)</f>
-        <v>9988330</v>
-      </c>
-      <c r="D170" s="13">
-        <v>421690</v>
-      </c>
-      <c r="E170" s="16">
-        <v>16</v>
-      </c>
-      <c r="F170" s="13">
-        <v>100</v>
-      </c>
-      <c r="G170" s="13">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A171" s="13">
-        <v>168</v>
-      </c>
-      <c r="B171" s="13">
-        <v>168</v>
-      </c>
-      <c r="C171" s="13">
-        <f>SUM(D$4:D171)</f>
-        <v>10434825</v>
-      </c>
-      <c r="D171" s="13">
-        <v>446495</v>
-      </c>
-      <c r="E171" s="16">
-        <v>16</v>
-      </c>
-      <c r="F171" s="13">
-        <v>100</v>
-      </c>
-      <c r="G171" s="13">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A172" s="13">
-        <v>169</v>
-      </c>
-      <c r="B172" s="13">
-        <v>169</v>
-      </c>
-      <c r="C172" s="13">
-        <f>SUM(D$4:D172)</f>
-        <v>10930930</v>
-      </c>
-      <c r="D172" s="13">
-        <v>496105</v>
-      </c>
-      <c r="E172" s="16">
-        <v>16</v>
-      </c>
-      <c r="F172" s="13">
-        <v>100</v>
-      </c>
-      <c r="G172" s="13">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A173" s="13">
-        <v>170</v>
-      </c>
-      <c r="B173" s="13">
-        <v>170</v>
-      </c>
-      <c r="C173" s="13">
-        <f>SUM(D$4:D173)</f>
-        <v>11307315</v>
-      </c>
-      <c r="D173" s="13">
-        <v>376385</v>
-      </c>
-      <c r="E173" s="16">
-        <v>16</v>
-      </c>
-      <c r="F173" s="13">
-        <v>100</v>
-      </c>
-      <c r="G173" s="13">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A174" s="13">
-        <v>171</v>
-      </c>
-      <c r="B174" s="13">
-        <v>171</v>
-      </c>
-      <c r="C174" s="13">
-        <f>SUM(D$4:D174)</f>
-        <v>11721340</v>
-      </c>
-      <c r="D174" s="13">
-        <v>414025</v>
-      </c>
-      <c r="E174" s="16">
-        <v>16</v>
-      </c>
-      <c r="F174" s="13">
-        <v>100</v>
-      </c>
-      <c r="G174" s="13">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A175" s="13">
-        <v>172</v>
-      </c>
-      <c r="B175" s="13">
-        <v>172</v>
-      </c>
-      <c r="C175" s="13">
-        <f>SUM(D$4:D175)</f>
-        <v>12173000</v>
-      </c>
-      <c r="D175" s="13">
-        <v>451660</v>
-      </c>
-      <c r="E175" s="16">
-        <v>16</v>
-      </c>
-      <c r="F175" s="13">
-        <v>100</v>
-      </c>
-      <c r="G175" s="13">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A176" s="13">
-        <v>173</v>
-      </c>
-      <c r="B176" s="13">
-        <v>173</v>
-      </c>
-      <c r="C176" s="13">
-        <f>SUM(D$4:D176)</f>
-        <v>12662300</v>
-      </c>
-      <c r="D176" s="13">
-        <v>489300</v>
-      </c>
-      <c r="E176" s="16">
-        <v>16</v>
-      </c>
-      <c r="F176" s="13">
-        <v>100</v>
-      </c>
-      <c r="G176" s="13">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A177" s="13">
-        <v>174</v>
-      </c>
-      <c r="B177" s="13">
-        <v>174</v>
-      </c>
-      <c r="C177" s="13">
-        <f>SUM(D$4:D177)</f>
-        <v>13189240</v>
-      </c>
-      <c r="D177" s="13">
-        <v>526940</v>
-      </c>
-      <c r="E177" s="16">
-        <v>16</v>
-      </c>
-      <c r="F177" s="13">
-        <v>100</v>
-      </c>
-      <c r="G177" s="13">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A178" s="13">
-        <v>175</v>
-      </c>
-      <c r="B178" s="13">
-        <v>175</v>
-      </c>
-      <c r="C178" s="13">
-        <f>SUM(D$4:D178)</f>
-        <v>13753820</v>
-      </c>
-      <c r="D178" s="13">
-        <v>564580</v>
-      </c>
-      <c r="E178" s="16">
-        <v>16</v>
-      </c>
-      <c r="F178" s="13">
-        <v>100</v>
-      </c>
-      <c r="G178" s="13">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A179" s="13">
-        <v>176</v>
-      </c>
-      <c r="B179" s="13">
-        <v>176</v>
-      </c>
-      <c r="C179" s="13">
-        <f>SUM(D$4:D179)</f>
-        <v>14356035</v>
-      </c>
-      <c r="D179" s="13">
-        <v>602215</v>
-      </c>
-      <c r="E179" s="16">
-        <v>16</v>
-      </c>
-      <c r="F179" s="13">
-        <v>100</v>
-      </c>
-      <c r="G179" s="13">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A180" s="13">
-        <v>177</v>
-      </c>
-      <c r="B180" s="13">
-        <v>177</v>
-      </c>
-      <c r="C180" s="13">
-        <f>SUM(D$4:D180)</f>
-        <v>14995890</v>
-      </c>
-      <c r="D180" s="13">
-        <v>639855</v>
-      </c>
-      <c r="E180" s="16">
-        <v>16</v>
-      </c>
-      <c r="F180" s="13">
-        <v>100</v>
-      </c>
-      <c r="G180" s="13">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A181" s="13">
-        <v>178</v>
-      </c>
-      <c r="B181" s="13">
-        <v>178</v>
-      </c>
-      <c r="C181" s="13">
-        <f>SUM(D$4:D181)</f>
-        <v>15673385</v>
-      </c>
-      <c r="D181" s="13">
-        <v>677495</v>
-      </c>
-      <c r="E181" s="16">
-        <v>16</v>
-      </c>
-      <c r="F181" s="13">
-        <v>100</v>
-      </c>
-      <c r="G181" s="13">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A182" s="13">
-        <v>179</v>
-      </c>
-      <c r="B182" s="13">
-        <v>179</v>
-      </c>
-      <c r="C182" s="13">
-        <f>SUM(D$4:D182)</f>
-        <v>16426155</v>
-      </c>
-      <c r="D182" s="13">
-        <v>752770</v>
-      </c>
-      <c r="E182" s="16">
-        <v>16</v>
-      </c>
-      <c r="F182" s="13">
-        <v>100</v>
-      </c>
-      <c r="G182" s="13">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A183" s="13">
-        <v>180</v>
-      </c>
-      <c r="B183" s="13">
-        <v>180</v>
-      </c>
-      <c r="C183" s="13">
-        <f>SUM(D$4:D183)</f>
-        <v>16954235</v>
-      </c>
-      <c r="D183" s="13">
-        <v>528080</v>
-      </c>
-      <c r="E183" s="16">
-        <v>16</v>
-      </c>
-      <c r="F183" s="13">
-        <v>100</v>
-      </c>
-      <c r="G183" s="13">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A184" s="13">
-        <v>181</v>
-      </c>
-      <c r="B184" s="13">
-        <v>181</v>
-      </c>
-      <c r="C184" s="13">
-        <f>SUM(D$4:D184)</f>
-        <v>17535125</v>
-      </c>
-      <c r="D184" s="13">
-        <v>580890</v>
-      </c>
-      <c r="E184" s="16">
-        <v>16</v>
-      </c>
-      <c r="F184" s="13">
-        <v>100</v>
-      </c>
-      <c r="G184" s="13">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A185" s="13">
-        <v>182</v>
-      </c>
-      <c r="B185" s="13">
-        <v>182</v>
-      </c>
-      <c r="C185" s="13">
-        <f>SUM(D$4:D185)</f>
-        <v>18168820</v>
-      </c>
-      <c r="D185" s="13">
-        <v>633695</v>
-      </c>
-      <c r="E185" s="16">
-        <v>16</v>
-      </c>
-      <c r="F185" s="13">
-        <v>100</v>
-      </c>
-      <c r="G185" s="13">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A186" s="13">
-        <v>183</v>
-      </c>
-      <c r="B186" s="13">
-        <v>183</v>
-      </c>
-      <c r="C186" s="13">
-        <f>SUM(D$4:D186)</f>
-        <v>18855325</v>
-      </c>
-      <c r="D186" s="13">
-        <v>686505</v>
-      </c>
-      <c r="E186" s="16">
-        <v>16</v>
-      </c>
-      <c r="F186" s="13">
-        <v>100</v>
-      </c>
-      <c r="G186" s="13">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A187" s="13">
-        <v>184</v>
-      </c>
-      <c r="B187" s="13">
-        <v>184</v>
-      </c>
-      <c r="C187" s="13">
-        <f>SUM(D$4:D187)</f>
-        <v>19594640</v>
-      </c>
-      <c r="D187" s="13">
-        <v>739315</v>
-      </c>
-      <c r="E187" s="16">
-        <v>16</v>
-      </c>
-      <c r="F187" s="13">
-        <v>100</v>
-      </c>
-      <c r="G187" s="13">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A188" s="13">
-        <v>185</v>
-      </c>
-      <c r="B188" s="13">
-        <v>185</v>
-      </c>
-      <c r="C188" s="13">
-        <f>SUM(D$4:D188)</f>
-        <v>20386760</v>
-      </c>
-      <c r="D188" s="13">
-        <v>792120</v>
-      </c>
-      <c r="E188" s="16">
-        <v>16</v>
-      </c>
-      <c r="F188" s="13">
-        <v>100</v>
-      </c>
-      <c r="G188" s="13">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A189" s="13">
-        <v>186</v>
-      </c>
-      <c r="B189" s="13">
-        <v>186</v>
-      </c>
-      <c r="C189" s="13">
-        <f>SUM(D$4:D189)</f>
-        <v>21231690</v>
-      </c>
-      <c r="D189" s="13">
-        <v>844930</v>
-      </c>
-      <c r="E189" s="16">
-        <v>16</v>
-      </c>
-      <c r="F189" s="13">
-        <v>100</v>
-      </c>
-      <c r="G189" s="13">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A190" s="13">
-        <v>187</v>
-      </c>
-      <c r="B190" s="13">
-        <v>187</v>
-      </c>
-      <c r="C190" s="13">
-        <f>SUM(D$4:D190)</f>
-        <v>22129425</v>
-      </c>
-      <c r="D190" s="13">
-        <v>897735</v>
-      </c>
-      <c r="E190" s="16">
-        <v>16</v>
-      </c>
-      <c r="F190" s="13">
-        <v>100</v>
-      </c>
-      <c r="G190" s="13">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A191" s="13">
-        <v>188</v>
-      </c>
-      <c r="B191" s="13">
-        <v>188</v>
-      </c>
-      <c r="C191" s="13">
-        <f>SUM(D$4:D191)</f>
-        <v>23079970</v>
-      </c>
-      <c r="D191" s="13">
-        <v>950545</v>
-      </c>
-      <c r="E191" s="16">
-        <v>16</v>
-      </c>
-      <c r="F191" s="13">
-        <v>100</v>
-      </c>
-      <c r="G191" s="13">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A192" s="13">
-        <v>189</v>
-      </c>
-      <c r="B192" s="13">
-        <v>189</v>
-      </c>
-      <c r="C192" s="13">
-        <f>SUM(D$4:D192)</f>
-        <v>24136130</v>
-      </c>
-      <c r="D192" s="13">
-        <v>1056160</v>
-      </c>
-      <c r="E192" s="16">
-        <v>16</v>
-      </c>
-      <c r="F192" s="13">
-        <v>100</v>
-      </c>
-      <c r="G192" s="13">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A193" s="13">
-        <v>190</v>
-      </c>
-      <c r="B193" s="13">
-        <v>190</v>
-      </c>
-      <c r="C193" s="13">
-        <f>SUM(D$4:D193)</f>
-        <v>24896400</v>
-      </c>
-      <c r="D193" s="13">
-        <v>760270</v>
-      </c>
-      <c r="E193" s="16">
-        <v>16</v>
-      </c>
-      <c r="F193" s="13">
-        <v>100</v>
-      </c>
-      <c r="G193" s="13">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A194" s="13">
-        <v>191</v>
-      </c>
-      <c r="B194" s="13">
-        <v>191</v>
-      </c>
-      <c r="C194" s="13">
-        <f>SUM(D$4:D194)</f>
-        <v>25732700</v>
-      </c>
-      <c r="D194" s="13">
-        <v>836300</v>
-      </c>
-      <c r="E194" s="16">
-        <v>16</v>
-      </c>
-      <c r="F194" s="13">
-        <v>100</v>
-      </c>
-      <c r="G194" s="13">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A195" s="13">
-        <v>192</v>
-      </c>
-      <c r="B195" s="13">
-        <v>192</v>
-      </c>
-      <c r="C195" s="13">
-        <f>SUM(D$4:D195)</f>
-        <v>26645025</v>
-      </c>
-      <c r="D195" s="13">
-        <v>912325</v>
-      </c>
-      <c r="E195" s="16">
-        <v>16</v>
-      </c>
-      <c r="F195" s="13">
-        <v>100</v>
-      </c>
-      <c r="G195" s="13">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A196" s="13">
-        <v>193</v>
-      </c>
-      <c r="B196" s="13">
-        <v>193</v>
-      </c>
-      <c r="C196" s="13">
-        <f>SUM(D$4:D196)</f>
-        <v>27633380</v>
-      </c>
-      <c r="D196" s="13">
-        <v>988355</v>
-      </c>
-      <c r="E196" s="16">
-        <v>16</v>
-      </c>
-      <c r="F196" s="13">
-        <v>100</v>
-      </c>
-      <c r="G196" s="13">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A197" s="13">
-        <v>194</v>
-      </c>
-      <c r="B197" s="13">
-        <v>194</v>
-      </c>
-      <c r="C197" s="13">
-        <f>SUM(D$4:D197)</f>
-        <v>28697760</v>
-      </c>
-      <c r="D197" s="13">
-        <v>1064380</v>
-      </c>
-      <c r="E197" s="16">
-        <v>16</v>
-      </c>
-      <c r="F197" s="13">
-        <v>100</v>
-      </c>
-      <c r="G197" s="13">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A198" s="13">
-        <v>195</v>
-      </c>
-      <c r="B198" s="13">
-        <v>195</v>
-      </c>
-      <c r="C198" s="13">
-        <f>SUM(D$4:D198)</f>
-        <v>29838170</v>
-      </c>
-      <c r="D198" s="13">
-        <v>1140410</v>
-      </c>
-      <c r="E198" s="16">
-        <v>16</v>
-      </c>
-      <c r="F198" s="13">
-        <v>100</v>
-      </c>
-      <c r="G198" s="13">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A199" s="13">
-        <v>196</v>
-      </c>
-      <c r="B199" s="13">
-        <v>196</v>
-      </c>
-      <c r="C199" s="13">
-        <f>SUM(D$4:D199)</f>
-        <v>31054605</v>
-      </c>
-      <c r="D199" s="13">
-        <v>1216435</v>
-      </c>
-      <c r="E199" s="16">
-        <v>16</v>
-      </c>
-      <c r="F199" s="13">
-        <v>100</v>
-      </c>
-      <c r="G199" s="13">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A200" s="13">
-        <v>197</v>
-      </c>
-      <c r="B200" s="13">
-        <v>197</v>
-      </c>
-      <c r="C200" s="13">
-        <f>SUM(D$4:D200)</f>
-        <v>32347070</v>
-      </c>
-      <c r="D200" s="13">
-        <v>1292465</v>
-      </c>
-      <c r="E200" s="16">
-        <v>16</v>
-      </c>
-      <c r="F200" s="13">
-        <v>100</v>
-      </c>
-      <c r="G200" s="13">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A201" s="13">
-        <v>198</v>
-      </c>
-      <c r="B201" s="13">
-        <v>198</v>
-      </c>
-      <c r="C201" s="13">
-        <f>SUM(D$4:D201)</f>
-        <v>33715560</v>
-      </c>
-      <c r="D201" s="13">
-        <v>1368490</v>
-      </c>
-      <c r="E201" s="16">
-        <v>16</v>
-      </c>
-      <c r="F201" s="13">
-        <v>100</v>
-      </c>
-      <c r="G201" s="13">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A202" s="13">
-        <v>199</v>
-      </c>
-      <c r="B202" s="13">
-        <v>199</v>
-      </c>
-      <c r="C202" s="13">
-        <f>SUM(D$4:D202)</f>
-        <v>35236105</v>
-      </c>
-      <c r="D202" s="13">
-        <v>1520545</v>
-      </c>
-      <c r="E202" s="16">
-        <v>16</v>
-      </c>
-      <c r="F202" s="13">
-        <v>100</v>
-      </c>
-      <c r="G202" s="13">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A203" s="13">
-        <v>200</v>
-      </c>
-      <c r="B203" s="13">
-        <v>200</v>
-      </c>
-      <c r="C203" s="13">
-        <f>SUM(D$4:D203)</f>
-        <v>36908705</v>
-      </c>
-      <c r="D203" s="13">
-        <v>1672600</v>
-      </c>
-      <c r="E203" s="16">
-        <v>16</v>
-      </c>
-      <c r="F203" s="13">
-        <v>100</v>
-      </c>
-      <c r="G203" s="13">
-        <v>200</v>
-      </c>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A154" s="20"/>
+      <c r="B154" s="20"/>
+      <c r="C154" s="20"/>
+      <c r="D154" s="20"/>
+      <c r="E154" s="20"/>
+      <c r="F154" s="20"/>
+      <c r="G154" s="20"/>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A155" s="20"/>
+      <c r="B155" s="20"/>
+      <c r="C155" s="20"/>
+      <c r="D155" s="20"/>
+      <c r="E155" s="20"/>
+      <c r="F155" s="20"/>
+      <c r="G155" s="20"/>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A156" s="20"/>
+      <c r="B156" s="20"/>
+      <c r="C156" s="20"/>
+      <c r="D156" s="20"/>
+      <c r="E156" s="20"/>
+      <c r="F156" s="20"/>
+      <c r="G156" s="20"/>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A157" s="20"/>
+      <c r="B157" s="20"/>
+      <c r="C157" s="20"/>
+      <c r="D157" s="20"/>
+      <c r="E157" s="20"/>
+      <c r="F157" s="20"/>
+      <c r="G157" s="20"/>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A158" s="20"/>
+      <c r="B158" s="20"/>
+      <c r="C158" s="20"/>
+      <c r="D158" s="20"/>
+      <c r="E158" s="20"/>
+      <c r="F158" s="20"/>
+      <c r="G158" s="20"/>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A159" s="20"/>
+      <c r="B159" s="20"/>
+      <c r="C159" s="20"/>
+      <c r="D159" s="20"/>
+      <c r="E159" s="20"/>
+      <c r="F159" s="20"/>
+      <c r="G159" s="20"/>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A160" s="20"/>
+      <c r="B160" s="20"/>
+      <c r="C160" s="20"/>
+      <c r="D160" s="20"/>
+      <c r="E160" s="20"/>
+      <c r="F160" s="20"/>
+      <c r="G160" s="20"/>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A161" s="20"/>
+      <c r="B161" s="20"/>
+      <c r="C161" s="20"/>
+      <c r="D161" s="20"/>
+      <c r="E161" s="20"/>
+      <c r="F161" s="20"/>
+      <c r="G161" s="20"/>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A162" s="20"/>
+      <c r="B162" s="20"/>
+      <c r="C162" s="20"/>
+      <c r="D162" s="20"/>
+      <c r="E162" s="20"/>
+      <c r="F162" s="20"/>
+      <c r="G162" s="20"/>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A163" s="20"/>
+      <c r="B163" s="20"/>
+      <c r="C163" s="20"/>
+      <c r="D163" s="20"/>
+      <c r="E163" s="20"/>
+      <c r="F163" s="20"/>
+      <c r="G163" s="20"/>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A164" s="20"/>
+      <c r="B164" s="20"/>
+      <c r="C164" s="20"/>
+      <c r="D164" s="20"/>
+      <c r="E164" s="20"/>
+      <c r="F164" s="20"/>
+      <c r="G164" s="20"/>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A165" s="20"/>
+      <c r="B165" s="20"/>
+      <c r="C165" s="20"/>
+      <c r="D165" s="20"/>
+      <c r="E165" s="20"/>
+      <c r="F165" s="20"/>
+      <c r="G165" s="20"/>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A166" s="20"/>
+      <c r="B166" s="20"/>
+      <c r="C166" s="20"/>
+      <c r="D166" s="20"/>
+      <c r="E166" s="20"/>
+      <c r="F166" s="20"/>
+      <c r="G166" s="20"/>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A167" s="20"/>
+      <c r="B167" s="20"/>
+      <c r="C167" s="20"/>
+      <c r="D167" s="20"/>
+      <c r="E167" s="20"/>
+      <c r="F167" s="20"/>
+      <c r="G167" s="20"/>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A168" s="20"/>
+      <c r="B168" s="20"/>
+      <c r="C168" s="20"/>
+      <c r="D168" s="20"/>
+      <c r="E168" s="20"/>
+      <c r="F168" s="20"/>
+      <c r="G168" s="20"/>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A169" s="20"/>
+      <c r="B169" s="20"/>
+      <c r="C169" s="20"/>
+      <c r="D169" s="20"/>
+      <c r="E169" s="20"/>
+      <c r="F169" s="20"/>
+      <c r="G169" s="20"/>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A170" s="20"/>
+      <c r="B170" s="20"/>
+      <c r="C170" s="20"/>
+      <c r="D170" s="20"/>
+      <c r="E170" s="20"/>
+      <c r="F170" s="20"/>
+      <c r="G170" s="20"/>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A171" s="20"/>
+      <c r="B171" s="20"/>
+      <c r="C171" s="20"/>
+      <c r="D171" s="20"/>
+      <c r="E171" s="20"/>
+      <c r="F171" s="20"/>
+      <c r="G171" s="20"/>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A172" s="20"/>
+      <c r="B172" s="20"/>
+      <c r="C172" s="20"/>
+      <c r="D172" s="20"/>
+      <c r="E172" s="20"/>
+      <c r="F172" s="20"/>
+      <c r="G172" s="20"/>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A173" s="20"/>
+      <c r="B173" s="20"/>
+      <c r="C173" s="20"/>
+      <c r="D173" s="20"/>
+      <c r="E173" s="20"/>
+      <c r="F173" s="20"/>
+      <c r="G173" s="20"/>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A174" s="20"/>
+      <c r="B174" s="20"/>
+      <c r="C174" s="20"/>
+      <c r="D174" s="20"/>
+      <c r="E174" s="20"/>
+      <c r="F174" s="20"/>
+      <c r="G174" s="20"/>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A175" s="20"/>
+      <c r="B175" s="20"/>
+      <c r="C175" s="20"/>
+      <c r="D175" s="20"/>
+      <c r="E175" s="20"/>
+      <c r="F175" s="20"/>
+      <c r="G175" s="20"/>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A176" s="20"/>
+      <c r="B176" s="20"/>
+      <c r="C176" s="20"/>
+      <c r="D176" s="20"/>
+      <c r="E176" s="20"/>
+      <c r="F176" s="20"/>
+      <c r="G176" s="20"/>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A177" s="20"/>
+      <c r="B177" s="20"/>
+      <c r="C177" s="20"/>
+      <c r="D177" s="20"/>
+      <c r="E177" s="20"/>
+      <c r="F177" s="20"/>
+      <c r="G177" s="20"/>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A178" s="20"/>
+      <c r="B178" s="20"/>
+      <c r="C178" s="20"/>
+      <c r="D178" s="20"/>
+      <c r="E178" s="20"/>
+      <c r="F178" s="20"/>
+      <c r="G178" s="20"/>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A179" s="20"/>
+      <c r="B179" s="20"/>
+      <c r="C179" s="20"/>
+      <c r="D179" s="20"/>
+      <c r="E179" s="20"/>
+      <c r="F179" s="20"/>
+      <c r="G179" s="20"/>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A180" s="20"/>
+      <c r="B180" s="20"/>
+      <c r="C180" s="20"/>
+      <c r="D180" s="20"/>
+      <c r="E180" s="20"/>
+      <c r="F180" s="20"/>
+      <c r="G180" s="20"/>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A181" s="20"/>
+      <c r="B181" s="20"/>
+      <c r="C181" s="20"/>
+      <c r="D181" s="20"/>
+      <c r="E181" s="20"/>
+      <c r="F181" s="20"/>
+      <c r="G181" s="20"/>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A182" s="20"/>
+      <c r="B182" s="20"/>
+      <c r="C182" s="20"/>
+      <c r="D182" s="20"/>
+      <c r="E182" s="20"/>
+      <c r="F182" s="20"/>
+      <c r="G182" s="20"/>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A183" s="20"/>
+      <c r="B183" s="20"/>
+      <c r="C183" s="20"/>
+      <c r="D183" s="20"/>
+      <c r="E183" s="20"/>
+      <c r="F183" s="20"/>
+      <c r="G183" s="20"/>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A184" s="20"/>
+      <c r="B184" s="20"/>
+      <c r="C184" s="20"/>
+      <c r="D184" s="20"/>
+      <c r="E184" s="20"/>
+      <c r="F184" s="20"/>
+      <c r="G184" s="20"/>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A185" s="20"/>
+      <c r="B185" s="20"/>
+      <c r="C185" s="20"/>
+      <c r="D185" s="20"/>
+      <c r="E185" s="20"/>
+      <c r="F185" s="20"/>
+      <c r="G185" s="20"/>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A186" s="20"/>
+      <c r="B186" s="20"/>
+      <c r="C186" s="20"/>
+      <c r="D186" s="20"/>
+      <c r="E186" s="20"/>
+      <c r="F186" s="20"/>
+      <c r="G186" s="20"/>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A187" s="20"/>
+      <c r="B187" s="20"/>
+      <c r="C187" s="20"/>
+      <c r="D187" s="20"/>
+      <c r="E187" s="20"/>
+      <c r="F187" s="20"/>
+      <c r="G187" s="20"/>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A188" s="20"/>
+      <c r="B188" s="20"/>
+      <c r="C188" s="20"/>
+      <c r="D188" s="20"/>
+      <c r="E188" s="20"/>
+      <c r="F188" s="20"/>
+      <c r="G188" s="20"/>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A189" s="20"/>
+      <c r="B189" s="20"/>
+      <c r="C189" s="20"/>
+      <c r="D189" s="20"/>
+      <c r="E189" s="20"/>
+      <c r="F189" s="20"/>
+      <c r="G189" s="20"/>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A190" s="20"/>
+      <c r="B190" s="20"/>
+      <c r="C190" s="20"/>
+      <c r="D190" s="20"/>
+      <c r="E190" s="20"/>
+      <c r="F190" s="20"/>
+      <c r="G190" s="20"/>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A191" s="20"/>
+      <c r="B191" s="20"/>
+      <c r="C191" s="20"/>
+      <c r="D191" s="20"/>
+      <c r="E191" s="20"/>
+      <c r="F191" s="20"/>
+      <c r="G191" s="20"/>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A192" s="20"/>
+      <c r="B192" s="20"/>
+      <c r="C192" s="20"/>
+      <c r="D192" s="20"/>
+      <c r="E192" s="20"/>
+      <c r="F192" s="20"/>
+      <c r="G192" s="20"/>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A193" s="20"/>
+      <c r="B193" s="20"/>
+      <c r="C193" s="20"/>
+      <c r="D193" s="20"/>
+      <c r="E193" s="20"/>
+      <c r="F193" s="20"/>
+      <c r="G193" s="20"/>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A194" s="20"/>
+      <c r="B194" s="20"/>
+      <c r="C194" s="20"/>
+      <c r="D194" s="20"/>
+      <c r="E194" s="20"/>
+      <c r="F194" s="20"/>
+      <c r="G194" s="20"/>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A195" s="20"/>
+      <c r="B195" s="20"/>
+      <c r="C195" s="20"/>
+      <c r="D195" s="20"/>
+      <c r="E195" s="20"/>
+      <c r="F195" s="20"/>
+      <c r="G195" s="20"/>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A196" s="20"/>
+      <c r="B196" s="20"/>
+      <c r="C196" s="20"/>
+      <c r="D196" s="20"/>
+      <c r="E196" s="20"/>
+      <c r="F196" s="20"/>
+      <c r="G196" s="20"/>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A197" s="20"/>
+      <c r="B197" s="20"/>
+      <c r="C197" s="20"/>
+      <c r="D197" s="20"/>
+      <c r="E197" s="20"/>
+      <c r="F197" s="20"/>
+      <c r="G197" s="20"/>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A198" s="20"/>
+      <c r="B198" s="20"/>
+      <c r="C198" s="20"/>
+      <c r="D198" s="20"/>
+      <c r="E198" s="20"/>
+      <c r="F198" s="20"/>
+      <c r="G198" s="20"/>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A199" s="20"/>
+      <c r="B199" s="20"/>
+      <c r="C199" s="20"/>
+      <c r="D199" s="20"/>
+      <c r="E199" s="20"/>
+      <c r="F199" s="20"/>
+      <c r="G199" s="20"/>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A200" s="20"/>
+      <c r="B200" s="20"/>
+      <c r="C200" s="20"/>
+      <c r="D200" s="20"/>
+      <c r="E200" s="20"/>
+      <c r="F200" s="20"/>
+      <c r="G200" s="20"/>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A201" s="20"/>
+      <c r="B201" s="20"/>
+      <c r="C201" s="20"/>
+      <c r="D201" s="20"/>
+      <c r="E201" s="20"/>
+      <c r="F201" s="20"/>
+      <c r="G201" s="20"/>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A202" s="20"/>
+      <c r="B202" s="20"/>
+      <c r="C202" s="20"/>
+      <c r="D202" s="20"/>
+      <c r="E202" s="20"/>
+      <c r="F202" s="20"/>
+      <c r="G202" s="20"/>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A203" s="20"/>
+      <c r="B203" s="20"/>
+      <c r="C203" s="20"/>
+      <c r="D203" s="20"/>
+      <c r="E203" s="20"/>
+      <c r="F203" s="20"/>
+      <c r="G203" s="20"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -6139,80 +5416,80 @@
         <v>10</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="45" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6220,19 +5497,19 @@
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C4" s="5">
         <v>0</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E4" s="5">
         <v>1</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G4" s="5">
         <v>0</v>
@@ -6241,7 +5518,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6249,13 +5526,13 @@
         <v>2</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C5" s="5">
         <v>1</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E5" s="5">
         <v>0</v>
@@ -6266,7 +5543,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6274,13 +5551,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C6" s="5">
         <v>1</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E6" s="5">
         <v>0</v>
@@ -6291,7 +5568,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6299,13 +5576,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C7" s="5">
         <v>1</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E7" s="5">
         <v>0</v>
@@ -6316,7 +5593,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6324,13 +5601,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C8" s="5">
         <v>1</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E8" s="5">
         <v>0</v>
@@ -6341,7 +5618,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6349,13 +5626,13 @@
         <v>6</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C9" s="5">
         <v>1</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E9" s="5">
         <v>0</v>
@@ -6366,7 +5643,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6374,7 +5651,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C10" s="5">
         <v>1</v>
@@ -6387,7 +5664,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6395,13 +5672,13 @@
         <v>8</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C11" s="5">
         <v>1</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E11" s="5">
         <v>0</v>
@@ -6412,7 +5689,7 @@
         <v>1</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6420,19 +5697,19 @@
         <v>9</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C12" s="5">
         <v>1</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E12" s="5">
         <v>0</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G12" s="5">
         <v>0</v>
@@ -6441,7 +5718,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6449,19 +5726,19 @@
         <v>10</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C13" s="5">
         <v>1</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E13" s="5">
         <v>0</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G13" s="5">
         <v>1</v>
@@ -6470,7 +5747,7 @@
         <v>1</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6478,13 +5755,13 @@
         <v>11</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C14" s="5">
         <v>1</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E14" s="5">
         <v>0</v>
@@ -6495,7 +5772,7 @@
         <v>1</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6503,19 +5780,19 @@
         <v>12</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C15" s="5">
         <v>1</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E15" s="5">
         <v>0</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G15" s="5">
         <v>0</v>
@@ -6524,7 +5801,7 @@
         <v>1</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6532,19 +5809,19 @@
         <v>13</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C16" s="5">
         <v>1</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E16" s="5">
         <v>0</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G16" s="5">
         <v>1</v>
@@ -6553,7 +5830,7 @@
         <v>1</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6561,13 +5838,13 @@
         <v>14</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C17" s="5">
         <v>1</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E17" s="5">
         <v>0</v>
@@ -6578,7 +5855,7 @@
         <v>1</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6586,13 +5863,13 @@
         <v>15</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C18" s="5">
         <v>1</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E18" s="5">
         <v>0</v>
@@ -6603,7 +5880,7 @@
         <v>1</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6611,13 +5888,13 @@
         <v>16</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C19" s="5">
         <v>0</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E19" s="5">
         <v>1</v>
@@ -6628,7 +5905,7 @@
         <v>1</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6636,13 +5913,13 @@
         <v>17</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C20" s="5">
         <v>0</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E20" s="5">
         <v>1</v>
@@ -6653,7 +5930,7 @@
         <v>1</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6661,13 +5938,13 @@
         <v>18</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C21" s="5">
         <v>0</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E21" s="5">
         <v>1</v>
@@ -6678,7 +5955,7 @@
         <v>1</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6686,13 +5963,13 @@
         <v>19</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C22" s="5">
         <v>0</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E22" s="5">
         <v>1</v>
@@ -6703,7 +5980,7 @@
         <v>1</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6711,19 +5988,19 @@
         <v>20</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C23" s="5">
         <v>1</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E23" s="5">
         <v>0</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G23" s="5">
         <v>0</v>
@@ -6732,7 +6009,7 @@
         <v>1</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6740,19 +6017,19 @@
         <v>21</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C24" s="5">
         <v>1</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E24" s="5">
         <v>0</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G24" s="5">
         <v>0</v>
@@ -6761,7 +6038,7 @@
         <v>1</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6769,7 +6046,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C25" s="5">
         <v>0</v>
@@ -6782,7 +6059,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6790,19 +6067,19 @@
         <v>23</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C26" s="5">
         <v>1</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E26" s="5">
         <v>0</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G26" s="5">
         <v>1</v>
@@ -6811,7 +6088,7 @@
         <v>1</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6819,7 +6096,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C27" s="5">
         <v>1</v>
@@ -6832,7 +6109,7 @@
         <v>0</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6840,13 +6117,13 @@
         <v>25</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C28" s="5">
         <v>1</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E28" s="5">
         <v>0</v>
@@ -6857,7 +6134,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>132</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6865,7 +6142,7 @@
         <v>26</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C29" s="5">
         <v>1</v>
@@ -6878,7 +6155,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6886,7 +6163,7 @@
         <v>27</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C30" s="5">
         <v>0</v>
@@ -6899,7 +6176,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6907,7 +6184,7 @@
         <v>28</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C31" s="5">
         <v>0</v>
@@ -6920,7 +6197,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6928,7 +6205,7 @@
         <v>29</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C32" s="5">
         <v>0</v>
@@ -6941,7 +6218,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6949,7 +6226,7 @@
         <v>30</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C33" s="5">
         <v>0</v>
@@ -6962,7 +6239,7 @@
         <v>0</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6970,13 +6247,13 @@
         <v>31</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C34" s="5">
         <v>1</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E34" s="5">
         <v>1</v>
@@ -6987,7 +6264,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6995,13 +6272,13 @@
         <v>32</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C35" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E35" s="5">
         <v>1</v>
@@ -7012,7 +6289,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -7020,7 +6297,7 @@
         <v>33</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C36" s="5">
         <v>0</v>
@@ -7033,26 +6310,78 @@
         <v>0</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
         <v>34</v>
       </c>
-      <c r="B37" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="C37" s="5">
+      <c r="B37" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C37" s="7">
         <v>0</v>
       </c>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5" t="s">
-        <v>131</v>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7">
+        <v>0</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A38" s="8">
+        <v>35</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C38" s="5">
+        <v>1</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E38" s="5">
+        <v>1</v>
+      </c>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9">
+        <v>0</v>
+      </c>
+      <c r="I38" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A39" s="8">
+        <v>36</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39" s="5">
+        <v>1</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E39" s="5">
+        <v>1</v>
+      </c>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9">
+        <v>0</v>
+      </c>
+      <c r="I39" s="9" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -7082,45 +6411,45 @@
         <v>10</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="D2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" t="s">
         <v>26</v>
-      </c>
-      <c r="G2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.2">
@@ -7128,22 +6457,22 @@
         <v>10</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="165" x14ac:dyDescent="0.2">
@@ -7154,10 +6483,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="E4" s="5">
         <v>1</v>
@@ -7201,95 +6530,95 @@
         <v>10</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
@@ -7297,7 +6626,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="C4" s="5">
         <v>1</v>
@@ -7308,13 +6637,13 @@
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>129</v>
+        <v>135</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>137</v>
       </c>
       <c r="J4" s="5"/>
     </row>

--- a/Excel/镇魂街/basicInfo.基础信息.xlsx
+++ b/Excel/镇魂街/basicInfo.基础信息.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WORK\CeHua\trunk\ZHJStaffSpace\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ZHJcehua\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DA99840-AF53-4297-AC25-F224A6E8354E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -19,7 +20,7 @@
     <sheet name="公告" sheetId="29" r:id="rId5"/>
     <sheet name="User表" sheetId="30" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -2338,7 +2339,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2608,20 +2609,20 @@
     </xf>
   </cellXfs>
   <cellStyles count="14">
-    <cellStyle name="Grid" xfId="4"/>
-    <cellStyle name="Normal" xfId="7"/>
+    <cellStyle name="Grid" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Normal" xfId="7" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="8"/>
-    <cellStyle name="常规 3" xfId="10"/>
-    <cellStyle name="超链接 2" xfId="11"/>
-    <cellStyle name="大标题" xfId="6"/>
-    <cellStyle name="横向标题" xfId="1"/>
-    <cellStyle name="文本" xfId="9"/>
-    <cellStyle name="无效" xfId="12"/>
-    <cellStyle name="因变Grid" xfId="3"/>
-    <cellStyle name="英文标题" xfId="2"/>
-    <cellStyle name="中文标题" xfId="13"/>
-    <cellStyle name="纵向标题" xfId="5"/>
+    <cellStyle name="常规 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="常规 3" xfId="10" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="超链接 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="大标题" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="横向标题" xfId="1" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="文本" xfId="9" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="无效" xfId="12" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="因变Grid" xfId="3" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="英文标题" xfId="2" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="中文标题" xfId="13" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="纵向标题" xfId="5" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2893,7 +2894,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3077,11 +3078,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3364,10 +3365,10 @@
       </c>
       <c r="C12" s="14">
         <f>SUM(D$4:D12)</f>
-        <v>655</v>
+        <v>755</v>
       </c>
       <c r="D12" s="14">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E12" s="15">
         <v>3</v>
@@ -3391,7 +3392,7 @@
         <v>1105</v>
       </c>
       <c r="D13" s="16">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="E13" s="15">
         <v>3</v>
@@ -7221,11 +7222,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H601"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7502,7 +7503,7 @@
         <v>8</v>
       </c>
       <c r="G11">
-        <v>940</v>
+        <v>1105</v>
       </c>
       <c r="H11">
         <v>10</v>
@@ -7527,7 +7528,7 @@
         <v>9</v>
       </c>
       <c r="G12">
-        <v>1295</v>
+        <v>1670</v>
       </c>
       <c r="H12">
         <v>11</v>
@@ -7552,7 +7553,7 @@
         <v>10</v>
       </c>
       <c r="G13">
-        <v>1725</v>
+        <v>2350</v>
       </c>
       <c r="H13">
         <v>12</v>
@@ -7577,7 +7578,7 @@
         <v>10</v>
       </c>
       <c r="G14">
-        <v>2225</v>
+        <v>3140</v>
       </c>
       <c r="H14">
         <v>13</v>
@@ -7599,10 +7600,10 @@
       </c>
       <c r="E15" s="18">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G15">
-        <v>2795</v>
+        <v>4045</v>
       </c>
       <c r="H15">
         <v>14</v>
@@ -7627,7 +7628,7 @@
         <v>11</v>
       </c>
       <c r="G16">
-        <v>4105</v>
+        <v>4950</v>
       </c>
       <c r="H16">
         <v>15</v>
@@ -7652,7 +7653,7 @@
         <v>11</v>
       </c>
       <c r="G17">
-        <v>5545</v>
+        <v>5900</v>
       </c>
       <c r="H17">
         <v>16</v>
@@ -7674,10 +7675,10 @@
       </c>
       <c r="E18" s="18">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G18">
-        <v>7115</v>
+        <v>6895</v>
       </c>
       <c r="H18">
         <v>17</v>
@@ -7699,10 +7700,10 @@
       </c>
       <c r="E19" s="18">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G19">
-        <v>8815</v>
+        <v>7935</v>
       </c>
       <c r="H19">
         <v>18</v>
@@ -7724,10 +7725,10 @@
       </c>
       <c r="E20" s="18">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G20">
-        <v>10645</v>
+        <v>9020</v>
       </c>
       <c r="H20">
         <v>19</v>
@@ -7752,7 +7753,7 @@
         <v>12</v>
       </c>
       <c r="G21">
-        <v>12975</v>
+        <v>10150</v>
       </c>
       <c r="H21">
         <v>20</v>
@@ -7774,10 +7775,10 @@
       </c>
       <c r="E22" s="18">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G22">
-        <v>15540</v>
+        <v>11325</v>
       </c>
       <c r="H22">
         <v>21</v>
@@ -7799,10 +7800,10 @@
       </c>
       <c r="E23" s="18">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G23">
-        <v>18340</v>
+        <v>12545</v>
       </c>
       <c r="H23">
         <v>22</v>
@@ -7824,10 +7825,10 @@
       </c>
       <c r="E24" s="18">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G24">
-        <v>21370</v>
+        <v>13810</v>
       </c>
       <c r="H24">
         <v>23</v>
@@ -7849,10 +7850,10 @@
       </c>
       <c r="E25" s="18">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G25">
-        <v>24635</v>
+        <v>15120</v>
       </c>
       <c r="H25">
         <v>24</v>
@@ -7874,10 +7875,10 @@
       </c>
       <c r="E26" s="18">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G26">
-        <v>28225</v>
+        <v>17635</v>
       </c>
       <c r="H26">
         <v>25</v>
@@ -7899,10 +7900,10 @@
       </c>
       <c r="E27" s="18">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G27">
-        <v>31995</v>
+        <v>20275</v>
       </c>
       <c r="H27">
         <v>26</v>
@@ -7924,10 +7925,10 @@
       </c>
       <c r="E28" s="18">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G28">
-        <v>35945</v>
+        <v>23040</v>
       </c>
       <c r="H28">
         <v>27</v>
@@ -7949,10 +7950,10 @@
       </c>
       <c r="E29" s="18">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G29">
-        <v>40075</v>
+        <v>25930</v>
       </c>
       <c r="H29">
         <v>28</v>
@@ -7974,10 +7975,10 @@
       </c>
       <c r="E30" s="18">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G30">
-        <v>44385</v>
+        <v>28945</v>
       </c>
       <c r="H30">
         <v>29</v>
@@ -7999,10 +8000,10 @@
       </c>
       <c r="E31" s="18">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G31">
-        <v>49385</v>
+        <v>32000</v>
       </c>
       <c r="H31">
         <v>30</v>
@@ -8024,10 +8025,10 @@
       </c>
       <c r="E32" s="18">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G32">
-        <v>54635</v>
+        <v>35210</v>
       </c>
       <c r="H32">
         <v>31</v>
@@ -8049,10 +8050,10 @@
       </c>
       <c r="E33" s="18">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G33">
-        <v>60135</v>
+        <v>38570</v>
       </c>
       <c r="H33">
         <v>32</v>
@@ -8074,10 +8075,10 @@
       </c>
       <c r="E34" s="18">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G34">
-        <v>65885</v>
+        <v>42085</v>
       </c>
       <c r="H34">
         <v>33</v>
@@ -8099,10 +8100,10 @@
       </c>
       <c r="E35" s="18">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G35">
-        <v>71885</v>
+        <v>45750</v>
       </c>
       <c r="H35">
         <v>34</v>
@@ -8124,10 +8125,10 @@
       </c>
       <c r="E36" s="18">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G36">
-        <v>78760</v>
+        <v>49480</v>
       </c>
       <c r="H36">
         <v>35</v>
@@ -8149,10 +8150,10 @@
       </c>
       <c r="E37" s="18">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G37">
-        <v>85980</v>
+        <v>53400</v>
       </c>
       <c r="H37">
         <v>36</v>
@@ -8174,10 +8175,10 @@
       </c>
       <c r="E38" s="18">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G38">
-        <v>93540</v>
+        <v>57505</v>
       </c>
       <c r="H38">
         <v>37</v>
@@ -8199,10 +8200,10 @@
       </c>
       <c r="E39" s="18">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G39">
-        <v>101445</v>
+        <v>61795</v>
       </c>
       <c r="H39">
         <v>38</v>
@@ -8224,10 +8225,10 @@
       </c>
       <c r="E40" s="18">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G40">
-        <v>109695</v>
+        <v>66275</v>
       </c>
       <c r="H40">
         <v>39</v>
@@ -8249,10 +8250,10 @@
       </c>
       <c r="E41" s="18">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G41">
-        <v>118400</v>
+        <v>70855</v>
       </c>
       <c r="H41">
         <v>40</v>
@@ -8274,10 +8275,10 @@
       </c>
       <c r="E42" s="18">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G42">
-        <v>127540</v>
+        <v>75665</v>
       </c>
       <c r="H42">
         <v>41</v>
@@ -8302,7 +8303,7 @@
         <v>16</v>
       </c>
       <c r="G43">
-        <v>137120</v>
+        <v>80705</v>
       </c>
       <c r="H43">
         <v>42</v>
@@ -8327,7 +8328,7 @@
         <v>16</v>
       </c>
       <c r="G44">
-        <v>147135</v>
+        <v>85970</v>
       </c>
       <c r="H44">
         <v>43</v>
@@ -8352,7 +8353,7 @@
         <v>16</v>
       </c>
       <c r="G45">
-        <v>157585</v>
+        <v>91465</v>
       </c>
       <c r="H45">
         <v>44</v>
@@ -8374,10 +8375,10 @@
       </c>
       <c r="E46" s="18">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G46">
-        <v>167950</v>
+        <v>97170</v>
       </c>
       <c r="H46">
         <v>45</v>
@@ -8399,10 +8400,10 @@
       </c>
       <c r="E47" s="18">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G47">
-        <v>178835</v>
+        <v>103160</v>
       </c>
       <c r="H47">
         <v>46</v>
@@ -8427,7 +8428,7 @@
         <v>17</v>
       </c>
       <c r="G48">
-        <v>190235</v>
+        <v>109440</v>
       </c>
       <c r="H48">
         <v>47</v>
@@ -8452,7 +8453,7 @@
         <v>17</v>
       </c>
       <c r="G49">
-        <v>202155</v>
+        <v>116005</v>
       </c>
       <c r="H49">
         <v>48</v>
@@ -8477,7 +8478,7 @@
         <v>17</v>
       </c>
       <c r="G50">
-        <v>214595</v>
+        <v>122855</v>
       </c>
       <c r="H50">
         <v>49</v>
@@ -8502,7 +8503,7 @@
         <v>17</v>
       </c>
       <c r="G51">
-        <v>227070</v>
+        <v>130265</v>
       </c>
       <c r="H51">
         <v>50</v>
@@ -8527,7 +8528,7 @@
         <v>17</v>
       </c>
       <c r="G52">
-        <v>240170</v>
+        <v>138045</v>
       </c>
       <c r="H52">
         <v>51</v>
@@ -8552,7 +8553,7 @@
         <v>17</v>
       </c>
       <c r="G53">
-        <v>253890</v>
+        <v>146195</v>
       </c>
       <c r="H53">
         <v>52</v>
@@ -8574,10 +8575,10 @@
       </c>
       <c r="E54" s="18">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G54">
-        <v>268235</v>
+        <v>154715</v>
       </c>
       <c r="H54">
         <v>53</v>
@@ -8602,7 +8603,7 @@
         <v>18</v>
       </c>
       <c r="G55">
-        <v>283205</v>
+        <v>163605</v>
       </c>
       <c r="H55">
         <v>54</v>
@@ -8627,7 +8628,7 @@
         <v>18</v>
       </c>
       <c r="G56">
-        <v>299275</v>
+        <v>173420</v>
       </c>
       <c r="H56">
         <v>55</v>
@@ -8652,7 +8653,7 @@
         <v>18</v>
       </c>
       <c r="G57">
-        <v>316150</v>
+        <v>183725</v>
       </c>
       <c r="H57">
         <v>56</v>
@@ -8677,7 +8678,7 @@
         <v>18</v>
       </c>
       <c r="G58">
-        <v>333830</v>
+        <v>194525</v>
       </c>
       <c r="H58">
         <v>57</v>
@@ -8699,10 +8700,10 @@
       </c>
       <c r="E59" s="18">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G59">
-        <v>352310</v>
+        <v>205815</v>
       </c>
       <c r="H59">
         <v>58</v>
@@ -8724,10 +8725,10 @@
       </c>
       <c r="E60" s="18">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G60">
-        <v>371595</v>
+        <v>217595</v>
       </c>
       <c r="H60">
         <v>59</v>
@@ -8749,10 +8750,10 @@
       </c>
       <c r="E61" s="18">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G61">
-        <v>391885</v>
+        <v>229885</v>
       </c>
       <c r="H61">
         <v>60</v>
@@ -8774,10 +8775,10 @@
       </c>
       <c r="E62" s="18">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G62">
-        <v>413190</v>
+        <v>242790</v>
       </c>
       <c r="H62">
         <v>61</v>
@@ -8802,7 +8803,7 @@
         <v>19</v>
       </c>
       <c r="G63">
-        <v>435510</v>
+        <v>256310</v>
       </c>
       <c r="H63">
         <v>62</v>
@@ -8824,10 +8825,10 @@
       </c>
       <c r="E64" s="18">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G64">
-        <v>458840</v>
+        <v>270440</v>
       </c>
       <c r="H64">
         <v>63</v>
@@ -8849,10 +8850,10 @@
       </c>
       <c r="E65" s="18">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G65">
-        <v>483185</v>
+        <v>285185</v>
       </c>
       <c r="H65">
         <v>64</v>
@@ -8874,10 +8875,10 @@
       </c>
       <c r="E66" s="18">
         <f t="shared" ref="E66:E129" si="1">IFERROR(VLOOKUP(D66,G:H,2,TRUE)+1,1)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G66">
-        <v>508820</v>
+        <v>300565</v>
       </c>
       <c r="H66">
         <v>65</v>
@@ -8899,10 +8900,10 @@
       </c>
       <c r="E67" s="18">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G67">
-        <v>535735</v>
+        <v>316715</v>
       </c>
       <c r="H67">
         <v>66</v>
@@ -8924,10 +8925,10 @@
       </c>
       <c r="E68" s="18">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G68">
-        <v>563935</v>
+        <v>333635</v>
       </c>
       <c r="H68">
         <v>67</v>
@@ -8949,10 +8950,10 @@
       </c>
       <c r="E69" s="18">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G69">
-        <v>593415</v>
+        <v>351320</v>
       </c>
       <c r="H69">
         <v>68</v>
@@ -8974,10 +8975,10 @@
       </c>
       <c r="E70" s="18">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G70">
-        <v>624175</v>
+        <v>369775</v>
       </c>
       <c r="H70">
         <v>69</v>
@@ -8999,10 +9000,10 @@
       </c>
       <c r="E71" s="18">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G71">
-        <v>655945</v>
+        <v>391100</v>
       </c>
       <c r="H71">
         <v>70</v>
@@ -9024,10 +9025,10 @@
       </c>
       <c r="E72" s="18">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G72">
-        <v>689305</v>
+        <v>413490</v>
       </c>
       <c r="H72">
         <v>71</v>
@@ -9049,10 +9050,10 @@
       </c>
       <c r="E73" s="18">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G73">
-        <v>724255</v>
+        <v>436950</v>
       </c>
       <c r="H73">
         <v>72</v>
@@ -9074,10 +9075,10 @@
       </c>
       <c r="E74" s="18">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G74">
-        <v>760795</v>
+        <v>461475</v>
       </c>
       <c r="H74">
         <v>73</v>
@@ -9099,10 +9100,10 @@
       </c>
       <c r="E75" s="18">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G75">
-        <v>798920</v>
+        <v>487065</v>
       </c>
       <c r="H75">
         <v>74</v>
@@ -9124,10 +9125,10 @@
       </c>
       <c r="E76" s="18">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G76">
-        <v>839555</v>
+        <v>514955</v>
       </c>
       <c r="H76">
         <v>75</v>
@@ -9149,10 +9150,10 @@
       </c>
       <c r="E77" s="18">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G77">
-        <v>882220</v>
+        <v>544240</v>
       </c>
       <c r="H77">
         <v>76</v>
@@ -9174,10 +9175,10 @@
       </c>
       <c r="E78" s="18">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G78">
-        <v>926920</v>
+        <v>574920</v>
       </c>
       <c r="H78">
         <v>77</v>
@@ -9199,10 +9200,10 @@
       </c>
       <c r="E79" s="18">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G79">
-        <v>973650</v>
+        <v>606990</v>
       </c>
       <c r="H79">
         <v>78</v>
@@ -9224,10 +9225,10 @@
       </c>
       <c r="E80" s="18">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G80">
-        <v>1022410</v>
+        <v>640455</v>
       </c>
       <c r="H80">
         <v>79</v>
@@ -9249,10 +9250,10 @@
       </c>
       <c r="E81" s="18">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G81">
-        <v>1074425</v>
+        <v>675870</v>
       </c>
       <c r="H81">
         <v>80</v>
@@ -9274,10 +9275,10 @@
       </c>
       <c r="E82" s="18">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G82">
-        <v>1129040</v>
+        <v>713055</v>
       </c>
       <c r="H82">
         <v>81</v>
@@ -9299,10 +9300,10 @@
       </c>
       <c r="E83" s="18">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G83">
-        <v>1186260</v>
+        <v>752015</v>
       </c>
       <c r="H83">
         <v>82</v>
@@ -9324,10 +9325,10 @@
       </c>
       <c r="E84" s="18">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G84">
-        <v>1246080</v>
+        <v>792745</v>
       </c>
       <c r="H84">
         <v>83</v>
@@ -9349,10 +9350,10 @@
       </c>
       <c r="E85" s="18">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G85">
-        <v>1308500</v>
+        <v>835245</v>
       </c>
       <c r="H85">
         <v>84</v>
@@ -9374,10 +9375,10 @@
       </c>
       <c r="E86" s="18">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G86">
-        <v>1370845</v>
+        <v>880770</v>
       </c>
       <c r="H86">
         <v>85</v>
@@ -9399,10 +9400,10 @@
       </c>
       <c r="E87" s="18">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G87">
-        <v>1436305</v>
+        <v>928570</v>
       </c>
       <c r="H87">
         <v>86</v>
@@ -9424,10 +9425,10 @@
       </c>
       <c r="E88" s="18">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G88">
-        <v>1504885</v>
+        <v>978650</v>
       </c>
       <c r="H88">
         <v>87</v>
@@ -9449,10 +9450,10 @@
       </c>
       <c r="E89" s="18">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G89">
-        <v>1576580</v>
+        <v>1031005</v>
       </c>
       <c r="H89">
         <v>88</v>
@@ -9474,10 +9475,10 @@
       </c>
       <c r="E90" s="18">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G90">
-        <v>1651390</v>
+        <v>1085635</v>
       </c>
       <c r="H90">
         <v>89</v>
@@ -9499,10 +9500,10 @@
       </c>
       <c r="E91" s="18">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G91">
-        <v>1720935</v>
+        <v>1137275</v>
       </c>
       <c r="H91">
         <v>90</v>
@@ -9524,10 +9525,10 @@
       </c>
       <c r="E92" s="18">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G92">
-        <v>1793955</v>
+        <v>1191500</v>
       </c>
       <c r="H92">
         <v>91</v>
@@ -9549,10 +9550,10 @@
       </c>
       <c r="E93" s="18">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G93">
-        <v>1870455</v>
+        <v>1248305</v>
       </c>
       <c r="H93">
         <v>92</v>
@@ -9574,10 +9575,10 @@
       </c>
       <c r="E94" s="18">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="G94">
-        <v>1950430</v>
+        <v>1307695</v>
       </c>
       <c r="H94">
         <v>93</v>
@@ -9599,10 +9600,10 @@
       </c>
       <c r="E95" s="18">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="G95">
-        <v>2033880</v>
+        <v>1369665</v>
       </c>
       <c r="H95">
         <v>94</v>
@@ -9624,10 +9625,10 @@
       </c>
       <c r="E96" s="18">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G96">
-        <v>2113005</v>
+        <v>1429915</v>
       </c>
       <c r="H96">
         <v>95</v>
@@ -9649,10 +9650,10 @@
       </c>
       <c r="E97" s="18">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G97">
-        <v>2196085</v>
+        <v>1493180</v>
       </c>
       <c r="H97">
         <v>96</v>
@@ -9674,10 +9675,10 @@
       </c>
       <c r="E98" s="18">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G98">
-        <v>2283125</v>
+        <v>1559460</v>
       </c>
       <c r="H98">
         <v>97</v>
@@ -9699,10 +9700,10 @@
       </c>
       <c r="E99" s="18">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G99">
-        <v>2374120</v>
+        <v>1628750</v>
       </c>
       <c r="H99">
         <v>98</v>
@@ -9724,10 +9725,10 @@
       </c>
       <c r="E100" s="18">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G100">
-        <v>2469070</v>
+        <v>1701055</v>
       </c>
       <c r="H100">
         <v>99</v>
@@ -9749,10 +9750,10 @@
       </c>
       <c r="E101" s="18">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G101">
-        <v>2557125</v>
+        <v>1767325</v>
       </c>
       <c r="H101">
         <v>100</v>
@@ -9774,10 +9775,10 @@
       </c>
       <c r="E102" s="18">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G102">
-        <v>2649585</v>
+        <v>1836910</v>
       </c>
       <c r="H102">
         <v>101</v>
@@ -9799,10 +9800,10 @@
       </c>
       <c r="E103" s="18">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G103">
-        <v>2746445</v>
+        <v>1909810</v>
       </c>
       <c r="H103">
         <v>102</v>
@@ -9824,10 +9825,10 @@
       </c>
       <c r="E104" s="18">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G104">
-        <v>2847710</v>
+        <v>1986020</v>
       </c>
       <c r="H104">
         <v>103</v>
@@ -9849,10 +9850,10 @@
       </c>
       <c r="E105" s="18">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G105">
-        <v>2953375</v>
+        <v>2065545</v>
       </c>
       <c r="H105">
         <v>104</v>
@@ -9874,10 +9875,10 @@
       </c>
       <c r="E106" s="18">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G106">
-        <v>3052155</v>
+        <v>2139795</v>
       </c>
       <c r="H106">
         <v>105</v>
@@ -9899,10 +9900,10 @@
       </c>
       <c r="E107" s="18">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G107">
-        <v>3155875</v>
+        <v>2217760</v>
       </c>
       <c r="H107">
         <v>106</v>
@@ -9924,10 +9925,10 @@
       </c>
       <c r="E108" s="18">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G108">
-        <v>3264535</v>
+        <v>2299440</v>
       </c>
       <c r="H108">
         <v>107</v>
@@ -9949,10 +9950,10 @@
       </c>
       <c r="E109" s="18">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G109">
-        <v>3378130</v>
+        <v>2384830</v>
       </c>
       <c r="H109">
         <v>108</v>
@@ -9974,10 +9975,10 @@
       </c>
       <c r="E110" s="18">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G110">
-        <v>3496665</v>
+        <v>2473935</v>
       </c>
       <c r="H110">
         <v>109</v>
@@ -9999,10 +10000,10 @@
       </c>
       <c r="E111" s="18">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G111">
-        <v>3605435</v>
+        <v>2555885</v>
       </c>
       <c r="H111">
         <v>110</v>
@@ -10024,10 +10025,10 @@
       </c>
       <c r="E112" s="18">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G112">
-        <v>3719640</v>
+        <v>2641935</v>
       </c>
       <c r="H112">
         <v>111</v>
@@ -10049,10 +10050,10 @@
       </c>
       <c r="E113" s="18">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G113">
-        <v>3839285</v>
+        <v>2732080</v>
       </c>
       <c r="H113">
         <v>112</v>
@@ -10074,10 +10075,10 @@
       </c>
       <c r="E114" s="18">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G114">
-        <v>3964370</v>
+        <v>2826325</v>
       </c>
       <c r="H114">
         <v>113</v>
@@ -10099,10 +10100,10 @@
       </c>
       <c r="E115" s="18">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G115">
-        <v>4094895</v>
+        <v>2924665</v>
       </c>
       <c r="H115">
         <v>114</v>
@@ -10124,10 +10125,10 @@
       </c>
       <c r="E116" s="18">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G116">
-        <v>4220345</v>
+        <v>3016700</v>
       </c>
       <c r="H116">
         <v>115</v>
@@ -10149,10 +10150,10 @@
       </c>
       <c r="E117" s="18">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G117">
-        <v>4352070</v>
+        <v>3113335</v>
       </c>
       <c r="H117">
         <v>116</v>
@@ -10174,10 +10175,10 @@
       </c>
       <c r="E118" s="18">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G118">
-        <v>4490070</v>
+        <v>3214575</v>
       </c>
       <c r="H118">
         <v>117</v>
@@ -10199,10 +10200,10 @@
       </c>
       <c r="E119" s="18">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G119">
-        <v>4634340</v>
+        <v>3320415</v>
       </c>
       <c r="H119">
         <v>118</v>
@@ -10224,10 +10225,10 @@
       </c>
       <c r="E120" s="18">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G120">
-        <v>4784885</v>
+        <v>3430855</v>
       </c>
       <c r="H120">
         <v>119</v>
@@ -10249,10 +10250,10 @@
       </c>
       <c r="E121" s="18">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G121">
-        <v>4944700</v>
+        <v>3538705</v>
       </c>
       <c r="H121">
         <v>120</v>
@@ -10274,10 +10275,10 @@
       </c>
       <c r="E122" s="18">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G122">
-        <v>5112505</v>
+        <v>3651950</v>
       </c>
       <c r="H122">
         <v>121</v>
@@ -10299,10 +10300,10 @@
       </c>
       <c r="E123" s="18">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G123">
-        <v>5288305</v>
+        <v>3770590</v>
       </c>
       <c r="H123">
         <v>122</v>
@@ -10324,10 +10325,10 @@
       </c>
       <c r="E124" s="18">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G124">
-        <v>5472095</v>
+        <v>3894620</v>
       </c>
       <c r="H124">
         <v>123</v>
@@ -10349,10 +10350,10 @@
       </c>
       <c r="E125" s="18">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G125">
-        <v>5663875</v>
+        <v>4024045</v>
       </c>
       <c r="H125">
         <v>124</v>
@@ -10374,10 +10375,10 @@
       </c>
       <c r="E126" s="18">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G126">
-        <v>5859965</v>
+        <v>4153680</v>
       </c>
       <c r="H126">
         <v>125</v>
@@ -10399,10 +10400,10 @@
       </c>
       <c r="E127" s="18">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G127">
-        <v>6065860</v>
+        <v>4289795</v>
       </c>
       <c r="H127">
         <v>126</v>
@@ -10424,10 +10425,10 @@
       </c>
       <c r="E128" s="18">
         <f t="shared" si="1"/>
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G128">
-        <v>6281560</v>
+        <v>4432395</v>
       </c>
       <c r="H128">
         <v>127</v>
@@ -10449,10 +10450,10 @@
       </c>
       <c r="E129" s="18">
         <f t="shared" si="1"/>
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G129">
-        <v>6507060</v>
+        <v>4581475</v>
       </c>
       <c r="H129">
         <v>128</v>
@@ -10474,10 +10475,10 @@
       </c>
       <c r="E130" s="18">
         <f t="shared" ref="E130:E193" si="2">IFERROR(VLOOKUP(D130,G:H,2,TRUE)+1,1)</f>
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G130">
-        <v>6742365</v>
+        <v>4737035</v>
       </c>
       <c r="H130">
         <v>129</v>
@@ -10499,10 +10500,10 @@
       </c>
       <c r="E131" s="18">
         <f t="shared" si="2"/>
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G131">
-        <v>6983510</v>
+        <v>4902485</v>
       </c>
       <c r="H131">
         <v>130</v>
@@ -10524,10 +10525,10 @@
       </c>
       <c r="E132" s="18">
         <f t="shared" si="2"/>
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G132">
-        <v>7236710</v>
+        <v>5076210</v>
       </c>
       <c r="H132">
         <v>131</v>
@@ -10549,10 +10550,10 @@
       </c>
       <c r="E133" s="18">
         <f t="shared" si="2"/>
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G133">
-        <v>7501970</v>
+        <v>5258210</v>
       </c>
       <c r="H133">
         <v>132</v>
@@ -10574,10 +10575,10 @@
       </c>
       <c r="E134" s="18">
         <f t="shared" si="2"/>
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G134">
-        <v>7779285</v>
+        <v>5448480</v>
       </c>
       <c r="H134">
         <v>133</v>
@@ -10599,10 +10600,10 @@
       </c>
       <c r="E135" s="18">
         <f t="shared" si="2"/>
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G135">
-        <v>8068655</v>
+        <v>5647025</v>
       </c>
       <c r="H135">
         <v>134</v>
@@ -10624,10 +10625,10 @@
       </c>
       <c r="E136" s="18">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G136">
-        <v>8360200</v>
+        <v>5860750</v>
       </c>
       <c r="H136">
         <v>135</v>
@@ -10649,10 +10650,10 @@
       </c>
       <c r="E137" s="18">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G137">
-        <v>8666320</v>
+        <v>6085160</v>
       </c>
       <c r="H137">
         <v>136</v>
@@ -10674,10 +10675,10 @@
       </c>
       <c r="E138" s="18">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G138">
-        <v>8987020</v>
+        <v>6320260</v>
       </c>
       <c r="H138">
         <v>137</v>
@@ -10699,10 +10700,10 @@
       </c>
       <c r="E139" s="18">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G139">
-        <v>9322295</v>
+        <v>6566045</v>
       </c>
       <c r="H139">
         <v>138</v>
@@ -10724,10 +10725,10 @@
       </c>
       <c r="E140" s="18">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G140">
-        <v>9672145</v>
+        <v>6822515</v>
       </c>
       <c r="H140">
         <v>139</v>
@@ -10749,10 +10750,10 @@
       </c>
       <c r="E141" s="18">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G141">
-        <v>10019780</v>
+        <v>7099150</v>
       </c>
       <c r="H141">
         <v>140</v>
@@ -10774,10 +10775,10 @@
       </c>
       <c r="E142" s="18">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G142">
-        <v>10384795</v>
+        <v>7389615</v>
       </c>
       <c r="H142">
         <v>141</v>
@@ -10799,10 +10800,10 @@
       </c>
       <c r="E143" s="18">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G143">
-        <v>10767195</v>
+        <v>7693915</v>
       </c>
       <c r="H143">
         <v>142</v>
@@ -10824,10 +10825,10 @@
       </c>
       <c r="E144" s="18">
         <f t="shared" si="2"/>
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G144">
-        <v>11166975</v>
+        <v>8012045</v>
       </c>
       <c r="H144">
         <v>143</v>
@@ -10849,10 +10850,10 @@
       </c>
       <c r="E145" s="18">
         <f t="shared" si="2"/>
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G145">
-        <v>11584135</v>
+        <v>8344005</v>
       </c>
       <c r="H145">
         <v>144</v>
@@ -10874,10 +10875,10 @@
       </c>
       <c r="E146" s="18">
         <f t="shared" si="2"/>
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G146">
-        <v>11984135</v>
+        <v>8671820</v>
       </c>
       <c r="H146">
         <v>145</v>
@@ -10899,10 +10900,10 @@
       </c>
       <c r="E147" s="18">
         <f t="shared" si="2"/>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G147">
-        <v>12404135</v>
+        <v>9016025</v>
       </c>
       <c r="H147">
         <v>146</v>
@@ -10924,10 +10925,10 @@
       </c>
       <c r="E148" s="18">
         <f t="shared" si="2"/>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G148">
-        <v>12844135</v>
+        <v>9376625</v>
       </c>
       <c r="H148">
         <v>147</v>
@@ -10949,10 +10950,10 @@
       </c>
       <c r="E149" s="18">
         <f t="shared" si="2"/>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G149">
-        <v>13304135</v>
+        <v>9753615</v>
       </c>
       <c r="H149">
         <v>148</v>
@@ -10974,10 +10975,10 @@
       </c>
       <c r="E150" s="18">
         <f t="shared" si="2"/>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G150">
-        <v>13784135</v>
+        <v>10146995</v>
       </c>
       <c r="H150">
         <v>149</v>
@@ -10999,10 +11000,10 @@
       </c>
       <c r="E151" s="18">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G151">
-        <v>14284135</v>
+        <v>10556765</v>
       </c>
       <c r="H151">
         <v>150</v>
@@ -11024,7 +11025,7 @@
       </c>
       <c r="E152" s="18">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.2">
@@ -11043,7 +11044,7 @@
       </c>
       <c r="E153" s="18">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.2">
@@ -11062,7 +11063,7 @@
       </c>
       <c r="E154" s="18">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.2">
@@ -11081,7 +11082,7 @@
       </c>
       <c r="E155" s="18">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.2">
@@ -11100,7 +11101,7 @@
       </c>
       <c r="E156" s="18">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.2">
@@ -11119,7 +11120,7 @@
       </c>
       <c r="E157" s="18">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.2">
@@ -11138,7 +11139,7 @@
       </c>
       <c r="E158" s="18">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.2">
@@ -11157,7 +11158,7 @@
       </c>
       <c r="E159" s="18">
         <f t="shared" si="2"/>
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.2">
@@ -11176,7 +11177,7 @@
       </c>
       <c r="E160" s="18">
         <f t="shared" si="2"/>
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
@@ -11195,7 +11196,7 @@
       </c>
       <c r="E161" s="18">
         <f t="shared" si="2"/>
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
@@ -11214,7 +11215,7 @@
       </c>
       <c r="E162" s="18">
         <f t="shared" si="2"/>
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
@@ -11233,7 +11234,7 @@
       </c>
       <c r="E163" s="18">
         <f t="shared" si="2"/>
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
@@ -11252,7 +11253,7 @@
       </c>
       <c r="E164" s="18">
         <f t="shared" si="2"/>
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
@@ -11271,7 +11272,7 @@
       </c>
       <c r="E165" s="18">
         <f t="shared" si="2"/>
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
@@ -11290,7 +11291,7 @@
       </c>
       <c r="E166" s="18">
         <f t="shared" si="2"/>
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
@@ -11309,7 +11310,7 @@
       </c>
       <c r="E167" s="18">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
@@ -11328,7 +11329,7 @@
       </c>
       <c r="E168" s="18">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
@@ -11347,7 +11348,7 @@
       </c>
       <c r="E169" s="18">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
@@ -11366,7 +11367,7 @@
       </c>
       <c r="E170" s="18">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.2">
@@ -11385,7 +11386,7 @@
       </c>
       <c r="E171" s="18">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
@@ -11404,7 +11405,7 @@
       </c>
       <c r="E172" s="18">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
@@ -11423,7 +11424,7 @@
       </c>
       <c r="E173" s="18">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
@@ -11442,7 +11443,7 @@
       </c>
       <c r="E174" s="18">
         <f t="shared" si="2"/>
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.2">
@@ -11461,7 +11462,7 @@
       </c>
       <c r="E175" s="18">
         <f t="shared" si="2"/>
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
@@ -11480,7 +11481,7 @@
       </c>
       <c r="E176" s="18">
         <f t="shared" si="2"/>
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.2">
@@ -11499,7 +11500,7 @@
       </c>
       <c r="E177" s="18">
         <f t="shared" si="2"/>
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
@@ -11518,7 +11519,7 @@
       </c>
       <c r="E178" s="18">
         <f t="shared" si="2"/>
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
@@ -11537,7 +11538,7 @@
       </c>
       <c r="E179" s="18">
         <f t="shared" si="2"/>
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
@@ -11556,7 +11557,7 @@
       </c>
       <c r="E180" s="18">
         <f t="shared" si="2"/>
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
@@ -11575,7 +11576,7 @@
       </c>
       <c r="E181" s="18">
         <f t="shared" si="2"/>
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
@@ -11594,7 +11595,7 @@
       </c>
       <c r="E182" s="18">
         <f t="shared" si="2"/>
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
@@ -11613,7 +11614,7 @@
       </c>
       <c r="E183" s="18">
         <f t="shared" si="2"/>
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
@@ -11632,7 +11633,7 @@
       </c>
       <c r="E184" s="18">
         <f t="shared" si="2"/>
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
@@ -11651,7 +11652,7 @@
       </c>
       <c r="E185" s="18">
         <f t="shared" si="2"/>
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
@@ -11670,7 +11671,7 @@
       </c>
       <c r="E186" s="18">
         <f t="shared" si="2"/>
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
@@ -11689,7 +11690,7 @@
       </c>
       <c r="E187" s="18">
         <f t="shared" si="2"/>
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
@@ -11708,7 +11709,7 @@
       </c>
       <c r="E188" s="18">
         <f t="shared" si="2"/>
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
@@ -11727,7 +11728,7 @@
       </c>
       <c r="E189" s="18">
         <f t="shared" si="2"/>
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
@@ -11746,7 +11747,7 @@
       </c>
       <c r="E190" s="18">
         <f t="shared" si="2"/>
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
@@ -11765,7 +11766,7 @@
       </c>
       <c r="E191" s="18">
         <f t="shared" si="2"/>
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
@@ -11784,7 +11785,7 @@
       </c>
       <c r="E192" s="18">
         <f t="shared" si="2"/>
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
@@ -11803,7 +11804,7 @@
       </c>
       <c r="E193" s="18">
         <f t="shared" si="2"/>
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
@@ -11822,7 +11823,7 @@
       </c>
       <c r="E194" s="18">
         <f t="shared" ref="E194:E257" si="3">IFERROR(VLOOKUP(D194,G:H,2,TRUE)+1,1)</f>
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
@@ -11841,7 +11842,7 @@
       </c>
       <c r="E195" s="18">
         <f t="shared" si="3"/>
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
@@ -11860,7 +11861,7 @@
       </c>
       <c r="E196" s="18">
         <f t="shared" si="3"/>
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
@@ -11879,7 +11880,7 @@
       </c>
       <c r="E197" s="18">
         <f t="shared" si="3"/>
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
@@ -11898,7 +11899,7 @@
       </c>
       <c r="E198" s="18">
         <f t="shared" si="3"/>
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
@@ -11917,7 +11918,7 @@
       </c>
       <c r="E199" s="18">
         <f t="shared" si="3"/>
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
@@ -11936,7 +11937,7 @@
       </c>
       <c r="E200" s="18">
         <f t="shared" si="3"/>
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
@@ -11955,7 +11956,7 @@
       </c>
       <c r="E201" s="18">
         <f t="shared" si="3"/>
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
@@ -11974,7 +11975,7 @@
       </c>
       <c r="E202" s="18">
         <f t="shared" si="3"/>
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
@@ -11993,7 +11994,7 @@
       </c>
       <c r="E203" s="18">
         <f t="shared" si="3"/>
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
@@ -12012,7 +12013,7 @@
       </c>
       <c r="E204" s="18">
         <f t="shared" si="3"/>
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
@@ -12031,7 +12032,7 @@
       </c>
       <c r="E205" s="18">
         <f t="shared" si="3"/>
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
@@ -12050,7 +12051,7 @@
       </c>
       <c r="E206" s="18">
         <f t="shared" si="3"/>
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
@@ -12069,7 +12070,7 @@
       </c>
       <c r="E207" s="18">
         <f t="shared" si="3"/>
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
@@ -12088,7 +12089,7 @@
       </c>
       <c r="E208" s="18">
         <f t="shared" si="3"/>
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
@@ -12107,7 +12108,7 @@
       </c>
       <c r="E209" s="18">
         <f t="shared" si="3"/>
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
@@ -12126,7 +12127,7 @@
       </c>
       <c r="E210" s="18">
         <f t="shared" si="3"/>
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
@@ -12145,7 +12146,7 @@
       </c>
       <c r="E211" s="18">
         <f t="shared" si="3"/>
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.2">
@@ -12164,7 +12165,7 @@
       </c>
       <c r="E212" s="18">
         <f t="shared" si="3"/>
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.2">
@@ -12183,7 +12184,7 @@
       </c>
       <c r="E213" s="18">
         <f t="shared" si="3"/>
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.2">
@@ -12202,7 +12203,7 @@
       </c>
       <c r="E214" s="18">
         <f t="shared" si="3"/>
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.2">
@@ -12221,7 +12222,7 @@
       </c>
       <c r="E215" s="18">
         <f t="shared" si="3"/>
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.2">
@@ -12240,7 +12241,7 @@
       </c>
       <c r="E216" s="18">
         <f t="shared" si="3"/>
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.2">
@@ -12259,7 +12260,7 @@
       </c>
       <c r="E217" s="18">
         <f t="shared" si="3"/>
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.2">
@@ -12278,7 +12279,7 @@
       </c>
       <c r="E218" s="18">
         <f t="shared" si="3"/>
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.2">
@@ -12297,7 +12298,7 @@
       </c>
       <c r="E219" s="18">
         <f t="shared" si="3"/>
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.2">
@@ -12316,7 +12317,7 @@
       </c>
       <c r="E220" s="18">
         <f t="shared" si="3"/>
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.2">
@@ -12335,7 +12336,7 @@
       </c>
       <c r="E221" s="18">
         <f t="shared" si="3"/>
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.2">
@@ -12354,7 +12355,7 @@
       </c>
       <c r="E222" s="18">
         <f t="shared" si="3"/>
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.2">
@@ -12373,7 +12374,7 @@
       </c>
       <c r="E223" s="18">
         <f t="shared" si="3"/>
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.2">
@@ -12392,7 +12393,7 @@
       </c>
       <c r="E224" s="18">
         <f t="shared" si="3"/>
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.2">
@@ -12411,7 +12412,7 @@
       </c>
       <c r="E225" s="18">
         <f t="shared" si="3"/>
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.2">
@@ -12430,7 +12431,7 @@
       </c>
       <c r="E226" s="18">
         <f t="shared" si="3"/>
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.2">
@@ -12449,7 +12450,7 @@
       </c>
       <c r="E227" s="18">
         <f t="shared" si="3"/>
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.2">
@@ -12468,7 +12469,7 @@
       </c>
       <c r="E228" s="18">
         <f t="shared" si="3"/>
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.2">
@@ -12487,7 +12488,7 @@
       </c>
       <c r="E229" s="18">
         <f t="shared" si="3"/>
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.2">
@@ -12506,7 +12507,7 @@
       </c>
       <c r="E230" s="18">
         <f t="shared" si="3"/>
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.2">
@@ -12525,7 +12526,7 @@
       </c>
       <c r="E231" s="18">
         <f t="shared" si="3"/>
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.2">
@@ -12544,7 +12545,7 @@
       </c>
       <c r="E232" s="18">
         <f t="shared" si="3"/>
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.2">
@@ -12563,7 +12564,7 @@
       </c>
       <c r="E233" s="18">
         <f t="shared" si="3"/>
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.2">
@@ -12582,7 +12583,7 @@
       </c>
       <c r="E234" s="18">
         <f t="shared" si="3"/>
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.2">
@@ -12601,7 +12602,7 @@
       </c>
       <c r="E235" s="18">
         <f t="shared" si="3"/>
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.2">
@@ -12620,7 +12621,7 @@
       </c>
       <c r="E236" s="18">
         <f t="shared" si="3"/>
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.2">
@@ -12639,7 +12640,7 @@
       </c>
       <c r="E237" s="18">
         <f t="shared" si="3"/>
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.2">
@@ -12658,7 +12659,7 @@
       </c>
       <c r="E238" s="18">
         <f t="shared" si="3"/>
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.2">
@@ -12677,7 +12678,7 @@
       </c>
       <c r="E239" s="18">
         <f t="shared" si="3"/>
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.2">
@@ -12696,7 +12697,7 @@
       </c>
       <c r="E240" s="18">
         <f t="shared" si="3"/>
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.2">
@@ -12715,7 +12716,7 @@
       </c>
       <c r="E241" s="18">
         <f t="shared" si="3"/>
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.2">
@@ -12734,7 +12735,7 @@
       </c>
       <c r="E242" s="18">
         <f t="shared" si="3"/>
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.2">
@@ -12753,7 +12754,7 @@
       </c>
       <c r="E243" s="18">
         <f t="shared" si="3"/>
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.2">
@@ -12772,7 +12773,7 @@
       </c>
       <c r="E244" s="18">
         <f t="shared" si="3"/>
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.2">
@@ -12791,7 +12792,7 @@
       </c>
       <c r="E245" s="18">
         <f t="shared" si="3"/>
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.2">
@@ -12810,7 +12811,7 @@
       </c>
       <c r="E246" s="18">
         <f t="shared" si="3"/>
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.2">
@@ -12829,7 +12830,7 @@
       </c>
       <c r="E247" s="18">
         <f t="shared" si="3"/>
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.2">
@@ -12848,7 +12849,7 @@
       </c>
       <c r="E248" s="18">
         <f t="shared" si="3"/>
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.2">
@@ -12867,7 +12868,7 @@
       </c>
       <c r="E249" s="18">
         <f t="shared" si="3"/>
-        <v>42</v>
+        <v>51</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.2">
@@ -12886,7 +12887,7 @@
       </c>
       <c r="E250" s="18">
         <f t="shared" si="3"/>
-        <v>42</v>
+        <v>51</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.2">
@@ -12905,7 +12906,7 @@
       </c>
       <c r="E251" s="18">
         <f t="shared" si="3"/>
-        <v>42</v>
+        <v>51</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.2">
@@ -12924,7 +12925,7 @@
       </c>
       <c r="E252" s="18">
         <f t="shared" si="3"/>
-        <v>42</v>
+        <v>51</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.2">
@@ -12943,7 +12944,7 @@
       </c>
       <c r="E253" s="18">
         <f t="shared" si="3"/>
-        <v>42</v>
+        <v>51</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.2">
@@ -12962,7 +12963,7 @@
       </c>
       <c r="E254" s="18">
         <f t="shared" si="3"/>
-        <v>42</v>
+        <v>51</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.2">
@@ -12981,7 +12982,7 @@
       </c>
       <c r="E255" s="18">
         <f t="shared" si="3"/>
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.2">
@@ -13000,7 +13001,7 @@
       </c>
       <c r="E256" s="18">
         <f t="shared" si="3"/>
-        <v>43</v>
+        <v>52</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.2">
@@ -13019,7 +13020,7 @@
       </c>
       <c r="E257" s="18">
         <f t="shared" si="3"/>
-        <v>43</v>
+        <v>52</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.2">
@@ -13038,7 +13039,7 @@
       </c>
       <c r="E258" s="18">
         <f t="shared" ref="E258:E321" si="4">IFERROR(VLOOKUP(D258,G:H,2,TRUE)+1,1)</f>
-        <v>43</v>
+        <v>52</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.2">
@@ -13057,7 +13058,7 @@
       </c>
       <c r="E259" s="18">
         <f t="shared" si="4"/>
-        <v>43</v>
+        <v>52</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.2">
@@ -13076,7 +13077,7 @@
       </c>
       <c r="E260" s="18">
         <f t="shared" si="4"/>
-        <v>43</v>
+        <v>52</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.2">
@@ -13095,7 +13096,7 @@
       </c>
       <c r="E261" s="18">
         <f t="shared" si="4"/>
-        <v>43</v>
+        <v>52</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.2">
@@ -13114,7 +13115,7 @@
       </c>
       <c r="E262" s="18">
         <f t="shared" si="4"/>
-        <v>43</v>
+        <v>53</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.2">
@@ -13133,7 +13134,7 @@
       </c>
       <c r="E263" s="18">
         <f t="shared" si="4"/>
-        <v>44</v>
+        <v>53</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.2">
@@ -13152,7 +13153,7 @@
       </c>
       <c r="E264" s="18">
         <f t="shared" si="4"/>
-        <v>44</v>
+        <v>53</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.2">
@@ -13171,7 +13172,7 @@
       </c>
       <c r="E265" s="18">
         <f t="shared" si="4"/>
-        <v>44</v>
+        <v>53</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.2">
@@ -13190,7 +13191,7 @@
       </c>
       <c r="E266" s="18">
         <f t="shared" si="4"/>
-        <v>44</v>
+        <v>53</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.2">
@@ -13209,7 +13210,7 @@
       </c>
       <c r="E267" s="18">
         <f t="shared" si="4"/>
-        <v>44</v>
+        <v>53</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.2">
@@ -13228,7 +13229,7 @@
       </c>
       <c r="E268" s="18">
         <f t="shared" si="4"/>
-        <v>44</v>
+        <v>54</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.2">
@@ -13247,7 +13248,7 @@
       </c>
       <c r="E269" s="18">
         <f t="shared" si="4"/>
-        <v>44</v>
+        <v>54</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.2">
@@ -13266,7 +13267,7 @@
       </c>
       <c r="E270" s="18">
         <f t="shared" si="4"/>
-        <v>45</v>
+        <v>54</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.2">
@@ -13285,7 +13286,7 @@
       </c>
       <c r="E271" s="18">
         <f t="shared" si="4"/>
-        <v>45</v>
+        <v>54</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.2">
@@ -13304,7 +13305,7 @@
       </c>
       <c r="E272" s="18">
         <f t="shared" si="4"/>
-        <v>45</v>
+        <v>54</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.2">
@@ -13323,7 +13324,7 @@
       </c>
       <c r="E273" s="18">
         <f t="shared" si="4"/>
-        <v>45</v>
+        <v>54</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.2">
@@ -13342,7 +13343,7 @@
       </c>
       <c r="E274" s="18">
         <f t="shared" si="4"/>
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.2">
@@ -13361,7 +13362,7 @@
       </c>
       <c r="E275" s="18">
         <f t="shared" si="4"/>
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.2">
@@ -13380,7 +13381,7 @@
       </c>
       <c r="E276" s="18">
         <f t="shared" si="4"/>
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.2">
@@ -13399,7 +13400,7 @@
       </c>
       <c r="E277" s="18">
         <f t="shared" si="4"/>
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.2">
@@ -13418,7 +13419,7 @@
       </c>
       <c r="E278" s="18">
         <f t="shared" si="4"/>
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.2">
@@ -13437,7 +13438,7 @@
       </c>
       <c r="E279" s="18">
         <f t="shared" si="4"/>
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.2">
@@ -13456,7 +13457,7 @@
       </c>
       <c r="E280" s="18">
         <f t="shared" si="4"/>
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.2">
@@ -13475,7 +13476,7 @@
       </c>
       <c r="E281" s="18">
         <f t="shared" si="4"/>
-        <v>46</v>
+        <v>56</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.2">
@@ -13494,7 +13495,7 @@
       </c>
       <c r="E282" s="18">
         <f t="shared" si="4"/>
-        <v>46</v>
+        <v>56</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.2">
@@ -13513,7 +13514,7 @@
       </c>
       <c r="E283" s="18">
         <f t="shared" si="4"/>
-        <v>46</v>
+        <v>56</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.2">
@@ -13532,7 +13533,7 @@
       </c>
       <c r="E284" s="18">
         <f t="shared" si="4"/>
-        <v>47</v>
+        <v>56</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.2">
@@ -13551,7 +13552,7 @@
       </c>
       <c r="E285" s="18">
         <f t="shared" si="4"/>
-        <v>47</v>
+        <v>56</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.2">
@@ -13570,7 +13571,7 @@
       </c>
       <c r="E286" s="18">
         <f t="shared" si="4"/>
-        <v>47</v>
+        <v>56</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.2">
@@ -13589,7 +13590,7 @@
       </c>
       <c r="E287" s="18">
         <f t="shared" si="4"/>
-        <v>47</v>
+        <v>57</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.2">
@@ -13608,7 +13609,7 @@
       </c>
       <c r="E288" s="18">
         <f t="shared" si="4"/>
-        <v>47</v>
+        <v>57</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.2">
@@ -13627,7 +13628,7 @@
       </c>
       <c r="E289" s="18">
         <f t="shared" si="4"/>
-        <v>47</v>
+        <v>57</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.2">
@@ -13646,7 +13647,7 @@
       </c>
       <c r="E290" s="18">
         <f t="shared" si="4"/>
-        <v>47</v>
+        <v>57</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.2">
@@ -13665,7 +13666,7 @@
       </c>
       <c r="E291" s="18">
         <f t="shared" si="4"/>
-        <v>48</v>
+        <v>57</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.2">
@@ -13684,7 +13685,7 @@
       </c>
       <c r="E292" s="18">
         <f t="shared" si="4"/>
-        <v>48</v>
+        <v>57</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.2">
@@ -13703,7 +13704,7 @@
       </c>
       <c r="E293" s="18">
         <f t="shared" si="4"/>
-        <v>48</v>
+        <v>57</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.2">
@@ -13722,7 +13723,7 @@
       </c>
       <c r="E294" s="18">
         <f t="shared" si="4"/>
-        <v>48</v>
+        <v>58</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.2">
@@ -13741,7 +13742,7 @@
       </c>
       <c r="E295" s="18">
         <f t="shared" si="4"/>
-        <v>48</v>
+        <v>58</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.2">
@@ -13760,7 +13761,7 @@
       </c>
       <c r="E296" s="18">
         <f t="shared" si="4"/>
-        <v>48</v>
+        <v>58</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.2">
@@ -13779,7 +13780,7 @@
       </c>
       <c r="E297" s="18">
         <f t="shared" si="4"/>
-        <v>48</v>
+        <v>58</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.2">
@@ -13798,7 +13799,7 @@
       </c>
       <c r="E298" s="18">
         <f t="shared" si="4"/>
-        <v>48</v>
+        <v>58</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.2">
@@ -13817,7 +13818,7 @@
       </c>
       <c r="E299" s="18">
         <f t="shared" si="4"/>
-        <v>49</v>
+        <v>58</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.2">
@@ -13836,7 +13837,7 @@
       </c>
       <c r="E300" s="18">
         <f t="shared" si="4"/>
-        <v>49</v>
+        <v>58</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.2">
@@ -13855,7 +13856,7 @@
       </c>
       <c r="E301" s="18">
         <f t="shared" si="4"/>
-        <v>49</v>
+        <v>59</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.2">
@@ -13874,7 +13875,7 @@
       </c>
       <c r="E302" s="18">
         <f t="shared" si="4"/>
-        <v>49</v>
+        <v>59</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.2">
@@ -13893,7 +13894,7 @@
       </c>
       <c r="E303" s="18">
         <f t="shared" si="4"/>
-        <v>49</v>
+        <v>59</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.2">
@@ -13912,7 +13913,7 @@
       </c>
       <c r="E304" s="18">
         <f t="shared" si="4"/>
-        <v>49</v>
+        <v>59</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.2">
@@ -13931,7 +13932,7 @@
       </c>
       <c r="E305" s="18">
         <f t="shared" si="4"/>
-        <v>49</v>
+        <v>59</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.2">
@@ -13950,7 +13951,7 @@
       </c>
       <c r="E306" s="18">
         <f t="shared" si="4"/>
-        <v>49</v>
+        <v>59</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.2">
@@ -13969,7 +13970,7 @@
       </c>
       <c r="E307" s="18">
         <f t="shared" si="4"/>
-        <v>49</v>
+        <v>59</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.2">
@@ -13988,7 +13989,7 @@
       </c>
       <c r="E308" s="18">
         <f t="shared" si="4"/>
-        <v>49</v>
+        <v>59</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.2">
@@ -14007,7 +14008,7 @@
       </c>
       <c r="E309" s="18">
         <f t="shared" si="4"/>
-        <v>49</v>
+        <v>59</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.2">
@@ -14026,7 +14027,7 @@
       </c>
       <c r="E310" s="18">
         <f t="shared" si="4"/>
-        <v>49</v>
+        <v>59</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.2">
@@ -14045,7 +14046,7 @@
       </c>
       <c r="E311" s="18">
         <f t="shared" si="4"/>
-        <v>49</v>
+        <v>59</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.2">
@@ -14064,7 +14065,7 @@
       </c>
       <c r="E312" s="18">
         <f t="shared" si="4"/>
-        <v>49</v>
+        <v>59</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.2">
@@ -14083,7 +14084,7 @@
       </c>
       <c r="E313" s="18">
         <f t="shared" si="4"/>
-        <v>49</v>
+        <v>59</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.2">
@@ -14102,7 +14103,7 @@
       </c>
       <c r="E314" s="18">
         <f t="shared" si="4"/>
-        <v>49</v>
+        <v>59</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.2">
@@ -14121,7 +14122,7 @@
       </c>
       <c r="E315" s="18">
         <f t="shared" si="4"/>
-        <v>49</v>
+        <v>59</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.2">
@@ -14140,7 +14141,7 @@
       </c>
       <c r="E316" s="18">
         <f t="shared" si="4"/>
-        <v>49</v>
+        <v>59</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.2">
@@ -14159,7 +14160,7 @@
       </c>
       <c r="E317" s="18">
         <f t="shared" si="4"/>
-        <v>49</v>
+        <v>59</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.2">
@@ -14178,7 +14179,7 @@
       </c>
       <c r="E318" s="18">
         <f t="shared" si="4"/>
-        <v>49</v>
+        <v>59</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.2">
@@ -14197,7 +14198,7 @@
       </c>
       <c r="E319" s="18">
         <f t="shared" si="4"/>
-        <v>49</v>
+        <v>59</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.2">
@@ -14216,7 +14217,7 @@
       </c>
       <c r="E320" s="18">
         <f t="shared" si="4"/>
-        <v>49</v>
+        <v>59</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.2">
@@ -14235,7 +14236,7 @@
       </c>
       <c r="E321" s="18">
         <f t="shared" si="4"/>
-        <v>49</v>
+        <v>59</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.2">
@@ -14254,7 +14255,7 @@
       </c>
       <c r="E322" s="18">
         <f t="shared" ref="E322:E385" si="5">IFERROR(VLOOKUP(D322,G:H,2,TRUE)+1,1)</f>
-        <v>49</v>
+        <v>59</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.2">
@@ -14273,7 +14274,7 @@
       </c>
       <c r="E323" s="18">
         <f t="shared" si="5"/>
-        <v>49</v>
+        <v>59</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.2">
@@ -14292,7 +14293,7 @@
       </c>
       <c r="E324" s="18">
         <f t="shared" si="5"/>
-        <v>49</v>
+        <v>59</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.2">
@@ -14311,7 +14312,7 @@
       </c>
       <c r="E325" s="18">
         <f t="shared" si="5"/>
-        <v>49</v>
+        <v>59</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.2">
@@ -14330,7 +14331,7 @@
       </c>
       <c r="E326" s="18">
         <f t="shared" si="5"/>
-        <v>49</v>
+        <v>59</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.2">
@@ -14349,7 +14350,7 @@
       </c>
       <c r="E327" s="18">
         <f t="shared" si="5"/>
-        <v>49</v>
+        <v>59</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.2">
@@ -14368,7 +14369,7 @@
       </c>
       <c r="E328" s="18">
         <f t="shared" si="5"/>
-        <v>49</v>
+        <v>59</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.2">
@@ -14387,7 +14388,7 @@
       </c>
       <c r="E329" s="18">
         <f t="shared" si="5"/>
-        <v>49</v>
+        <v>59</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.2">
@@ -14406,7 +14407,7 @@
       </c>
       <c r="E330" s="18">
         <f t="shared" si="5"/>
-        <v>49</v>
+        <v>59</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.2">
@@ -14425,7 +14426,7 @@
       </c>
       <c r="E331" s="18">
         <f t="shared" si="5"/>
-        <v>49</v>
+        <v>59</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.2">
@@ -14444,7 +14445,7 @@
       </c>
       <c r="E332" s="18">
         <f t="shared" si="5"/>
-        <v>49</v>
+        <v>59</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.2">
@@ -14463,7 +14464,7 @@
       </c>
       <c r="E333" s="18">
         <f t="shared" si="5"/>
-        <v>49</v>
+        <v>59</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.2">
@@ -14482,7 +14483,7 @@
       </c>
       <c r="E334" s="18">
         <f t="shared" si="5"/>
-        <v>49</v>
+        <v>59</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.2">
@@ -14501,7 +14502,7 @@
       </c>
       <c r="E335" s="18">
         <f t="shared" si="5"/>
-        <v>49</v>
+        <v>59</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.2">
@@ -14520,7 +14521,7 @@
       </c>
       <c r="E336" s="18">
         <f t="shared" si="5"/>
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.2">
@@ -14539,7 +14540,7 @@
       </c>
       <c r="E337" s="18">
         <f t="shared" si="5"/>
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.2">
@@ -14558,7 +14559,7 @@
       </c>
       <c r="E338" s="18">
         <f t="shared" si="5"/>
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.2">
@@ -14577,7 +14578,7 @@
       </c>
       <c r="E339" s="18">
         <f t="shared" si="5"/>
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.2">
@@ -14596,7 +14597,7 @@
       </c>
       <c r="E340" s="18">
         <f t="shared" si="5"/>
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.2">
@@ -14615,7 +14616,7 @@
       </c>
       <c r="E341" s="18">
         <f t="shared" si="5"/>
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.2">
@@ -14634,7 +14635,7 @@
       </c>
       <c r="E342" s="18">
         <f t="shared" si="5"/>
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.2">
@@ -14653,7 +14654,7 @@
       </c>
       <c r="E343" s="18">
         <f t="shared" si="5"/>
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.2">
@@ -14672,7 +14673,7 @@
       </c>
       <c r="E344" s="18">
         <f t="shared" si="5"/>
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.2">
@@ -14691,7 +14692,7 @@
       </c>
       <c r="E345" s="18">
         <f t="shared" si="5"/>
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.2">
@@ -14710,7 +14711,7 @@
       </c>
       <c r="E346" s="18">
         <f t="shared" si="5"/>
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.2">
@@ -14729,7 +14730,7 @@
       </c>
       <c r="E347" s="18">
         <f t="shared" si="5"/>
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.2">
@@ -14748,7 +14749,7 @@
       </c>
       <c r="E348" s="18">
         <f t="shared" si="5"/>
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.2">
@@ -14767,7 +14768,7 @@
       </c>
       <c r="E349" s="18">
         <f t="shared" si="5"/>
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.2">
@@ -14786,7 +14787,7 @@
       </c>
       <c r="E350" s="18">
         <f t="shared" si="5"/>
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.2">
@@ -14805,7 +14806,7 @@
       </c>
       <c r="E351" s="18">
         <f t="shared" si="5"/>
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.2">
@@ -14824,7 +14825,7 @@
       </c>
       <c r="E352" s="18">
         <f t="shared" si="5"/>
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.2">
@@ -14843,7 +14844,7 @@
       </c>
       <c r="E353" s="18">
         <f t="shared" si="5"/>
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.2">
@@ -14862,7 +14863,7 @@
       </c>
       <c r="E354" s="18">
         <f t="shared" si="5"/>
-        <v>51</v>
+        <v>60</v>
       </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.2">
@@ -14881,7 +14882,7 @@
       </c>
       <c r="E355" s="18">
         <f t="shared" si="5"/>
-        <v>51</v>
+        <v>60</v>
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.2">
@@ -14900,7 +14901,7 @@
       </c>
       <c r="E356" s="18">
         <f t="shared" si="5"/>
-        <v>51</v>
+        <v>60</v>
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.2">
@@ -14919,7 +14920,7 @@
       </c>
       <c r="E357" s="18">
         <f t="shared" si="5"/>
-        <v>51</v>
+        <v>61</v>
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.2">
@@ -14938,7 +14939,7 @@
       </c>
       <c r="E358" s="18">
         <f t="shared" si="5"/>
-        <v>51</v>
+        <v>61</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.2">
@@ -14957,7 +14958,7 @@
       </c>
       <c r="E359" s="18">
         <f t="shared" si="5"/>
-        <v>51</v>
+        <v>61</v>
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.2">
@@ -14976,7 +14977,7 @@
       </c>
       <c r="E360" s="18">
         <f t="shared" si="5"/>
-        <v>51</v>
+        <v>61</v>
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.2">
@@ -14995,7 +14996,7 @@
       </c>
       <c r="E361" s="18">
         <f t="shared" si="5"/>
-        <v>51</v>
+        <v>61</v>
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.2">
@@ -15014,7 +15015,7 @@
       </c>
       <c r="E362" s="18">
         <f t="shared" si="5"/>
-        <v>51</v>
+        <v>61</v>
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.2">
@@ -15033,7 +15034,7 @@
       </c>
       <c r="E363" s="18">
         <f t="shared" si="5"/>
-        <v>51</v>
+        <v>61</v>
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.2">
@@ -15052,7 +15053,7 @@
       </c>
       <c r="E364" s="18">
         <f t="shared" si="5"/>
-        <v>51</v>
+        <v>61</v>
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.2">
@@ -15071,7 +15072,7 @@
       </c>
       <c r="E365" s="18">
         <f t="shared" si="5"/>
-        <v>51</v>
+        <v>61</v>
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.2">
@@ -15090,7 +15091,7 @@
       </c>
       <c r="E366" s="18">
         <f t="shared" si="5"/>
-        <v>51</v>
+        <v>61</v>
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.2">
@@ -15109,7 +15110,7 @@
       </c>
       <c r="E367" s="18">
         <f t="shared" si="5"/>
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.2">
@@ -15128,7 +15129,7 @@
       </c>
       <c r="E368" s="18">
         <f t="shared" si="5"/>
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.2">
@@ -15147,7 +15148,7 @@
       </c>
       <c r="E369" s="18">
         <f t="shared" si="5"/>
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.2">
@@ -15166,7 +15167,7 @@
       </c>
       <c r="E370" s="18">
         <f t="shared" si="5"/>
-        <v>52</v>
+        <v>62</v>
       </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.2">
@@ -15185,7 +15186,7 @@
       </c>
       <c r="E371" s="18">
         <f t="shared" si="5"/>
-        <v>52</v>
+        <v>62</v>
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.2">
@@ -15204,7 +15205,7 @@
       </c>
       <c r="E372" s="18">
         <f t="shared" si="5"/>
-        <v>52</v>
+        <v>62</v>
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.2">
@@ -15223,7 +15224,7 @@
       </c>
       <c r="E373" s="18">
         <f t="shared" si="5"/>
-        <v>52</v>
+        <v>62</v>
       </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.2">
@@ -15242,7 +15243,7 @@
       </c>
       <c r="E374" s="18">
         <f t="shared" si="5"/>
-        <v>52</v>
+        <v>62</v>
       </c>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.2">
@@ -15261,7 +15262,7 @@
       </c>
       <c r="E375" s="18">
         <f t="shared" si="5"/>
-        <v>52</v>
+        <v>62</v>
       </c>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.2">
@@ -15280,7 +15281,7 @@
       </c>
       <c r="E376" s="18">
         <f t="shared" si="5"/>
-        <v>52</v>
+        <v>62</v>
       </c>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.2">
@@ -15299,7 +15300,7 @@
       </c>
       <c r="E377" s="18">
         <f t="shared" si="5"/>
-        <v>52</v>
+        <v>62</v>
       </c>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.2">
@@ -15318,7 +15319,7 @@
       </c>
       <c r="E378" s="18">
         <f t="shared" si="5"/>
-        <v>53</v>
+        <v>62</v>
       </c>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.2">
@@ -15337,7 +15338,7 @@
       </c>
       <c r="E379" s="18">
         <f t="shared" si="5"/>
-        <v>53</v>
+        <v>62</v>
       </c>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.2">
@@ -15356,7 +15357,7 @@
       </c>
       <c r="E380" s="18">
         <f t="shared" si="5"/>
-        <v>53</v>
+        <v>63</v>
       </c>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.2">
@@ -15375,7 +15376,7 @@
       </c>
       <c r="E381" s="18">
         <f t="shared" si="5"/>
-        <v>53</v>
+        <v>63</v>
       </c>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.2">
@@ -15394,7 +15395,7 @@
       </c>
       <c r="E382" s="18">
         <f t="shared" si="5"/>
-        <v>53</v>
+        <v>63</v>
       </c>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.2">
@@ -15413,7 +15414,7 @@
       </c>
       <c r="E383" s="18">
         <f t="shared" si="5"/>
-        <v>53</v>
+        <v>63</v>
       </c>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.2">
@@ -15432,7 +15433,7 @@
       </c>
       <c r="E384" s="18">
         <f t="shared" si="5"/>
-        <v>53</v>
+        <v>63</v>
       </c>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.2">
@@ -15451,7 +15452,7 @@
       </c>
       <c r="E385" s="18">
         <f t="shared" si="5"/>
-        <v>53</v>
+        <v>63</v>
       </c>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.2">
@@ -15470,7 +15471,7 @@
       </c>
       <c r="E386" s="18">
         <f t="shared" ref="E386:E449" si="6">IFERROR(VLOOKUP(D386,G:H,2,TRUE)+1,1)</f>
-        <v>53</v>
+        <v>63</v>
       </c>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.2">
@@ -15489,7 +15490,7 @@
       </c>
       <c r="E387" s="18">
         <f t="shared" si="6"/>
-        <v>54</v>
+        <v>63</v>
       </c>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.2">
@@ -15508,7 +15509,7 @@
       </c>
       <c r="E388" s="18">
         <f t="shared" si="6"/>
-        <v>54</v>
+        <v>63</v>
       </c>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.2">
@@ -15527,7 +15528,7 @@
       </c>
       <c r="E389" s="18">
         <f t="shared" si="6"/>
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.2">
@@ -15546,7 +15547,7 @@
       </c>
       <c r="E390" s="18">
         <f t="shared" si="6"/>
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.2">
@@ -15565,7 +15566,7 @@
       </c>
       <c r="E391" s="18">
         <f t="shared" si="6"/>
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.2">
@@ -15584,7 +15585,7 @@
       </c>
       <c r="E392" s="18">
         <f t="shared" si="6"/>
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.2">
@@ -15603,7 +15604,7 @@
       </c>
       <c r="E393" s="18">
         <f t="shared" si="6"/>
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.2">
@@ -15622,7 +15623,7 @@
       </c>
       <c r="E394" s="18">
         <f t="shared" si="6"/>
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.2">
@@ -15641,7 +15642,7 @@
       </c>
       <c r="E395" s="18">
         <f t="shared" si="6"/>
-        <v>55</v>
+        <v>64</v>
       </c>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.2">
@@ -15660,7 +15661,7 @@
       </c>
       <c r="E396" s="18">
         <f t="shared" si="6"/>
-        <v>55</v>
+        <v>65</v>
       </c>
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.2">
@@ -15679,7 +15680,7 @@
       </c>
       <c r="E397" s="18">
         <f t="shared" si="6"/>
-        <v>55</v>
+        <v>65</v>
       </c>
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.2">
@@ -15698,7 +15699,7 @@
       </c>
       <c r="E398" s="18">
         <f t="shared" si="6"/>
-        <v>55</v>
+        <v>65</v>
       </c>
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.2">
@@ -15717,7 +15718,7 @@
       </c>
       <c r="E399" s="18">
         <f t="shared" si="6"/>
-        <v>55</v>
+        <v>65</v>
       </c>
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.2">
@@ -15736,7 +15737,7 @@
       </c>
       <c r="E400" s="18">
         <f t="shared" si="6"/>
-        <v>55</v>
+        <v>65</v>
       </c>
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.2">
@@ -15755,7 +15756,7 @@
       </c>
       <c r="E401" s="18">
         <f t="shared" si="6"/>
-        <v>55</v>
+        <v>65</v>
       </c>
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.2">
@@ -15774,7 +15775,7 @@
       </c>
       <c r="E402" s="18">
         <f t="shared" si="6"/>
-        <v>55</v>
+        <v>65</v>
       </c>
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.2">
@@ -15793,7 +15794,7 @@
       </c>
       <c r="E403" s="18">
         <f t="shared" si="6"/>
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.2">
@@ -15812,7 +15813,7 @@
       </c>
       <c r="E404" s="18">
         <f t="shared" si="6"/>
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.2">
@@ -15831,7 +15832,7 @@
       </c>
       <c r="E405" s="18">
         <f t="shared" si="6"/>
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.2">
@@ -15850,7 +15851,7 @@
       </c>
       <c r="E406" s="18">
         <f t="shared" si="6"/>
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.2">
@@ -15869,7 +15870,7 @@
       </c>
       <c r="E407" s="18">
         <f t="shared" si="6"/>
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.2">
@@ -15888,7 +15889,7 @@
       </c>
       <c r="E408" s="18">
         <f t="shared" si="6"/>
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.2">
@@ -15907,7 +15908,7 @@
       </c>
       <c r="E409" s="18">
         <f t="shared" si="6"/>
-        <v>57</v>
+        <v>67</v>
       </c>
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.2">
@@ -15926,7 +15927,7 @@
       </c>
       <c r="E410" s="18">
         <f t="shared" si="6"/>
-        <v>57</v>
+        <v>67</v>
       </c>
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.2">
@@ -15945,7 +15946,7 @@
       </c>
       <c r="E411" s="18">
         <f t="shared" si="6"/>
-        <v>57</v>
+        <v>67</v>
       </c>
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.2">
@@ -15964,7 +15965,7 @@
       </c>
       <c r="E412" s="18">
         <f t="shared" si="6"/>
-        <v>57</v>
+        <v>67</v>
       </c>
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.2">
@@ -15983,7 +15984,7 @@
       </c>
       <c r="E413" s="18">
         <f t="shared" si="6"/>
-        <v>57</v>
+        <v>67</v>
       </c>
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.2">
@@ -16002,7 +16003,7 @@
       </c>
       <c r="E414" s="18">
         <f t="shared" si="6"/>
-        <v>58</v>
+        <v>68</v>
       </c>
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.2">
@@ -16021,7 +16022,7 @@
       </c>
       <c r="E415" s="18">
         <f t="shared" si="6"/>
-        <v>58</v>
+        <v>68</v>
       </c>
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.2">
@@ -16040,7 +16041,7 @@
       </c>
       <c r="E416" s="18">
         <f t="shared" si="6"/>
-        <v>58</v>
+        <v>68</v>
       </c>
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.2">
@@ -16059,7 +16060,7 @@
       </c>
       <c r="E417" s="18">
         <f t="shared" si="6"/>
-        <v>58</v>
+        <v>68</v>
       </c>
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.2">
@@ -16078,7 +16079,7 @@
       </c>
       <c r="E418" s="18">
         <f t="shared" si="6"/>
-        <v>58</v>
+        <v>68</v>
       </c>
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.2">
@@ -16097,7 +16098,7 @@
       </c>
       <c r="E419" s="18">
         <f t="shared" si="6"/>
-        <v>58</v>
+        <v>68</v>
       </c>
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.2">
@@ -16116,7 +16117,7 @@
       </c>
       <c r="E420" s="18">
         <f t="shared" si="6"/>
-        <v>59</v>
+        <v>69</v>
       </c>
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.2">
@@ -16135,7 +16136,7 @@
       </c>
       <c r="E421" s="18">
         <f t="shared" si="6"/>
-        <v>59</v>
+        <v>69</v>
       </c>
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.2">
@@ -16154,7 +16155,7 @@
       </c>
       <c r="E422" s="18">
         <f t="shared" si="6"/>
-        <v>59</v>
+        <v>69</v>
       </c>
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.2">
@@ -16173,7 +16174,7 @@
       </c>
       <c r="E423" s="18">
         <f t="shared" si="6"/>
-        <v>59</v>
+        <v>69</v>
       </c>
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.2">
@@ -16192,7 +16193,7 @@
       </c>
       <c r="E424" s="18">
         <f t="shared" si="6"/>
-        <v>59</v>
+        <v>70</v>
       </c>
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.2">
@@ -16211,7 +16212,7 @@
       </c>
       <c r="E425" s="18">
         <f t="shared" si="6"/>
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.2">
@@ -16230,7 +16231,7 @@
       </c>
       <c r="E426" s="18">
         <f t="shared" si="6"/>
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.2">
@@ -16249,7 +16250,7 @@
       </c>
       <c r="E427" s="18">
         <f t="shared" si="6"/>
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.2">
@@ -16268,7 +16269,7 @@
       </c>
       <c r="E428" s="18">
         <f t="shared" si="6"/>
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.2">
@@ -16287,7 +16288,7 @@
       </c>
       <c r="E429" s="18">
         <f t="shared" si="6"/>
-        <v>60</v>
+        <v>71</v>
       </c>
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.2">
@@ -16306,7 +16307,7 @@
       </c>
       <c r="E430" s="18">
         <f t="shared" si="6"/>
-        <v>61</v>
+        <v>71</v>
       </c>
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.2">
@@ -16325,7 +16326,7 @@
       </c>
       <c r="E431" s="18">
         <f t="shared" si="6"/>
-        <v>61</v>
+        <v>71</v>
       </c>
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.2">
@@ -16344,7 +16345,7 @@
       </c>
       <c r="E432" s="18">
         <f t="shared" si="6"/>
-        <v>61</v>
+        <v>71</v>
       </c>
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.2">
@@ -16363,7 +16364,7 @@
       </c>
       <c r="E433" s="18">
         <f t="shared" si="6"/>
-        <v>61</v>
+        <v>71</v>
       </c>
     </row>
     <row r="434" spans="1:5" x14ac:dyDescent="0.2">
@@ -16382,7 +16383,7 @@
       </c>
       <c r="E434" s="18">
         <f t="shared" si="6"/>
-        <v>62</v>
+        <v>72</v>
       </c>
     </row>
     <row r="435" spans="1:5" x14ac:dyDescent="0.2">
@@ -16401,7 +16402,7 @@
       </c>
       <c r="E435" s="18">
         <f t="shared" si="6"/>
-        <v>62</v>
+        <v>72</v>
       </c>
     </row>
     <row r="436" spans="1:5" x14ac:dyDescent="0.2">
@@ -16420,7 +16421,7 @@
       </c>
       <c r="E436" s="18">
         <f t="shared" si="6"/>
-        <v>62</v>
+        <v>72</v>
       </c>
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.2">
@@ -16439,7 +16440,7 @@
       </c>
       <c r="E437" s="18">
         <f t="shared" si="6"/>
-        <v>62</v>
+        <v>72</v>
       </c>
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.2">
@@ -16458,7 +16459,7 @@
       </c>
       <c r="E438" s="18">
         <f t="shared" si="6"/>
-        <v>63</v>
+        <v>73</v>
       </c>
     </row>
     <row r="439" spans="1:5" x14ac:dyDescent="0.2">
@@ -16477,7 +16478,7 @@
       </c>
       <c r="E439" s="18">
         <f t="shared" si="6"/>
-        <v>63</v>
+        <v>73</v>
       </c>
     </row>
     <row r="440" spans="1:5" x14ac:dyDescent="0.2">
@@ -16496,7 +16497,7 @@
       </c>
       <c r="E440" s="18">
         <f t="shared" si="6"/>
-        <v>63</v>
+        <v>73</v>
       </c>
     </row>
     <row r="441" spans="1:5" x14ac:dyDescent="0.2">
@@ -16515,7 +16516,7 @@
       </c>
       <c r="E441" s="18">
         <f t="shared" si="6"/>
-        <v>63</v>
+        <v>73</v>
       </c>
     </row>
     <row r="442" spans="1:5" x14ac:dyDescent="0.2">
@@ -16534,7 +16535,7 @@
       </c>
       <c r="E442" s="18">
         <f t="shared" si="6"/>
-        <v>64</v>
+        <v>73</v>
       </c>
     </row>
     <row r="443" spans="1:5" x14ac:dyDescent="0.2">
@@ -16553,7 +16554,7 @@
       </c>
       <c r="E443" s="18">
         <f t="shared" si="6"/>
-        <v>64</v>
+        <v>74</v>
       </c>
     </row>
     <row r="444" spans="1:5" x14ac:dyDescent="0.2">
@@ -16572,7 +16573,7 @@
       </c>
       <c r="E444" s="18">
         <f t="shared" si="6"/>
-        <v>64</v>
+        <v>74</v>
       </c>
     </row>
     <row r="445" spans="1:5" x14ac:dyDescent="0.2">
@@ -16591,7 +16592,7 @@
       </c>
       <c r="E445" s="18">
         <f t="shared" si="6"/>
-        <v>64</v>
+        <v>74</v>
       </c>
     </row>
     <row r="446" spans="1:5" x14ac:dyDescent="0.2">
@@ -16610,7 +16611,7 @@
       </c>
       <c r="E446" s="18">
         <f t="shared" si="6"/>
-        <v>65</v>
+        <v>75</v>
       </c>
     </row>
     <row r="447" spans="1:5" x14ac:dyDescent="0.2">
@@ -16629,7 +16630,7 @@
       </c>
       <c r="E447" s="18">
         <f t="shared" si="6"/>
-        <v>65</v>
+        <v>75</v>
       </c>
     </row>
     <row r="448" spans="1:5" x14ac:dyDescent="0.2">
@@ -16648,7 +16649,7 @@
       </c>
       <c r="E448" s="18">
         <f t="shared" si="6"/>
-        <v>65</v>
+        <v>75</v>
       </c>
     </row>
     <row r="449" spans="1:5" x14ac:dyDescent="0.2">
@@ -16667,7 +16668,7 @@
       </c>
       <c r="E449" s="18">
         <f t="shared" si="6"/>
-        <v>65</v>
+        <v>75</v>
       </c>
     </row>
     <row r="450" spans="1:5" x14ac:dyDescent="0.2">
@@ -16686,7 +16687,7 @@
       </c>
       <c r="E450" s="18">
         <f t="shared" ref="E450:E513" si="7">IFERROR(VLOOKUP(D450,G:H,2,TRUE)+1,1)</f>
-        <v>66</v>
+        <v>75</v>
       </c>
     </row>
     <row r="451" spans="1:5" x14ac:dyDescent="0.2">
@@ -16705,7 +16706,7 @@
       </c>
       <c r="E451" s="18">
         <f t="shared" si="7"/>
-        <v>66</v>
+        <v>76</v>
       </c>
     </row>
     <row r="452" spans="1:5" x14ac:dyDescent="0.2">
@@ -16724,7 +16725,7 @@
       </c>
       <c r="E452" s="18">
         <f t="shared" si="7"/>
-        <v>66</v>
+        <v>76</v>
       </c>
     </row>
     <row r="453" spans="1:5" x14ac:dyDescent="0.2">
@@ -16743,7 +16744,7 @@
       </c>
       <c r="E453" s="18">
         <f t="shared" si="7"/>
-        <v>66</v>
+        <v>76</v>
       </c>
     </row>
     <row r="454" spans="1:5" x14ac:dyDescent="0.2">
@@ -16762,7 +16763,7 @@
       </c>
       <c r="E454" s="18">
         <f t="shared" si="7"/>
-        <v>67</v>
+        <v>76</v>
       </c>
     </row>
     <row r="455" spans="1:5" x14ac:dyDescent="0.2">
@@ -16781,7 +16782,7 @@
       </c>
       <c r="E455" s="18">
         <f t="shared" si="7"/>
-        <v>67</v>
+        <v>77</v>
       </c>
     </row>
     <row r="456" spans="1:5" x14ac:dyDescent="0.2">
@@ -16800,7 +16801,7 @@
       </c>
       <c r="E456" s="18">
         <f t="shared" si="7"/>
-        <v>67</v>
+        <v>77</v>
       </c>
     </row>
     <row r="457" spans="1:5" x14ac:dyDescent="0.2">
@@ -16819,7 +16820,7 @@
       </c>
       <c r="E457" s="18">
         <f t="shared" si="7"/>
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="458" spans="1:5" x14ac:dyDescent="0.2">
@@ -16838,7 +16839,7 @@
       </c>
       <c r="E458" s="18">
         <f t="shared" si="7"/>
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="459" spans="1:5" x14ac:dyDescent="0.2">
@@ -16857,7 +16858,7 @@
       </c>
       <c r="E459" s="18">
         <f t="shared" si="7"/>
-        <v>68</v>
+        <v>78</v>
       </c>
     </row>
     <row r="460" spans="1:5" x14ac:dyDescent="0.2">
@@ -16876,7 +16877,7 @@
       </c>
       <c r="E460" s="18">
         <f t="shared" si="7"/>
-        <v>68</v>
+        <v>78</v>
       </c>
     </row>
     <row r="461" spans="1:5" x14ac:dyDescent="0.2">
@@ -16895,7 +16896,7 @@
       </c>
       <c r="E461" s="18">
         <f t="shared" si="7"/>
-        <v>69</v>
+        <v>78</v>
       </c>
     </row>
     <row r="462" spans="1:5" x14ac:dyDescent="0.2">
@@ -16914,7 +16915,7 @@
       </c>
       <c r="E462" s="18">
         <f t="shared" si="7"/>
-        <v>69</v>
+        <v>78</v>
       </c>
     </row>
     <row r="463" spans="1:5" x14ac:dyDescent="0.2">
@@ -16933,7 +16934,7 @@
       </c>
       <c r="E463" s="18">
         <f t="shared" si="7"/>
-        <v>69</v>
+        <v>79</v>
       </c>
     </row>
     <row r="464" spans="1:5" x14ac:dyDescent="0.2">
@@ -16952,7 +16953,7 @@
       </c>
       <c r="E464" s="18">
         <f t="shared" si="7"/>
-        <v>69</v>
+        <v>79</v>
       </c>
     </row>
     <row r="465" spans="1:5" x14ac:dyDescent="0.2">
@@ -16971,7 +16972,7 @@
       </c>
       <c r="E465" s="18">
         <f t="shared" si="7"/>
-        <v>70</v>
+        <v>79</v>
       </c>
     </row>
     <row r="466" spans="1:5" x14ac:dyDescent="0.2">
@@ -16990,7 +16991,7 @@
       </c>
       <c r="E466" s="18">
         <f t="shared" si="7"/>
-        <v>70</v>
+        <v>79</v>
       </c>
     </row>
     <row r="467" spans="1:5" x14ac:dyDescent="0.2">
@@ -17009,7 +17010,7 @@
       </c>
       <c r="E467" s="18">
         <f t="shared" si="7"/>
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="468" spans="1:5" x14ac:dyDescent="0.2">
@@ -17028,7 +17029,7 @@
       </c>
       <c r="E468" s="18">
         <f t="shared" si="7"/>
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="469" spans="1:5" x14ac:dyDescent="0.2">
@@ -17047,7 +17048,7 @@
       </c>
       <c r="E469" s="18">
         <f t="shared" si="7"/>
-        <v>71</v>
+        <v>80</v>
       </c>
     </row>
     <row r="470" spans="1:5" x14ac:dyDescent="0.2">
@@ -17066,7 +17067,7 @@
       </c>
       <c r="E470" s="18">
         <f t="shared" si="7"/>
-        <v>71</v>
+        <v>80</v>
       </c>
     </row>
     <row r="471" spans="1:5" x14ac:dyDescent="0.2">
@@ -17085,7 +17086,7 @@
       </c>
       <c r="E471" s="18">
         <f t="shared" si="7"/>
-        <v>71</v>
+        <v>81</v>
       </c>
     </row>
     <row r="472" spans="1:5" x14ac:dyDescent="0.2">
@@ -17104,7 +17105,7 @@
       </c>
       <c r="E472" s="18">
         <f t="shared" si="7"/>
-        <v>72</v>
+        <v>81</v>
       </c>
     </row>
     <row r="473" spans="1:5" x14ac:dyDescent="0.2">
@@ -17123,7 +17124,7 @@
       </c>
       <c r="E473" s="18">
         <f t="shared" si="7"/>
-        <v>72</v>
+        <v>81</v>
       </c>
     </row>
     <row r="474" spans="1:5" x14ac:dyDescent="0.2">
@@ -17142,7 +17143,7 @@
       </c>
       <c r="E474" s="18">
         <f t="shared" si="7"/>
-        <v>72</v>
+        <v>81</v>
       </c>
     </row>
     <row r="475" spans="1:5" x14ac:dyDescent="0.2">
@@ -17161,7 +17162,7 @@
       </c>
       <c r="E475" s="18">
         <f t="shared" si="7"/>
-        <v>72</v>
+        <v>82</v>
       </c>
     </row>
     <row r="476" spans="1:5" x14ac:dyDescent="0.2">
@@ -17180,7 +17181,7 @@
       </c>
       <c r="E476" s="18">
         <f t="shared" si="7"/>
-        <v>73</v>
+        <v>82</v>
       </c>
     </row>
     <row r="477" spans="1:5" x14ac:dyDescent="0.2">
@@ -17199,7 +17200,7 @@
       </c>
       <c r="E477" s="18">
         <f t="shared" si="7"/>
-        <v>73</v>
+        <v>82</v>
       </c>
     </row>
     <row r="478" spans="1:5" x14ac:dyDescent="0.2">
@@ -17218,7 +17219,7 @@
       </c>
       <c r="E478" s="18">
         <f t="shared" si="7"/>
-        <v>73</v>
+        <v>82</v>
       </c>
     </row>
     <row r="479" spans="1:5" x14ac:dyDescent="0.2">
@@ -17237,7 +17238,7 @@
       </c>
       <c r="E479" s="18">
         <f t="shared" si="7"/>
-        <v>73</v>
+        <v>83</v>
       </c>
     </row>
     <row r="480" spans="1:5" x14ac:dyDescent="0.2">
@@ -17256,7 +17257,7 @@
       </c>
       <c r="E480" s="18">
         <f t="shared" si="7"/>
-        <v>74</v>
+        <v>83</v>
       </c>
     </row>
     <row r="481" spans="1:5" x14ac:dyDescent="0.2">
@@ -17275,7 +17276,7 @@
       </c>
       <c r="E481" s="18">
         <f t="shared" si="7"/>
-        <v>74</v>
+        <v>83</v>
       </c>
     </row>
     <row r="482" spans="1:5" x14ac:dyDescent="0.2">
@@ -17294,7 +17295,7 @@
       </c>
       <c r="E482" s="18">
         <f t="shared" si="7"/>
-        <v>74</v>
+        <v>83</v>
       </c>
     </row>
     <row r="483" spans="1:5" x14ac:dyDescent="0.2">
@@ -17313,7 +17314,7 @@
       </c>
       <c r="E483" s="18">
         <f t="shared" si="7"/>
-        <v>74</v>
+        <v>84</v>
       </c>
     </row>
     <row r="484" spans="1:5" x14ac:dyDescent="0.2">
@@ -17332,7 +17333,7 @@
       </c>
       <c r="E484" s="18">
         <f t="shared" si="7"/>
-        <v>75</v>
+        <v>84</v>
       </c>
     </row>
     <row r="485" spans="1:5" x14ac:dyDescent="0.2">
@@ -17351,7 +17352,7 @@
       </c>
       <c r="E485" s="18">
         <f t="shared" si="7"/>
-        <v>75</v>
+        <v>84</v>
       </c>
     </row>
     <row r="486" spans="1:5" x14ac:dyDescent="0.2">
@@ -17370,7 +17371,7 @@
       </c>
       <c r="E486" s="18">
         <f t="shared" si="7"/>
-        <v>75</v>
+        <v>84</v>
       </c>
     </row>
     <row r="487" spans="1:5" x14ac:dyDescent="0.2">
@@ -17389,7 +17390,7 @@
       </c>
       <c r="E487" s="18">
         <f t="shared" si="7"/>
-        <v>76</v>
+        <v>85</v>
       </c>
     </row>
     <row r="488" spans="1:5" x14ac:dyDescent="0.2">
@@ -17408,7 +17409,7 @@
       </c>
       <c r="E488" s="18">
         <f t="shared" si="7"/>
-        <v>76</v>
+        <v>85</v>
       </c>
     </row>
     <row r="489" spans="1:5" x14ac:dyDescent="0.2">
@@ -17427,7 +17428,7 @@
       </c>
       <c r="E489" s="18">
         <f t="shared" si="7"/>
-        <v>76</v>
+        <v>85</v>
       </c>
     </row>
     <row r="490" spans="1:5" x14ac:dyDescent="0.2">
@@ -17446,7 +17447,7 @@
       </c>
       <c r="E490" s="18">
         <f t="shared" si="7"/>
-        <v>76</v>
+        <v>85</v>
       </c>
     </row>
     <row r="491" spans="1:5" x14ac:dyDescent="0.2">
@@ -17465,7 +17466,7 @@
       </c>
       <c r="E491" s="18">
         <f t="shared" si="7"/>
-        <v>77</v>
+        <v>86</v>
       </c>
     </row>
     <row r="492" spans="1:5" x14ac:dyDescent="0.2">
@@ -17484,7 +17485,7 @@
       </c>
       <c r="E492" s="18">
         <f t="shared" si="7"/>
-        <v>77</v>
+        <v>86</v>
       </c>
     </row>
     <row r="493" spans="1:5" x14ac:dyDescent="0.2">
@@ -17503,7 +17504,7 @@
       </c>
       <c r="E493" s="18">
         <f t="shared" si="7"/>
-        <v>77</v>
+        <v>86</v>
       </c>
     </row>
     <row r="494" spans="1:5" x14ac:dyDescent="0.2">
@@ -17522,7 +17523,7 @@
       </c>
       <c r="E494" s="18">
         <f t="shared" si="7"/>
-        <v>77</v>
+        <v>86</v>
       </c>
     </row>
     <row r="495" spans="1:5" x14ac:dyDescent="0.2">
@@ -17541,7 +17542,7 @@
       </c>
       <c r="E495" s="18">
         <f t="shared" si="7"/>
-        <v>78</v>
+        <v>87</v>
       </c>
     </row>
     <row r="496" spans="1:5" x14ac:dyDescent="0.2">
@@ -17560,7 +17561,7 @@
       </c>
       <c r="E496" s="18">
         <f t="shared" si="7"/>
-        <v>78</v>
+        <v>87</v>
       </c>
     </row>
     <row r="497" spans="1:5" x14ac:dyDescent="0.2">
@@ -17579,7 +17580,7 @@
       </c>
       <c r="E497" s="18">
         <f t="shared" si="7"/>
-        <v>78</v>
+        <v>87</v>
       </c>
     </row>
     <row r="498" spans="1:5" x14ac:dyDescent="0.2">
@@ -17598,7 +17599,7 @@
       </c>
       <c r="E498" s="18">
         <f t="shared" si="7"/>
-        <v>78</v>
+        <v>87</v>
       </c>
     </row>
     <row r="499" spans="1:5" x14ac:dyDescent="0.2">
@@ -17617,7 +17618,7 @@
       </c>
       <c r="E499" s="18">
         <f t="shared" si="7"/>
-        <v>79</v>
+        <v>87</v>
       </c>
     </row>
     <row r="500" spans="1:5" x14ac:dyDescent="0.2">
@@ -17636,7 +17637,7 @@
       </c>
       <c r="E500" s="18">
         <f t="shared" si="7"/>
-        <v>79</v>
+        <v>88</v>
       </c>
     </row>
     <row r="501" spans="1:5" x14ac:dyDescent="0.2">
@@ -17655,7 +17656,7 @@
       </c>
       <c r="E501" s="18">
         <f t="shared" si="7"/>
-        <v>79</v>
+        <v>88</v>
       </c>
     </row>
     <row r="502" spans="1:5" x14ac:dyDescent="0.2">
@@ -17674,7 +17675,7 @@
       </c>
       <c r="E502" s="18">
         <f t="shared" si="7"/>
-        <v>79</v>
+        <v>88</v>
       </c>
     </row>
     <row r="503" spans="1:5" x14ac:dyDescent="0.2">
@@ -17693,7 +17694,7 @@
       </c>
       <c r="E503" s="18">
         <f t="shared" si="7"/>
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="504" spans="1:5" x14ac:dyDescent="0.2">
@@ -17712,7 +17713,7 @@
       </c>
       <c r="E504" s="18">
         <f t="shared" si="7"/>
-        <v>80</v>
+        <v>89</v>
       </c>
     </row>
     <row r="505" spans="1:5" x14ac:dyDescent="0.2">
@@ -17731,7 +17732,7 @@
       </c>
       <c r="E505" s="18">
         <f t="shared" si="7"/>
-        <v>80</v>
+        <v>89</v>
       </c>
     </row>
     <row r="506" spans="1:5" x14ac:dyDescent="0.2">
@@ -17750,7 +17751,7 @@
       </c>
       <c r="E506" s="18">
         <f t="shared" si="7"/>
-        <v>80</v>
+        <v>89</v>
       </c>
     </row>
     <row r="507" spans="1:5" x14ac:dyDescent="0.2">
@@ -17769,7 +17770,7 @@
       </c>
       <c r="E507" s="18">
         <f t="shared" si="7"/>
-        <v>81</v>
+        <v>89</v>
       </c>
     </row>
     <row r="508" spans="1:5" x14ac:dyDescent="0.2">
@@ -17788,7 +17789,7 @@
       </c>
       <c r="E508" s="18">
         <f t="shared" si="7"/>
-        <v>81</v>
+        <v>90</v>
       </c>
     </row>
     <row r="509" spans="1:5" x14ac:dyDescent="0.2">
@@ -17807,7 +17808,7 @@
       </c>
       <c r="E509" s="18">
         <f t="shared" si="7"/>
-        <v>81</v>
+        <v>90</v>
       </c>
     </row>
     <row r="510" spans="1:5" x14ac:dyDescent="0.2">
@@ -17826,7 +17827,7 @@
       </c>
       <c r="E510" s="18">
         <f t="shared" si="7"/>
-        <v>81</v>
+        <v>90</v>
       </c>
     </row>
     <row r="511" spans="1:5" x14ac:dyDescent="0.2">
@@ -17845,7 +17846,7 @@
       </c>
       <c r="E511" s="18">
         <f t="shared" si="7"/>
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
     <row r="512" spans="1:5" x14ac:dyDescent="0.2">
@@ -17864,7 +17865,7 @@
       </c>
       <c r="E512" s="18">
         <f t="shared" si="7"/>
-        <v>82</v>
+        <v>91</v>
       </c>
     </row>
     <row r="513" spans="1:5" x14ac:dyDescent="0.2">
@@ -17883,7 +17884,7 @@
       </c>
       <c r="E513" s="18">
         <f t="shared" si="7"/>
-        <v>82</v>
+        <v>91</v>
       </c>
     </row>
     <row r="514" spans="1:5" x14ac:dyDescent="0.2">
@@ -17902,7 +17903,7 @@
       </c>
       <c r="E514" s="18">
         <f t="shared" ref="E514:E577" si="8">IFERROR(VLOOKUP(D514,G:H,2,TRUE)+1,1)</f>
-        <v>82</v>
+        <v>91</v>
       </c>
     </row>
     <row r="515" spans="1:5" x14ac:dyDescent="0.2">
@@ -17921,7 +17922,7 @@
       </c>
       <c r="E515" s="18">
         <f t="shared" si="8"/>
-        <v>83</v>
+        <v>92</v>
       </c>
     </row>
     <row r="516" spans="1:5" x14ac:dyDescent="0.2">
@@ -17940,7 +17941,7 @@
       </c>
       <c r="E516" s="18">
         <f t="shared" si="8"/>
-        <v>83</v>
+        <v>92</v>
       </c>
     </row>
     <row r="517" spans="1:5" x14ac:dyDescent="0.2">
@@ -17959,7 +17960,7 @@
       </c>
       <c r="E517" s="18">
         <f t="shared" si="8"/>
-        <v>83</v>
+        <v>92</v>
       </c>
     </row>
     <row r="518" spans="1:5" x14ac:dyDescent="0.2">
@@ -17978,7 +17979,7 @@
       </c>
       <c r="E518" s="18">
         <f t="shared" si="8"/>
-        <v>84</v>
+        <v>92</v>
       </c>
     </row>
     <row r="519" spans="1:5" x14ac:dyDescent="0.2">
@@ -17997,7 +17998,7 @@
       </c>
       <c r="E519" s="18">
         <f t="shared" si="8"/>
-        <v>84</v>
+        <v>93</v>
       </c>
     </row>
     <row r="520" spans="1:5" x14ac:dyDescent="0.2">
@@ -18016,7 +18017,7 @@
       </c>
       <c r="E520" s="18">
         <f t="shared" si="8"/>
-        <v>84</v>
+        <v>93</v>
       </c>
     </row>
     <row r="521" spans="1:5" x14ac:dyDescent="0.2">
@@ -18035,7 +18036,7 @@
       </c>
       <c r="E521" s="18">
         <f t="shared" si="8"/>
-        <v>84</v>
+        <v>93</v>
       </c>
     </row>
     <row r="522" spans="1:5" x14ac:dyDescent="0.2">
@@ -18054,7 +18055,7 @@
       </c>
       <c r="E522" s="18">
         <f t="shared" si="8"/>
-        <v>85</v>
+        <v>94</v>
       </c>
     </row>
     <row r="523" spans="1:5" x14ac:dyDescent="0.2">
@@ -18073,7 +18074,7 @@
       </c>
       <c r="E523" s="18">
         <f t="shared" si="8"/>
-        <v>85</v>
+        <v>94</v>
       </c>
     </row>
     <row r="524" spans="1:5" x14ac:dyDescent="0.2">
@@ -18092,7 +18093,7 @@
       </c>
       <c r="E524" s="18">
         <f t="shared" si="8"/>
-        <v>85</v>
+        <v>94</v>
       </c>
     </row>
     <row r="525" spans="1:5" x14ac:dyDescent="0.2">
@@ -18111,7 +18112,7 @@
       </c>
       <c r="E525" s="18">
         <f t="shared" si="8"/>
-        <v>86</v>
+        <v>95</v>
       </c>
     </row>
     <row r="526" spans="1:5" x14ac:dyDescent="0.2">
@@ -18130,7 +18131,7 @@
       </c>
       <c r="E526" s="18">
         <f t="shared" si="8"/>
-        <v>86</v>
+        <v>95</v>
       </c>
     </row>
     <row r="527" spans="1:5" x14ac:dyDescent="0.2">
@@ -18149,7 +18150,7 @@
       </c>
       <c r="E527" s="18">
         <f t="shared" si="8"/>
-        <v>86</v>
+        <v>95</v>
       </c>
     </row>
     <row r="528" spans="1:5" x14ac:dyDescent="0.2">
@@ -18168,7 +18169,7 @@
       </c>
       <c r="E528" s="18">
         <f t="shared" si="8"/>
-        <v>87</v>
+        <v>96</v>
       </c>
     </row>
     <row r="529" spans="1:5" x14ac:dyDescent="0.2">
@@ -18187,7 +18188,7 @@
       </c>
       <c r="E529" s="18">
         <f t="shared" si="8"/>
-        <v>87</v>
+        <v>96</v>
       </c>
     </row>
     <row r="530" spans="1:5" x14ac:dyDescent="0.2">
@@ -18206,7 +18207,7 @@
       </c>
       <c r="E530" s="18">
         <f t="shared" si="8"/>
-        <v>87</v>
+        <v>96</v>
       </c>
     </row>
     <row r="531" spans="1:5" x14ac:dyDescent="0.2">
@@ -18225,7 +18226,7 @@
       </c>
       <c r="E531" s="18">
         <f t="shared" si="8"/>
-        <v>87</v>
+        <v>97</v>
       </c>
     </row>
     <row r="532" spans="1:5" x14ac:dyDescent="0.2">
@@ -18244,7 +18245,7 @@
       </c>
       <c r="E532" s="18">
         <f t="shared" si="8"/>
-        <v>88</v>
+        <v>97</v>
       </c>
     </row>
     <row r="533" spans="1:5" x14ac:dyDescent="0.2">
@@ -18263,7 +18264,7 @@
       </c>
       <c r="E533" s="18">
         <f t="shared" si="8"/>
-        <v>88</v>
+        <v>97</v>
       </c>
     </row>
     <row r="534" spans="1:5" x14ac:dyDescent="0.2">
@@ -18282,7 +18283,7 @@
       </c>
       <c r="E534" s="18">
         <f t="shared" si="8"/>
-        <v>88</v>
+        <v>98</v>
       </c>
     </row>
     <row r="535" spans="1:5" x14ac:dyDescent="0.2">
@@ -18301,7 +18302,7 @@
       </c>
       <c r="E535" s="18">
         <f t="shared" si="8"/>
-        <v>89</v>
+        <v>98</v>
       </c>
     </row>
     <row r="536" spans="1:5" x14ac:dyDescent="0.2">
@@ -18320,7 +18321,7 @@
       </c>
       <c r="E536" s="18">
         <f t="shared" si="8"/>
-        <v>89</v>
+        <v>98</v>
       </c>
     </row>
     <row r="537" spans="1:5" x14ac:dyDescent="0.2">
@@ -18339,7 +18340,7 @@
       </c>
       <c r="E537" s="18">
         <f t="shared" si="8"/>
-        <v>89</v>
+        <v>99</v>
       </c>
     </row>
     <row r="538" spans="1:5" x14ac:dyDescent="0.2">
@@ -18358,7 +18359,7 @@
       </c>
       <c r="E538" s="18">
         <f t="shared" si="8"/>
-        <v>90</v>
+        <v>99</v>
       </c>
     </row>
     <row r="539" spans="1:5" x14ac:dyDescent="0.2">
@@ -18377,7 +18378,7 @@
       </c>
       <c r="E539" s="18">
         <f t="shared" si="8"/>
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="540" spans="1:5" x14ac:dyDescent="0.2">
@@ -18396,7 +18397,7 @@
       </c>
       <c r="E540" s="18">
         <f t="shared" si="8"/>
-        <v>91</v>
+        <v>100</v>
       </c>
     </row>
     <row r="541" spans="1:5" x14ac:dyDescent="0.2">
@@ -18415,7 +18416,7 @@
       </c>
       <c r="E541" s="18">
         <f t="shared" si="8"/>
-        <v>91</v>
+        <v>100</v>
       </c>
     </row>
     <row r="542" spans="1:5" x14ac:dyDescent="0.2">
@@ -18434,7 +18435,7 @@
       </c>
       <c r="E542" s="18">
         <f t="shared" si="8"/>
-        <v>91</v>
+        <v>101</v>
       </c>
     </row>
     <row r="543" spans="1:5" x14ac:dyDescent="0.2">
@@ -18453,7 +18454,7 @@
       </c>
       <c r="E543" s="18">
         <f t="shared" si="8"/>
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="544" spans="1:5" x14ac:dyDescent="0.2">
@@ -18472,7 +18473,7 @@
       </c>
       <c r="E544" s="18">
         <f t="shared" si="8"/>
-        <v>92</v>
+        <v>102</v>
       </c>
     </row>
     <row r="545" spans="1:5" x14ac:dyDescent="0.2">
@@ -18491,7 +18492,7 @@
       </c>
       <c r="E545" s="18">
         <f t="shared" si="8"/>
-        <v>93</v>
+        <v>102</v>
       </c>
     </row>
     <row r="546" spans="1:5" x14ac:dyDescent="0.2">
@@ -18510,7 +18511,7 @@
       </c>
       <c r="E546" s="18">
         <f t="shared" si="8"/>
-        <v>93</v>
+        <v>102</v>
       </c>
     </row>
     <row r="547" spans="1:5" x14ac:dyDescent="0.2">
@@ -18529,7 +18530,7 @@
       </c>
       <c r="E547" s="18">
         <f t="shared" si="8"/>
-        <v>93</v>
+        <v>103</v>
       </c>
     </row>
     <row r="548" spans="1:5" x14ac:dyDescent="0.2">
@@ -18548,7 +18549,7 @@
       </c>
       <c r="E548" s="18">
         <f t="shared" si="8"/>
-        <v>94</v>
+        <v>103</v>
       </c>
     </row>
     <row r="549" spans="1:5" x14ac:dyDescent="0.2">
@@ -18567,7 +18568,7 @@
       </c>
       <c r="E549" s="18">
         <f t="shared" si="8"/>
-        <v>94</v>
+        <v>104</v>
       </c>
     </row>
     <row r="550" spans="1:5" x14ac:dyDescent="0.2">
@@ -18586,7 +18587,7 @@
       </c>
       <c r="E550" s="18">
         <f t="shared" si="8"/>
-        <v>94</v>
+        <v>104</v>
       </c>
     </row>
     <row r="551" spans="1:5" x14ac:dyDescent="0.2">
@@ -18605,7 +18606,7 @@
       </c>
       <c r="E551" s="18">
         <f t="shared" si="8"/>
-        <v>95</v>
+        <v>104</v>
       </c>
     </row>
     <row r="552" spans="1:5" x14ac:dyDescent="0.2">
@@ -18624,7 +18625,7 @@
       </c>
       <c r="E552" s="18">
         <f t="shared" si="8"/>
-        <v>95</v>
+        <v>105</v>
       </c>
     </row>
     <row r="553" spans="1:5" x14ac:dyDescent="0.2">
@@ -18643,7 +18644,7 @@
       </c>
       <c r="E553" s="18">
         <f t="shared" si="8"/>
-        <v>96</v>
+        <v>105</v>
       </c>
     </row>
     <row r="554" spans="1:5" x14ac:dyDescent="0.2">
@@ -18662,7 +18663,7 @@
       </c>
       <c r="E554" s="18">
         <f t="shared" si="8"/>
-        <v>96</v>
+        <v>106</v>
       </c>
     </row>
     <row r="555" spans="1:5" x14ac:dyDescent="0.2">
@@ -18681,7 +18682,7 @@
       </c>
       <c r="E555" s="18">
         <f t="shared" si="8"/>
-        <v>97</v>
+        <v>106</v>
       </c>
     </row>
     <row r="556" spans="1:5" x14ac:dyDescent="0.2">
@@ -18700,7 +18701,7 @@
       </c>
       <c r="E556" s="18">
         <f t="shared" si="8"/>
-        <v>97</v>
+        <v>107</v>
       </c>
     </row>
     <row r="557" spans="1:5" x14ac:dyDescent="0.2">
@@ -18719,7 +18720,7 @@
       </c>
       <c r="E557" s="18">
         <f t="shared" si="8"/>
-        <v>97</v>
+        <v>107</v>
       </c>
     </row>
     <row r="558" spans="1:5" x14ac:dyDescent="0.2">
@@ -18738,7 +18739,7 @@
       </c>
       <c r="E558" s="18">
         <f t="shared" si="8"/>
-        <v>98</v>
+        <v>108</v>
       </c>
     </row>
     <row r="559" spans="1:5" x14ac:dyDescent="0.2">
@@ -18757,7 +18758,7 @@
       </c>
       <c r="E559" s="18">
         <f t="shared" si="8"/>
-        <v>98</v>
+        <v>108</v>
       </c>
     </row>
     <row r="560" spans="1:5" x14ac:dyDescent="0.2">
@@ -18776,7 +18777,7 @@
       </c>
       <c r="E560" s="18">
         <f t="shared" si="8"/>
-        <v>99</v>
+        <v>109</v>
       </c>
     </row>
     <row r="561" spans="1:5" x14ac:dyDescent="0.2">
@@ -18795,7 +18796,7 @@
       </c>
       <c r="E561" s="18">
         <f t="shared" si="8"/>
-        <v>99</v>
+        <v>109</v>
       </c>
     </row>
     <row r="562" spans="1:5" x14ac:dyDescent="0.2">
@@ -18814,7 +18815,7 @@
       </c>
       <c r="E562" s="18">
         <f t="shared" si="8"/>
-        <v>99</v>
+        <v>109</v>
       </c>
     </row>
     <row r="563" spans="1:5" x14ac:dyDescent="0.2">
@@ -18833,7 +18834,7 @@
       </c>
       <c r="E563" s="18">
         <f t="shared" si="8"/>
-        <v>100</v>
+        <v>110</v>
       </c>
     </row>
     <row r="564" spans="1:5" x14ac:dyDescent="0.2">
@@ -18852,7 +18853,7 @@
       </c>
       <c r="E564" s="18">
         <f t="shared" si="8"/>
-        <v>100</v>
+        <v>110</v>
       </c>
     </row>
     <row r="565" spans="1:5" x14ac:dyDescent="0.2">
@@ -18871,7 +18872,7 @@
       </c>
       <c r="E565" s="18">
         <f t="shared" si="8"/>
-        <v>101</v>
+        <v>111</v>
       </c>
     </row>
     <row r="566" spans="1:5" x14ac:dyDescent="0.2">
@@ -18890,7 +18891,7 @@
       </c>
       <c r="E566" s="18">
         <f t="shared" si="8"/>
-        <v>101</v>
+        <v>111</v>
       </c>
     </row>
     <row r="567" spans="1:5" x14ac:dyDescent="0.2">
@@ -18909,7 +18910,7 @@
       </c>
       <c r="E567" s="18">
         <f t="shared" si="8"/>
-        <v>102</v>
+        <v>112</v>
       </c>
     </row>
     <row r="568" spans="1:5" x14ac:dyDescent="0.2">
@@ -18928,7 +18929,7 @@
       </c>
       <c r="E568" s="18">
         <f t="shared" si="8"/>
-        <v>102</v>
+        <v>112</v>
       </c>
     </row>
     <row r="569" spans="1:5" x14ac:dyDescent="0.2">
@@ -18947,7 +18948,7 @@
       </c>
       <c r="E569" s="18">
         <f t="shared" si="8"/>
-        <v>103</v>
+        <v>113</v>
       </c>
     </row>
     <row r="570" spans="1:5" x14ac:dyDescent="0.2">
@@ -18966,7 +18967,7 @@
       </c>
       <c r="E570" s="18">
         <f t="shared" si="8"/>
-        <v>103</v>
+        <v>113</v>
       </c>
     </row>
     <row r="571" spans="1:5" x14ac:dyDescent="0.2">
@@ -18985,7 +18986,7 @@
       </c>
       <c r="E571" s="18">
         <f t="shared" si="8"/>
-        <v>104</v>
+        <v>114</v>
       </c>
     </row>
     <row r="572" spans="1:5" x14ac:dyDescent="0.2">
@@ -19004,7 +19005,7 @@
       </c>
       <c r="E572" s="18">
         <f t="shared" si="8"/>
-        <v>104</v>
+        <v>114</v>
       </c>
     </row>
     <row r="573" spans="1:5" x14ac:dyDescent="0.2">
@@ -19023,7 +19024,7 @@
       </c>
       <c r="E573" s="18">
         <f t="shared" si="8"/>
-        <v>104</v>
+        <v>115</v>
       </c>
     </row>
     <row r="574" spans="1:5" x14ac:dyDescent="0.2">
@@ -19042,7 +19043,7 @@
       </c>
       <c r="E574" s="18">
         <f t="shared" si="8"/>
-        <v>105</v>
+        <v>115</v>
       </c>
     </row>
     <row r="575" spans="1:5" x14ac:dyDescent="0.2">
@@ -19061,7 +19062,7 @@
       </c>
       <c r="E575" s="18">
         <f t="shared" si="8"/>
-        <v>105</v>
+        <v>116</v>
       </c>
     </row>
     <row r="576" spans="1:5" x14ac:dyDescent="0.2">
@@ -19080,7 +19081,7 @@
       </c>
       <c r="E576" s="18">
         <f t="shared" si="8"/>
-        <v>106</v>
+        <v>116</v>
       </c>
     </row>
     <row r="577" spans="1:5" x14ac:dyDescent="0.2">
@@ -19099,7 +19100,7 @@
       </c>
       <c r="E577" s="18">
         <f t="shared" si="8"/>
-        <v>106</v>
+        <v>117</v>
       </c>
     </row>
     <row r="578" spans="1:5" x14ac:dyDescent="0.2">
@@ -19117,8 +19118,8 @@
         <v>3174275</v>
       </c>
       <c r="E578" s="18">
-        <f t="shared" ref="E578:E641" si="9">IFERROR(VLOOKUP(D578,G:H,2,TRUE)+1,1)</f>
-        <v>107</v>
+        <f t="shared" ref="E578:E601" si="9">IFERROR(VLOOKUP(D578,G:H,2,TRUE)+1,1)</f>
+        <v>117</v>
       </c>
     </row>
     <row r="579" spans="1:5" x14ac:dyDescent="0.2">
@@ -19137,7 +19138,7 @@
       </c>
       <c r="E579" s="18">
         <f t="shared" si="9"/>
-        <v>107</v>
+        <v>118</v>
       </c>
     </row>
     <row r="580" spans="1:5" x14ac:dyDescent="0.2">
@@ -19156,7 +19157,7 @@
       </c>
       <c r="E580" s="18">
         <f t="shared" si="9"/>
-        <v>108</v>
+        <v>118</v>
       </c>
     </row>
     <row r="581" spans="1:5" x14ac:dyDescent="0.2">
@@ -19175,7 +19176,7 @@
       </c>
       <c r="E581" s="18">
         <f t="shared" si="9"/>
-        <v>108</v>
+        <v>118</v>
       </c>
     </row>
     <row r="582" spans="1:5" x14ac:dyDescent="0.2">
@@ -19194,7 +19195,7 @@
       </c>
       <c r="E582" s="18">
         <f t="shared" si="9"/>
-        <v>108</v>
+        <v>119</v>
       </c>
     </row>
     <row r="583" spans="1:5" x14ac:dyDescent="0.2">
@@ -19213,7 +19214,7 @@
       </c>
       <c r="E583" s="18">
         <f t="shared" si="9"/>
-        <v>109</v>
+        <v>119</v>
       </c>
     </row>
     <row r="584" spans="1:5" x14ac:dyDescent="0.2">
@@ -19232,7 +19233,7 @@
       </c>
       <c r="E584" s="18">
         <f t="shared" si="9"/>
-        <v>109</v>
+        <v>120</v>
       </c>
     </row>
     <row r="585" spans="1:5" x14ac:dyDescent="0.2">
@@ -19251,7 +19252,7 @@
       </c>
       <c r="E585" s="18">
         <f t="shared" si="9"/>
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="586" spans="1:5" x14ac:dyDescent="0.2">
@@ -19270,7 +19271,7 @@
       </c>
       <c r="E586" s="18">
         <f t="shared" si="9"/>
-        <v>110</v>
+        <v>121</v>
       </c>
     </row>
     <row r="587" spans="1:5" x14ac:dyDescent="0.2">
@@ -19289,7 +19290,7 @@
       </c>
       <c r="E587" s="18">
         <f t="shared" si="9"/>
-        <v>111</v>
+        <v>121</v>
       </c>
     </row>
     <row r="588" spans="1:5" x14ac:dyDescent="0.2">
@@ -19308,7 +19309,7 @@
       </c>
       <c r="E588" s="18">
         <f t="shared" si="9"/>
-        <v>111</v>
+        <v>122</v>
       </c>
     </row>
     <row r="589" spans="1:5" x14ac:dyDescent="0.2">
@@ -19327,7 +19328,7 @@
       </c>
       <c r="E589" s="18">
         <f t="shared" si="9"/>
-        <v>111</v>
+        <v>122</v>
       </c>
     </row>
     <row r="590" spans="1:5" x14ac:dyDescent="0.2">
@@ -19346,7 +19347,7 @@
       </c>
       <c r="E590" s="18">
         <f t="shared" si="9"/>
-        <v>112</v>
+        <v>122</v>
       </c>
     </row>
     <row r="591" spans="1:5" x14ac:dyDescent="0.2">
@@ -19365,7 +19366,7 @@
       </c>
       <c r="E591" s="18">
         <f t="shared" si="9"/>
-        <v>112</v>
+        <v>123</v>
       </c>
     </row>
     <row r="592" spans="1:5" x14ac:dyDescent="0.2">
@@ -19384,7 +19385,7 @@
       </c>
       <c r="E592" s="18">
         <f t="shared" si="9"/>
-        <v>113</v>
+        <v>123</v>
       </c>
     </row>
     <row r="593" spans="1:5" x14ac:dyDescent="0.2">
@@ -19403,7 +19404,7 @@
       </c>
       <c r="E593" s="18">
         <f t="shared" si="9"/>
-        <v>113</v>
+        <v>124</v>
       </c>
     </row>
     <row r="594" spans="1:5" x14ac:dyDescent="0.2">
@@ -19422,7 +19423,7 @@
       </c>
       <c r="E594" s="18">
         <f t="shared" si="9"/>
-        <v>114</v>
+        <v>124</v>
       </c>
     </row>
     <row r="595" spans="1:5" x14ac:dyDescent="0.2">
@@ -19441,7 +19442,7 @@
       </c>
       <c r="E595" s="18">
         <f t="shared" si="9"/>
-        <v>114</v>
+        <v>124</v>
       </c>
     </row>
     <row r="596" spans="1:5" x14ac:dyDescent="0.2">
@@ -19460,7 +19461,7 @@
       </c>
       <c r="E596" s="18">
         <f t="shared" si="9"/>
-        <v>114</v>
+        <v>125</v>
       </c>
     </row>
     <row r="597" spans="1:5" x14ac:dyDescent="0.2">
@@ -19479,7 +19480,7 @@
       </c>
       <c r="E597" s="18">
         <f t="shared" si="9"/>
-        <v>115</v>
+        <v>125</v>
       </c>
     </row>
     <row r="598" spans="1:5" x14ac:dyDescent="0.2">
@@ -19498,7 +19499,7 @@
       </c>
       <c r="E598" s="18">
         <f t="shared" si="9"/>
-        <v>115</v>
+        <v>126</v>
       </c>
     </row>
     <row r="599" spans="1:5" x14ac:dyDescent="0.2">
@@ -19517,7 +19518,7 @@
       </c>
       <c r="E599" s="18">
         <f t="shared" si="9"/>
-        <v>116</v>
+        <v>126</v>
       </c>
     </row>
     <row r="600" spans="1:5" x14ac:dyDescent="0.2">
@@ -19536,7 +19537,7 @@
       </c>
       <c r="E600" s="18">
         <f t="shared" si="9"/>
-        <v>116</v>
+        <v>127</v>
       </c>
     </row>
     <row r="601" spans="1:5" x14ac:dyDescent="0.2">
@@ -19555,7 +19556,7 @@
       </c>
       <c r="E601" s="18">
         <f t="shared" si="9"/>
-        <v>117</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -19565,7 +19566,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -20565,7 +20566,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -20678,7 +20679,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
